--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mygithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C0CE3-F17F-44E1-B6B4-C2576D4F5414}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD19607-E547-45CE-9241-C23F58BFB1DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1714">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -7008,7 +7008,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7024,6 +7024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,7 +7079,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7259,18 +7265,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7281,7 +7275,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8215,80 +8224,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
@@ -8336,7 +8345,7 @@
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
-      <c r="AH3" s="67" t="s">
+      <c r="AH3" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9639,118 +9648,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="62"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
-      <c r="AH37" s="62"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="63" t="s">
@@ -9798,7 +9807,7 @@
       <c r="AE38" s="63"/>
       <c r="AF38" s="63"/>
       <c r="AG38" s="63"/>
-      <c r="AH38" s="67" t="s">
+      <c r="AH38" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12261,119 +12270,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="66"/>
-      <c r="M99" s="66"/>
-      <c r="N99" s="66"/>
-      <c r="O99" s="66"/>
-      <c r="P99" s="66"/>
-      <c r="Q99" s="66"/>
-      <c r="R99" s="66"/>
-      <c r="S99" s="66"/>
-      <c r="T99" s="66"/>
-      <c r="U99" s="66"/>
-      <c r="V99" s="66"/>
-      <c r="W99" s="66"/>
-      <c r="X99" s="66"/>
-      <c r="Y99" s="66"/>
-      <c r="Z99" s="66"/>
-      <c r="AA99" s="66"/>
-      <c r="AB99" s="66"/>
-      <c r="AC99" s="66"/>
-      <c r="AD99" s="66"/>
-      <c r="AE99" s="66"/>
-      <c r="AF99" s="66"/>
-      <c r="AG99" s="66"/>
-      <c r="AH99" s="66"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="62"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="62"/>
+      <c r="S99" s="62"/>
+      <c r="T99" s="62"/>
+      <c r="U99" s="62"/>
+      <c r="V99" s="62"/>
+      <c r="W99" s="62"/>
+      <c r="X99" s="62"/>
+      <c r="Y99" s="62"/>
+      <c r="Z99" s="62"/>
+      <c r="AA99" s="62"/>
+      <c r="AB99" s="62"/>
+      <c r="AC99" s="62"/>
+      <c r="AD99" s="62"/>
+      <c r="AE99" s="62"/>
+      <c r="AF99" s="62"/>
+      <c r="AG99" s="62"/>
+      <c r="AH99" s="62"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="60" t="s">
+      <c r="A101" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="60"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="60"/>
-      <c r="P101" s="60"/>
-      <c r="Q101" s="60"/>
-      <c r="R101" s="60"/>
-      <c r="S101" s="60"/>
-      <c r="T101" s="60"/>
-      <c r="U101" s="60"/>
-      <c r="V101" s="60"/>
-      <c r="W101" s="60"/>
-      <c r="X101" s="60"/>
-      <c r="Y101" s="60"/>
-      <c r="Z101" s="60"/>
-      <c r="AA101" s="60"/>
-      <c r="AB101" s="60"/>
-      <c r="AC101" s="60"/>
-      <c r="AD101" s="60"/>
-      <c r="AE101" s="60"/>
-      <c r="AF101" s="60"/>
-      <c r="AG101" s="60"/>
-      <c r="AH101" s="60"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="65"/>
+      <c r="V101" s="65"/>
+      <c r="W101" s="65"/>
+      <c r="X101" s="65"/>
+      <c r="Y101" s="65"/>
+      <c r="Z101" s="65"/>
+      <c r="AA101" s="65"/>
+      <c r="AB101" s="65"/>
+      <c r="AC101" s="65"/>
+      <c r="AD101" s="65"/>
+      <c r="AE101" s="65"/>
+      <c r="AF101" s="65"/>
+      <c r="AG101" s="65"/>
+      <c r="AH101" s="65"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="62"/>
-      <c r="S102" s="62"/>
-      <c r="T102" s="62"/>
-      <c r="U102" s="62"/>
-      <c r="V102" s="62"/>
-      <c r="W102" s="62"/>
-      <c r="X102" s="62"/>
-      <c r="Y102" s="62"/>
-      <c r="Z102" s="62"/>
-      <c r="AA102" s="62"/>
-      <c r="AB102" s="62"/>
-      <c r="AC102" s="62"/>
-      <c r="AD102" s="62"/>
-      <c r="AE102" s="62"/>
-      <c r="AF102" s="62"/>
-      <c r="AG102" s="62"/>
-      <c r="AH102" s="62"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="67"/>
+      <c r="N102" s="67"/>
+      <c r="O102" s="67"/>
+      <c r="P102" s="67"/>
+      <c r="Q102" s="67"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
+      <c r="W102" s="67"/>
+      <c r="X102" s="67"/>
+      <c r="Y102" s="67"/>
+      <c r="Z102" s="67"/>
+      <c r="AA102" s="67"/>
+      <c r="AB102" s="67"/>
+      <c r="AC102" s="67"/>
+      <c r="AD102" s="67"/>
+      <c r="AE102" s="67"/>
+      <c r="AF102" s="67"/>
+      <c r="AG102" s="67"/>
+      <c r="AH102" s="67"/>
     </row>
     <row r="103" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="63" t="s">
@@ -12421,7 +12430,7 @@
       <c r="AE103" s="63"/>
       <c r="AF103" s="63"/>
       <c r="AG103" s="63"/>
-      <c r="AH103" s="67" t="s">
+      <c r="AH103" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15044,118 +15053,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="64" t="s">
+      <c r="A168" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="65"/>
-      <c r="C168" s="66"/>
-      <c r="D168" s="66"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="66"/>
-      <c r="G168" s="66"/>
-      <c r="H168" s="66"/>
-      <c r="I168" s="66"/>
-      <c r="J168" s="66"/>
-      <c r="K168" s="66"/>
-      <c r="L168" s="66"/>
-      <c r="M168" s="66"/>
-      <c r="N168" s="66"/>
-      <c r="O168" s="66"/>
-      <c r="P168" s="66"/>
-      <c r="Q168" s="66"/>
-      <c r="R168" s="66"/>
-      <c r="S168" s="66"/>
-      <c r="T168" s="66"/>
-      <c r="U168" s="66"/>
-      <c r="V168" s="66"/>
-      <c r="W168" s="66"/>
-      <c r="X168" s="66"/>
-      <c r="Y168" s="66"/>
-      <c r="Z168" s="66"/>
-      <c r="AA168" s="66"/>
-      <c r="AB168" s="66"/>
-      <c r="AC168" s="66"/>
-      <c r="AD168" s="66"/>
-      <c r="AE168" s="66"/>
-      <c r="AF168" s="66"/>
-      <c r="AG168" s="66"/>
-      <c r="AH168" s="66"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="62"/>
+      <c r="D168" s="62"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="62"/>
+      <c r="G168" s="62"/>
+      <c r="H168" s="62"/>
+      <c r="I168" s="62"/>
+      <c r="J168" s="62"/>
+      <c r="K168" s="62"/>
+      <c r="L168" s="62"/>
+      <c r="M168" s="62"/>
+      <c r="N168" s="62"/>
+      <c r="O168" s="62"/>
+      <c r="P168" s="62"/>
+      <c r="Q168" s="62"/>
+      <c r="R168" s="62"/>
+      <c r="S168" s="62"/>
+      <c r="T168" s="62"/>
+      <c r="U168" s="62"/>
+      <c r="V168" s="62"/>
+      <c r="W168" s="62"/>
+      <c r="X168" s="62"/>
+      <c r="Y168" s="62"/>
+      <c r="Z168" s="62"/>
+      <c r="AA168" s="62"/>
+      <c r="AB168" s="62"/>
+      <c r="AC168" s="62"/>
+      <c r="AD168" s="62"/>
+      <c r="AE168" s="62"/>
+      <c r="AF168" s="62"/>
+      <c r="AG168" s="62"/>
+      <c r="AH168" s="62"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="60" t="s">
+      <c r="A169" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="60"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="60"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="60"/>
-      <c r="N169" s="60"/>
-      <c r="O169" s="60"/>
-      <c r="P169" s="60"/>
-      <c r="Q169" s="60"/>
-      <c r="R169" s="60"/>
-      <c r="S169" s="60"/>
-      <c r="T169" s="60"/>
-      <c r="U169" s="60"/>
-      <c r="V169" s="60"/>
-      <c r="W169" s="60"/>
-      <c r="X169" s="60"/>
-      <c r="Y169" s="60"/>
-      <c r="Z169" s="60"/>
-      <c r="AA169" s="60"/>
-      <c r="AB169" s="60"/>
-      <c r="AC169" s="60"/>
-      <c r="AD169" s="60"/>
-      <c r="AE169" s="60"/>
-      <c r="AF169" s="60"/>
-      <c r="AG169" s="60"/>
-      <c r="AH169" s="60"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="65"/>
+      <c r="G169" s="65"/>
+      <c r="H169" s="65"/>
+      <c r="I169" s="65"/>
+      <c r="J169" s="65"/>
+      <c r="K169" s="65"/>
+      <c r="L169" s="65"/>
+      <c r="M169" s="65"/>
+      <c r="N169" s="65"/>
+      <c r="O169" s="65"/>
+      <c r="P169" s="65"/>
+      <c r="Q169" s="65"/>
+      <c r="R169" s="65"/>
+      <c r="S169" s="65"/>
+      <c r="T169" s="65"/>
+      <c r="U169" s="65"/>
+      <c r="V169" s="65"/>
+      <c r="W169" s="65"/>
+      <c r="X169" s="65"/>
+      <c r="Y169" s="65"/>
+      <c r="Z169" s="65"/>
+      <c r="AA169" s="65"/>
+      <c r="AB169" s="65"/>
+      <c r="AC169" s="65"/>
+      <c r="AD169" s="65"/>
+      <c r="AE169" s="65"/>
+      <c r="AF169" s="65"/>
+      <c r="AG169" s="65"/>
+      <c r="AH169" s="65"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="61" t="s">
+      <c r="A170" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="61"/>
-      <c r="C170" s="62"/>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="62"/>
-      <c r="G170" s="62"/>
-      <c r="H170" s="62"/>
-      <c r="I170" s="62"/>
-      <c r="J170" s="62"/>
-      <c r="K170" s="62"/>
-      <c r="L170" s="62"/>
-      <c r="M170" s="62"/>
-      <c r="N170" s="62"/>
-      <c r="O170" s="62"/>
-      <c r="P170" s="62"/>
-      <c r="Q170" s="62"/>
-      <c r="R170" s="62"/>
-      <c r="S170" s="62"/>
-      <c r="T170" s="62"/>
-      <c r="U170" s="62"/>
-      <c r="V170" s="62"/>
-      <c r="W170" s="62"/>
-      <c r="X170" s="62"/>
-      <c r="Y170" s="62"/>
-      <c r="Z170" s="62"/>
-      <c r="AA170" s="62"/>
-      <c r="AB170" s="62"/>
-      <c r="AC170" s="62"/>
-      <c r="AD170" s="62"/>
-      <c r="AE170" s="62"/>
-      <c r="AF170" s="62"/>
-      <c r="AG170" s="62"/>
-      <c r="AH170" s="62"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="67"/>
+      <c r="M170" s="67"/>
+      <c r="N170" s="67"/>
+      <c r="O170" s="67"/>
+      <c r="P170" s="67"/>
+      <c r="Q170" s="67"/>
+      <c r="R170" s="67"/>
+      <c r="S170" s="67"/>
+      <c r="T170" s="67"/>
+      <c r="U170" s="67"/>
+      <c r="V170" s="67"/>
+      <c r="W170" s="67"/>
+      <c r="X170" s="67"/>
+      <c r="Y170" s="67"/>
+      <c r="Z170" s="67"/>
+      <c r="AA170" s="67"/>
+      <c r="AB170" s="67"/>
+      <c r="AC170" s="67"/>
+      <c r="AD170" s="67"/>
+      <c r="AE170" s="67"/>
+      <c r="AF170" s="67"/>
+      <c r="AG170" s="67"/>
+      <c r="AH170" s="67"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="63" t="s">
@@ -15203,7 +15212,7 @@
       <c r="AE171" s="63"/>
       <c r="AF171" s="63"/>
       <c r="AG171" s="63"/>
-      <c r="AH171" s="67" t="s">
+      <c r="AH171" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16786,42 +16795,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="64" t="s">
+      <c r="A210" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="65"/>
-      <c r="C210" s="66"/>
-      <c r="D210" s="66"/>
-      <c r="E210" s="66"/>
-      <c r="F210" s="66"/>
-      <c r="G210" s="66"/>
-      <c r="H210" s="66"/>
-      <c r="I210" s="66"/>
-      <c r="J210" s="66"/>
-      <c r="K210" s="66"/>
-      <c r="L210" s="66"/>
-      <c r="M210" s="66"/>
-      <c r="N210" s="66"/>
-      <c r="O210" s="66"/>
-      <c r="P210" s="66"/>
-      <c r="Q210" s="66"/>
-      <c r="R210" s="66"/>
-      <c r="S210" s="66"/>
-      <c r="T210" s="66"/>
-      <c r="U210" s="66"/>
-      <c r="V210" s="66"/>
-      <c r="W210" s="66"/>
-      <c r="X210" s="66"/>
-      <c r="Y210" s="66"/>
-      <c r="Z210" s="66"/>
-      <c r="AA210" s="66"/>
-      <c r="AB210" s="66"/>
-      <c r="AC210" s="66"/>
-      <c r="AD210" s="66"/>
-      <c r="AE210" s="66"/>
-      <c r="AF210" s="66"/>
-      <c r="AG210" s="66"/>
-      <c r="AH210" s="66"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="62"/>
+      <c r="D210" s="62"/>
+      <c r="E210" s="62"/>
+      <c r="F210" s="62"/>
+      <c r="G210" s="62"/>
+      <c r="H210" s="62"/>
+      <c r="I210" s="62"/>
+      <c r="J210" s="62"/>
+      <c r="K210" s="62"/>
+      <c r="L210" s="62"/>
+      <c r="M210" s="62"/>
+      <c r="N210" s="62"/>
+      <c r="O210" s="62"/>
+      <c r="P210" s="62"/>
+      <c r="Q210" s="62"/>
+      <c r="R210" s="62"/>
+      <c r="S210" s="62"/>
+      <c r="T210" s="62"/>
+      <c r="U210" s="62"/>
+      <c r="V210" s="62"/>
+      <c r="W210" s="62"/>
+      <c r="X210" s="62"/>
+      <c r="Y210" s="62"/>
+      <c r="Z210" s="62"/>
+      <c r="AA210" s="62"/>
+      <c r="AB210" s="62"/>
+      <c r="AC210" s="62"/>
+      <c r="AD210" s="62"/>
+      <c r="AE210" s="62"/>
+      <c r="AF210" s="62"/>
+      <c r="AG210" s="62"/>
+      <c r="AH210" s="62"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="39"/>
@@ -16860,80 +16869,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="60" t="s">
+      <c r="A212" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="60"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="60"/>
-      <c r="H212" s="60"/>
-      <c r="I212" s="60"/>
-      <c r="J212" s="60"/>
-      <c r="K212" s="60"/>
-      <c r="L212" s="60"/>
-      <c r="M212" s="60"/>
-      <c r="N212" s="60"/>
-      <c r="O212" s="60"/>
-      <c r="P212" s="60"/>
-      <c r="Q212" s="60"/>
-      <c r="R212" s="60"/>
-      <c r="S212" s="60"/>
-      <c r="T212" s="60"/>
-      <c r="U212" s="60"/>
-      <c r="V212" s="60"/>
-      <c r="W212" s="60"/>
-      <c r="X212" s="60"/>
-      <c r="Y212" s="60"/>
-      <c r="Z212" s="60"/>
-      <c r="AA212" s="60"/>
-      <c r="AB212" s="60"/>
-      <c r="AC212" s="60"/>
-      <c r="AD212" s="60"/>
-      <c r="AE212" s="60"/>
-      <c r="AF212" s="60"/>
-      <c r="AG212" s="60"/>
-      <c r="AH212" s="60"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
+      <c r="L212" s="65"/>
+      <c r="M212" s="65"/>
+      <c r="N212" s="65"/>
+      <c r="O212" s="65"/>
+      <c r="P212" s="65"/>
+      <c r="Q212" s="65"/>
+      <c r="R212" s="65"/>
+      <c r="S212" s="65"/>
+      <c r="T212" s="65"/>
+      <c r="U212" s="65"/>
+      <c r="V212" s="65"/>
+      <c r="W212" s="65"/>
+      <c r="X212" s="65"/>
+      <c r="Y212" s="65"/>
+      <c r="Z212" s="65"/>
+      <c r="AA212" s="65"/>
+      <c r="AB212" s="65"/>
+      <c r="AC212" s="65"/>
+      <c r="AD212" s="65"/>
+      <c r="AE212" s="65"/>
+      <c r="AF212" s="65"/>
+      <c r="AG212" s="65"/>
+      <c r="AH212" s="65"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="61" t="s">
+      <c r="A213" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="61"/>
-      <c r="C213" s="61"/>
-      <c r="D213" s="61"/>
-      <c r="E213" s="61"/>
-      <c r="F213" s="61"/>
-      <c r="G213" s="61"/>
-      <c r="H213" s="61"/>
-      <c r="I213" s="61"/>
-      <c r="J213" s="61"/>
-      <c r="K213" s="61"/>
-      <c r="L213" s="61"/>
-      <c r="M213" s="61"/>
-      <c r="N213" s="61"/>
-      <c r="O213" s="61"/>
-      <c r="P213" s="61"/>
-      <c r="Q213" s="61"/>
-      <c r="R213" s="61"/>
-      <c r="S213" s="61"/>
-      <c r="T213" s="61"/>
-      <c r="U213" s="61"/>
-      <c r="V213" s="61"/>
-      <c r="W213" s="61"/>
-      <c r="X213" s="61"/>
-      <c r="Y213" s="61"/>
-      <c r="Z213" s="61"/>
-      <c r="AA213" s="61"/>
-      <c r="AB213" s="61"/>
-      <c r="AC213" s="61"/>
-      <c r="AD213" s="61"/>
-      <c r="AE213" s="61"/>
-      <c r="AF213" s="61"/>
-      <c r="AG213" s="61"/>
-      <c r="AH213" s="61"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="66"/>
+      <c r="E213" s="66"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="66"/>
+      <c r="J213" s="66"/>
+      <c r="K213" s="66"/>
+      <c r="L213" s="66"/>
+      <c r="M213" s="66"/>
+      <c r="N213" s="66"/>
+      <c r="O213" s="66"/>
+      <c r="P213" s="66"/>
+      <c r="Q213" s="66"/>
+      <c r="R213" s="66"/>
+      <c r="S213" s="66"/>
+      <c r="T213" s="66"/>
+      <c r="U213" s="66"/>
+      <c r="V213" s="66"/>
+      <c r="W213" s="66"/>
+      <c r="X213" s="66"/>
+      <c r="Y213" s="66"/>
+      <c r="Z213" s="66"/>
+      <c r="AA213" s="66"/>
+      <c r="AB213" s="66"/>
+      <c r="AC213" s="66"/>
+      <c r="AD213" s="66"/>
+      <c r="AE213" s="66"/>
+      <c r="AF213" s="66"/>
+      <c r="AG213" s="66"/>
+      <c r="AH213" s="66"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="63" t="s">
@@ -16981,7 +16990,7 @@
       <c r="AE214" s="63"/>
       <c r="AF214" s="63"/>
       <c r="AG214" s="63"/>
-      <c r="AH214" s="67" t="s">
+      <c r="AH214" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19684,45 +19693,79 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="64" t="s">
+      <c r="A281" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="65"/>
-      <c r="C281" s="66"/>
-      <c r="D281" s="66"/>
-      <c r="E281" s="66"/>
-      <c r="F281" s="66"/>
-      <c r="G281" s="66"/>
-      <c r="H281" s="66"/>
-      <c r="I281" s="66"/>
-      <c r="J281" s="66"/>
-      <c r="K281" s="66"/>
-      <c r="L281" s="66"/>
-      <c r="M281" s="66"/>
-      <c r="N281" s="66"/>
-      <c r="O281" s="66"/>
-      <c r="P281" s="66"/>
-      <c r="Q281" s="66"/>
-      <c r="R281" s="66"/>
-      <c r="S281" s="66"/>
-      <c r="T281" s="66"/>
-      <c r="U281" s="66"/>
-      <c r="V281" s="66"/>
-      <c r="W281" s="66"/>
-      <c r="X281" s="66"/>
-      <c r="Y281" s="66"/>
-      <c r="Z281" s="66"/>
-      <c r="AA281" s="66"/>
-      <c r="AB281" s="66"/>
-      <c r="AC281" s="66"/>
-      <c r="AD281" s="66"/>
-      <c r="AE281" s="66"/>
-      <c r="AF281" s="66"/>
-      <c r="AG281" s="66"/>
-      <c r="AH281" s="66"/>
+      <c r="B281" s="61"/>
+      <c r="C281" s="62"/>
+      <c r="D281" s="62"/>
+      <c r="E281" s="62"/>
+      <c r="F281" s="62"/>
+      <c r="G281" s="62"/>
+      <c r="H281" s="62"/>
+      <c r="I281" s="62"/>
+      <c r="J281" s="62"/>
+      <c r="K281" s="62"/>
+      <c r="L281" s="62"/>
+      <c r="M281" s="62"/>
+      <c r="N281" s="62"/>
+      <c r="O281" s="62"/>
+      <c r="P281" s="62"/>
+      <c r="Q281" s="62"/>
+      <c r="R281" s="62"/>
+      <c r="S281" s="62"/>
+      <c r="T281" s="62"/>
+      <c r="U281" s="62"/>
+      <c r="V281" s="62"/>
+      <c r="W281" s="62"/>
+      <c r="X281" s="62"/>
+      <c r="Y281" s="62"/>
+      <c r="Z281" s="62"/>
+      <c r="AA281" s="62"/>
+      <c r="AB281" s="62"/>
+      <c r="AC281" s="62"/>
+      <c r="AD281" s="62"/>
+      <c r="AE281" s="62"/>
+      <c r="AF281" s="62"/>
+      <c r="AG281" s="62"/>
+      <c r="AH281" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19739,40 +19782,6 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19784,8 +19793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D363" sqref="D363"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19806,80 +19815,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
@@ -19927,7 +19936,7 @@
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
-      <c r="AH3" s="67" t="s">
+      <c r="AH3" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -20037,7 +20046,7 @@
         <v>460</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -22680,42 +22689,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="65"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="65"/>
-      <c r="X71" s="65"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="65"/>
-      <c r="AA71" s="65"/>
-      <c r="AB71" s="65"/>
-      <c r="AC71" s="65"/>
-      <c r="AD71" s="65"/>
-      <c r="AE71" s="65"/>
-      <c r="AF71" s="65"/>
-      <c r="AG71" s="65"/>
-      <c r="AH71" s="65"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="61"/>
+      <c r="AC71" s="61"/>
+      <c r="AD71" s="61"/>
+      <c r="AE71" s="61"/>
+      <c r="AF71" s="61"/>
+      <c r="AG71" s="61"/>
+      <c r="AH71" s="61"/>
     </row>
     <row r="72" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
@@ -22754,80 +22763,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="60"/>
-      <c r="U73" s="60"/>
-      <c r="V73" s="60"/>
-      <c r="W73" s="60"/>
-      <c r="X73" s="60"/>
-      <c r="Y73" s="60"/>
-      <c r="Z73" s="60"/>
-      <c r="AA73" s="60"/>
-      <c r="AB73" s="60"/>
-      <c r="AC73" s="60"/>
-      <c r="AD73" s="60"/>
-      <c r="AE73" s="60"/>
-      <c r="AF73" s="60"/>
-      <c r="AG73" s="60"/>
-      <c r="AH73" s="60"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="65"/>
+      <c r="R73" s="65"/>
+      <c r="S73" s="65"/>
+      <c r="T73" s="65"/>
+      <c r="U73" s="65"/>
+      <c r="V73" s="65"/>
+      <c r="W73" s="65"/>
+      <c r="X73" s="65"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+      <c r="AA73" s="65"/>
+      <c r="AB73" s="65"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="65"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="61"/>
-      <c r="X74" s="61"/>
-      <c r="Y74" s="61"/>
-      <c r="Z74" s="61"/>
-      <c r="AA74" s="61"/>
-      <c r="AB74" s="61"/>
-      <c r="AC74" s="61"/>
-      <c r="AD74" s="61"/>
-      <c r="AE74" s="61"/>
-      <c r="AF74" s="61"/>
-      <c r="AG74" s="61"/>
-      <c r="AH74" s="61"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="66"/>
+      <c r="AB74" s="66"/>
+      <c r="AC74" s="66"/>
+      <c r="AD74" s="66"/>
+      <c r="AE74" s="66"/>
+      <c r="AF74" s="66"/>
+      <c r="AG74" s="66"/>
+      <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="63" t="s">
@@ -22875,7 +22884,7 @@
       <c r="AE75" s="63"/>
       <c r="AF75" s="63"/>
       <c r="AG75" s="63"/>
-      <c r="AH75" s="67" t="s">
+      <c r="AH75" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25534,118 +25543,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="64" t="s">
+      <c r="A141" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="65"/>
-      <c r="L141" s="65"/>
-      <c r="M141" s="65"/>
-      <c r="N141" s="65"/>
-      <c r="O141" s="65"/>
-      <c r="P141" s="65"/>
-      <c r="Q141" s="65"/>
-      <c r="R141" s="65"/>
-      <c r="S141" s="65"/>
-      <c r="T141" s="65"/>
-      <c r="U141" s="65"/>
-      <c r="V141" s="65"/>
-      <c r="W141" s="65"/>
-      <c r="X141" s="65"/>
-      <c r="Y141" s="65"/>
-      <c r="Z141" s="65"/>
-      <c r="AA141" s="65"/>
-      <c r="AB141" s="65"/>
-      <c r="AC141" s="65"/>
-      <c r="AD141" s="65"/>
-      <c r="AE141" s="65"/>
-      <c r="AF141" s="65"/>
-      <c r="AG141" s="65"/>
-      <c r="AH141" s="65"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="61"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="61"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="61"/>
+      <c r="I141" s="61"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="61"/>
+      <c r="L141" s="61"/>
+      <c r="M141" s="61"/>
+      <c r="N141" s="61"/>
+      <c r="O141" s="61"/>
+      <c r="P141" s="61"/>
+      <c r="Q141" s="61"/>
+      <c r="R141" s="61"/>
+      <c r="S141" s="61"/>
+      <c r="T141" s="61"/>
+      <c r="U141" s="61"/>
+      <c r="V141" s="61"/>
+      <c r="W141" s="61"/>
+      <c r="X141" s="61"/>
+      <c r="Y141" s="61"/>
+      <c r="Z141" s="61"/>
+      <c r="AA141" s="61"/>
+      <c r="AB141" s="61"/>
+      <c r="AC141" s="61"/>
+      <c r="AD141" s="61"/>
+      <c r="AE141" s="61"/>
+      <c r="AF141" s="61"/>
+      <c r="AG141" s="61"/>
+      <c r="AH141" s="61"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="60" t="s">
+      <c r="A142" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="60"/>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="60"/>
-      <c r="I142" s="60"/>
-      <c r="J142" s="60"/>
-      <c r="K142" s="60"/>
-      <c r="L142" s="60"/>
-      <c r="M142" s="60"/>
-      <c r="N142" s="60"/>
-      <c r="O142" s="60"/>
-      <c r="P142" s="60"/>
-      <c r="Q142" s="60"/>
-      <c r="R142" s="60"/>
-      <c r="S142" s="60"/>
-      <c r="T142" s="60"/>
-      <c r="U142" s="60"/>
-      <c r="V142" s="60"/>
-      <c r="W142" s="60"/>
-      <c r="X142" s="60"/>
-      <c r="Y142" s="60"/>
-      <c r="Z142" s="60"/>
-      <c r="AA142" s="60"/>
-      <c r="AB142" s="60"/>
-      <c r="AC142" s="60"/>
-      <c r="AD142" s="60"/>
-      <c r="AE142" s="60"/>
-      <c r="AF142" s="60"/>
-      <c r="AG142" s="60"/>
-      <c r="AH142" s="60"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
+      <c r="L142" s="65"/>
+      <c r="M142" s="65"/>
+      <c r="N142" s="65"/>
+      <c r="O142" s="65"/>
+      <c r="P142" s="65"/>
+      <c r="Q142" s="65"/>
+      <c r="R142" s="65"/>
+      <c r="S142" s="65"/>
+      <c r="T142" s="65"/>
+      <c r="U142" s="65"/>
+      <c r="V142" s="65"/>
+      <c r="W142" s="65"/>
+      <c r="X142" s="65"/>
+      <c r="Y142" s="65"/>
+      <c r="Z142" s="65"/>
+      <c r="AA142" s="65"/>
+      <c r="AB142" s="65"/>
+      <c r="AC142" s="65"/>
+      <c r="AD142" s="65"/>
+      <c r="AE142" s="65"/>
+      <c r="AF142" s="65"/>
+      <c r="AG142" s="65"/>
+      <c r="AH142" s="65"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="61" t="s">
+      <c r="A143" s="66" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="61"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="61"/>
-      <c r="L143" s="61"/>
-      <c r="M143" s="61"/>
-      <c r="N143" s="61"/>
-      <c r="O143" s="61"/>
-      <c r="P143" s="61"/>
-      <c r="Q143" s="61"/>
-      <c r="R143" s="61"/>
-      <c r="S143" s="61"/>
-      <c r="T143" s="61"/>
-      <c r="U143" s="61"/>
-      <c r="V143" s="61"/>
-      <c r="W143" s="61"/>
-      <c r="X143" s="61"/>
-      <c r="Y143" s="61"/>
-      <c r="Z143" s="61"/>
-      <c r="AA143" s="61"/>
-      <c r="AB143" s="61"/>
-      <c r="AC143" s="61"/>
-      <c r="AD143" s="61"/>
-      <c r="AE143" s="61"/>
-      <c r="AF143" s="61"/>
-      <c r="AG143" s="61"/>
-      <c r="AH143" s="61"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="66"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
+      <c r="J143" s="66"/>
+      <c r="K143" s="66"/>
+      <c r="L143" s="66"/>
+      <c r="M143" s="66"/>
+      <c r="N143" s="66"/>
+      <c r="O143" s="66"/>
+      <c r="P143" s="66"/>
+      <c r="Q143" s="66"/>
+      <c r="R143" s="66"/>
+      <c r="S143" s="66"/>
+      <c r="T143" s="66"/>
+      <c r="U143" s="66"/>
+      <c r="V143" s="66"/>
+      <c r="W143" s="66"/>
+      <c r="X143" s="66"/>
+      <c r="Y143" s="66"/>
+      <c r="Z143" s="66"/>
+      <c r="AA143" s="66"/>
+      <c r="AB143" s="66"/>
+      <c r="AC143" s="66"/>
+      <c r="AD143" s="66"/>
+      <c r="AE143" s="66"/>
+      <c r="AF143" s="66"/>
+      <c r="AG143" s="66"/>
+      <c r="AH143" s="66"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="63" t="s">
@@ -25693,7 +25702,7 @@
       <c r="AE144" s="63"/>
       <c r="AF144" s="63"/>
       <c r="AG144" s="63"/>
-      <c r="AH144" s="67" t="s">
+      <c r="AH144" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28156,118 +28165,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="64" t="s">
+      <c r="A205" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="65"/>
-      <c r="C205" s="65"/>
-      <c r="D205" s="65"/>
-      <c r="E205" s="65"/>
-      <c r="F205" s="65"/>
-      <c r="G205" s="65"/>
-      <c r="H205" s="65"/>
-      <c r="I205" s="65"/>
-      <c r="J205" s="65"/>
-      <c r="K205" s="65"/>
-      <c r="L205" s="65"/>
-      <c r="M205" s="65"/>
-      <c r="N205" s="65"/>
-      <c r="O205" s="65"/>
-      <c r="P205" s="65"/>
-      <c r="Q205" s="65"/>
-      <c r="R205" s="65"/>
-      <c r="S205" s="65"/>
-      <c r="T205" s="65"/>
-      <c r="U205" s="65"/>
-      <c r="V205" s="65"/>
-      <c r="W205" s="65"/>
-      <c r="X205" s="65"/>
-      <c r="Y205" s="65"/>
-      <c r="Z205" s="65"/>
-      <c r="AA205" s="65"/>
-      <c r="AB205" s="65"/>
-      <c r="AC205" s="65"/>
-      <c r="AD205" s="65"/>
-      <c r="AE205" s="65"/>
-      <c r="AF205" s="65"/>
-      <c r="AG205" s="65"/>
-      <c r="AH205" s="65"/>
+      <c r="B205" s="61"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="61"/>
+      <c r="E205" s="61"/>
+      <c r="F205" s="61"/>
+      <c r="G205" s="61"/>
+      <c r="H205" s="61"/>
+      <c r="I205" s="61"/>
+      <c r="J205" s="61"/>
+      <c r="K205" s="61"/>
+      <c r="L205" s="61"/>
+      <c r="M205" s="61"/>
+      <c r="N205" s="61"/>
+      <c r="O205" s="61"/>
+      <c r="P205" s="61"/>
+      <c r="Q205" s="61"/>
+      <c r="R205" s="61"/>
+      <c r="S205" s="61"/>
+      <c r="T205" s="61"/>
+      <c r="U205" s="61"/>
+      <c r="V205" s="61"/>
+      <c r="W205" s="61"/>
+      <c r="X205" s="61"/>
+      <c r="Y205" s="61"/>
+      <c r="Z205" s="61"/>
+      <c r="AA205" s="61"/>
+      <c r="AB205" s="61"/>
+      <c r="AC205" s="61"/>
+      <c r="AD205" s="61"/>
+      <c r="AE205" s="61"/>
+      <c r="AF205" s="61"/>
+      <c r="AG205" s="61"/>
+      <c r="AH205" s="61"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="60" t="s">
+      <c r="A207" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="60"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="60"/>
-      <c r="E207" s="60"/>
-      <c r="F207" s="60"/>
-      <c r="G207" s="60"/>
-      <c r="H207" s="60"/>
-      <c r="I207" s="60"/>
-      <c r="J207" s="60"/>
-      <c r="K207" s="60"/>
-      <c r="L207" s="60"/>
-      <c r="M207" s="60"/>
-      <c r="N207" s="60"/>
-      <c r="O207" s="60"/>
-      <c r="P207" s="60"/>
-      <c r="Q207" s="60"/>
-      <c r="R207" s="60"/>
-      <c r="S207" s="60"/>
-      <c r="T207" s="60"/>
-      <c r="U207" s="60"/>
-      <c r="V207" s="60"/>
-      <c r="W207" s="60"/>
-      <c r="X207" s="60"/>
-      <c r="Y207" s="60"/>
-      <c r="Z207" s="60"/>
-      <c r="AA207" s="60"/>
-      <c r="AB207" s="60"/>
-      <c r="AC207" s="60"/>
-      <c r="AD207" s="60"/>
-      <c r="AE207" s="60"/>
-      <c r="AF207" s="60"/>
-      <c r="AG207" s="60"/>
-      <c r="AH207" s="60"/>
+      <c r="B207" s="65"/>
+      <c r="C207" s="65"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="65"/>
+      <c r="L207" s="65"/>
+      <c r="M207" s="65"/>
+      <c r="N207" s="65"/>
+      <c r="O207" s="65"/>
+      <c r="P207" s="65"/>
+      <c r="Q207" s="65"/>
+      <c r="R207" s="65"/>
+      <c r="S207" s="65"/>
+      <c r="T207" s="65"/>
+      <c r="U207" s="65"/>
+      <c r="V207" s="65"/>
+      <c r="W207" s="65"/>
+      <c r="X207" s="65"/>
+      <c r="Y207" s="65"/>
+      <c r="Z207" s="65"/>
+      <c r="AA207" s="65"/>
+      <c r="AB207" s="65"/>
+      <c r="AC207" s="65"/>
+      <c r="AD207" s="65"/>
+      <c r="AE207" s="65"/>
+      <c r="AF207" s="65"/>
+      <c r="AG207" s="65"/>
+      <c r="AH207" s="65"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="61" t="s">
+      <c r="A208" s="66" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="61"/>
-      <c r="C208" s="61"/>
-      <c r="D208" s="61"/>
-      <c r="E208" s="61"/>
-      <c r="F208" s="61"/>
-      <c r="G208" s="61"/>
-      <c r="H208" s="61"/>
-      <c r="I208" s="61"/>
-      <c r="J208" s="61"/>
-      <c r="K208" s="61"/>
-      <c r="L208" s="61"/>
-      <c r="M208" s="61"/>
-      <c r="N208" s="61"/>
-      <c r="O208" s="61"/>
-      <c r="P208" s="61"/>
-      <c r="Q208" s="61"/>
-      <c r="R208" s="61"/>
-      <c r="S208" s="61"/>
-      <c r="T208" s="61"/>
-      <c r="U208" s="61"/>
-      <c r="V208" s="61"/>
-      <c r="W208" s="61"/>
-      <c r="X208" s="61"/>
-      <c r="Y208" s="61"/>
-      <c r="Z208" s="61"/>
-      <c r="AA208" s="61"/>
-      <c r="AB208" s="61"/>
-      <c r="AC208" s="61"/>
-      <c r="AD208" s="61"/>
-      <c r="AE208" s="61"/>
-      <c r="AF208" s="61"/>
-      <c r="AG208" s="61"/>
-      <c r="AH208" s="61"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="66"/>
+      <c r="E208" s="66"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
+      <c r="I208" s="66"/>
+      <c r="J208" s="66"/>
+      <c r="K208" s="66"/>
+      <c r="L208" s="66"/>
+      <c r="M208" s="66"/>
+      <c r="N208" s="66"/>
+      <c r="O208" s="66"/>
+      <c r="P208" s="66"/>
+      <c r="Q208" s="66"/>
+      <c r="R208" s="66"/>
+      <c r="S208" s="66"/>
+      <c r="T208" s="66"/>
+      <c r="U208" s="66"/>
+      <c r="V208" s="66"/>
+      <c r="W208" s="66"/>
+      <c r="X208" s="66"/>
+      <c r="Y208" s="66"/>
+      <c r="Z208" s="66"/>
+      <c r="AA208" s="66"/>
+      <c r="AB208" s="66"/>
+      <c r="AC208" s="66"/>
+      <c r="AD208" s="66"/>
+      <c r="AE208" s="66"/>
+      <c r="AF208" s="66"/>
+      <c r="AG208" s="66"/>
+      <c r="AH208" s="66"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="63" t="s">
@@ -28315,7 +28324,7 @@
       <c r="AE209" s="63"/>
       <c r="AF209" s="63"/>
       <c r="AG209" s="63"/>
-      <c r="AH209" s="67" t="s">
+      <c r="AH209" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30232,118 +30241,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="64" t="s">
+      <c r="A256" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="65"/>
-      <c r="C256" s="65"/>
-      <c r="D256" s="65"/>
-      <c r="E256" s="65"/>
-      <c r="F256" s="65"/>
-      <c r="G256" s="65"/>
-      <c r="H256" s="65"/>
-      <c r="I256" s="65"/>
-      <c r="J256" s="65"/>
-      <c r="K256" s="65"/>
-      <c r="L256" s="65"/>
-      <c r="M256" s="65"/>
-      <c r="N256" s="65"/>
-      <c r="O256" s="65"/>
-      <c r="P256" s="65"/>
-      <c r="Q256" s="65"/>
-      <c r="R256" s="65"/>
-      <c r="S256" s="65"/>
-      <c r="T256" s="65"/>
-      <c r="U256" s="65"/>
-      <c r="V256" s="65"/>
-      <c r="W256" s="65"/>
-      <c r="X256" s="65"/>
-      <c r="Y256" s="65"/>
-      <c r="Z256" s="65"/>
-      <c r="AA256" s="65"/>
-      <c r="AB256" s="65"/>
-      <c r="AC256" s="65"/>
-      <c r="AD256" s="65"/>
-      <c r="AE256" s="65"/>
-      <c r="AF256" s="65"/>
-      <c r="AG256" s="65"/>
-      <c r="AH256" s="65"/>
+      <c r="B256" s="61"/>
+      <c r="C256" s="61"/>
+      <c r="D256" s="61"/>
+      <c r="E256" s="61"/>
+      <c r="F256" s="61"/>
+      <c r="G256" s="61"/>
+      <c r="H256" s="61"/>
+      <c r="I256" s="61"/>
+      <c r="J256" s="61"/>
+      <c r="K256" s="61"/>
+      <c r="L256" s="61"/>
+      <c r="M256" s="61"/>
+      <c r="N256" s="61"/>
+      <c r="O256" s="61"/>
+      <c r="P256" s="61"/>
+      <c r="Q256" s="61"/>
+      <c r="R256" s="61"/>
+      <c r="S256" s="61"/>
+      <c r="T256" s="61"/>
+      <c r="U256" s="61"/>
+      <c r="V256" s="61"/>
+      <c r="W256" s="61"/>
+      <c r="X256" s="61"/>
+      <c r="Y256" s="61"/>
+      <c r="Z256" s="61"/>
+      <c r="AA256" s="61"/>
+      <c r="AB256" s="61"/>
+      <c r="AC256" s="61"/>
+      <c r="AD256" s="61"/>
+      <c r="AE256" s="61"/>
+      <c r="AF256" s="61"/>
+      <c r="AG256" s="61"/>
+      <c r="AH256" s="61"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="60" t="s">
+      <c r="A258" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="60"/>
-      <c r="C258" s="60"/>
-      <c r="D258" s="60"/>
-      <c r="E258" s="60"/>
-      <c r="F258" s="60"/>
-      <c r="G258" s="60"/>
-      <c r="H258" s="60"/>
-      <c r="I258" s="60"/>
-      <c r="J258" s="60"/>
-      <c r="K258" s="60"/>
-      <c r="L258" s="60"/>
-      <c r="M258" s="60"/>
-      <c r="N258" s="60"/>
-      <c r="O258" s="60"/>
-      <c r="P258" s="60"/>
-      <c r="Q258" s="60"/>
-      <c r="R258" s="60"/>
-      <c r="S258" s="60"/>
-      <c r="T258" s="60"/>
-      <c r="U258" s="60"/>
-      <c r="V258" s="60"/>
-      <c r="W258" s="60"/>
-      <c r="X258" s="60"/>
-      <c r="Y258" s="60"/>
-      <c r="Z258" s="60"/>
-      <c r="AA258" s="60"/>
-      <c r="AB258" s="60"/>
-      <c r="AC258" s="60"/>
-      <c r="AD258" s="60"/>
-      <c r="AE258" s="60"/>
-      <c r="AF258" s="60"/>
-      <c r="AG258" s="60"/>
-      <c r="AH258" s="60"/>
+      <c r="B258" s="65"/>
+      <c r="C258" s="65"/>
+      <c r="D258" s="65"/>
+      <c r="E258" s="65"/>
+      <c r="F258" s="65"/>
+      <c r="G258" s="65"/>
+      <c r="H258" s="65"/>
+      <c r="I258" s="65"/>
+      <c r="J258" s="65"/>
+      <c r="K258" s="65"/>
+      <c r="L258" s="65"/>
+      <c r="M258" s="65"/>
+      <c r="N258" s="65"/>
+      <c r="O258" s="65"/>
+      <c r="P258" s="65"/>
+      <c r="Q258" s="65"/>
+      <c r="R258" s="65"/>
+      <c r="S258" s="65"/>
+      <c r="T258" s="65"/>
+      <c r="U258" s="65"/>
+      <c r="V258" s="65"/>
+      <c r="W258" s="65"/>
+      <c r="X258" s="65"/>
+      <c r="Y258" s="65"/>
+      <c r="Z258" s="65"/>
+      <c r="AA258" s="65"/>
+      <c r="AB258" s="65"/>
+      <c r="AC258" s="65"/>
+      <c r="AD258" s="65"/>
+      <c r="AE258" s="65"/>
+      <c r="AF258" s="65"/>
+      <c r="AG258" s="65"/>
+      <c r="AH258" s="65"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="61" t="s">
+      <c r="A259" s="66" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="61"/>
-      <c r="C259" s="61"/>
-      <c r="D259" s="61"/>
-      <c r="E259" s="61"/>
-      <c r="F259" s="61"/>
-      <c r="G259" s="61"/>
-      <c r="H259" s="61"/>
-      <c r="I259" s="61"/>
-      <c r="J259" s="61"/>
-      <c r="K259" s="61"/>
-      <c r="L259" s="61"/>
-      <c r="M259" s="61"/>
-      <c r="N259" s="61"/>
-      <c r="O259" s="61"/>
-      <c r="P259" s="61"/>
-      <c r="Q259" s="61"/>
-      <c r="R259" s="61"/>
-      <c r="S259" s="61"/>
-      <c r="T259" s="61"/>
-      <c r="U259" s="61"/>
-      <c r="V259" s="61"/>
-      <c r="W259" s="61"/>
-      <c r="X259" s="61"/>
-      <c r="Y259" s="61"/>
-      <c r="Z259" s="61"/>
-      <c r="AA259" s="61"/>
-      <c r="AB259" s="61"/>
-      <c r="AC259" s="61"/>
-      <c r="AD259" s="61"/>
-      <c r="AE259" s="61"/>
-      <c r="AF259" s="61"/>
-      <c r="AG259" s="61"/>
-      <c r="AH259" s="61"/>
+      <c r="B259" s="66"/>
+      <c r="C259" s="66"/>
+      <c r="D259" s="66"/>
+      <c r="E259" s="66"/>
+      <c r="F259" s="66"/>
+      <c r="G259" s="66"/>
+      <c r="H259" s="66"/>
+      <c r="I259" s="66"/>
+      <c r="J259" s="66"/>
+      <c r="K259" s="66"/>
+      <c r="L259" s="66"/>
+      <c r="M259" s="66"/>
+      <c r="N259" s="66"/>
+      <c r="O259" s="66"/>
+      <c r="P259" s="66"/>
+      <c r="Q259" s="66"/>
+      <c r="R259" s="66"/>
+      <c r="S259" s="66"/>
+      <c r="T259" s="66"/>
+      <c r="U259" s="66"/>
+      <c r="V259" s="66"/>
+      <c r="W259" s="66"/>
+      <c r="X259" s="66"/>
+      <c r="Y259" s="66"/>
+      <c r="Z259" s="66"/>
+      <c r="AA259" s="66"/>
+      <c r="AB259" s="66"/>
+      <c r="AC259" s="66"/>
+      <c r="AD259" s="66"/>
+      <c r="AE259" s="66"/>
+      <c r="AF259" s="66"/>
+      <c r="AG259" s="66"/>
+      <c r="AH259" s="66"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="63" t="s">
@@ -30391,7 +30400,7 @@
       <c r="AE260" s="63"/>
       <c r="AF260" s="63"/>
       <c r="AG260" s="63"/>
-      <c r="AH260" s="67" t="s">
+      <c r="AH260" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32014,118 +32023,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="64" t="s">
+      <c r="A300" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="65"/>
-      <c r="C300" s="65"/>
-      <c r="D300" s="65"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="65"/>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="65"/>
-      <c r="L300" s="65"/>
-      <c r="M300" s="65"/>
-      <c r="N300" s="65"/>
-      <c r="O300" s="65"/>
-      <c r="P300" s="65"/>
-      <c r="Q300" s="65"/>
-      <c r="R300" s="65"/>
-      <c r="S300" s="65"/>
-      <c r="T300" s="65"/>
-      <c r="U300" s="65"/>
-      <c r="V300" s="65"/>
-      <c r="W300" s="65"/>
-      <c r="X300" s="65"/>
-      <c r="Y300" s="65"/>
-      <c r="Z300" s="65"/>
-      <c r="AA300" s="65"/>
-      <c r="AB300" s="65"/>
-      <c r="AC300" s="65"/>
-      <c r="AD300" s="65"/>
-      <c r="AE300" s="65"/>
-      <c r="AF300" s="65"/>
-      <c r="AG300" s="65"/>
-      <c r="AH300" s="65"/>
+      <c r="B300" s="61"/>
+      <c r="C300" s="61"/>
+      <c r="D300" s="61"/>
+      <c r="E300" s="61"/>
+      <c r="F300" s="61"/>
+      <c r="G300" s="61"/>
+      <c r="H300" s="61"/>
+      <c r="I300" s="61"/>
+      <c r="J300" s="61"/>
+      <c r="K300" s="61"/>
+      <c r="L300" s="61"/>
+      <c r="M300" s="61"/>
+      <c r="N300" s="61"/>
+      <c r="O300" s="61"/>
+      <c r="P300" s="61"/>
+      <c r="Q300" s="61"/>
+      <c r="R300" s="61"/>
+      <c r="S300" s="61"/>
+      <c r="T300" s="61"/>
+      <c r="U300" s="61"/>
+      <c r="V300" s="61"/>
+      <c r="W300" s="61"/>
+      <c r="X300" s="61"/>
+      <c r="Y300" s="61"/>
+      <c r="Z300" s="61"/>
+      <c r="AA300" s="61"/>
+      <c r="AB300" s="61"/>
+      <c r="AC300" s="61"/>
+      <c r="AD300" s="61"/>
+      <c r="AE300" s="61"/>
+      <c r="AF300" s="61"/>
+      <c r="AG300" s="61"/>
+      <c r="AH300" s="61"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="60" t="s">
+      <c r="A301" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="60"/>
-      <c r="C301" s="60"/>
-      <c r="D301" s="60"/>
-      <c r="E301" s="60"/>
-      <c r="F301" s="60"/>
-      <c r="G301" s="60"/>
-      <c r="H301" s="60"/>
-      <c r="I301" s="60"/>
-      <c r="J301" s="60"/>
-      <c r="K301" s="60"/>
-      <c r="L301" s="60"/>
-      <c r="M301" s="60"/>
-      <c r="N301" s="60"/>
-      <c r="O301" s="60"/>
-      <c r="P301" s="60"/>
-      <c r="Q301" s="60"/>
-      <c r="R301" s="60"/>
-      <c r="S301" s="60"/>
-      <c r="T301" s="60"/>
-      <c r="U301" s="60"/>
-      <c r="V301" s="60"/>
-      <c r="W301" s="60"/>
-      <c r="X301" s="60"/>
-      <c r="Y301" s="60"/>
-      <c r="Z301" s="60"/>
-      <c r="AA301" s="60"/>
-      <c r="AB301" s="60"/>
-      <c r="AC301" s="60"/>
-      <c r="AD301" s="60"/>
-      <c r="AE301" s="60"/>
-      <c r="AF301" s="60"/>
-      <c r="AG301" s="60"/>
-      <c r="AH301" s="60"/>
+      <c r="B301" s="65"/>
+      <c r="C301" s="65"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
+      <c r="L301" s="65"/>
+      <c r="M301" s="65"/>
+      <c r="N301" s="65"/>
+      <c r="O301" s="65"/>
+      <c r="P301" s="65"/>
+      <c r="Q301" s="65"/>
+      <c r="R301" s="65"/>
+      <c r="S301" s="65"/>
+      <c r="T301" s="65"/>
+      <c r="U301" s="65"/>
+      <c r="V301" s="65"/>
+      <c r="W301" s="65"/>
+      <c r="X301" s="65"/>
+      <c r="Y301" s="65"/>
+      <c r="Z301" s="65"/>
+      <c r="AA301" s="65"/>
+      <c r="AB301" s="65"/>
+      <c r="AC301" s="65"/>
+      <c r="AD301" s="65"/>
+      <c r="AE301" s="65"/>
+      <c r="AF301" s="65"/>
+      <c r="AG301" s="65"/>
+      <c r="AH301" s="65"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="61" t="s">
+      <c r="A302" s="66" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="61"/>
-      <c r="C302" s="61"/>
-      <c r="D302" s="61"/>
-      <c r="E302" s="61"/>
-      <c r="F302" s="61"/>
-      <c r="G302" s="61"/>
-      <c r="H302" s="61"/>
-      <c r="I302" s="61"/>
-      <c r="J302" s="61"/>
-      <c r="K302" s="61"/>
-      <c r="L302" s="61"/>
-      <c r="M302" s="61"/>
-      <c r="N302" s="61"/>
-      <c r="O302" s="61"/>
-      <c r="P302" s="61"/>
-      <c r="Q302" s="61"/>
-      <c r="R302" s="61"/>
-      <c r="S302" s="61"/>
-      <c r="T302" s="61"/>
-      <c r="U302" s="61"/>
-      <c r="V302" s="61"/>
-      <c r="W302" s="61"/>
-      <c r="X302" s="61"/>
-      <c r="Y302" s="61"/>
-      <c r="Z302" s="61"/>
-      <c r="AA302" s="61"/>
-      <c r="AB302" s="61"/>
-      <c r="AC302" s="61"/>
-      <c r="AD302" s="61"/>
-      <c r="AE302" s="61"/>
-      <c r="AF302" s="61"/>
-      <c r="AG302" s="61"/>
-      <c r="AH302" s="61"/>
+      <c r="B302" s="66"/>
+      <c r="C302" s="66"/>
+      <c r="D302" s="66"/>
+      <c r="E302" s="66"/>
+      <c r="F302" s="66"/>
+      <c r="G302" s="66"/>
+      <c r="H302" s="66"/>
+      <c r="I302" s="66"/>
+      <c r="J302" s="66"/>
+      <c r="K302" s="66"/>
+      <c r="L302" s="66"/>
+      <c r="M302" s="66"/>
+      <c r="N302" s="66"/>
+      <c r="O302" s="66"/>
+      <c r="P302" s="66"/>
+      <c r="Q302" s="66"/>
+      <c r="R302" s="66"/>
+      <c r="S302" s="66"/>
+      <c r="T302" s="66"/>
+      <c r="U302" s="66"/>
+      <c r="V302" s="66"/>
+      <c r="W302" s="66"/>
+      <c r="X302" s="66"/>
+      <c r="Y302" s="66"/>
+      <c r="Z302" s="66"/>
+      <c r="AA302" s="66"/>
+      <c r="AB302" s="66"/>
+      <c r="AC302" s="66"/>
+      <c r="AD302" s="66"/>
+      <c r="AE302" s="66"/>
+      <c r="AF302" s="66"/>
+      <c r="AG302" s="66"/>
+      <c r="AH302" s="66"/>
     </row>
     <row r="303" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="63" t="s">
@@ -32173,7 +32182,7 @@
       <c r="AE303" s="63"/>
       <c r="AF303" s="63"/>
       <c r="AG303" s="63"/>
-      <c r="AH303" s="67" t="s">
+      <c r="AH303" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -34756,42 +34765,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="64" t="s">
+      <c r="A367" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="65"/>
-      <c r="C367" s="65"/>
-      <c r="D367" s="65"/>
-      <c r="E367" s="65"/>
-      <c r="F367" s="65"/>
-      <c r="G367" s="65"/>
-      <c r="H367" s="65"/>
-      <c r="I367" s="65"/>
-      <c r="J367" s="65"/>
-      <c r="K367" s="65"/>
-      <c r="L367" s="65"/>
-      <c r="M367" s="65"/>
-      <c r="N367" s="65"/>
-      <c r="O367" s="65"/>
-      <c r="P367" s="65"/>
-      <c r="Q367" s="65"/>
-      <c r="R367" s="65"/>
-      <c r="S367" s="65"/>
-      <c r="T367" s="65"/>
-      <c r="U367" s="65"/>
-      <c r="V367" s="65"/>
-      <c r="W367" s="65"/>
-      <c r="X367" s="65"/>
-      <c r="Y367" s="65"/>
-      <c r="Z367" s="65"/>
-      <c r="AA367" s="65"/>
-      <c r="AB367" s="65"/>
-      <c r="AC367" s="65"/>
-      <c r="AD367" s="65"/>
-      <c r="AE367" s="65"/>
-      <c r="AF367" s="65"/>
-      <c r="AG367" s="65"/>
-      <c r="AH367" s="65"/>
+      <c r="B367" s="61"/>
+      <c r="C367" s="61"/>
+      <c r="D367" s="61"/>
+      <c r="E367" s="61"/>
+      <c r="F367" s="61"/>
+      <c r="G367" s="61"/>
+      <c r="H367" s="61"/>
+      <c r="I367" s="61"/>
+      <c r="J367" s="61"/>
+      <c r="K367" s="61"/>
+      <c r="L367" s="61"/>
+      <c r="M367" s="61"/>
+      <c r="N367" s="61"/>
+      <c r="O367" s="61"/>
+      <c r="P367" s="61"/>
+      <c r="Q367" s="61"/>
+      <c r="R367" s="61"/>
+      <c r="S367" s="61"/>
+      <c r="T367" s="61"/>
+      <c r="U367" s="61"/>
+      <c r="V367" s="61"/>
+      <c r="W367" s="61"/>
+      <c r="X367" s="61"/>
+      <c r="Y367" s="61"/>
+      <c r="Z367" s="61"/>
+      <c r="AA367" s="61"/>
+      <c r="AB367" s="61"/>
+      <c r="AC367" s="61"/>
+      <c r="AD367" s="61"/>
+      <c r="AE367" s="61"/>
+      <c r="AF367" s="61"/>
+      <c r="AG367" s="61"/>
+      <c r="AH367" s="61"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
@@ -34830,80 +34839,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="60" t="s">
+      <c r="A369" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="60"/>
-      <c r="C369" s="60"/>
-      <c r="D369" s="60"/>
-      <c r="E369" s="60"/>
-      <c r="F369" s="60"/>
-      <c r="G369" s="60"/>
-      <c r="H369" s="60"/>
-      <c r="I369" s="60"/>
-      <c r="J369" s="60"/>
-      <c r="K369" s="60"/>
-      <c r="L369" s="60"/>
-      <c r="M369" s="60"/>
-      <c r="N369" s="60"/>
-      <c r="O369" s="60"/>
-      <c r="P369" s="60"/>
-      <c r="Q369" s="60"/>
-      <c r="R369" s="60"/>
-      <c r="S369" s="60"/>
-      <c r="T369" s="60"/>
-      <c r="U369" s="60"/>
-      <c r="V369" s="60"/>
-      <c r="W369" s="60"/>
-      <c r="X369" s="60"/>
-      <c r="Y369" s="60"/>
-      <c r="Z369" s="60"/>
-      <c r="AA369" s="60"/>
-      <c r="AB369" s="60"/>
-      <c r="AC369" s="60"/>
-      <c r="AD369" s="60"/>
-      <c r="AE369" s="60"/>
-      <c r="AF369" s="60"/>
-      <c r="AG369" s="60"/>
-      <c r="AH369" s="60"/>
+      <c r="B369" s="65"/>
+      <c r="C369" s="65"/>
+      <c r="D369" s="65"/>
+      <c r="E369" s="65"/>
+      <c r="F369" s="65"/>
+      <c r="G369" s="65"/>
+      <c r="H369" s="65"/>
+      <c r="I369" s="65"/>
+      <c r="J369" s="65"/>
+      <c r="K369" s="65"/>
+      <c r="L369" s="65"/>
+      <c r="M369" s="65"/>
+      <c r="N369" s="65"/>
+      <c r="O369" s="65"/>
+      <c r="P369" s="65"/>
+      <c r="Q369" s="65"/>
+      <c r="R369" s="65"/>
+      <c r="S369" s="65"/>
+      <c r="T369" s="65"/>
+      <c r="U369" s="65"/>
+      <c r="V369" s="65"/>
+      <c r="W369" s="65"/>
+      <c r="X369" s="65"/>
+      <c r="Y369" s="65"/>
+      <c r="Z369" s="65"/>
+      <c r="AA369" s="65"/>
+      <c r="AB369" s="65"/>
+      <c r="AC369" s="65"/>
+      <c r="AD369" s="65"/>
+      <c r="AE369" s="65"/>
+      <c r="AF369" s="65"/>
+      <c r="AG369" s="65"/>
+      <c r="AH369" s="65"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="61" t="s">
+      <c r="A370" s="66" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="61"/>
-      <c r="C370" s="61"/>
-      <c r="D370" s="61"/>
-      <c r="E370" s="61"/>
-      <c r="F370" s="61"/>
-      <c r="G370" s="61"/>
-      <c r="H370" s="61"/>
-      <c r="I370" s="61"/>
-      <c r="J370" s="61"/>
-      <c r="K370" s="61"/>
-      <c r="L370" s="61"/>
-      <c r="M370" s="61"/>
-      <c r="N370" s="61"/>
-      <c r="O370" s="61"/>
-      <c r="P370" s="61"/>
-      <c r="Q370" s="61"/>
-      <c r="R370" s="61"/>
-      <c r="S370" s="61"/>
-      <c r="T370" s="61"/>
-      <c r="U370" s="61"/>
-      <c r="V370" s="61"/>
-      <c r="W370" s="61"/>
-      <c r="X370" s="61"/>
-      <c r="Y370" s="61"/>
-      <c r="Z370" s="61"/>
-      <c r="AA370" s="61"/>
-      <c r="AB370" s="61"/>
-      <c r="AC370" s="61"/>
-      <c r="AD370" s="61"/>
-      <c r="AE370" s="61"/>
-      <c r="AF370" s="61"/>
-      <c r="AG370" s="61"/>
-      <c r="AH370" s="61"/>
+      <c r="B370" s="66"/>
+      <c r="C370" s="66"/>
+      <c r="D370" s="66"/>
+      <c r="E370" s="66"/>
+      <c r="F370" s="66"/>
+      <c r="G370" s="66"/>
+      <c r="H370" s="66"/>
+      <c r="I370" s="66"/>
+      <c r="J370" s="66"/>
+      <c r="K370" s="66"/>
+      <c r="L370" s="66"/>
+      <c r="M370" s="66"/>
+      <c r="N370" s="66"/>
+      <c r="O370" s="66"/>
+      <c r="P370" s="66"/>
+      <c r="Q370" s="66"/>
+      <c r="R370" s="66"/>
+      <c r="S370" s="66"/>
+      <c r="T370" s="66"/>
+      <c r="U370" s="66"/>
+      <c r="V370" s="66"/>
+      <c r="W370" s="66"/>
+      <c r="X370" s="66"/>
+      <c r="Y370" s="66"/>
+      <c r="Z370" s="66"/>
+      <c r="AA370" s="66"/>
+      <c r="AB370" s="66"/>
+      <c r="AC370" s="66"/>
+      <c r="AD370" s="66"/>
+      <c r="AE370" s="66"/>
+      <c r="AF370" s="66"/>
+      <c r="AG370" s="66"/>
+      <c r="AH370" s="66"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="63" t="s">
@@ -34951,7 +34960,7 @@
       <c r="AE371" s="63"/>
       <c r="AF371" s="63"/>
       <c r="AG371" s="63"/>
-      <c r="AH371" s="67" t="s">
+      <c r="AH371" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37610,45 +37619,99 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="64" t="s">
+      <c r="A436" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="65"/>
-      <c r="C436" s="65"/>
-      <c r="D436" s="65"/>
-      <c r="E436" s="65"/>
-      <c r="F436" s="65"/>
-      <c r="G436" s="65"/>
-      <c r="H436" s="65"/>
-      <c r="I436" s="65"/>
-      <c r="J436" s="65"/>
-      <c r="K436" s="65"/>
-      <c r="L436" s="65"/>
-      <c r="M436" s="65"/>
-      <c r="N436" s="65"/>
-      <c r="O436" s="65"/>
-      <c r="P436" s="65"/>
-      <c r="Q436" s="65"/>
-      <c r="R436" s="65"/>
-      <c r="S436" s="65"/>
-      <c r="T436" s="65"/>
-      <c r="U436" s="65"/>
-      <c r="V436" s="65"/>
-      <c r="W436" s="65"/>
-      <c r="X436" s="65"/>
-      <c r="Y436" s="65"/>
-      <c r="Z436" s="65"/>
-      <c r="AA436" s="65"/>
-      <c r="AB436" s="65"/>
-      <c r="AC436" s="65"/>
-      <c r="AD436" s="65"/>
-      <c r="AE436" s="65"/>
-      <c r="AF436" s="65"/>
-      <c r="AG436" s="65"/>
-      <c r="AH436" s="65"/>
+      <c r="B436" s="61"/>
+      <c r="C436" s="61"/>
+      <c r="D436" s="61"/>
+      <c r="E436" s="61"/>
+      <c r="F436" s="61"/>
+      <c r="G436" s="61"/>
+      <c r="H436" s="61"/>
+      <c r="I436" s="61"/>
+      <c r="J436" s="61"/>
+      <c r="K436" s="61"/>
+      <c r="L436" s="61"/>
+      <c r="M436" s="61"/>
+      <c r="N436" s="61"/>
+      <c r="O436" s="61"/>
+      <c r="P436" s="61"/>
+      <c r="Q436" s="61"/>
+      <c r="R436" s="61"/>
+      <c r="S436" s="61"/>
+      <c r="T436" s="61"/>
+      <c r="U436" s="61"/>
+      <c r="V436" s="61"/>
+      <c r="W436" s="61"/>
+      <c r="X436" s="61"/>
+      <c r="Y436" s="61"/>
+      <c r="Z436" s="61"/>
+      <c r="AA436" s="61"/>
+      <c r="AB436" s="61"/>
+      <c r="AC436" s="61"/>
+      <c r="AD436" s="61"/>
+      <c r="AE436" s="61"/>
+      <c r="AF436" s="61"/>
+      <c r="AG436" s="61"/>
+      <c r="AH436" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37665,60 +37728,6 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37752,80 +37761,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="66" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
@@ -37873,7 +37882,7 @@
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
-      <c r="AH3" s="67" t="s">
+      <c r="AH3" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38576,118 +38585,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="66" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="63" t="s">
@@ -38735,7 +38744,7 @@
       <c r="AE24" s="63"/>
       <c r="AF24" s="63"/>
       <c r="AG24" s="63"/>
-      <c r="AH24" s="67" t="s">
+      <c r="AH24" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39318,118 +39327,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="65"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
     </row>
     <row r="40" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="60"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="65"/>
     </row>
     <row r="41" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="66" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="61"/>
-      <c r="Y41" s="61"/>
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="61"/>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="61"/>
-      <c r="AE41" s="61"/>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="61"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="63" t="s">
@@ -39477,7 +39486,7 @@
       <c r="AE42" s="63"/>
       <c r="AF42" s="63"/>
       <c r="AG42" s="63"/>
-      <c r="AH42" s="67" t="s">
+      <c r="AH42" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40340,118 +40349,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
-      <c r="X63" s="65"/>
-      <c r="Y63" s="65"/>
-      <c r="Z63" s="65"/>
-      <c r="AA63" s="65"/>
-      <c r="AB63" s="65"/>
-      <c r="AC63" s="65"/>
-      <c r="AD63" s="65"/>
-      <c r="AE63" s="65"/>
-      <c r="AF63" s="65"/>
-      <c r="AG63" s="65"/>
-      <c r="AH63" s="65"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
+      <c r="AA63" s="61"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
+      <c r="AE63" s="61"/>
+      <c r="AF63" s="61"/>
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="61"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="60"/>
-      <c r="AA64" s="60"/>
-      <c r="AB64" s="60"/>
-      <c r="AC64" s="60"/>
-      <c r="AD64" s="60"/>
-      <c r="AE64" s="60"/>
-      <c r="AF64" s="60"/>
-      <c r="AG64" s="60"/>
-      <c r="AH64" s="60"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="65"/>
+      <c r="Z64" s="65"/>
+      <c r="AA64" s="65"/>
+      <c r="AB64" s="65"/>
+      <c r="AC64" s="65"/>
+      <c r="AD64" s="65"/>
+      <c r="AE64" s="65"/>
+      <c r="AF64" s="65"/>
+      <c r="AG64" s="65"/>
+      <c r="AH64" s="65"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="66" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="61"/>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="61"/>
-      <c r="AF65" s="61"/>
-      <c r="AG65" s="61"/>
-      <c r="AH65" s="61"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="63" t="s">
@@ -40499,7 +40508,7 @@
       <c r="AE66" s="63"/>
       <c r="AF66" s="63"/>
       <c r="AG66" s="63"/>
-      <c r="AH66" s="67" t="s">
+      <c r="AH66" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42322,118 +42331,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="65"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="65"/>
-      <c r="S111" s="65"/>
-      <c r="T111" s="65"/>
-      <c r="U111" s="65"/>
-      <c r="V111" s="65"/>
-      <c r="W111" s="65"/>
-      <c r="X111" s="65"/>
-      <c r="Y111" s="65"/>
-      <c r="Z111" s="65"/>
-      <c r="AA111" s="65"/>
-      <c r="AB111" s="65"/>
-      <c r="AC111" s="65"/>
-      <c r="AD111" s="65"/>
-      <c r="AE111" s="65"/>
-      <c r="AF111" s="65"/>
-      <c r="AG111" s="65"/>
-      <c r="AH111" s="65"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
+      <c r="U111" s="61"/>
+      <c r="V111" s="61"/>
+      <c r="W111" s="61"/>
+      <c r="X111" s="61"/>
+      <c r="Y111" s="61"/>
+      <c r="Z111" s="61"/>
+      <c r="AA111" s="61"/>
+      <c r="AB111" s="61"/>
+      <c r="AC111" s="61"/>
+      <c r="AD111" s="61"/>
+      <c r="AE111" s="61"/>
+      <c r="AF111" s="61"/>
+      <c r="AG111" s="61"/>
+      <c r="AH111" s="61"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="60" t="s">
+      <c r="A113" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="60"/>
-      <c r="O113" s="60"/>
-      <c r="P113" s="60"/>
-      <c r="Q113" s="60"/>
-      <c r="R113" s="60"/>
-      <c r="S113" s="60"/>
-      <c r="T113" s="60"/>
-      <c r="U113" s="60"/>
-      <c r="V113" s="60"/>
-      <c r="W113" s="60"/>
-      <c r="X113" s="60"/>
-      <c r="Y113" s="60"/>
-      <c r="Z113" s="60"/>
-      <c r="AA113" s="60"/>
-      <c r="AB113" s="60"/>
-      <c r="AC113" s="60"/>
-      <c r="AD113" s="60"/>
-      <c r="AE113" s="60"/>
-      <c r="AF113" s="60"/>
-      <c r="AG113" s="60"/>
-      <c r="AH113" s="60"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="65"/>
+      <c r="N113" s="65"/>
+      <c r="O113" s="65"/>
+      <c r="P113" s="65"/>
+      <c r="Q113" s="65"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="65"/>
+      <c r="V113" s="65"/>
+      <c r="W113" s="65"/>
+      <c r="X113" s="65"/>
+      <c r="Y113" s="65"/>
+      <c r="Z113" s="65"/>
+      <c r="AA113" s="65"/>
+      <c r="AB113" s="65"/>
+      <c r="AC113" s="65"/>
+      <c r="AD113" s="65"/>
+      <c r="AE113" s="65"/>
+      <c r="AF113" s="65"/>
+      <c r="AG113" s="65"/>
+      <c r="AH113" s="65"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="66" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="61"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="61"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="61"/>
-      <c r="L114" s="61"/>
-      <c r="M114" s="61"/>
-      <c r="N114" s="61"/>
-      <c r="O114" s="61"/>
-      <c r="P114" s="61"/>
-      <c r="Q114" s="61"/>
-      <c r="R114" s="61"/>
-      <c r="S114" s="61"/>
-      <c r="T114" s="61"/>
-      <c r="U114" s="61"/>
-      <c r="V114" s="61"/>
-      <c r="W114" s="61"/>
-      <c r="X114" s="61"/>
-      <c r="Y114" s="61"/>
-      <c r="Z114" s="61"/>
-      <c r="AA114" s="61"/>
-      <c r="AB114" s="61"/>
-      <c r="AC114" s="61"/>
-      <c r="AD114" s="61"/>
-      <c r="AE114" s="61"/>
-      <c r="AF114" s="61"/>
-      <c r="AG114" s="61"/>
-      <c r="AH114" s="61"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="66"/>
+      <c r="M114" s="66"/>
+      <c r="N114" s="66"/>
+      <c r="O114" s="66"/>
+      <c r="P114" s="66"/>
+      <c r="Q114" s="66"/>
+      <c r="R114" s="66"/>
+      <c r="S114" s="66"/>
+      <c r="T114" s="66"/>
+      <c r="U114" s="66"/>
+      <c r="V114" s="66"/>
+      <c r="W114" s="66"/>
+      <c r="X114" s="66"/>
+      <c r="Y114" s="66"/>
+      <c r="Z114" s="66"/>
+      <c r="AA114" s="66"/>
+      <c r="AB114" s="66"/>
+      <c r="AC114" s="66"/>
+      <c r="AD114" s="66"/>
+      <c r="AE114" s="66"/>
+      <c r="AF114" s="66"/>
+      <c r="AG114" s="66"/>
+      <c r="AH114" s="66"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="63" t="s">
@@ -42481,7 +42490,7 @@
       <c r="AE115" s="63"/>
       <c r="AF115" s="63"/>
       <c r="AG115" s="63"/>
-      <c r="AH115" s="67" t="s">
+      <c r="AH115" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44304,118 +44313,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="64" t="s">
+      <c r="A160" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="65"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="65"/>
-      <c r="F160" s="65"/>
-      <c r="G160" s="65"/>
-      <c r="H160" s="65"/>
-      <c r="I160" s="65"/>
-      <c r="J160" s="65"/>
-      <c r="K160" s="65"/>
-      <c r="L160" s="65"/>
-      <c r="M160" s="65"/>
-      <c r="N160" s="65"/>
-      <c r="O160" s="65"/>
-      <c r="P160" s="65"/>
-      <c r="Q160" s="65"/>
-      <c r="R160" s="65"/>
-      <c r="S160" s="65"/>
-      <c r="T160" s="65"/>
-      <c r="U160" s="65"/>
-      <c r="V160" s="65"/>
-      <c r="W160" s="65"/>
-      <c r="X160" s="65"/>
-      <c r="Y160" s="65"/>
-      <c r="Z160" s="65"/>
-      <c r="AA160" s="65"/>
-      <c r="AB160" s="65"/>
-      <c r="AC160" s="65"/>
-      <c r="AD160" s="65"/>
-      <c r="AE160" s="65"/>
-      <c r="AF160" s="65"/>
-      <c r="AG160" s="65"/>
-      <c r="AH160" s="65"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="61"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="61"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="61"/>
+      <c r="I160" s="61"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="61"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="61"/>
+      <c r="N160" s="61"/>
+      <c r="O160" s="61"/>
+      <c r="P160" s="61"/>
+      <c r="Q160" s="61"/>
+      <c r="R160" s="61"/>
+      <c r="S160" s="61"/>
+      <c r="T160" s="61"/>
+      <c r="U160" s="61"/>
+      <c r="V160" s="61"/>
+      <c r="W160" s="61"/>
+      <c r="X160" s="61"/>
+      <c r="Y160" s="61"/>
+      <c r="Z160" s="61"/>
+      <c r="AA160" s="61"/>
+      <c r="AB160" s="61"/>
+      <c r="AC160" s="61"/>
+      <c r="AD160" s="61"/>
+      <c r="AE160" s="61"/>
+      <c r="AF160" s="61"/>
+      <c r="AG160" s="61"/>
+      <c r="AH160" s="61"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="60" t="s">
+      <c r="A162" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="60"/>
-      <c r="I162" s="60"/>
-      <c r="J162" s="60"/>
-      <c r="K162" s="60"/>
-      <c r="L162" s="60"/>
-      <c r="M162" s="60"/>
-      <c r="N162" s="60"/>
-      <c r="O162" s="60"/>
-      <c r="P162" s="60"/>
-      <c r="Q162" s="60"/>
-      <c r="R162" s="60"/>
-      <c r="S162" s="60"/>
-      <c r="T162" s="60"/>
-      <c r="U162" s="60"/>
-      <c r="V162" s="60"/>
-      <c r="W162" s="60"/>
-      <c r="X162" s="60"/>
-      <c r="Y162" s="60"/>
-      <c r="Z162" s="60"/>
-      <c r="AA162" s="60"/>
-      <c r="AB162" s="60"/>
-      <c r="AC162" s="60"/>
-      <c r="AD162" s="60"/>
-      <c r="AE162" s="60"/>
-      <c r="AF162" s="60"/>
-      <c r="AG162" s="60"/>
-      <c r="AH162" s="60"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="65"/>
+      <c r="G162" s="65"/>
+      <c r="H162" s="65"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="65"/>
+      <c r="K162" s="65"/>
+      <c r="L162" s="65"/>
+      <c r="M162" s="65"/>
+      <c r="N162" s="65"/>
+      <c r="O162" s="65"/>
+      <c r="P162" s="65"/>
+      <c r="Q162" s="65"/>
+      <c r="R162" s="65"/>
+      <c r="S162" s="65"/>
+      <c r="T162" s="65"/>
+      <c r="U162" s="65"/>
+      <c r="V162" s="65"/>
+      <c r="W162" s="65"/>
+      <c r="X162" s="65"/>
+      <c r="Y162" s="65"/>
+      <c r="Z162" s="65"/>
+      <c r="AA162" s="65"/>
+      <c r="AB162" s="65"/>
+      <c r="AC162" s="65"/>
+      <c r="AD162" s="65"/>
+      <c r="AE162" s="65"/>
+      <c r="AF162" s="65"/>
+      <c r="AG162" s="65"/>
+      <c r="AH162" s="65"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="61" t="s">
+      <c r="A163" s="66" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="61"/>
-      <c r="C163" s="61"/>
-      <c r="D163" s="61"/>
-      <c r="E163" s="61"/>
-      <c r="F163" s="61"/>
-      <c r="G163" s="61"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="61"/>
-      <c r="J163" s="61"/>
-      <c r="K163" s="61"/>
-      <c r="L163" s="61"/>
-      <c r="M163" s="61"/>
-      <c r="N163" s="61"/>
-      <c r="O163" s="61"/>
-      <c r="P163" s="61"/>
-      <c r="Q163" s="61"/>
-      <c r="R163" s="61"/>
-      <c r="S163" s="61"/>
-      <c r="T163" s="61"/>
-      <c r="U163" s="61"/>
-      <c r="V163" s="61"/>
-      <c r="W163" s="61"/>
-      <c r="X163" s="61"/>
-      <c r="Y163" s="61"/>
-      <c r="Z163" s="61"/>
-      <c r="AA163" s="61"/>
-      <c r="AB163" s="61"/>
-      <c r="AC163" s="61"/>
-      <c r="AD163" s="61"/>
-      <c r="AE163" s="61"/>
-      <c r="AF163" s="61"/>
-      <c r="AG163" s="61"/>
-      <c r="AH163" s="61"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
+      <c r="I163" s="66"/>
+      <c r="J163" s="66"/>
+      <c r="K163" s="66"/>
+      <c r="L163" s="66"/>
+      <c r="M163" s="66"/>
+      <c r="N163" s="66"/>
+      <c r="O163" s="66"/>
+      <c r="P163" s="66"/>
+      <c r="Q163" s="66"/>
+      <c r="R163" s="66"/>
+      <c r="S163" s="66"/>
+      <c r="T163" s="66"/>
+      <c r="U163" s="66"/>
+      <c r="V163" s="66"/>
+      <c r="W163" s="66"/>
+      <c r="X163" s="66"/>
+      <c r="Y163" s="66"/>
+      <c r="Z163" s="66"/>
+      <c r="AA163" s="66"/>
+      <c r="AB163" s="66"/>
+      <c r="AC163" s="66"/>
+      <c r="AD163" s="66"/>
+      <c r="AE163" s="66"/>
+      <c r="AF163" s="66"/>
+      <c r="AG163" s="66"/>
+      <c r="AH163" s="66"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="63" t="s">
@@ -44463,7 +44472,7 @@
       <c r="AE164" s="63"/>
       <c r="AF164" s="63"/>
       <c r="AG164" s="63"/>
-      <c r="AH164" s="67" t="s">
+      <c r="AH164" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46286,118 +46295,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="64" t="s">
+      <c r="A209" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="65"/>
-      <c r="C209" s="65"/>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
-      <c r="L209" s="65"/>
-      <c r="M209" s="65"/>
-      <c r="N209" s="65"/>
-      <c r="O209" s="65"/>
-      <c r="P209" s="65"/>
-      <c r="Q209" s="65"/>
-      <c r="R209" s="65"/>
-      <c r="S209" s="65"/>
-      <c r="T209" s="65"/>
-      <c r="U209" s="65"/>
-      <c r="V209" s="65"/>
-      <c r="W209" s="65"/>
-      <c r="X209" s="65"/>
-      <c r="Y209" s="65"/>
-      <c r="Z209" s="65"/>
-      <c r="AA209" s="65"/>
-      <c r="AB209" s="65"/>
-      <c r="AC209" s="65"/>
-      <c r="AD209" s="65"/>
-      <c r="AE209" s="65"/>
-      <c r="AF209" s="65"/>
-      <c r="AG209" s="65"/>
-      <c r="AH209" s="65"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="61"/>
+      <c r="D209" s="61"/>
+      <c r="E209" s="61"/>
+      <c r="F209" s="61"/>
+      <c r="G209" s="61"/>
+      <c r="H209" s="61"/>
+      <c r="I209" s="61"/>
+      <c r="J209" s="61"/>
+      <c r="K209" s="61"/>
+      <c r="L209" s="61"/>
+      <c r="M209" s="61"/>
+      <c r="N209" s="61"/>
+      <c r="O209" s="61"/>
+      <c r="P209" s="61"/>
+      <c r="Q209" s="61"/>
+      <c r="R209" s="61"/>
+      <c r="S209" s="61"/>
+      <c r="T209" s="61"/>
+      <c r="U209" s="61"/>
+      <c r="V209" s="61"/>
+      <c r="W209" s="61"/>
+      <c r="X209" s="61"/>
+      <c r="Y209" s="61"/>
+      <c r="Z209" s="61"/>
+      <c r="AA209" s="61"/>
+      <c r="AB209" s="61"/>
+      <c r="AC209" s="61"/>
+      <c r="AD209" s="61"/>
+      <c r="AE209" s="61"/>
+      <c r="AF209" s="61"/>
+      <c r="AG209" s="61"/>
+      <c r="AH209" s="61"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="60" t="s">
+      <c r="A211" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="60"/>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="60"/>
-      <c r="H211" s="60"/>
-      <c r="I211" s="60"/>
-      <c r="J211" s="60"/>
-      <c r="K211" s="60"/>
-      <c r="L211" s="60"/>
-      <c r="M211" s="60"/>
-      <c r="N211" s="60"/>
-      <c r="O211" s="60"/>
-      <c r="P211" s="60"/>
-      <c r="Q211" s="60"/>
-      <c r="R211" s="60"/>
-      <c r="S211" s="60"/>
-      <c r="T211" s="60"/>
-      <c r="U211" s="60"/>
-      <c r="V211" s="60"/>
-      <c r="W211" s="60"/>
-      <c r="X211" s="60"/>
-      <c r="Y211" s="60"/>
-      <c r="Z211" s="60"/>
-      <c r="AA211" s="60"/>
-      <c r="AB211" s="60"/>
-      <c r="AC211" s="60"/>
-      <c r="AD211" s="60"/>
-      <c r="AE211" s="60"/>
-      <c r="AF211" s="60"/>
-      <c r="AG211" s="60"/>
-      <c r="AH211" s="60"/>
+      <c r="B211" s="65"/>
+      <c r="C211" s="65"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="65"/>
+      <c r="L211" s="65"/>
+      <c r="M211" s="65"/>
+      <c r="N211" s="65"/>
+      <c r="O211" s="65"/>
+      <c r="P211" s="65"/>
+      <c r="Q211" s="65"/>
+      <c r="R211" s="65"/>
+      <c r="S211" s="65"/>
+      <c r="T211" s="65"/>
+      <c r="U211" s="65"/>
+      <c r="V211" s="65"/>
+      <c r="W211" s="65"/>
+      <c r="X211" s="65"/>
+      <c r="Y211" s="65"/>
+      <c r="Z211" s="65"/>
+      <c r="AA211" s="65"/>
+      <c r="AB211" s="65"/>
+      <c r="AC211" s="65"/>
+      <c r="AD211" s="65"/>
+      <c r="AE211" s="65"/>
+      <c r="AF211" s="65"/>
+      <c r="AG211" s="65"/>
+      <c r="AH211" s="65"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="61" t="s">
+      <c r="A212" s="66" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="61"/>
-      <c r="C212" s="61"/>
-      <c r="D212" s="61"/>
-      <c r="E212" s="61"/>
-      <c r="F212" s="61"/>
-      <c r="G212" s="61"/>
-      <c r="H212" s="61"/>
-      <c r="I212" s="61"/>
-      <c r="J212" s="61"/>
-      <c r="K212" s="61"/>
-      <c r="L212" s="61"/>
-      <c r="M212" s="61"/>
-      <c r="N212" s="61"/>
-      <c r="O212" s="61"/>
-      <c r="P212" s="61"/>
-      <c r="Q212" s="61"/>
-      <c r="R212" s="61"/>
-      <c r="S212" s="61"/>
-      <c r="T212" s="61"/>
-      <c r="U212" s="61"/>
-      <c r="V212" s="61"/>
-      <c r="W212" s="61"/>
-      <c r="X212" s="61"/>
-      <c r="Y212" s="61"/>
-      <c r="Z212" s="61"/>
-      <c r="AA212" s="61"/>
-      <c r="AB212" s="61"/>
-      <c r="AC212" s="61"/>
-      <c r="AD212" s="61"/>
-      <c r="AE212" s="61"/>
-      <c r="AF212" s="61"/>
-      <c r="AG212" s="61"/>
-      <c r="AH212" s="61"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="66"/>
+      <c r="E212" s="66"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
+      <c r="J212" s="66"/>
+      <c r="K212" s="66"/>
+      <c r="L212" s="66"/>
+      <c r="M212" s="66"/>
+      <c r="N212" s="66"/>
+      <c r="O212" s="66"/>
+      <c r="P212" s="66"/>
+      <c r="Q212" s="66"/>
+      <c r="R212" s="66"/>
+      <c r="S212" s="66"/>
+      <c r="T212" s="66"/>
+      <c r="U212" s="66"/>
+      <c r="V212" s="66"/>
+      <c r="W212" s="66"/>
+      <c r="X212" s="66"/>
+      <c r="Y212" s="66"/>
+      <c r="Z212" s="66"/>
+      <c r="AA212" s="66"/>
+      <c r="AB212" s="66"/>
+      <c r="AC212" s="66"/>
+      <c r="AD212" s="66"/>
+      <c r="AE212" s="66"/>
+      <c r="AF212" s="66"/>
+      <c r="AG212" s="66"/>
+      <c r="AH212" s="66"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="63" t="s">
@@ -46445,7 +46454,7 @@
       <c r="AE213" s="63"/>
       <c r="AF213" s="63"/>
       <c r="AG213" s="63"/>
-      <c r="AH213" s="67" t="s">
+      <c r="AH213" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48348,45 +48357,99 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="64" t="s">
+      <c r="A260" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="65"/>
-      <c r="C260" s="65"/>
-      <c r="D260" s="65"/>
-      <c r="E260" s="65"/>
-      <c r="F260" s="65"/>
-      <c r="G260" s="65"/>
-      <c r="H260" s="65"/>
-      <c r="I260" s="65"/>
-      <c r="J260" s="65"/>
-      <c r="K260" s="65"/>
-      <c r="L260" s="65"/>
-      <c r="M260" s="65"/>
-      <c r="N260" s="65"/>
-      <c r="O260" s="65"/>
-      <c r="P260" s="65"/>
-      <c r="Q260" s="65"/>
-      <c r="R260" s="65"/>
-      <c r="S260" s="65"/>
-      <c r="T260" s="65"/>
-      <c r="U260" s="65"/>
-      <c r="V260" s="65"/>
-      <c r="W260" s="65"/>
-      <c r="X260" s="65"/>
-      <c r="Y260" s="65"/>
-      <c r="Z260" s="65"/>
-      <c r="AA260" s="65"/>
-      <c r="AB260" s="65"/>
-      <c r="AC260" s="65"/>
-      <c r="AD260" s="65"/>
-      <c r="AE260" s="65"/>
-      <c r="AF260" s="65"/>
-      <c r="AG260" s="65"/>
-      <c r="AH260" s="65"/>
+      <c r="B260" s="61"/>
+      <c r="C260" s="61"/>
+      <c r="D260" s="61"/>
+      <c r="E260" s="61"/>
+      <c r="F260" s="61"/>
+      <c r="G260" s="61"/>
+      <c r="H260" s="61"/>
+      <c r="I260" s="61"/>
+      <c r="J260" s="61"/>
+      <c r="K260" s="61"/>
+      <c r="L260" s="61"/>
+      <c r="M260" s="61"/>
+      <c r="N260" s="61"/>
+      <c r="O260" s="61"/>
+      <c r="P260" s="61"/>
+      <c r="Q260" s="61"/>
+      <c r="R260" s="61"/>
+      <c r="S260" s="61"/>
+      <c r="T260" s="61"/>
+      <c r="U260" s="61"/>
+      <c r="V260" s="61"/>
+      <c r="W260" s="61"/>
+      <c r="X260" s="61"/>
+      <c r="Y260" s="61"/>
+      <c r="Z260" s="61"/>
+      <c r="AA260" s="61"/>
+      <c r="AB260" s="61"/>
+      <c r="AC260" s="61"/>
+      <c r="AD260" s="61"/>
+      <c r="AE260" s="61"/>
+      <c r="AF260" s="61"/>
+      <c r="AG260" s="61"/>
+      <c r="AH260" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48403,60 +48466,6 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mygithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD19607-E547-45CE-9241-C23F58BFB1DB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C1DAE3-9521-4D01-8E92-95659958994E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1715">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6867,6 +6867,10 @@
   </si>
   <si>
     <t>迟到</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -7008,7 +7012,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7024,12 +7028,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7265,6 +7263,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7275,21 +7285,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8224,80 +8222,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
@@ -8345,7 +8343,7 @@
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
-      <c r="AH3" s="64" t="s">
+      <c r="AH3" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9648,118 +9646,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="62"/>
+      <c r="AH37" s="62"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="63" t="s">
@@ -9807,7 +9805,7 @@
       <c r="AE38" s="63"/>
       <c r="AF38" s="63"/>
       <c r="AG38" s="63"/>
-      <c r="AH38" s="64" t="s">
+      <c r="AH38" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12270,119 +12268,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="61"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
-      <c r="N99" s="62"/>
-      <c r="O99" s="62"/>
-      <c r="P99" s="62"/>
-      <c r="Q99" s="62"/>
-      <c r="R99" s="62"/>
-      <c r="S99" s="62"/>
-      <c r="T99" s="62"/>
-      <c r="U99" s="62"/>
-      <c r="V99" s="62"/>
-      <c r="W99" s="62"/>
-      <c r="X99" s="62"/>
-      <c r="Y99" s="62"/>
-      <c r="Z99" s="62"/>
-      <c r="AA99" s="62"/>
-      <c r="AB99" s="62"/>
-      <c r="AC99" s="62"/>
-      <c r="AD99" s="62"/>
-      <c r="AE99" s="62"/>
-      <c r="AF99" s="62"/>
-      <c r="AG99" s="62"/>
-      <c r="AH99" s="62"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="66"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="66"/>
+      <c r="T99" s="66"/>
+      <c r="U99" s="66"/>
+      <c r="V99" s="66"/>
+      <c r="W99" s="66"/>
+      <c r="X99" s="66"/>
+      <c r="Y99" s="66"/>
+      <c r="Z99" s="66"/>
+      <c r="AA99" s="66"/>
+      <c r="AB99" s="66"/>
+      <c r="AC99" s="66"/>
+      <c r="AD99" s="66"/>
+      <c r="AE99" s="66"/>
+      <c r="AF99" s="66"/>
+      <c r="AG99" s="66"/>
+      <c r="AH99" s="66"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="65"/>
-      <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="65"/>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="65"/>
-      <c r="S101" s="65"/>
-      <c r="T101" s="65"/>
-      <c r="U101" s="65"/>
-      <c r="V101" s="65"/>
-      <c r="W101" s="65"/>
-      <c r="X101" s="65"/>
-      <c r="Y101" s="65"/>
-      <c r="Z101" s="65"/>
-      <c r="AA101" s="65"/>
-      <c r="AB101" s="65"/>
-      <c r="AC101" s="65"/>
-      <c r="AD101" s="65"/>
-      <c r="AE101" s="65"/>
-      <c r="AF101" s="65"/>
-      <c r="AG101" s="65"/>
-      <c r="AH101" s="65"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
+      <c r="P101" s="60"/>
+      <c r="Q101" s="60"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="60"/>
+      <c r="T101" s="60"/>
+      <c r="U101" s="60"/>
+      <c r="V101" s="60"/>
+      <c r="W101" s="60"/>
+      <c r="X101" s="60"/>
+      <c r="Y101" s="60"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="60"/>
+      <c r="AB101" s="60"/>
+      <c r="AC101" s="60"/>
+      <c r="AD101" s="60"/>
+      <c r="AE101" s="60"/>
+      <c r="AF101" s="60"/>
+      <c r="AG101" s="60"/>
+      <c r="AH101" s="60"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="67"/>
-      <c r="L102" s="67"/>
-      <c r="M102" s="67"/>
-      <c r="N102" s="67"/>
-      <c r="O102" s="67"/>
-      <c r="P102" s="67"/>
-      <c r="Q102" s="67"/>
-      <c r="R102" s="67"/>
-      <c r="S102" s="67"/>
-      <c r="T102" s="67"/>
-      <c r="U102" s="67"/>
-      <c r="V102" s="67"/>
-      <c r="W102" s="67"/>
-      <c r="X102" s="67"/>
-      <c r="Y102" s="67"/>
-      <c r="Z102" s="67"/>
-      <c r="AA102" s="67"/>
-      <c r="AB102" s="67"/>
-      <c r="AC102" s="67"/>
-      <c r="AD102" s="67"/>
-      <c r="AE102" s="67"/>
-      <c r="AF102" s="67"/>
-      <c r="AG102" s="67"/>
-      <c r="AH102" s="67"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="62"/>
+      <c r="T102" s="62"/>
+      <c r="U102" s="62"/>
+      <c r="V102" s="62"/>
+      <c r="W102" s="62"/>
+      <c r="X102" s="62"/>
+      <c r="Y102" s="62"/>
+      <c r="Z102" s="62"/>
+      <c r="AA102" s="62"/>
+      <c r="AB102" s="62"/>
+      <c r="AC102" s="62"/>
+      <c r="AD102" s="62"/>
+      <c r="AE102" s="62"/>
+      <c r="AF102" s="62"/>
+      <c r="AG102" s="62"/>
+      <c r="AH102" s="62"/>
     </row>
     <row r="103" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="63" t="s">
@@ -12430,7 +12428,7 @@
       <c r="AE103" s="63"/>
       <c r="AF103" s="63"/>
       <c r="AG103" s="63"/>
-      <c r="AH103" s="64" t="s">
+      <c r="AH103" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15053,118 +15051,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="60" t="s">
+      <c r="A168" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="61"/>
-      <c r="C168" s="62"/>
-      <c r="D168" s="62"/>
-      <c r="E168" s="62"/>
-      <c r="F168" s="62"/>
-      <c r="G168" s="62"/>
-      <c r="H168" s="62"/>
-      <c r="I168" s="62"/>
-      <c r="J168" s="62"/>
-      <c r="K168" s="62"/>
-      <c r="L168" s="62"/>
-      <c r="M168" s="62"/>
-      <c r="N168" s="62"/>
-      <c r="O168" s="62"/>
-      <c r="P168" s="62"/>
-      <c r="Q168" s="62"/>
-      <c r="R168" s="62"/>
-      <c r="S168" s="62"/>
-      <c r="T168" s="62"/>
-      <c r="U168" s="62"/>
-      <c r="V168" s="62"/>
-      <c r="W168" s="62"/>
-      <c r="X168" s="62"/>
-      <c r="Y168" s="62"/>
-      <c r="Z168" s="62"/>
-      <c r="AA168" s="62"/>
-      <c r="AB168" s="62"/>
-      <c r="AC168" s="62"/>
-      <c r="AD168" s="62"/>
-      <c r="AE168" s="62"/>
-      <c r="AF168" s="62"/>
-      <c r="AG168" s="62"/>
-      <c r="AH168" s="62"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
+      <c r="I168" s="66"/>
+      <c r="J168" s="66"/>
+      <c r="K168" s="66"/>
+      <c r="L168" s="66"/>
+      <c r="M168" s="66"/>
+      <c r="N168" s="66"/>
+      <c r="O168" s="66"/>
+      <c r="P168" s="66"/>
+      <c r="Q168" s="66"/>
+      <c r="R168" s="66"/>
+      <c r="S168" s="66"/>
+      <c r="T168" s="66"/>
+      <c r="U168" s="66"/>
+      <c r="V168" s="66"/>
+      <c r="W168" s="66"/>
+      <c r="X168" s="66"/>
+      <c r="Y168" s="66"/>
+      <c r="Z168" s="66"/>
+      <c r="AA168" s="66"/>
+      <c r="AB168" s="66"/>
+      <c r="AC168" s="66"/>
+      <c r="AD168" s="66"/>
+      <c r="AE168" s="66"/>
+      <c r="AF168" s="66"/>
+      <c r="AG168" s="66"/>
+      <c r="AH168" s="66"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="65" t="s">
+      <c r="A169" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="65"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="65"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="65"/>
-      <c r="H169" s="65"/>
-      <c r="I169" s="65"/>
-      <c r="J169" s="65"/>
-      <c r="K169" s="65"/>
-      <c r="L169" s="65"/>
-      <c r="M169" s="65"/>
-      <c r="N169" s="65"/>
-      <c r="O169" s="65"/>
-      <c r="P169" s="65"/>
-      <c r="Q169" s="65"/>
-      <c r="R169" s="65"/>
-      <c r="S169" s="65"/>
-      <c r="T169" s="65"/>
-      <c r="U169" s="65"/>
-      <c r="V169" s="65"/>
-      <c r="W169" s="65"/>
-      <c r="X169" s="65"/>
-      <c r="Y169" s="65"/>
-      <c r="Z169" s="65"/>
-      <c r="AA169" s="65"/>
-      <c r="AB169" s="65"/>
-      <c r="AC169" s="65"/>
-      <c r="AD169" s="65"/>
-      <c r="AE169" s="65"/>
-      <c r="AF169" s="65"/>
-      <c r="AG169" s="65"/>
-      <c r="AH169" s="65"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="60"/>
+      <c r="O169" s="60"/>
+      <c r="P169" s="60"/>
+      <c r="Q169" s="60"/>
+      <c r="R169" s="60"/>
+      <c r="S169" s="60"/>
+      <c r="T169" s="60"/>
+      <c r="U169" s="60"/>
+      <c r="V169" s="60"/>
+      <c r="W169" s="60"/>
+      <c r="X169" s="60"/>
+      <c r="Y169" s="60"/>
+      <c r="Z169" s="60"/>
+      <c r="AA169" s="60"/>
+      <c r="AB169" s="60"/>
+      <c r="AC169" s="60"/>
+      <c r="AD169" s="60"/>
+      <c r="AE169" s="60"/>
+      <c r="AF169" s="60"/>
+      <c r="AG169" s="60"/>
+      <c r="AH169" s="60"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="66" t="s">
+      <c r="A170" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="66"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="67"/>
-      <c r="I170" s="67"/>
-      <c r="J170" s="67"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="67"/>
-      <c r="M170" s="67"/>
-      <c r="N170" s="67"/>
-      <c r="O170" s="67"/>
-      <c r="P170" s="67"/>
-      <c r="Q170" s="67"/>
-      <c r="R170" s="67"/>
-      <c r="S170" s="67"/>
-      <c r="T170" s="67"/>
-      <c r="U170" s="67"/>
-      <c r="V170" s="67"/>
-      <c r="W170" s="67"/>
-      <c r="X170" s="67"/>
-      <c r="Y170" s="67"/>
-      <c r="Z170" s="67"/>
-      <c r="AA170" s="67"/>
-      <c r="AB170" s="67"/>
-      <c r="AC170" s="67"/>
-      <c r="AD170" s="67"/>
-      <c r="AE170" s="67"/>
-      <c r="AF170" s="67"/>
-      <c r="AG170" s="67"/>
-      <c r="AH170" s="67"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62"/>
+      <c r="I170" s="62"/>
+      <c r="J170" s="62"/>
+      <c r="K170" s="62"/>
+      <c r="L170" s="62"/>
+      <c r="M170" s="62"/>
+      <c r="N170" s="62"/>
+      <c r="O170" s="62"/>
+      <c r="P170" s="62"/>
+      <c r="Q170" s="62"/>
+      <c r="R170" s="62"/>
+      <c r="S170" s="62"/>
+      <c r="T170" s="62"/>
+      <c r="U170" s="62"/>
+      <c r="V170" s="62"/>
+      <c r="W170" s="62"/>
+      <c r="X170" s="62"/>
+      <c r="Y170" s="62"/>
+      <c r="Z170" s="62"/>
+      <c r="AA170" s="62"/>
+      <c r="AB170" s="62"/>
+      <c r="AC170" s="62"/>
+      <c r="AD170" s="62"/>
+      <c r="AE170" s="62"/>
+      <c r="AF170" s="62"/>
+      <c r="AG170" s="62"/>
+      <c r="AH170" s="62"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="63" t="s">
@@ -15212,7 +15210,7 @@
       <c r="AE171" s="63"/>
       <c r="AF171" s="63"/>
       <c r="AG171" s="63"/>
-      <c r="AH171" s="64" t="s">
+      <c r="AH171" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16795,42 +16793,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="60" t="s">
+      <c r="A210" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="61"/>
-      <c r="C210" s="62"/>
-      <c r="D210" s="62"/>
-      <c r="E210" s="62"/>
-      <c r="F210" s="62"/>
-      <c r="G210" s="62"/>
-      <c r="H210" s="62"/>
-      <c r="I210" s="62"/>
-      <c r="J210" s="62"/>
-      <c r="K210" s="62"/>
-      <c r="L210" s="62"/>
-      <c r="M210" s="62"/>
-      <c r="N210" s="62"/>
-      <c r="O210" s="62"/>
-      <c r="P210" s="62"/>
-      <c r="Q210" s="62"/>
-      <c r="R210" s="62"/>
-      <c r="S210" s="62"/>
-      <c r="T210" s="62"/>
-      <c r="U210" s="62"/>
-      <c r="V210" s="62"/>
-      <c r="W210" s="62"/>
-      <c r="X210" s="62"/>
-      <c r="Y210" s="62"/>
-      <c r="Z210" s="62"/>
-      <c r="AA210" s="62"/>
-      <c r="AB210" s="62"/>
-      <c r="AC210" s="62"/>
-      <c r="AD210" s="62"/>
-      <c r="AE210" s="62"/>
-      <c r="AF210" s="62"/>
-      <c r="AG210" s="62"/>
-      <c r="AH210" s="62"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="66"/>
+      <c r="E210" s="66"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="66"/>
+      <c r="I210" s="66"/>
+      <c r="J210" s="66"/>
+      <c r="K210" s="66"/>
+      <c r="L210" s="66"/>
+      <c r="M210" s="66"/>
+      <c r="N210" s="66"/>
+      <c r="O210" s="66"/>
+      <c r="P210" s="66"/>
+      <c r="Q210" s="66"/>
+      <c r="R210" s="66"/>
+      <c r="S210" s="66"/>
+      <c r="T210" s="66"/>
+      <c r="U210" s="66"/>
+      <c r="V210" s="66"/>
+      <c r="W210" s="66"/>
+      <c r="X210" s="66"/>
+      <c r="Y210" s="66"/>
+      <c r="Z210" s="66"/>
+      <c r="AA210" s="66"/>
+      <c r="AB210" s="66"/>
+      <c r="AC210" s="66"/>
+      <c r="AD210" s="66"/>
+      <c r="AE210" s="66"/>
+      <c r="AF210" s="66"/>
+      <c r="AG210" s="66"/>
+      <c r="AH210" s="66"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="39"/>
@@ -16869,80 +16867,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="65" t="s">
+      <c r="A212" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="65"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
-      <c r="L212" s="65"/>
-      <c r="M212" s="65"/>
-      <c r="N212" s="65"/>
-      <c r="O212" s="65"/>
-      <c r="P212" s="65"/>
-      <c r="Q212" s="65"/>
-      <c r="R212" s="65"/>
-      <c r="S212" s="65"/>
-      <c r="T212" s="65"/>
-      <c r="U212" s="65"/>
-      <c r="V212" s="65"/>
-      <c r="W212" s="65"/>
-      <c r="X212" s="65"/>
-      <c r="Y212" s="65"/>
-      <c r="Z212" s="65"/>
-      <c r="AA212" s="65"/>
-      <c r="AB212" s="65"/>
-      <c r="AC212" s="65"/>
-      <c r="AD212" s="65"/>
-      <c r="AE212" s="65"/>
-      <c r="AF212" s="65"/>
-      <c r="AG212" s="65"/>
-      <c r="AH212" s="65"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="60"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="60"/>
+      <c r="F212" s="60"/>
+      <c r="G212" s="60"/>
+      <c r="H212" s="60"/>
+      <c r="I212" s="60"/>
+      <c r="J212" s="60"/>
+      <c r="K212" s="60"/>
+      <c r="L212" s="60"/>
+      <c r="M212" s="60"/>
+      <c r="N212" s="60"/>
+      <c r="O212" s="60"/>
+      <c r="P212" s="60"/>
+      <c r="Q212" s="60"/>
+      <c r="R212" s="60"/>
+      <c r="S212" s="60"/>
+      <c r="T212" s="60"/>
+      <c r="U212" s="60"/>
+      <c r="V212" s="60"/>
+      <c r="W212" s="60"/>
+      <c r="X212" s="60"/>
+      <c r="Y212" s="60"/>
+      <c r="Z212" s="60"/>
+      <c r="AA212" s="60"/>
+      <c r="AB212" s="60"/>
+      <c r="AC212" s="60"/>
+      <c r="AD212" s="60"/>
+      <c r="AE212" s="60"/>
+      <c r="AF212" s="60"/>
+      <c r="AG212" s="60"/>
+      <c r="AH212" s="60"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="66" t="s">
+      <c r="A213" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="66"/>
-      <c r="E213" s="66"/>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="66"/>
-      <c r="I213" s="66"/>
-      <c r="J213" s="66"/>
-      <c r="K213" s="66"/>
-      <c r="L213" s="66"/>
-      <c r="M213" s="66"/>
-      <c r="N213" s="66"/>
-      <c r="O213" s="66"/>
-      <c r="P213" s="66"/>
-      <c r="Q213" s="66"/>
-      <c r="R213" s="66"/>
-      <c r="S213" s="66"/>
-      <c r="T213" s="66"/>
-      <c r="U213" s="66"/>
-      <c r="V213" s="66"/>
-      <c r="W213" s="66"/>
-      <c r="X213" s="66"/>
-      <c r="Y213" s="66"/>
-      <c r="Z213" s="66"/>
-      <c r="AA213" s="66"/>
-      <c r="AB213" s="66"/>
-      <c r="AC213" s="66"/>
-      <c r="AD213" s="66"/>
-      <c r="AE213" s="66"/>
-      <c r="AF213" s="66"/>
-      <c r="AG213" s="66"/>
-      <c r="AH213" s="66"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="61"/>
+      <c r="E213" s="61"/>
+      <c r="F213" s="61"/>
+      <c r="G213" s="61"/>
+      <c r="H213" s="61"/>
+      <c r="I213" s="61"/>
+      <c r="J213" s="61"/>
+      <c r="K213" s="61"/>
+      <c r="L213" s="61"/>
+      <c r="M213" s="61"/>
+      <c r="N213" s="61"/>
+      <c r="O213" s="61"/>
+      <c r="P213" s="61"/>
+      <c r="Q213" s="61"/>
+      <c r="R213" s="61"/>
+      <c r="S213" s="61"/>
+      <c r="T213" s="61"/>
+      <c r="U213" s="61"/>
+      <c r="V213" s="61"/>
+      <c r="W213" s="61"/>
+      <c r="X213" s="61"/>
+      <c r="Y213" s="61"/>
+      <c r="Z213" s="61"/>
+      <c r="AA213" s="61"/>
+      <c r="AB213" s="61"/>
+      <c r="AC213" s="61"/>
+      <c r="AD213" s="61"/>
+      <c r="AE213" s="61"/>
+      <c r="AF213" s="61"/>
+      <c r="AG213" s="61"/>
+      <c r="AH213" s="61"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="63" t="s">
@@ -16990,7 +16988,7 @@
       <c r="AE214" s="63"/>
       <c r="AF214" s="63"/>
       <c r="AG214" s="63"/>
-      <c r="AH214" s="64" t="s">
+      <c r="AH214" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19693,79 +19691,45 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="60" t="s">
+      <c r="A281" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="61"/>
-      <c r="C281" s="62"/>
-      <c r="D281" s="62"/>
-      <c r="E281" s="62"/>
-      <c r="F281" s="62"/>
-      <c r="G281" s="62"/>
-      <c r="H281" s="62"/>
-      <c r="I281" s="62"/>
-      <c r="J281" s="62"/>
-      <c r="K281" s="62"/>
-      <c r="L281" s="62"/>
-      <c r="M281" s="62"/>
-      <c r="N281" s="62"/>
-      <c r="O281" s="62"/>
-      <c r="P281" s="62"/>
-      <c r="Q281" s="62"/>
-      <c r="R281" s="62"/>
-      <c r="S281" s="62"/>
-      <c r="T281" s="62"/>
-      <c r="U281" s="62"/>
-      <c r="V281" s="62"/>
-      <c r="W281" s="62"/>
-      <c r="X281" s="62"/>
-      <c r="Y281" s="62"/>
-      <c r="Z281" s="62"/>
-      <c r="AA281" s="62"/>
-      <c r="AB281" s="62"/>
-      <c r="AC281" s="62"/>
-      <c r="AD281" s="62"/>
-      <c r="AE281" s="62"/>
-      <c r="AF281" s="62"/>
-      <c r="AG281" s="62"/>
-      <c r="AH281" s="62"/>
+      <c r="B281" s="65"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="66"/>
+      <c r="E281" s="66"/>
+      <c r="F281" s="66"/>
+      <c r="G281" s="66"/>
+      <c r="H281" s="66"/>
+      <c r="I281" s="66"/>
+      <c r="J281" s="66"/>
+      <c r="K281" s="66"/>
+      <c r="L281" s="66"/>
+      <c r="M281" s="66"/>
+      <c r="N281" s="66"/>
+      <c r="O281" s="66"/>
+      <c r="P281" s="66"/>
+      <c r="Q281" s="66"/>
+      <c r="R281" s="66"/>
+      <c r="S281" s="66"/>
+      <c r="T281" s="66"/>
+      <c r="U281" s="66"/>
+      <c r="V281" s="66"/>
+      <c r="W281" s="66"/>
+      <c r="X281" s="66"/>
+      <c r="Y281" s="66"/>
+      <c r="Z281" s="66"/>
+      <c r="AA281" s="66"/>
+      <c r="AB281" s="66"/>
+      <c r="AC281" s="66"/>
+      <c r="AD281" s="66"/>
+      <c r="AE281" s="66"/>
+      <c r="AF281" s="66"/>
+      <c r="AG281" s="66"/>
+      <c r="AH281" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19782,6 +19746,40 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19793,8 +19791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19815,80 +19813,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
@@ -19936,7 +19934,7 @@
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
-      <c r="AH3" s="64" t="s">
+      <c r="AH3" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -20046,7 +20044,7 @@
         <v>460</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -20758,45 +20756,45 @@
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
     </row>
-    <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:34" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="52" t="s">
         <v>496</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
@@ -20918,47 +20916,47 @@
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
     </row>
-    <row r="27" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:34" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="52" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="68" t="s">
         <v>1697</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
     </row>
     <row r="28" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
@@ -21934,7 +21932,7 @@
         <v>554</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -22536,7 +22534,9 @@
         <v>584</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="51" t="s">
+        <v>1714</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -22656,7 +22656,9 @@
         <v>590</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="51" t="s">
+        <v>1714</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -22689,42 +22691,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="61"/>
-      <c r="AB71" s="61"/>
-      <c r="AC71" s="61"/>
-      <c r="AD71" s="61"/>
-      <c r="AE71" s="61"/>
-      <c r="AF71" s="61"/>
-      <c r="AG71" s="61"/>
-      <c r="AH71" s="61"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
+      <c r="Q71" s="65"/>
+      <c r="R71" s="65"/>
+      <c r="S71" s="65"/>
+      <c r="T71" s="65"/>
+      <c r="U71" s="65"/>
+      <c r="V71" s="65"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+      <c r="AA71" s="65"/>
+      <c r="AB71" s="65"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="65"/>
     </row>
     <row r="72" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
@@ -22763,80 +22765,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="65"/>
-      <c r="W73" s="65"/>
-      <c r="X73" s="65"/>
-      <c r="Y73" s="65"/>
-      <c r="Z73" s="65"/>
-      <c r="AA73" s="65"/>
-      <c r="AB73" s="65"/>
-      <c r="AC73" s="65"/>
-      <c r="AD73" s="65"/>
-      <c r="AE73" s="65"/>
-      <c r="AF73" s="65"/>
-      <c r="AG73" s="65"/>
-      <c r="AH73" s="65"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="V73" s="60"/>
+      <c r="W73" s="60"/>
+      <c r="X73" s="60"/>
+      <c r="Y73" s="60"/>
+      <c r="Z73" s="60"/>
+      <c r="AA73" s="60"/>
+      <c r="AB73" s="60"/>
+      <c r="AC73" s="60"/>
+      <c r="AD73" s="60"/>
+      <c r="AE73" s="60"/>
+      <c r="AF73" s="60"/>
+      <c r="AG73" s="60"/>
+      <c r="AH73" s="60"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="66" t="s">
+      <c r="A74" s="61" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
-      <c r="W74" s="66"/>
-      <c r="X74" s="66"/>
-      <c r="Y74" s="66"/>
-      <c r="Z74" s="66"/>
-      <c r="AA74" s="66"/>
-      <c r="AB74" s="66"/>
-      <c r="AC74" s="66"/>
-      <c r="AD74" s="66"/>
-      <c r="AE74" s="66"/>
-      <c r="AF74" s="66"/>
-      <c r="AG74" s="66"/>
-      <c r="AH74" s="66"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="61"/>
+      <c r="AC74" s="61"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="61"/>
+      <c r="AF74" s="61"/>
+      <c r="AG74" s="61"/>
+      <c r="AH74" s="61"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="63" t="s">
@@ -22884,7 +22886,7 @@
       <c r="AE75" s="63"/>
       <c r="AF75" s="63"/>
       <c r="AG75" s="63"/>
-      <c r="AH75" s="64" t="s">
+      <c r="AH75" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25543,118 +25545,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="60" t="s">
+      <c r="A141" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="61"/>
-      <c r="C141" s="61"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="61"/>
-      <c r="F141" s="61"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="61"/>
-      <c r="I141" s="61"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="61"/>
-      <c r="L141" s="61"/>
-      <c r="M141" s="61"/>
-      <c r="N141" s="61"/>
-      <c r="O141" s="61"/>
-      <c r="P141" s="61"/>
-      <c r="Q141" s="61"/>
-      <c r="R141" s="61"/>
-      <c r="S141" s="61"/>
-      <c r="T141" s="61"/>
-      <c r="U141" s="61"/>
-      <c r="V141" s="61"/>
-      <c r="W141" s="61"/>
-      <c r="X141" s="61"/>
-      <c r="Y141" s="61"/>
-      <c r="Z141" s="61"/>
-      <c r="AA141" s="61"/>
-      <c r="AB141" s="61"/>
-      <c r="AC141" s="61"/>
-      <c r="AD141" s="61"/>
-      <c r="AE141" s="61"/>
-      <c r="AF141" s="61"/>
-      <c r="AG141" s="61"/>
-      <c r="AH141" s="61"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="65"/>
+      <c r="L141" s="65"/>
+      <c r="M141" s="65"/>
+      <c r="N141" s="65"/>
+      <c r="O141" s="65"/>
+      <c r="P141" s="65"/>
+      <c r="Q141" s="65"/>
+      <c r="R141" s="65"/>
+      <c r="S141" s="65"/>
+      <c r="T141" s="65"/>
+      <c r="U141" s="65"/>
+      <c r="V141" s="65"/>
+      <c r="W141" s="65"/>
+      <c r="X141" s="65"/>
+      <c r="Y141" s="65"/>
+      <c r="Z141" s="65"/>
+      <c r="AA141" s="65"/>
+      <c r="AB141" s="65"/>
+      <c r="AC141" s="65"/>
+      <c r="AD141" s="65"/>
+      <c r="AE141" s="65"/>
+      <c r="AF141" s="65"/>
+      <c r="AG141" s="65"/>
+      <c r="AH141" s="65"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="65" t="s">
+      <c r="A142" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
-      <c r="L142" s="65"/>
-      <c r="M142" s="65"/>
-      <c r="N142" s="65"/>
-      <c r="O142" s="65"/>
-      <c r="P142" s="65"/>
-      <c r="Q142" s="65"/>
-      <c r="R142" s="65"/>
-      <c r="S142" s="65"/>
-      <c r="T142" s="65"/>
-      <c r="U142" s="65"/>
-      <c r="V142" s="65"/>
-      <c r="W142" s="65"/>
-      <c r="X142" s="65"/>
-      <c r="Y142" s="65"/>
-      <c r="Z142" s="65"/>
-      <c r="AA142" s="65"/>
-      <c r="AB142" s="65"/>
-      <c r="AC142" s="65"/>
-      <c r="AD142" s="65"/>
-      <c r="AE142" s="65"/>
-      <c r="AF142" s="65"/>
-      <c r="AG142" s="65"/>
-      <c r="AH142" s="65"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="60"/>
+      <c r="I142" s="60"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="60"/>
+      <c r="M142" s="60"/>
+      <c r="N142" s="60"/>
+      <c r="O142" s="60"/>
+      <c r="P142" s="60"/>
+      <c r="Q142" s="60"/>
+      <c r="R142" s="60"/>
+      <c r="S142" s="60"/>
+      <c r="T142" s="60"/>
+      <c r="U142" s="60"/>
+      <c r="V142" s="60"/>
+      <c r="W142" s="60"/>
+      <c r="X142" s="60"/>
+      <c r="Y142" s="60"/>
+      <c r="Z142" s="60"/>
+      <c r="AA142" s="60"/>
+      <c r="AB142" s="60"/>
+      <c r="AC142" s="60"/>
+      <c r="AD142" s="60"/>
+      <c r="AE142" s="60"/>
+      <c r="AF142" s="60"/>
+      <c r="AG142" s="60"/>
+      <c r="AH142" s="60"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="66" t="s">
+      <c r="A143" s="61" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
-      <c r="J143" s="66"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="66"/>
-      <c r="M143" s="66"/>
-      <c r="N143" s="66"/>
-      <c r="O143" s="66"/>
-      <c r="P143" s="66"/>
-      <c r="Q143" s="66"/>
-      <c r="R143" s="66"/>
-      <c r="S143" s="66"/>
-      <c r="T143" s="66"/>
-      <c r="U143" s="66"/>
-      <c r="V143" s="66"/>
-      <c r="W143" s="66"/>
-      <c r="X143" s="66"/>
-      <c r="Y143" s="66"/>
-      <c r="Z143" s="66"/>
-      <c r="AA143" s="66"/>
-      <c r="AB143" s="66"/>
-      <c r="AC143" s="66"/>
-      <c r="AD143" s="66"/>
-      <c r="AE143" s="66"/>
-      <c r="AF143" s="66"/>
-      <c r="AG143" s="66"/>
-      <c r="AH143" s="66"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="61"/>
+      <c r="O143" s="61"/>
+      <c r="P143" s="61"/>
+      <c r="Q143" s="61"/>
+      <c r="R143" s="61"/>
+      <c r="S143" s="61"/>
+      <c r="T143" s="61"/>
+      <c r="U143" s="61"/>
+      <c r="V143" s="61"/>
+      <c r="W143" s="61"/>
+      <c r="X143" s="61"/>
+      <c r="Y143" s="61"/>
+      <c r="Z143" s="61"/>
+      <c r="AA143" s="61"/>
+      <c r="AB143" s="61"/>
+      <c r="AC143" s="61"/>
+      <c r="AD143" s="61"/>
+      <c r="AE143" s="61"/>
+      <c r="AF143" s="61"/>
+      <c r="AG143" s="61"/>
+      <c r="AH143" s="61"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="63" t="s">
@@ -25702,7 +25704,7 @@
       <c r="AE144" s="63"/>
       <c r="AF144" s="63"/>
       <c r="AG144" s="63"/>
-      <c r="AH144" s="64" t="s">
+      <c r="AH144" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28165,118 +28167,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="60" t="s">
+      <c r="A205" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="61"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="61"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="61"/>
-      <c r="G205" s="61"/>
-      <c r="H205" s="61"/>
-      <c r="I205" s="61"/>
-      <c r="J205" s="61"/>
-      <c r="K205" s="61"/>
-      <c r="L205" s="61"/>
-      <c r="M205" s="61"/>
-      <c r="N205" s="61"/>
-      <c r="O205" s="61"/>
-      <c r="P205" s="61"/>
-      <c r="Q205" s="61"/>
-      <c r="R205" s="61"/>
-      <c r="S205" s="61"/>
-      <c r="T205" s="61"/>
-      <c r="U205" s="61"/>
-      <c r="V205" s="61"/>
-      <c r="W205" s="61"/>
-      <c r="X205" s="61"/>
-      <c r="Y205" s="61"/>
-      <c r="Z205" s="61"/>
-      <c r="AA205" s="61"/>
-      <c r="AB205" s="61"/>
-      <c r="AC205" s="61"/>
-      <c r="AD205" s="61"/>
-      <c r="AE205" s="61"/>
-      <c r="AF205" s="61"/>
-      <c r="AG205" s="61"/>
-      <c r="AH205" s="61"/>
+      <c r="B205" s="65"/>
+      <c r="C205" s="65"/>
+      <c r="D205" s="65"/>
+      <c r="E205" s="65"/>
+      <c r="F205" s="65"/>
+      <c r="G205" s="65"/>
+      <c r="H205" s="65"/>
+      <c r="I205" s="65"/>
+      <c r="J205" s="65"/>
+      <c r="K205" s="65"/>
+      <c r="L205" s="65"/>
+      <c r="M205" s="65"/>
+      <c r="N205" s="65"/>
+      <c r="O205" s="65"/>
+      <c r="P205" s="65"/>
+      <c r="Q205" s="65"/>
+      <c r="R205" s="65"/>
+      <c r="S205" s="65"/>
+      <c r="T205" s="65"/>
+      <c r="U205" s="65"/>
+      <c r="V205" s="65"/>
+      <c r="W205" s="65"/>
+      <c r="X205" s="65"/>
+      <c r="Y205" s="65"/>
+      <c r="Z205" s="65"/>
+      <c r="AA205" s="65"/>
+      <c r="AB205" s="65"/>
+      <c r="AC205" s="65"/>
+      <c r="AD205" s="65"/>
+      <c r="AE205" s="65"/>
+      <c r="AF205" s="65"/>
+      <c r="AG205" s="65"/>
+      <c r="AH205" s="65"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="65" t="s">
+      <c r="A207" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="65"/>
-      <c r="C207" s="65"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
-      <c r="L207" s="65"/>
-      <c r="M207" s="65"/>
-      <c r="N207" s="65"/>
-      <c r="O207" s="65"/>
-      <c r="P207" s="65"/>
-      <c r="Q207" s="65"/>
-      <c r="R207" s="65"/>
-      <c r="S207" s="65"/>
-      <c r="T207" s="65"/>
-      <c r="U207" s="65"/>
-      <c r="V207" s="65"/>
-      <c r="W207" s="65"/>
-      <c r="X207" s="65"/>
-      <c r="Y207" s="65"/>
-      <c r="Z207" s="65"/>
-      <c r="AA207" s="65"/>
-      <c r="AB207" s="65"/>
-      <c r="AC207" s="65"/>
-      <c r="AD207" s="65"/>
-      <c r="AE207" s="65"/>
-      <c r="AF207" s="65"/>
-      <c r="AG207" s="65"/>
-      <c r="AH207" s="65"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="60"/>
+      <c r="D207" s="60"/>
+      <c r="E207" s="60"/>
+      <c r="F207" s="60"/>
+      <c r="G207" s="60"/>
+      <c r="H207" s="60"/>
+      <c r="I207" s="60"/>
+      <c r="J207" s="60"/>
+      <c r="K207" s="60"/>
+      <c r="L207" s="60"/>
+      <c r="M207" s="60"/>
+      <c r="N207" s="60"/>
+      <c r="O207" s="60"/>
+      <c r="P207" s="60"/>
+      <c r="Q207" s="60"/>
+      <c r="R207" s="60"/>
+      <c r="S207" s="60"/>
+      <c r="T207" s="60"/>
+      <c r="U207" s="60"/>
+      <c r="V207" s="60"/>
+      <c r="W207" s="60"/>
+      <c r="X207" s="60"/>
+      <c r="Y207" s="60"/>
+      <c r="Z207" s="60"/>
+      <c r="AA207" s="60"/>
+      <c r="AB207" s="60"/>
+      <c r="AC207" s="60"/>
+      <c r="AD207" s="60"/>
+      <c r="AE207" s="60"/>
+      <c r="AF207" s="60"/>
+      <c r="AG207" s="60"/>
+      <c r="AH207" s="60"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="66" t="s">
+      <c r="A208" s="61" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="66"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="66"/>
-      <c r="I208" s="66"/>
-      <c r="J208" s="66"/>
-      <c r="K208" s="66"/>
-      <c r="L208" s="66"/>
-      <c r="M208" s="66"/>
-      <c r="N208" s="66"/>
-      <c r="O208" s="66"/>
-      <c r="P208" s="66"/>
-      <c r="Q208" s="66"/>
-      <c r="R208" s="66"/>
-      <c r="S208" s="66"/>
-      <c r="T208" s="66"/>
-      <c r="U208" s="66"/>
-      <c r="V208" s="66"/>
-      <c r="W208" s="66"/>
-      <c r="X208" s="66"/>
-      <c r="Y208" s="66"/>
-      <c r="Z208" s="66"/>
-      <c r="AA208" s="66"/>
-      <c r="AB208" s="66"/>
-      <c r="AC208" s="66"/>
-      <c r="AD208" s="66"/>
-      <c r="AE208" s="66"/>
-      <c r="AF208" s="66"/>
-      <c r="AG208" s="66"/>
-      <c r="AH208" s="66"/>
+      <c r="B208" s="61"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="61"/>
+      <c r="E208" s="61"/>
+      <c r="F208" s="61"/>
+      <c r="G208" s="61"/>
+      <c r="H208" s="61"/>
+      <c r="I208" s="61"/>
+      <c r="J208" s="61"/>
+      <c r="K208" s="61"/>
+      <c r="L208" s="61"/>
+      <c r="M208" s="61"/>
+      <c r="N208" s="61"/>
+      <c r="O208" s="61"/>
+      <c r="P208" s="61"/>
+      <c r="Q208" s="61"/>
+      <c r="R208" s="61"/>
+      <c r="S208" s="61"/>
+      <c r="T208" s="61"/>
+      <c r="U208" s="61"/>
+      <c r="V208" s="61"/>
+      <c r="W208" s="61"/>
+      <c r="X208" s="61"/>
+      <c r="Y208" s="61"/>
+      <c r="Z208" s="61"/>
+      <c r="AA208" s="61"/>
+      <c r="AB208" s="61"/>
+      <c r="AC208" s="61"/>
+      <c r="AD208" s="61"/>
+      <c r="AE208" s="61"/>
+      <c r="AF208" s="61"/>
+      <c r="AG208" s="61"/>
+      <c r="AH208" s="61"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="63" t="s">
@@ -28324,7 +28326,7 @@
       <c r="AE209" s="63"/>
       <c r="AF209" s="63"/>
       <c r="AG209" s="63"/>
-      <c r="AH209" s="64" t="s">
+      <c r="AH209" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30241,118 +30243,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="60" t="s">
+      <c r="A256" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="61"/>
-      <c r="C256" s="61"/>
-      <c r="D256" s="61"/>
-      <c r="E256" s="61"/>
-      <c r="F256" s="61"/>
-      <c r="G256" s="61"/>
-      <c r="H256" s="61"/>
-      <c r="I256" s="61"/>
-      <c r="J256" s="61"/>
-      <c r="K256" s="61"/>
-      <c r="L256" s="61"/>
-      <c r="M256" s="61"/>
-      <c r="N256" s="61"/>
-      <c r="O256" s="61"/>
-      <c r="P256" s="61"/>
-      <c r="Q256" s="61"/>
-      <c r="R256" s="61"/>
-      <c r="S256" s="61"/>
-      <c r="T256" s="61"/>
-      <c r="U256" s="61"/>
-      <c r="V256" s="61"/>
-      <c r="W256" s="61"/>
-      <c r="X256" s="61"/>
-      <c r="Y256" s="61"/>
-      <c r="Z256" s="61"/>
-      <c r="AA256" s="61"/>
-      <c r="AB256" s="61"/>
-      <c r="AC256" s="61"/>
-      <c r="AD256" s="61"/>
-      <c r="AE256" s="61"/>
-      <c r="AF256" s="61"/>
-      <c r="AG256" s="61"/>
-      <c r="AH256" s="61"/>
+      <c r="B256" s="65"/>
+      <c r="C256" s="65"/>
+      <c r="D256" s="65"/>
+      <c r="E256" s="65"/>
+      <c r="F256" s="65"/>
+      <c r="G256" s="65"/>
+      <c r="H256" s="65"/>
+      <c r="I256" s="65"/>
+      <c r="J256" s="65"/>
+      <c r="K256" s="65"/>
+      <c r="L256" s="65"/>
+      <c r="M256" s="65"/>
+      <c r="N256" s="65"/>
+      <c r="O256" s="65"/>
+      <c r="P256" s="65"/>
+      <c r="Q256" s="65"/>
+      <c r="R256" s="65"/>
+      <c r="S256" s="65"/>
+      <c r="T256" s="65"/>
+      <c r="U256" s="65"/>
+      <c r="V256" s="65"/>
+      <c r="W256" s="65"/>
+      <c r="X256" s="65"/>
+      <c r="Y256" s="65"/>
+      <c r="Z256" s="65"/>
+      <c r="AA256" s="65"/>
+      <c r="AB256" s="65"/>
+      <c r="AC256" s="65"/>
+      <c r="AD256" s="65"/>
+      <c r="AE256" s="65"/>
+      <c r="AF256" s="65"/>
+      <c r="AG256" s="65"/>
+      <c r="AH256" s="65"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="65" t="s">
+      <c r="A258" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="65"/>
-      <c r="C258" s="65"/>
-      <c r="D258" s="65"/>
-      <c r="E258" s="65"/>
-      <c r="F258" s="65"/>
-      <c r="G258" s="65"/>
-      <c r="H258" s="65"/>
-      <c r="I258" s="65"/>
-      <c r="J258" s="65"/>
-      <c r="K258" s="65"/>
-      <c r="L258" s="65"/>
-      <c r="M258" s="65"/>
-      <c r="N258" s="65"/>
-      <c r="O258" s="65"/>
-      <c r="P258" s="65"/>
-      <c r="Q258" s="65"/>
-      <c r="R258" s="65"/>
-      <c r="S258" s="65"/>
-      <c r="T258" s="65"/>
-      <c r="U258" s="65"/>
-      <c r="V258" s="65"/>
-      <c r="W258" s="65"/>
-      <c r="X258" s="65"/>
-      <c r="Y258" s="65"/>
-      <c r="Z258" s="65"/>
-      <c r="AA258" s="65"/>
-      <c r="AB258" s="65"/>
-      <c r="AC258" s="65"/>
-      <c r="AD258" s="65"/>
-      <c r="AE258" s="65"/>
-      <c r="AF258" s="65"/>
-      <c r="AG258" s="65"/>
-      <c r="AH258" s="65"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="60"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="60"/>
+      <c r="G258" s="60"/>
+      <c r="H258" s="60"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="60"/>
+      <c r="K258" s="60"/>
+      <c r="L258" s="60"/>
+      <c r="M258" s="60"/>
+      <c r="N258" s="60"/>
+      <c r="O258" s="60"/>
+      <c r="P258" s="60"/>
+      <c r="Q258" s="60"/>
+      <c r="R258" s="60"/>
+      <c r="S258" s="60"/>
+      <c r="T258" s="60"/>
+      <c r="U258" s="60"/>
+      <c r="V258" s="60"/>
+      <c r="W258" s="60"/>
+      <c r="X258" s="60"/>
+      <c r="Y258" s="60"/>
+      <c r="Z258" s="60"/>
+      <c r="AA258" s="60"/>
+      <c r="AB258" s="60"/>
+      <c r="AC258" s="60"/>
+      <c r="AD258" s="60"/>
+      <c r="AE258" s="60"/>
+      <c r="AF258" s="60"/>
+      <c r="AG258" s="60"/>
+      <c r="AH258" s="60"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="66" t="s">
+      <c r="A259" s="61" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="66"/>
-      <c r="C259" s="66"/>
-      <c r="D259" s="66"/>
-      <c r="E259" s="66"/>
-      <c r="F259" s="66"/>
-      <c r="G259" s="66"/>
-      <c r="H259" s="66"/>
-      <c r="I259" s="66"/>
-      <c r="J259" s="66"/>
-      <c r="K259" s="66"/>
-      <c r="L259" s="66"/>
-      <c r="M259" s="66"/>
-      <c r="N259" s="66"/>
-      <c r="O259" s="66"/>
-      <c r="P259" s="66"/>
-      <c r="Q259" s="66"/>
-      <c r="R259" s="66"/>
-      <c r="S259" s="66"/>
-      <c r="T259" s="66"/>
-      <c r="U259" s="66"/>
-      <c r="V259" s="66"/>
-      <c r="W259" s="66"/>
-      <c r="X259" s="66"/>
-      <c r="Y259" s="66"/>
-      <c r="Z259" s="66"/>
-      <c r="AA259" s="66"/>
-      <c r="AB259" s="66"/>
-      <c r="AC259" s="66"/>
-      <c r="AD259" s="66"/>
-      <c r="AE259" s="66"/>
-      <c r="AF259" s="66"/>
-      <c r="AG259" s="66"/>
-      <c r="AH259" s="66"/>
+      <c r="B259" s="61"/>
+      <c r="C259" s="61"/>
+      <c r="D259" s="61"/>
+      <c r="E259" s="61"/>
+      <c r="F259" s="61"/>
+      <c r="G259" s="61"/>
+      <c r="H259" s="61"/>
+      <c r="I259" s="61"/>
+      <c r="J259" s="61"/>
+      <c r="K259" s="61"/>
+      <c r="L259" s="61"/>
+      <c r="M259" s="61"/>
+      <c r="N259" s="61"/>
+      <c r="O259" s="61"/>
+      <c r="P259" s="61"/>
+      <c r="Q259" s="61"/>
+      <c r="R259" s="61"/>
+      <c r="S259" s="61"/>
+      <c r="T259" s="61"/>
+      <c r="U259" s="61"/>
+      <c r="V259" s="61"/>
+      <c r="W259" s="61"/>
+      <c r="X259" s="61"/>
+      <c r="Y259" s="61"/>
+      <c r="Z259" s="61"/>
+      <c r="AA259" s="61"/>
+      <c r="AB259" s="61"/>
+      <c r="AC259" s="61"/>
+      <c r="AD259" s="61"/>
+      <c r="AE259" s="61"/>
+      <c r="AF259" s="61"/>
+      <c r="AG259" s="61"/>
+      <c r="AH259" s="61"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="63" t="s">
@@ -30400,7 +30402,7 @@
       <c r="AE260" s="63"/>
       <c r="AF260" s="63"/>
       <c r="AG260" s="63"/>
-      <c r="AH260" s="64" t="s">
+      <c r="AH260" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32023,118 +32025,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="60" t="s">
+      <c r="A300" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="61"/>
-      <c r="C300" s="61"/>
-      <c r="D300" s="61"/>
-      <c r="E300" s="61"/>
-      <c r="F300" s="61"/>
-      <c r="G300" s="61"/>
-      <c r="H300" s="61"/>
-      <c r="I300" s="61"/>
-      <c r="J300" s="61"/>
-      <c r="K300" s="61"/>
-      <c r="L300" s="61"/>
-      <c r="M300" s="61"/>
-      <c r="N300" s="61"/>
-      <c r="O300" s="61"/>
-      <c r="P300" s="61"/>
-      <c r="Q300" s="61"/>
-      <c r="R300" s="61"/>
-      <c r="S300" s="61"/>
-      <c r="T300" s="61"/>
-      <c r="U300" s="61"/>
-      <c r="V300" s="61"/>
-      <c r="W300" s="61"/>
-      <c r="X300" s="61"/>
-      <c r="Y300" s="61"/>
-      <c r="Z300" s="61"/>
-      <c r="AA300" s="61"/>
-      <c r="AB300" s="61"/>
-      <c r="AC300" s="61"/>
-      <c r="AD300" s="61"/>
-      <c r="AE300" s="61"/>
-      <c r="AF300" s="61"/>
-      <c r="AG300" s="61"/>
-      <c r="AH300" s="61"/>
+      <c r="B300" s="65"/>
+      <c r="C300" s="65"/>
+      <c r="D300" s="65"/>
+      <c r="E300" s="65"/>
+      <c r="F300" s="65"/>
+      <c r="G300" s="65"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
+      <c r="L300" s="65"/>
+      <c r="M300" s="65"/>
+      <c r="N300" s="65"/>
+      <c r="O300" s="65"/>
+      <c r="P300" s="65"/>
+      <c r="Q300" s="65"/>
+      <c r="R300" s="65"/>
+      <c r="S300" s="65"/>
+      <c r="T300" s="65"/>
+      <c r="U300" s="65"/>
+      <c r="V300" s="65"/>
+      <c r="W300" s="65"/>
+      <c r="X300" s="65"/>
+      <c r="Y300" s="65"/>
+      <c r="Z300" s="65"/>
+      <c r="AA300" s="65"/>
+      <c r="AB300" s="65"/>
+      <c r="AC300" s="65"/>
+      <c r="AD300" s="65"/>
+      <c r="AE300" s="65"/>
+      <c r="AF300" s="65"/>
+      <c r="AG300" s="65"/>
+      <c r="AH300" s="65"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="65" t="s">
+      <c r="A301" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="65"/>
-      <c r="C301" s="65"/>
-      <c r="D301" s="65"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
-      <c r="L301" s="65"/>
-      <c r="M301" s="65"/>
-      <c r="N301" s="65"/>
-      <c r="O301" s="65"/>
-      <c r="P301" s="65"/>
-      <c r="Q301" s="65"/>
-      <c r="R301" s="65"/>
-      <c r="S301" s="65"/>
-      <c r="T301" s="65"/>
-      <c r="U301" s="65"/>
-      <c r="V301" s="65"/>
-      <c r="W301" s="65"/>
-      <c r="X301" s="65"/>
-      <c r="Y301" s="65"/>
-      <c r="Z301" s="65"/>
-      <c r="AA301" s="65"/>
-      <c r="AB301" s="65"/>
-      <c r="AC301" s="65"/>
-      <c r="AD301" s="65"/>
-      <c r="AE301" s="65"/>
-      <c r="AF301" s="65"/>
-      <c r="AG301" s="65"/>
-      <c r="AH301" s="65"/>
+      <c r="B301" s="60"/>
+      <c r="C301" s="60"/>
+      <c r="D301" s="60"/>
+      <c r="E301" s="60"/>
+      <c r="F301" s="60"/>
+      <c r="G301" s="60"/>
+      <c r="H301" s="60"/>
+      <c r="I301" s="60"/>
+      <c r="J301" s="60"/>
+      <c r="K301" s="60"/>
+      <c r="L301" s="60"/>
+      <c r="M301" s="60"/>
+      <c r="N301" s="60"/>
+      <c r="O301" s="60"/>
+      <c r="P301" s="60"/>
+      <c r="Q301" s="60"/>
+      <c r="R301" s="60"/>
+      <c r="S301" s="60"/>
+      <c r="T301" s="60"/>
+      <c r="U301" s="60"/>
+      <c r="V301" s="60"/>
+      <c r="W301" s="60"/>
+      <c r="X301" s="60"/>
+      <c r="Y301" s="60"/>
+      <c r="Z301" s="60"/>
+      <c r="AA301" s="60"/>
+      <c r="AB301" s="60"/>
+      <c r="AC301" s="60"/>
+      <c r="AD301" s="60"/>
+      <c r="AE301" s="60"/>
+      <c r="AF301" s="60"/>
+      <c r="AG301" s="60"/>
+      <c r="AH301" s="60"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="66" t="s">
+      <c r="A302" s="61" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="66"/>
-      <c r="C302" s="66"/>
-      <c r="D302" s="66"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="66"/>
-      <c r="G302" s="66"/>
-      <c r="H302" s="66"/>
-      <c r="I302" s="66"/>
-      <c r="J302" s="66"/>
-      <c r="K302" s="66"/>
-      <c r="L302" s="66"/>
-      <c r="M302" s="66"/>
-      <c r="N302" s="66"/>
-      <c r="O302" s="66"/>
-      <c r="P302" s="66"/>
-      <c r="Q302" s="66"/>
-      <c r="R302" s="66"/>
-      <c r="S302" s="66"/>
-      <c r="T302" s="66"/>
-      <c r="U302" s="66"/>
-      <c r="V302" s="66"/>
-      <c r="W302" s="66"/>
-      <c r="X302" s="66"/>
-      <c r="Y302" s="66"/>
-      <c r="Z302" s="66"/>
-      <c r="AA302" s="66"/>
-      <c r="AB302" s="66"/>
-      <c r="AC302" s="66"/>
-      <c r="AD302" s="66"/>
-      <c r="AE302" s="66"/>
-      <c r="AF302" s="66"/>
-      <c r="AG302" s="66"/>
-      <c r="AH302" s="66"/>
+      <c r="B302" s="61"/>
+      <c r="C302" s="61"/>
+      <c r="D302" s="61"/>
+      <c r="E302" s="61"/>
+      <c r="F302" s="61"/>
+      <c r="G302" s="61"/>
+      <c r="H302" s="61"/>
+      <c r="I302" s="61"/>
+      <c r="J302" s="61"/>
+      <c r="K302" s="61"/>
+      <c r="L302" s="61"/>
+      <c r="M302" s="61"/>
+      <c r="N302" s="61"/>
+      <c r="O302" s="61"/>
+      <c r="P302" s="61"/>
+      <c r="Q302" s="61"/>
+      <c r="R302" s="61"/>
+      <c r="S302" s="61"/>
+      <c r="T302" s="61"/>
+      <c r="U302" s="61"/>
+      <c r="V302" s="61"/>
+      <c r="W302" s="61"/>
+      <c r="X302" s="61"/>
+      <c r="Y302" s="61"/>
+      <c r="Z302" s="61"/>
+      <c r="AA302" s="61"/>
+      <c r="AB302" s="61"/>
+      <c r="AC302" s="61"/>
+      <c r="AD302" s="61"/>
+      <c r="AE302" s="61"/>
+      <c r="AF302" s="61"/>
+      <c r="AG302" s="61"/>
+      <c r="AH302" s="61"/>
     </row>
     <row r="303" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="63" t="s">
@@ -32182,7 +32184,7 @@
       <c r="AE303" s="63"/>
       <c r="AF303" s="63"/>
       <c r="AG303" s="63"/>
-      <c r="AH303" s="64" t="s">
+      <c r="AH303" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -34765,42 +34767,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="60" t="s">
+      <c r="A367" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="61"/>
-      <c r="C367" s="61"/>
-      <c r="D367" s="61"/>
-      <c r="E367" s="61"/>
-      <c r="F367" s="61"/>
-      <c r="G367" s="61"/>
-      <c r="H367" s="61"/>
-      <c r="I367" s="61"/>
-      <c r="J367" s="61"/>
-      <c r="K367" s="61"/>
-      <c r="L367" s="61"/>
-      <c r="M367" s="61"/>
-      <c r="N367" s="61"/>
-      <c r="O367" s="61"/>
-      <c r="P367" s="61"/>
-      <c r="Q367" s="61"/>
-      <c r="R367" s="61"/>
-      <c r="S367" s="61"/>
-      <c r="T367" s="61"/>
-      <c r="U367" s="61"/>
-      <c r="V367" s="61"/>
-      <c r="W367" s="61"/>
-      <c r="X367" s="61"/>
-      <c r="Y367" s="61"/>
-      <c r="Z367" s="61"/>
-      <c r="AA367" s="61"/>
-      <c r="AB367" s="61"/>
-      <c r="AC367" s="61"/>
-      <c r="AD367" s="61"/>
-      <c r="AE367" s="61"/>
-      <c r="AF367" s="61"/>
-      <c r="AG367" s="61"/>
-      <c r="AH367" s="61"/>
+      <c r="B367" s="65"/>
+      <c r="C367" s="65"/>
+      <c r="D367" s="65"/>
+      <c r="E367" s="65"/>
+      <c r="F367" s="65"/>
+      <c r="G367" s="65"/>
+      <c r="H367" s="65"/>
+      <c r="I367" s="65"/>
+      <c r="J367" s="65"/>
+      <c r="K367" s="65"/>
+      <c r="L367" s="65"/>
+      <c r="M367" s="65"/>
+      <c r="N367" s="65"/>
+      <c r="O367" s="65"/>
+      <c r="P367" s="65"/>
+      <c r="Q367" s="65"/>
+      <c r="R367" s="65"/>
+      <c r="S367" s="65"/>
+      <c r="T367" s="65"/>
+      <c r="U367" s="65"/>
+      <c r="V367" s="65"/>
+      <c r="W367" s="65"/>
+      <c r="X367" s="65"/>
+      <c r="Y367" s="65"/>
+      <c r="Z367" s="65"/>
+      <c r="AA367" s="65"/>
+      <c r="AB367" s="65"/>
+      <c r="AC367" s="65"/>
+      <c r="AD367" s="65"/>
+      <c r="AE367" s="65"/>
+      <c r="AF367" s="65"/>
+      <c r="AG367" s="65"/>
+      <c r="AH367" s="65"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
@@ -34839,80 +34841,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="65" t="s">
+      <c r="A369" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="65"/>
-      <c r="C369" s="65"/>
-      <c r="D369" s="65"/>
-      <c r="E369" s="65"/>
-      <c r="F369" s="65"/>
-      <c r="G369" s="65"/>
-      <c r="H369" s="65"/>
-      <c r="I369" s="65"/>
-      <c r="J369" s="65"/>
-      <c r="K369" s="65"/>
-      <c r="L369" s="65"/>
-      <c r="M369" s="65"/>
-      <c r="N369" s="65"/>
-      <c r="O369" s="65"/>
-      <c r="P369" s="65"/>
-      <c r="Q369" s="65"/>
-      <c r="R369" s="65"/>
-      <c r="S369" s="65"/>
-      <c r="T369" s="65"/>
-      <c r="U369" s="65"/>
-      <c r="V369" s="65"/>
-      <c r="W369" s="65"/>
-      <c r="X369" s="65"/>
-      <c r="Y369" s="65"/>
-      <c r="Z369" s="65"/>
-      <c r="AA369" s="65"/>
-      <c r="AB369" s="65"/>
-      <c r="AC369" s="65"/>
-      <c r="AD369" s="65"/>
-      <c r="AE369" s="65"/>
-      <c r="AF369" s="65"/>
-      <c r="AG369" s="65"/>
-      <c r="AH369" s="65"/>
+      <c r="B369" s="60"/>
+      <c r="C369" s="60"/>
+      <c r="D369" s="60"/>
+      <c r="E369" s="60"/>
+      <c r="F369" s="60"/>
+      <c r="G369" s="60"/>
+      <c r="H369" s="60"/>
+      <c r="I369" s="60"/>
+      <c r="J369" s="60"/>
+      <c r="K369" s="60"/>
+      <c r="L369" s="60"/>
+      <c r="M369" s="60"/>
+      <c r="N369" s="60"/>
+      <c r="O369" s="60"/>
+      <c r="P369" s="60"/>
+      <c r="Q369" s="60"/>
+      <c r="R369" s="60"/>
+      <c r="S369" s="60"/>
+      <c r="T369" s="60"/>
+      <c r="U369" s="60"/>
+      <c r="V369" s="60"/>
+      <c r="W369" s="60"/>
+      <c r="X369" s="60"/>
+      <c r="Y369" s="60"/>
+      <c r="Z369" s="60"/>
+      <c r="AA369" s="60"/>
+      <c r="AB369" s="60"/>
+      <c r="AC369" s="60"/>
+      <c r="AD369" s="60"/>
+      <c r="AE369" s="60"/>
+      <c r="AF369" s="60"/>
+      <c r="AG369" s="60"/>
+      <c r="AH369" s="60"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="66" t="s">
+      <c r="A370" s="61" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="66"/>
-      <c r="C370" s="66"/>
-      <c r="D370" s="66"/>
-      <c r="E370" s="66"/>
-      <c r="F370" s="66"/>
-      <c r="G370" s="66"/>
-      <c r="H370" s="66"/>
-      <c r="I370" s="66"/>
-      <c r="J370" s="66"/>
-      <c r="K370" s="66"/>
-      <c r="L370" s="66"/>
-      <c r="M370" s="66"/>
-      <c r="N370" s="66"/>
-      <c r="O370" s="66"/>
-      <c r="P370" s="66"/>
-      <c r="Q370" s="66"/>
-      <c r="R370" s="66"/>
-      <c r="S370" s="66"/>
-      <c r="T370" s="66"/>
-      <c r="U370" s="66"/>
-      <c r="V370" s="66"/>
-      <c r="W370" s="66"/>
-      <c r="X370" s="66"/>
-      <c r="Y370" s="66"/>
-      <c r="Z370" s="66"/>
-      <c r="AA370" s="66"/>
-      <c r="AB370" s="66"/>
-      <c r="AC370" s="66"/>
-      <c r="AD370" s="66"/>
-      <c r="AE370" s="66"/>
-      <c r="AF370" s="66"/>
-      <c r="AG370" s="66"/>
-      <c r="AH370" s="66"/>
+      <c r="B370" s="61"/>
+      <c r="C370" s="61"/>
+      <c r="D370" s="61"/>
+      <c r="E370" s="61"/>
+      <c r="F370" s="61"/>
+      <c r="G370" s="61"/>
+      <c r="H370" s="61"/>
+      <c r="I370" s="61"/>
+      <c r="J370" s="61"/>
+      <c r="K370" s="61"/>
+      <c r="L370" s="61"/>
+      <c r="M370" s="61"/>
+      <c r="N370" s="61"/>
+      <c r="O370" s="61"/>
+      <c r="P370" s="61"/>
+      <c r="Q370" s="61"/>
+      <c r="R370" s="61"/>
+      <c r="S370" s="61"/>
+      <c r="T370" s="61"/>
+      <c r="U370" s="61"/>
+      <c r="V370" s="61"/>
+      <c r="W370" s="61"/>
+      <c r="X370" s="61"/>
+      <c r="Y370" s="61"/>
+      <c r="Z370" s="61"/>
+      <c r="AA370" s="61"/>
+      <c r="AB370" s="61"/>
+      <c r="AC370" s="61"/>
+      <c r="AD370" s="61"/>
+      <c r="AE370" s="61"/>
+      <c r="AF370" s="61"/>
+      <c r="AG370" s="61"/>
+      <c r="AH370" s="61"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="63" t="s">
@@ -34960,7 +34962,7 @@
       <c r="AE371" s="63"/>
       <c r="AF371" s="63"/>
       <c r="AG371" s="63"/>
-      <c r="AH371" s="64" t="s">
+      <c r="AH371" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37619,99 +37621,45 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="60" t="s">
+      <c r="A436" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="61"/>
-      <c r="C436" s="61"/>
-      <c r="D436" s="61"/>
-      <c r="E436" s="61"/>
-      <c r="F436" s="61"/>
-      <c r="G436" s="61"/>
-      <c r="H436" s="61"/>
-      <c r="I436" s="61"/>
-      <c r="J436" s="61"/>
-      <c r="K436" s="61"/>
-      <c r="L436" s="61"/>
-      <c r="M436" s="61"/>
-      <c r="N436" s="61"/>
-      <c r="O436" s="61"/>
-      <c r="P436" s="61"/>
-      <c r="Q436" s="61"/>
-      <c r="R436" s="61"/>
-      <c r="S436" s="61"/>
-      <c r="T436" s="61"/>
-      <c r="U436" s="61"/>
-      <c r="V436" s="61"/>
-      <c r="W436" s="61"/>
-      <c r="X436" s="61"/>
-      <c r="Y436" s="61"/>
-      <c r="Z436" s="61"/>
-      <c r="AA436" s="61"/>
-      <c r="AB436" s="61"/>
-      <c r="AC436" s="61"/>
-      <c r="AD436" s="61"/>
-      <c r="AE436" s="61"/>
-      <c r="AF436" s="61"/>
-      <c r="AG436" s="61"/>
-      <c r="AH436" s="61"/>
+      <c r="B436" s="65"/>
+      <c r="C436" s="65"/>
+      <c r="D436" s="65"/>
+      <c r="E436" s="65"/>
+      <c r="F436" s="65"/>
+      <c r="G436" s="65"/>
+      <c r="H436" s="65"/>
+      <c r="I436" s="65"/>
+      <c r="J436" s="65"/>
+      <c r="K436" s="65"/>
+      <c r="L436" s="65"/>
+      <c r="M436" s="65"/>
+      <c r="N436" s="65"/>
+      <c r="O436" s="65"/>
+      <c r="P436" s="65"/>
+      <c r="Q436" s="65"/>
+      <c r="R436" s="65"/>
+      <c r="S436" s="65"/>
+      <c r="T436" s="65"/>
+      <c r="U436" s="65"/>
+      <c r="V436" s="65"/>
+      <c r="W436" s="65"/>
+      <c r="X436" s="65"/>
+      <c r="Y436" s="65"/>
+      <c r="Z436" s="65"/>
+      <c r="AA436" s="65"/>
+      <c r="AB436" s="65"/>
+      <c r="AC436" s="65"/>
+      <c r="AD436" s="65"/>
+      <c r="AE436" s="65"/>
+      <c r="AF436" s="65"/>
+      <c r="AG436" s="65"/>
+      <c r="AH436" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37728,6 +37676,60 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37761,80 +37763,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="61" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
@@ -37882,7 +37884,7 @@
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
       <c r="AG3" s="63"/>
-      <c r="AH3" s="64" t="s">
+      <c r="AH3" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38585,118 +38587,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="61" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="63" t="s">
@@ -38744,7 +38746,7 @@
       <c r="AE24" s="63"/>
       <c r="AF24" s="63"/>
       <c r="AG24" s="63"/>
-      <c r="AH24" s="64" t="s">
+      <c r="AH24" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39327,118 +39329,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="61"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="65"/>
     </row>
     <row r="40" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="65"/>
-      <c r="AH40" s="65"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
     </row>
     <row r="41" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="61" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
     </row>
     <row r="42" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="63" t="s">
@@ -39486,7 +39488,7 @@
       <c r="AE42" s="63"/>
       <c r="AF42" s="63"/>
       <c r="AG42" s="63"/>
-      <c r="AH42" s="64" t="s">
+      <c r="AH42" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40349,118 +40351,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
-      <c r="AA63" s="61"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="61"/>
-      <c r="AE63" s="61"/>
-      <c r="AF63" s="61"/>
-      <c r="AG63" s="61"/>
-      <c r="AH63" s="61"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="65"/>
+      <c r="Z63" s="65"/>
+      <c r="AA63" s="65"/>
+      <c r="AB63" s="65"/>
+      <c r="AC63" s="65"/>
+      <c r="AD63" s="65"/>
+      <c r="AE63" s="65"/>
+      <c r="AF63" s="65"/>
+      <c r="AG63" s="65"/>
+      <c r="AH63" s="65"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
-      <c r="S64" s="65"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="X64" s="65"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="65"/>
-      <c r="AA64" s="65"/>
-      <c r="AB64" s="65"/>
-      <c r="AC64" s="65"/>
-      <c r="AD64" s="65"/>
-      <c r="AE64" s="65"/>
-      <c r="AF64" s="65"/>
-      <c r="AG64" s="65"/>
-      <c r="AH64" s="65"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="60"/>
+      <c r="Y64" s="60"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
+      <c r="AB64" s="60"/>
+      <c r="AC64" s="60"/>
+      <c r="AD64" s="60"/>
+      <c r="AE64" s="60"/>
+      <c r="AF64" s="60"/>
+      <c r="AG64" s="60"/>
+      <c r="AH64" s="60"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="61" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
-      <c r="Y65" s="66"/>
-      <c r="Z65" s="66"/>
-      <c r="AA65" s="66"/>
-      <c r="AB65" s="66"/>
-      <c r="AC65" s="66"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
+      <c r="AF65" s="61"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="61"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="63" t="s">
@@ -40508,7 +40510,7 @@
       <c r="AE66" s="63"/>
       <c r="AF66" s="63"/>
       <c r="AG66" s="63"/>
-      <c r="AH66" s="64" t="s">
+      <c r="AH66" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42331,118 +42333,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="60" t="s">
+      <c r="A111" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="61"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="61"/>
-      <c r="L111" s="61"/>
-      <c r="M111" s="61"/>
-      <c r="N111" s="61"/>
-      <c r="O111" s="61"/>
-      <c r="P111" s="61"/>
-      <c r="Q111" s="61"/>
-      <c r="R111" s="61"/>
-      <c r="S111" s="61"/>
-      <c r="T111" s="61"/>
-      <c r="U111" s="61"/>
-      <c r="V111" s="61"/>
-      <c r="W111" s="61"/>
-      <c r="X111" s="61"/>
-      <c r="Y111" s="61"/>
-      <c r="Z111" s="61"/>
-      <c r="AA111" s="61"/>
-      <c r="AB111" s="61"/>
-      <c r="AC111" s="61"/>
-      <c r="AD111" s="61"/>
-      <c r="AE111" s="61"/>
-      <c r="AF111" s="61"/>
-      <c r="AG111" s="61"/>
-      <c r="AH111" s="61"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
+      <c r="L111" s="65"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65"/>
+      <c r="O111" s="65"/>
+      <c r="P111" s="65"/>
+      <c r="Q111" s="65"/>
+      <c r="R111" s="65"/>
+      <c r="S111" s="65"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="65"/>
+      <c r="V111" s="65"/>
+      <c r="W111" s="65"/>
+      <c r="X111" s="65"/>
+      <c r="Y111" s="65"/>
+      <c r="Z111" s="65"/>
+      <c r="AA111" s="65"/>
+      <c r="AB111" s="65"/>
+      <c r="AC111" s="65"/>
+      <c r="AD111" s="65"/>
+      <c r="AE111" s="65"/>
+      <c r="AF111" s="65"/>
+      <c r="AG111" s="65"/>
+      <c r="AH111" s="65"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="65" t="s">
+      <c r="A113" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="65"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="65"/>
-      <c r="S113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="U113" s="65"/>
-      <c r="V113" s="65"/>
-      <c r="W113" s="65"/>
-      <c r="X113" s="65"/>
-      <c r="Y113" s="65"/>
-      <c r="Z113" s="65"/>
-      <c r="AA113" s="65"/>
-      <c r="AB113" s="65"/>
-      <c r="AC113" s="65"/>
-      <c r="AD113" s="65"/>
-      <c r="AE113" s="65"/>
-      <c r="AF113" s="65"/>
-      <c r="AG113" s="65"/>
-      <c r="AH113" s="65"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="60"/>
+      <c r="P113" s="60"/>
+      <c r="Q113" s="60"/>
+      <c r="R113" s="60"/>
+      <c r="S113" s="60"/>
+      <c r="T113" s="60"/>
+      <c r="U113" s="60"/>
+      <c r="V113" s="60"/>
+      <c r="W113" s="60"/>
+      <c r="X113" s="60"/>
+      <c r="Y113" s="60"/>
+      <c r="Z113" s="60"/>
+      <c r="AA113" s="60"/>
+      <c r="AB113" s="60"/>
+      <c r="AC113" s="60"/>
+      <c r="AD113" s="60"/>
+      <c r="AE113" s="60"/>
+      <c r="AF113" s="60"/>
+      <c r="AG113" s="60"/>
+      <c r="AH113" s="60"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="66" t="s">
+      <c r="A114" s="61" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="66"/>
-      <c r="M114" s="66"/>
-      <c r="N114" s="66"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="66"/>
-      <c r="R114" s="66"/>
-      <c r="S114" s="66"/>
-      <c r="T114" s="66"/>
-      <c r="U114" s="66"/>
-      <c r="V114" s="66"/>
-      <c r="W114" s="66"/>
-      <c r="X114" s="66"/>
-      <c r="Y114" s="66"/>
-      <c r="Z114" s="66"/>
-      <c r="AA114" s="66"/>
-      <c r="AB114" s="66"/>
-      <c r="AC114" s="66"/>
-      <c r="AD114" s="66"/>
-      <c r="AE114" s="66"/>
-      <c r="AF114" s="66"/>
-      <c r="AG114" s="66"/>
-      <c r="AH114" s="66"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="61"/>
+      <c r="O114" s="61"/>
+      <c r="P114" s="61"/>
+      <c r="Q114" s="61"/>
+      <c r="R114" s="61"/>
+      <c r="S114" s="61"/>
+      <c r="T114" s="61"/>
+      <c r="U114" s="61"/>
+      <c r="V114" s="61"/>
+      <c r="W114" s="61"/>
+      <c r="X114" s="61"/>
+      <c r="Y114" s="61"/>
+      <c r="Z114" s="61"/>
+      <c r="AA114" s="61"/>
+      <c r="AB114" s="61"/>
+      <c r="AC114" s="61"/>
+      <c r="AD114" s="61"/>
+      <c r="AE114" s="61"/>
+      <c r="AF114" s="61"/>
+      <c r="AG114" s="61"/>
+      <c r="AH114" s="61"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="63" t="s">
@@ -42490,7 +42492,7 @@
       <c r="AE115" s="63"/>
       <c r="AF115" s="63"/>
       <c r="AG115" s="63"/>
-      <c r="AH115" s="64" t="s">
+      <c r="AH115" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44313,118 +44315,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="60" t="s">
+      <c r="A160" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="61"/>
-      <c r="C160" s="61"/>
-      <c r="D160" s="61"/>
-      <c r="E160" s="61"/>
-      <c r="F160" s="61"/>
-      <c r="G160" s="61"/>
-      <c r="H160" s="61"/>
-      <c r="I160" s="61"/>
-      <c r="J160" s="61"/>
-      <c r="K160" s="61"/>
-      <c r="L160" s="61"/>
-      <c r="M160" s="61"/>
-      <c r="N160" s="61"/>
-      <c r="O160" s="61"/>
-      <c r="P160" s="61"/>
-      <c r="Q160" s="61"/>
-      <c r="R160" s="61"/>
-      <c r="S160" s="61"/>
-      <c r="T160" s="61"/>
-      <c r="U160" s="61"/>
-      <c r="V160" s="61"/>
-      <c r="W160" s="61"/>
-      <c r="X160" s="61"/>
-      <c r="Y160" s="61"/>
-      <c r="Z160" s="61"/>
-      <c r="AA160" s="61"/>
-      <c r="AB160" s="61"/>
-      <c r="AC160" s="61"/>
-      <c r="AD160" s="61"/>
-      <c r="AE160" s="61"/>
-      <c r="AF160" s="61"/>
-      <c r="AG160" s="61"/>
-      <c r="AH160" s="61"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="65"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="65"/>
+      <c r="L160" s="65"/>
+      <c r="M160" s="65"/>
+      <c r="N160" s="65"/>
+      <c r="O160" s="65"/>
+      <c r="P160" s="65"/>
+      <c r="Q160" s="65"/>
+      <c r="R160" s="65"/>
+      <c r="S160" s="65"/>
+      <c r="T160" s="65"/>
+      <c r="U160" s="65"/>
+      <c r="V160" s="65"/>
+      <c r="W160" s="65"/>
+      <c r="X160" s="65"/>
+      <c r="Y160" s="65"/>
+      <c r="Z160" s="65"/>
+      <c r="AA160" s="65"/>
+      <c r="AB160" s="65"/>
+      <c r="AC160" s="65"/>
+      <c r="AD160" s="65"/>
+      <c r="AE160" s="65"/>
+      <c r="AF160" s="65"/>
+      <c r="AG160" s="65"/>
+      <c r="AH160" s="65"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="65" t="s">
+      <c r="A162" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="65"/>
-      <c r="G162" s="65"/>
-      <c r="H162" s="65"/>
-      <c r="I162" s="65"/>
-      <c r="J162" s="65"/>
-      <c r="K162" s="65"/>
-      <c r="L162" s="65"/>
-      <c r="M162" s="65"/>
-      <c r="N162" s="65"/>
-      <c r="O162" s="65"/>
-      <c r="P162" s="65"/>
-      <c r="Q162" s="65"/>
-      <c r="R162" s="65"/>
-      <c r="S162" s="65"/>
-      <c r="T162" s="65"/>
-      <c r="U162" s="65"/>
-      <c r="V162" s="65"/>
-      <c r="W162" s="65"/>
-      <c r="X162" s="65"/>
-      <c r="Y162" s="65"/>
-      <c r="Z162" s="65"/>
-      <c r="AA162" s="65"/>
-      <c r="AB162" s="65"/>
-      <c r="AC162" s="65"/>
-      <c r="AD162" s="65"/>
-      <c r="AE162" s="65"/>
-      <c r="AF162" s="65"/>
-      <c r="AG162" s="65"/>
-      <c r="AH162" s="65"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="60"/>
+      <c r="M162" s="60"/>
+      <c r="N162" s="60"/>
+      <c r="O162" s="60"/>
+      <c r="P162" s="60"/>
+      <c r="Q162" s="60"/>
+      <c r="R162" s="60"/>
+      <c r="S162" s="60"/>
+      <c r="T162" s="60"/>
+      <c r="U162" s="60"/>
+      <c r="V162" s="60"/>
+      <c r="W162" s="60"/>
+      <c r="X162" s="60"/>
+      <c r="Y162" s="60"/>
+      <c r="Z162" s="60"/>
+      <c r="AA162" s="60"/>
+      <c r="AB162" s="60"/>
+      <c r="AC162" s="60"/>
+      <c r="AD162" s="60"/>
+      <c r="AE162" s="60"/>
+      <c r="AF162" s="60"/>
+      <c r="AG162" s="60"/>
+      <c r="AH162" s="60"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="66" t="s">
+      <c r="A163" s="61" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="66"/>
-      <c r="K163" s="66"/>
-      <c r="L163" s="66"/>
-      <c r="M163" s="66"/>
-      <c r="N163" s="66"/>
-      <c r="O163" s="66"/>
-      <c r="P163" s="66"/>
-      <c r="Q163" s="66"/>
-      <c r="R163" s="66"/>
-      <c r="S163" s="66"/>
-      <c r="T163" s="66"/>
-      <c r="U163" s="66"/>
-      <c r="V163" s="66"/>
-      <c r="W163" s="66"/>
-      <c r="X163" s="66"/>
-      <c r="Y163" s="66"/>
-      <c r="Z163" s="66"/>
-      <c r="AA163" s="66"/>
-      <c r="AB163" s="66"/>
-      <c r="AC163" s="66"/>
-      <c r="AD163" s="66"/>
-      <c r="AE163" s="66"/>
-      <c r="AF163" s="66"/>
-      <c r="AG163" s="66"/>
-      <c r="AH163" s="66"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="61"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="61"/>
+      <c r="G163" s="61"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="61"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="61"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="61"/>
+      <c r="O163" s="61"/>
+      <c r="P163" s="61"/>
+      <c r="Q163" s="61"/>
+      <c r="R163" s="61"/>
+      <c r="S163" s="61"/>
+      <c r="T163" s="61"/>
+      <c r="U163" s="61"/>
+      <c r="V163" s="61"/>
+      <c r="W163" s="61"/>
+      <c r="X163" s="61"/>
+      <c r="Y163" s="61"/>
+      <c r="Z163" s="61"/>
+      <c r="AA163" s="61"/>
+      <c r="AB163" s="61"/>
+      <c r="AC163" s="61"/>
+      <c r="AD163" s="61"/>
+      <c r="AE163" s="61"/>
+      <c r="AF163" s="61"/>
+      <c r="AG163" s="61"/>
+      <c r="AH163" s="61"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="63" t="s">
@@ -44472,7 +44474,7 @@
       <c r="AE164" s="63"/>
       <c r="AF164" s="63"/>
       <c r="AG164" s="63"/>
-      <c r="AH164" s="64" t="s">
+      <c r="AH164" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46295,118 +46297,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="60" t="s">
+      <c r="A209" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="61"/>
-      <c r="C209" s="61"/>
-      <c r="D209" s="61"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="61"/>
-      <c r="G209" s="61"/>
-      <c r="H209" s="61"/>
-      <c r="I209" s="61"/>
-      <c r="J209" s="61"/>
-      <c r="K209" s="61"/>
-      <c r="L209" s="61"/>
-      <c r="M209" s="61"/>
-      <c r="N209" s="61"/>
-      <c r="O209" s="61"/>
-      <c r="P209" s="61"/>
-      <c r="Q209" s="61"/>
-      <c r="R209" s="61"/>
-      <c r="S209" s="61"/>
-      <c r="T209" s="61"/>
-      <c r="U209" s="61"/>
-      <c r="V209" s="61"/>
-      <c r="W209" s="61"/>
-      <c r="X209" s="61"/>
-      <c r="Y209" s="61"/>
-      <c r="Z209" s="61"/>
-      <c r="AA209" s="61"/>
-      <c r="AB209" s="61"/>
-      <c r="AC209" s="61"/>
-      <c r="AD209" s="61"/>
-      <c r="AE209" s="61"/>
-      <c r="AF209" s="61"/>
-      <c r="AG209" s="61"/>
-      <c r="AH209" s="61"/>
+      <c r="B209" s="65"/>
+      <c r="C209" s="65"/>
+      <c r="D209" s="65"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
+      <c r="L209" s="65"/>
+      <c r="M209" s="65"/>
+      <c r="N209" s="65"/>
+      <c r="O209" s="65"/>
+      <c r="P209" s="65"/>
+      <c r="Q209" s="65"/>
+      <c r="R209" s="65"/>
+      <c r="S209" s="65"/>
+      <c r="T209" s="65"/>
+      <c r="U209" s="65"/>
+      <c r="V209" s="65"/>
+      <c r="W209" s="65"/>
+      <c r="X209" s="65"/>
+      <c r="Y209" s="65"/>
+      <c r="Z209" s="65"/>
+      <c r="AA209" s="65"/>
+      <c r="AB209" s="65"/>
+      <c r="AC209" s="65"/>
+      <c r="AD209" s="65"/>
+      <c r="AE209" s="65"/>
+      <c r="AF209" s="65"/>
+      <c r="AG209" s="65"/>
+      <c r="AH209" s="65"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="65" t="s">
+      <c r="A211" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="65"/>
-      <c r="C211" s="65"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
-      <c r="L211" s="65"/>
-      <c r="M211" s="65"/>
-      <c r="N211" s="65"/>
-      <c r="O211" s="65"/>
-      <c r="P211" s="65"/>
-      <c r="Q211" s="65"/>
-      <c r="R211" s="65"/>
-      <c r="S211" s="65"/>
-      <c r="T211" s="65"/>
-      <c r="U211" s="65"/>
-      <c r="V211" s="65"/>
-      <c r="W211" s="65"/>
-      <c r="X211" s="65"/>
-      <c r="Y211" s="65"/>
-      <c r="Z211" s="65"/>
-      <c r="AA211" s="65"/>
-      <c r="AB211" s="65"/>
-      <c r="AC211" s="65"/>
-      <c r="AD211" s="65"/>
-      <c r="AE211" s="65"/>
-      <c r="AF211" s="65"/>
-      <c r="AG211" s="65"/>
-      <c r="AH211" s="65"/>
+      <c r="B211" s="60"/>
+      <c r="C211" s="60"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="60"/>
+      <c r="G211" s="60"/>
+      <c r="H211" s="60"/>
+      <c r="I211" s="60"/>
+      <c r="J211" s="60"/>
+      <c r="K211" s="60"/>
+      <c r="L211" s="60"/>
+      <c r="M211" s="60"/>
+      <c r="N211" s="60"/>
+      <c r="O211" s="60"/>
+      <c r="P211" s="60"/>
+      <c r="Q211" s="60"/>
+      <c r="R211" s="60"/>
+      <c r="S211" s="60"/>
+      <c r="T211" s="60"/>
+      <c r="U211" s="60"/>
+      <c r="V211" s="60"/>
+      <c r="W211" s="60"/>
+      <c r="X211" s="60"/>
+      <c r="Y211" s="60"/>
+      <c r="Z211" s="60"/>
+      <c r="AA211" s="60"/>
+      <c r="AB211" s="60"/>
+      <c r="AC211" s="60"/>
+      <c r="AD211" s="60"/>
+      <c r="AE211" s="60"/>
+      <c r="AF211" s="60"/>
+      <c r="AG211" s="60"/>
+      <c r="AH211" s="60"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="66" t="s">
+      <c r="A212" s="61" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="66"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="66"/>
-      <c r="K212" s="66"/>
-      <c r="L212" s="66"/>
-      <c r="M212" s="66"/>
-      <c r="N212" s="66"/>
-      <c r="O212" s="66"/>
-      <c r="P212" s="66"/>
-      <c r="Q212" s="66"/>
-      <c r="R212" s="66"/>
-      <c r="S212" s="66"/>
-      <c r="T212" s="66"/>
-      <c r="U212" s="66"/>
-      <c r="V212" s="66"/>
-      <c r="W212" s="66"/>
-      <c r="X212" s="66"/>
-      <c r="Y212" s="66"/>
-      <c r="Z212" s="66"/>
-      <c r="AA212" s="66"/>
-      <c r="AB212" s="66"/>
-      <c r="AC212" s="66"/>
-      <c r="AD212" s="66"/>
-      <c r="AE212" s="66"/>
-      <c r="AF212" s="66"/>
-      <c r="AG212" s="66"/>
-      <c r="AH212" s="66"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="61"/>
+      <c r="E212" s="61"/>
+      <c r="F212" s="61"/>
+      <c r="G212" s="61"/>
+      <c r="H212" s="61"/>
+      <c r="I212" s="61"/>
+      <c r="J212" s="61"/>
+      <c r="K212" s="61"/>
+      <c r="L212" s="61"/>
+      <c r="M212" s="61"/>
+      <c r="N212" s="61"/>
+      <c r="O212" s="61"/>
+      <c r="P212" s="61"/>
+      <c r="Q212" s="61"/>
+      <c r="R212" s="61"/>
+      <c r="S212" s="61"/>
+      <c r="T212" s="61"/>
+      <c r="U212" s="61"/>
+      <c r="V212" s="61"/>
+      <c r="W212" s="61"/>
+      <c r="X212" s="61"/>
+      <c r="Y212" s="61"/>
+      <c r="Z212" s="61"/>
+      <c r="AA212" s="61"/>
+      <c r="AB212" s="61"/>
+      <c r="AC212" s="61"/>
+      <c r="AD212" s="61"/>
+      <c r="AE212" s="61"/>
+      <c r="AF212" s="61"/>
+      <c r="AG212" s="61"/>
+      <c r="AH212" s="61"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="63" t="s">
@@ -46454,7 +46456,7 @@
       <c r="AE213" s="63"/>
       <c r="AF213" s="63"/>
       <c r="AG213" s="63"/>
-      <c r="AH213" s="64" t="s">
+      <c r="AH213" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48357,99 +48359,45 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="60" t="s">
+      <c r="A260" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="61"/>
-      <c r="C260" s="61"/>
-      <c r="D260" s="61"/>
-      <c r="E260" s="61"/>
-      <c r="F260" s="61"/>
-      <c r="G260" s="61"/>
-      <c r="H260" s="61"/>
-      <c r="I260" s="61"/>
-      <c r="J260" s="61"/>
-      <c r="K260" s="61"/>
-      <c r="L260" s="61"/>
-      <c r="M260" s="61"/>
-      <c r="N260" s="61"/>
-      <c r="O260" s="61"/>
-      <c r="P260" s="61"/>
-      <c r="Q260" s="61"/>
-      <c r="R260" s="61"/>
-      <c r="S260" s="61"/>
-      <c r="T260" s="61"/>
-      <c r="U260" s="61"/>
-      <c r="V260" s="61"/>
-      <c r="W260" s="61"/>
-      <c r="X260" s="61"/>
-      <c r="Y260" s="61"/>
-      <c r="Z260" s="61"/>
-      <c r="AA260" s="61"/>
-      <c r="AB260" s="61"/>
-      <c r="AC260" s="61"/>
-      <c r="AD260" s="61"/>
-      <c r="AE260" s="61"/>
-      <c r="AF260" s="61"/>
-      <c r="AG260" s="61"/>
-      <c r="AH260" s="61"/>
+      <c r="B260" s="65"/>
+      <c r="C260" s="65"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="65"/>
+      <c r="G260" s="65"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="65"/>
+      <c r="K260" s="65"/>
+      <c r="L260" s="65"/>
+      <c r="M260" s="65"/>
+      <c r="N260" s="65"/>
+      <c r="O260" s="65"/>
+      <c r="P260" s="65"/>
+      <c r="Q260" s="65"/>
+      <c r="R260" s="65"/>
+      <c r="S260" s="65"/>
+      <c r="T260" s="65"/>
+      <c r="U260" s="65"/>
+      <c r="V260" s="65"/>
+      <c r="W260" s="65"/>
+      <c r="X260" s="65"/>
+      <c r="Y260" s="65"/>
+      <c r="Z260" s="65"/>
+      <c r="AA260" s="65"/>
+      <c r="AB260" s="65"/>
+      <c r="AC260" s="65"/>
+      <c r="AD260" s="65"/>
+      <c r="AE260" s="65"/>
+      <c r="AF260" s="65"/>
+      <c r="AG260" s="65"/>
+      <c r="AH260" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48466,6 +48414,60 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F44D64-1F53-4AA6-AAE4-FF7981D351EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19911A3F-2AB7-48A2-9036-FBF79749F6F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16级" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1718">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6879,6 +6879,18 @@
   </si>
   <si>
     <t>请假</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/23/2018</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/19/2018</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7077,7 +7089,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7288,6 +7300,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19791,8 +19806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E366" sqref="E366"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F363" sqref="F363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32197,11 +32212,11 @@
       <c r="D304" s="3">
         <v>2</v>
       </c>
-      <c r="E304" s="3">
-        <v>3</v>
-      </c>
-      <c r="F304" s="3">
-        <v>4</v>
+      <c r="E304" s="69" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F304" s="69" t="s">
+        <v>1716</v>
       </c>
       <c r="G304" s="3">
         <v>5</v>
@@ -32296,7 +32311,9 @@
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
+      <c r="F305" s="3" t="s">
+        <v>1715</v>
+      </c>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
@@ -32336,7 +32353,7 @@
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="52"/>
-      <c r="F306" s="3"/>
+      <c r="F306" s="52"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
@@ -32376,7 +32393,7 @@
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="52"/>
-      <c r="F307" s="3"/>
+      <c r="F307" s="52"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
@@ -32416,7 +32433,7 @@
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="52"/>
-      <c r="F308" s="3"/>
+      <c r="F308" s="52"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
@@ -32496,7 +32513,7 @@
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="52"/>
-      <c r="F310" s="3"/>
+      <c r="F310" s="52"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
@@ -32536,7 +32553,7 @@
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="52"/>
-      <c r="F311" s="3"/>
+      <c r="F311" s="52"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -32576,7 +32593,7 @@
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="52"/>
-      <c r="F312" s="3"/>
+      <c r="F312" s="51"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
@@ -32656,7 +32673,7 @@
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="52"/>
-      <c r="F314" s="3"/>
+      <c r="F314" s="52"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
@@ -32696,7 +32713,7 @@
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="52"/>
-      <c r="F315" s="3"/>
+      <c r="F315" s="52"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
@@ -32736,7 +32753,7 @@
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="52"/>
-      <c r="F316" s="3"/>
+      <c r="F316" s="52"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
@@ -32776,7 +32793,7 @@
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="52"/>
-      <c r="F317" s="3"/>
+      <c r="F317" s="52"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
@@ -32856,7 +32873,7 @@
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
+      <c r="F319" s="52"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
@@ -32936,7 +32953,7 @@
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="52"/>
-      <c r="F321" s="3"/>
+      <c r="F321" s="52"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
@@ -32976,7 +32993,7 @@
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="52"/>
-      <c r="F322" s="3"/>
+      <c r="F322" s="52"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
@@ -33016,7 +33033,7 @@
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
+      <c r="F323" s="52"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
@@ -33096,7 +33113,7 @@
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
+      <c r="F325" s="52"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
@@ -33176,7 +33193,7 @@
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="52"/>
-      <c r="F327" s="3"/>
+      <c r="F327" s="52"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
@@ -33216,7 +33233,7 @@
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="52"/>
-      <c r="F328" s="3"/>
+      <c r="F328" s="52"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
@@ -33336,7 +33353,7 @@
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
+      <c r="F331" s="52"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
@@ -33416,7 +33433,7 @@
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="52"/>
-      <c r="F333" s="3"/>
+      <c r="F333" s="52"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
@@ -33456,7 +33473,7 @@
       <c r="C334" s="3"/>
       <c r="D334" s="52"/>
       <c r="E334" s="3"/>
-      <c r="F334" s="3"/>
+      <c r="F334" s="52"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
@@ -33536,7 +33553,7 @@
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="52"/>
-      <c r="F336" s="3"/>
+      <c r="F336" s="52"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
@@ -33576,7 +33593,7 @@
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
+      <c r="F337" s="52"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
@@ -33616,7 +33633,7 @@
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="52"/>
-      <c r="F338" s="3"/>
+      <c r="F338" s="52"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
@@ -33696,7 +33713,7 @@
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="52"/>
-      <c r="F340" s="3"/>
+      <c r="F340" s="52"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
@@ -33736,7 +33753,7 @@
       <c r="C341" s="52"/>
       <c r="D341" s="3"/>
       <c r="E341" s="52"/>
-      <c r="F341" s="3"/>
+      <c r="F341" s="52"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
@@ -33776,7 +33793,7 @@
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="52"/>
-      <c r="F342" s="3"/>
+      <c r="F342" s="52"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
@@ -33816,7 +33833,7 @@
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="52"/>
-      <c r="F343" s="3"/>
+      <c r="F343" s="52"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
@@ -33896,7 +33913,7 @@
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="52"/>
-      <c r="F345" s="3"/>
+      <c r="F345" s="52"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
@@ -33936,7 +33953,7 @@
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
-      <c r="F346" s="3"/>
+      <c r="F346" s="52"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
@@ -33976,7 +33993,7 @@
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="52"/>
-      <c r="F347" s="3"/>
+      <c r="F347" s="52"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
@@ -34096,7 +34113,7 @@
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
+      <c r="F350" s="52"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
@@ -34136,7 +34153,7 @@
       <c r="C351" s="3"/>
       <c r="D351" s="52"/>
       <c r="E351" s="52"/>
-      <c r="F351" s="3"/>
+      <c r="F351" s="52"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
@@ -34176,7 +34193,7 @@
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="52"/>
-      <c r="F352" s="3"/>
+      <c r="F352" s="52"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
@@ -34216,7 +34233,7 @@
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="52"/>
-      <c r="F353" s="3"/>
+      <c r="F353" s="52"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
@@ -34256,7 +34273,7 @@
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
+      <c r="F354" s="52"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
@@ -34296,7 +34313,9 @@
       <c r="C355" s="52"/>
       <c r="D355" s="3"/>
       <c r="E355" s="52"/>
-      <c r="F355" s="3"/>
+      <c r="F355" s="51" t="s">
+        <v>1715</v>
+      </c>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
@@ -34336,7 +34355,7 @@
       <c r="C356" s="3"/>
       <c r="D356" s="52"/>
       <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
+      <c r="F356" s="52"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
@@ -34376,7 +34395,7 @@
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
+      <c r="F357" s="52"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
@@ -34416,7 +34435,7 @@
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="52"/>
-      <c r="F358" s="3"/>
+      <c r="F358" s="52"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
@@ -34496,7 +34515,7 @@
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="52"/>
-      <c r="F360" s="3"/>
+      <c r="F360" s="52"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
@@ -34536,7 +34555,7 @@
       <c r="C361" s="52"/>
       <c r="D361" s="3"/>
       <c r="E361" s="52"/>
-      <c r="F361" s="3"/>
+      <c r="F361" s="52"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
@@ -34576,7 +34595,7 @@
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="52"/>
-      <c r="F362" s="3"/>
+      <c r="F362" s="52"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
@@ -34616,7 +34635,7 @@
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="52"/>
-      <c r="F363" s="3"/>
+      <c r="F363" s="51"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
@@ -34656,7 +34675,7 @@
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="52"/>
-      <c r="F364" s="3"/>
+      <c r="F364" s="52"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
@@ -34696,7 +34715,7 @@
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
+      <c r="F365" s="52"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
@@ -34736,7 +34755,7 @@
       <c r="C366" s="52"/>
       <c r="D366" s="3"/>
       <c r="E366" s="52"/>
-      <c r="F366" s="3"/>
+      <c r="F366" s="52"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
@@ -37741,7 +37760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="AP209" sqref="AP209"/>
     </sheetView>
   </sheetViews>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19911A3F-2AB7-48A2-9036-FBF79749F6F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BD0C5-5E88-46D7-9AF3-040D523A250C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1720">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6891,6 +6891,14 @@
   </si>
   <si>
     <t>11/19/2018</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/26</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾校</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7278,6 +7286,21 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7288,26 +7311,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8237,134 +8245,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64" t="s">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -8458,7 +8466,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="64"/>
+      <c r="AH4" s="65"/>
     </row>
     <row r="5" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -9661,172 +9669,172 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="62"/>
+      <c r="AH36" s="62"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64" t="s">
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="64" t="s">
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="65" t="s">
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="3">
         <v>1</v>
       </c>
@@ -9920,7 +9928,7 @@
       <c r="AG39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH39" s="64"/>
+      <c r="AH39" s="65"/>
     </row>
     <row r="40" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
@@ -12283,173 +12291,173 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="63"/>
-      <c r="K99" s="63"/>
-      <c r="L99" s="63"/>
-      <c r="M99" s="63"/>
-      <c r="N99" s="63"/>
-      <c r="O99" s="63"/>
-      <c r="P99" s="63"/>
-      <c r="Q99" s="63"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="63"/>
-      <c r="T99" s="63"/>
-      <c r="U99" s="63"/>
-      <c r="V99" s="63"/>
-      <c r="W99" s="63"/>
-      <c r="X99" s="63"/>
-      <c r="Y99" s="63"/>
-      <c r="Z99" s="63"/>
-      <c r="AA99" s="63"/>
-      <c r="AB99" s="63"/>
-      <c r="AC99" s="63"/>
-      <c r="AD99" s="63"/>
-      <c r="AE99" s="63"/>
-      <c r="AF99" s="63"/>
-      <c r="AG99" s="63"/>
-      <c r="AH99" s="63"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="68"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
+      <c r="N99" s="68"/>
+      <c r="O99" s="68"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="68"/>
+      <c r="S99" s="68"/>
+      <c r="T99" s="68"/>
+      <c r="U99" s="68"/>
+      <c r="V99" s="68"/>
+      <c r="W99" s="68"/>
+      <c r="X99" s="68"/>
+      <c r="Y99" s="68"/>
+      <c r="Z99" s="68"/>
+      <c r="AA99" s="68"/>
+      <c r="AB99" s="68"/>
+      <c r="AC99" s="68"/>
+      <c r="AD99" s="68"/>
+      <c r="AE99" s="68"/>
+      <c r="AF99" s="68"/>
+      <c r="AG99" s="68"/>
+      <c r="AH99" s="68"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="66" t="s">
+      <c r="A101" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="66"/>
-      <c r="M101" s="66"/>
-      <c r="N101" s="66"/>
-      <c r="O101" s="66"/>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="66"/>
-      <c r="R101" s="66"/>
-      <c r="S101" s="66"/>
-      <c r="T101" s="66"/>
-      <c r="U101" s="66"/>
-      <c r="V101" s="66"/>
-      <c r="W101" s="66"/>
-      <c r="X101" s="66"/>
-      <c r="Y101" s="66"/>
-      <c r="Z101" s="66"/>
-      <c r="AA101" s="66"/>
-      <c r="AB101" s="66"/>
-      <c r="AC101" s="66"/>
-      <c r="AD101" s="66"/>
-      <c r="AE101" s="66"/>
-      <c r="AF101" s="66"/>
-      <c r="AG101" s="66"/>
-      <c r="AH101" s="66"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="62"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="62"/>
+      <c r="N101" s="62"/>
+      <c r="O101" s="62"/>
+      <c r="P101" s="62"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="62"/>
+      <c r="S101" s="62"/>
+      <c r="T101" s="62"/>
+      <c r="U101" s="62"/>
+      <c r="V101" s="62"/>
+      <c r="W101" s="62"/>
+      <c r="X101" s="62"/>
+      <c r="Y101" s="62"/>
+      <c r="Z101" s="62"/>
+      <c r="AA101" s="62"/>
+      <c r="AB101" s="62"/>
+      <c r="AC101" s="62"/>
+      <c r="AD101" s="62"/>
+      <c r="AE101" s="62"/>
+      <c r="AF101" s="62"/>
+      <c r="AG101" s="62"/>
+      <c r="AH101" s="62"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67" t="s">
+      <c r="A102" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="67"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="68"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="68"/>
-      <c r="P102" s="68"/>
-      <c r="Q102" s="68"/>
-      <c r="R102" s="68"/>
-      <c r="S102" s="68"/>
-      <c r="T102" s="68"/>
-      <c r="U102" s="68"/>
-      <c r="V102" s="68"/>
-      <c r="W102" s="68"/>
-      <c r="X102" s="68"/>
-      <c r="Y102" s="68"/>
-      <c r="Z102" s="68"/>
-      <c r="AA102" s="68"/>
-      <c r="AB102" s="68"/>
-      <c r="AC102" s="68"/>
-      <c r="AD102" s="68"/>
-      <c r="AE102" s="68"/>
-      <c r="AF102" s="68"/>
-      <c r="AG102" s="68"/>
-      <c r="AH102" s="68"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="64"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="64"/>
+      <c r="R102" s="64"/>
+      <c r="S102" s="64"/>
+      <c r="T102" s="64"/>
+      <c r="U102" s="64"/>
+      <c r="V102" s="64"/>
+      <c r="W102" s="64"/>
+      <c r="X102" s="64"/>
+      <c r="Y102" s="64"/>
+      <c r="Z102" s="64"/>
+      <c r="AA102" s="64"/>
+      <c r="AB102" s="64"/>
+      <c r="AC102" s="64"/>
+      <c r="AD102" s="64"/>
+      <c r="AE102" s="64"/>
+      <c r="AF102" s="64"/>
+      <c r="AG102" s="64"/>
+      <c r="AH102" s="64"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64" t="s">
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="64"/>
-      <c r="P103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="64"/>
-      <c r="S103" s="64"/>
-      <c r="T103" s="64"/>
-      <c r="U103" s="64" t="s">
+      <c r="M103" s="65"/>
+      <c r="N103" s="65"/>
+      <c r="O103" s="65"/>
+      <c r="P103" s="65"/>
+      <c r="Q103" s="65"/>
+      <c r="R103" s="65"/>
+      <c r="S103" s="65"/>
+      <c r="T103" s="65"/>
+      <c r="U103" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V103" s="64"/>
-      <c r="W103" s="64"/>
-      <c r="X103" s="64"/>
-      <c r="Y103" s="64"/>
-      <c r="Z103" s="64"/>
-      <c r="AA103" s="64"/>
-      <c r="AB103" s="64"/>
-      <c r="AC103" s="64"/>
-      <c r="AD103" s="64" t="s">
+      <c r="V103" s="65"/>
+      <c r="W103" s="65"/>
+      <c r="X103" s="65"/>
+      <c r="Y103" s="65"/>
+      <c r="Z103" s="65"/>
+      <c r="AA103" s="65"/>
+      <c r="AB103" s="65"/>
+      <c r="AC103" s="65"/>
+      <c r="AD103" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE103" s="64"/>
-      <c r="AF103" s="64"/>
-      <c r="AG103" s="64"/>
-      <c r="AH103" s="65" t="s">
+      <c r="AE103" s="65"/>
+      <c r="AF103" s="65"/>
+      <c r="AG103" s="65"/>
+      <c r="AH103" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="64"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
       <c r="C104" s="3">
         <v>1</v>
       </c>
@@ -12543,7 +12551,7 @@
       <c r="AG104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH104" s="64"/>
+      <c r="AH104" s="65"/>
     </row>
     <row r="105" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -15066,172 +15074,172 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="61" t="s">
+      <c r="A168" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="62"/>
-      <c r="C168" s="63"/>
-      <c r="D168" s="63"/>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="63"/>
-      <c r="H168" s="63"/>
-      <c r="I168" s="63"/>
-      <c r="J168" s="63"/>
-      <c r="K168" s="63"/>
-      <c r="L168" s="63"/>
-      <c r="M168" s="63"/>
-      <c r="N168" s="63"/>
-      <c r="O168" s="63"/>
-      <c r="P168" s="63"/>
-      <c r="Q168" s="63"/>
-      <c r="R168" s="63"/>
-      <c r="S168" s="63"/>
-      <c r="T168" s="63"/>
-      <c r="U168" s="63"/>
-      <c r="V168" s="63"/>
-      <c r="W168" s="63"/>
-      <c r="X168" s="63"/>
-      <c r="Y168" s="63"/>
-      <c r="Z168" s="63"/>
-      <c r="AA168" s="63"/>
-      <c r="AB168" s="63"/>
-      <c r="AC168" s="63"/>
-      <c r="AD168" s="63"/>
-      <c r="AE168" s="63"/>
-      <c r="AF168" s="63"/>
-      <c r="AG168" s="63"/>
-      <c r="AH168" s="63"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="68"/>
+      <c r="I168" s="68"/>
+      <c r="J168" s="68"/>
+      <c r="K168" s="68"/>
+      <c r="L168" s="68"/>
+      <c r="M168" s="68"/>
+      <c r="N168" s="68"/>
+      <c r="O168" s="68"/>
+      <c r="P168" s="68"/>
+      <c r="Q168" s="68"/>
+      <c r="R168" s="68"/>
+      <c r="S168" s="68"/>
+      <c r="T168" s="68"/>
+      <c r="U168" s="68"/>
+      <c r="V168" s="68"/>
+      <c r="W168" s="68"/>
+      <c r="X168" s="68"/>
+      <c r="Y168" s="68"/>
+      <c r="Z168" s="68"/>
+      <c r="AA168" s="68"/>
+      <c r="AB168" s="68"/>
+      <c r="AC168" s="68"/>
+      <c r="AD168" s="68"/>
+      <c r="AE168" s="68"/>
+      <c r="AF168" s="68"/>
+      <c r="AG168" s="68"/>
+      <c r="AH168" s="68"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="66" t="s">
+      <c r="A169" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="66"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="66"/>
-      <c r="K169" s="66"/>
-      <c r="L169" s="66"/>
-      <c r="M169" s="66"/>
-      <c r="N169" s="66"/>
-      <c r="O169" s="66"/>
-      <c r="P169" s="66"/>
-      <c r="Q169" s="66"/>
-      <c r="R169" s="66"/>
-      <c r="S169" s="66"/>
-      <c r="T169" s="66"/>
-      <c r="U169" s="66"/>
-      <c r="V169" s="66"/>
-      <c r="W169" s="66"/>
-      <c r="X169" s="66"/>
-      <c r="Y169" s="66"/>
-      <c r="Z169" s="66"/>
-      <c r="AA169" s="66"/>
-      <c r="AB169" s="66"/>
-      <c r="AC169" s="66"/>
-      <c r="AD169" s="66"/>
-      <c r="AE169" s="66"/>
-      <c r="AF169" s="66"/>
-      <c r="AG169" s="66"/>
-      <c r="AH169" s="66"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="62"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="62"/>
+      <c r="I169" s="62"/>
+      <c r="J169" s="62"/>
+      <c r="K169" s="62"/>
+      <c r="L169" s="62"/>
+      <c r="M169" s="62"/>
+      <c r="N169" s="62"/>
+      <c r="O169" s="62"/>
+      <c r="P169" s="62"/>
+      <c r="Q169" s="62"/>
+      <c r="R169" s="62"/>
+      <c r="S169" s="62"/>
+      <c r="T169" s="62"/>
+      <c r="U169" s="62"/>
+      <c r="V169" s="62"/>
+      <c r="W169" s="62"/>
+      <c r="X169" s="62"/>
+      <c r="Y169" s="62"/>
+      <c r="Z169" s="62"/>
+      <c r="AA169" s="62"/>
+      <c r="AB169" s="62"/>
+      <c r="AC169" s="62"/>
+      <c r="AD169" s="62"/>
+      <c r="AE169" s="62"/>
+      <c r="AF169" s="62"/>
+      <c r="AG169" s="62"/>
+      <c r="AH169" s="62"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="67" t="s">
+      <c r="A170" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="68"/>
-      <c r="F170" s="68"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="68"/>
-      <c r="I170" s="68"/>
-      <c r="J170" s="68"/>
-      <c r="K170" s="68"/>
-      <c r="L170" s="68"/>
-      <c r="M170" s="68"/>
-      <c r="N170" s="68"/>
-      <c r="O170" s="68"/>
-      <c r="P170" s="68"/>
-      <c r="Q170" s="68"/>
-      <c r="R170" s="68"/>
-      <c r="S170" s="68"/>
-      <c r="T170" s="68"/>
-      <c r="U170" s="68"/>
-      <c r="V170" s="68"/>
-      <c r="W170" s="68"/>
-      <c r="X170" s="68"/>
-      <c r="Y170" s="68"/>
-      <c r="Z170" s="68"/>
-      <c r="AA170" s="68"/>
-      <c r="AB170" s="68"/>
-      <c r="AC170" s="68"/>
-      <c r="AD170" s="68"/>
-      <c r="AE170" s="68"/>
-      <c r="AF170" s="68"/>
-      <c r="AG170" s="68"/>
-      <c r="AH170" s="68"/>
+      <c r="B170" s="63"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="64"/>
+      <c r="E170" s="64"/>
+      <c r="F170" s="64"/>
+      <c r="G170" s="64"/>
+      <c r="H170" s="64"/>
+      <c r="I170" s="64"/>
+      <c r="J170" s="64"/>
+      <c r="K170" s="64"/>
+      <c r="L170" s="64"/>
+      <c r="M170" s="64"/>
+      <c r="N170" s="64"/>
+      <c r="O170" s="64"/>
+      <c r="P170" s="64"/>
+      <c r="Q170" s="64"/>
+      <c r="R170" s="64"/>
+      <c r="S170" s="64"/>
+      <c r="T170" s="64"/>
+      <c r="U170" s="64"/>
+      <c r="V170" s="64"/>
+      <c r="W170" s="64"/>
+      <c r="X170" s="64"/>
+      <c r="Y170" s="64"/>
+      <c r="Z170" s="64"/>
+      <c r="AA170" s="64"/>
+      <c r="AB170" s="64"/>
+      <c r="AC170" s="64"/>
+      <c r="AD170" s="64"/>
+      <c r="AE170" s="64"/>
+      <c r="AF170" s="64"/>
+      <c r="AG170" s="64"/>
+      <c r="AH170" s="64"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="64" t="s">
+      <c r="A171" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="64" t="s">
+      <c r="B171" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="64" t="s">
+      <c r="C171" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="64"/>
-      <c r="E171" s="64"/>
-      <c r="F171" s="64"/>
-      <c r="G171" s="64"/>
-      <c r="H171" s="64"/>
-      <c r="I171" s="64"/>
-      <c r="J171" s="64"/>
-      <c r="K171" s="64"/>
-      <c r="L171" s="64" t="s">
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+      <c r="I171" s="65"/>
+      <c r="J171" s="65"/>
+      <c r="K171" s="65"/>
+      <c r="L171" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M171" s="64"/>
-      <c r="N171" s="64"/>
-      <c r="O171" s="64"/>
-      <c r="P171" s="64"/>
-      <c r="Q171" s="64"/>
-      <c r="R171" s="64"/>
-      <c r="S171" s="64"/>
-      <c r="T171" s="64"/>
-      <c r="U171" s="64" t="s">
+      <c r="M171" s="65"/>
+      <c r="N171" s="65"/>
+      <c r="O171" s="65"/>
+      <c r="P171" s="65"/>
+      <c r="Q171" s="65"/>
+      <c r="R171" s="65"/>
+      <c r="S171" s="65"/>
+      <c r="T171" s="65"/>
+      <c r="U171" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V171" s="64"/>
-      <c r="W171" s="64"/>
-      <c r="X171" s="64"/>
-      <c r="Y171" s="64"/>
-      <c r="Z171" s="64"/>
-      <c r="AA171" s="64"/>
-      <c r="AB171" s="64"/>
-      <c r="AC171" s="64"/>
-      <c r="AD171" s="64" t="s">
+      <c r="V171" s="65"/>
+      <c r="W171" s="65"/>
+      <c r="X171" s="65"/>
+      <c r="Y171" s="65"/>
+      <c r="Z171" s="65"/>
+      <c r="AA171" s="65"/>
+      <c r="AB171" s="65"/>
+      <c r="AC171" s="65"/>
+      <c r="AD171" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE171" s="64"/>
-      <c r="AF171" s="64"/>
-      <c r="AG171" s="64"/>
-      <c r="AH171" s="65" t="s">
+      <c r="AE171" s="65"/>
+      <c r="AF171" s="65"/>
+      <c r="AG171" s="65"/>
+      <c r="AH171" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="64"/>
-      <c r="B172" s="64"/>
+      <c r="A172" s="65"/>
+      <c r="B172" s="65"/>
       <c r="C172" s="3">
         <v>1</v>
       </c>
@@ -15325,7 +15333,7 @@
       <c r="AG172" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH172" s="64"/>
+      <c r="AH172" s="65"/>
     </row>
     <row r="173" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
@@ -16808,42 +16816,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="61" t="s">
+      <c r="A210" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="62"/>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="63"/>
-      <c r="I210" s="63"/>
-      <c r="J210" s="63"/>
-      <c r="K210" s="63"/>
-      <c r="L210" s="63"/>
-      <c r="M210" s="63"/>
-      <c r="N210" s="63"/>
-      <c r="O210" s="63"/>
-      <c r="P210" s="63"/>
-      <c r="Q210" s="63"/>
-      <c r="R210" s="63"/>
-      <c r="S210" s="63"/>
-      <c r="T210" s="63"/>
-      <c r="U210" s="63"/>
-      <c r="V210" s="63"/>
-      <c r="W210" s="63"/>
-      <c r="X210" s="63"/>
-      <c r="Y210" s="63"/>
-      <c r="Z210" s="63"/>
-      <c r="AA210" s="63"/>
-      <c r="AB210" s="63"/>
-      <c r="AC210" s="63"/>
-      <c r="AD210" s="63"/>
-      <c r="AE210" s="63"/>
-      <c r="AF210" s="63"/>
-      <c r="AG210" s="63"/>
-      <c r="AH210" s="63"/>
+      <c r="B210" s="67"/>
+      <c r="C210" s="68"/>
+      <c r="D210" s="68"/>
+      <c r="E210" s="68"/>
+      <c r="F210" s="68"/>
+      <c r="G210" s="68"/>
+      <c r="H210" s="68"/>
+      <c r="I210" s="68"/>
+      <c r="J210" s="68"/>
+      <c r="K210" s="68"/>
+      <c r="L210" s="68"/>
+      <c r="M210" s="68"/>
+      <c r="N210" s="68"/>
+      <c r="O210" s="68"/>
+      <c r="P210" s="68"/>
+      <c r="Q210" s="68"/>
+      <c r="R210" s="68"/>
+      <c r="S210" s="68"/>
+      <c r="T210" s="68"/>
+      <c r="U210" s="68"/>
+      <c r="V210" s="68"/>
+      <c r="W210" s="68"/>
+      <c r="X210" s="68"/>
+      <c r="Y210" s="68"/>
+      <c r="Z210" s="68"/>
+      <c r="AA210" s="68"/>
+      <c r="AB210" s="68"/>
+      <c r="AC210" s="68"/>
+      <c r="AD210" s="68"/>
+      <c r="AE210" s="68"/>
+      <c r="AF210" s="68"/>
+      <c r="AG210" s="68"/>
+      <c r="AH210" s="68"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16882,134 +16890,134 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="66" t="s">
+      <c r="A212" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="66"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="66"/>
-      <c r="K212" s="66"/>
-      <c r="L212" s="66"/>
-      <c r="M212" s="66"/>
-      <c r="N212" s="66"/>
-      <c r="O212" s="66"/>
-      <c r="P212" s="66"/>
-      <c r="Q212" s="66"/>
-      <c r="R212" s="66"/>
-      <c r="S212" s="66"/>
-      <c r="T212" s="66"/>
-      <c r="U212" s="66"/>
-      <c r="V212" s="66"/>
-      <c r="W212" s="66"/>
-      <c r="X212" s="66"/>
-      <c r="Y212" s="66"/>
-      <c r="Z212" s="66"/>
-      <c r="AA212" s="66"/>
-      <c r="AB212" s="66"/>
-      <c r="AC212" s="66"/>
-      <c r="AD212" s="66"/>
-      <c r="AE212" s="66"/>
-      <c r="AF212" s="66"/>
-      <c r="AG212" s="66"/>
-      <c r="AH212" s="66"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="62"/>
+      <c r="D212" s="62"/>
+      <c r="E212" s="62"/>
+      <c r="F212" s="62"/>
+      <c r="G212" s="62"/>
+      <c r="H212" s="62"/>
+      <c r="I212" s="62"/>
+      <c r="J212" s="62"/>
+      <c r="K212" s="62"/>
+      <c r="L212" s="62"/>
+      <c r="M212" s="62"/>
+      <c r="N212" s="62"/>
+      <c r="O212" s="62"/>
+      <c r="P212" s="62"/>
+      <c r="Q212" s="62"/>
+      <c r="R212" s="62"/>
+      <c r="S212" s="62"/>
+      <c r="T212" s="62"/>
+      <c r="U212" s="62"/>
+      <c r="V212" s="62"/>
+      <c r="W212" s="62"/>
+      <c r="X212" s="62"/>
+      <c r="Y212" s="62"/>
+      <c r="Z212" s="62"/>
+      <c r="AA212" s="62"/>
+      <c r="AB212" s="62"/>
+      <c r="AC212" s="62"/>
+      <c r="AD212" s="62"/>
+      <c r="AE212" s="62"/>
+      <c r="AF212" s="62"/>
+      <c r="AG212" s="62"/>
+      <c r="AH212" s="62"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="67" t="s">
+      <c r="A213" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="67"/>
-      <c r="C213" s="67"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="67"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="67"/>
-      <c r="L213" s="67"/>
-      <c r="M213" s="67"/>
-      <c r="N213" s="67"/>
-      <c r="O213" s="67"/>
-      <c r="P213" s="67"/>
-      <c r="Q213" s="67"/>
-      <c r="R213" s="67"/>
-      <c r="S213" s="67"/>
-      <c r="T213" s="67"/>
-      <c r="U213" s="67"/>
-      <c r="V213" s="67"/>
-      <c r="W213" s="67"/>
-      <c r="X213" s="67"/>
-      <c r="Y213" s="67"/>
-      <c r="Z213" s="67"/>
-      <c r="AA213" s="67"/>
-      <c r="AB213" s="67"/>
-      <c r="AC213" s="67"/>
-      <c r="AD213" s="67"/>
-      <c r="AE213" s="67"/>
-      <c r="AF213" s="67"/>
-      <c r="AG213" s="67"/>
-      <c r="AH213" s="67"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
+      <c r="G213" s="63"/>
+      <c r="H213" s="63"/>
+      <c r="I213" s="63"/>
+      <c r="J213" s="63"/>
+      <c r="K213" s="63"/>
+      <c r="L213" s="63"/>
+      <c r="M213" s="63"/>
+      <c r="N213" s="63"/>
+      <c r="O213" s="63"/>
+      <c r="P213" s="63"/>
+      <c r="Q213" s="63"/>
+      <c r="R213" s="63"/>
+      <c r="S213" s="63"/>
+      <c r="T213" s="63"/>
+      <c r="U213" s="63"/>
+      <c r="V213" s="63"/>
+      <c r="W213" s="63"/>
+      <c r="X213" s="63"/>
+      <c r="Y213" s="63"/>
+      <c r="Z213" s="63"/>
+      <c r="AA213" s="63"/>
+      <c r="AB213" s="63"/>
+      <c r="AC213" s="63"/>
+      <c r="AD213" s="63"/>
+      <c r="AE213" s="63"/>
+      <c r="AF213" s="63"/>
+      <c r="AG213" s="63"/>
+      <c r="AH213" s="63"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="64" t="s">
+      <c r="A214" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="64" t="s">
+      <c r="B214" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="64" t="s">
+      <c r="C214" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="64"/>
-      <c r="K214" s="64"/>
-      <c r="L214" s="64" t="s">
+      <c r="D214" s="65"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="65"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="65"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="65"/>
+      <c r="K214" s="65"/>
+      <c r="L214" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M214" s="64"/>
-      <c r="N214" s="64"/>
-      <c r="O214" s="64"/>
-      <c r="P214" s="64"/>
-      <c r="Q214" s="64"/>
-      <c r="R214" s="64"/>
-      <c r="S214" s="64"/>
-      <c r="T214" s="64"/>
-      <c r="U214" s="64" t="s">
+      <c r="M214" s="65"/>
+      <c r="N214" s="65"/>
+      <c r="O214" s="65"/>
+      <c r="P214" s="65"/>
+      <c r="Q214" s="65"/>
+      <c r="R214" s="65"/>
+      <c r="S214" s="65"/>
+      <c r="T214" s="65"/>
+      <c r="U214" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V214" s="64"/>
-      <c r="W214" s="64"/>
-      <c r="X214" s="64"/>
-      <c r="Y214" s="64"/>
-      <c r="Z214" s="64"/>
-      <c r="AA214" s="64"/>
-      <c r="AB214" s="64"/>
-      <c r="AC214" s="64"/>
-      <c r="AD214" s="64" t="s">
+      <c r="V214" s="65"/>
+      <c r="W214" s="65"/>
+      <c r="X214" s="65"/>
+      <c r="Y214" s="65"/>
+      <c r="Z214" s="65"/>
+      <c r="AA214" s="65"/>
+      <c r="AB214" s="65"/>
+      <c r="AC214" s="65"/>
+      <c r="AD214" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE214" s="64"/>
-      <c r="AF214" s="64"/>
-      <c r="AG214" s="64"/>
-      <c r="AH214" s="65" t="s">
+      <c r="AE214" s="65"/>
+      <c r="AF214" s="65"/>
+      <c r="AG214" s="65"/>
+      <c r="AH214" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="64"/>
-      <c r="B215" s="64"/>
+      <c r="A215" s="65"/>
+      <c r="B215" s="65"/>
       <c r="C215" s="3">
         <v>1</v>
       </c>
@@ -17103,7 +17111,7 @@
       <c r="AG215" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH215" s="64"/>
+      <c r="AH215" s="65"/>
     </row>
     <row r="216" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
@@ -19706,79 +19714,45 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="61" t="s">
+      <c r="A281" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="62"/>
-      <c r="C281" s="63"/>
-      <c r="D281" s="63"/>
-      <c r="E281" s="63"/>
-      <c r="F281" s="63"/>
-      <c r="G281" s="63"/>
-      <c r="H281" s="63"/>
-      <c r="I281" s="63"/>
-      <c r="J281" s="63"/>
-      <c r="K281" s="63"/>
-      <c r="L281" s="63"/>
-      <c r="M281" s="63"/>
-      <c r="N281" s="63"/>
-      <c r="O281" s="63"/>
-      <c r="P281" s="63"/>
-      <c r="Q281" s="63"/>
-      <c r="R281" s="63"/>
-      <c r="S281" s="63"/>
-      <c r="T281" s="63"/>
-      <c r="U281" s="63"/>
-      <c r="V281" s="63"/>
-      <c r="W281" s="63"/>
-      <c r="X281" s="63"/>
-      <c r="Y281" s="63"/>
-      <c r="Z281" s="63"/>
-      <c r="AA281" s="63"/>
-      <c r="AB281" s="63"/>
-      <c r="AC281" s="63"/>
-      <c r="AD281" s="63"/>
-      <c r="AE281" s="63"/>
-      <c r="AF281" s="63"/>
-      <c r="AG281" s="63"/>
-      <c r="AH281" s="63"/>
+      <c r="B281" s="67"/>
+      <c r="C281" s="68"/>
+      <c r="D281" s="68"/>
+      <c r="E281" s="68"/>
+      <c r="F281" s="68"/>
+      <c r="G281" s="68"/>
+      <c r="H281" s="68"/>
+      <c r="I281" s="68"/>
+      <c r="J281" s="68"/>
+      <c r="K281" s="68"/>
+      <c r="L281" s="68"/>
+      <c r="M281" s="68"/>
+      <c r="N281" s="68"/>
+      <c r="O281" s="68"/>
+      <c r="P281" s="68"/>
+      <c r="Q281" s="68"/>
+      <c r="R281" s="68"/>
+      <c r="S281" s="68"/>
+      <c r="T281" s="68"/>
+      <c r="U281" s="68"/>
+      <c r="V281" s="68"/>
+      <c r="W281" s="68"/>
+      <c r="X281" s="68"/>
+      <c r="Y281" s="68"/>
+      <c r="Z281" s="68"/>
+      <c r="AA281" s="68"/>
+      <c r="AB281" s="68"/>
+      <c r="AC281" s="68"/>
+      <c r="AD281" s="68"/>
+      <c r="AE281" s="68"/>
+      <c r="AF281" s="68"/>
+      <c r="AG281" s="68"/>
+      <c r="AH281" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19795,6 +19769,40 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19806,8 +19814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F363" sqref="F363"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256:AH256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19828,134 +19836,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64" t="s">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -20049,7 +20057,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="64"/>
+      <c r="AH4" s="65"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -22706,42 +22714,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="62"/>
-      <c r="W71" s="62"/>
-      <c r="X71" s="62"/>
-      <c r="Y71" s="62"/>
-      <c r="Z71" s="62"/>
-      <c r="AA71" s="62"/>
-      <c r="AB71" s="62"/>
-      <c r="AC71" s="62"/>
-      <c r="AD71" s="62"/>
-      <c r="AE71" s="62"/>
-      <c r="AF71" s="62"/>
-      <c r="AG71" s="62"/>
-      <c r="AH71" s="62"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="67"/>
+      <c r="AA71" s="67"/>
+      <c r="AB71" s="67"/>
+      <c r="AC71" s="67"/>
+      <c r="AD71" s="67"/>
+      <c r="AE71" s="67"/>
+      <c r="AF71" s="67"/>
+      <c r="AG71" s="67"/>
+      <c r="AH71" s="67"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22780,134 +22788,134 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66" t="s">
+      <c r="A73" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="66"/>
-      <c r="S73" s="66"/>
-      <c r="T73" s="66"/>
-      <c r="U73" s="66"/>
-      <c r="V73" s="66"/>
-      <c r="W73" s="66"/>
-      <c r="X73" s="66"/>
-      <c r="Y73" s="66"/>
-      <c r="Z73" s="66"/>
-      <c r="AA73" s="66"/>
-      <c r="AB73" s="66"/>
-      <c r="AC73" s="66"/>
-      <c r="AD73" s="66"/>
-      <c r="AE73" s="66"/>
-      <c r="AF73" s="66"/>
-      <c r="AG73" s="66"/>
-      <c r="AH73" s="66"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="62"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="62"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
+      <c r="AD73" s="62"/>
+      <c r="AE73" s="62"/>
+      <c r="AF73" s="62"/>
+      <c r="AG73" s="62"/>
+      <c r="AH73" s="62"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-      <c r="X74" s="67"/>
-      <c r="Y74" s="67"/>
-      <c r="Z74" s="67"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="67"/>
-      <c r="AD74" s="67"/>
-      <c r="AE74" s="67"/>
-      <c r="AF74" s="67"/>
-      <c r="AG74" s="67"/>
-      <c r="AH74" s="67"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="63"/>
+      <c r="T74" s="63"/>
+      <c r="U74" s="63"/>
+      <c r="V74" s="63"/>
+      <c r="W74" s="63"/>
+      <c r="X74" s="63"/>
+      <c r="Y74" s="63"/>
+      <c r="Z74" s="63"/>
+      <c r="AA74" s="63"/>
+      <c r="AB74" s="63"/>
+      <c r="AC74" s="63"/>
+      <c r="AD74" s="63"/>
+      <c r="AE74" s="63"/>
+      <c r="AF74" s="63"/>
+      <c r="AG74" s="63"/>
+      <c r="AH74" s="63"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64" t="s">
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="64"/>
-      <c r="R75" s="64"/>
-      <c r="S75" s="64"/>
-      <c r="T75" s="64"/>
-      <c r="U75" s="64" t="s">
+      <c r="M75" s="65"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="65"/>
+      <c r="S75" s="65"/>
+      <c r="T75" s="65"/>
+      <c r="U75" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V75" s="64"/>
-      <c r="W75" s="64"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="64"/>
-      <c r="AA75" s="64"/>
-      <c r="AB75" s="64"/>
-      <c r="AC75" s="64"/>
-      <c r="AD75" s="64" t="s">
+      <c r="V75" s="65"/>
+      <c r="W75" s="65"/>
+      <c r="X75" s="65"/>
+      <c r="Y75" s="65"/>
+      <c r="Z75" s="65"/>
+      <c r="AA75" s="65"/>
+      <c r="AB75" s="65"/>
+      <c r="AC75" s="65"/>
+      <c r="AD75" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE75" s="64"/>
-      <c r="AF75" s="64"/>
-      <c r="AG75" s="64"/>
-      <c r="AH75" s="65" t="s">
+      <c r="AE75" s="65"/>
+      <c r="AF75" s="65"/>
+      <c r="AG75" s="65"/>
+      <c r="AH75" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="3">
         <v>1</v>
       </c>
@@ -23001,7 +23009,7 @@
       <c r="AG76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH76" s="64"/>
+      <c r="AH76" s="65"/>
     </row>
     <row r="77" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
@@ -25560,172 +25568,172 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="62"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
-      <c r="M141" s="62"/>
-      <c r="N141" s="62"/>
-      <c r="O141" s="62"/>
-      <c r="P141" s="62"/>
-      <c r="Q141" s="62"/>
-      <c r="R141" s="62"/>
-      <c r="S141" s="62"/>
-      <c r="T141" s="62"/>
-      <c r="U141" s="62"/>
-      <c r="V141" s="62"/>
-      <c r="W141" s="62"/>
-      <c r="X141" s="62"/>
-      <c r="Y141" s="62"/>
-      <c r="Z141" s="62"/>
-      <c r="AA141" s="62"/>
-      <c r="AB141" s="62"/>
-      <c r="AC141" s="62"/>
-      <c r="AD141" s="62"/>
-      <c r="AE141" s="62"/>
-      <c r="AF141" s="62"/>
-      <c r="AG141" s="62"/>
-      <c r="AH141" s="62"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
+      <c r="L141" s="67"/>
+      <c r="M141" s="67"/>
+      <c r="N141" s="67"/>
+      <c r="O141" s="67"/>
+      <c r="P141" s="67"/>
+      <c r="Q141" s="67"/>
+      <c r="R141" s="67"/>
+      <c r="S141" s="67"/>
+      <c r="T141" s="67"/>
+      <c r="U141" s="67"/>
+      <c r="V141" s="67"/>
+      <c r="W141" s="67"/>
+      <c r="X141" s="67"/>
+      <c r="Y141" s="67"/>
+      <c r="Z141" s="67"/>
+      <c r="AA141" s="67"/>
+      <c r="AB141" s="67"/>
+      <c r="AC141" s="67"/>
+      <c r="AD141" s="67"/>
+      <c r="AE141" s="67"/>
+      <c r="AF141" s="67"/>
+      <c r="AG141" s="67"/>
+      <c r="AH141" s="67"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="66"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="66"/>
-      <c r="M142" s="66"/>
-      <c r="N142" s="66"/>
-      <c r="O142" s="66"/>
-      <c r="P142" s="66"/>
-      <c r="Q142" s="66"/>
-      <c r="R142" s="66"/>
-      <c r="S142" s="66"/>
-      <c r="T142" s="66"/>
-      <c r="U142" s="66"/>
-      <c r="V142" s="66"/>
-      <c r="W142" s="66"/>
-      <c r="X142" s="66"/>
-      <c r="Y142" s="66"/>
-      <c r="Z142" s="66"/>
-      <c r="AA142" s="66"/>
-      <c r="AB142" s="66"/>
-      <c r="AC142" s="66"/>
-      <c r="AD142" s="66"/>
-      <c r="AE142" s="66"/>
-      <c r="AF142" s="66"/>
-      <c r="AG142" s="66"/>
-      <c r="AH142" s="66"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="62"/>
+      <c r="K142" s="62"/>
+      <c r="L142" s="62"/>
+      <c r="M142" s="62"/>
+      <c r="N142" s="62"/>
+      <c r="O142" s="62"/>
+      <c r="P142" s="62"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="62"/>
+      <c r="S142" s="62"/>
+      <c r="T142" s="62"/>
+      <c r="U142" s="62"/>
+      <c r="V142" s="62"/>
+      <c r="W142" s="62"/>
+      <c r="X142" s="62"/>
+      <c r="Y142" s="62"/>
+      <c r="Z142" s="62"/>
+      <c r="AA142" s="62"/>
+      <c r="AB142" s="62"/>
+      <c r="AC142" s="62"/>
+      <c r="AD142" s="62"/>
+      <c r="AE142" s="62"/>
+      <c r="AF142" s="62"/>
+      <c r="AG142" s="62"/>
+      <c r="AH142" s="62"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="67" t="s">
+      <c r="A143" s="63" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="67"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="67"/>
-      <c r="O143" s="67"/>
-      <c r="P143" s="67"/>
-      <c r="Q143" s="67"/>
-      <c r="R143" s="67"/>
-      <c r="S143" s="67"/>
-      <c r="T143" s="67"/>
-      <c r="U143" s="67"/>
-      <c r="V143" s="67"/>
-      <c r="W143" s="67"/>
-      <c r="X143" s="67"/>
-      <c r="Y143" s="67"/>
-      <c r="Z143" s="67"/>
-      <c r="AA143" s="67"/>
-      <c r="AB143" s="67"/>
-      <c r="AC143" s="67"/>
-      <c r="AD143" s="67"/>
-      <c r="AE143" s="67"/>
-      <c r="AF143" s="67"/>
-      <c r="AG143" s="67"/>
-      <c r="AH143" s="67"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
+      <c r="H143" s="63"/>
+      <c r="I143" s="63"/>
+      <c r="J143" s="63"/>
+      <c r="K143" s="63"/>
+      <c r="L143" s="63"/>
+      <c r="M143" s="63"/>
+      <c r="N143" s="63"/>
+      <c r="O143" s="63"/>
+      <c r="P143" s="63"/>
+      <c r="Q143" s="63"/>
+      <c r="R143" s="63"/>
+      <c r="S143" s="63"/>
+      <c r="T143" s="63"/>
+      <c r="U143" s="63"/>
+      <c r="V143" s="63"/>
+      <c r="W143" s="63"/>
+      <c r="X143" s="63"/>
+      <c r="Y143" s="63"/>
+      <c r="Z143" s="63"/>
+      <c r="AA143" s="63"/>
+      <c r="AB143" s="63"/>
+      <c r="AC143" s="63"/>
+      <c r="AD143" s="63"/>
+      <c r="AE143" s="63"/>
+      <c r="AF143" s="63"/>
+      <c r="AG143" s="63"/>
+      <c r="AH143" s="63"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="64" t="s">
+      <c r="A144" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="64" t="s">
+      <c r="B144" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="64" t="s">
+      <c r="C144" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="64"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="64"/>
-      <c r="L144" s="64" t="s">
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="65"/>
+      <c r="L144" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M144" s="64"/>
-      <c r="N144" s="64"/>
-      <c r="O144" s="64"/>
-      <c r="P144" s="64"/>
-      <c r="Q144" s="64"/>
-      <c r="R144" s="64"/>
-      <c r="S144" s="64"/>
-      <c r="T144" s="64"/>
-      <c r="U144" s="64" t="s">
+      <c r="M144" s="65"/>
+      <c r="N144" s="65"/>
+      <c r="O144" s="65"/>
+      <c r="P144" s="65"/>
+      <c r="Q144" s="65"/>
+      <c r="R144" s="65"/>
+      <c r="S144" s="65"/>
+      <c r="T144" s="65"/>
+      <c r="U144" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V144" s="64"/>
-      <c r="W144" s="64"/>
-      <c r="X144" s="64"/>
-      <c r="Y144" s="64"/>
-      <c r="Z144" s="64"/>
-      <c r="AA144" s="64"/>
-      <c r="AB144" s="64"/>
-      <c r="AC144" s="64"/>
-      <c r="AD144" s="64" t="s">
+      <c r="V144" s="65"/>
+      <c r="W144" s="65"/>
+      <c r="X144" s="65"/>
+      <c r="Y144" s="65"/>
+      <c r="Z144" s="65"/>
+      <c r="AA144" s="65"/>
+      <c r="AB144" s="65"/>
+      <c r="AC144" s="65"/>
+      <c r="AD144" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE144" s="64"/>
-      <c r="AF144" s="64"/>
-      <c r="AG144" s="64"/>
-      <c r="AH144" s="65" t="s">
+      <c r="AE144" s="65"/>
+      <c r="AF144" s="65"/>
+      <c r="AG144" s="65"/>
+      <c r="AH144" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
+      <c r="A145" s="65"/>
+      <c r="B145" s="65"/>
       <c r="C145" s="3">
         <v>1</v>
       </c>
@@ -25819,7 +25827,7 @@
       <c r="AG145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH145" s="64"/>
+      <c r="AH145" s="65"/>
     </row>
     <row r="146" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
@@ -28182,177 +28190,177 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="61" t="s">
+      <c r="A205" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="62"/>
-      <c r="C205" s="62"/>
-      <c r="D205" s="62"/>
-      <c r="E205" s="62"/>
-      <c r="F205" s="62"/>
-      <c r="G205" s="62"/>
-      <c r="H205" s="62"/>
-      <c r="I205" s="62"/>
-      <c r="J205" s="62"/>
-      <c r="K205" s="62"/>
-      <c r="L205" s="62"/>
-      <c r="M205" s="62"/>
-      <c r="N205" s="62"/>
-      <c r="O205" s="62"/>
-      <c r="P205" s="62"/>
-      <c r="Q205" s="62"/>
-      <c r="R205" s="62"/>
-      <c r="S205" s="62"/>
-      <c r="T205" s="62"/>
-      <c r="U205" s="62"/>
-      <c r="V205" s="62"/>
-      <c r="W205" s="62"/>
-      <c r="X205" s="62"/>
-      <c r="Y205" s="62"/>
-      <c r="Z205" s="62"/>
-      <c r="AA205" s="62"/>
-      <c r="AB205" s="62"/>
-      <c r="AC205" s="62"/>
-      <c r="AD205" s="62"/>
-      <c r="AE205" s="62"/>
-      <c r="AF205" s="62"/>
-      <c r="AG205" s="62"/>
-      <c r="AH205" s="62"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="67"/>
+      <c r="D205" s="67"/>
+      <c r="E205" s="67"/>
+      <c r="F205" s="67"/>
+      <c r="G205" s="67"/>
+      <c r="H205" s="67"/>
+      <c r="I205" s="67"/>
+      <c r="J205" s="67"/>
+      <c r="K205" s="67"/>
+      <c r="L205" s="67"/>
+      <c r="M205" s="67"/>
+      <c r="N205" s="67"/>
+      <c r="O205" s="67"/>
+      <c r="P205" s="67"/>
+      <c r="Q205" s="67"/>
+      <c r="R205" s="67"/>
+      <c r="S205" s="67"/>
+      <c r="T205" s="67"/>
+      <c r="U205" s="67"/>
+      <c r="V205" s="67"/>
+      <c r="W205" s="67"/>
+      <c r="X205" s="67"/>
+      <c r="Y205" s="67"/>
+      <c r="Z205" s="67"/>
+      <c r="AA205" s="67"/>
+      <c r="AB205" s="67"/>
+      <c r="AC205" s="67"/>
+      <c r="AD205" s="67"/>
+      <c r="AE205" s="67"/>
+      <c r="AF205" s="67"/>
+      <c r="AG205" s="67"/>
+      <c r="AH205" s="67"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="66" t="s">
+      <c r="A207" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="66"/>
-      <c r="C207" s="66"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66"/>
-      <c r="I207" s="66"/>
-      <c r="J207" s="66"/>
-      <c r="K207" s="66"/>
-      <c r="L207" s="66"/>
-      <c r="M207" s="66"/>
-      <c r="N207" s="66"/>
-      <c r="O207" s="66"/>
-      <c r="P207" s="66"/>
-      <c r="Q207" s="66"/>
-      <c r="R207" s="66"/>
-      <c r="S207" s="66"/>
-      <c r="T207" s="66"/>
-      <c r="U207" s="66"/>
-      <c r="V207" s="66"/>
-      <c r="W207" s="66"/>
-      <c r="X207" s="66"/>
-      <c r="Y207" s="66"/>
-      <c r="Z207" s="66"/>
-      <c r="AA207" s="66"/>
-      <c r="AB207" s="66"/>
-      <c r="AC207" s="66"/>
-      <c r="AD207" s="66"/>
-      <c r="AE207" s="66"/>
-      <c r="AF207" s="66"/>
-      <c r="AG207" s="66"/>
-      <c r="AH207" s="66"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="62"/>
+      <c r="D207" s="62"/>
+      <c r="E207" s="62"/>
+      <c r="F207" s="62"/>
+      <c r="G207" s="62"/>
+      <c r="H207" s="62"/>
+      <c r="I207" s="62"/>
+      <c r="J207" s="62"/>
+      <c r="K207" s="62"/>
+      <c r="L207" s="62"/>
+      <c r="M207" s="62"/>
+      <c r="N207" s="62"/>
+      <c r="O207" s="62"/>
+      <c r="P207" s="62"/>
+      <c r="Q207" s="62"/>
+      <c r="R207" s="62"/>
+      <c r="S207" s="62"/>
+      <c r="T207" s="62"/>
+      <c r="U207" s="62"/>
+      <c r="V207" s="62"/>
+      <c r="W207" s="62"/>
+      <c r="X207" s="62"/>
+      <c r="Y207" s="62"/>
+      <c r="Z207" s="62"/>
+      <c r="AA207" s="62"/>
+      <c r="AB207" s="62"/>
+      <c r="AC207" s="62"/>
+      <c r="AD207" s="62"/>
+      <c r="AE207" s="62"/>
+      <c r="AF207" s="62"/>
+      <c r="AG207" s="62"/>
+      <c r="AH207" s="62"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="67" t="s">
+      <c r="A208" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="67"/>
-      <c r="C208" s="67"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="67"/>
-      <c r="K208" s="67"/>
-      <c r="L208" s="67"/>
-      <c r="M208" s="67"/>
-      <c r="N208" s="67"/>
-      <c r="O208" s="67"/>
-      <c r="P208" s="67"/>
-      <c r="Q208" s="67"/>
-      <c r="R208" s="67"/>
-      <c r="S208" s="67"/>
-      <c r="T208" s="67"/>
-      <c r="U208" s="67"/>
-      <c r="V208" s="67"/>
-      <c r="W208" s="67"/>
-      <c r="X208" s="67"/>
-      <c r="Y208" s="67"/>
-      <c r="Z208" s="67"/>
-      <c r="AA208" s="67"/>
-      <c r="AB208" s="67"/>
-      <c r="AC208" s="67"/>
-      <c r="AD208" s="67"/>
-      <c r="AE208" s="67"/>
-      <c r="AF208" s="67"/>
-      <c r="AG208" s="67"/>
-      <c r="AH208" s="67"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="63"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="63"/>
+      <c r="L208" s="63"/>
+      <c r="M208" s="63"/>
+      <c r="N208" s="63"/>
+      <c r="O208" s="63"/>
+      <c r="P208" s="63"/>
+      <c r="Q208" s="63"/>
+      <c r="R208" s="63"/>
+      <c r="S208" s="63"/>
+      <c r="T208" s="63"/>
+      <c r="U208" s="63"/>
+      <c r="V208" s="63"/>
+      <c r="W208" s="63"/>
+      <c r="X208" s="63"/>
+      <c r="Y208" s="63"/>
+      <c r="Z208" s="63"/>
+      <c r="AA208" s="63"/>
+      <c r="AB208" s="63"/>
+      <c r="AC208" s="63"/>
+      <c r="AD208" s="63"/>
+      <c r="AE208" s="63"/>
+      <c r="AF208" s="63"/>
+      <c r="AG208" s="63"/>
+      <c r="AH208" s="63"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="64" t="s">
+      <c r="A209" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="64" t="s">
+      <c r="B209" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="64" t="s">
+      <c r="C209" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="64"/>
-      <c r="J209" s="64"/>
-      <c r="K209" s="64"/>
-      <c r="L209" s="64" t="s">
+      <c r="D209" s="65"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="65"/>
+      <c r="H209" s="65"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="65"/>
+      <c r="K209" s="65"/>
+      <c r="L209" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M209" s="64"/>
-      <c r="N209" s="64"/>
-      <c r="O209" s="64"/>
-      <c r="P209" s="64"/>
-      <c r="Q209" s="64"/>
-      <c r="R209" s="64"/>
-      <c r="S209" s="64"/>
-      <c r="T209" s="64"/>
-      <c r="U209" s="64" t="s">
+      <c r="M209" s="65"/>
+      <c r="N209" s="65"/>
+      <c r="O209" s="65"/>
+      <c r="P209" s="65"/>
+      <c r="Q209" s="65"/>
+      <c r="R209" s="65"/>
+      <c r="S209" s="65"/>
+      <c r="T209" s="65"/>
+      <c r="U209" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V209" s="64"/>
-      <c r="W209" s="64"/>
-      <c r="X209" s="64"/>
-      <c r="Y209" s="64"/>
-      <c r="Z209" s="64"/>
-      <c r="AA209" s="64"/>
-      <c r="AB209" s="64"/>
-      <c r="AC209" s="64"/>
-      <c r="AD209" s="64" t="s">
+      <c r="V209" s="65"/>
+      <c r="W209" s="65"/>
+      <c r="X209" s="65"/>
+      <c r="Y209" s="65"/>
+      <c r="Z209" s="65"/>
+      <c r="AA209" s="65"/>
+      <c r="AB209" s="65"/>
+      <c r="AC209" s="65"/>
+      <c r="AD209" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE209" s="64"/>
-      <c r="AF209" s="64"/>
-      <c r="AG209" s="64"/>
-      <c r="AH209" s="65" t="s">
+      <c r="AE209" s="65"/>
+      <c r="AF209" s="65"/>
+      <c r="AG209" s="65"/>
+      <c r="AH209" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="64"/>
-      <c r="B210" s="64"/>
+      <c r="A210" s="65"/>
+      <c r="B210" s="65"/>
       <c r="C210" s="3">
         <v>1</v>
       </c>
-      <c r="D210" s="3">
-        <v>2</v>
+      <c r="D210" s="61" t="s">
+        <v>1718</v>
       </c>
       <c r="E210" s="3">
         <v>3</v>
@@ -28441,7 +28449,7 @@
       <c r="AG210" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH210" s="64"/>
+      <c r="AH210" s="65"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
@@ -28813,7 +28821,9 @@
       <c r="C220" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="D220" s="3"/>
+      <c r="D220" s="3" t="s">
+        <v>1719</v>
+      </c>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -28893,7 +28903,9 @@
         <v>859</v>
       </c>
       <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
+      <c r="D222" s="51" t="s">
+        <v>1719</v>
+      </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -29175,7 +29187,9 @@
       <c r="C229" s="51" t="s">
         <v>1702</v>
       </c>
-      <c r="D229" s="3"/>
+      <c r="D229" s="51" t="s">
+        <v>1719</v>
+      </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -29337,7 +29351,7 @@
       <c r="C233" s="51" t="s">
         <v>1701</v>
       </c>
-      <c r="D233" s="3"/>
+      <c r="D233" s="52"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -29539,7 +29553,7 @@
         <v>891</v>
       </c>
       <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
+      <c r="D238" s="52"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -29661,7 +29675,7 @@
       <c r="C241" s="51" t="s">
         <v>1704</v>
       </c>
-      <c r="D241" s="3"/>
+      <c r="D241" s="52"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -29863,7 +29877,7 @@
       <c r="C246" s="51" t="s">
         <v>1701</v>
       </c>
-      <c r="D246" s="3"/>
+      <c r="D246" s="52"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -30183,7 +30197,7 @@
         <v>922</v>
       </c>
       <c r="C254" s="52"/>
-      <c r="D254" s="3"/>
+      <c r="D254" s="52"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -30258,172 +30272,172 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="61" t="s">
+      <c r="A256" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="62"/>
-      <c r="C256" s="62"/>
-      <c r="D256" s="62"/>
-      <c r="E256" s="62"/>
-      <c r="F256" s="62"/>
-      <c r="G256" s="62"/>
-      <c r="H256" s="62"/>
-      <c r="I256" s="62"/>
-      <c r="J256" s="62"/>
-      <c r="K256" s="62"/>
-      <c r="L256" s="62"/>
-      <c r="M256" s="62"/>
-      <c r="N256" s="62"/>
-      <c r="O256" s="62"/>
-      <c r="P256" s="62"/>
-      <c r="Q256" s="62"/>
-      <c r="R256" s="62"/>
-      <c r="S256" s="62"/>
-      <c r="T256" s="62"/>
-      <c r="U256" s="62"/>
-      <c r="V256" s="62"/>
-      <c r="W256" s="62"/>
-      <c r="X256" s="62"/>
-      <c r="Y256" s="62"/>
-      <c r="Z256" s="62"/>
-      <c r="AA256" s="62"/>
-      <c r="AB256" s="62"/>
-      <c r="AC256" s="62"/>
-      <c r="AD256" s="62"/>
-      <c r="AE256" s="62"/>
-      <c r="AF256" s="62"/>
-      <c r="AG256" s="62"/>
-      <c r="AH256" s="62"/>
+      <c r="B256" s="67"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="67"/>
+      <c r="F256" s="67"/>
+      <c r="G256" s="67"/>
+      <c r="H256" s="67"/>
+      <c r="I256" s="67"/>
+      <c r="J256" s="67"/>
+      <c r="K256" s="67"/>
+      <c r="L256" s="67"/>
+      <c r="M256" s="67"/>
+      <c r="N256" s="67"/>
+      <c r="O256" s="67"/>
+      <c r="P256" s="67"/>
+      <c r="Q256" s="67"/>
+      <c r="R256" s="67"/>
+      <c r="S256" s="67"/>
+      <c r="T256" s="67"/>
+      <c r="U256" s="67"/>
+      <c r="V256" s="67"/>
+      <c r="W256" s="67"/>
+      <c r="X256" s="67"/>
+      <c r="Y256" s="67"/>
+      <c r="Z256" s="67"/>
+      <c r="AA256" s="67"/>
+      <c r="AB256" s="67"/>
+      <c r="AC256" s="67"/>
+      <c r="AD256" s="67"/>
+      <c r="AE256" s="67"/>
+      <c r="AF256" s="67"/>
+      <c r="AG256" s="67"/>
+      <c r="AH256" s="67"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="66" t="s">
+      <c r="A258" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="66"/>
-      <c r="C258" s="66"/>
-      <c r="D258" s="66"/>
-      <c r="E258" s="66"/>
-      <c r="F258" s="66"/>
-      <c r="G258" s="66"/>
-      <c r="H258" s="66"/>
-      <c r="I258" s="66"/>
-      <c r="J258" s="66"/>
-      <c r="K258" s="66"/>
-      <c r="L258" s="66"/>
-      <c r="M258" s="66"/>
-      <c r="N258" s="66"/>
-      <c r="O258" s="66"/>
-      <c r="P258" s="66"/>
-      <c r="Q258" s="66"/>
-      <c r="R258" s="66"/>
-      <c r="S258" s="66"/>
-      <c r="T258" s="66"/>
-      <c r="U258" s="66"/>
-      <c r="V258" s="66"/>
-      <c r="W258" s="66"/>
-      <c r="X258" s="66"/>
-      <c r="Y258" s="66"/>
-      <c r="Z258" s="66"/>
-      <c r="AA258" s="66"/>
-      <c r="AB258" s="66"/>
-      <c r="AC258" s="66"/>
-      <c r="AD258" s="66"/>
-      <c r="AE258" s="66"/>
-      <c r="AF258" s="66"/>
-      <c r="AG258" s="66"/>
-      <c r="AH258" s="66"/>
+      <c r="B258" s="62"/>
+      <c r="C258" s="62"/>
+      <c r="D258" s="62"/>
+      <c r="E258" s="62"/>
+      <c r="F258" s="62"/>
+      <c r="G258" s="62"/>
+      <c r="H258" s="62"/>
+      <c r="I258" s="62"/>
+      <c r="J258" s="62"/>
+      <c r="K258" s="62"/>
+      <c r="L258" s="62"/>
+      <c r="M258" s="62"/>
+      <c r="N258" s="62"/>
+      <c r="O258" s="62"/>
+      <c r="P258" s="62"/>
+      <c r="Q258" s="62"/>
+      <c r="R258" s="62"/>
+      <c r="S258" s="62"/>
+      <c r="T258" s="62"/>
+      <c r="U258" s="62"/>
+      <c r="V258" s="62"/>
+      <c r="W258" s="62"/>
+      <c r="X258" s="62"/>
+      <c r="Y258" s="62"/>
+      <c r="Z258" s="62"/>
+      <c r="AA258" s="62"/>
+      <c r="AB258" s="62"/>
+      <c r="AC258" s="62"/>
+      <c r="AD258" s="62"/>
+      <c r="AE258" s="62"/>
+      <c r="AF258" s="62"/>
+      <c r="AG258" s="62"/>
+      <c r="AH258" s="62"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="67" t="s">
+      <c r="A259" s="63" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="67"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="67"/>
-      <c r="E259" s="67"/>
-      <c r="F259" s="67"/>
-      <c r="G259" s="67"/>
-      <c r="H259" s="67"/>
-      <c r="I259" s="67"/>
-      <c r="J259" s="67"/>
-      <c r="K259" s="67"/>
-      <c r="L259" s="67"/>
-      <c r="M259" s="67"/>
-      <c r="N259" s="67"/>
-      <c r="O259" s="67"/>
-      <c r="P259" s="67"/>
-      <c r="Q259" s="67"/>
-      <c r="R259" s="67"/>
-      <c r="S259" s="67"/>
-      <c r="T259" s="67"/>
-      <c r="U259" s="67"/>
-      <c r="V259" s="67"/>
-      <c r="W259" s="67"/>
-      <c r="X259" s="67"/>
-      <c r="Y259" s="67"/>
-      <c r="Z259" s="67"/>
-      <c r="AA259" s="67"/>
-      <c r="AB259" s="67"/>
-      <c r="AC259" s="67"/>
-      <c r="AD259" s="67"/>
-      <c r="AE259" s="67"/>
-      <c r="AF259" s="67"/>
-      <c r="AG259" s="67"/>
-      <c r="AH259" s="67"/>
+      <c r="B259" s="63"/>
+      <c r="C259" s="63"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="63"/>
+      <c r="F259" s="63"/>
+      <c r="G259" s="63"/>
+      <c r="H259" s="63"/>
+      <c r="I259" s="63"/>
+      <c r="J259" s="63"/>
+      <c r="K259" s="63"/>
+      <c r="L259" s="63"/>
+      <c r="M259" s="63"/>
+      <c r="N259" s="63"/>
+      <c r="O259" s="63"/>
+      <c r="P259" s="63"/>
+      <c r="Q259" s="63"/>
+      <c r="R259" s="63"/>
+      <c r="S259" s="63"/>
+      <c r="T259" s="63"/>
+      <c r="U259" s="63"/>
+      <c r="V259" s="63"/>
+      <c r="W259" s="63"/>
+      <c r="X259" s="63"/>
+      <c r="Y259" s="63"/>
+      <c r="Z259" s="63"/>
+      <c r="AA259" s="63"/>
+      <c r="AB259" s="63"/>
+      <c r="AC259" s="63"/>
+      <c r="AD259" s="63"/>
+      <c r="AE259" s="63"/>
+      <c r="AF259" s="63"/>
+      <c r="AG259" s="63"/>
+      <c r="AH259" s="63"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="64" t="s">
+      <c r="A260" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="64" t="s">
+      <c r="B260" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="64" t="s">
+      <c r="C260" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
-      <c r="F260" s="64"/>
-      <c r="G260" s="64"/>
-      <c r="H260" s="64"/>
-      <c r="I260" s="64"/>
-      <c r="J260" s="64"/>
-      <c r="K260" s="64"/>
-      <c r="L260" s="64" t="s">
+      <c r="D260" s="65"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="65"/>
+      <c r="G260" s="65"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="65"/>
+      <c r="K260" s="65"/>
+      <c r="L260" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M260" s="64"/>
-      <c r="N260" s="64"/>
-      <c r="O260" s="64"/>
-      <c r="P260" s="64"/>
-      <c r="Q260" s="64"/>
-      <c r="R260" s="64"/>
-      <c r="S260" s="64"/>
-      <c r="T260" s="64"/>
-      <c r="U260" s="64" t="s">
+      <c r="M260" s="65"/>
+      <c r="N260" s="65"/>
+      <c r="O260" s="65"/>
+      <c r="P260" s="65"/>
+      <c r="Q260" s="65"/>
+      <c r="R260" s="65"/>
+      <c r="S260" s="65"/>
+      <c r="T260" s="65"/>
+      <c r="U260" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V260" s="64"/>
-      <c r="W260" s="64"/>
-      <c r="X260" s="64"/>
-      <c r="Y260" s="64"/>
-      <c r="Z260" s="64"/>
-      <c r="AA260" s="64"/>
-      <c r="AB260" s="64"/>
-      <c r="AC260" s="64"/>
-      <c r="AD260" s="64" t="s">
+      <c r="V260" s="65"/>
+      <c r="W260" s="65"/>
+      <c r="X260" s="65"/>
+      <c r="Y260" s="65"/>
+      <c r="Z260" s="65"/>
+      <c r="AA260" s="65"/>
+      <c r="AB260" s="65"/>
+      <c r="AC260" s="65"/>
+      <c r="AD260" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE260" s="64"/>
-      <c r="AF260" s="64"/>
-      <c r="AG260" s="64"/>
-      <c r="AH260" s="65" t="s">
+      <c r="AE260" s="65"/>
+      <c r="AF260" s="65"/>
+      <c r="AG260" s="65"/>
+      <c r="AH260" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="64"/>
-      <c r="B261" s="64"/>
+      <c r="A261" s="65"/>
+      <c r="B261" s="65"/>
       <c r="C261" s="3">
         <v>1</v>
       </c>
@@ -30517,7 +30531,7 @@
       <c r="AG261" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH261" s="64"/>
+      <c r="AH261" s="65"/>
     </row>
     <row r="262" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
@@ -32040,182 +32054,182 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="61" t="s">
+      <c r="A300" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="62"/>
-      <c r="C300" s="62"/>
-      <c r="D300" s="62"/>
-      <c r="E300" s="62"/>
-      <c r="F300" s="62"/>
-      <c r="G300" s="62"/>
-      <c r="H300" s="62"/>
-      <c r="I300" s="62"/>
-      <c r="J300" s="62"/>
-      <c r="K300" s="62"/>
-      <c r="L300" s="62"/>
-      <c r="M300" s="62"/>
-      <c r="N300" s="62"/>
-      <c r="O300" s="62"/>
-      <c r="P300" s="62"/>
-      <c r="Q300" s="62"/>
-      <c r="R300" s="62"/>
-      <c r="S300" s="62"/>
-      <c r="T300" s="62"/>
-      <c r="U300" s="62"/>
-      <c r="V300" s="62"/>
-      <c r="W300" s="62"/>
-      <c r="X300" s="62"/>
-      <c r="Y300" s="62"/>
-      <c r="Z300" s="62"/>
-      <c r="AA300" s="62"/>
-      <c r="AB300" s="62"/>
-      <c r="AC300" s="62"/>
-      <c r="AD300" s="62"/>
-      <c r="AE300" s="62"/>
-      <c r="AF300" s="62"/>
-      <c r="AG300" s="62"/>
-      <c r="AH300" s="62"/>
+      <c r="B300" s="67"/>
+      <c r="C300" s="67"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="67"/>
+      <c r="F300" s="67"/>
+      <c r="G300" s="67"/>
+      <c r="H300" s="67"/>
+      <c r="I300" s="67"/>
+      <c r="J300" s="67"/>
+      <c r="K300" s="67"/>
+      <c r="L300" s="67"/>
+      <c r="M300" s="67"/>
+      <c r="N300" s="67"/>
+      <c r="O300" s="67"/>
+      <c r="P300" s="67"/>
+      <c r="Q300" s="67"/>
+      <c r="R300" s="67"/>
+      <c r="S300" s="67"/>
+      <c r="T300" s="67"/>
+      <c r="U300" s="67"/>
+      <c r="V300" s="67"/>
+      <c r="W300" s="67"/>
+      <c r="X300" s="67"/>
+      <c r="Y300" s="67"/>
+      <c r="Z300" s="67"/>
+      <c r="AA300" s="67"/>
+      <c r="AB300" s="67"/>
+      <c r="AC300" s="67"/>
+      <c r="AD300" s="67"/>
+      <c r="AE300" s="67"/>
+      <c r="AF300" s="67"/>
+      <c r="AG300" s="67"/>
+      <c r="AH300" s="67"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="66" t="s">
+      <c r="A301" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="66"/>
-      <c r="C301" s="66"/>
-      <c r="D301" s="66"/>
-      <c r="E301" s="66"/>
-      <c r="F301" s="66"/>
-      <c r="G301" s="66"/>
-      <c r="H301" s="66"/>
-      <c r="I301" s="66"/>
-      <c r="J301" s="66"/>
-      <c r="K301" s="66"/>
-      <c r="L301" s="66"/>
-      <c r="M301" s="66"/>
-      <c r="N301" s="66"/>
-      <c r="O301" s="66"/>
-      <c r="P301" s="66"/>
-      <c r="Q301" s="66"/>
-      <c r="R301" s="66"/>
-      <c r="S301" s="66"/>
-      <c r="T301" s="66"/>
-      <c r="U301" s="66"/>
-      <c r="V301" s="66"/>
-      <c r="W301" s="66"/>
-      <c r="X301" s="66"/>
-      <c r="Y301" s="66"/>
-      <c r="Z301" s="66"/>
-      <c r="AA301" s="66"/>
-      <c r="AB301" s="66"/>
-      <c r="AC301" s="66"/>
-      <c r="AD301" s="66"/>
-      <c r="AE301" s="66"/>
-      <c r="AF301" s="66"/>
-      <c r="AG301" s="66"/>
-      <c r="AH301" s="66"/>
+      <c r="B301" s="62"/>
+      <c r="C301" s="62"/>
+      <c r="D301" s="62"/>
+      <c r="E301" s="62"/>
+      <c r="F301" s="62"/>
+      <c r="G301" s="62"/>
+      <c r="H301" s="62"/>
+      <c r="I301" s="62"/>
+      <c r="J301" s="62"/>
+      <c r="K301" s="62"/>
+      <c r="L301" s="62"/>
+      <c r="M301" s="62"/>
+      <c r="N301" s="62"/>
+      <c r="O301" s="62"/>
+      <c r="P301" s="62"/>
+      <c r="Q301" s="62"/>
+      <c r="R301" s="62"/>
+      <c r="S301" s="62"/>
+      <c r="T301" s="62"/>
+      <c r="U301" s="62"/>
+      <c r="V301" s="62"/>
+      <c r="W301" s="62"/>
+      <c r="X301" s="62"/>
+      <c r="Y301" s="62"/>
+      <c r="Z301" s="62"/>
+      <c r="AA301" s="62"/>
+      <c r="AB301" s="62"/>
+      <c r="AC301" s="62"/>
+      <c r="AD301" s="62"/>
+      <c r="AE301" s="62"/>
+      <c r="AF301" s="62"/>
+      <c r="AG301" s="62"/>
+      <c r="AH301" s="62"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="67" t="s">
+      <c r="A302" s="63" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="67"/>
-      <c r="C302" s="67"/>
-      <c r="D302" s="67"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="67"/>
-      <c r="L302" s="67"/>
-      <c r="M302" s="67"/>
-      <c r="N302" s="67"/>
-      <c r="O302" s="67"/>
-      <c r="P302" s="67"/>
-      <c r="Q302" s="67"/>
-      <c r="R302" s="67"/>
-      <c r="S302" s="67"/>
-      <c r="T302" s="67"/>
-      <c r="U302" s="67"/>
-      <c r="V302" s="67"/>
-      <c r="W302" s="67"/>
-      <c r="X302" s="67"/>
-      <c r="Y302" s="67"/>
-      <c r="Z302" s="67"/>
-      <c r="AA302" s="67"/>
-      <c r="AB302" s="67"/>
-      <c r="AC302" s="67"/>
-      <c r="AD302" s="67"/>
-      <c r="AE302" s="67"/>
-      <c r="AF302" s="67"/>
-      <c r="AG302" s="67"/>
-      <c r="AH302" s="67"/>
+      <c r="B302" s="63"/>
+      <c r="C302" s="63"/>
+      <c r="D302" s="63"/>
+      <c r="E302" s="63"/>
+      <c r="F302" s="63"/>
+      <c r="G302" s="63"/>
+      <c r="H302" s="63"/>
+      <c r="I302" s="63"/>
+      <c r="J302" s="63"/>
+      <c r="K302" s="63"/>
+      <c r="L302" s="63"/>
+      <c r="M302" s="63"/>
+      <c r="N302" s="63"/>
+      <c r="O302" s="63"/>
+      <c r="P302" s="63"/>
+      <c r="Q302" s="63"/>
+      <c r="R302" s="63"/>
+      <c r="S302" s="63"/>
+      <c r="T302" s="63"/>
+      <c r="U302" s="63"/>
+      <c r="V302" s="63"/>
+      <c r="W302" s="63"/>
+      <c r="X302" s="63"/>
+      <c r="Y302" s="63"/>
+      <c r="Z302" s="63"/>
+      <c r="AA302" s="63"/>
+      <c r="AB302" s="63"/>
+      <c r="AC302" s="63"/>
+      <c r="AD302" s="63"/>
+      <c r="AE302" s="63"/>
+      <c r="AF302" s="63"/>
+      <c r="AG302" s="63"/>
+      <c r="AH302" s="63"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="64" t="s">
+      <c r="A303" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B303" s="64" t="s">
+      <c r="B303" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D303" s="64"/>
-      <c r="E303" s="64"/>
-      <c r="F303" s="64"/>
-      <c r="G303" s="64"/>
-      <c r="H303" s="64"/>
-      <c r="I303" s="64"/>
-      <c r="J303" s="64"/>
-      <c r="K303" s="64"/>
-      <c r="L303" s="64" t="s">
+      <c r="D303" s="65"/>
+      <c r="E303" s="65"/>
+      <c r="F303" s="65"/>
+      <c r="G303" s="65"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
+      <c r="L303" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M303" s="64"/>
-      <c r="N303" s="64"/>
-      <c r="O303" s="64"/>
-      <c r="P303" s="64"/>
-      <c r="Q303" s="64"/>
-      <c r="R303" s="64"/>
-      <c r="S303" s="64"/>
-      <c r="T303" s="64"/>
-      <c r="U303" s="64" t="s">
+      <c r="M303" s="65"/>
+      <c r="N303" s="65"/>
+      <c r="O303" s="65"/>
+      <c r="P303" s="65"/>
+      <c r="Q303" s="65"/>
+      <c r="R303" s="65"/>
+      <c r="S303" s="65"/>
+      <c r="T303" s="65"/>
+      <c r="U303" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V303" s="64"/>
-      <c r="W303" s="64"/>
-      <c r="X303" s="64"/>
-      <c r="Y303" s="64"/>
-      <c r="Z303" s="64"/>
-      <c r="AA303" s="64"/>
-      <c r="AB303" s="64"/>
-      <c r="AC303" s="64"/>
-      <c r="AD303" s="64" t="s">
+      <c r="V303" s="65"/>
+      <c r="W303" s="65"/>
+      <c r="X303" s="65"/>
+      <c r="Y303" s="65"/>
+      <c r="Z303" s="65"/>
+      <c r="AA303" s="65"/>
+      <c r="AB303" s="65"/>
+      <c r="AC303" s="65"/>
+      <c r="AD303" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE303" s="64"/>
-      <c r="AF303" s="64"/>
-      <c r="AG303" s="64"/>
-      <c r="AH303" s="65" t="s">
+      <c r="AE303" s="65"/>
+      <c r="AF303" s="65"/>
+      <c r="AG303" s="65"/>
+      <c r="AH303" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="64"/>
-      <c r="B304" s="64"/>
+      <c r="A304" s="65"/>
+      <c r="B304" s="65"/>
       <c r="C304" s="3">
         <v>1</v>
       </c>
       <c r="D304" s="3">
         <v>2</v>
       </c>
-      <c r="E304" s="69" t="s">
+      <c r="E304" s="61" t="s">
         <v>1717</v>
       </c>
-      <c r="F304" s="69" t="s">
+      <c r="F304" s="61" t="s">
         <v>1716</v>
       </c>
       <c r="G304" s="3">
@@ -32299,7 +32313,7 @@
       <c r="AG304" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH304" s="64"/>
+      <c r="AH304" s="65"/>
     </row>
     <row r="305" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="49" t="s">
@@ -34786,42 +34800,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="61" t="s">
+      <c r="A367" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="62"/>
-      <c r="C367" s="62"/>
-      <c r="D367" s="62"/>
-      <c r="E367" s="62"/>
-      <c r="F367" s="62"/>
-      <c r="G367" s="62"/>
-      <c r="H367" s="62"/>
-      <c r="I367" s="62"/>
-      <c r="J367" s="62"/>
-      <c r="K367" s="62"/>
-      <c r="L367" s="62"/>
-      <c r="M367" s="62"/>
-      <c r="N367" s="62"/>
-      <c r="O367" s="62"/>
-      <c r="P367" s="62"/>
-      <c r="Q367" s="62"/>
-      <c r="R367" s="62"/>
-      <c r="S367" s="62"/>
-      <c r="T367" s="62"/>
-      <c r="U367" s="62"/>
-      <c r="V367" s="62"/>
-      <c r="W367" s="62"/>
-      <c r="X367" s="62"/>
-      <c r="Y367" s="62"/>
-      <c r="Z367" s="62"/>
-      <c r="AA367" s="62"/>
-      <c r="AB367" s="62"/>
-      <c r="AC367" s="62"/>
-      <c r="AD367" s="62"/>
-      <c r="AE367" s="62"/>
-      <c r="AF367" s="62"/>
-      <c r="AG367" s="62"/>
-      <c r="AH367" s="62"/>
+      <c r="B367" s="67"/>
+      <c r="C367" s="67"/>
+      <c r="D367" s="67"/>
+      <c r="E367" s="67"/>
+      <c r="F367" s="67"/>
+      <c r="G367" s="67"/>
+      <c r="H367" s="67"/>
+      <c r="I367" s="67"/>
+      <c r="J367" s="67"/>
+      <c r="K367" s="67"/>
+      <c r="L367" s="67"/>
+      <c r="M367" s="67"/>
+      <c r="N367" s="67"/>
+      <c r="O367" s="67"/>
+      <c r="P367" s="67"/>
+      <c r="Q367" s="67"/>
+      <c r="R367" s="67"/>
+      <c r="S367" s="67"/>
+      <c r="T367" s="67"/>
+      <c r="U367" s="67"/>
+      <c r="V367" s="67"/>
+      <c r="W367" s="67"/>
+      <c r="X367" s="67"/>
+      <c r="Y367" s="67"/>
+      <c r="Z367" s="67"/>
+      <c r="AA367" s="67"/>
+      <c r="AB367" s="67"/>
+      <c r="AC367" s="67"/>
+      <c r="AD367" s="67"/>
+      <c r="AE367" s="67"/>
+      <c r="AF367" s="67"/>
+      <c r="AG367" s="67"/>
+      <c r="AH367" s="67"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34860,134 +34874,134 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="66" t="s">
+      <c r="A369" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="66"/>
-      <c r="C369" s="66"/>
-      <c r="D369" s="66"/>
-      <c r="E369" s="66"/>
-      <c r="F369" s="66"/>
-      <c r="G369" s="66"/>
-      <c r="H369" s="66"/>
-      <c r="I369" s="66"/>
-      <c r="J369" s="66"/>
-      <c r="K369" s="66"/>
-      <c r="L369" s="66"/>
-      <c r="M369" s="66"/>
-      <c r="N369" s="66"/>
-      <c r="O369" s="66"/>
-      <c r="P369" s="66"/>
-      <c r="Q369" s="66"/>
-      <c r="R369" s="66"/>
-      <c r="S369" s="66"/>
-      <c r="T369" s="66"/>
-      <c r="U369" s="66"/>
-      <c r="V369" s="66"/>
-      <c r="W369" s="66"/>
-      <c r="X369" s="66"/>
-      <c r="Y369" s="66"/>
-      <c r="Z369" s="66"/>
-      <c r="AA369" s="66"/>
-      <c r="AB369" s="66"/>
-      <c r="AC369" s="66"/>
-      <c r="AD369" s="66"/>
-      <c r="AE369" s="66"/>
-      <c r="AF369" s="66"/>
-      <c r="AG369" s="66"/>
-      <c r="AH369" s="66"/>
+      <c r="B369" s="62"/>
+      <c r="C369" s="62"/>
+      <c r="D369" s="62"/>
+      <c r="E369" s="62"/>
+      <c r="F369" s="62"/>
+      <c r="G369" s="62"/>
+      <c r="H369" s="62"/>
+      <c r="I369" s="62"/>
+      <c r="J369" s="62"/>
+      <c r="K369" s="62"/>
+      <c r="L369" s="62"/>
+      <c r="M369" s="62"/>
+      <c r="N369" s="62"/>
+      <c r="O369" s="62"/>
+      <c r="P369" s="62"/>
+      <c r="Q369" s="62"/>
+      <c r="R369" s="62"/>
+      <c r="S369" s="62"/>
+      <c r="T369" s="62"/>
+      <c r="U369" s="62"/>
+      <c r="V369" s="62"/>
+      <c r="W369" s="62"/>
+      <c r="X369" s="62"/>
+      <c r="Y369" s="62"/>
+      <c r="Z369" s="62"/>
+      <c r="AA369" s="62"/>
+      <c r="AB369" s="62"/>
+      <c r="AC369" s="62"/>
+      <c r="AD369" s="62"/>
+      <c r="AE369" s="62"/>
+      <c r="AF369" s="62"/>
+      <c r="AG369" s="62"/>
+      <c r="AH369" s="62"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="67" t="s">
+      <c r="A370" s="63" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="67"/>
-      <c r="C370" s="67"/>
-      <c r="D370" s="67"/>
-      <c r="E370" s="67"/>
-      <c r="F370" s="67"/>
-      <c r="G370" s="67"/>
-      <c r="H370" s="67"/>
-      <c r="I370" s="67"/>
-      <c r="J370" s="67"/>
-      <c r="K370" s="67"/>
-      <c r="L370" s="67"/>
-      <c r="M370" s="67"/>
-      <c r="N370" s="67"/>
-      <c r="O370" s="67"/>
-      <c r="P370" s="67"/>
-      <c r="Q370" s="67"/>
-      <c r="R370" s="67"/>
-      <c r="S370" s="67"/>
-      <c r="T370" s="67"/>
-      <c r="U370" s="67"/>
-      <c r="V370" s="67"/>
-      <c r="W370" s="67"/>
-      <c r="X370" s="67"/>
-      <c r="Y370" s="67"/>
-      <c r="Z370" s="67"/>
-      <c r="AA370" s="67"/>
-      <c r="AB370" s="67"/>
-      <c r="AC370" s="67"/>
-      <c r="AD370" s="67"/>
-      <c r="AE370" s="67"/>
-      <c r="AF370" s="67"/>
-      <c r="AG370" s="67"/>
-      <c r="AH370" s="67"/>
+      <c r="B370" s="63"/>
+      <c r="C370" s="63"/>
+      <c r="D370" s="63"/>
+      <c r="E370" s="63"/>
+      <c r="F370" s="63"/>
+      <c r="G370" s="63"/>
+      <c r="H370" s="63"/>
+      <c r="I370" s="63"/>
+      <c r="J370" s="63"/>
+      <c r="K370" s="63"/>
+      <c r="L370" s="63"/>
+      <c r="M370" s="63"/>
+      <c r="N370" s="63"/>
+      <c r="O370" s="63"/>
+      <c r="P370" s="63"/>
+      <c r="Q370" s="63"/>
+      <c r="R370" s="63"/>
+      <c r="S370" s="63"/>
+      <c r="T370" s="63"/>
+      <c r="U370" s="63"/>
+      <c r="V370" s="63"/>
+      <c r="W370" s="63"/>
+      <c r="X370" s="63"/>
+      <c r="Y370" s="63"/>
+      <c r="Z370" s="63"/>
+      <c r="AA370" s="63"/>
+      <c r="AB370" s="63"/>
+      <c r="AC370" s="63"/>
+      <c r="AD370" s="63"/>
+      <c r="AE370" s="63"/>
+      <c r="AF370" s="63"/>
+      <c r="AG370" s="63"/>
+      <c r="AH370" s="63"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="64" t="s">
+      <c r="A371" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B371" s="64" t="s">
+      <c r="B371" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C371" s="64" t="s">
+      <c r="C371" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="64"/>
-      <c r="E371" s="64"/>
-      <c r="F371" s="64"/>
-      <c r="G371" s="64"/>
-      <c r="H371" s="64"/>
-      <c r="I371" s="64"/>
-      <c r="J371" s="64"/>
-      <c r="K371" s="64"/>
-      <c r="L371" s="64" t="s">
+      <c r="D371" s="65"/>
+      <c r="E371" s="65"/>
+      <c r="F371" s="65"/>
+      <c r="G371" s="65"/>
+      <c r="H371" s="65"/>
+      <c r="I371" s="65"/>
+      <c r="J371" s="65"/>
+      <c r="K371" s="65"/>
+      <c r="L371" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M371" s="64"/>
-      <c r="N371" s="64"/>
-      <c r="O371" s="64"/>
-      <c r="P371" s="64"/>
-      <c r="Q371" s="64"/>
-      <c r="R371" s="64"/>
-      <c r="S371" s="64"/>
-      <c r="T371" s="64"/>
-      <c r="U371" s="64" t="s">
+      <c r="M371" s="65"/>
+      <c r="N371" s="65"/>
+      <c r="O371" s="65"/>
+      <c r="P371" s="65"/>
+      <c r="Q371" s="65"/>
+      <c r="R371" s="65"/>
+      <c r="S371" s="65"/>
+      <c r="T371" s="65"/>
+      <c r="U371" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V371" s="64"/>
-      <c r="W371" s="64"/>
-      <c r="X371" s="64"/>
-      <c r="Y371" s="64"/>
-      <c r="Z371" s="64"/>
-      <c r="AA371" s="64"/>
-      <c r="AB371" s="64"/>
-      <c r="AC371" s="64"/>
-      <c r="AD371" s="64" t="s">
+      <c r="V371" s="65"/>
+      <c r="W371" s="65"/>
+      <c r="X371" s="65"/>
+      <c r="Y371" s="65"/>
+      <c r="Z371" s="65"/>
+      <c r="AA371" s="65"/>
+      <c r="AB371" s="65"/>
+      <c r="AC371" s="65"/>
+      <c r="AD371" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE371" s="64"/>
-      <c r="AF371" s="64"/>
-      <c r="AG371" s="64"/>
-      <c r="AH371" s="65" t="s">
+      <c r="AE371" s="65"/>
+      <c r="AF371" s="65"/>
+      <c r="AG371" s="65"/>
+      <c r="AH371" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="64"/>
-      <c r="B372" s="64"/>
+      <c r="A372" s="65"/>
+      <c r="B372" s="65"/>
       <c r="C372" s="3">
         <v>1</v>
       </c>
@@ -35081,7 +35095,7 @@
       <c r="AG372" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH372" s="64"/>
+      <c r="AH372" s="65"/>
     </row>
     <row r="373" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
@@ -37640,99 +37654,45 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="61" t="s">
+      <c r="A436" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="62"/>
-      <c r="C436" s="62"/>
-      <c r="D436" s="62"/>
-      <c r="E436" s="62"/>
-      <c r="F436" s="62"/>
-      <c r="G436" s="62"/>
-      <c r="H436" s="62"/>
-      <c r="I436" s="62"/>
-      <c r="J436" s="62"/>
-      <c r="K436" s="62"/>
-      <c r="L436" s="62"/>
-      <c r="M436" s="62"/>
-      <c r="N436" s="62"/>
-      <c r="O436" s="62"/>
-      <c r="P436" s="62"/>
-      <c r="Q436" s="62"/>
-      <c r="R436" s="62"/>
-      <c r="S436" s="62"/>
-      <c r="T436" s="62"/>
-      <c r="U436" s="62"/>
-      <c r="V436" s="62"/>
-      <c r="W436" s="62"/>
-      <c r="X436" s="62"/>
-      <c r="Y436" s="62"/>
-      <c r="Z436" s="62"/>
-      <c r="AA436" s="62"/>
-      <c r="AB436" s="62"/>
-      <c r="AC436" s="62"/>
-      <c r="AD436" s="62"/>
-      <c r="AE436" s="62"/>
-      <c r="AF436" s="62"/>
-      <c r="AG436" s="62"/>
-      <c r="AH436" s="62"/>
+      <c r="B436" s="67"/>
+      <c r="C436" s="67"/>
+      <c r="D436" s="67"/>
+      <c r="E436" s="67"/>
+      <c r="F436" s="67"/>
+      <c r="G436" s="67"/>
+      <c r="H436" s="67"/>
+      <c r="I436" s="67"/>
+      <c r="J436" s="67"/>
+      <c r="K436" s="67"/>
+      <c r="L436" s="67"/>
+      <c r="M436" s="67"/>
+      <c r="N436" s="67"/>
+      <c r="O436" s="67"/>
+      <c r="P436" s="67"/>
+      <c r="Q436" s="67"/>
+      <c r="R436" s="67"/>
+      <c r="S436" s="67"/>
+      <c r="T436" s="67"/>
+      <c r="U436" s="67"/>
+      <c r="V436" s="67"/>
+      <c r="W436" s="67"/>
+      <c r="X436" s="67"/>
+      <c r="Y436" s="67"/>
+      <c r="Z436" s="67"/>
+      <c r="AA436" s="67"/>
+      <c r="AB436" s="67"/>
+      <c r="AC436" s="67"/>
+      <c r="AD436" s="67"/>
+      <c r="AE436" s="67"/>
+      <c r="AF436" s="67"/>
+      <c r="AG436" s="67"/>
+      <c r="AH436" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37749,6 +37709,60 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37782,134 +37796,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="63" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64" t="s">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -38003,7 +38017,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="64"/>
+      <c r="AH4" s="65"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -38606,172 +38620,172 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="63" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64" t="s">
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64" t="s">
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="65" t="s">
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="3">
         <v>1</v>
       </c>
@@ -38865,7 +38879,7 @@
       <c r="AG25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH25" s="64"/>
+      <c r="AH25" s="65"/>
     </row>
     <row r="26" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -39348,172 +39362,172 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="67"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="62"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="63" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="67"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64" t="s">
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64" t="s">
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64" t="s">
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="65" t="s">
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="65"/>
+      <c r="AH42" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="3">
         <v>1</v>
       </c>
@@ -39607,7 +39621,7 @@
       <c r="AG43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH43" s="64"/>
+      <c r="AH43" s="65"/>
     </row>
     <row r="44" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -40370,172 +40384,172 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="62"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
+      <c r="AE63" s="67"/>
+      <c r="AF63" s="67"/>
+      <c r="AG63" s="67"/>
+      <c r="AH63" s="67"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="66"/>
-      <c r="AC64" s="66"/>
-      <c r="AD64" s="66"/>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="62"/>
+      <c r="W64" s="62"/>
+      <c r="X64" s="62"/>
+      <c r="Y64" s="62"/>
+      <c r="Z64" s="62"/>
+      <c r="AA64" s="62"/>
+      <c r="AB64" s="62"/>
+      <c r="AC64" s="62"/>
+      <c r="AD64" s="62"/>
+      <c r="AE64" s="62"/>
+      <c r="AF64" s="62"/>
+      <c r="AG64" s="62"/>
+      <c r="AH64" s="62"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="63" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="67"/>
-      <c r="AD65" s="67"/>
-      <c r="AE65" s="67"/>
-      <c r="AF65" s="67"/>
-      <c r="AG65" s="67"/>
-      <c r="AH65" s="67"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="63"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="63"/>
+      <c r="Y65" s="63"/>
+      <c r="Z65" s="63"/>
+      <c r="AA65" s="63"/>
+      <c r="AB65" s="63"/>
+      <c r="AC65" s="63"/>
+      <c r="AD65" s="63"/>
+      <c r="AE65" s="63"/>
+      <c r="AF65" s="63"/>
+      <c r="AG65" s="63"/>
+      <c r="AH65" s="63"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64" t="s">
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64" t="s">
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="64"/>
-      <c r="AC66" s="64"/>
-      <c r="AD66" s="64" t="s">
+      <c r="V66" s="65"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="65"/>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="65"/>
+      <c r="AA66" s="65"/>
+      <c r="AB66" s="65"/>
+      <c r="AC66" s="65"/>
+      <c r="AD66" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE66" s="64"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="64"/>
-      <c r="AH66" s="65" t="s">
+      <c r="AE66" s="65"/>
+      <c r="AF66" s="65"/>
+      <c r="AG66" s="65"/>
+      <c r="AH66" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="3">
         <v>1</v>
       </c>
@@ -40629,7 +40643,7 @@
       <c r="AG67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH67" s="64"/>
+      <c r="AH67" s="65"/>
     </row>
     <row r="68" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -42352,172 +42366,172 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="62"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="62"/>
-      <c r="N111" s="62"/>
-      <c r="O111" s="62"/>
-      <c r="P111" s="62"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="62"/>
-      <c r="S111" s="62"/>
-      <c r="T111" s="62"/>
-      <c r="U111" s="62"/>
-      <c r="V111" s="62"/>
-      <c r="W111" s="62"/>
-      <c r="X111" s="62"/>
-      <c r="Y111" s="62"/>
-      <c r="Z111" s="62"/>
-      <c r="AA111" s="62"/>
-      <c r="AB111" s="62"/>
-      <c r="AC111" s="62"/>
-      <c r="AD111" s="62"/>
-      <c r="AE111" s="62"/>
-      <c r="AF111" s="62"/>
-      <c r="AG111" s="62"/>
-      <c r="AH111" s="62"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="67"/>
+      <c r="N111" s="67"/>
+      <c r="O111" s="67"/>
+      <c r="P111" s="67"/>
+      <c r="Q111" s="67"/>
+      <c r="R111" s="67"/>
+      <c r="S111" s="67"/>
+      <c r="T111" s="67"/>
+      <c r="U111" s="67"/>
+      <c r="V111" s="67"/>
+      <c r="W111" s="67"/>
+      <c r="X111" s="67"/>
+      <c r="Y111" s="67"/>
+      <c r="Z111" s="67"/>
+      <c r="AA111" s="67"/>
+      <c r="AB111" s="67"/>
+      <c r="AC111" s="67"/>
+      <c r="AD111" s="67"/>
+      <c r="AE111" s="67"/>
+      <c r="AF111" s="67"/>
+      <c r="AG111" s="67"/>
+      <c r="AH111" s="67"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="66" t="s">
+      <c r="A113" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="66"/>
-      <c r="M113" s="66"/>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-      <c r="S113" s="66"/>
-      <c r="T113" s="66"/>
-      <c r="U113" s="66"/>
-      <c r="V113" s="66"/>
-      <c r="W113" s="66"/>
-      <c r="X113" s="66"/>
-      <c r="Y113" s="66"/>
-      <c r="Z113" s="66"/>
-      <c r="AA113" s="66"/>
-      <c r="AB113" s="66"/>
-      <c r="AC113" s="66"/>
-      <c r="AD113" s="66"/>
-      <c r="AE113" s="66"/>
-      <c r="AF113" s="66"/>
-      <c r="AG113" s="66"/>
-      <c r="AH113" s="66"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="62"/>
+      <c r="O113" s="62"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="62"/>
+      <c r="R113" s="62"/>
+      <c r="S113" s="62"/>
+      <c r="T113" s="62"/>
+      <c r="U113" s="62"/>
+      <c r="V113" s="62"/>
+      <c r="W113" s="62"/>
+      <c r="X113" s="62"/>
+      <c r="Y113" s="62"/>
+      <c r="Z113" s="62"/>
+      <c r="AA113" s="62"/>
+      <c r="AB113" s="62"/>
+      <c r="AC113" s="62"/>
+      <c r="AD113" s="62"/>
+      <c r="AE113" s="62"/>
+      <c r="AF113" s="62"/>
+      <c r="AG113" s="62"/>
+      <c r="AH113" s="62"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="67" t="s">
+      <c r="A114" s="63" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="67"/>
-      <c r="O114" s="67"/>
-      <c r="P114" s="67"/>
-      <c r="Q114" s="67"/>
-      <c r="R114" s="67"/>
-      <c r="S114" s="67"/>
-      <c r="T114" s="67"/>
-      <c r="U114" s="67"/>
-      <c r="V114" s="67"/>
-      <c r="W114" s="67"/>
-      <c r="X114" s="67"/>
-      <c r="Y114" s="67"/>
-      <c r="Z114" s="67"/>
-      <c r="AA114" s="67"/>
-      <c r="AB114" s="67"/>
-      <c r="AC114" s="67"/>
-      <c r="AD114" s="67"/>
-      <c r="AE114" s="67"/>
-      <c r="AF114" s="67"/>
-      <c r="AG114" s="67"/>
-      <c r="AH114" s="67"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="63"/>
+      <c r="M114" s="63"/>
+      <c r="N114" s="63"/>
+      <c r="O114" s="63"/>
+      <c r="P114" s="63"/>
+      <c r="Q114" s="63"/>
+      <c r="R114" s="63"/>
+      <c r="S114" s="63"/>
+      <c r="T114" s="63"/>
+      <c r="U114" s="63"/>
+      <c r="V114" s="63"/>
+      <c r="W114" s="63"/>
+      <c r="X114" s="63"/>
+      <c r="Y114" s="63"/>
+      <c r="Z114" s="63"/>
+      <c r="AA114" s="63"/>
+      <c r="AB114" s="63"/>
+      <c r="AC114" s="63"/>
+      <c r="AD114" s="63"/>
+      <c r="AE114" s="63"/>
+      <c r="AF114" s="63"/>
+      <c r="AG114" s="63"/>
+      <c r="AH114" s="63"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
+      <c r="A115" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="64" t="s">
+      <c r="B115" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="64" t="s">
+      <c r="C115" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
-      <c r="L115" s="64" t="s">
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M115" s="64"/>
-      <c r="N115" s="64"/>
-      <c r="O115" s="64"/>
-      <c r="P115" s="64"/>
-      <c r="Q115" s="64"/>
-      <c r="R115" s="64"/>
-      <c r="S115" s="64"/>
-      <c r="T115" s="64"/>
-      <c r="U115" s="64" t="s">
+      <c r="M115" s="65"/>
+      <c r="N115" s="65"/>
+      <c r="O115" s="65"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="65"/>
+      <c r="R115" s="65"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="65"/>
+      <c r="U115" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V115" s="64"/>
-      <c r="W115" s="64"/>
-      <c r="X115" s="64"/>
-      <c r="Y115" s="64"/>
-      <c r="Z115" s="64"/>
-      <c r="AA115" s="64"/>
-      <c r="AB115" s="64"/>
-      <c r="AC115" s="64"/>
-      <c r="AD115" s="64" t="s">
+      <c r="V115" s="65"/>
+      <c r="W115" s="65"/>
+      <c r="X115" s="65"/>
+      <c r="Y115" s="65"/>
+      <c r="Z115" s="65"/>
+      <c r="AA115" s="65"/>
+      <c r="AB115" s="65"/>
+      <c r="AC115" s="65"/>
+      <c r="AD115" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE115" s="64"/>
-      <c r="AF115" s="64"/>
-      <c r="AG115" s="64"/>
-      <c r="AH115" s="65" t="s">
+      <c r="AE115" s="65"/>
+      <c r="AF115" s="65"/>
+      <c r="AG115" s="65"/>
+      <c r="AH115" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
+      <c r="A116" s="65"/>
+      <c r="B116" s="65"/>
       <c r="C116" s="3">
         <v>1</v>
       </c>
@@ -42611,7 +42625,7 @@
       <c r="AG116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH116" s="64"/>
+      <c r="AH116" s="65"/>
     </row>
     <row r="117" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -44334,172 +44348,172 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="61" t="s">
+      <c r="A160" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="62"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="62"/>
-      <c r="L160" s="62"/>
-      <c r="M160" s="62"/>
-      <c r="N160" s="62"/>
-      <c r="O160" s="62"/>
-      <c r="P160" s="62"/>
-      <c r="Q160" s="62"/>
-      <c r="R160" s="62"/>
-      <c r="S160" s="62"/>
-      <c r="T160" s="62"/>
-      <c r="U160" s="62"/>
-      <c r="V160" s="62"/>
-      <c r="W160" s="62"/>
-      <c r="X160" s="62"/>
-      <c r="Y160" s="62"/>
-      <c r="Z160" s="62"/>
-      <c r="AA160" s="62"/>
-      <c r="AB160" s="62"/>
-      <c r="AC160" s="62"/>
-      <c r="AD160" s="62"/>
-      <c r="AE160" s="62"/>
-      <c r="AF160" s="62"/>
-      <c r="AG160" s="62"/>
-      <c r="AH160" s="62"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
+      <c r="J160" s="67"/>
+      <c r="K160" s="67"/>
+      <c r="L160" s="67"/>
+      <c r="M160" s="67"/>
+      <c r="N160" s="67"/>
+      <c r="O160" s="67"/>
+      <c r="P160" s="67"/>
+      <c r="Q160" s="67"/>
+      <c r="R160" s="67"/>
+      <c r="S160" s="67"/>
+      <c r="T160" s="67"/>
+      <c r="U160" s="67"/>
+      <c r="V160" s="67"/>
+      <c r="W160" s="67"/>
+      <c r="X160" s="67"/>
+      <c r="Y160" s="67"/>
+      <c r="Z160" s="67"/>
+      <c r="AA160" s="67"/>
+      <c r="AB160" s="67"/>
+      <c r="AC160" s="67"/>
+      <c r="AD160" s="67"/>
+      <c r="AE160" s="67"/>
+      <c r="AF160" s="67"/>
+      <c r="AG160" s="67"/>
+      <c r="AH160" s="67"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="66" t="s">
+      <c r="A162" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="66"/>
-      <c r="C162" s="66"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="66"/>
-      <c r="H162" s="66"/>
-      <c r="I162" s="66"/>
-      <c r="J162" s="66"/>
-      <c r="K162" s="66"/>
-      <c r="L162" s="66"/>
-      <c r="M162" s="66"/>
-      <c r="N162" s="66"/>
-      <c r="O162" s="66"/>
-      <c r="P162" s="66"/>
-      <c r="Q162" s="66"/>
-      <c r="R162" s="66"/>
-      <c r="S162" s="66"/>
-      <c r="T162" s="66"/>
-      <c r="U162" s="66"/>
-      <c r="V162" s="66"/>
-      <c r="W162" s="66"/>
-      <c r="X162" s="66"/>
-      <c r="Y162" s="66"/>
-      <c r="Z162" s="66"/>
-      <c r="AA162" s="66"/>
-      <c r="AB162" s="66"/>
-      <c r="AC162" s="66"/>
-      <c r="AD162" s="66"/>
-      <c r="AE162" s="66"/>
-      <c r="AF162" s="66"/>
-      <c r="AG162" s="66"/>
-      <c r="AH162" s="66"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="62"/>
+      <c r="D162" s="62"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="62"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="62"/>
+      <c r="I162" s="62"/>
+      <c r="J162" s="62"/>
+      <c r="K162" s="62"/>
+      <c r="L162" s="62"/>
+      <c r="M162" s="62"/>
+      <c r="N162" s="62"/>
+      <c r="O162" s="62"/>
+      <c r="P162" s="62"/>
+      <c r="Q162" s="62"/>
+      <c r="R162" s="62"/>
+      <c r="S162" s="62"/>
+      <c r="T162" s="62"/>
+      <c r="U162" s="62"/>
+      <c r="V162" s="62"/>
+      <c r="W162" s="62"/>
+      <c r="X162" s="62"/>
+      <c r="Y162" s="62"/>
+      <c r="Z162" s="62"/>
+      <c r="AA162" s="62"/>
+      <c r="AB162" s="62"/>
+      <c r="AC162" s="62"/>
+      <c r="AD162" s="62"/>
+      <c r="AE162" s="62"/>
+      <c r="AF162" s="62"/>
+      <c r="AG162" s="62"/>
+      <c r="AH162" s="62"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="67" t="s">
+      <c r="A163" s="63" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="67"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="67"/>
-      <c r="E163" s="67"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="67"/>
-      <c r="H163" s="67"/>
-      <c r="I163" s="67"/>
-      <c r="J163" s="67"/>
-      <c r="K163" s="67"/>
-      <c r="L163" s="67"/>
-      <c r="M163" s="67"/>
-      <c r="N163" s="67"/>
-      <c r="O163" s="67"/>
-      <c r="P163" s="67"/>
-      <c r="Q163" s="67"/>
-      <c r="R163" s="67"/>
-      <c r="S163" s="67"/>
-      <c r="T163" s="67"/>
-      <c r="U163" s="67"/>
-      <c r="V163" s="67"/>
-      <c r="W163" s="67"/>
-      <c r="X163" s="67"/>
-      <c r="Y163" s="67"/>
-      <c r="Z163" s="67"/>
-      <c r="AA163" s="67"/>
-      <c r="AB163" s="67"/>
-      <c r="AC163" s="67"/>
-      <c r="AD163" s="67"/>
-      <c r="AE163" s="67"/>
-      <c r="AF163" s="67"/>
-      <c r="AG163" s="67"/>
-      <c r="AH163" s="67"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="63"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="63"/>
+      <c r="H163" s="63"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="63"/>
+      <c r="K163" s="63"/>
+      <c r="L163" s="63"/>
+      <c r="M163" s="63"/>
+      <c r="N163" s="63"/>
+      <c r="O163" s="63"/>
+      <c r="P163" s="63"/>
+      <c r="Q163" s="63"/>
+      <c r="R163" s="63"/>
+      <c r="S163" s="63"/>
+      <c r="T163" s="63"/>
+      <c r="U163" s="63"/>
+      <c r="V163" s="63"/>
+      <c r="W163" s="63"/>
+      <c r="X163" s="63"/>
+      <c r="Y163" s="63"/>
+      <c r="Z163" s="63"/>
+      <c r="AA163" s="63"/>
+      <c r="AB163" s="63"/>
+      <c r="AC163" s="63"/>
+      <c r="AD163" s="63"/>
+      <c r="AE163" s="63"/>
+      <c r="AF163" s="63"/>
+      <c r="AG163" s="63"/>
+      <c r="AH163" s="63"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="64" t="s">
+      <c r="A164" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="64" t="s">
+      <c r="B164" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="64" t="s">
+      <c r="C164" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="64"/>
-      <c r="E164" s="64"/>
-      <c r="F164" s="64"/>
-      <c r="G164" s="64"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="64"/>
-      <c r="J164" s="64"/>
-      <c r="K164" s="64"/>
-      <c r="L164" s="64" t="s">
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="65"/>
+      <c r="G164" s="65"/>
+      <c r="H164" s="65"/>
+      <c r="I164" s="65"/>
+      <c r="J164" s="65"/>
+      <c r="K164" s="65"/>
+      <c r="L164" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M164" s="64"/>
-      <c r="N164" s="64"/>
-      <c r="O164" s="64"/>
-      <c r="P164" s="64"/>
-      <c r="Q164" s="64"/>
-      <c r="R164" s="64"/>
-      <c r="S164" s="64"/>
-      <c r="T164" s="64"/>
-      <c r="U164" s="64" t="s">
+      <c r="M164" s="65"/>
+      <c r="N164" s="65"/>
+      <c r="O164" s="65"/>
+      <c r="P164" s="65"/>
+      <c r="Q164" s="65"/>
+      <c r="R164" s="65"/>
+      <c r="S164" s="65"/>
+      <c r="T164" s="65"/>
+      <c r="U164" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V164" s="64"/>
-      <c r="W164" s="64"/>
-      <c r="X164" s="64"/>
-      <c r="Y164" s="64"/>
-      <c r="Z164" s="64"/>
-      <c r="AA164" s="64"/>
-      <c r="AB164" s="64"/>
-      <c r="AC164" s="64"/>
-      <c r="AD164" s="64" t="s">
+      <c r="V164" s="65"/>
+      <c r="W164" s="65"/>
+      <c r="X164" s="65"/>
+      <c r="Y164" s="65"/>
+      <c r="Z164" s="65"/>
+      <c r="AA164" s="65"/>
+      <c r="AB164" s="65"/>
+      <c r="AC164" s="65"/>
+      <c r="AD164" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE164" s="64"/>
-      <c r="AF164" s="64"/>
-      <c r="AG164" s="64"/>
-      <c r="AH164" s="65" t="s">
+      <c r="AE164" s="65"/>
+      <c r="AF164" s="65"/>
+      <c r="AG164" s="65"/>
+      <c r="AH164" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="64"/>
-      <c r="B165" s="64"/>
+      <c r="A165" s="65"/>
+      <c r="B165" s="65"/>
       <c r="C165" s="3">
         <v>1</v>
       </c>
@@ -44593,7 +44607,7 @@
       <c r="AG165" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH165" s="64"/>
+      <c r="AH165" s="65"/>
     </row>
     <row r="166" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -46316,172 +46330,172 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="61" t="s">
+      <c r="A209" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="62"/>
-      <c r="C209" s="62"/>
-      <c r="D209" s="62"/>
-      <c r="E209" s="62"/>
-      <c r="F209" s="62"/>
-      <c r="G209" s="62"/>
-      <c r="H209" s="62"/>
-      <c r="I209" s="62"/>
-      <c r="J209" s="62"/>
-      <c r="K209" s="62"/>
-      <c r="L209" s="62"/>
-      <c r="M209" s="62"/>
-      <c r="N209" s="62"/>
-      <c r="O209" s="62"/>
-      <c r="P209" s="62"/>
-      <c r="Q209" s="62"/>
-      <c r="R209" s="62"/>
-      <c r="S209" s="62"/>
-      <c r="T209" s="62"/>
-      <c r="U209" s="62"/>
-      <c r="V209" s="62"/>
-      <c r="W209" s="62"/>
-      <c r="X209" s="62"/>
-      <c r="Y209" s="62"/>
-      <c r="Z209" s="62"/>
-      <c r="AA209" s="62"/>
-      <c r="AB209" s="62"/>
-      <c r="AC209" s="62"/>
-      <c r="AD209" s="62"/>
-      <c r="AE209" s="62"/>
-      <c r="AF209" s="62"/>
-      <c r="AG209" s="62"/>
-      <c r="AH209" s="62"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
+      <c r="F209" s="67"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="67"/>
+      <c r="I209" s="67"/>
+      <c r="J209" s="67"/>
+      <c r="K209" s="67"/>
+      <c r="L209" s="67"/>
+      <c r="M209" s="67"/>
+      <c r="N209" s="67"/>
+      <c r="O209" s="67"/>
+      <c r="P209" s="67"/>
+      <c r="Q209" s="67"/>
+      <c r="R209" s="67"/>
+      <c r="S209" s="67"/>
+      <c r="T209" s="67"/>
+      <c r="U209" s="67"/>
+      <c r="V209" s="67"/>
+      <c r="W209" s="67"/>
+      <c r="X209" s="67"/>
+      <c r="Y209" s="67"/>
+      <c r="Z209" s="67"/>
+      <c r="AA209" s="67"/>
+      <c r="AB209" s="67"/>
+      <c r="AC209" s="67"/>
+      <c r="AD209" s="67"/>
+      <c r="AE209" s="67"/>
+      <c r="AF209" s="67"/>
+      <c r="AG209" s="67"/>
+      <c r="AH209" s="67"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="66" t="s">
+      <c r="A211" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="66"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="66"/>
-      <c r="I211" s="66"/>
-      <c r="J211" s="66"/>
-      <c r="K211" s="66"/>
-      <c r="L211" s="66"/>
-      <c r="M211" s="66"/>
-      <c r="N211" s="66"/>
-      <c r="O211" s="66"/>
-      <c r="P211" s="66"/>
-      <c r="Q211" s="66"/>
-      <c r="R211" s="66"/>
-      <c r="S211" s="66"/>
-      <c r="T211" s="66"/>
-      <c r="U211" s="66"/>
-      <c r="V211" s="66"/>
-      <c r="W211" s="66"/>
-      <c r="X211" s="66"/>
-      <c r="Y211" s="66"/>
-      <c r="Z211" s="66"/>
-      <c r="AA211" s="66"/>
-      <c r="AB211" s="66"/>
-      <c r="AC211" s="66"/>
-      <c r="AD211" s="66"/>
-      <c r="AE211" s="66"/>
-      <c r="AF211" s="66"/>
-      <c r="AG211" s="66"/>
-      <c r="AH211" s="66"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="62"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="62"/>
+      <c r="F211" s="62"/>
+      <c r="G211" s="62"/>
+      <c r="H211" s="62"/>
+      <c r="I211" s="62"/>
+      <c r="J211" s="62"/>
+      <c r="K211" s="62"/>
+      <c r="L211" s="62"/>
+      <c r="M211" s="62"/>
+      <c r="N211" s="62"/>
+      <c r="O211" s="62"/>
+      <c r="P211" s="62"/>
+      <c r="Q211" s="62"/>
+      <c r="R211" s="62"/>
+      <c r="S211" s="62"/>
+      <c r="T211" s="62"/>
+      <c r="U211" s="62"/>
+      <c r="V211" s="62"/>
+      <c r="W211" s="62"/>
+      <c r="X211" s="62"/>
+      <c r="Y211" s="62"/>
+      <c r="Z211" s="62"/>
+      <c r="AA211" s="62"/>
+      <c r="AB211" s="62"/>
+      <c r="AC211" s="62"/>
+      <c r="AD211" s="62"/>
+      <c r="AE211" s="62"/>
+      <c r="AF211" s="62"/>
+      <c r="AG211" s="62"/>
+      <c r="AH211" s="62"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="67" t="s">
+      <c r="A212" s="63" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="67"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
-      <c r="L212" s="67"/>
-      <c r="M212" s="67"/>
-      <c r="N212" s="67"/>
-      <c r="O212" s="67"/>
-      <c r="P212" s="67"/>
-      <c r="Q212" s="67"/>
-      <c r="R212" s="67"/>
-      <c r="S212" s="67"/>
-      <c r="T212" s="67"/>
-      <c r="U212" s="67"/>
-      <c r="V212" s="67"/>
-      <c r="W212" s="67"/>
-      <c r="X212" s="67"/>
-      <c r="Y212" s="67"/>
-      <c r="Z212" s="67"/>
-      <c r="AA212" s="67"/>
-      <c r="AB212" s="67"/>
-      <c r="AC212" s="67"/>
-      <c r="AD212" s="67"/>
-      <c r="AE212" s="67"/>
-      <c r="AF212" s="67"/>
-      <c r="AG212" s="67"/>
-      <c r="AH212" s="67"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="63"/>
+      <c r="H212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="63"/>
+      <c r="K212" s="63"/>
+      <c r="L212" s="63"/>
+      <c r="M212" s="63"/>
+      <c r="N212" s="63"/>
+      <c r="O212" s="63"/>
+      <c r="P212" s="63"/>
+      <c r="Q212" s="63"/>
+      <c r="R212" s="63"/>
+      <c r="S212" s="63"/>
+      <c r="T212" s="63"/>
+      <c r="U212" s="63"/>
+      <c r="V212" s="63"/>
+      <c r="W212" s="63"/>
+      <c r="X212" s="63"/>
+      <c r="Y212" s="63"/>
+      <c r="Z212" s="63"/>
+      <c r="AA212" s="63"/>
+      <c r="AB212" s="63"/>
+      <c r="AC212" s="63"/>
+      <c r="AD212" s="63"/>
+      <c r="AE212" s="63"/>
+      <c r="AF212" s="63"/>
+      <c r="AG212" s="63"/>
+      <c r="AH212" s="63"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="64" t="s">
+      <c r="A213" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="64" t="s">
+      <c r="B213" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="64" t="s">
+      <c r="C213" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="64"/>
-      <c r="E213" s="64"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="64"/>
-      <c r="I213" s="64"/>
-      <c r="J213" s="64"/>
-      <c r="K213" s="64"/>
-      <c r="L213" s="64" t="s">
+      <c r="D213" s="65"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="65"/>
+      <c r="G213" s="65"/>
+      <c r="H213" s="65"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="65"/>
+      <c r="K213" s="65"/>
+      <c r="L213" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M213" s="64"/>
-      <c r="N213" s="64"/>
-      <c r="O213" s="64"/>
-      <c r="P213" s="64"/>
-      <c r="Q213" s="64"/>
-      <c r="R213" s="64"/>
-      <c r="S213" s="64"/>
-      <c r="T213" s="64"/>
-      <c r="U213" s="64" t="s">
+      <c r="M213" s="65"/>
+      <c r="N213" s="65"/>
+      <c r="O213" s="65"/>
+      <c r="P213" s="65"/>
+      <c r="Q213" s="65"/>
+      <c r="R213" s="65"/>
+      <c r="S213" s="65"/>
+      <c r="T213" s="65"/>
+      <c r="U213" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V213" s="64"/>
-      <c r="W213" s="64"/>
-      <c r="X213" s="64"/>
-      <c r="Y213" s="64"/>
-      <c r="Z213" s="64"/>
-      <c r="AA213" s="64"/>
-      <c r="AB213" s="64"/>
-      <c r="AC213" s="64"/>
-      <c r="AD213" s="64" t="s">
+      <c r="V213" s="65"/>
+      <c r="W213" s="65"/>
+      <c r="X213" s="65"/>
+      <c r="Y213" s="65"/>
+      <c r="Z213" s="65"/>
+      <c r="AA213" s="65"/>
+      <c r="AB213" s="65"/>
+      <c r="AC213" s="65"/>
+      <c r="AD213" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE213" s="64"/>
-      <c r="AF213" s="64"/>
-      <c r="AG213" s="64"/>
-      <c r="AH213" s="65" t="s">
+      <c r="AE213" s="65"/>
+      <c r="AF213" s="65"/>
+      <c r="AG213" s="65"/>
+      <c r="AH213" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="64"/>
-      <c r="B214" s="64"/>
+      <c r="A214" s="65"/>
+      <c r="B214" s="65"/>
       <c r="C214" s="3">
         <v>1</v>
       </c>
@@ -46575,7 +46589,7 @@
       <c r="AG214" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH214" s="64"/>
+      <c r="AH214" s="65"/>
     </row>
     <row r="215" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -48378,99 +48392,45 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="61" t="s">
+      <c r="A260" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="62"/>
-      <c r="C260" s="62"/>
-      <c r="D260" s="62"/>
-      <c r="E260" s="62"/>
-      <c r="F260" s="62"/>
-      <c r="G260" s="62"/>
-      <c r="H260" s="62"/>
-      <c r="I260" s="62"/>
-      <c r="J260" s="62"/>
-      <c r="K260" s="62"/>
-      <c r="L260" s="62"/>
-      <c r="M260" s="62"/>
-      <c r="N260" s="62"/>
-      <c r="O260" s="62"/>
-      <c r="P260" s="62"/>
-      <c r="Q260" s="62"/>
-      <c r="R260" s="62"/>
-      <c r="S260" s="62"/>
-      <c r="T260" s="62"/>
-      <c r="U260" s="62"/>
-      <c r="V260" s="62"/>
-      <c r="W260" s="62"/>
-      <c r="X260" s="62"/>
-      <c r="Y260" s="62"/>
-      <c r="Z260" s="62"/>
-      <c r="AA260" s="62"/>
-      <c r="AB260" s="62"/>
-      <c r="AC260" s="62"/>
-      <c r="AD260" s="62"/>
-      <c r="AE260" s="62"/>
-      <c r="AF260" s="62"/>
-      <c r="AG260" s="62"/>
-      <c r="AH260" s="62"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="67"/>
+      <c r="E260" s="67"/>
+      <c r="F260" s="67"/>
+      <c r="G260" s="67"/>
+      <c r="H260" s="67"/>
+      <c r="I260" s="67"/>
+      <c r="J260" s="67"/>
+      <c r="K260" s="67"/>
+      <c r="L260" s="67"/>
+      <c r="M260" s="67"/>
+      <c r="N260" s="67"/>
+      <c r="O260" s="67"/>
+      <c r="P260" s="67"/>
+      <c r="Q260" s="67"/>
+      <c r="R260" s="67"/>
+      <c r="S260" s="67"/>
+      <c r="T260" s="67"/>
+      <c r="U260" s="67"/>
+      <c r="V260" s="67"/>
+      <c r="W260" s="67"/>
+      <c r="X260" s="67"/>
+      <c r="Y260" s="67"/>
+      <c r="Z260" s="67"/>
+      <c r="AA260" s="67"/>
+      <c r="AB260" s="67"/>
+      <c r="AC260" s="67"/>
+      <c r="AD260" s="67"/>
+      <c r="AE260" s="67"/>
+      <c r="AF260" s="67"/>
+      <c r="AG260" s="67"/>
+      <c r="AH260" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48487,6 +48447,60 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BD0C5-5E88-46D7-9AF3-040D523A250C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E2392-3E74-400B-A975-D7F652995F83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1721">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6899,6 +6899,10 @@
   </si>
   <si>
     <t>驾校</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7097,7 +7101,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7265,12 +7269,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7289,15 +7287,6 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7311,7 +7300,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8245,134 +8258,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -8466,7 +8479,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="65"/>
+      <c r="AH4" s="64"/>
     </row>
     <row r="5" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -9669,172 +9682,172 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65" t="s">
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65" t="s">
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65" t="s">
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="69" t="s">
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="3">
         <v>1</v>
       </c>
@@ -9928,7 +9941,7 @@
       <c r="AG39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH39" s="65"/>
+      <c r="AH39" s="64"/>
     </row>
     <row r="40" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
@@ -12291,173 +12304,173 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66" t="s">
+      <c r="A99" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="68"/>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
-      <c r="N99" s="68"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="68"/>
-      <c r="S99" s="68"/>
-      <c r="T99" s="68"/>
-      <c r="U99" s="68"/>
-      <c r="V99" s="68"/>
-      <c r="W99" s="68"/>
-      <c r="X99" s="68"/>
-      <c r="Y99" s="68"/>
-      <c r="Z99" s="68"/>
-      <c r="AA99" s="68"/>
-      <c r="AB99" s="68"/>
-      <c r="AC99" s="68"/>
-      <c r="AD99" s="68"/>
-      <c r="AE99" s="68"/>
-      <c r="AF99" s="68"/>
-      <c r="AG99" s="68"/>
-      <c r="AH99" s="68"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="63"/>
+      <c r="N99" s="63"/>
+      <c r="O99" s="63"/>
+      <c r="P99" s="63"/>
+      <c r="Q99" s="63"/>
+      <c r="R99" s="63"/>
+      <c r="S99" s="63"/>
+      <c r="T99" s="63"/>
+      <c r="U99" s="63"/>
+      <c r="V99" s="63"/>
+      <c r="W99" s="63"/>
+      <c r="X99" s="63"/>
+      <c r="Y99" s="63"/>
+      <c r="Z99" s="63"/>
+      <c r="AA99" s="63"/>
+      <c r="AB99" s="63"/>
+      <c r="AC99" s="63"/>
+      <c r="AD99" s="63"/>
+      <c r="AE99" s="63"/>
+      <c r="AF99" s="63"/>
+      <c r="AG99" s="63"/>
+      <c r="AH99" s="63"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="62"/>
-      <c r="N101" s="62"/>
-      <c r="O101" s="62"/>
-      <c r="P101" s="62"/>
-      <c r="Q101" s="62"/>
-      <c r="R101" s="62"/>
-      <c r="S101" s="62"/>
-      <c r="T101" s="62"/>
-      <c r="U101" s="62"/>
-      <c r="V101" s="62"/>
-      <c r="W101" s="62"/>
-      <c r="X101" s="62"/>
-      <c r="Y101" s="62"/>
-      <c r="Z101" s="62"/>
-      <c r="AA101" s="62"/>
-      <c r="AB101" s="62"/>
-      <c r="AC101" s="62"/>
-      <c r="AD101" s="62"/>
-      <c r="AE101" s="62"/>
-      <c r="AF101" s="62"/>
-      <c r="AG101" s="62"/>
-      <c r="AH101" s="62"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="66"/>
+      <c r="L101" s="66"/>
+      <c r="M101" s="66"/>
+      <c r="N101" s="66"/>
+      <c r="O101" s="66"/>
+      <c r="P101" s="66"/>
+      <c r="Q101" s="66"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="66"/>
+      <c r="T101" s="66"/>
+      <c r="U101" s="66"/>
+      <c r="V101" s="66"/>
+      <c r="W101" s="66"/>
+      <c r="X101" s="66"/>
+      <c r="Y101" s="66"/>
+      <c r="Z101" s="66"/>
+      <c r="AA101" s="66"/>
+      <c r="AB101" s="66"/>
+      <c r="AC101" s="66"/>
+      <c r="AD101" s="66"/>
+      <c r="AE101" s="66"/>
+      <c r="AF101" s="66"/>
+      <c r="AG101" s="66"/>
+      <c r="AH101" s="66"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="64"/>
-      <c r="P102" s="64"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="64"/>
-      <c r="S102" s="64"/>
-      <c r="T102" s="64"/>
-      <c r="U102" s="64"/>
-      <c r="V102" s="64"/>
-      <c r="W102" s="64"/>
-      <c r="X102" s="64"/>
-      <c r="Y102" s="64"/>
-      <c r="Z102" s="64"/>
-      <c r="AA102" s="64"/>
-      <c r="AB102" s="64"/>
-      <c r="AC102" s="64"/>
-      <c r="AD102" s="64"/>
-      <c r="AE102" s="64"/>
-      <c r="AF102" s="64"/>
-      <c r="AG102" s="64"/>
-      <c r="AH102" s="64"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="68"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="68"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="68"/>
+      <c r="O102" s="68"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="68"/>
+      <c r="S102" s="68"/>
+      <c r="T102" s="68"/>
+      <c r="U102" s="68"/>
+      <c r="V102" s="68"/>
+      <c r="W102" s="68"/>
+      <c r="X102" s="68"/>
+      <c r="Y102" s="68"/>
+      <c r="Z102" s="68"/>
+      <c r="AA102" s="68"/>
+      <c r="AB102" s="68"/>
+      <c r="AC102" s="68"/>
+      <c r="AD102" s="68"/>
+      <c r="AE102" s="68"/>
+      <c r="AF102" s="68"/>
+      <c r="AG102" s="68"/>
+      <c r="AH102" s="68"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="65" t="s">
+      <c r="C103" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65" t="s">
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="65"/>
-      <c r="S103" s="65"/>
-      <c r="T103" s="65"/>
-      <c r="U103" s="65" t="s">
+      <c r="M103" s="64"/>
+      <c r="N103" s="64"/>
+      <c r="O103" s="64"/>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="64"/>
+      <c r="R103" s="64"/>
+      <c r="S103" s="64"/>
+      <c r="T103" s="64"/>
+      <c r="U103" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V103" s="65"/>
-      <c r="W103" s="65"/>
-      <c r="X103" s="65"/>
-      <c r="Y103" s="65"/>
-      <c r="Z103" s="65"/>
-      <c r="AA103" s="65"/>
-      <c r="AB103" s="65"/>
-      <c r="AC103" s="65"/>
-      <c r="AD103" s="65" t="s">
+      <c r="V103" s="64"/>
+      <c r="W103" s="64"/>
+      <c r="X103" s="64"/>
+      <c r="Y103" s="64"/>
+      <c r="Z103" s="64"/>
+      <c r="AA103" s="64"/>
+      <c r="AB103" s="64"/>
+      <c r="AC103" s="64"/>
+      <c r="AD103" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE103" s="65"/>
-      <c r="AF103" s="65"/>
-      <c r="AG103" s="65"/>
-      <c r="AH103" s="69" t="s">
+      <c r="AE103" s="64"/>
+      <c r="AF103" s="64"/>
+      <c r="AG103" s="64"/>
+      <c r="AH103" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
       <c r="C104" s="3">
         <v>1</v>
       </c>
@@ -12551,7 +12564,7 @@
       <c r="AG104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH104" s="65"/>
+      <c r="AH104" s="64"/>
     </row>
     <row r="105" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -15074,172 +15087,172 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="66" t="s">
+      <c r="A168" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="67"/>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="68"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="68"/>
-      <c r="I168" s="68"/>
-      <c r="J168" s="68"/>
-      <c r="K168" s="68"/>
-      <c r="L168" s="68"/>
-      <c r="M168" s="68"/>
-      <c r="N168" s="68"/>
-      <c r="O168" s="68"/>
-      <c r="P168" s="68"/>
-      <c r="Q168" s="68"/>
-      <c r="R168" s="68"/>
-      <c r="S168" s="68"/>
-      <c r="T168" s="68"/>
-      <c r="U168" s="68"/>
-      <c r="V168" s="68"/>
-      <c r="W168" s="68"/>
-      <c r="X168" s="68"/>
-      <c r="Y168" s="68"/>
-      <c r="Z168" s="68"/>
-      <c r="AA168" s="68"/>
-      <c r="AB168" s="68"/>
-      <c r="AC168" s="68"/>
-      <c r="AD168" s="68"/>
-      <c r="AE168" s="68"/>
-      <c r="AF168" s="68"/>
-      <c r="AG168" s="68"/>
-      <c r="AH168" s="68"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="63"/>
+      <c r="D168" s="63"/>
+      <c r="E168" s="63"/>
+      <c r="F168" s="63"/>
+      <c r="G168" s="63"/>
+      <c r="H168" s="63"/>
+      <c r="I168" s="63"/>
+      <c r="J168" s="63"/>
+      <c r="K168" s="63"/>
+      <c r="L168" s="63"/>
+      <c r="M168" s="63"/>
+      <c r="N168" s="63"/>
+      <c r="O168" s="63"/>
+      <c r="P168" s="63"/>
+      <c r="Q168" s="63"/>
+      <c r="R168" s="63"/>
+      <c r="S168" s="63"/>
+      <c r="T168" s="63"/>
+      <c r="U168" s="63"/>
+      <c r="V168" s="63"/>
+      <c r="W168" s="63"/>
+      <c r="X168" s="63"/>
+      <c r="Y168" s="63"/>
+      <c r="Z168" s="63"/>
+      <c r="AA168" s="63"/>
+      <c r="AB168" s="63"/>
+      <c r="AC168" s="63"/>
+      <c r="AD168" s="63"/>
+      <c r="AE168" s="63"/>
+      <c r="AF168" s="63"/>
+      <c r="AG168" s="63"/>
+      <c r="AH168" s="63"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="62" t="s">
+      <c r="A169" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="62"/>
-      <c r="C169" s="62"/>
-      <c r="D169" s="62"/>
-      <c r="E169" s="62"/>
-      <c r="F169" s="62"/>
-      <c r="G169" s="62"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
-      <c r="J169" s="62"/>
-      <c r="K169" s="62"/>
-      <c r="L169" s="62"/>
-      <c r="M169" s="62"/>
-      <c r="N169" s="62"/>
-      <c r="O169" s="62"/>
-      <c r="P169" s="62"/>
-      <c r="Q169" s="62"/>
-      <c r="R169" s="62"/>
-      <c r="S169" s="62"/>
-      <c r="T169" s="62"/>
-      <c r="U169" s="62"/>
-      <c r="V169" s="62"/>
-      <c r="W169" s="62"/>
-      <c r="X169" s="62"/>
-      <c r="Y169" s="62"/>
-      <c r="Z169" s="62"/>
-      <c r="AA169" s="62"/>
-      <c r="AB169" s="62"/>
-      <c r="AC169" s="62"/>
-      <c r="AD169" s="62"/>
-      <c r="AE169" s="62"/>
-      <c r="AF169" s="62"/>
-      <c r="AG169" s="62"/>
-      <c r="AH169" s="62"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="66"/>
+      <c r="E169" s="66"/>
+      <c r="F169" s="66"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="66"/>
+      <c r="I169" s="66"/>
+      <c r="J169" s="66"/>
+      <c r="K169" s="66"/>
+      <c r="L169" s="66"/>
+      <c r="M169" s="66"/>
+      <c r="N169" s="66"/>
+      <c r="O169" s="66"/>
+      <c r="P169" s="66"/>
+      <c r="Q169" s="66"/>
+      <c r="R169" s="66"/>
+      <c r="S169" s="66"/>
+      <c r="T169" s="66"/>
+      <c r="U169" s="66"/>
+      <c r="V169" s="66"/>
+      <c r="W169" s="66"/>
+      <c r="X169" s="66"/>
+      <c r="Y169" s="66"/>
+      <c r="Z169" s="66"/>
+      <c r="AA169" s="66"/>
+      <c r="AB169" s="66"/>
+      <c r="AC169" s="66"/>
+      <c r="AD169" s="66"/>
+      <c r="AE169" s="66"/>
+      <c r="AF169" s="66"/>
+      <c r="AG169" s="66"/>
+      <c r="AH169" s="66"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="63" t="s">
+      <c r="A170" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="63"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="64"/>
-      <c r="E170" s="64"/>
-      <c r="F170" s="64"/>
-      <c r="G170" s="64"/>
-      <c r="H170" s="64"/>
-      <c r="I170" s="64"/>
-      <c r="J170" s="64"/>
-      <c r="K170" s="64"/>
-      <c r="L170" s="64"/>
-      <c r="M170" s="64"/>
-      <c r="N170" s="64"/>
-      <c r="O170" s="64"/>
-      <c r="P170" s="64"/>
-      <c r="Q170" s="64"/>
-      <c r="R170" s="64"/>
-      <c r="S170" s="64"/>
-      <c r="T170" s="64"/>
-      <c r="U170" s="64"/>
-      <c r="V170" s="64"/>
-      <c r="W170" s="64"/>
-      <c r="X170" s="64"/>
-      <c r="Y170" s="64"/>
-      <c r="Z170" s="64"/>
-      <c r="AA170" s="64"/>
-      <c r="AB170" s="64"/>
-      <c r="AC170" s="64"/>
-      <c r="AD170" s="64"/>
-      <c r="AE170" s="64"/>
-      <c r="AF170" s="64"/>
-      <c r="AG170" s="64"/>
-      <c r="AH170" s="64"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="68"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="68"/>
+      <c r="I170" s="68"/>
+      <c r="J170" s="68"/>
+      <c r="K170" s="68"/>
+      <c r="L170" s="68"/>
+      <c r="M170" s="68"/>
+      <c r="N170" s="68"/>
+      <c r="O170" s="68"/>
+      <c r="P170" s="68"/>
+      <c r="Q170" s="68"/>
+      <c r="R170" s="68"/>
+      <c r="S170" s="68"/>
+      <c r="T170" s="68"/>
+      <c r="U170" s="68"/>
+      <c r="V170" s="68"/>
+      <c r="W170" s="68"/>
+      <c r="X170" s="68"/>
+      <c r="Y170" s="68"/>
+      <c r="Z170" s="68"/>
+      <c r="AA170" s="68"/>
+      <c r="AB170" s="68"/>
+      <c r="AC170" s="68"/>
+      <c r="AD170" s="68"/>
+      <c r="AE170" s="68"/>
+      <c r="AF170" s="68"/>
+      <c r="AG170" s="68"/>
+      <c r="AH170" s="68"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="65" t="s">
+      <c r="A171" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="65" t="s">
+      <c r="B171" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="65" t="s">
+      <c r="C171" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="65"/>
-      <c r="H171" s="65"/>
-      <c r="I171" s="65"/>
-      <c r="J171" s="65"/>
-      <c r="K171" s="65"/>
-      <c r="L171" s="65" t="s">
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="64"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="64"/>
+      <c r="L171" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M171" s="65"/>
-      <c r="N171" s="65"/>
-      <c r="O171" s="65"/>
-      <c r="P171" s="65"/>
-      <c r="Q171" s="65"/>
-      <c r="R171" s="65"/>
-      <c r="S171" s="65"/>
-      <c r="T171" s="65"/>
-      <c r="U171" s="65" t="s">
+      <c r="M171" s="64"/>
+      <c r="N171" s="64"/>
+      <c r="O171" s="64"/>
+      <c r="P171" s="64"/>
+      <c r="Q171" s="64"/>
+      <c r="R171" s="64"/>
+      <c r="S171" s="64"/>
+      <c r="T171" s="64"/>
+      <c r="U171" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V171" s="65"/>
-      <c r="W171" s="65"/>
-      <c r="X171" s="65"/>
-      <c r="Y171" s="65"/>
-      <c r="Z171" s="65"/>
-      <c r="AA171" s="65"/>
-      <c r="AB171" s="65"/>
-      <c r="AC171" s="65"/>
-      <c r="AD171" s="65" t="s">
+      <c r="V171" s="64"/>
+      <c r="W171" s="64"/>
+      <c r="X171" s="64"/>
+      <c r="Y171" s="64"/>
+      <c r="Z171" s="64"/>
+      <c r="AA171" s="64"/>
+      <c r="AB171" s="64"/>
+      <c r="AC171" s="64"/>
+      <c r="AD171" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE171" s="65"/>
-      <c r="AF171" s="65"/>
-      <c r="AG171" s="65"/>
-      <c r="AH171" s="69" t="s">
+      <c r="AE171" s="64"/>
+      <c r="AF171" s="64"/>
+      <c r="AG171" s="64"/>
+      <c r="AH171" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="65"/>
-      <c r="B172" s="65"/>
+      <c r="A172" s="64"/>
+      <c r="B172" s="64"/>
       <c r="C172" s="3">
         <v>1</v>
       </c>
@@ -15333,7 +15346,7 @@
       <c r="AG172" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH172" s="65"/>
+      <c r="AH172" s="64"/>
     </row>
     <row r="173" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
@@ -16816,42 +16829,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="66" t="s">
+      <c r="A210" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="67"/>
-      <c r="C210" s="68"/>
-      <c r="D210" s="68"/>
-      <c r="E210" s="68"/>
-      <c r="F210" s="68"/>
-      <c r="G210" s="68"/>
-      <c r="H210" s="68"/>
-      <c r="I210" s="68"/>
-      <c r="J210" s="68"/>
-      <c r="K210" s="68"/>
-      <c r="L210" s="68"/>
-      <c r="M210" s="68"/>
-      <c r="N210" s="68"/>
-      <c r="O210" s="68"/>
-      <c r="P210" s="68"/>
-      <c r="Q210" s="68"/>
-      <c r="R210" s="68"/>
-      <c r="S210" s="68"/>
-      <c r="T210" s="68"/>
-      <c r="U210" s="68"/>
-      <c r="V210" s="68"/>
-      <c r="W210" s="68"/>
-      <c r="X210" s="68"/>
-      <c r="Y210" s="68"/>
-      <c r="Z210" s="68"/>
-      <c r="AA210" s="68"/>
-      <c r="AB210" s="68"/>
-      <c r="AC210" s="68"/>
-      <c r="AD210" s="68"/>
-      <c r="AE210" s="68"/>
-      <c r="AF210" s="68"/>
-      <c r="AG210" s="68"/>
-      <c r="AH210" s="68"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="63"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="63"/>
+      <c r="L210" s="63"/>
+      <c r="M210" s="63"/>
+      <c r="N210" s="63"/>
+      <c r="O210" s="63"/>
+      <c r="P210" s="63"/>
+      <c r="Q210" s="63"/>
+      <c r="R210" s="63"/>
+      <c r="S210" s="63"/>
+      <c r="T210" s="63"/>
+      <c r="U210" s="63"/>
+      <c r="V210" s="63"/>
+      <c r="W210" s="63"/>
+      <c r="X210" s="63"/>
+      <c r="Y210" s="63"/>
+      <c r="Z210" s="63"/>
+      <c r="AA210" s="63"/>
+      <c r="AB210" s="63"/>
+      <c r="AC210" s="63"/>
+      <c r="AD210" s="63"/>
+      <c r="AE210" s="63"/>
+      <c r="AF210" s="63"/>
+      <c r="AG210" s="63"/>
+      <c r="AH210" s="63"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16890,134 +16903,134 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="62" t="s">
+      <c r="A212" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="62"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="62"/>
-      <c r="E212" s="62"/>
-      <c r="F212" s="62"/>
-      <c r="G212" s="62"/>
-      <c r="H212" s="62"/>
-      <c r="I212" s="62"/>
-      <c r="J212" s="62"/>
-      <c r="K212" s="62"/>
-      <c r="L212" s="62"/>
-      <c r="M212" s="62"/>
-      <c r="N212" s="62"/>
-      <c r="O212" s="62"/>
-      <c r="P212" s="62"/>
-      <c r="Q212" s="62"/>
-      <c r="R212" s="62"/>
-      <c r="S212" s="62"/>
-      <c r="T212" s="62"/>
-      <c r="U212" s="62"/>
-      <c r="V212" s="62"/>
-      <c r="W212" s="62"/>
-      <c r="X212" s="62"/>
-      <c r="Y212" s="62"/>
-      <c r="Z212" s="62"/>
-      <c r="AA212" s="62"/>
-      <c r="AB212" s="62"/>
-      <c r="AC212" s="62"/>
-      <c r="AD212" s="62"/>
-      <c r="AE212" s="62"/>
-      <c r="AF212" s="62"/>
-      <c r="AG212" s="62"/>
-      <c r="AH212" s="62"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="66"/>
+      <c r="E212" s="66"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
+      <c r="J212" s="66"/>
+      <c r="K212" s="66"/>
+      <c r="L212" s="66"/>
+      <c r="M212" s="66"/>
+      <c r="N212" s="66"/>
+      <c r="O212" s="66"/>
+      <c r="P212" s="66"/>
+      <c r="Q212" s="66"/>
+      <c r="R212" s="66"/>
+      <c r="S212" s="66"/>
+      <c r="T212" s="66"/>
+      <c r="U212" s="66"/>
+      <c r="V212" s="66"/>
+      <c r="W212" s="66"/>
+      <c r="X212" s="66"/>
+      <c r="Y212" s="66"/>
+      <c r="Z212" s="66"/>
+      <c r="AA212" s="66"/>
+      <c r="AB212" s="66"/>
+      <c r="AC212" s="66"/>
+      <c r="AD212" s="66"/>
+      <c r="AE212" s="66"/>
+      <c r="AF212" s="66"/>
+      <c r="AG212" s="66"/>
+      <c r="AH212" s="66"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="63" t="s">
+      <c r="A213" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="63"/>
-      <c r="C213" s="63"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="63"/>
-      <c r="I213" s="63"/>
-      <c r="J213" s="63"/>
-      <c r="K213" s="63"/>
-      <c r="L213" s="63"/>
-      <c r="M213" s="63"/>
-      <c r="N213" s="63"/>
-      <c r="O213" s="63"/>
-      <c r="P213" s="63"/>
-      <c r="Q213" s="63"/>
-      <c r="R213" s="63"/>
-      <c r="S213" s="63"/>
-      <c r="T213" s="63"/>
-      <c r="U213" s="63"/>
-      <c r="V213" s="63"/>
-      <c r="W213" s="63"/>
-      <c r="X213" s="63"/>
-      <c r="Y213" s="63"/>
-      <c r="Z213" s="63"/>
-      <c r="AA213" s="63"/>
-      <c r="AB213" s="63"/>
-      <c r="AC213" s="63"/>
-      <c r="AD213" s="63"/>
-      <c r="AE213" s="63"/>
-      <c r="AF213" s="63"/>
-      <c r="AG213" s="63"/>
-      <c r="AH213" s="63"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="67"/>
+      <c r="I213" s="67"/>
+      <c r="J213" s="67"/>
+      <c r="K213" s="67"/>
+      <c r="L213" s="67"/>
+      <c r="M213" s="67"/>
+      <c r="N213" s="67"/>
+      <c r="O213" s="67"/>
+      <c r="P213" s="67"/>
+      <c r="Q213" s="67"/>
+      <c r="R213" s="67"/>
+      <c r="S213" s="67"/>
+      <c r="T213" s="67"/>
+      <c r="U213" s="67"/>
+      <c r="V213" s="67"/>
+      <c r="W213" s="67"/>
+      <c r="X213" s="67"/>
+      <c r="Y213" s="67"/>
+      <c r="Z213" s="67"/>
+      <c r="AA213" s="67"/>
+      <c r="AB213" s="67"/>
+      <c r="AC213" s="67"/>
+      <c r="AD213" s="67"/>
+      <c r="AE213" s="67"/>
+      <c r="AF213" s="67"/>
+      <c r="AG213" s="67"/>
+      <c r="AH213" s="67"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="65" t="s">
+      <c r="A214" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="65" t="s">
+      <c r="B214" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="65" t="s">
+      <c r="C214" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="65"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="65"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="65"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
-      <c r="L214" s="65" t="s">
+      <c r="D214" s="64"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="64"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="64"/>
+      <c r="I214" s="64"/>
+      <c r="J214" s="64"/>
+      <c r="K214" s="64"/>
+      <c r="L214" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M214" s="65"/>
-      <c r="N214" s="65"/>
-      <c r="O214" s="65"/>
-      <c r="P214" s="65"/>
-      <c r="Q214" s="65"/>
-      <c r="R214" s="65"/>
-      <c r="S214" s="65"/>
-      <c r="T214" s="65"/>
-      <c r="U214" s="65" t="s">
+      <c r="M214" s="64"/>
+      <c r="N214" s="64"/>
+      <c r="O214" s="64"/>
+      <c r="P214" s="64"/>
+      <c r="Q214" s="64"/>
+      <c r="R214" s="64"/>
+      <c r="S214" s="64"/>
+      <c r="T214" s="64"/>
+      <c r="U214" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V214" s="65"/>
-      <c r="W214" s="65"/>
-      <c r="X214" s="65"/>
-      <c r="Y214" s="65"/>
-      <c r="Z214" s="65"/>
-      <c r="AA214" s="65"/>
-      <c r="AB214" s="65"/>
-      <c r="AC214" s="65"/>
-      <c r="AD214" s="65" t="s">
+      <c r="V214" s="64"/>
+      <c r="W214" s="64"/>
+      <c r="X214" s="64"/>
+      <c r="Y214" s="64"/>
+      <c r="Z214" s="64"/>
+      <c r="AA214" s="64"/>
+      <c r="AB214" s="64"/>
+      <c r="AC214" s="64"/>
+      <c r="AD214" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE214" s="65"/>
-      <c r="AF214" s="65"/>
-      <c r="AG214" s="65"/>
-      <c r="AH214" s="69" t="s">
+      <c r="AE214" s="64"/>
+      <c r="AF214" s="64"/>
+      <c r="AG214" s="64"/>
+      <c r="AH214" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="65"/>
-      <c r="B215" s="65"/>
+      <c r="A215" s="64"/>
+      <c r="B215" s="64"/>
       <c r="C215" s="3">
         <v>1</v>
       </c>
@@ -17111,7 +17124,7 @@
       <c r="AG215" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH215" s="65"/>
+      <c r="AH215" s="64"/>
     </row>
     <row r="216" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
@@ -19714,45 +19727,79 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="66" t="s">
+      <c r="A281" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="67"/>
-      <c r="C281" s="68"/>
-      <c r="D281" s="68"/>
-      <c r="E281" s="68"/>
-      <c r="F281" s="68"/>
-      <c r="G281" s="68"/>
-      <c r="H281" s="68"/>
-      <c r="I281" s="68"/>
-      <c r="J281" s="68"/>
-      <c r="K281" s="68"/>
-      <c r="L281" s="68"/>
-      <c r="M281" s="68"/>
-      <c r="N281" s="68"/>
-      <c r="O281" s="68"/>
-      <c r="P281" s="68"/>
-      <c r="Q281" s="68"/>
-      <c r="R281" s="68"/>
-      <c r="S281" s="68"/>
-      <c r="T281" s="68"/>
-      <c r="U281" s="68"/>
-      <c r="V281" s="68"/>
-      <c r="W281" s="68"/>
-      <c r="X281" s="68"/>
-      <c r="Y281" s="68"/>
-      <c r="Z281" s="68"/>
-      <c r="AA281" s="68"/>
-      <c r="AB281" s="68"/>
-      <c r="AC281" s="68"/>
-      <c r="AD281" s="68"/>
-      <c r="AE281" s="68"/>
-      <c r="AF281" s="68"/>
-      <c r="AG281" s="68"/>
-      <c r="AH281" s="68"/>
+      <c r="B281" s="62"/>
+      <c r="C281" s="63"/>
+      <c r="D281" s="63"/>
+      <c r="E281" s="63"/>
+      <c r="F281" s="63"/>
+      <c r="G281" s="63"/>
+      <c r="H281" s="63"/>
+      <c r="I281" s="63"/>
+      <c r="J281" s="63"/>
+      <c r="K281" s="63"/>
+      <c r="L281" s="63"/>
+      <c r="M281" s="63"/>
+      <c r="N281" s="63"/>
+      <c r="O281" s="63"/>
+      <c r="P281" s="63"/>
+      <c r="Q281" s="63"/>
+      <c r="R281" s="63"/>
+      <c r="S281" s="63"/>
+      <c r="T281" s="63"/>
+      <c r="U281" s="63"/>
+      <c r="V281" s="63"/>
+      <c r="W281" s="63"/>
+      <c r="X281" s="63"/>
+      <c r="Y281" s="63"/>
+      <c r="Z281" s="63"/>
+      <c r="AA281" s="63"/>
+      <c r="AB281" s="63"/>
+      <c r="AC281" s="63"/>
+      <c r="AD281" s="63"/>
+      <c r="AE281" s="63"/>
+      <c r="AF281" s="63"/>
+      <c r="AG281" s="63"/>
+      <c r="AH281" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19769,40 +19816,6 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19815,7 +19828,7 @@
   <dimension ref="A1:AH436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256:AH256"/>
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19836,134 +19849,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -20057,7 +20070,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="65"/>
+      <c r="AH4" s="64"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -20779,8 +20792,8 @@
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
     </row>
-    <row r="23" spans="1:34" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:34" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
         <v>495</v>
       </c>
       <c r="B23" s="52" t="s">
@@ -20794,7 +20807,7 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
-      <c r="K23" s="56"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
@@ -20803,7 +20816,7 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
       <c r="S23" s="52"/>
-      <c r="T23" s="56"/>
+      <c r="T23" s="54"/>
       <c r="U23" s="52"/>
       <c r="V23" s="52"/>
       <c r="W23" s="52"/>
@@ -20812,12 +20825,12 @@
       <c r="Z23" s="52"/>
       <c r="AA23" s="52"/>
       <c r="AB23" s="52"/>
-      <c r="AC23" s="56"/>
+      <c r="AC23" s="54"/>
       <c r="AD23" s="52"/>
       <c r="AE23" s="52"/>
       <c r="AF23" s="52"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="54"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -20939,14 +20952,14 @@
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
     </row>
-    <row r="27" spans="1:34" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:34" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>503</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="58" t="s">
         <v>1697</v>
       </c>
       <c r="D27" s="52"/>
@@ -20956,7 +20969,7 @@
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
-      <c r="K27" s="56"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -20965,7 +20978,7 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="56"/>
+      <c r="T27" s="54"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52"/>
       <c r="W27" s="52"/>
@@ -20974,12 +20987,12 @@
       <c r="Z27" s="52"/>
       <c r="AA27" s="52"/>
       <c r="AB27" s="52"/>
-      <c r="AC27" s="56"/>
+      <c r="AC27" s="54"/>
       <c r="AD27" s="52"/>
       <c r="AE27" s="52"/>
       <c r="AF27" s="52"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="54"/>
     </row>
     <row r="28" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -22714,42 +22727,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="P71" s="67"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="67"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="67"/>
-      <c r="U71" s="67"/>
-      <c r="V71" s="67"/>
-      <c r="W71" s="67"/>
-      <c r="X71" s="67"/>
-      <c r="Y71" s="67"/>
-      <c r="Z71" s="67"/>
-      <c r="AA71" s="67"/>
-      <c r="AB71" s="67"/>
-      <c r="AC71" s="67"/>
-      <c r="AD71" s="67"/>
-      <c r="AE71" s="67"/>
-      <c r="AF71" s="67"/>
-      <c r="AG71" s="67"/>
-      <c r="AH71" s="67"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="62"/>
+      <c r="V71" s="62"/>
+      <c r="W71" s="62"/>
+      <c r="X71" s="62"/>
+      <c r="Y71" s="62"/>
+      <c r="Z71" s="62"/>
+      <c r="AA71" s="62"/>
+      <c r="AB71" s="62"/>
+      <c r="AC71" s="62"/>
+      <c r="AD71" s="62"/>
+      <c r="AE71" s="62"/>
+      <c r="AF71" s="62"/>
+      <c r="AG71" s="62"/>
+      <c r="AH71" s="62"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22788,134 +22801,134 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="62"/>
-      <c r="S73" s="62"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
-      <c r="AD73" s="62"/>
-      <c r="AE73" s="62"/>
-      <c r="AF73" s="62"/>
-      <c r="AG73" s="62"/>
-      <c r="AH73" s="62"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="66"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="66"/>
+      <c r="AB73" s="66"/>
+      <c r="AC73" s="66"/>
+      <c r="AD73" s="66"/>
+      <c r="AE73" s="66"/>
+      <c r="AF73" s="66"/>
+      <c r="AG73" s="66"/>
+      <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="63" t="s">
+      <c r="A74" s="67" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="63"/>
-      <c r="O74" s="63"/>
-      <c r="P74" s="63"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="63"/>
-      <c r="T74" s="63"/>
-      <c r="U74" s="63"/>
-      <c r="V74" s="63"/>
-      <c r="W74" s="63"/>
-      <c r="X74" s="63"/>
-      <c r="Y74" s="63"/>
-      <c r="Z74" s="63"/>
-      <c r="AA74" s="63"/>
-      <c r="AB74" s="63"/>
-      <c r="AC74" s="63"/>
-      <c r="AD74" s="63"/>
-      <c r="AE74" s="63"/>
-      <c r="AF74" s="63"/>
-      <c r="AG74" s="63"/>
-      <c r="AH74" s="63"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
+      <c r="X74" s="67"/>
+      <c r="Y74" s="67"/>
+      <c r="Z74" s="67"/>
+      <c r="AA74" s="67"/>
+      <c r="AB74" s="67"/>
+      <c r="AC74" s="67"/>
+      <c r="AD74" s="67"/>
+      <c r="AE74" s="67"/>
+      <c r="AF74" s="67"/>
+      <c r="AG74" s="67"/>
+      <c r="AH74" s="67"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65" t="s">
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
-      <c r="S75" s="65"/>
-      <c r="T75" s="65"/>
-      <c r="U75" s="65" t="s">
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="T75" s="64"/>
+      <c r="U75" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V75" s="65"/>
-      <c r="W75" s="65"/>
-      <c r="X75" s="65"/>
-      <c r="Y75" s="65"/>
-      <c r="Z75" s="65"/>
-      <c r="AA75" s="65"/>
-      <c r="AB75" s="65"/>
-      <c r="AC75" s="65"/>
-      <c r="AD75" s="65" t="s">
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="64"/>
+      <c r="AB75" s="64"/>
+      <c r="AC75" s="64"/>
+      <c r="AD75" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE75" s="65"/>
-      <c r="AF75" s="65"/>
-      <c r="AG75" s="65"/>
-      <c r="AH75" s="69" t="s">
+      <c r="AE75" s="64"/>
+      <c r="AF75" s="64"/>
+      <c r="AG75" s="64"/>
+      <c r="AH75" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="3">
         <v>1</v>
       </c>
@@ -23009,7 +23022,7 @@
       <c r="AG76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH76" s="65"/>
+      <c r="AH76" s="64"/>
     </row>
     <row r="77" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
@@ -25568,172 +25581,172 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="66" t="s">
+      <c r="A141" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="67"/>
-      <c r="L141" s="67"/>
-      <c r="M141" s="67"/>
-      <c r="N141" s="67"/>
-      <c r="O141" s="67"/>
-      <c r="P141" s="67"/>
-      <c r="Q141" s="67"/>
-      <c r="R141" s="67"/>
-      <c r="S141" s="67"/>
-      <c r="T141" s="67"/>
-      <c r="U141" s="67"/>
-      <c r="V141" s="67"/>
-      <c r="W141" s="67"/>
-      <c r="X141" s="67"/>
-      <c r="Y141" s="67"/>
-      <c r="Z141" s="67"/>
-      <c r="AA141" s="67"/>
-      <c r="AB141" s="67"/>
-      <c r="AC141" s="67"/>
-      <c r="AD141" s="67"/>
-      <c r="AE141" s="67"/>
-      <c r="AF141" s="67"/>
-      <c r="AG141" s="67"/>
-      <c r="AH141" s="67"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="62"/>
+      <c r="L141" s="62"/>
+      <c r="M141" s="62"/>
+      <c r="N141" s="62"/>
+      <c r="O141" s="62"/>
+      <c r="P141" s="62"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="62"/>
+      <c r="S141" s="62"/>
+      <c r="T141" s="62"/>
+      <c r="U141" s="62"/>
+      <c r="V141" s="62"/>
+      <c r="W141" s="62"/>
+      <c r="X141" s="62"/>
+      <c r="Y141" s="62"/>
+      <c r="Z141" s="62"/>
+      <c r="AA141" s="62"/>
+      <c r="AB141" s="62"/>
+      <c r="AC141" s="62"/>
+      <c r="AD141" s="62"/>
+      <c r="AE141" s="62"/>
+      <c r="AF141" s="62"/>
+      <c r="AG141" s="62"/>
+      <c r="AH141" s="62"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="62" t="s">
+      <c r="A142" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="62"/>
-      <c r="C142" s="62"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="62"/>
-      <c r="G142" s="62"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="62"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="62"/>
-      <c r="L142" s="62"/>
-      <c r="M142" s="62"/>
-      <c r="N142" s="62"/>
-      <c r="O142" s="62"/>
-      <c r="P142" s="62"/>
-      <c r="Q142" s="62"/>
-      <c r="R142" s="62"/>
-      <c r="S142" s="62"/>
-      <c r="T142" s="62"/>
-      <c r="U142" s="62"/>
-      <c r="V142" s="62"/>
-      <c r="W142" s="62"/>
-      <c r="X142" s="62"/>
-      <c r="Y142" s="62"/>
-      <c r="Z142" s="62"/>
-      <c r="AA142" s="62"/>
-      <c r="AB142" s="62"/>
-      <c r="AC142" s="62"/>
-      <c r="AD142" s="62"/>
-      <c r="AE142" s="62"/>
-      <c r="AF142" s="62"/>
-      <c r="AG142" s="62"/>
-      <c r="AH142" s="62"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="66"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="66"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="66"/>
+      <c r="I142" s="66"/>
+      <c r="J142" s="66"/>
+      <c r="K142" s="66"/>
+      <c r="L142" s="66"/>
+      <c r="M142" s="66"/>
+      <c r="N142" s="66"/>
+      <c r="O142" s="66"/>
+      <c r="P142" s="66"/>
+      <c r="Q142" s="66"/>
+      <c r="R142" s="66"/>
+      <c r="S142" s="66"/>
+      <c r="T142" s="66"/>
+      <c r="U142" s="66"/>
+      <c r="V142" s="66"/>
+      <c r="W142" s="66"/>
+      <c r="X142" s="66"/>
+      <c r="Y142" s="66"/>
+      <c r="Z142" s="66"/>
+      <c r="AA142" s="66"/>
+      <c r="AB142" s="66"/>
+      <c r="AC142" s="66"/>
+      <c r="AD142" s="66"/>
+      <c r="AE142" s="66"/>
+      <c r="AF142" s="66"/>
+      <c r="AG142" s="66"/>
+      <c r="AH142" s="66"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="63" t="s">
+      <c r="A143" s="67" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="63"/>
-      <c r="J143" s="63"/>
-      <c r="K143" s="63"/>
-      <c r="L143" s="63"/>
-      <c r="M143" s="63"/>
-      <c r="N143" s="63"/>
-      <c r="O143" s="63"/>
-      <c r="P143" s="63"/>
-      <c r="Q143" s="63"/>
-      <c r="R143" s="63"/>
-      <c r="S143" s="63"/>
-      <c r="T143" s="63"/>
-      <c r="U143" s="63"/>
-      <c r="V143" s="63"/>
-      <c r="W143" s="63"/>
-      <c r="X143" s="63"/>
-      <c r="Y143" s="63"/>
-      <c r="Z143" s="63"/>
-      <c r="AA143" s="63"/>
-      <c r="AB143" s="63"/>
-      <c r="AC143" s="63"/>
-      <c r="AD143" s="63"/>
-      <c r="AE143" s="63"/>
-      <c r="AF143" s="63"/>
-      <c r="AG143" s="63"/>
-      <c r="AH143" s="63"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="67"/>
+      <c r="O143" s="67"/>
+      <c r="P143" s="67"/>
+      <c r="Q143" s="67"/>
+      <c r="R143" s="67"/>
+      <c r="S143" s="67"/>
+      <c r="T143" s="67"/>
+      <c r="U143" s="67"/>
+      <c r="V143" s="67"/>
+      <c r="W143" s="67"/>
+      <c r="X143" s="67"/>
+      <c r="Y143" s="67"/>
+      <c r="Z143" s="67"/>
+      <c r="AA143" s="67"/>
+      <c r="AB143" s="67"/>
+      <c r="AC143" s="67"/>
+      <c r="AD143" s="67"/>
+      <c r="AE143" s="67"/>
+      <c r="AF143" s="67"/>
+      <c r="AG143" s="67"/>
+      <c r="AH143" s="67"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="65" t="s">
+      <c r="B144" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="65" t="s">
+      <c r="C144" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="65"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="65"/>
-      <c r="J144" s="65"/>
-      <c r="K144" s="65"/>
-      <c r="L144" s="65" t="s">
+      <c r="D144" s="64"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="64"/>
+      <c r="G144" s="64"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="64"/>
+      <c r="J144" s="64"/>
+      <c r="K144" s="64"/>
+      <c r="L144" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M144" s="65"/>
-      <c r="N144" s="65"/>
-      <c r="O144" s="65"/>
-      <c r="P144" s="65"/>
-      <c r="Q144" s="65"/>
-      <c r="R144" s="65"/>
-      <c r="S144" s="65"/>
-      <c r="T144" s="65"/>
-      <c r="U144" s="65" t="s">
+      <c r="M144" s="64"/>
+      <c r="N144" s="64"/>
+      <c r="O144" s="64"/>
+      <c r="P144" s="64"/>
+      <c r="Q144" s="64"/>
+      <c r="R144" s="64"/>
+      <c r="S144" s="64"/>
+      <c r="T144" s="64"/>
+      <c r="U144" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V144" s="65"/>
-      <c r="W144" s="65"/>
-      <c r="X144" s="65"/>
-      <c r="Y144" s="65"/>
-      <c r="Z144" s="65"/>
-      <c r="AA144" s="65"/>
-      <c r="AB144" s="65"/>
-      <c r="AC144" s="65"/>
-      <c r="AD144" s="65" t="s">
+      <c r="V144" s="64"/>
+      <c r="W144" s="64"/>
+      <c r="X144" s="64"/>
+      <c r="Y144" s="64"/>
+      <c r="Z144" s="64"/>
+      <c r="AA144" s="64"/>
+      <c r="AB144" s="64"/>
+      <c r="AC144" s="64"/>
+      <c r="AD144" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE144" s="65"/>
-      <c r="AF144" s="65"/>
-      <c r="AG144" s="65"/>
-      <c r="AH144" s="69" t="s">
+      <c r="AE144" s="64"/>
+      <c r="AF144" s="64"/>
+      <c r="AG144" s="64"/>
+      <c r="AH144" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="65"/>
-      <c r="B145" s="65"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
       <c r="C145" s="3">
         <v>1</v>
       </c>
@@ -25827,7 +25840,7 @@
       <c r="AG145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH145" s="65"/>
+      <c r="AH145" s="64"/>
     </row>
     <row r="146" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
@@ -28190,176 +28203,176 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="66" t="s">
+      <c r="A205" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="67"/>
-      <c r="C205" s="67"/>
-      <c r="D205" s="67"/>
-      <c r="E205" s="67"/>
-      <c r="F205" s="67"/>
-      <c r="G205" s="67"/>
-      <c r="H205" s="67"/>
-      <c r="I205" s="67"/>
-      <c r="J205" s="67"/>
-      <c r="K205" s="67"/>
-      <c r="L205" s="67"/>
-      <c r="M205" s="67"/>
-      <c r="N205" s="67"/>
-      <c r="O205" s="67"/>
-      <c r="P205" s="67"/>
-      <c r="Q205" s="67"/>
-      <c r="R205" s="67"/>
-      <c r="S205" s="67"/>
-      <c r="T205" s="67"/>
-      <c r="U205" s="67"/>
-      <c r="V205" s="67"/>
-      <c r="W205" s="67"/>
-      <c r="X205" s="67"/>
-      <c r="Y205" s="67"/>
-      <c r="Z205" s="67"/>
-      <c r="AA205" s="67"/>
-      <c r="AB205" s="67"/>
-      <c r="AC205" s="67"/>
-      <c r="AD205" s="67"/>
-      <c r="AE205" s="67"/>
-      <c r="AF205" s="67"/>
-      <c r="AG205" s="67"/>
-      <c r="AH205" s="67"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="62"/>
+      <c r="D205" s="62"/>
+      <c r="E205" s="62"/>
+      <c r="F205" s="62"/>
+      <c r="G205" s="62"/>
+      <c r="H205" s="62"/>
+      <c r="I205" s="62"/>
+      <c r="J205" s="62"/>
+      <c r="K205" s="62"/>
+      <c r="L205" s="62"/>
+      <c r="M205" s="62"/>
+      <c r="N205" s="62"/>
+      <c r="O205" s="62"/>
+      <c r="P205" s="62"/>
+      <c r="Q205" s="62"/>
+      <c r="R205" s="62"/>
+      <c r="S205" s="62"/>
+      <c r="T205" s="62"/>
+      <c r="U205" s="62"/>
+      <c r="V205" s="62"/>
+      <c r="W205" s="62"/>
+      <c r="X205" s="62"/>
+      <c r="Y205" s="62"/>
+      <c r="Z205" s="62"/>
+      <c r="AA205" s="62"/>
+      <c r="AB205" s="62"/>
+      <c r="AC205" s="62"/>
+      <c r="AD205" s="62"/>
+      <c r="AE205" s="62"/>
+      <c r="AF205" s="62"/>
+      <c r="AG205" s="62"/>
+      <c r="AH205" s="62"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="62" t="s">
+      <c r="A207" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="62"/>
-      <c r="C207" s="62"/>
-      <c r="D207" s="62"/>
-      <c r="E207" s="62"/>
-      <c r="F207" s="62"/>
-      <c r="G207" s="62"/>
-      <c r="H207" s="62"/>
-      <c r="I207" s="62"/>
-      <c r="J207" s="62"/>
-      <c r="K207" s="62"/>
-      <c r="L207" s="62"/>
-      <c r="M207" s="62"/>
-      <c r="N207" s="62"/>
-      <c r="O207" s="62"/>
-      <c r="P207" s="62"/>
-      <c r="Q207" s="62"/>
-      <c r="R207" s="62"/>
-      <c r="S207" s="62"/>
-      <c r="T207" s="62"/>
-      <c r="U207" s="62"/>
-      <c r="V207" s="62"/>
-      <c r="W207" s="62"/>
-      <c r="X207" s="62"/>
-      <c r="Y207" s="62"/>
-      <c r="Z207" s="62"/>
-      <c r="AA207" s="62"/>
-      <c r="AB207" s="62"/>
-      <c r="AC207" s="62"/>
-      <c r="AD207" s="62"/>
-      <c r="AE207" s="62"/>
-      <c r="AF207" s="62"/>
-      <c r="AG207" s="62"/>
-      <c r="AH207" s="62"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="66"/>
+      <c r="D207" s="66"/>
+      <c r="E207" s="66"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="66"/>
+      <c r="I207" s="66"/>
+      <c r="J207" s="66"/>
+      <c r="K207" s="66"/>
+      <c r="L207" s="66"/>
+      <c r="M207" s="66"/>
+      <c r="N207" s="66"/>
+      <c r="O207" s="66"/>
+      <c r="P207" s="66"/>
+      <c r="Q207" s="66"/>
+      <c r="R207" s="66"/>
+      <c r="S207" s="66"/>
+      <c r="T207" s="66"/>
+      <c r="U207" s="66"/>
+      <c r="V207" s="66"/>
+      <c r="W207" s="66"/>
+      <c r="X207" s="66"/>
+      <c r="Y207" s="66"/>
+      <c r="Z207" s="66"/>
+      <c r="AA207" s="66"/>
+      <c r="AB207" s="66"/>
+      <c r="AC207" s="66"/>
+      <c r="AD207" s="66"/>
+      <c r="AE207" s="66"/>
+      <c r="AF207" s="66"/>
+      <c r="AG207" s="66"/>
+      <c r="AH207" s="66"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="63" t="s">
+      <c r="A208" s="67" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
-      <c r="J208" s="63"/>
-      <c r="K208" s="63"/>
-      <c r="L208" s="63"/>
-      <c r="M208" s="63"/>
-      <c r="N208" s="63"/>
-      <c r="O208" s="63"/>
-      <c r="P208" s="63"/>
-      <c r="Q208" s="63"/>
-      <c r="R208" s="63"/>
-      <c r="S208" s="63"/>
-      <c r="T208" s="63"/>
-      <c r="U208" s="63"/>
-      <c r="V208" s="63"/>
-      <c r="W208" s="63"/>
-      <c r="X208" s="63"/>
-      <c r="Y208" s="63"/>
-      <c r="Z208" s="63"/>
-      <c r="AA208" s="63"/>
-      <c r="AB208" s="63"/>
-      <c r="AC208" s="63"/>
-      <c r="AD208" s="63"/>
-      <c r="AE208" s="63"/>
-      <c r="AF208" s="63"/>
-      <c r="AG208" s="63"/>
-      <c r="AH208" s="63"/>
+      <c r="B208" s="67"/>
+      <c r="C208" s="67"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
+      <c r="F208" s="67"/>
+      <c r="G208" s="67"/>
+      <c r="H208" s="67"/>
+      <c r="I208" s="67"/>
+      <c r="J208" s="67"/>
+      <c r="K208" s="67"/>
+      <c r="L208" s="67"/>
+      <c r="M208" s="67"/>
+      <c r="N208" s="67"/>
+      <c r="O208" s="67"/>
+      <c r="P208" s="67"/>
+      <c r="Q208" s="67"/>
+      <c r="R208" s="67"/>
+      <c r="S208" s="67"/>
+      <c r="T208" s="67"/>
+      <c r="U208" s="67"/>
+      <c r="V208" s="67"/>
+      <c r="W208" s="67"/>
+      <c r="X208" s="67"/>
+      <c r="Y208" s="67"/>
+      <c r="Z208" s="67"/>
+      <c r="AA208" s="67"/>
+      <c r="AB208" s="67"/>
+      <c r="AC208" s="67"/>
+      <c r="AD208" s="67"/>
+      <c r="AE208" s="67"/>
+      <c r="AF208" s="67"/>
+      <c r="AG208" s="67"/>
+      <c r="AH208" s="67"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="65" t="s">
+      <c r="A209" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="65" t="s">
+      <c r="B209" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="65" t="s">
+      <c r="C209" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="65"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="65"/>
-      <c r="H209" s="65"/>
-      <c r="I209" s="65"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
-      <c r="L209" s="65" t="s">
+      <c r="D209" s="64"/>
+      <c r="E209" s="64"/>
+      <c r="F209" s="64"/>
+      <c r="G209" s="64"/>
+      <c r="H209" s="64"/>
+      <c r="I209" s="64"/>
+      <c r="J209" s="64"/>
+      <c r="K209" s="64"/>
+      <c r="L209" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M209" s="65"/>
-      <c r="N209" s="65"/>
-      <c r="O209" s="65"/>
-      <c r="P209" s="65"/>
-      <c r="Q209" s="65"/>
-      <c r="R209" s="65"/>
-      <c r="S209" s="65"/>
-      <c r="T209" s="65"/>
-      <c r="U209" s="65" t="s">
+      <c r="M209" s="64"/>
+      <c r="N209" s="64"/>
+      <c r="O209" s="64"/>
+      <c r="P209" s="64"/>
+      <c r="Q209" s="64"/>
+      <c r="R209" s="64"/>
+      <c r="S209" s="64"/>
+      <c r="T209" s="64"/>
+      <c r="U209" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V209" s="65"/>
-      <c r="W209" s="65"/>
-      <c r="X209" s="65"/>
-      <c r="Y209" s="65"/>
-      <c r="Z209" s="65"/>
-      <c r="AA209" s="65"/>
-      <c r="AB209" s="65"/>
-      <c r="AC209" s="65"/>
-      <c r="AD209" s="65" t="s">
+      <c r="V209" s="64"/>
+      <c r="W209" s="64"/>
+      <c r="X209" s="64"/>
+      <c r="Y209" s="64"/>
+      <c r="Z209" s="64"/>
+      <c r="AA209" s="64"/>
+      <c r="AB209" s="64"/>
+      <c r="AC209" s="64"/>
+      <c r="AD209" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE209" s="65"/>
-      <c r="AF209" s="65"/>
-      <c r="AG209" s="65"/>
-      <c r="AH209" s="69" t="s">
+      <c r="AE209" s="64"/>
+      <c r="AF209" s="64"/>
+      <c r="AG209" s="64"/>
+      <c r="AH209" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="65"/>
-      <c r="B210" s="65"/>
+      <c r="A210" s="64"/>
+      <c r="B210" s="64"/>
       <c r="C210" s="3">
         <v>1</v>
       </c>
-      <c r="D210" s="61" t="s">
+      <c r="D210" s="59" t="s">
         <v>1718</v>
       </c>
       <c r="E210" s="3">
@@ -28449,7 +28462,7 @@
       <c r="AG210" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH210" s="65"/>
+      <c r="AH210" s="64"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
@@ -30149,45 +30162,47 @@
       <c r="AG252" s="9"/>
       <c r="AH252" s="9"/>
     </row>
-    <row r="253" spans="1:34" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="54" t="s">
+    <row r="253" spans="1:34" s="72" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="69" t="s">
         <v>919</v>
       </c>
-      <c r="B253" s="55" t="s">
+      <c r="B253" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="C253" s="52"/>
-      <c r="D253" s="52"/>
-      <c r="E253" s="52"/>
-      <c r="F253" s="52"/>
-      <c r="G253" s="52"/>
-      <c r="H253" s="52"/>
-      <c r="I253" s="52"/>
-      <c r="J253" s="52"/>
-      <c r="K253" s="56"/>
-      <c r="L253" s="52"/>
-      <c r="M253" s="52"/>
-      <c r="N253" s="52"/>
-      <c r="O253" s="52"/>
-      <c r="P253" s="52"/>
-      <c r="Q253" s="52"/>
-      <c r="R253" s="52"/>
-      <c r="S253" s="52"/>
-      <c r="T253" s="56"/>
-      <c r="U253" s="52"/>
-      <c r="V253" s="52"/>
-      <c r="W253" s="52"/>
-      <c r="X253" s="52"/>
-      <c r="Y253" s="52"/>
-      <c r="Z253" s="52"/>
-      <c r="AA253" s="52"/>
-      <c r="AB253" s="52"/>
-      <c r="AC253" s="56"/>
-      <c r="AD253" s="52"/>
-      <c r="AE253" s="52"/>
-      <c r="AF253" s="52"/>
-      <c r="AG253" s="56"/>
-      <c r="AH253" s="56"/>
+      <c r="C253" s="60" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D253" s="53"/>
+      <c r="E253" s="53"/>
+      <c r="F253" s="53"/>
+      <c r="G253" s="53"/>
+      <c r="H253" s="53"/>
+      <c r="I253" s="53"/>
+      <c r="J253" s="53"/>
+      <c r="K253" s="71"/>
+      <c r="L253" s="53"/>
+      <c r="M253" s="53"/>
+      <c r="N253" s="53"/>
+      <c r="O253" s="53"/>
+      <c r="P253" s="53"/>
+      <c r="Q253" s="53"/>
+      <c r="R253" s="53"/>
+      <c r="S253" s="53"/>
+      <c r="T253" s="71"/>
+      <c r="U253" s="53"/>
+      <c r="V253" s="53"/>
+      <c r="W253" s="53"/>
+      <c r="X253" s="53"/>
+      <c r="Y253" s="53"/>
+      <c r="Z253" s="53"/>
+      <c r="AA253" s="53"/>
+      <c r="AB253" s="53"/>
+      <c r="AC253" s="71"/>
+      <c r="AD253" s="53"/>
+      <c r="AE253" s="53"/>
+      <c r="AF253" s="53"/>
+      <c r="AG253" s="71"/>
+      <c r="AH253" s="71"/>
     </row>
     <row r="254" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="48" t="s">
@@ -30272,172 +30287,172 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="66" t="s">
+      <c r="A256" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="67"/>
-      <c r="C256" s="67"/>
-      <c r="D256" s="67"/>
-      <c r="E256" s="67"/>
-      <c r="F256" s="67"/>
-      <c r="G256" s="67"/>
-      <c r="H256" s="67"/>
-      <c r="I256" s="67"/>
-      <c r="J256" s="67"/>
-      <c r="K256" s="67"/>
-      <c r="L256" s="67"/>
-      <c r="M256" s="67"/>
-      <c r="N256" s="67"/>
-      <c r="O256" s="67"/>
-      <c r="P256" s="67"/>
-      <c r="Q256" s="67"/>
-      <c r="R256" s="67"/>
-      <c r="S256" s="67"/>
-      <c r="T256" s="67"/>
-      <c r="U256" s="67"/>
-      <c r="V256" s="67"/>
-      <c r="W256" s="67"/>
-      <c r="X256" s="67"/>
-      <c r="Y256" s="67"/>
-      <c r="Z256" s="67"/>
-      <c r="AA256" s="67"/>
-      <c r="AB256" s="67"/>
-      <c r="AC256" s="67"/>
-      <c r="AD256" s="67"/>
-      <c r="AE256" s="67"/>
-      <c r="AF256" s="67"/>
-      <c r="AG256" s="67"/>
-      <c r="AH256" s="67"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="62"/>
+      <c r="D256" s="62"/>
+      <c r="E256" s="62"/>
+      <c r="F256" s="62"/>
+      <c r="G256" s="62"/>
+      <c r="H256" s="62"/>
+      <c r="I256" s="62"/>
+      <c r="J256" s="62"/>
+      <c r="K256" s="62"/>
+      <c r="L256" s="62"/>
+      <c r="M256" s="62"/>
+      <c r="N256" s="62"/>
+      <c r="O256" s="62"/>
+      <c r="P256" s="62"/>
+      <c r="Q256" s="62"/>
+      <c r="R256" s="62"/>
+      <c r="S256" s="62"/>
+      <c r="T256" s="62"/>
+      <c r="U256" s="62"/>
+      <c r="V256" s="62"/>
+      <c r="W256" s="62"/>
+      <c r="X256" s="62"/>
+      <c r="Y256" s="62"/>
+      <c r="Z256" s="62"/>
+      <c r="AA256" s="62"/>
+      <c r="AB256" s="62"/>
+      <c r="AC256" s="62"/>
+      <c r="AD256" s="62"/>
+      <c r="AE256" s="62"/>
+      <c r="AF256" s="62"/>
+      <c r="AG256" s="62"/>
+      <c r="AH256" s="62"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="62" t="s">
+      <c r="A258" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="62"/>
-      <c r="C258" s="62"/>
-      <c r="D258" s="62"/>
-      <c r="E258" s="62"/>
-      <c r="F258" s="62"/>
-      <c r="G258" s="62"/>
-      <c r="H258" s="62"/>
-      <c r="I258" s="62"/>
-      <c r="J258" s="62"/>
-      <c r="K258" s="62"/>
-      <c r="L258" s="62"/>
-      <c r="M258" s="62"/>
-      <c r="N258" s="62"/>
-      <c r="O258" s="62"/>
-      <c r="P258" s="62"/>
-      <c r="Q258" s="62"/>
-      <c r="R258" s="62"/>
-      <c r="S258" s="62"/>
-      <c r="T258" s="62"/>
-      <c r="U258" s="62"/>
-      <c r="V258" s="62"/>
-      <c r="W258" s="62"/>
-      <c r="X258" s="62"/>
-      <c r="Y258" s="62"/>
-      <c r="Z258" s="62"/>
-      <c r="AA258" s="62"/>
-      <c r="AB258" s="62"/>
-      <c r="AC258" s="62"/>
-      <c r="AD258" s="62"/>
-      <c r="AE258" s="62"/>
-      <c r="AF258" s="62"/>
-      <c r="AG258" s="62"/>
-      <c r="AH258" s="62"/>
+      <c r="B258" s="66"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="66"/>
+      <c r="E258" s="66"/>
+      <c r="F258" s="66"/>
+      <c r="G258" s="66"/>
+      <c r="H258" s="66"/>
+      <c r="I258" s="66"/>
+      <c r="J258" s="66"/>
+      <c r="K258" s="66"/>
+      <c r="L258" s="66"/>
+      <c r="M258" s="66"/>
+      <c r="N258" s="66"/>
+      <c r="O258" s="66"/>
+      <c r="P258" s="66"/>
+      <c r="Q258" s="66"/>
+      <c r="R258" s="66"/>
+      <c r="S258" s="66"/>
+      <c r="T258" s="66"/>
+      <c r="U258" s="66"/>
+      <c r="V258" s="66"/>
+      <c r="W258" s="66"/>
+      <c r="X258" s="66"/>
+      <c r="Y258" s="66"/>
+      <c r="Z258" s="66"/>
+      <c r="AA258" s="66"/>
+      <c r="AB258" s="66"/>
+      <c r="AC258" s="66"/>
+      <c r="AD258" s="66"/>
+      <c r="AE258" s="66"/>
+      <c r="AF258" s="66"/>
+      <c r="AG258" s="66"/>
+      <c r="AH258" s="66"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="63" t="s">
+      <c r="A259" s="67" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="63"/>
-      <c r="C259" s="63"/>
-      <c r="D259" s="63"/>
-      <c r="E259" s="63"/>
-      <c r="F259" s="63"/>
-      <c r="G259" s="63"/>
-      <c r="H259" s="63"/>
-      <c r="I259" s="63"/>
-      <c r="J259" s="63"/>
-      <c r="K259" s="63"/>
-      <c r="L259" s="63"/>
-      <c r="M259" s="63"/>
-      <c r="N259" s="63"/>
-      <c r="O259" s="63"/>
-      <c r="P259" s="63"/>
-      <c r="Q259" s="63"/>
-      <c r="R259" s="63"/>
-      <c r="S259" s="63"/>
-      <c r="T259" s="63"/>
-      <c r="U259" s="63"/>
-      <c r="V259" s="63"/>
-      <c r="W259" s="63"/>
-      <c r="X259" s="63"/>
-      <c r="Y259" s="63"/>
-      <c r="Z259" s="63"/>
-      <c r="AA259" s="63"/>
-      <c r="AB259" s="63"/>
-      <c r="AC259" s="63"/>
-      <c r="AD259" s="63"/>
-      <c r="AE259" s="63"/>
-      <c r="AF259" s="63"/>
-      <c r="AG259" s="63"/>
-      <c r="AH259" s="63"/>
+      <c r="B259" s="67"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="67"/>
+      <c r="F259" s="67"/>
+      <c r="G259" s="67"/>
+      <c r="H259" s="67"/>
+      <c r="I259" s="67"/>
+      <c r="J259" s="67"/>
+      <c r="K259" s="67"/>
+      <c r="L259" s="67"/>
+      <c r="M259" s="67"/>
+      <c r="N259" s="67"/>
+      <c r="O259" s="67"/>
+      <c r="P259" s="67"/>
+      <c r="Q259" s="67"/>
+      <c r="R259" s="67"/>
+      <c r="S259" s="67"/>
+      <c r="T259" s="67"/>
+      <c r="U259" s="67"/>
+      <c r="V259" s="67"/>
+      <c r="W259" s="67"/>
+      <c r="X259" s="67"/>
+      <c r="Y259" s="67"/>
+      <c r="Z259" s="67"/>
+      <c r="AA259" s="67"/>
+      <c r="AB259" s="67"/>
+      <c r="AC259" s="67"/>
+      <c r="AD259" s="67"/>
+      <c r="AE259" s="67"/>
+      <c r="AF259" s="67"/>
+      <c r="AG259" s="67"/>
+      <c r="AH259" s="67"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="65" t="s">
+      <c r="A260" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="65" t="s">
+      <c r="B260" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="65" t="s">
+      <c r="C260" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D260" s="65"/>
-      <c r="E260" s="65"/>
-      <c r="F260" s="65"/>
-      <c r="G260" s="65"/>
-      <c r="H260" s="65"/>
-      <c r="I260" s="65"/>
-      <c r="J260" s="65"/>
-      <c r="K260" s="65"/>
-      <c r="L260" s="65" t="s">
+      <c r="D260" s="64"/>
+      <c r="E260" s="64"/>
+      <c r="F260" s="64"/>
+      <c r="G260" s="64"/>
+      <c r="H260" s="64"/>
+      <c r="I260" s="64"/>
+      <c r="J260" s="64"/>
+      <c r="K260" s="64"/>
+      <c r="L260" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M260" s="65"/>
-      <c r="N260" s="65"/>
-      <c r="O260" s="65"/>
-      <c r="P260" s="65"/>
-      <c r="Q260" s="65"/>
-      <c r="R260" s="65"/>
-      <c r="S260" s="65"/>
-      <c r="T260" s="65"/>
-      <c r="U260" s="65" t="s">
+      <c r="M260" s="64"/>
+      <c r="N260" s="64"/>
+      <c r="O260" s="64"/>
+      <c r="P260" s="64"/>
+      <c r="Q260" s="64"/>
+      <c r="R260" s="64"/>
+      <c r="S260" s="64"/>
+      <c r="T260" s="64"/>
+      <c r="U260" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V260" s="65"/>
-      <c r="W260" s="65"/>
-      <c r="X260" s="65"/>
-      <c r="Y260" s="65"/>
-      <c r="Z260" s="65"/>
-      <c r="AA260" s="65"/>
-      <c r="AB260" s="65"/>
-      <c r="AC260" s="65"/>
-      <c r="AD260" s="65" t="s">
+      <c r="V260" s="64"/>
+      <c r="W260" s="64"/>
+      <c r="X260" s="64"/>
+      <c r="Y260" s="64"/>
+      <c r="Z260" s="64"/>
+      <c r="AA260" s="64"/>
+      <c r="AB260" s="64"/>
+      <c r="AC260" s="64"/>
+      <c r="AD260" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE260" s="65"/>
-      <c r="AF260" s="65"/>
-      <c r="AG260" s="65"/>
-      <c r="AH260" s="69" t="s">
+      <c r="AE260" s="64"/>
+      <c r="AF260" s="64"/>
+      <c r="AG260" s="64"/>
+      <c r="AH260" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="65"/>
-      <c r="B261" s="65"/>
+      <c r="A261" s="64"/>
+      <c r="B261" s="64"/>
       <c r="C261" s="3">
         <v>1</v>
       </c>
@@ -30531,7 +30546,7 @@
       <c r="AG261" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH261" s="65"/>
+      <c r="AH261" s="64"/>
     </row>
     <row r="262" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
@@ -32054,182 +32069,182 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="66" t="s">
+      <c r="A300" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="67"/>
-      <c r="C300" s="67"/>
-      <c r="D300" s="67"/>
-      <c r="E300" s="67"/>
-      <c r="F300" s="67"/>
-      <c r="G300" s="67"/>
-      <c r="H300" s="67"/>
-      <c r="I300" s="67"/>
-      <c r="J300" s="67"/>
-      <c r="K300" s="67"/>
-      <c r="L300" s="67"/>
-      <c r="M300" s="67"/>
-      <c r="N300" s="67"/>
-      <c r="O300" s="67"/>
-      <c r="P300" s="67"/>
-      <c r="Q300" s="67"/>
-      <c r="R300" s="67"/>
-      <c r="S300" s="67"/>
-      <c r="T300" s="67"/>
-      <c r="U300" s="67"/>
-      <c r="V300" s="67"/>
-      <c r="W300" s="67"/>
-      <c r="X300" s="67"/>
-      <c r="Y300" s="67"/>
-      <c r="Z300" s="67"/>
-      <c r="AA300" s="67"/>
-      <c r="AB300" s="67"/>
-      <c r="AC300" s="67"/>
-      <c r="AD300" s="67"/>
-      <c r="AE300" s="67"/>
-      <c r="AF300" s="67"/>
-      <c r="AG300" s="67"/>
-      <c r="AH300" s="67"/>
+      <c r="B300" s="62"/>
+      <c r="C300" s="62"/>
+      <c r="D300" s="62"/>
+      <c r="E300" s="62"/>
+      <c r="F300" s="62"/>
+      <c r="G300" s="62"/>
+      <c r="H300" s="62"/>
+      <c r="I300" s="62"/>
+      <c r="J300" s="62"/>
+      <c r="K300" s="62"/>
+      <c r="L300" s="62"/>
+      <c r="M300" s="62"/>
+      <c r="N300" s="62"/>
+      <c r="O300" s="62"/>
+      <c r="P300" s="62"/>
+      <c r="Q300" s="62"/>
+      <c r="R300" s="62"/>
+      <c r="S300" s="62"/>
+      <c r="T300" s="62"/>
+      <c r="U300" s="62"/>
+      <c r="V300" s="62"/>
+      <c r="W300" s="62"/>
+      <c r="X300" s="62"/>
+      <c r="Y300" s="62"/>
+      <c r="Z300" s="62"/>
+      <c r="AA300" s="62"/>
+      <c r="AB300" s="62"/>
+      <c r="AC300" s="62"/>
+      <c r="AD300" s="62"/>
+      <c r="AE300" s="62"/>
+      <c r="AF300" s="62"/>
+      <c r="AG300" s="62"/>
+      <c r="AH300" s="62"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="62" t="s">
+      <c r="A301" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="62"/>
-      <c r="C301" s="62"/>
-      <c r="D301" s="62"/>
-      <c r="E301" s="62"/>
-      <c r="F301" s="62"/>
-      <c r="G301" s="62"/>
-      <c r="H301" s="62"/>
-      <c r="I301" s="62"/>
-      <c r="J301" s="62"/>
-      <c r="K301" s="62"/>
-      <c r="L301" s="62"/>
-      <c r="M301" s="62"/>
-      <c r="N301" s="62"/>
-      <c r="O301" s="62"/>
-      <c r="P301" s="62"/>
-      <c r="Q301" s="62"/>
-      <c r="R301" s="62"/>
-      <c r="S301" s="62"/>
-      <c r="T301" s="62"/>
-      <c r="U301" s="62"/>
-      <c r="V301" s="62"/>
-      <c r="W301" s="62"/>
-      <c r="X301" s="62"/>
-      <c r="Y301" s="62"/>
-      <c r="Z301" s="62"/>
-      <c r="AA301" s="62"/>
-      <c r="AB301" s="62"/>
-      <c r="AC301" s="62"/>
-      <c r="AD301" s="62"/>
-      <c r="AE301" s="62"/>
-      <c r="AF301" s="62"/>
-      <c r="AG301" s="62"/>
-      <c r="AH301" s="62"/>
+      <c r="B301" s="66"/>
+      <c r="C301" s="66"/>
+      <c r="D301" s="66"/>
+      <c r="E301" s="66"/>
+      <c r="F301" s="66"/>
+      <c r="G301" s="66"/>
+      <c r="H301" s="66"/>
+      <c r="I301" s="66"/>
+      <c r="J301" s="66"/>
+      <c r="K301" s="66"/>
+      <c r="L301" s="66"/>
+      <c r="M301" s="66"/>
+      <c r="N301" s="66"/>
+      <c r="O301" s="66"/>
+      <c r="P301" s="66"/>
+      <c r="Q301" s="66"/>
+      <c r="R301" s="66"/>
+      <c r="S301" s="66"/>
+      <c r="T301" s="66"/>
+      <c r="U301" s="66"/>
+      <c r="V301" s="66"/>
+      <c r="W301" s="66"/>
+      <c r="X301" s="66"/>
+      <c r="Y301" s="66"/>
+      <c r="Z301" s="66"/>
+      <c r="AA301" s="66"/>
+      <c r="AB301" s="66"/>
+      <c r="AC301" s="66"/>
+      <c r="AD301" s="66"/>
+      <c r="AE301" s="66"/>
+      <c r="AF301" s="66"/>
+      <c r="AG301" s="66"/>
+      <c r="AH301" s="66"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="63" t="s">
+      <c r="A302" s="67" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="63"/>
-      <c r="C302" s="63"/>
-      <c r="D302" s="63"/>
-      <c r="E302" s="63"/>
-      <c r="F302" s="63"/>
-      <c r="G302" s="63"/>
-      <c r="H302" s="63"/>
-      <c r="I302" s="63"/>
-      <c r="J302" s="63"/>
-      <c r="K302" s="63"/>
-      <c r="L302" s="63"/>
-      <c r="M302" s="63"/>
-      <c r="N302" s="63"/>
-      <c r="O302" s="63"/>
-      <c r="P302" s="63"/>
-      <c r="Q302" s="63"/>
-      <c r="R302" s="63"/>
-      <c r="S302" s="63"/>
-      <c r="T302" s="63"/>
-      <c r="U302" s="63"/>
-      <c r="V302" s="63"/>
-      <c r="W302" s="63"/>
-      <c r="X302" s="63"/>
-      <c r="Y302" s="63"/>
-      <c r="Z302" s="63"/>
-      <c r="AA302" s="63"/>
-      <c r="AB302" s="63"/>
-      <c r="AC302" s="63"/>
-      <c r="AD302" s="63"/>
-      <c r="AE302" s="63"/>
-      <c r="AF302" s="63"/>
-      <c r="AG302" s="63"/>
-      <c r="AH302" s="63"/>
+      <c r="B302" s="67"/>
+      <c r="C302" s="67"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="67"/>
+      <c r="L302" s="67"/>
+      <c r="M302" s="67"/>
+      <c r="N302" s="67"/>
+      <c r="O302" s="67"/>
+      <c r="P302" s="67"/>
+      <c r="Q302" s="67"/>
+      <c r="R302" s="67"/>
+      <c r="S302" s="67"/>
+      <c r="T302" s="67"/>
+      <c r="U302" s="67"/>
+      <c r="V302" s="67"/>
+      <c r="W302" s="67"/>
+      <c r="X302" s="67"/>
+      <c r="Y302" s="67"/>
+      <c r="Z302" s="67"/>
+      <c r="AA302" s="67"/>
+      <c r="AB302" s="67"/>
+      <c r="AC302" s="67"/>
+      <c r="AD302" s="67"/>
+      <c r="AE302" s="67"/>
+      <c r="AF302" s="67"/>
+      <c r="AG302" s="67"/>
+      <c r="AH302" s="67"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="65" t="s">
+      <c r="A303" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B303" s="65" t="s">
+      <c r="B303" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="65" t="s">
+      <c r="C303" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D303" s="65"/>
-      <c r="E303" s="65"/>
-      <c r="F303" s="65"/>
-      <c r="G303" s="65"/>
-      <c r="H303" s="65"/>
-      <c r="I303" s="65"/>
-      <c r="J303" s="65"/>
-      <c r="K303" s="65"/>
-      <c r="L303" s="65" t="s">
+      <c r="D303" s="64"/>
+      <c r="E303" s="64"/>
+      <c r="F303" s="64"/>
+      <c r="G303" s="64"/>
+      <c r="H303" s="64"/>
+      <c r="I303" s="64"/>
+      <c r="J303" s="64"/>
+      <c r="K303" s="64"/>
+      <c r="L303" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M303" s="65"/>
-      <c r="N303" s="65"/>
-      <c r="O303" s="65"/>
-      <c r="P303" s="65"/>
-      <c r="Q303" s="65"/>
-      <c r="R303" s="65"/>
-      <c r="S303" s="65"/>
-      <c r="T303" s="65"/>
-      <c r="U303" s="65" t="s">
+      <c r="M303" s="64"/>
+      <c r="N303" s="64"/>
+      <c r="O303" s="64"/>
+      <c r="P303" s="64"/>
+      <c r="Q303" s="64"/>
+      <c r="R303" s="64"/>
+      <c r="S303" s="64"/>
+      <c r="T303" s="64"/>
+      <c r="U303" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V303" s="65"/>
-      <c r="W303" s="65"/>
-      <c r="X303" s="65"/>
-      <c r="Y303" s="65"/>
-      <c r="Z303" s="65"/>
-      <c r="AA303" s="65"/>
-      <c r="AB303" s="65"/>
-      <c r="AC303" s="65"/>
-      <c r="AD303" s="65" t="s">
+      <c r="V303" s="64"/>
+      <c r="W303" s="64"/>
+      <c r="X303" s="64"/>
+      <c r="Y303" s="64"/>
+      <c r="Z303" s="64"/>
+      <c r="AA303" s="64"/>
+      <c r="AB303" s="64"/>
+      <c r="AC303" s="64"/>
+      <c r="AD303" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE303" s="65"/>
-      <c r="AF303" s="65"/>
-      <c r="AG303" s="65"/>
-      <c r="AH303" s="69" t="s">
+      <c r="AE303" s="64"/>
+      <c r="AF303" s="64"/>
+      <c r="AG303" s="64"/>
+      <c r="AH303" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="65"/>
-      <c r="B304" s="65"/>
+      <c r="A304" s="64"/>
+      <c r="B304" s="64"/>
       <c r="C304" s="3">
         <v>1</v>
       </c>
       <c r="D304" s="3">
         <v>2</v>
       </c>
-      <c r="E304" s="61" t="s">
+      <c r="E304" s="59" t="s">
         <v>1717</v>
       </c>
-      <c r="F304" s="61" t="s">
+      <c r="F304" s="59" t="s">
         <v>1716</v>
       </c>
       <c r="G304" s="3">
@@ -32313,7 +32328,7 @@
       <c r="AG304" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH304" s="65"/>
+      <c r="AH304" s="64"/>
     </row>
     <row r="305" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="49" t="s">
@@ -34800,42 +34815,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="66" t="s">
+      <c r="A367" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="67"/>
-      <c r="C367" s="67"/>
-      <c r="D367" s="67"/>
-      <c r="E367" s="67"/>
-      <c r="F367" s="67"/>
-      <c r="G367" s="67"/>
-      <c r="H367" s="67"/>
-      <c r="I367" s="67"/>
-      <c r="J367" s="67"/>
-      <c r="K367" s="67"/>
-      <c r="L367" s="67"/>
-      <c r="M367" s="67"/>
-      <c r="N367" s="67"/>
-      <c r="O367" s="67"/>
-      <c r="P367" s="67"/>
-      <c r="Q367" s="67"/>
-      <c r="R367" s="67"/>
-      <c r="S367" s="67"/>
-      <c r="T367" s="67"/>
-      <c r="U367" s="67"/>
-      <c r="V367" s="67"/>
-      <c r="W367" s="67"/>
-      <c r="X367" s="67"/>
-      <c r="Y367" s="67"/>
-      <c r="Z367" s="67"/>
-      <c r="AA367" s="67"/>
-      <c r="AB367" s="67"/>
-      <c r="AC367" s="67"/>
-      <c r="AD367" s="67"/>
-      <c r="AE367" s="67"/>
-      <c r="AF367" s="67"/>
-      <c r="AG367" s="67"/>
-      <c r="AH367" s="67"/>
+      <c r="B367" s="62"/>
+      <c r="C367" s="62"/>
+      <c r="D367" s="62"/>
+      <c r="E367" s="62"/>
+      <c r="F367" s="62"/>
+      <c r="G367" s="62"/>
+      <c r="H367" s="62"/>
+      <c r="I367" s="62"/>
+      <c r="J367" s="62"/>
+      <c r="K367" s="62"/>
+      <c r="L367" s="62"/>
+      <c r="M367" s="62"/>
+      <c r="N367" s="62"/>
+      <c r="O367" s="62"/>
+      <c r="P367" s="62"/>
+      <c r="Q367" s="62"/>
+      <c r="R367" s="62"/>
+      <c r="S367" s="62"/>
+      <c r="T367" s="62"/>
+      <c r="U367" s="62"/>
+      <c r="V367" s="62"/>
+      <c r="W367" s="62"/>
+      <c r="X367" s="62"/>
+      <c r="Y367" s="62"/>
+      <c r="Z367" s="62"/>
+      <c r="AA367" s="62"/>
+      <c r="AB367" s="62"/>
+      <c r="AC367" s="62"/>
+      <c r="AD367" s="62"/>
+      <c r="AE367" s="62"/>
+      <c r="AF367" s="62"/>
+      <c r="AG367" s="62"/>
+      <c r="AH367" s="62"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34874,134 +34889,134 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="62" t="s">
+      <c r="A369" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="62"/>
-      <c r="C369" s="62"/>
-      <c r="D369" s="62"/>
-      <c r="E369" s="62"/>
-      <c r="F369" s="62"/>
-      <c r="G369" s="62"/>
-      <c r="H369" s="62"/>
-      <c r="I369" s="62"/>
-      <c r="J369" s="62"/>
-      <c r="K369" s="62"/>
-      <c r="L369" s="62"/>
-      <c r="M369" s="62"/>
-      <c r="N369" s="62"/>
-      <c r="O369" s="62"/>
-      <c r="P369" s="62"/>
-      <c r="Q369" s="62"/>
-      <c r="R369" s="62"/>
-      <c r="S369" s="62"/>
-      <c r="T369" s="62"/>
-      <c r="U369" s="62"/>
-      <c r="V369" s="62"/>
-      <c r="W369" s="62"/>
-      <c r="X369" s="62"/>
-      <c r="Y369" s="62"/>
-      <c r="Z369" s="62"/>
-      <c r="AA369" s="62"/>
-      <c r="AB369" s="62"/>
-      <c r="AC369" s="62"/>
-      <c r="AD369" s="62"/>
-      <c r="AE369" s="62"/>
-      <c r="AF369" s="62"/>
-      <c r="AG369" s="62"/>
-      <c r="AH369" s="62"/>
+      <c r="B369" s="66"/>
+      <c r="C369" s="66"/>
+      <c r="D369" s="66"/>
+      <c r="E369" s="66"/>
+      <c r="F369" s="66"/>
+      <c r="G369" s="66"/>
+      <c r="H369" s="66"/>
+      <c r="I369" s="66"/>
+      <c r="J369" s="66"/>
+      <c r="K369" s="66"/>
+      <c r="L369" s="66"/>
+      <c r="M369" s="66"/>
+      <c r="N369" s="66"/>
+      <c r="O369" s="66"/>
+      <c r="P369" s="66"/>
+      <c r="Q369" s="66"/>
+      <c r="R369" s="66"/>
+      <c r="S369" s="66"/>
+      <c r="T369" s="66"/>
+      <c r="U369" s="66"/>
+      <c r="V369" s="66"/>
+      <c r="W369" s="66"/>
+      <c r="X369" s="66"/>
+      <c r="Y369" s="66"/>
+      <c r="Z369" s="66"/>
+      <c r="AA369" s="66"/>
+      <c r="AB369" s="66"/>
+      <c r="AC369" s="66"/>
+      <c r="AD369" s="66"/>
+      <c r="AE369" s="66"/>
+      <c r="AF369" s="66"/>
+      <c r="AG369" s="66"/>
+      <c r="AH369" s="66"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="63" t="s">
+      <c r="A370" s="67" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="63"/>
-      <c r="C370" s="63"/>
-      <c r="D370" s="63"/>
-      <c r="E370" s="63"/>
-      <c r="F370" s="63"/>
-      <c r="G370" s="63"/>
-      <c r="H370" s="63"/>
-      <c r="I370" s="63"/>
-      <c r="J370" s="63"/>
-      <c r="K370" s="63"/>
-      <c r="L370" s="63"/>
-      <c r="M370" s="63"/>
-      <c r="N370" s="63"/>
-      <c r="O370" s="63"/>
-      <c r="P370" s="63"/>
-      <c r="Q370" s="63"/>
-      <c r="R370" s="63"/>
-      <c r="S370" s="63"/>
-      <c r="T370" s="63"/>
-      <c r="U370" s="63"/>
-      <c r="V370" s="63"/>
-      <c r="W370" s="63"/>
-      <c r="X370" s="63"/>
-      <c r="Y370" s="63"/>
-      <c r="Z370" s="63"/>
-      <c r="AA370" s="63"/>
-      <c r="AB370" s="63"/>
-      <c r="AC370" s="63"/>
-      <c r="AD370" s="63"/>
-      <c r="AE370" s="63"/>
-      <c r="AF370" s="63"/>
-      <c r="AG370" s="63"/>
-      <c r="AH370" s="63"/>
+      <c r="B370" s="67"/>
+      <c r="C370" s="67"/>
+      <c r="D370" s="67"/>
+      <c r="E370" s="67"/>
+      <c r="F370" s="67"/>
+      <c r="G370" s="67"/>
+      <c r="H370" s="67"/>
+      <c r="I370" s="67"/>
+      <c r="J370" s="67"/>
+      <c r="K370" s="67"/>
+      <c r="L370" s="67"/>
+      <c r="M370" s="67"/>
+      <c r="N370" s="67"/>
+      <c r="O370" s="67"/>
+      <c r="P370" s="67"/>
+      <c r="Q370" s="67"/>
+      <c r="R370" s="67"/>
+      <c r="S370" s="67"/>
+      <c r="T370" s="67"/>
+      <c r="U370" s="67"/>
+      <c r="V370" s="67"/>
+      <c r="W370" s="67"/>
+      <c r="X370" s="67"/>
+      <c r="Y370" s="67"/>
+      <c r="Z370" s="67"/>
+      <c r="AA370" s="67"/>
+      <c r="AB370" s="67"/>
+      <c r="AC370" s="67"/>
+      <c r="AD370" s="67"/>
+      <c r="AE370" s="67"/>
+      <c r="AF370" s="67"/>
+      <c r="AG370" s="67"/>
+      <c r="AH370" s="67"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="65" t="s">
+      <c r="A371" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B371" s="65" t="s">
+      <c r="B371" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C371" s="65" t="s">
+      <c r="C371" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="65"/>
-      <c r="E371" s="65"/>
-      <c r="F371" s="65"/>
-      <c r="G371" s="65"/>
-      <c r="H371" s="65"/>
-      <c r="I371" s="65"/>
-      <c r="J371" s="65"/>
-      <c r="K371" s="65"/>
-      <c r="L371" s="65" t="s">
+      <c r="D371" s="64"/>
+      <c r="E371" s="64"/>
+      <c r="F371" s="64"/>
+      <c r="G371" s="64"/>
+      <c r="H371" s="64"/>
+      <c r="I371" s="64"/>
+      <c r="J371" s="64"/>
+      <c r="K371" s="64"/>
+      <c r="L371" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M371" s="65"/>
-      <c r="N371" s="65"/>
-      <c r="O371" s="65"/>
-      <c r="P371" s="65"/>
-      <c r="Q371" s="65"/>
-      <c r="R371" s="65"/>
-      <c r="S371" s="65"/>
-      <c r="T371" s="65"/>
-      <c r="U371" s="65" t="s">
+      <c r="M371" s="64"/>
+      <c r="N371" s="64"/>
+      <c r="O371" s="64"/>
+      <c r="P371" s="64"/>
+      <c r="Q371" s="64"/>
+      <c r="R371" s="64"/>
+      <c r="S371" s="64"/>
+      <c r="T371" s="64"/>
+      <c r="U371" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V371" s="65"/>
-      <c r="W371" s="65"/>
-      <c r="X371" s="65"/>
-      <c r="Y371" s="65"/>
-      <c r="Z371" s="65"/>
-      <c r="AA371" s="65"/>
-      <c r="AB371" s="65"/>
-      <c r="AC371" s="65"/>
-      <c r="AD371" s="65" t="s">
+      <c r="V371" s="64"/>
+      <c r="W371" s="64"/>
+      <c r="X371" s="64"/>
+      <c r="Y371" s="64"/>
+      <c r="Z371" s="64"/>
+      <c r="AA371" s="64"/>
+      <c r="AB371" s="64"/>
+      <c r="AC371" s="64"/>
+      <c r="AD371" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE371" s="65"/>
-      <c r="AF371" s="65"/>
-      <c r="AG371" s="65"/>
-      <c r="AH371" s="69" t="s">
+      <c r="AE371" s="64"/>
+      <c r="AF371" s="64"/>
+      <c r="AG371" s="64"/>
+      <c r="AH371" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="65"/>
-      <c r="B372" s="65"/>
+      <c r="A372" s="64"/>
+      <c r="B372" s="64"/>
       <c r="C372" s="3">
         <v>1</v>
       </c>
@@ -35095,7 +35110,7 @@
       <c r="AG372" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH372" s="65"/>
+      <c r="AH372" s="64"/>
     </row>
     <row r="373" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
@@ -35147,7 +35162,7 @@
         <v>1130</v>
       </c>
       <c r="C374" s="52"/>
-      <c r="D374" s="58"/>
+      <c r="D374" s="56"/>
       <c r="E374" s="52"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -35823,8 +35838,8 @@
       <c r="AG390" s="9"/>
       <c r="AH390" s="9"/>
     </row>
-    <row r="391" spans="1:34" s="57" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="59" t="s">
+    <row r="391" spans="1:34" s="55" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="57" t="s">
         <v>1163</v>
       </c>
       <c r="B391" s="52" t="s">
@@ -35838,7 +35853,7 @@
       <c r="H391" s="52"/>
       <c r="I391" s="52"/>
       <c r="J391" s="52"/>
-      <c r="K391" s="56"/>
+      <c r="K391" s="54"/>
       <c r="L391" s="52"/>
       <c r="M391" s="52"/>
       <c r="N391" s="52"/>
@@ -35847,7 +35862,7 @@
       <c r="Q391" s="52"/>
       <c r="R391" s="52"/>
       <c r="S391" s="52"/>
-      <c r="T391" s="56"/>
+      <c r="T391" s="54"/>
       <c r="U391" s="52"/>
       <c r="V391" s="52"/>
       <c r="W391" s="52"/>
@@ -35856,12 +35871,12 @@
       <c r="Z391" s="52"/>
       <c r="AA391" s="52"/>
       <c r="AB391" s="52"/>
-      <c r="AC391" s="56"/>
+      <c r="AC391" s="54"/>
       <c r="AD391" s="52"/>
       <c r="AE391" s="52"/>
       <c r="AF391" s="52"/>
-      <c r="AG391" s="56"/>
-      <c r="AH391" s="56"/>
+      <c r="AG391" s="54"/>
+      <c r="AH391" s="54"/>
     </row>
     <row r="392" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="s">
@@ -36023,8 +36038,8 @@
       <c r="AG395" s="9"/>
       <c r="AH395" s="9"/>
     </row>
-    <row r="396" spans="1:34" s="57" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="59" t="s">
+    <row r="396" spans="1:34" s="55" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="57" t="s">
         <v>1173</v>
       </c>
       <c r="B396" s="52" t="s">
@@ -36038,7 +36053,7 @@
       <c r="H396" s="52"/>
       <c r="I396" s="52"/>
       <c r="J396" s="52"/>
-      <c r="K396" s="56"/>
+      <c r="K396" s="54"/>
       <c r="L396" s="52"/>
       <c r="M396" s="52"/>
       <c r="N396" s="52"/>
@@ -36047,7 +36062,7 @@
       <c r="Q396" s="52"/>
       <c r="R396" s="52"/>
       <c r="S396" s="52"/>
-      <c r="T396" s="56"/>
+      <c r="T396" s="54"/>
       <c r="U396" s="52"/>
       <c r="V396" s="52"/>
       <c r="W396" s="52"/>
@@ -36056,12 +36071,12 @@
       <c r="Z396" s="52"/>
       <c r="AA396" s="52"/>
       <c r="AB396" s="52"/>
-      <c r="AC396" s="56"/>
+      <c r="AC396" s="54"/>
       <c r="AD396" s="52"/>
       <c r="AE396" s="52"/>
       <c r="AF396" s="52"/>
-      <c r="AG396" s="56"/>
-      <c r="AH396" s="56"/>
+      <c r="AG396" s="54"/>
+      <c r="AH396" s="54"/>
     </row>
     <row r="397" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="s">
@@ -37654,45 +37669,99 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="66" t="s">
+      <c r="A436" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="67"/>
-      <c r="C436" s="67"/>
-      <c r="D436" s="67"/>
-      <c r="E436" s="67"/>
-      <c r="F436" s="67"/>
-      <c r="G436" s="67"/>
-      <c r="H436" s="67"/>
-      <c r="I436" s="67"/>
-      <c r="J436" s="67"/>
-      <c r="K436" s="67"/>
-      <c r="L436" s="67"/>
-      <c r="M436" s="67"/>
-      <c r="N436" s="67"/>
-      <c r="O436" s="67"/>
-      <c r="P436" s="67"/>
-      <c r="Q436" s="67"/>
-      <c r="R436" s="67"/>
-      <c r="S436" s="67"/>
-      <c r="T436" s="67"/>
-      <c r="U436" s="67"/>
-      <c r="V436" s="67"/>
-      <c r="W436" s="67"/>
-      <c r="X436" s="67"/>
-      <c r="Y436" s="67"/>
-      <c r="Z436" s="67"/>
-      <c r="AA436" s="67"/>
-      <c r="AB436" s="67"/>
-      <c r="AC436" s="67"/>
-      <c r="AD436" s="67"/>
-      <c r="AE436" s="67"/>
-      <c r="AF436" s="67"/>
-      <c r="AG436" s="67"/>
-      <c r="AH436" s="67"/>
+      <c r="B436" s="62"/>
+      <c r="C436" s="62"/>
+      <c r="D436" s="62"/>
+      <c r="E436" s="62"/>
+      <c r="F436" s="62"/>
+      <c r="G436" s="62"/>
+      <c r="H436" s="62"/>
+      <c r="I436" s="62"/>
+      <c r="J436" s="62"/>
+      <c r="K436" s="62"/>
+      <c r="L436" s="62"/>
+      <c r="M436" s="62"/>
+      <c r="N436" s="62"/>
+      <c r="O436" s="62"/>
+      <c r="P436" s="62"/>
+      <c r="Q436" s="62"/>
+      <c r="R436" s="62"/>
+      <c r="S436" s="62"/>
+      <c r="T436" s="62"/>
+      <c r="U436" s="62"/>
+      <c r="V436" s="62"/>
+      <c r="W436" s="62"/>
+      <c r="X436" s="62"/>
+      <c r="Y436" s="62"/>
+      <c r="Z436" s="62"/>
+      <c r="AA436" s="62"/>
+      <c r="AB436" s="62"/>
+      <c r="AC436" s="62"/>
+      <c r="AD436" s="62"/>
+      <c r="AE436" s="62"/>
+      <c r="AF436" s="62"/>
+      <c r="AG436" s="62"/>
+      <c r="AH436" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37709,60 +37778,6 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37796,134 +37811,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -38017,7 +38032,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="65"/>
+      <c r="AH4" s="64"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -38620,172 +38635,172 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="67" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65" t="s">
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65" t="s">
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="69" t="s">
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="3">
         <v>1</v>
       </c>
@@ -38879,7 +38894,7 @@
       <c r="AG25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH25" s="65"/>
+      <c r="AH25" s="64"/>
     </row>
     <row r="26" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -39362,172 +39377,172 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62"/>
+      <c r="AH38" s="62"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="67" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="67"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65" t="s">
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65" t="s">
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="69" t="s">
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="3">
         <v>1</v>
       </c>
@@ -39621,7 +39636,7 @@
       <c r="AG43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH43" s="65"/>
+      <c r="AH43" s="64"/>
     </row>
     <row r="44" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -40384,172 +40399,172 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="67"/>
-      <c r="AE63" s="67"/>
-      <c r="AF63" s="67"/>
-      <c r="AG63" s="67"/>
-      <c r="AH63" s="67"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
+      <c r="Z63" s="62"/>
+      <c r="AA63" s="62"/>
+      <c r="AB63" s="62"/>
+      <c r="AC63" s="62"/>
+      <c r="AD63" s="62"/>
+      <c r="AE63" s="62"/>
+      <c r="AF63" s="62"/>
+      <c r="AG63" s="62"/>
+      <c r="AH63" s="62"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
-      <c r="AA64" s="62"/>
-      <c r="AB64" s="62"/>
-      <c r="AC64" s="62"/>
-      <c r="AD64" s="62"/>
-      <c r="AE64" s="62"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
-      <c r="AH64" s="62"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="66"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="66"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="67" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="63"/>
-      <c r="U65" s="63"/>
-      <c r="V65" s="63"/>
-      <c r="W65" s="63"/>
-      <c r="X65" s="63"/>
-      <c r="Y65" s="63"/>
-      <c r="Z65" s="63"/>
-      <c r="AA65" s="63"/>
-      <c r="AB65" s="63"/>
-      <c r="AC65" s="63"/>
-      <c r="AD65" s="63"/>
-      <c r="AE65" s="63"/>
-      <c r="AF65" s="63"/>
-      <c r="AG65" s="63"/>
-      <c r="AH65" s="63"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+      <c r="Y65" s="67"/>
+      <c r="Z65" s="67"/>
+      <c r="AA65" s="67"/>
+      <c r="AB65" s="67"/>
+      <c r="AC65" s="67"/>
+      <c r="AD65" s="67"/>
+      <c r="AE65" s="67"/>
+      <c r="AF65" s="67"/>
+      <c r="AG65" s="67"/>
+      <c r="AH65" s="67"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65" t="s">
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="65"/>
-      <c r="R66" s="65"/>
-      <c r="S66" s="65"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="65" t="s">
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="64"/>
+      <c r="U66" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="65"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="65"/>
-      <c r="AA66" s="65"/>
-      <c r="AB66" s="65"/>
-      <c r="AC66" s="65"/>
-      <c r="AD66" s="65" t="s">
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+      <c r="Z66" s="64"/>
+      <c r="AA66" s="64"/>
+      <c r="AB66" s="64"/>
+      <c r="AC66" s="64"/>
+      <c r="AD66" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE66" s="65"/>
-      <c r="AF66" s="65"/>
-      <c r="AG66" s="65"/>
-      <c r="AH66" s="69" t="s">
+      <c r="AE66" s="64"/>
+      <c r="AF66" s="64"/>
+      <c r="AG66" s="64"/>
+      <c r="AH66" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="3">
         <v>1</v>
       </c>
@@ -40643,7 +40658,7 @@
       <c r="AG67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH67" s="65"/>
+      <c r="AH67" s="64"/>
     </row>
     <row r="68" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -42366,172 +42381,172 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="66" t="s">
+      <c r="A111" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
-      <c r="L111" s="67"/>
-      <c r="M111" s="67"/>
-      <c r="N111" s="67"/>
-      <c r="O111" s="67"/>
-      <c r="P111" s="67"/>
-      <c r="Q111" s="67"/>
-      <c r="R111" s="67"/>
-      <c r="S111" s="67"/>
-      <c r="T111" s="67"/>
-      <c r="U111" s="67"/>
-      <c r="V111" s="67"/>
-      <c r="W111" s="67"/>
-      <c r="X111" s="67"/>
-      <c r="Y111" s="67"/>
-      <c r="Z111" s="67"/>
-      <c r="AA111" s="67"/>
-      <c r="AB111" s="67"/>
-      <c r="AC111" s="67"/>
-      <c r="AD111" s="67"/>
-      <c r="AE111" s="67"/>
-      <c r="AF111" s="67"/>
-      <c r="AG111" s="67"/>
-      <c r="AH111" s="67"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62"/>
+      <c r="K111" s="62"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="62"/>
+      <c r="N111" s="62"/>
+      <c r="O111" s="62"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="62"/>
+      <c r="S111" s="62"/>
+      <c r="T111" s="62"/>
+      <c r="U111" s="62"/>
+      <c r="V111" s="62"/>
+      <c r="W111" s="62"/>
+      <c r="X111" s="62"/>
+      <c r="Y111" s="62"/>
+      <c r="Z111" s="62"/>
+      <c r="AA111" s="62"/>
+      <c r="AB111" s="62"/>
+      <c r="AC111" s="62"/>
+      <c r="AD111" s="62"/>
+      <c r="AE111" s="62"/>
+      <c r="AF111" s="62"/>
+      <c r="AG111" s="62"/>
+      <c r="AH111" s="62"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="62"/>
-      <c r="N113" s="62"/>
-      <c r="O113" s="62"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="62"/>
-      <c r="S113" s="62"/>
-      <c r="T113" s="62"/>
-      <c r="U113" s="62"/>
-      <c r="V113" s="62"/>
-      <c r="W113" s="62"/>
-      <c r="X113" s="62"/>
-      <c r="Y113" s="62"/>
-      <c r="Z113" s="62"/>
-      <c r="AA113" s="62"/>
-      <c r="AB113" s="62"/>
-      <c r="AC113" s="62"/>
-      <c r="AD113" s="62"/>
-      <c r="AE113" s="62"/>
-      <c r="AF113" s="62"/>
-      <c r="AG113" s="62"/>
-      <c r="AH113" s="62"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="66"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="66"/>
+      <c r="Q113" s="66"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="66"/>
+      <c r="T113" s="66"/>
+      <c r="U113" s="66"/>
+      <c r="V113" s="66"/>
+      <c r="W113" s="66"/>
+      <c r="X113" s="66"/>
+      <c r="Y113" s="66"/>
+      <c r="Z113" s="66"/>
+      <c r="AA113" s="66"/>
+      <c r="AB113" s="66"/>
+      <c r="AC113" s="66"/>
+      <c r="AD113" s="66"/>
+      <c r="AE113" s="66"/>
+      <c r="AF113" s="66"/>
+      <c r="AG113" s="66"/>
+      <c r="AH113" s="66"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="63" t="s">
+      <c r="A114" s="67" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="63"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="63"/>
-      <c r="J114" s="63"/>
-      <c r="K114" s="63"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="63"/>
-      <c r="N114" s="63"/>
-      <c r="O114" s="63"/>
-      <c r="P114" s="63"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="63"/>
-      <c r="S114" s="63"/>
-      <c r="T114" s="63"/>
-      <c r="U114" s="63"/>
-      <c r="V114" s="63"/>
-      <c r="W114" s="63"/>
-      <c r="X114" s="63"/>
-      <c r="Y114" s="63"/>
-      <c r="Z114" s="63"/>
-      <c r="AA114" s="63"/>
-      <c r="AB114" s="63"/>
-      <c r="AC114" s="63"/>
-      <c r="AD114" s="63"/>
-      <c r="AE114" s="63"/>
-      <c r="AF114" s="63"/>
-      <c r="AG114" s="63"/>
-      <c r="AH114" s="63"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="67"/>
+      <c r="O114" s="67"/>
+      <c r="P114" s="67"/>
+      <c r="Q114" s="67"/>
+      <c r="R114" s="67"/>
+      <c r="S114" s="67"/>
+      <c r="T114" s="67"/>
+      <c r="U114" s="67"/>
+      <c r="V114" s="67"/>
+      <c r="W114" s="67"/>
+      <c r="X114" s="67"/>
+      <c r="Y114" s="67"/>
+      <c r="Z114" s="67"/>
+      <c r="AA114" s="67"/>
+      <c r="AB114" s="67"/>
+      <c r="AC114" s="67"/>
+      <c r="AD114" s="67"/>
+      <c r="AE114" s="67"/>
+      <c r="AF114" s="67"/>
+      <c r="AG114" s="67"/>
+      <c r="AH114" s="67"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="65" t="s">
+      <c r="C115" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="65" t="s">
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="64"/>
+      <c r="L115" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M115" s="65"/>
-      <c r="N115" s="65"/>
-      <c r="O115" s="65"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="65"/>
-      <c r="S115" s="65"/>
-      <c r="T115" s="65"/>
-      <c r="U115" s="65" t="s">
+      <c r="M115" s="64"/>
+      <c r="N115" s="64"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="64"/>
+      <c r="S115" s="64"/>
+      <c r="T115" s="64"/>
+      <c r="U115" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V115" s="65"/>
-      <c r="W115" s="65"/>
-      <c r="X115" s="65"/>
-      <c r="Y115" s="65"/>
-      <c r="Z115" s="65"/>
-      <c r="AA115" s="65"/>
-      <c r="AB115" s="65"/>
-      <c r="AC115" s="65"/>
-      <c r="AD115" s="65" t="s">
+      <c r="V115" s="64"/>
+      <c r="W115" s="64"/>
+      <c r="X115" s="64"/>
+      <c r="Y115" s="64"/>
+      <c r="Z115" s="64"/>
+      <c r="AA115" s="64"/>
+      <c r="AB115" s="64"/>
+      <c r="AC115" s="64"/>
+      <c r="AD115" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE115" s="65"/>
-      <c r="AF115" s="65"/>
-      <c r="AG115" s="65"/>
-      <c r="AH115" s="69" t="s">
+      <c r="AE115" s="64"/>
+      <c r="AF115" s="64"/>
+      <c r="AG115" s="64"/>
+      <c r="AH115" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
       <c r="C116" s="3">
         <v>1</v>
       </c>
@@ -42625,7 +42640,7 @@
       <c r="AG116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH116" s="65"/>
+      <c r="AH116" s="64"/>
     </row>
     <row r="117" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -44348,172 +44363,172 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="66" t="s">
+      <c r="A160" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="67"/>
-      <c r="C160" s="67"/>
-      <c r="D160" s="67"/>
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
-      <c r="G160" s="67"/>
-      <c r="H160" s="67"/>
-      <c r="I160" s="67"/>
-      <c r="J160" s="67"/>
-      <c r="K160" s="67"/>
-      <c r="L160" s="67"/>
-      <c r="M160" s="67"/>
-      <c r="N160" s="67"/>
-      <c r="O160" s="67"/>
-      <c r="P160" s="67"/>
-      <c r="Q160" s="67"/>
-      <c r="R160" s="67"/>
-      <c r="S160" s="67"/>
-      <c r="T160" s="67"/>
-      <c r="U160" s="67"/>
-      <c r="V160" s="67"/>
-      <c r="W160" s="67"/>
-      <c r="X160" s="67"/>
-      <c r="Y160" s="67"/>
-      <c r="Z160" s="67"/>
-      <c r="AA160" s="67"/>
-      <c r="AB160" s="67"/>
-      <c r="AC160" s="67"/>
-      <c r="AD160" s="67"/>
-      <c r="AE160" s="67"/>
-      <c r="AF160" s="67"/>
-      <c r="AG160" s="67"/>
-      <c r="AH160" s="67"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="62"/>
+      <c r="D160" s="62"/>
+      <c r="E160" s="62"/>
+      <c r="F160" s="62"/>
+      <c r="G160" s="62"/>
+      <c r="H160" s="62"/>
+      <c r="I160" s="62"/>
+      <c r="J160" s="62"/>
+      <c r="K160" s="62"/>
+      <c r="L160" s="62"/>
+      <c r="M160" s="62"/>
+      <c r="N160" s="62"/>
+      <c r="O160" s="62"/>
+      <c r="P160" s="62"/>
+      <c r="Q160" s="62"/>
+      <c r="R160" s="62"/>
+      <c r="S160" s="62"/>
+      <c r="T160" s="62"/>
+      <c r="U160" s="62"/>
+      <c r="V160" s="62"/>
+      <c r="W160" s="62"/>
+      <c r="X160" s="62"/>
+      <c r="Y160" s="62"/>
+      <c r="Z160" s="62"/>
+      <c r="AA160" s="62"/>
+      <c r="AB160" s="62"/>
+      <c r="AC160" s="62"/>
+      <c r="AD160" s="62"/>
+      <c r="AE160" s="62"/>
+      <c r="AF160" s="62"/>
+      <c r="AG160" s="62"/>
+      <c r="AH160" s="62"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="62" t="s">
+      <c r="A162" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="62"/>
-      <c r="C162" s="62"/>
-      <c r="D162" s="62"/>
-      <c r="E162" s="62"/>
-      <c r="F162" s="62"/>
-      <c r="G162" s="62"/>
-      <c r="H162" s="62"/>
-      <c r="I162" s="62"/>
-      <c r="J162" s="62"/>
-      <c r="K162" s="62"/>
-      <c r="L162" s="62"/>
-      <c r="M162" s="62"/>
-      <c r="N162" s="62"/>
-      <c r="O162" s="62"/>
-      <c r="P162" s="62"/>
-      <c r="Q162" s="62"/>
-      <c r="R162" s="62"/>
-      <c r="S162" s="62"/>
-      <c r="T162" s="62"/>
-      <c r="U162" s="62"/>
-      <c r="V162" s="62"/>
-      <c r="W162" s="62"/>
-      <c r="X162" s="62"/>
-      <c r="Y162" s="62"/>
-      <c r="Z162" s="62"/>
-      <c r="AA162" s="62"/>
-      <c r="AB162" s="62"/>
-      <c r="AC162" s="62"/>
-      <c r="AD162" s="62"/>
-      <c r="AE162" s="62"/>
-      <c r="AF162" s="62"/>
-      <c r="AG162" s="62"/>
-      <c r="AH162" s="62"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
+      <c r="I162" s="66"/>
+      <c r="J162" s="66"/>
+      <c r="K162" s="66"/>
+      <c r="L162" s="66"/>
+      <c r="M162" s="66"/>
+      <c r="N162" s="66"/>
+      <c r="O162" s="66"/>
+      <c r="P162" s="66"/>
+      <c r="Q162" s="66"/>
+      <c r="R162" s="66"/>
+      <c r="S162" s="66"/>
+      <c r="T162" s="66"/>
+      <c r="U162" s="66"/>
+      <c r="V162" s="66"/>
+      <c r="W162" s="66"/>
+      <c r="X162" s="66"/>
+      <c r="Y162" s="66"/>
+      <c r="Z162" s="66"/>
+      <c r="AA162" s="66"/>
+      <c r="AB162" s="66"/>
+      <c r="AC162" s="66"/>
+      <c r="AD162" s="66"/>
+      <c r="AE162" s="66"/>
+      <c r="AF162" s="66"/>
+      <c r="AG162" s="66"/>
+      <c r="AH162" s="66"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="63" t="s">
+      <c r="A163" s="67" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="63"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="63"/>
-      <c r="E163" s="63"/>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
-      <c r="J163" s="63"/>
-      <c r="K163" s="63"/>
-      <c r="L163" s="63"/>
-      <c r="M163" s="63"/>
-      <c r="N163" s="63"/>
-      <c r="O163" s="63"/>
-      <c r="P163" s="63"/>
-      <c r="Q163" s="63"/>
-      <c r="R163" s="63"/>
-      <c r="S163" s="63"/>
-      <c r="T163" s="63"/>
-      <c r="U163" s="63"/>
-      <c r="V163" s="63"/>
-      <c r="W163" s="63"/>
-      <c r="X163" s="63"/>
-      <c r="Y163" s="63"/>
-      <c r="Z163" s="63"/>
-      <c r="AA163" s="63"/>
-      <c r="AB163" s="63"/>
-      <c r="AC163" s="63"/>
-      <c r="AD163" s="63"/>
-      <c r="AE163" s="63"/>
-      <c r="AF163" s="63"/>
-      <c r="AG163" s="63"/>
-      <c r="AH163" s="63"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="67"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="67"/>
+      <c r="J163" s="67"/>
+      <c r="K163" s="67"/>
+      <c r="L163" s="67"/>
+      <c r="M163" s="67"/>
+      <c r="N163" s="67"/>
+      <c r="O163" s="67"/>
+      <c r="P163" s="67"/>
+      <c r="Q163" s="67"/>
+      <c r="R163" s="67"/>
+      <c r="S163" s="67"/>
+      <c r="T163" s="67"/>
+      <c r="U163" s="67"/>
+      <c r="V163" s="67"/>
+      <c r="W163" s="67"/>
+      <c r="X163" s="67"/>
+      <c r="Y163" s="67"/>
+      <c r="Z163" s="67"/>
+      <c r="AA163" s="67"/>
+      <c r="AB163" s="67"/>
+      <c r="AC163" s="67"/>
+      <c r="AD163" s="67"/>
+      <c r="AE163" s="67"/>
+      <c r="AF163" s="67"/>
+      <c r="AG163" s="67"/>
+      <c r="AH163" s="67"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="65" t="s">
+      <c r="A164" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="65" t="s">
+      <c r="B164" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="65" t="s">
+      <c r="C164" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="65"/>
-      <c r="E164" s="65"/>
-      <c r="F164" s="65"/>
-      <c r="G164" s="65"/>
-      <c r="H164" s="65"/>
-      <c r="I164" s="65"/>
-      <c r="J164" s="65"/>
-      <c r="K164" s="65"/>
-      <c r="L164" s="65" t="s">
+      <c r="D164" s="64"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="64"/>
+      <c r="G164" s="64"/>
+      <c r="H164" s="64"/>
+      <c r="I164" s="64"/>
+      <c r="J164" s="64"/>
+      <c r="K164" s="64"/>
+      <c r="L164" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M164" s="65"/>
-      <c r="N164" s="65"/>
-      <c r="O164" s="65"/>
-      <c r="P164" s="65"/>
-      <c r="Q164" s="65"/>
-      <c r="R164" s="65"/>
-      <c r="S164" s="65"/>
-      <c r="T164" s="65"/>
-      <c r="U164" s="65" t="s">
+      <c r="M164" s="64"/>
+      <c r="N164" s="64"/>
+      <c r="O164" s="64"/>
+      <c r="P164" s="64"/>
+      <c r="Q164" s="64"/>
+      <c r="R164" s="64"/>
+      <c r="S164" s="64"/>
+      <c r="T164" s="64"/>
+      <c r="U164" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V164" s="65"/>
-      <c r="W164" s="65"/>
-      <c r="X164" s="65"/>
-      <c r="Y164" s="65"/>
-      <c r="Z164" s="65"/>
-      <c r="AA164" s="65"/>
-      <c r="AB164" s="65"/>
-      <c r="AC164" s="65"/>
-      <c r="AD164" s="65" t="s">
+      <c r="V164" s="64"/>
+      <c r="W164" s="64"/>
+      <c r="X164" s="64"/>
+      <c r="Y164" s="64"/>
+      <c r="Z164" s="64"/>
+      <c r="AA164" s="64"/>
+      <c r="AB164" s="64"/>
+      <c r="AC164" s="64"/>
+      <c r="AD164" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE164" s="65"/>
-      <c r="AF164" s="65"/>
-      <c r="AG164" s="65"/>
-      <c r="AH164" s="69" t="s">
+      <c r="AE164" s="64"/>
+      <c r="AF164" s="64"/>
+      <c r="AG164" s="64"/>
+      <c r="AH164" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="65"/>
-      <c r="B165" s="65"/>
+      <c r="A165" s="64"/>
+      <c r="B165" s="64"/>
       <c r="C165" s="3">
         <v>1</v>
       </c>
@@ -44607,7 +44622,7 @@
       <c r="AG165" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH165" s="65"/>
+      <c r="AH165" s="64"/>
     </row>
     <row r="166" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -46330,172 +46345,172 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="66" t="s">
+      <c r="A209" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="67"/>
-      <c r="C209" s="67"/>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
-      <c r="F209" s="67"/>
-      <c r="G209" s="67"/>
-      <c r="H209" s="67"/>
-      <c r="I209" s="67"/>
-      <c r="J209" s="67"/>
-      <c r="K209" s="67"/>
-      <c r="L209" s="67"/>
-      <c r="M209" s="67"/>
-      <c r="N209" s="67"/>
-      <c r="O209" s="67"/>
-      <c r="P209" s="67"/>
-      <c r="Q209" s="67"/>
-      <c r="R209" s="67"/>
-      <c r="S209" s="67"/>
-      <c r="T209" s="67"/>
-      <c r="U209" s="67"/>
-      <c r="V209" s="67"/>
-      <c r="W209" s="67"/>
-      <c r="X209" s="67"/>
-      <c r="Y209" s="67"/>
-      <c r="Z209" s="67"/>
-      <c r="AA209" s="67"/>
-      <c r="AB209" s="67"/>
-      <c r="AC209" s="67"/>
-      <c r="AD209" s="67"/>
-      <c r="AE209" s="67"/>
-      <c r="AF209" s="67"/>
-      <c r="AG209" s="67"/>
-      <c r="AH209" s="67"/>
+      <c r="B209" s="62"/>
+      <c r="C209" s="62"/>
+      <c r="D209" s="62"/>
+      <c r="E209" s="62"/>
+      <c r="F209" s="62"/>
+      <c r="G209" s="62"/>
+      <c r="H209" s="62"/>
+      <c r="I209" s="62"/>
+      <c r="J209" s="62"/>
+      <c r="K209" s="62"/>
+      <c r="L209" s="62"/>
+      <c r="M209" s="62"/>
+      <c r="N209" s="62"/>
+      <c r="O209" s="62"/>
+      <c r="P209" s="62"/>
+      <c r="Q209" s="62"/>
+      <c r="R209" s="62"/>
+      <c r="S209" s="62"/>
+      <c r="T209" s="62"/>
+      <c r="U209" s="62"/>
+      <c r="V209" s="62"/>
+      <c r="W209" s="62"/>
+      <c r="X209" s="62"/>
+      <c r="Y209" s="62"/>
+      <c r="Z209" s="62"/>
+      <c r="AA209" s="62"/>
+      <c r="AB209" s="62"/>
+      <c r="AC209" s="62"/>
+      <c r="AD209" s="62"/>
+      <c r="AE209" s="62"/>
+      <c r="AF209" s="62"/>
+      <c r="AG209" s="62"/>
+      <c r="AH209" s="62"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="62" t="s">
+      <c r="A211" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="62"/>
-      <c r="C211" s="62"/>
-      <c r="D211" s="62"/>
-      <c r="E211" s="62"/>
-      <c r="F211" s="62"/>
-      <c r="G211" s="62"/>
-      <c r="H211" s="62"/>
-      <c r="I211" s="62"/>
-      <c r="J211" s="62"/>
-      <c r="K211" s="62"/>
-      <c r="L211" s="62"/>
-      <c r="M211" s="62"/>
-      <c r="N211" s="62"/>
-      <c r="O211" s="62"/>
-      <c r="P211" s="62"/>
-      <c r="Q211" s="62"/>
-      <c r="R211" s="62"/>
-      <c r="S211" s="62"/>
-      <c r="T211" s="62"/>
-      <c r="U211" s="62"/>
-      <c r="V211" s="62"/>
-      <c r="W211" s="62"/>
-      <c r="X211" s="62"/>
-      <c r="Y211" s="62"/>
-      <c r="Z211" s="62"/>
-      <c r="AA211" s="62"/>
-      <c r="AB211" s="62"/>
-      <c r="AC211" s="62"/>
-      <c r="AD211" s="62"/>
-      <c r="AE211" s="62"/>
-      <c r="AF211" s="62"/>
-      <c r="AG211" s="62"/>
-      <c r="AH211" s="62"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="66"/>
+      <c r="D211" s="66"/>
+      <c r="E211" s="66"/>
+      <c r="F211" s="66"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="66"/>
+      <c r="I211" s="66"/>
+      <c r="J211" s="66"/>
+      <c r="K211" s="66"/>
+      <c r="L211" s="66"/>
+      <c r="M211" s="66"/>
+      <c r="N211" s="66"/>
+      <c r="O211" s="66"/>
+      <c r="P211" s="66"/>
+      <c r="Q211" s="66"/>
+      <c r="R211" s="66"/>
+      <c r="S211" s="66"/>
+      <c r="T211" s="66"/>
+      <c r="U211" s="66"/>
+      <c r="V211" s="66"/>
+      <c r="W211" s="66"/>
+      <c r="X211" s="66"/>
+      <c r="Y211" s="66"/>
+      <c r="Z211" s="66"/>
+      <c r="AA211" s="66"/>
+      <c r="AB211" s="66"/>
+      <c r="AC211" s="66"/>
+      <c r="AD211" s="66"/>
+      <c r="AE211" s="66"/>
+      <c r="AF211" s="66"/>
+      <c r="AG211" s="66"/>
+      <c r="AH211" s="66"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="63" t="s">
+      <c r="A212" s="67" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="63"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="63"/>
-      <c r="F212" s="63"/>
-      <c r="G212" s="63"/>
-      <c r="H212" s="63"/>
-      <c r="I212" s="63"/>
-      <c r="J212" s="63"/>
-      <c r="K212" s="63"/>
-      <c r="L212" s="63"/>
-      <c r="M212" s="63"/>
-      <c r="N212" s="63"/>
-      <c r="O212" s="63"/>
-      <c r="P212" s="63"/>
-      <c r="Q212" s="63"/>
-      <c r="R212" s="63"/>
-      <c r="S212" s="63"/>
-      <c r="T212" s="63"/>
-      <c r="U212" s="63"/>
-      <c r="V212" s="63"/>
-      <c r="W212" s="63"/>
-      <c r="X212" s="63"/>
-      <c r="Y212" s="63"/>
-      <c r="Z212" s="63"/>
-      <c r="AA212" s="63"/>
-      <c r="AB212" s="63"/>
-      <c r="AC212" s="63"/>
-      <c r="AD212" s="63"/>
-      <c r="AE212" s="63"/>
-      <c r="AF212" s="63"/>
-      <c r="AG212" s="63"/>
-      <c r="AH212" s="63"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="67"/>
+      <c r="M212" s="67"/>
+      <c r="N212" s="67"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="67"/>
+      <c r="Q212" s="67"/>
+      <c r="R212" s="67"/>
+      <c r="S212" s="67"/>
+      <c r="T212" s="67"/>
+      <c r="U212" s="67"/>
+      <c r="V212" s="67"/>
+      <c r="W212" s="67"/>
+      <c r="X212" s="67"/>
+      <c r="Y212" s="67"/>
+      <c r="Z212" s="67"/>
+      <c r="AA212" s="67"/>
+      <c r="AB212" s="67"/>
+      <c r="AC212" s="67"/>
+      <c r="AD212" s="67"/>
+      <c r="AE212" s="67"/>
+      <c r="AF212" s="67"/>
+      <c r="AG212" s="67"/>
+      <c r="AH212" s="67"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="65" t="s">
+      <c r="A213" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="65" t="s">
+      <c r="B213" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="65" t="s">
+      <c r="C213" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="65"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="65"/>
-      <c r="G213" s="65"/>
-      <c r="H213" s="65"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="65"/>
-      <c r="K213" s="65"/>
-      <c r="L213" s="65" t="s">
+      <c r="D213" s="64"/>
+      <c r="E213" s="64"/>
+      <c r="F213" s="64"/>
+      <c r="G213" s="64"/>
+      <c r="H213" s="64"/>
+      <c r="I213" s="64"/>
+      <c r="J213" s="64"/>
+      <c r="K213" s="64"/>
+      <c r="L213" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M213" s="65"/>
-      <c r="N213" s="65"/>
-      <c r="O213" s="65"/>
-      <c r="P213" s="65"/>
-      <c r="Q213" s="65"/>
-      <c r="R213" s="65"/>
-      <c r="S213" s="65"/>
-      <c r="T213" s="65"/>
-      <c r="U213" s="65" t="s">
+      <c r="M213" s="64"/>
+      <c r="N213" s="64"/>
+      <c r="O213" s="64"/>
+      <c r="P213" s="64"/>
+      <c r="Q213" s="64"/>
+      <c r="R213" s="64"/>
+      <c r="S213" s="64"/>
+      <c r="T213" s="64"/>
+      <c r="U213" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="V213" s="65"/>
-      <c r="W213" s="65"/>
-      <c r="X213" s="65"/>
-      <c r="Y213" s="65"/>
-      <c r="Z213" s="65"/>
-      <c r="AA213" s="65"/>
-      <c r="AB213" s="65"/>
-      <c r="AC213" s="65"/>
-      <c r="AD213" s="65" t="s">
+      <c r="V213" s="64"/>
+      <c r="W213" s="64"/>
+      <c r="X213" s="64"/>
+      <c r="Y213" s="64"/>
+      <c r="Z213" s="64"/>
+      <c r="AA213" s="64"/>
+      <c r="AB213" s="64"/>
+      <c r="AC213" s="64"/>
+      <c r="AD213" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE213" s="65"/>
-      <c r="AF213" s="65"/>
-      <c r="AG213" s="65"/>
-      <c r="AH213" s="69" t="s">
+      <c r="AE213" s="64"/>
+      <c r="AF213" s="64"/>
+      <c r="AG213" s="64"/>
+      <c r="AH213" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="65"/>
-      <c r="B214" s="65"/>
+      <c r="A214" s="64"/>
+      <c r="B214" s="64"/>
       <c r="C214" s="3">
         <v>1</v>
       </c>
@@ -46589,7 +46604,7 @@
       <c r="AG214" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH214" s="65"/>
+      <c r="AH214" s="64"/>
     </row>
     <row r="215" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -48392,45 +48407,99 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="66" t="s">
+      <c r="A260" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="67"/>
-      <c r="C260" s="67"/>
-      <c r="D260" s="67"/>
-      <c r="E260" s="67"/>
-      <c r="F260" s="67"/>
-      <c r="G260" s="67"/>
-      <c r="H260" s="67"/>
-      <c r="I260" s="67"/>
-      <c r="J260" s="67"/>
-      <c r="K260" s="67"/>
-      <c r="L260" s="67"/>
-      <c r="M260" s="67"/>
-      <c r="N260" s="67"/>
-      <c r="O260" s="67"/>
-      <c r="P260" s="67"/>
-      <c r="Q260" s="67"/>
-      <c r="R260" s="67"/>
-      <c r="S260" s="67"/>
-      <c r="T260" s="67"/>
-      <c r="U260" s="67"/>
-      <c r="V260" s="67"/>
-      <c r="W260" s="67"/>
-      <c r="X260" s="67"/>
-      <c r="Y260" s="67"/>
-      <c r="Z260" s="67"/>
-      <c r="AA260" s="67"/>
-      <c r="AB260" s="67"/>
-      <c r="AC260" s="67"/>
-      <c r="AD260" s="67"/>
-      <c r="AE260" s="67"/>
-      <c r="AF260" s="67"/>
-      <c r="AG260" s="67"/>
-      <c r="AH260" s="67"/>
+      <c r="B260" s="62"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="62"/>
+      <c r="E260" s="62"/>
+      <c r="F260" s="62"/>
+      <c r="G260" s="62"/>
+      <c r="H260" s="62"/>
+      <c r="I260" s="62"/>
+      <c r="J260" s="62"/>
+      <c r="K260" s="62"/>
+      <c r="L260" s="62"/>
+      <c r="M260" s="62"/>
+      <c r="N260" s="62"/>
+      <c r="O260" s="62"/>
+      <c r="P260" s="62"/>
+      <c r="Q260" s="62"/>
+      <c r="R260" s="62"/>
+      <c r="S260" s="62"/>
+      <c r="T260" s="62"/>
+      <c r="U260" s="62"/>
+      <c r="V260" s="62"/>
+      <c r="W260" s="62"/>
+      <c r="X260" s="62"/>
+      <c r="Y260" s="62"/>
+      <c r="Z260" s="62"/>
+      <c r="AA260" s="62"/>
+      <c r="AB260" s="62"/>
+      <c r="AC260" s="62"/>
+      <c r="AD260" s="62"/>
+      <c r="AE260" s="62"/>
+      <c r="AF260" s="62"/>
+      <c r="AG260" s="62"/>
+      <c r="AH260" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48447,60 +48516,6 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E2392-3E74-400B-A975-D7F652995F83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1730B1-AC72-4512-8A40-524DBBBF04F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1723">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6899,6 +6899,14 @@
   </si>
   <si>
     <t>驾校</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/26</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -7290,30 +7298,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7325,6 +7309,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8258,134 +8266,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64" t="s">
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -8479,7 +8487,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="64"/>
+      <c r="AH4" s="68"/>
     </row>
     <row r="5" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -9682,172 +9690,172 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64" t="s">
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="64" t="s">
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="65" t="s">
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="3">
         <v>1</v>
       </c>
@@ -9941,7 +9949,7 @@
       <c r="AG39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH39" s="64"/>
+      <c r="AH39" s="68"/>
     </row>
     <row r="40" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
@@ -12304,173 +12312,173 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="63"/>
-      <c r="K99" s="63"/>
-      <c r="L99" s="63"/>
-      <c r="M99" s="63"/>
-      <c r="N99" s="63"/>
-      <c r="O99" s="63"/>
-      <c r="P99" s="63"/>
-      <c r="Q99" s="63"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="63"/>
-      <c r="T99" s="63"/>
-      <c r="U99" s="63"/>
-      <c r="V99" s="63"/>
-      <c r="W99" s="63"/>
-      <c r="X99" s="63"/>
-      <c r="Y99" s="63"/>
-      <c r="Z99" s="63"/>
-      <c r="AA99" s="63"/>
-      <c r="AB99" s="63"/>
-      <c r="AC99" s="63"/>
-      <c r="AD99" s="63"/>
-      <c r="AE99" s="63"/>
-      <c r="AF99" s="63"/>
-      <c r="AG99" s="63"/>
-      <c r="AH99" s="63"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="71"/>
+      <c r="U99" s="71"/>
+      <c r="V99" s="71"/>
+      <c r="W99" s="71"/>
+      <c r="X99" s="71"/>
+      <c r="Y99" s="71"/>
+      <c r="Z99" s="71"/>
+      <c r="AA99" s="71"/>
+      <c r="AB99" s="71"/>
+      <c r="AC99" s="71"/>
+      <c r="AD99" s="71"/>
+      <c r="AE99" s="71"/>
+      <c r="AF99" s="71"/>
+      <c r="AG99" s="71"/>
+      <c r="AH99" s="71"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="66" t="s">
+      <c r="A101" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="66"/>
-      <c r="M101" s="66"/>
-      <c r="N101" s="66"/>
-      <c r="O101" s="66"/>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="66"/>
-      <c r="R101" s="66"/>
-      <c r="S101" s="66"/>
-      <c r="T101" s="66"/>
-      <c r="U101" s="66"/>
-      <c r="V101" s="66"/>
-      <c r="W101" s="66"/>
-      <c r="X101" s="66"/>
-      <c r="Y101" s="66"/>
-      <c r="Z101" s="66"/>
-      <c r="AA101" s="66"/>
-      <c r="AB101" s="66"/>
-      <c r="AC101" s="66"/>
-      <c r="AD101" s="66"/>
-      <c r="AE101" s="66"/>
-      <c r="AF101" s="66"/>
-      <c r="AG101" s="66"/>
-      <c r="AH101" s="66"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="65"/>
+      <c r="V101" s="65"/>
+      <c r="W101" s="65"/>
+      <c r="X101" s="65"/>
+      <c r="Y101" s="65"/>
+      <c r="Z101" s="65"/>
+      <c r="AA101" s="65"/>
+      <c r="AB101" s="65"/>
+      <c r="AC101" s="65"/>
+      <c r="AD101" s="65"/>
+      <c r="AE101" s="65"/>
+      <c r="AF101" s="65"/>
+      <c r="AG101" s="65"/>
+      <c r="AH101" s="65"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67" t="s">
+      <c r="A102" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="67"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="68"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="68"/>
-      <c r="P102" s="68"/>
-      <c r="Q102" s="68"/>
-      <c r="R102" s="68"/>
-      <c r="S102" s="68"/>
-      <c r="T102" s="68"/>
-      <c r="U102" s="68"/>
-      <c r="V102" s="68"/>
-      <c r="W102" s="68"/>
-      <c r="X102" s="68"/>
-      <c r="Y102" s="68"/>
-      <c r="Z102" s="68"/>
-      <c r="AA102" s="68"/>
-      <c r="AB102" s="68"/>
-      <c r="AC102" s="68"/>
-      <c r="AD102" s="68"/>
-      <c r="AE102" s="68"/>
-      <c r="AF102" s="68"/>
-      <c r="AG102" s="68"/>
-      <c r="AH102" s="68"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="67"/>
+      <c r="N102" s="67"/>
+      <c r="O102" s="67"/>
+      <c r="P102" s="67"/>
+      <c r="Q102" s="67"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
+      <c r="W102" s="67"/>
+      <c r="X102" s="67"/>
+      <c r="Y102" s="67"/>
+      <c r="Z102" s="67"/>
+      <c r="AA102" s="67"/>
+      <c r="AB102" s="67"/>
+      <c r="AC102" s="67"/>
+      <c r="AD102" s="67"/>
+      <c r="AE102" s="67"/>
+      <c r="AF102" s="67"/>
+      <c r="AG102" s="67"/>
+      <c r="AH102" s="67"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64" t="s">
+      <c r="D103" s="68"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
+      <c r="K103" s="68"/>
+      <c r="L103" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="64"/>
-      <c r="P103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="64"/>
-      <c r="S103" s="64"/>
-      <c r="T103" s="64"/>
-      <c r="U103" s="64" t="s">
+      <c r="M103" s="68"/>
+      <c r="N103" s="68"/>
+      <c r="O103" s="68"/>
+      <c r="P103" s="68"/>
+      <c r="Q103" s="68"/>
+      <c r="R103" s="68"/>
+      <c r="S103" s="68"/>
+      <c r="T103" s="68"/>
+      <c r="U103" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V103" s="64"/>
-      <c r="W103" s="64"/>
-      <c r="X103" s="64"/>
-      <c r="Y103" s="64"/>
-      <c r="Z103" s="64"/>
-      <c r="AA103" s="64"/>
-      <c r="AB103" s="64"/>
-      <c r="AC103" s="64"/>
-      <c r="AD103" s="64" t="s">
+      <c r="V103" s="68"/>
+      <c r="W103" s="68"/>
+      <c r="X103" s="68"/>
+      <c r="Y103" s="68"/>
+      <c r="Z103" s="68"/>
+      <c r="AA103" s="68"/>
+      <c r="AB103" s="68"/>
+      <c r="AC103" s="68"/>
+      <c r="AD103" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE103" s="64"/>
-      <c r="AF103" s="64"/>
-      <c r="AG103" s="64"/>
-      <c r="AH103" s="65" t="s">
+      <c r="AE103" s="68"/>
+      <c r="AF103" s="68"/>
+      <c r="AG103" s="68"/>
+      <c r="AH103" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="64"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
       <c r="C104" s="3">
         <v>1</v>
       </c>
@@ -12564,7 +12572,7 @@
       <c r="AG104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH104" s="64"/>
+      <c r="AH104" s="68"/>
     </row>
     <row r="105" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -15087,172 +15095,172 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="61" t="s">
+      <c r="A168" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="62"/>
-      <c r="C168" s="63"/>
-      <c r="D168" s="63"/>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="63"/>
-      <c r="H168" s="63"/>
-      <c r="I168" s="63"/>
-      <c r="J168" s="63"/>
-      <c r="K168" s="63"/>
-      <c r="L168" s="63"/>
-      <c r="M168" s="63"/>
-      <c r="N168" s="63"/>
-      <c r="O168" s="63"/>
-      <c r="P168" s="63"/>
-      <c r="Q168" s="63"/>
-      <c r="R168" s="63"/>
-      <c r="S168" s="63"/>
-      <c r="T168" s="63"/>
-      <c r="U168" s="63"/>
-      <c r="V168" s="63"/>
-      <c r="W168" s="63"/>
-      <c r="X168" s="63"/>
-      <c r="Y168" s="63"/>
-      <c r="Z168" s="63"/>
-      <c r="AA168" s="63"/>
-      <c r="AB168" s="63"/>
-      <c r="AC168" s="63"/>
-      <c r="AD168" s="63"/>
-      <c r="AE168" s="63"/>
-      <c r="AF168" s="63"/>
-      <c r="AG168" s="63"/>
-      <c r="AH168" s="63"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="71"/>
+      <c r="D168" s="71"/>
+      <c r="E168" s="71"/>
+      <c r="F168" s="71"/>
+      <c r="G168" s="71"/>
+      <c r="H168" s="71"/>
+      <c r="I168" s="71"/>
+      <c r="J168" s="71"/>
+      <c r="K168" s="71"/>
+      <c r="L168" s="71"/>
+      <c r="M168" s="71"/>
+      <c r="N168" s="71"/>
+      <c r="O168" s="71"/>
+      <c r="P168" s="71"/>
+      <c r="Q168" s="71"/>
+      <c r="R168" s="71"/>
+      <c r="S168" s="71"/>
+      <c r="T168" s="71"/>
+      <c r="U168" s="71"/>
+      <c r="V168" s="71"/>
+      <c r="W168" s="71"/>
+      <c r="X168" s="71"/>
+      <c r="Y168" s="71"/>
+      <c r="Z168" s="71"/>
+      <c r="AA168" s="71"/>
+      <c r="AB168" s="71"/>
+      <c r="AC168" s="71"/>
+      <c r="AD168" s="71"/>
+      <c r="AE168" s="71"/>
+      <c r="AF168" s="71"/>
+      <c r="AG168" s="71"/>
+      <c r="AH168" s="71"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="66" t="s">
+      <c r="A169" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="66"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="66"/>
-      <c r="K169" s="66"/>
-      <c r="L169" s="66"/>
-      <c r="M169" s="66"/>
-      <c r="N169" s="66"/>
-      <c r="O169" s="66"/>
-      <c r="P169" s="66"/>
-      <c r="Q169" s="66"/>
-      <c r="R169" s="66"/>
-      <c r="S169" s="66"/>
-      <c r="T169" s="66"/>
-      <c r="U169" s="66"/>
-      <c r="V169" s="66"/>
-      <c r="W169" s="66"/>
-      <c r="X169" s="66"/>
-      <c r="Y169" s="66"/>
-      <c r="Z169" s="66"/>
-      <c r="AA169" s="66"/>
-      <c r="AB169" s="66"/>
-      <c r="AC169" s="66"/>
-      <c r="AD169" s="66"/>
-      <c r="AE169" s="66"/>
-      <c r="AF169" s="66"/>
-      <c r="AG169" s="66"/>
-      <c r="AH169" s="66"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="65"/>
+      <c r="G169" s="65"/>
+      <c r="H169" s="65"/>
+      <c r="I169" s="65"/>
+      <c r="J169" s="65"/>
+      <c r="K169" s="65"/>
+      <c r="L169" s="65"/>
+      <c r="M169" s="65"/>
+      <c r="N169" s="65"/>
+      <c r="O169" s="65"/>
+      <c r="P169" s="65"/>
+      <c r="Q169" s="65"/>
+      <c r="R169" s="65"/>
+      <c r="S169" s="65"/>
+      <c r="T169" s="65"/>
+      <c r="U169" s="65"/>
+      <c r="V169" s="65"/>
+      <c r="W169" s="65"/>
+      <c r="X169" s="65"/>
+      <c r="Y169" s="65"/>
+      <c r="Z169" s="65"/>
+      <c r="AA169" s="65"/>
+      <c r="AB169" s="65"/>
+      <c r="AC169" s="65"/>
+      <c r="AD169" s="65"/>
+      <c r="AE169" s="65"/>
+      <c r="AF169" s="65"/>
+      <c r="AG169" s="65"/>
+      <c r="AH169" s="65"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="67" t="s">
+      <c r="A170" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="68"/>
-      <c r="F170" s="68"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="68"/>
-      <c r="I170" s="68"/>
-      <c r="J170" s="68"/>
-      <c r="K170" s="68"/>
-      <c r="L170" s="68"/>
-      <c r="M170" s="68"/>
-      <c r="N170" s="68"/>
-      <c r="O170" s="68"/>
-      <c r="P170" s="68"/>
-      <c r="Q170" s="68"/>
-      <c r="R170" s="68"/>
-      <c r="S170" s="68"/>
-      <c r="T170" s="68"/>
-      <c r="U170" s="68"/>
-      <c r="V170" s="68"/>
-      <c r="W170" s="68"/>
-      <c r="X170" s="68"/>
-      <c r="Y170" s="68"/>
-      <c r="Z170" s="68"/>
-      <c r="AA170" s="68"/>
-      <c r="AB170" s="68"/>
-      <c r="AC170" s="68"/>
-      <c r="AD170" s="68"/>
-      <c r="AE170" s="68"/>
-      <c r="AF170" s="68"/>
-      <c r="AG170" s="68"/>
-      <c r="AH170" s="68"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="67"/>
+      <c r="M170" s="67"/>
+      <c r="N170" s="67"/>
+      <c r="O170" s="67"/>
+      <c r="P170" s="67"/>
+      <c r="Q170" s="67"/>
+      <c r="R170" s="67"/>
+      <c r="S170" s="67"/>
+      <c r="T170" s="67"/>
+      <c r="U170" s="67"/>
+      <c r="V170" s="67"/>
+      <c r="W170" s="67"/>
+      <c r="X170" s="67"/>
+      <c r="Y170" s="67"/>
+      <c r="Z170" s="67"/>
+      <c r="AA170" s="67"/>
+      <c r="AB170" s="67"/>
+      <c r="AC170" s="67"/>
+      <c r="AD170" s="67"/>
+      <c r="AE170" s="67"/>
+      <c r="AF170" s="67"/>
+      <c r="AG170" s="67"/>
+      <c r="AH170" s="67"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="64" t="s">
+      <c r="A171" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="64" t="s">
+      <c r="B171" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="64" t="s">
+      <c r="C171" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="64"/>
-      <c r="E171" s="64"/>
-      <c r="F171" s="64"/>
-      <c r="G171" s="64"/>
-      <c r="H171" s="64"/>
-      <c r="I171" s="64"/>
-      <c r="J171" s="64"/>
-      <c r="K171" s="64"/>
-      <c r="L171" s="64" t="s">
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="68"/>
+      <c r="I171" s="68"/>
+      <c r="J171" s="68"/>
+      <c r="K171" s="68"/>
+      <c r="L171" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M171" s="64"/>
-      <c r="N171" s="64"/>
-      <c r="O171" s="64"/>
-      <c r="P171" s="64"/>
-      <c r="Q171" s="64"/>
-      <c r="R171" s="64"/>
-      <c r="S171" s="64"/>
-      <c r="T171" s="64"/>
-      <c r="U171" s="64" t="s">
+      <c r="M171" s="68"/>
+      <c r="N171" s="68"/>
+      <c r="O171" s="68"/>
+      <c r="P171" s="68"/>
+      <c r="Q171" s="68"/>
+      <c r="R171" s="68"/>
+      <c r="S171" s="68"/>
+      <c r="T171" s="68"/>
+      <c r="U171" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V171" s="64"/>
-      <c r="W171" s="64"/>
-      <c r="X171" s="64"/>
-      <c r="Y171" s="64"/>
-      <c r="Z171" s="64"/>
-      <c r="AA171" s="64"/>
-      <c r="AB171" s="64"/>
-      <c r="AC171" s="64"/>
-      <c r="AD171" s="64" t="s">
+      <c r="V171" s="68"/>
+      <c r="W171" s="68"/>
+      <c r="X171" s="68"/>
+      <c r="Y171" s="68"/>
+      <c r="Z171" s="68"/>
+      <c r="AA171" s="68"/>
+      <c r="AB171" s="68"/>
+      <c r="AC171" s="68"/>
+      <c r="AD171" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE171" s="64"/>
-      <c r="AF171" s="64"/>
-      <c r="AG171" s="64"/>
-      <c r="AH171" s="65" t="s">
+      <c r="AE171" s="68"/>
+      <c r="AF171" s="68"/>
+      <c r="AG171" s="68"/>
+      <c r="AH171" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="64"/>
-      <c r="B172" s="64"/>
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
       <c r="C172" s="3">
         <v>1</v>
       </c>
@@ -15346,7 +15354,7 @@
       <c r="AG172" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH172" s="64"/>
+      <c r="AH172" s="68"/>
     </row>
     <row r="173" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
@@ -16829,42 +16837,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="61" t="s">
+      <c r="A210" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="62"/>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="63"/>
-      <c r="I210" s="63"/>
-      <c r="J210" s="63"/>
-      <c r="K210" s="63"/>
-      <c r="L210" s="63"/>
-      <c r="M210" s="63"/>
-      <c r="N210" s="63"/>
-      <c r="O210" s="63"/>
-      <c r="P210" s="63"/>
-      <c r="Q210" s="63"/>
-      <c r="R210" s="63"/>
-      <c r="S210" s="63"/>
-      <c r="T210" s="63"/>
-      <c r="U210" s="63"/>
-      <c r="V210" s="63"/>
-      <c r="W210" s="63"/>
-      <c r="X210" s="63"/>
-      <c r="Y210" s="63"/>
-      <c r="Z210" s="63"/>
-      <c r="AA210" s="63"/>
-      <c r="AB210" s="63"/>
-      <c r="AC210" s="63"/>
-      <c r="AD210" s="63"/>
-      <c r="AE210" s="63"/>
-      <c r="AF210" s="63"/>
-      <c r="AG210" s="63"/>
-      <c r="AH210" s="63"/>
+      <c r="B210" s="70"/>
+      <c r="C210" s="71"/>
+      <c r="D210" s="71"/>
+      <c r="E210" s="71"/>
+      <c r="F210" s="71"/>
+      <c r="G210" s="71"/>
+      <c r="H210" s="71"/>
+      <c r="I210" s="71"/>
+      <c r="J210" s="71"/>
+      <c r="K210" s="71"/>
+      <c r="L210" s="71"/>
+      <c r="M210" s="71"/>
+      <c r="N210" s="71"/>
+      <c r="O210" s="71"/>
+      <c r="P210" s="71"/>
+      <c r="Q210" s="71"/>
+      <c r="R210" s="71"/>
+      <c r="S210" s="71"/>
+      <c r="T210" s="71"/>
+      <c r="U210" s="71"/>
+      <c r="V210" s="71"/>
+      <c r="W210" s="71"/>
+      <c r="X210" s="71"/>
+      <c r="Y210" s="71"/>
+      <c r="Z210" s="71"/>
+      <c r="AA210" s="71"/>
+      <c r="AB210" s="71"/>
+      <c r="AC210" s="71"/>
+      <c r="AD210" s="71"/>
+      <c r="AE210" s="71"/>
+      <c r="AF210" s="71"/>
+      <c r="AG210" s="71"/>
+      <c r="AH210" s="71"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16903,134 +16911,134 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="66" t="s">
+      <c r="A212" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="66"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="66"/>
-      <c r="K212" s="66"/>
-      <c r="L212" s="66"/>
-      <c r="M212" s="66"/>
-      <c r="N212" s="66"/>
-      <c r="O212" s="66"/>
-      <c r="P212" s="66"/>
-      <c r="Q212" s="66"/>
-      <c r="R212" s="66"/>
-      <c r="S212" s="66"/>
-      <c r="T212" s="66"/>
-      <c r="U212" s="66"/>
-      <c r="V212" s="66"/>
-      <c r="W212" s="66"/>
-      <c r="X212" s="66"/>
-      <c r="Y212" s="66"/>
-      <c r="Z212" s="66"/>
-      <c r="AA212" s="66"/>
-      <c r="AB212" s="66"/>
-      <c r="AC212" s="66"/>
-      <c r="AD212" s="66"/>
-      <c r="AE212" s="66"/>
-      <c r="AF212" s="66"/>
-      <c r="AG212" s="66"/>
-      <c r="AH212" s="66"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
+      <c r="L212" s="65"/>
+      <c r="M212" s="65"/>
+      <c r="N212" s="65"/>
+      <c r="O212" s="65"/>
+      <c r="P212" s="65"/>
+      <c r="Q212" s="65"/>
+      <c r="R212" s="65"/>
+      <c r="S212" s="65"/>
+      <c r="T212" s="65"/>
+      <c r="U212" s="65"/>
+      <c r="V212" s="65"/>
+      <c r="W212" s="65"/>
+      <c r="X212" s="65"/>
+      <c r="Y212" s="65"/>
+      <c r="Z212" s="65"/>
+      <c r="AA212" s="65"/>
+      <c r="AB212" s="65"/>
+      <c r="AC212" s="65"/>
+      <c r="AD212" s="65"/>
+      <c r="AE212" s="65"/>
+      <c r="AF212" s="65"/>
+      <c r="AG212" s="65"/>
+      <c r="AH212" s="65"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="67" t="s">
+      <c r="A213" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="67"/>
-      <c r="C213" s="67"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="67"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="67"/>
-      <c r="L213" s="67"/>
-      <c r="M213" s="67"/>
-      <c r="N213" s="67"/>
-      <c r="O213" s="67"/>
-      <c r="P213" s="67"/>
-      <c r="Q213" s="67"/>
-      <c r="R213" s="67"/>
-      <c r="S213" s="67"/>
-      <c r="T213" s="67"/>
-      <c r="U213" s="67"/>
-      <c r="V213" s="67"/>
-      <c r="W213" s="67"/>
-      <c r="X213" s="67"/>
-      <c r="Y213" s="67"/>
-      <c r="Z213" s="67"/>
-      <c r="AA213" s="67"/>
-      <c r="AB213" s="67"/>
-      <c r="AC213" s="67"/>
-      <c r="AD213" s="67"/>
-      <c r="AE213" s="67"/>
-      <c r="AF213" s="67"/>
-      <c r="AG213" s="67"/>
-      <c r="AH213" s="67"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="66"/>
+      <c r="E213" s="66"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="66"/>
+      <c r="J213" s="66"/>
+      <c r="K213" s="66"/>
+      <c r="L213" s="66"/>
+      <c r="M213" s="66"/>
+      <c r="N213" s="66"/>
+      <c r="O213" s="66"/>
+      <c r="P213" s="66"/>
+      <c r="Q213" s="66"/>
+      <c r="R213" s="66"/>
+      <c r="S213" s="66"/>
+      <c r="T213" s="66"/>
+      <c r="U213" s="66"/>
+      <c r="V213" s="66"/>
+      <c r="W213" s="66"/>
+      <c r="X213" s="66"/>
+      <c r="Y213" s="66"/>
+      <c r="Z213" s="66"/>
+      <c r="AA213" s="66"/>
+      <c r="AB213" s="66"/>
+      <c r="AC213" s="66"/>
+      <c r="AD213" s="66"/>
+      <c r="AE213" s="66"/>
+      <c r="AF213" s="66"/>
+      <c r="AG213" s="66"/>
+      <c r="AH213" s="66"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="64" t="s">
+      <c r="A214" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="64" t="s">
+      <c r="B214" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="64" t="s">
+      <c r="C214" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="64"/>
-      <c r="K214" s="64"/>
-      <c r="L214" s="64" t="s">
+      <c r="D214" s="68"/>
+      <c r="E214" s="68"/>
+      <c r="F214" s="68"/>
+      <c r="G214" s="68"/>
+      <c r="H214" s="68"/>
+      <c r="I214" s="68"/>
+      <c r="J214" s="68"/>
+      <c r="K214" s="68"/>
+      <c r="L214" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M214" s="64"/>
-      <c r="N214" s="64"/>
-      <c r="O214" s="64"/>
-      <c r="P214" s="64"/>
-      <c r="Q214" s="64"/>
-      <c r="R214" s="64"/>
-      <c r="S214" s="64"/>
-      <c r="T214" s="64"/>
-      <c r="U214" s="64" t="s">
+      <c r="M214" s="68"/>
+      <c r="N214" s="68"/>
+      <c r="O214" s="68"/>
+      <c r="P214" s="68"/>
+      <c r="Q214" s="68"/>
+      <c r="R214" s="68"/>
+      <c r="S214" s="68"/>
+      <c r="T214" s="68"/>
+      <c r="U214" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V214" s="64"/>
-      <c r="W214" s="64"/>
-      <c r="X214" s="64"/>
-      <c r="Y214" s="64"/>
-      <c r="Z214" s="64"/>
-      <c r="AA214" s="64"/>
-      <c r="AB214" s="64"/>
-      <c r="AC214" s="64"/>
-      <c r="AD214" s="64" t="s">
+      <c r="V214" s="68"/>
+      <c r="W214" s="68"/>
+      <c r="X214" s="68"/>
+      <c r="Y214" s="68"/>
+      <c r="Z214" s="68"/>
+      <c r="AA214" s="68"/>
+      <c r="AB214" s="68"/>
+      <c r="AC214" s="68"/>
+      <c r="AD214" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE214" s="64"/>
-      <c r="AF214" s="64"/>
-      <c r="AG214" s="64"/>
-      <c r="AH214" s="65" t="s">
+      <c r="AE214" s="68"/>
+      <c r="AF214" s="68"/>
+      <c r="AG214" s="68"/>
+      <c r="AH214" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="64"/>
-      <c r="B215" s="64"/>
+      <c r="A215" s="68"/>
+      <c r="B215" s="68"/>
       <c r="C215" s="3">
         <v>1</v>
       </c>
@@ -17124,7 +17132,7 @@
       <c r="AG215" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH215" s="64"/>
+      <c r="AH215" s="68"/>
     </row>
     <row r="216" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
@@ -19727,79 +19735,45 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="61" t="s">
+      <c r="A281" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="62"/>
-      <c r="C281" s="63"/>
-      <c r="D281" s="63"/>
-      <c r="E281" s="63"/>
-      <c r="F281" s="63"/>
-      <c r="G281" s="63"/>
-      <c r="H281" s="63"/>
-      <c r="I281" s="63"/>
-      <c r="J281" s="63"/>
-      <c r="K281" s="63"/>
-      <c r="L281" s="63"/>
-      <c r="M281" s="63"/>
-      <c r="N281" s="63"/>
-      <c r="O281" s="63"/>
-      <c r="P281" s="63"/>
-      <c r="Q281" s="63"/>
-      <c r="R281" s="63"/>
-      <c r="S281" s="63"/>
-      <c r="T281" s="63"/>
-      <c r="U281" s="63"/>
-      <c r="V281" s="63"/>
-      <c r="W281" s="63"/>
-      <c r="X281" s="63"/>
-      <c r="Y281" s="63"/>
-      <c r="Z281" s="63"/>
-      <c r="AA281" s="63"/>
-      <c r="AB281" s="63"/>
-      <c r="AC281" s="63"/>
-      <c r="AD281" s="63"/>
-      <c r="AE281" s="63"/>
-      <c r="AF281" s="63"/>
-      <c r="AG281" s="63"/>
-      <c r="AH281" s="63"/>
+      <c r="B281" s="70"/>
+      <c r="C281" s="71"/>
+      <c r="D281" s="71"/>
+      <c r="E281" s="71"/>
+      <c r="F281" s="71"/>
+      <c r="G281" s="71"/>
+      <c r="H281" s="71"/>
+      <c r="I281" s="71"/>
+      <c r="J281" s="71"/>
+      <c r="K281" s="71"/>
+      <c r="L281" s="71"/>
+      <c r="M281" s="71"/>
+      <c r="N281" s="71"/>
+      <c r="O281" s="71"/>
+      <c r="P281" s="71"/>
+      <c r="Q281" s="71"/>
+      <c r="R281" s="71"/>
+      <c r="S281" s="71"/>
+      <c r="T281" s="71"/>
+      <c r="U281" s="71"/>
+      <c r="V281" s="71"/>
+      <c r="W281" s="71"/>
+      <c r="X281" s="71"/>
+      <c r="Y281" s="71"/>
+      <c r="Z281" s="71"/>
+      <c r="AA281" s="71"/>
+      <c r="AB281" s="71"/>
+      <c r="AC281" s="71"/>
+      <c r="AD281" s="71"/>
+      <c r="AE281" s="71"/>
+      <c r="AF281" s="71"/>
+      <c r="AG281" s="71"/>
+      <c r="AH281" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19816,6 +19790,40 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19827,8 +19835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A414" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F435" sqref="F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19849,134 +19857,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64" t="s">
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -20070,7 +20078,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="64"/>
+      <c r="AH4" s="68"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -22727,42 +22735,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="62"/>
-      <c r="W71" s="62"/>
-      <c r="X71" s="62"/>
-      <c r="Y71" s="62"/>
-      <c r="Z71" s="62"/>
-      <c r="AA71" s="62"/>
-      <c r="AB71" s="62"/>
-      <c r="AC71" s="62"/>
-      <c r="AD71" s="62"/>
-      <c r="AE71" s="62"/>
-      <c r="AF71" s="62"/>
-      <c r="AG71" s="62"/>
-      <c r="AH71" s="62"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
+      <c r="S71" s="70"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+      <c r="W71" s="70"/>
+      <c r="X71" s="70"/>
+      <c r="Y71" s="70"/>
+      <c r="Z71" s="70"/>
+      <c r="AA71" s="70"/>
+      <c r="AB71" s="70"/>
+      <c r="AC71" s="70"/>
+      <c r="AD71" s="70"/>
+      <c r="AE71" s="70"/>
+      <c r="AF71" s="70"/>
+      <c r="AG71" s="70"/>
+      <c r="AH71" s="70"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22801,134 +22809,134 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66" t="s">
+      <c r="A73" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="66"/>
-      <c r="S73" s="66"/>
-      <c r="T73" s="66"/>
-      <c r="U73" s="66"/>
-      <c r="V73" s="66"/>
-      <c r="W73" s="66"/>
-      <c r="X73" s="66"/>
-      <c r="Y73" s="66"/>
-      <c r="Z73" s="66"/>
-      <c r="AA73" s="66"/>
-      <c r="AB73" s="66"/>
-      <c r="AC73" s="66"/>
-      <c r="AD73" s="66"/>
-      <c r="AE73" s="66"/>
-      <c r="AF73" s="66"/>
-      <c r="AG73" s="66"/>
-      <c r="AH73" s="66"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="65"/>
+      <c r="R73" s="65"/>
+      <c r="S73" s="65"/>
+      <c r="T73" s="65"/>
+      <c r="U73" s="65"/>
+      <c r="V73" s="65"/>
+      <c r="W73" s="65"/>
+      <c r="X73" s="65"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+      <c r="AA73" s="65"/>
+      <c r="AB73" s="65"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="65"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-      <c r="X74" s="67"/>
-      <c r="Y74" s="67"/>
-      <c r="Z74" s="67"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="67"/>
-      <c r="AD74" s="67"/>
-      <c r="AE74" s="67"/>
-      <c r="AF74" s="67"/>
-      <c r="AG74" s="67"/>
-      <c r="AH74" s="67"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="66"/>
+      <c r="AB74" s="66"/>
+      <c r="AC74" s="66"/>
+      <c r="AD74" s="66"/>
+      <c r="AE74" s="66"/>
+      <c r="AF74" s="66"/>
+      <c r="AG74" s="66"/>
+      <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64" t="s">
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="64"/>
-      <c r="R75" s="64"/>
-      <c r="S75" s="64"/>
-      <c r="T75" s="64"/>
-      <c r="U75" s="64" t="s">
+      <c r="M75" s="68"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="68"/>
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="U75" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V75" s="64"/>
-      <c r="W75" s="64"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="64"/>
-      <c r="AA75" s="64"/>
-      <c r="AB75" s="64"/>
-      <c r="AC75" s="64"/>
-      <c r="AD75" s="64" t="s">
+      <c r="V75" s="68"/>
+      <c r="W75" s="68"/>
+      <c r="X75" s="68"/>
+      <c r="Y75" s="68"/>
+      <c r="Z75" s="68"/>
+      <c r="AA75" s="68"/>
+      <c r="AB75" s="68"/>
+      <c r="AC75" s="68"/>
+      <c r="AD75" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE75" s="64"/>
-      <c r="AF75" s="64"/>
-      <c r="AG75" s="64"/>
-      <c r="AH75" s="65" t="s">
+      <c r="AE75" s="68"/>
+      <c r="AF75" s="68"/>
+      <c r="AG75" s="68"/>
+      <c r="AH75" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="3">
         <v>1</v>
       </c>
@@ -23022,7 +23030,7 @@
       <c r="AG76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH76" s="64"/>
+      <c r="AH76" s="68"/>
     </row>
     <row r="77" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
@@ -25581,172 +25589,172 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="62"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
-      <c r="M141" s="62"/>
-      <c r="N141" s="62"/>
-      <c r="O141" s="62"/>
-      <c r="P141" s="62"/>
-      <c r="Q141" s="62"/>
-      <c r="R141" s="62"/>
-      <c r="S141" s="62"/>
-      <c r="T141" s="62"/>
-      <c r="U141" s="62"/>
-      <c r="V141" s="62"/>
-      <c r="W141" s="62"/>
-      <c r="X141" s="62"/>
-      <c r="Y141" s="62"/>
-      <c r="Z141" s="62"/>
-      <c r="AA141" s="62"/>
-      <c r="AB141" s="62"/>
-      <c r="AC141" s="62"/>
-      <c r="AD141" s="62"/>
-      <c r="AE141" s="62"/>
-      <c r="AF141" s="62"/>
-      <c r="AG141" s="62"/>
-      <c r="AH141" s="62"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="70"/>
+      <c r="G141" s="70"/>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="70"/>
+      <c r="L141" s="70"/>
+      <c r="M141" s="70"/>
+      <c r="N141" s="70"/>
+      <c r="O141" s="70"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="70"/>
+      <c r="R141" s="70"/>
+      <c r="S141" s="70"/>
+      <c r="T141" s="70"/>
+      <c r="U141" s="70"/>
+      <c r="V141" s="70"/>
+      <c r="W141" s="70"/>
+      <c r="X141" s="70"/>
+      <c r="Y141" s="70"/>
+      <c r="Z141" s="70"/>
+      <c r="AA141" s="70"/>
+      <c r="AB141" s="70"/>
+      <c r="AC141" s="70"/>
+      <c r="AD141" s="70"/>
+      <c r="AE141" s="70"/>
+      <c r="AF141" s="70"/>
+      <c r="AG141" s="70"/>
+      <c r="AH141" s="70"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="66"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="66"/>
-      <c r="M142" s="66"/>
-      <c r="N142" s="66"/>
-      <c r="O142" s="66"/>
-      <c r="P142" s="66"/>
-      <c r="Q142" s="66"/>
-      <c r="R142" s="66"/>
-      <c r="S142" s="66"/>
-      <c r="T142" s="66"/>
-      <c r="U142" s="66"/>
-      <c r="V142" s="66"/>
-      <c r="W142" s="66"/>
-      <c r="X142" s="66"/>
-      <c r="Y142" s="66"/>
-      <c r="Z142" s="66"/>
-      <c r="AA142" s="66"/>
-      <c r="AB142" s="66"/>
-      <c r="AC142" s="66"/>
-      <c r="AD142" s="66"/>
-      <c r="AE142" s="66"/>
-      <c r="AF142" s="66"/>
-      <c r="AG142" s="66"/>
-      <c r="AH142" s="66"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
+      <c r="L142" s="65"/>
+      <c r="M142" s="65"/>
+      <c r="N142" s="65"/>
+      <c r="O142" s="65"/>
+      <c r="P142" s="65"/>
+      <c r="Q142" s="65"/>
+      <c r="R142" s="65"/>
+      <c r="S142" s="65"/>
+      <c r="T142" s="65"/>
+      <c r="U142" s="65"/>
+      <c r="V142" s="65"/>
+      <c r="W142" s="65"/>
+      <c r="X142" s="65"/>
+      <c r="Y142" s="65"/>
+      <c r="Z142" s="65"/>
+      <c r="AA142" s="65"/>
+      <c r="AB142" s="65"/>
+      <c r="AC142" s="65"/>
+      <c r="AD142" s="65"/>
+      <c r="AE142" s="65"/>
+      <c r="AF142" s="65"/>
+      <c r="AG142" s="65"/>
+      <c r="AH142" s="65"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="67" t="s">
+      <c r="A143" s="66" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="67"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="67"/>
-      <c r="O143" s="67"/>
-      <c r="P143" s="67"/>
-      <c r="Q143" s="67"/>
-      <c r="R143" s="67"/>
-      <c r="S143" s="67"/>
-      <c r="T143" s="67"/>
-      <c r="U143" s="67"/>
-      <c r="V143" s="67"/>
-      <c r="W143" s="67"/>
-      <c r="X143" s="67"/>
-      <c r="Y143" s="67"/>
-      <c r="Z143" s="67"/>
-      <c r="AA143" s="67"/>
-      <c r="AB143" s="67"/>
-      <c r="AC143" s="67"/>
-      <c r="AD143" s="67"/>
-      <c r="AE143" s="67"/>
-      <c r="AF143" s="67"/>
-      <c r="AG143" s="67"/>
-      <c r="AH143" s="67"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="66"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
+      <c r="J143" s="66"/>
+      <c r="K143" s="66"/>
+      <c r="L143" s="66"/>
+      <c r="M143" s="66"/>
+      <c r="N143" s="66"/>
+      <c r="O143" s="66"/>
+      <c r="P143" s="66"/>
+      <c r="Q143" s="66"/>
+      <c r="R143" s="66"/>
+      <c r="S143" s="66"/>
+      <c r="T143" s="66"/>
+      <c r="U143" s="66"/>
+      <c r="V143" s="66"/>
+      <c r="W143" s="66"/>
+      <c r="X143" s="66"/>
+      <c r="Y143" s="66"/>
+      <c r="Z143" s="66"/>
+      <c r="AA143" s="66"/>
+      <c r="AB143" s="66"/>
+      <c r="AC143" s="66"/>
+      <c r="AD143" s="66"/>
+      <c r="AE143" s="66"/>
+      <c r="AF143" s="66"/>
+      <c r="AG143" s="66"/>
+      <c r="AH143" s="66"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="64" t="s">
+      <c r="A144" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="64" t="s">
+      <c r="B144" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="64" t="s">
+      <c r="C144" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="64"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="64"/>
-      <c r="L144" s="64" t="s">
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="68"/>
+      <c r="L144" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M144" s="64"/>
-      <c r="N144" s="64"/>
-      <c r="O144" s="64"/>
-      <c r="P144" s="64"/>
-      <c r="Q144" s="64"/>
-      <c r="R144" s="64"/>
-      <c r="S144" s="64"/>
-      <c r="T144" s="64"/>
-      <c r="U144" s="64" t="s">
+      <c r="M144" s="68"/>
+      <c r="N144" s="68"/>
+      <c r="O144" s="68"/>
+      <c r="P144" s="68"/>
+      <c r="Q144" s="68"/>
+      <c r="R144" s="68"/>
+      <c r="S144" s="68"/>
+      <c r="T144" s="68"/>
+      <c r="U144" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V144" s="64"/>
-      <c r="W144" s="64"/>
-      <c r="X144" s="64"/>
-      <c r="Y144" s="64"/>
-      <c r="Z144" s="64"/>
-      <c r="AA144" s="64"/>
-      <c r="AB144" s="64"/>
-      <c r="AC144" s="64"/>
-      <c r="AD144" s="64" t="s">
+      <c r="V144" s="68"/>
+      <c r="W144" s="68"/>
+      <c r="X144" s="68"/>
+      <c r="Y144" s="68"/>
+      <c r="Z144" s="68"/>
+      <c r="AA144" s="68"/>
+      <c r="AB144" s="68"/>
+      <c r="AC144" s="68"/>
+      <c r="AD144" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE144" s="64"/>
-      <c r="AF144" s="64"/>
-      <c r="AG144" s="64"/>
-      <c r="AH144" s="65" t="s">
+      <c r="AE144" s="68"/>
+      <c r="AF144" s="68"/>
+      <c r="AG144" s="68"/>
+      <c r="AH144" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="64"/>
+      <c r="A145" s="68"/>
+      <c r="B145" s="68"/>
       <c r="C145" s="3">
         <v>1</v>
       </c>
@@ -25840,7 +25848,7 @@
       <c r="AG145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH145" s="64"/>
+      <c r="AH145" s="68"/>
     </row>
     <row r="146" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
@@ -28203,172 +28211,172 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="61" t="s">
+      <c r="A205" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="62"/>
-      <c r="C205" s="62"/>
-      <c r="D205" s="62"/>
-      <c r="E205" s="62"/>
-      <c r="F205" s="62"/>
-      <c r="G205" s="62"/>
-      <c r="H205" s="62"/>
-      <c r="I205" s="62"/>
-      <c r="J205" s="62"/>
-      <c r="K205" s="62"/>
-      <c r="L205" s="62"/>
-      <c r="M205" s="62"/>
-      <c r="N205" s="62"/>
-      <c r="O205" s="62"/>
-      <c r="P205" s="62"/>
-      <c r="Q205" s="62"/>
-      <c r="R205" s="62"/>
-      <c r="S205" s="62"/>
-      <c r="T205" s="62"/>
-      <c r="U205" s="62"/>
-      <c r="V205" s="62"/>
-      <c r="W205" s="62"/>
-      <c r="X205" s="62"/>
-      <c r="Y205" s="62"/>
-      <c r="Z205" s="62"/>
-      <c r="AA205" s="62"/>
-      <c r="AB205" s="62"/>
-      <c r="AC205" s="62"/>
-      <c r="AD205" s="62"/>
-      <c r="AE205" s="62"/>
-      <c r="AF205" s="62"/>
-      <c r="AG205" s="62"/>
-      <c r="AH205" s="62"/>
+      <c r="B205" s="70"/>
+      <c r="C205" s="70"/>
+      <c r="D205" s="70"/>
+      <c r="E205" s="70"/>
+      <c r="F205" s="70"/>
+      <c r="G205" s="70"/>
+      <c r="H205" s="70"/>
+      <c r="I205" s="70"/>
+      <c r="J205" s="70"/>
+      <c r="K205" s="70"/>
+      <c r="L205" s="70"/>
+      <c r="M205" s="70"/>
+      <c r="N205" s="70"/>
+      <c r="O205" s="70"/>
+      <c r="P205" s="70"/>
+      <c r="Q205" s="70"/>
+      <c r="R205" s="70"/>
+      <c r="S205" s="70"/>
+      <c r="T205" s="70"/>
+      <c r="U205" s="70"/>
+      <c r="V205" s="70"/>
+      <c r="W205" s="70"/>
+      <c r="X205" s="70"/>
+      <c r="Y205" s="70"/>
+      <c r="Z205" s="70"/>
+      <c r="AA205" s="70"/>
+      <c r="AB205" s="70"/>
+      <c r="AC205" s="70"/>
+      <c r="AD205" s="70"/>
+      <c r="AE205" s="70"/>
+      <c r="AF205" s="70"/>
+      <c r="AG205" s="70"/>
+      <c r="AH205" s="70"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="66" t="s">
+      <c r="A207" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="66"/>
-      <c r="C207" s="66"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66"/>
-      <c r="I207" s="66"/>
-      <c r="J207" s="66"/>
-      <c r="K207" s="66"/>
-      <c r="L207" s="66"/>
-      <c r="M207" s="66"/>
-      <c r="N207" s="66"/>
-      <c r="O207" s="66"/>
-      <c r="P207" s="66"/>
-      <c r="Q207" s="66"/>
-      <c r="R207" s="66"/>
-      <c r="S207" s="66"/>
-      <c r="T207" s="66"/>
-      <c r="U207" s="66"/>
-      <c r="V207" s="66"/>
-      <c r="W207" s="66"/>
-      <c r="X207" s="66"/>
-      <c r="Y207" s="66"/>
-      <c r="Z207" s="66"/>
-      <c r="AA207" s="66"/>
-      <c r="AB207" s="66"/>
-      <c r="AC207" s="66"/>
-      <c r="AD207" s="66"/>
-      <c r="AE207" s="66"/>
-      <c r="AF207" s="66"/>
-      <c r="AG207" s="66"/>
-      <c r="AH207" s="66"/>
+      <c r="B207" s="65"/>
+      <c r="C207" s="65"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="65"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="65"/>
+      <c r="K207" s="65"/>
+      <c r="L207" s="65"/>
+      <c r="M207" s="65"/>
+      <c r="N207" s="65"/>
+      <c r="O207" s="65"/>
+      <c r="P207" s="65"/>
+      <c r="Q207" s="65"/>
+      <c r="R207" s="65"/>
+      <c r="S207" s="65"/>
+      <c r="T207" s="65"/>
+      <c r="U207" s="65"/>
+      <c r="V207" s="65"/>
+      <c r="W207" s="65"/>
+      <c r="X207" s="65"/>
+      <c r="Y207" s="65"/>
+      <c r="Z207" s="65"/>
+      <c r="AA207" s="65"/>
+      <c r="AB207" s="65"/>
+      <c r="AC207" s="65"/>
+      <c r="AD207" s="65"/>
+      <c r="AE207" s="65"/>
+      <c r="AF207" s="65"/>
+      <c r="AG207" s="65"/>
+      <c r="AH207" s="65"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="67" t="s">
+      <c r="A208" s="66" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="67"/>
-      <c r="C208" s="67"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="67"/>
-      <c r="K208" s="67"/>
-      <c r="L208" s="67"/>
-      <c r="M208" s="67"/>
-      <c r="N208" s="67"/>
-      <c r="O208" s="67"/>
-      <c r="P208" s="67"/>
-      <c r="Q208" s="67"/>
-      <c r="R208" s="67"/>
-      <c r="S208" s="67"/>
-      <c r="T208" s="67"/>
-      <c r="U208" s="67"/>
-      <c r="V208" s="67"/>
-      <c r="W208" s="67"/>
-      <c r="X208" s="67"/>
-      <c r="Y208" s="67"/>
-      <c r="Z208" s="67"/>
-      <c r="AA208" s="67"/>
-      <c r="AB208" s="67"/>
-      <c r="AC208" s="67"/>
-      <c r="AD208" s="67"/>
-      <c r="AE208" s="67"/>
-      <c r="AF208" s="67"/>
-      <c r="AG208" s="67"/>
-      <c r="AH208" s="67"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="66"/>
+      <c r="E208" s="66"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
+      <c r="I208" s="66"/>
+      <c r="J208" s="66"/>
+      <c r="K208" s="66"/>
+      <c r="L208" s="66"/>
+      <c r="M208" s="66"/>
+      <c r="N208" s="66"/>
+      <c r="O208" s="66"/>
+      <c r="P208" s="66"/>
+      <c r="Q208" s="66"/>
+      <c r="R208" s="66"/>
+      <c r="S208" s="66"/>
+      <c r="T208" s="66"/>
+      <c r="U208" s="66"/>
+      <c r="V208" s="66"/>
+      <c r="W208" s="66"/>
+      <c r="X208" s="66"/>
+      <c r="Y208" s="66"/>
+      <c r="Z208" s="66"/>
+      <c r="AA208" s="66"/>
+      <c r="AB208" s="66"/>
+      <c r="AC208" s="66"/>
+      <c r="AD208" s="66"/>
+      <c r="AE208" s="66"/>
+      <c r="AF208" s="66"/>
+      <c r="AG208" s="66"/>
+      <c r="AH208" s="66"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="64" t="s">
+      <c r="A209" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="64" t="s">
+      <c r="B209" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="64" t="s">
+      <c r="C209" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="64"/>
-      <c r="J209" s="64"/>
-      <c r="K209" s="64"/>
-      <c r="L209" s="64" t="s">
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="68"/>
+      <c r="I209" s="68"/>
+      <c r="J209" s="68"/>
+      <c r="K209" s="68"/>
+      <c r="L209" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M209" s="64"/>
-      <c r="N209" s="64"/>
-      <c r="O209" s="64"/>
-      <c r="P209" s="64"/>
-      <c r="Q209" s="64"/>
-      <c r="R209" s="64"/>
-      <c r="S209" s="64"/>
-      <c r="T209" s="64"/>
-      <c r="U209" s="64" t="s">
+      <c r="M209" s="68"/>
+      <c r="N209" s="68"/>
+      <c r="O209" s="68"/>
+      <c r="P209" s="68"/>
+      <c r="Q209" s="68"/>
+      <c r="R209" s="68"/>
+      <c r="S209" s="68"/>
+      <c r="T209" s="68"/>
+      <c r="U209" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V209" s="64"/>
-      <c r="W209" s="64"/>
-      <c r="X209" s="64"/>
-      <c r="Y209" s="64"/>
-      <c r="Z209" s="64"/>
-      <c r="AA209" s="64"/>
-      <c r="AB209" s="64"/>
-      <c r="AC209" s="64"/>
-      <c r="AD209" s="64" t="s">
+      <c r="V209" s="68"/>
+      <c r="W209" s="68"/>
+      <c r="X209" s="68"/>
+      <c r="Y209" s="68"/>
+      <c r="Z209" s="68"/>
+      <c r="AA209" s="68"/>
+      <c r="AB209" s="68"/>
+      <c r="AC209" s="68"/>
+      <c r="AD209" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE209" s="64"/>
-      <c r="AF209" s="64"/>
-      <c r="AG209" s="64"/>
-      <c r="AH209" s="65" t="s">
+      <c r="AE209" s="68"/>
+      <c r="AF209" s="68"/>
+      <c r="AG209" s="68"/>
+      <c r="AH209" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="64"/>
-      <c r="B210" s="64"/>
+      <c r="A210" s="68"/>
+      <c r="B210" s="68"/>
       <c r="C210" s="3">
         <v>1</v>
       </c>
@@ -28462,7 +28470,7 @@
       <c r="AG210" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH210" s="64"/>
+      <c r="AH210" s="68"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
@@ -30162,11 +30170,11 @@
       <c r="AG252" s="9"/>
       <c r="AH252" s="9"/>
     </row>
-    <row r="253" spans="1:34" s="72" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="69" t="s">
+    <row r="253" spans="1:34" s="64" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="61" t="s">
         <v>919</v>
       </c>
-      <c r="B253" s="70" t="s">
+      <c r="B253" s="62" t="s">
         <v>920</v>
       </c>
       <c r="C253" s="60" t="s">
@@ -30179,7 +30187,7 @@
       <c r="H253" s="53"/>
       <c r="I253" s="53"/>
       <c r="J253" s="53"/>
-      <c r="K253" s="71"/>
+      <c r="K253" s="63"/>
       <c r="L253" s="53"/>
       <c r="M253" s="53"/>
       <c r="N253" s="53"/>
@@ -30188,7 +30196,7 @@
       <c r="Q253" s="53"/>
       <c r="R253" s="53"/>
       <c r="S253" s="53"/>
-      <c r="T253" s="71"/>
+      <c r="T253" s="63"/>
       <c r="U253" s="53"/>
       <c r="V253" s="53"/>
       <c r="W253" s="53"/>
@@ -30197,12 +30205,12 @@
       <c r="Z253" s="53"/>
       <c r="AA253" s="53"/>
       <c r="AB253" s="53"/>
-      <c r="AC253" s="71"/>
+      <c r="AC253" s="63"/>
       <c r="AD253" s="53"/>
       <c r="AE253" s="53"/>
       <c r="AF253" s="53"/>
-      <c r="AG253" s="71"/>
-      <c r="AH253" s="71"/>
+      <c r="AG253" s="63"/>
+      <c r="AH253" s="63"/>
     </row>
     <row r="254" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="48" t="s">
@@ -30287,172 +30295,172 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="61" t="s">
+      <c r="A256" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="62"/>
-      <c r="C256" s="62"/>
-      <c r="D256" s="62"/>
-      <c r="E256" s="62"/>
-      <c r="F256" s="62"/>
-      <c r="G256" s="62"/>
-      <c r="H256" s="62"/>
-      <c r="I256" s="62"/>
-      <c r="J256" s="62"/>
-      <c r="K256" s="62"/>
-      <c r="L256" s="62"/>
-      <c r="M256" s="62"/>
-      <c r="N256" s="62"/>
-      <c r="O256" s="62"/>
-      <c r="P256" s="62"/>
-      <c r="Q256" s="62"/>
-      <c r="R256" s="62"/>
-      <c r="S256" s="62"/>
-      <c r="T256" s="62"/>
-      <c r="U256" s="62"/>
-      <c r="V256" s="62"/>
-      <c r="W256" s="62"/>
-      <c r="X256" s="62"/>
-      <c r="Y256" s="62"/>
-      <c r="Z256" s="62"/>
-      <c r="AA256" s="62"/>
-      <c r="AB256" s="62"/>
-      <c r="AC256" s="62"/>
-      <c r="AD256" s="62"/>
-      <c r="AE256" s="62"/>
-      <c r="AF256" s="62"/>
-      <c r="AG256" s="62"/>
-      <c r="AH256" s="62"/>
+      <c r="B256" s="70"/>
+      <c r="C256" s="70"/>
+      <c r="D256" s="70"/>
+      <c r="E256" s="70"/>
+      <c r="F256" s="70"/>
+      <c r="G256" s="70"/>
+      <c r="H256" s="70"/>
+      <c r="I256" s="70"/>
+      <c r="J256" s="70"/>
+      <c r="K256" s="70"/>
+      <c r="L256" s="70"/>
+      <c r="M256" s="70"/>
+      <c r="N256" s="70"/>
+      <c r="O256" s="70"/>
+      <c r="P256" s="70"/>
+      <c r="Q256" s="70"/>
+      <c r="R256" s="70"/>
+      <c r="S256" s="70"/>
+      <c r="T256" s="70"/>
+      <c r="U256" s="70"/>
+      <c r="V256" s="70"/>
+      <c r="W256" s="70"/>
+      <c r="X256" s="70"/>
+      <c r="Y256" s="70"/>
+      <c r="Z256" s="70"/>
+      <c r="AA256" s="70"/>
+      <c r="AB256" s="70"/>
+      <c r="AC256" s="70"/>
+      <c r="AD256" s="70"/>
+      <c r="AE256" s="70"/>
+      <c r="AF256" s="70"/>
+      <c r="AG256" s="70"/>
+      <c r="AH256" s="70"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="66" t="s">
+      <c r="A258" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="66"/>
-      <c r="C258" s="66"/>
-      <c r="D258" s="66"/>
-      <c r="E258" s="66"/>
-      <c r="F258" s="66"/>
-      <c r="G258" s="66"/>
-      <c r="H258" s="66"/>
-      <c r="I258" s="66"/>
-      <c r="J258" s="66"/>
-      <c r="K258" s="66"/>
-      <c r="L258" s="66"/>
-      <c r="M258" s="66"/>
-      <c r="N258" s="66"/>
-      <c r="O258" s="66"/>
-      <c r="P258" s="66"/>
-      <c r="Q258" s="66"/>
-      <c r="R258" s="66"/>
-      <c r="S258" s="66"/>
-      <c r="T258" s="66"/>
-      <c r="U258" s="66"/>
-      <c r="V258" s="66"/>
-      <c r="W258" s="66"/>
-      <c r="X258" s="66"/>
-      <c r="Y258" s="66"/>
-      <c r="Z258" s="66"/>
-      <c r="AA258" s="66"/>
-      <c r="AB258" s="66"/>
-      <c r="AC258" s="66"/>
-      <c r="AD258" s="66"/>
-      <c r="AE258" s="66"/>
-      <c r="AF258" s="66"/>
-      <c r="AG258" s="66"/>
-      <c r="AH258" s="66"/>
+      <c r="B258" s="65"/>
+      <c r="C258" s="65"/>
+      <c r="D258" s="65"/>
+      <c r="E258" s="65"/>
+      <c r="F258" s="65"/>
+      <c r="G258" s="65"/>
+      <c r="H258" s="65"/>
+      <c r="I258" s="65"/>
+      <c r="J258" s="65"/>
+      <c r="K258" s="65"/>
+      <c r="L258" s="65"/>
+      <c r="M258" s="65"/>
+      <c r="N258" s="65"/>
+      <c r="O258" s="65"/>
+      <c r="P258" s="65"/>
+      <c r="Q258" s="65"/>
+      <c r="R258" s="65"/>
+      <c r="S258" s="65"/>
+      <c r="T258" s="65"/>
+      <c r="U258" s="65"/>
+      <c r="V258" s="65"/>
+      <c r="W258" s="65"/>
+      <c r="X258" s="65"/>
+      <c r="Y258" s="65"/>
+      <c r="Z258" s="65"/>
+      <c r="AA258" s="65"/>
+      <c r="AB258" s="65"/>
+      <c r="AC258" s="65"/>
+      <c r="AD258" s="65"/>
+      <c r="AE258" s="65"/>
+      <c r="AF258" s="65"/>
+      <c r="AG258" s="65"/>
+      <c r="AH258" s="65"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="67" t="s">
+      <c r="A259" s="66" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="67"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="67"/>
-      <c r="E259" s="67"/>
-      <c r="F259" s="67"/>
-      <c r="G259" s="67"/>
-      <c r="H259" s="67"/>
-      <c r="I259" s="67"/>
-      <c r="J259" s="67"/>
-      <c r="K259" s="67"/>
-      <c r="L259" s="67"/>
-      <c r="M259" s="67"/>
-      <c r="N259" s="67"/>
-      <c r="O259" s="67"/>
-      <c r="P259" s="67"/>
-      <c r="Q259" s="67"/>
-      <c r="R259" s="67"/>
-      <c r="S259" s="67"/>
-      <c r="T259" s="67"/>
-      <c r="U259" s="67"/>
-      <c r="V259" s="67"/>
-      <c r="W259" s="67"/>
-      <c r="X259" s="67"/>
-      <c r="Y259" s="67"/>
-      <c r="Z259" s="67"/>
-      <c r="AA259" s="67"/>
-      <c r="AB259" s="67"/>
-      <c r="AC259" s="67"/>
-      <c r="AD259" s="67"/>
-      <c r="AE259" s="67"/>
-      <c r="AF259" s="67"/>
-      <c r="AG259" s="67"/>
-      <c r="AH259" s="67"/>
+      <c r="B259" s="66"/>
+      <c r="C259" s="66"/>
+      <c r="D259" s="66"/>
+      <c r="E259" s="66"/>
+      <c r="F259" s="66"/>
+      <c r="G259" s="66"/>
+      <c r="H259" s="66"/>
+      <c r="I259" s="66"/>
+      <c r="J259" s="66"/>
+      <c r="K259" s="66"/>
+      <c r="L259" s="66"/>
+      <c r="M259" s="66"/>
+      <c r="N259" s="66"/>
+      <c r="O259" s="66"/>
+      <c r="P259" s="66"/>
+      <c r="Q259" s="66"/>
+      <c r="R259" s="66"/>
+      <c r="S259" s="66"/>
+      <c r="T259" s="66"/>
+      <c r="U259" s="66"/>
+      <c r="V259" s="66"/>
+      <c r="W259" s="66"/>
+      <c r="X259" s="66"/>
+      <c r="Y259" s="66"/>
+      <c r="Z259" s="66"/>
+      <c r="AA259" s="66"/>
+      <c r="AB259" s="66"/>
+      <c r="AC259" s="66"/>
+      <c r="AD259" s="66"/>
+      <c r="AE259" s="66"/>
+      <c r="AF259" s="66"/>
+      <c r="AG259" s="66"/>
+      <c r="AH259" s="66"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="64" t="s">
+      <c r="A260" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="64" t="s">
+      <c r="B260" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="64" t="s">
+      <c r="C260" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
-      <c r="F260" s="64"/>
-      <c r="G260" s="64"/>
-      <c r="H260" s="64"/>
-      <c r="I260" s="64"/>
-      <c r="J260" s="64"/>
-      <c r="K260" s="64"/>
-      <c r="L260" s="64" t="s">
+      <c r="D260" s="68"/>
+      <c r="E260" s="68"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="I260" s="68"/>
+      <c r="J260" s="68"/>
+      <c r="K260" s="68"/>
+      <c r="L260" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M260" s="64"/>
-      <c r="N260" s="64"/>
-      <c r="O260" s="64"/>
-      <c r="P260" s="64"/>
-      <c r="Q260" s="64"/>
-      <c r="R260" s="64"/>
-      <c r="S260" s="64"/>
-      <c r="T260" s="64"/>
-      <c r="U260" s="64" t="s">
+      <c r="M260" s="68"/>
+      <c r="N260" s="68"/>
+      <c r="O260" s="68"/>
+      <c r="P260" s="68"/>
+      <c r="Q260" s="68"/>
+      <c r="R260" s="68"/>
+      <c r="S260" s="68"/>
+      <c r="T260" s="68"/>
+      <c r="U260" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V260" s="64"/>
-      <c r="W260" s="64"/>
-      <c r="X260" s="64"/>
-      <c r="Y260" s="64"/>
-      <c r="Z260" s="64"/>
-      <c r="AA260" s="64"/>
-      <c r="AB260" s="64"/>
-      <c r="AC260" s="64"/>
-      <c r="AD260" s="64" t="s">
+      <c r="V260" s="68"/>
+      <c r="W260" s="68"/>
+      <c r="X260" s="68"/>
+      <c r="Y260" s="68"/>
+      <c r="Z260" s="68"/>
+      <c r="AA260" s="68"/>
+      <c r="AB260" s="68"/>
+      <c r="AC260" s="68"/>
+      <c r="AD260" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE260" s="64"/>
-      <c r="AF260" s="64"/>
-      <c r="AG260" s="64"/>
-      <c r="AH260" s="65" t="s">
+      <c r="AE260" s="68"/>
+      <c r="AF260" s="68"/>
+      <c r="AG260" s="68"/>
+      <c r="AH260" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="64"/>
-      <c r="B261" s="64"/>
+      <c r="A261" s="68"/>
+      <c r="B261" s="68"/>
       <c r="C261" s="3">
         <v>1</v>
       </c>
@@ -30546,7 +30554,7 @@
       <c r="AG261" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH261" s="64"/>
+      <c r="AH261" s="68"/>
     </row>
     <row r="262" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
@@ -32069,172 +32077,172 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="61" t="s">
+      <c r="A300" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="62"/>
-      <c r="C300" s="62"/>
-      <c r="D300" s="62"/>
-      <c r="E300" s="62"/>
-      <c r="F300" s="62"/>
-      <c r="G300" s="62"/>
-      <c r="H300" s="62"/>
-      <c r="I300" s="62"/>
-      <c r="J300" s="62"/>
-      <c r="K300" s="62"/>
-      <c r="L300" s="62"/>
-      <c r="M300" s="62"/>
-      <c r="N300" s="62"/>
-      <c r="O300" s="62"/>
-      <c r="P300" s="62"/>
-      <c r="Q300" s="62"/>
-      <c r="R300" s="62"/>
-      <c r="S300" s="62"/>
-      <c r="T300" s="62"/>
-      <c r="U300" s="62"/>
-      <c r="V300" s="62"/>
-      <c r="W300" s="62"/>
-      <c r="X300" s="62"/>
-      <c r="Y300" s="62"/>
-      <c r="Z300" s="62"/>
-      <c r="AA300" s="62"/>
-      <c r="AB300" s="62"/>
-      <c r="AC300" s="62"/>
-      <c r="AD300" s="62"/>
-      <c r="AE300" s="62"/>
-      <c r="AF300" s="62"/>
-      <c r="AG300" s="62"/>
-      <c r="AH300" s="62"/>
+      <c r="B300" s="70"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="70"/>
+      <c r="L300" s="70"/>
+      <c r="M300" s="70"/>
+      <c r="N300" s="70"/>
+      <c r="O300" s="70"/>
+      <c r="P300" s="70"/>
+      <c r="Q300" s="70"/>
+      <c r="R300" s="70"/>
+      <c r="S300" s="70"/>
+      <c r="T300" s="70"/>
+      <c r="U300" s="70"/>
+      <c r="V300" s="70"/>
+      <c r="W300" s="70"/>
+      <c r="X300" s="70"/>
+      <c r="Y300" s="70"/>
+      <c r="Z300" s="70"/>
+      <c r="AA300" s="70"/>
+      <c r="AB300" s="70"/>
+      <c r="AC300" s="70"/>
+      <c r="AD300" s="70"/>
+      <c r="AE300" s="70"/>
+      <c r="AF300" s="70"/>
+      <c r="AG300" s="70"/>
+      <c r="AH300" s="70"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="66" t="s">
+      <c r="A301" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="66"/>
-      <c r="C301" s="66"/>
-      <c r="D301" s="66"/>
-      <c r="E301" s="66"/>
-      <c r="F301" s="66"/>
-      <c r="G301" s="66"/>
-      <c r="H301" s="66"/>
-      <c r="I301" s="66"/>
-      <c r="J301" s="66"/>
-      <c r="K301" s="66"/>
-      <c r="L301" s="66"/>
-      <c r="M301" s="66"/>
-      <c r="N301" s="66"/>
-      <c r="O301" s="66"/>
-      <c r="P301" s="66"/>
-      <c r="Q301" s="66"/>
-      <c r="R301" s="66"/>
-      <c r="S301" s="66"/>
-      <c r="T301" s="66"/>
-      <c r="U301" s="66"/>
-      <c r="V301" s="66"/>
-      <c r="W301" s="66"/>
-      <c r="X301" s="66"/>
-      <c r="Y301" s="66"/>
-      <c r="Z301" s="66"/>
-      <c r="AA301" s="66"/>
-      <c r="AB301" s="66"/>
-      <c r="AC301" s="66"/>
-      <c r="AD301" s="66"/>
-      <c r="AE301" s="66"/>
-      <c r="AF301" s="66"/>
-      <c r="AG301" s="66"/>
-      <c r="AH301" s="66"/>
+      <c r="B301" s="65"/>
+      <c r="C301" s="65"/>
+      <c r="D301" s="65"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
+      <c r="L301" s="65"/>
+      <c r="M301" s="65"/>
+      <c r="N301" s="65"/>
+      <c r="O301" s="65"/>
+      <c r="P301" s="65"/>
+      <c r="Q301" s="65"/>
+      <c r="R301" s="65"/>
+      <c r="S301" s="65"/>
+      <c r="T301" s="65"/>
+      <c r="U301" s="65"/>
+      <c r="V301" s="65"/>
+      <c r="W301" s="65"/>
+      <c r="X301" s="65"/>
+      <c r="Y301" s="65"/>
+      <c r="Z301" s="65"/>
+      <c r="AA301" s="65"/>
+      <c r="AB301" s="65"/>
+      <c r="AC301" s="65"/>
+      <c r="AD301" s="65"/>
+      <c r="AE301" s="65"/>
+      <c r="AF301" s="65"/>
+      <c r="AG301" s="65"/>
+      <c r="AH301" s="65"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="67" t="s">
+      <c r="A302" s="66" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="67"/>
-      <c r="C302" s="67"/>
-      <c r="D302" s="67"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="67"/>
-      <c r="L302" s="67"/>
-      <c r="M302" s="67"/>
-      <c r="N302" s="67"/>
-      <c r="O302" s="67"/>
-      <c r="P302" s="67"/>
-      <c r="Q302" s="67"/>
-      <c r="R302" s="67"/>
-      <c r="S302" s="67"/>
-      <c r="T302" s="67"/>
-      <c r="U302" s="67"/>
-      <c r="V302" s="67"/>
-      <c r="W302" s="67"/>
-      <c r="X302" s="67"/>
-      <c r="Y302" s="67"/>
-      <c r="Z302" s="67"/>
-      <c r="AA302" s="67"/>
-      <c r="AB302" s="67"/>
-      <c r="AC302" s="67"/>
-      <c r="AD302" s="67"/>
-      <c r="AE302" s="67"/>
-      <c r="AF302" s="67"/>
-      <c r="AG302" s="67"/>
-      <c r="AH302" s="67"/>
+      <c r="B302" s="66"/>
+      <c r="C302" s="66"/>
+      <c r="D302" s="66"/>
+      <c r="E302" s="66"/>
+      <c r="F302" s="66"/>
+      <c r="G302" s="66"/>
+      <c r="H302" s="66"/>
+      <c r="I302" s="66"/>
+      <c r="J302" s="66"/>
+      <c r="K302" s="66"/>
+      <c r="L302" s="66"/>
+      <c r="M302" s="66"/>
+      <c r="N302" s="66"/>
+      <c r="O302" s="66"/>
+      <c r="P302" s="66"/>
+      <c r="Q302" s="66"/>
+      <c r="R302" s="66"/>
+      <c r="S302" s="66"/>
+      <c r="T302" s="66"/>
+      <c r="U302" s="66"/>
+      <c r="V302" s="66"/>
+      <c r="W302" s="66"/>
+      <c r="X302" s="66"/>
+      <c r="Y302" s="66"/>
+      <c r="Z302" s="66"/>
+      <c r="AA302" s="66"/>
+      <c r="AB302" s="66"/>
+      <c r="AC302" s="66"/>
+      <c r="AD302" s="66"/>
+      <c r="AE302" s="66"/>
+      <c r="AF302" s="66"/>
+      <c r="AG302" s="66"/>
+      <c r="AH302" s="66"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="64" t="s">
+      <c r="A303" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B303" s="64" t="s">
+      <c r="B303" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D303" s="64"/>
-      <c r="E303" s="64"/>
-      <c r="F303" s="64"/>
-      <c r="G303" s="64"/>
-      <c r="H303" s="64"/>
-      <c r="I303" s="64"/>
-      <c r="J303" s="64"/>
-      <c r="K303" s="64"/>
-      <c r="L303" s="64" t="s">
+      <c r="D303" s="68"/>
+      <c r="E303" s="68"/>
+      <c r="F303" s="68"/>
+      <c r="G303" s="68"/>
+      <c r="H303" s="68"/>
+      <c r="I303" s="68"/>
+      <c r="J303" s="68"/>
+      <c r="K303" s="68"/>
+      <c r="L303" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M303" s="64"/>
-      <c r="N303" s="64"/>
-      <c r="O303" s="64"/>
-      <c r="P303" s="64"/>
-      <c r="Q303" s="64"/>
-      <c r="R303" s="64"/>
-      <c r="S303" s="64"/>
-      <c r="T303" s="64"/>
-      <c r="U303" s="64" t="s">
+      <c r="M303" s="68"/>
+      <c r="N303" s="68"/>
+      <c r="O303" s="68"/>
+      <c r="P303" s="68"/>
+      <c r="Q303" s="68"/>
+      <c r="R303" s="68"/>
+      <c r="S303" s="68"/>
+      <c r="T303" s="68"/>
+      <c r="U303" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V303" s="64"/>
-      <c r="W303" s="64"/>
-      <c r="X303" s="64"/>
-      <c r="Y303" s="64"/>
-      <c r="Z303" s="64"/>
-      <c r="AA303" s="64"/>
-      <c r="AB303" s="64"/>
-      <c r="AC303" s="64"/>
-      <c r="AD303" s="64" t="s">
+      <c r="V303" s="68"/>
+      <c r="W303" s="68"/>
+      <c r="X303" s="68"/>
+      <c r="Y303" s="68"/>
+      <c r="Z303" s="68"/>
+      <c r="AA303" s="68"/>
+      <c r="AB303" s="68"/>
+      <c r="AC303" s="68"/>
+      <c r="AD303" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE303" s="64"/>
-      <c r="AF303" s="64"/>
-      <c r="AG303" s="64"/>
-      <c r="AH303" s="65" t="s">
+      <c r="AE303" s="68"/>
+      <c r="AF303" s="68"/>
+      <c r="AG303" s="68"/>
+      <c r="AH303" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="64"/>
-      <c r="B304" s="64"/>
+      <c r="A304" s="68"/>
+      <c r="B304" s="68"/>
       <c r="C304" s="3">
         <v>1</v>
       </c>
@@ -32328,7 +32336,7 @@
       <c r="AG304" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH304" s="64"/>
+      <c r="AH304" s="68"/>
     </row>
     <row r="305" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="49" t="s">
@@ -34815,42 +34823,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="61" t="s">
+      <c r="A367" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="62"/>
-      <c r="C367" s="62"/>
-      <c r="D367" s="62"/>
-      <c r="E367" s="62"/>
-      <c r="F367" s="62"/>
-      <c r="G367" s="62"/>
-      <c r="H367" s="62"/>
-      <c r="I367" s="62"/>
-      <c r="J367" s="62"/>
-      <c r="K367" s="62"/>
-      <c r="L367" s="62"/>
-      <c r="M367" s="62"/>
-      <c r="N367" s="62"/>
-      <c r="O367" s="62"/>
-      <c r="P367" s="62"/>
-      <c r="Q367" s="62"/>
-      <c r="R367" s="62"/>
-      <c r="S367" s="62"/>
-      <c r="T367" s="62"/>
-      <c r="U367" s="62"/>
-      <c r="V367" s="62"/>
-      <c r="W367" s="62"/>
-      <c r="X367" s="62"/>
-      <c r="Y367" s="62"/>
-      <c r="Z367" s="62"/>
-      <c r="AA367" s="62"/>
-      <c r="AB367" s="62"/>
-      <c r="AC367" s="62"/>
-      <c r="AD367" s="62"/>
-      <c r="AE367" s="62"/>
-      <c r="AF367" s="62"/>
-      <c r="AG367" s="62"/>
-      <c r="AH367" s="62"/>
+      <c r="B367" s="70"/>
+      <c r="C367" s="70"/>
+      <c r="D367" s="70"/>
+      <c r="E367" s="70"/>
+      <c r="F367" s="70"/>
+      <c r="G367" s="70"/>
+      <c r="H367" s="70"/>
+      <c r="I367" s="70"/>
+      <c r="J367" s="70"/>
+      <c r="K367" s="70"/>
+      <c r="L367" s="70"/>
+      <c r="M367" s="70"/>
+      <c r="N367" s="70"/>
+      <c r="O367" s="70"/>
+      <c r="P367" s="70"/>
+      <c r="Q367" s="70"/>
+      <c r="R367" s="70"/>
+      <c r="S367" s="70"/>
+      <c r="T367" s="70"/>
+      <c r="U367" s="70"/>
+      <c r="V367" s="70"/>
+      <c r="W367" s="70"/>
+      <c r="X367" s="70"/>
+      <c r="Y367" s="70"/>
+      <c r="Z367" s="70"/>
+      <c r="AA367" s="70"/>
+      <c r="AB367" s="70"/>
+      <c r="AC367" s="70"/>
+      <c r="AD367" s="70"/>
+      <c r="AE367" s="70"/>
+      <c r="AF367" s="70"/>
+      <c r="AG367" s="70"/>
+      <c r="AH367" s="70"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34889,134 +34897,134 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="66" t="s">
+      <c r="A369" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="66"/>
-      <c r="C369" s="66"/>
-      <c r="D369" s="66"/>
-      <c r="E369" s="66"/>
-      <c r="F369" s="66"/>
-      <c r="G369" s="66"/>
-      <c r="H369" s="66"/>
-      <c r="I369" s="66"/>
-      <c r="J369" s="66"/>
-      <c r="K369" s="66"/>
-      <c r="L369" s="66"/>
-      <c r="M369" s="66"/>
-      <c r="N369" s="66"/>
-      <c r="O369" s="66"/>
-      <c r="P369" s="66"/>
-      <c r="Q369" s="66"/>
-      <c r="R369" s="66"/>
-      <c r="S369" s="66"/>
-      <c r="T369" s="66"/>
-      <c r="U369" s="66"/>
-      <c r="V369" s="66"/>
-      <c r="W369" s="66"/>
-      <c r="X369" s="66"/>
-      <c r="Y369" s="66"/>
-      <c r="Z369" s="66"/>
-      <c r="AA369" s="66"/>
-      <c r="AB369" s="66"/>
-      <c r="AC369" s="66"/>
-      <c r="AD369" s="66"/>
-      <c r="AE369" s="66"/>
-      <c r="AF369" s="66"/>
-      <c r="AG369" s="66"/>
-      <c r="AH369" s="66"/>
+      <c r="B369" s="65"/>
+      <c r="C369" s="65"/>
+      <c r="D369" s="65"/>
+      <c r="E369" s="65"/>
+      <c r="F369" s="65"/>
+      <c r="G369" s="65"/>
+      <c r="H369" s="65"/>
+      <c r="I369" s="65"/>
+      <c r="J369" s="65"/>
+      <c r="K369" s="65"/>
+      <c r="L369" s="65"/>
+      <c r="M369" s="65"/>
+      <c r="N369" s="65"/>
+      <c r="O369" s="65"/>
+      <c r="P369" s="65"/>
+      <c r="Q369" s="65"/>
+      <c r="R369" s="65"/>
+      <c r="S369" s="65"/>
+      <c r="T369" s="65"/>
+      <c r="U369" s="65"/>
+      <c r="V369" s="65"/>
+      <c r="W369" s="65"/>
+      <c r="X369" s="65"/>
+      <c r="Y369" s="65"/>
+      <c r="Z369" s="65"/>
+      <c r="AA369" s="65"/>
+      <c r="AB369" s="65"/>
+      <c r="AC369" s="65"/>
+      <c r="AD369" s="65"/>
+      <c r="AE369" s="65"/>
+      <c r="AF369" s="65"/>
+      <c r="AG369" s="65"/>
+      <c r="AH369" s="65"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="67" t="s">
+      <c r="A370" s="66" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="67"/>
-      <c r="C370" s="67"/>
-      <c r="D370" s="67"/>
-      <c r="E370" s="67"/>
-      <c r="F370" s="67"/>
-      <c r="G370" s="67"/>
-      <c r="H370" s="67"/>
-      <c r="I370" s="67"/>
-      <c r="J370" s="67"/>
-      <c r="K370" s="67"/>
-      <c r="L370" s="67"/>
-      <c r="M370" s="67"/>
-      <c r="N370" s="67"/>
-      <c r="O370" s="67"/>
-      <c r="P370" s="67"/>
-      <c r="Q370" s="67"/>
-      <c r="R370" s="67"/>
-      <c r="S370" s="67"/>
-      <c r="T370" s="67"/>
-      <c r="U370" s="67"/>
-      <c r="V370" s="67"/>
-      <c r="W370" s="67"/>
-      <c r="X370" s="67"/>
-      <c r="Y370" s="67"/>
-      <c r="Z370" s="67"/>
-      <c r="AA370" s="67"/>
-      <c r="AB370" s="67"/>
-      <c r="AC370" s="67"/>
-      <c r="AD370" s="67"/>
-      <c r="AE370" s="67"/>
-      <c r="AF370" s="67"/>
-      <c r="AG370" s="67"/>
-      <c r="AH370" s="67"/>
+      <c r="B370" s="66"/>
+      <c r="C370" s="66"/>
+      <c r="D370" s="66"/>
+      <c r="E370" s="66"/>
+      <c r="F370" s="66"/>
+      <c r="G370" s="66"/>
+      <c r="H370" s="66"/>
+      <c r="I370" s="66"/>
+      <c r="J370" s="66"/>
+      <c r="K370" s="66"/>
+      <c r="L370" s="66"/>
+      <c r="M370" s="66"/>
+      <c r="N370" s="66"/>
+      <c r="O370" s="66"/>
+      <c r="P370" s="66"/>
+      <c r="Q370" s="66"/>
+      <c r="R370" s="66"/>
+      <c r="S370" s="66"/>
+      <c r="T370" s="66"/>
+      <c r="U370" s="66"/>
+      <c r="V370" s="66"/>
+      <c r="W370" s="66"/>
+      <c r="X370" s="66"/>
+      <c r="Y370" s="66"/>
+      <c r="Z370" s="66"/>
+      <c r="AA370" s="66"/>
+      <c r="AB370" s="66"/>
+      <c r="AC370" s="66"/>
+      <c r="AD370" s="66"/>
+      <c r="AE370" s="66"/>
+      <c r="AF370" s="66"/>
+      <c r="AG370" s="66"/>
+      <c r="AH370" s="66"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="64" t="s">
+      <c r="A371" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B371" s="64" t="s">
+      <c r="B371" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C371" s="64" t="s">
+      <c r="C371" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="64"/>
-      <c r="E371" s="64"/>
-      <c r="F371" s="64"/>
-      <c r="G371" s="64"/>
-      <c r="H371" s="64"/>
-      <c r="I371" s="64"/>
-      <c r="J371" s="64"/>
-      <c r="K371" s="64"/>
-      <c r="L371" s="64" t="s">
+      <c r="D371" s="68"/>
+      <c r="E371" s="68"/>
+      <c r="F371" s="68"/>
+      <c r="G371" s="68"/>
+      <c r="H371" s="68"/>
+      <c r="I371" s="68"/>
+      <c r="J371" s="68"/>
+      <c r="K371" s="68"/>
+      <c r="L371" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M371" s="64"/>
-      <c r="N371" s="64"/>
-      <c r="O371" s="64"/>
-      <c r="P371" s="64"/>
-      <c r="Q371" s="64"/>
-      <c r="R371" s="64"/>
-      <c r="S371" s="64"/>
-      <c r="T371" s="64"/>
-      <c r="U371" s="64" t="s">
+      <c r="M371" s="68"/>
+      <c r="N371" s="68"/>
+      <c r="O371" s="68"/>
+      <c r="P371" s="68"/>
+      <c r="Q371" s="68"/>
+      <c r="R371" s="68"/>
+      <c r="S371" s="68"/>
+      <c r="T371" s="68"/>
+      <c r="U371" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V371" s="64"/>
-      <c r="W371" s="64"/>
-      <c r="X371" s="64"/>
-      <c r="Y371" s="64"/>
-      <c r="Z371" s="64"/>
-      <c r="AA371" s="64"/>
-      <c r="AB371" s="64"/>
-      <c r="AC371" s="64"/>
-      <c r="AD371" s="64" t="s">
+      <c r="V371" s="68"/>
+      <c r="W371" s="68"/>
+      <c r="X371" s="68"/>
+      <c r="Y371" s="68"/>
+      <c r="Z371" s="68"/>
+      <c r="AA371" s="68"/>
+      <c r="AB371" s="68"/>
+      <c r="AC371" s="68"/>
+      <c r="AD371" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE371" s="64"/>
-      <c r="AF371" s="64"/>
-      <c r="AG371" s="64"/>
-      <c r="AH371" s="65" t="s">
+      <c r="AE371" s="68"/>
+      <c r="AF371" s="68"/>
+      <c r="AG371" s="68"/>
+      <c r="AH371" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="64"/>
-      <c r="B372" s="64"/>
+      <c r="A372" s="68"/>
+      <c r="B372" s="68"/>
       <c r="C372" s="3">
         <v>1</v>
       </c>
@@ -35026,8 +35034,8 @@
       <c r="E372" s="3">
         <v>3</v>
       </c>
-      <c r="F372" s="3">
-        <v>4</v>
+      <c r="F372" s="59" t="s">
+        <v>1721</v>
       </c>
       <c r="G372" s="3">
         <v>5</v>
@@ -35110,7 +35118,7 @@
       <c r="AG372" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH372" s="64"/>
+      <c r="AH372" s="68"/>
     </row>
     <row r="373" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
@@ -35246,7 +35254,7 @@
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
+      <c r="F376" s="52"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
@@ -35286,7 +35294,9 @@
       <c r="C377" s="52"/>
       <c r="D377" s="52"/>
       <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
+      <c r="F377" s="3" t="s">
+        <v>1722</v>
+      </c>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
@@ -35326,7 +35336,7 @@
       <c r="C378" s="52"/>
       <c r="D378" s="52"/>
       <c r="E378" s="52"/>
-      <c r="F378" s="3"/>
+      <c r="F378" s="52"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
@@ -35406,7 +35416,7 @@
       <c r="C380" s="52"/>
       <c r="D380" s="52"/>
       <c r="E380" s="52"/>
-      <c r="F380" s="3"/>
+      <c r="F380" s="52"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
@@ -35568,7 +35578,7 @@
       <c r="C384" s="52"/>
       <c r="D384" s="52"/>
       <c r="E384" s="52"/>
-      <c r="F384" s="3"/>
+      <c r="F384" s="52"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
@@ -35688,7 +35698,7 @@
       <c r="C387" s="52"/>
       <c r="D387" s="52"/>
       <c r="E387" s="52"/>
-      <c r="F387" s="3"/>
+      <c r="F387" s="52"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
@@ -35768,7 +35778,7 @@
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
+      <c r="F389" s="52"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
@@ -35928,7 +35938,7 @@
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
+      <c r="F393" s="52"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
@@ -36128,7 +36138,7 @@
       <c r="C398" s="52"/>
       <c r="D398" s="52"/>
       <c r="E398" s="52"/>
-      <c r="F398" s="3"/>
+      <c r="F398" s="52"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
@@ -36168,7 +36178,7 @@
       <c r="C399" s="52"/>
       <c r="D399" s="52"/>
       <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
+      <c r="F399" s="52"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
@@ -36214,7 +36224,7 @@
       <c r="E400" s="3" t="s">
         <v>1713</v>
       </c>
-      <c r="F400" s="3"/>
+      <c r="F400" s="52"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
@@ -36460,7 +36470,7 @@
       <c r="C406" s="52"/>
       <c r="D406" s="3"/>
       <c r="E406" s="52"/>
-      <c r="F406" s="3"/>
+      <c r="F406" s="52"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
@@ -36664,7 +36674,7 @@
       <c r="C411" s="52"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
+      <c r="F411" s="52"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
@@ -36704,7 +36714,7 @@
       <c r="C412" s="52"/>
       <c r="D412" s="52"/>
       <c r="E412" s="52"/>
-      <c r="F412" s="3"/>
+      <c r="F412" s="52"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
@@ -36904,7 +36914,7 @@
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
+      <c r="F417" s="52"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
@@ -37070,7 +37080,7 @@
         <v>1709</v>
       </c>
       <c r="E421" s="52"/>
-      <c r="F421" s="3"/>
+      <c r="F421" s="52"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
@@ -37110,7 +37120,7 @@
       <c r="C422" s="52"/>
       <c r="D422" s="52"/>
       <c r="E422" s="52"/>
-      <c r="F422" s="3"/>
+      <c r="F422" s="52"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
@@ -37150,7 +37160,7 @@
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
+      <c r="F423" s="52"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
@@ -37314,7 +37324,7 @@
       <c r="C427" s="52"/>
       <c r="D427" s="52"/>
       <c r="E427" s="52"/>
-      <c r="F427" s="3"/>
+      <c r="F427" s="52"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
@@ -37436,7 +37446,7 @@
         <v>1710</v>
       </c>
       <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
+      <c r="F430" s="52"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
@@ -37478,7 +37488,7 @@
         <v>1711</v>
       </c>
       <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
+      <c r="F431" s="52"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
@@ -37558,7 +37568,7 @@
       <c r="C433" s="52"/>
       <c r="D433" s="52"/>
       <c r="E433" s="52"/>
-      <c r="F433" s="3"/>
+      <c r="F433" s="52"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
@@ -37669,99 +37679,45 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="61" t="s">
+      <c r="A436" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="62"/>
-      <c r="C436" s="62"/>
-      <c r="D436" s="62"/>
-      <c r="E436" s="62"/>
-      <c r="F436" s="62"/>
-      <c r="G436" s="62"/>
-      <c r="H436" s="62"/>
-      <c r="I436" s="62"/>
-      <c r="J436" s="62"/>
-      <c r="K436" s="62"/>
-      <c r="L436" s="62"/>
-      <c r="M436" s="62"/>
-      <c r="N436" s="62"/>
-      <c r="O436" s="62"/>
-      <c r="P436" s="62"/>
-      <c r="Q436" s="62"/>
-      <c r="R436" s="62"/>
-      <c r="S436" s="62"/>
-      <c r="T436" s="62"/>
-      <c r="U436" s="62"/>
-      <c r="V436" s="62"/>
-      <c r="W436" s="62"/>
-      <c r="X436" s="62"/>
-      <c r="Y436" s="62"/>
-      <c r="Z436" s="62"/>
-      <c r="AA436" s="62"/>
-      <c r="AB436" s="62"/>
-      <c r="AC436" s="62"/>
-      <c r="AD436" s="62"/>
-      <c r="AE436" s="62"/>
-      <c r="AF436" s="62"/>
-      <c r="AG436" s="62"/>
-      <c r="AH436" s="62"/>
+      <c r="B436" s="70"/>
+      <c r="C436" s="70"/>
+      <c r="D436" s="70"/>
+      <c r="E436" s="70"/>
+      <c r="F436" s="70"/>
+      <c r="G436" s="70"/>
+      <c r="H436" s="70"/>
+      <c r="I436" s="70"/>
+      <c r="J436" s="70"/>
+      <c r="K436" s="70"/>
+      <c r="L436" s="70"/>
+      <c r="M436" s="70"/>
+      <c r="N436" s="70"/>
+      <c r="O436" s="70"/>
+      <c r="P436" s="70"/>
+      <c r="Q436" s="70"/>
+      <c r="R436" s="70"/>
+      <c r="S436" s="70"/>
+      <c r="T436" s="70"/>
+      <c r="U436" s="70"/>
+      <c r="V436" s="70"/>
+      <c r="W436" s="70"/>
+      <c r="X436" s="70"/>
+      <c r="Y436" s="70"/>
+      <c r="Z436" s="70"/>
+      <c r="AA436" s="70"/>
+      <c r="AB436" s="70"/>
+      <c r="AC436" s="70"/>
+      <c r="AD436" s="70"/>
+      <c r="AE436" s="70"/>
+      <c r="AF436" s="70"/>
+      <c r="AG436" s="70"/>
+      <c r="AH436" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37778,6 +37734,60 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37811,134 +37821,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64" t="s">
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65" t="s">
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -38032,7 +38042,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="64"/>
+      <c r="AH4" s="68"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -38635,172 +38645,172 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64" t="s">
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64" t="s">
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="65" t="s">
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="3">
         <v>1</v>
       </c>
@@ -38894,7 +38904,7 @@
       <c r="AG25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH25" s="64"/>
+      <c r="AH25" s="68"/>
     </row>
     <row r="26" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -39377,172 +39387,172 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="70"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="65"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="66" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="67"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64" t="s">
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64" t="s">
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64" t="s">
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="65" t="s">
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="3">
         <v>1</v>
       </c>
@@ -39636,7 +39646,7 @@
       <c r="AG43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH43" s="64"/>
+      <c r="AH43" s="68"/>
     </row>
     <row r="44" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -40399,172 +40409,172 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
-      <c r="AH63" s="62"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="70"/>
+      <c r="AD63" s="70"/>
+      <c r="AE63" s="70"/>
+      <c r="AF63" s="70"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="66"/>
-      <c r="AC64" s="66"/>
-      <c r="AD64" s="66"/>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="65"/>
+      <c r="Z64" s="65"/>
+      <c r="AA64" s="65"/>
+      <c r="AB64" s="65"/>
+      <c r="AC64" s="65"/>
+      <c r="AD64" s="65"/>
+      <c r="AE64" s="65"/>
+      <c r="AF64" s="65"/>
+      <c r="AG64" s="65"/>
+      <c r="AH64" s="65"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="66" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="67"/>
-      <c r="AD65" s="67"/>
-      <c r="AE65" s="67"/>
-      <c r="AF65" s="67"/>
-      <c r="AG65" s="67"/>
-      <c r="AH65" s="67"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="66"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64" t="s">
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64" t="s">
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="68"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="68"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="64"/>
-      <c r="AC66" s="64"/>
-      <c r="AD66" s="64" t="s">
+      <c r="V66" s="68"/>
+      <c r="W66" s="68"/>
+      <c r="X66" s="68"/>
+      <c r="Y66" s="68"/>
+      <c r="Z66" s="68"/>
+      <c r="AA66" s="68"/>
+      <c r="AB66" s="68"/>
+      <c r="AC66" s="68"/>
+      <c r="AD66" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE66" s="64"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="64"/>
-      <c r="AH66" s="65" t="s">
+      <c r="AE66" s="68"/>
+      <c r="AF66" s="68"/>
+      <c r="AG66" s="68"/>
+      <c r="AH66" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="3">
         <v>1</v>
       </c>
@@ -40658,7 +40668,7 @@
       <c r="AG67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH67" s="64"/>
+      <c r="AH67" s="68"/>
     </row>
     <row r="68" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -42381,172 +42391,172 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="62"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="62"/>
-      <c r="N111" s="62"/>
-      <c r="O111" s="62"/>
-      <c r="P111" s="62"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="62"/>
-      <c r="S111" s="62"/>
-      <c r="T111" s="62"/>
-      <c r="U111" s="62"/>
-      <c r="V111" s="62"/>
-      <c r="W111" s="62"/>
-      <c r="X111" s="62"/>
-      <c r="Y111" s="62"/>
-      <c r="Z111" s="62"/>
-      <c r="AA111" s="62"/>
-      <c r="AB111" s="62"/>
-      <c r="AC111" s="62"/>
-      <c r="AD111" s="62"/>
-      <c r="AE111" s="62"/>
-      <c r="AF111" s="62"/>
-      <c r="AG111" s="62"/>
-      <c r="AH111" s="62"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="70"/>
+      <c r="S111" s="70"/>
+      <c r="T111" s="70"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="70"/>
+      <c r="W111" s="70"/>
+      <c r="X111" s="70"/>
+      <c r="Y111" s="70"/>
+      <c r="Z111" s="70"/>
+      <c r="AA111" s="70"/>
+      <c r="AB111" s="70"/>
+      <c r="AC111" s="70"/>
+      <c r="AD111" s="70"/>
+      <c r="AE111" s="70"/>
+      <c r="AF111" s="70"/>
+      <c r="AG111" s="70"/>
+      <c r="AH111" s="70"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="66" t="s">
+      <c r="A113" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="66"/>
-      <c r="M113" s="66"/>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-      <c r="S113" s="66"/>
-      <c r="T113" s="66"/>
-      <c r="U113" s="66"/>
-      <c r="V113" s="66"/>
-      <c r="W113" s="66"/>
-      <c r="X113" s="66"/>
-      <c r="Y113" s="66"/>
-      <c r="Z113" s="66"/>
-      <c r="AA113" s="66"/>
-      <c r="AB113" s="66"/>
-      <c r="AC113" s="66"/>
-      <c r="AD113" s="66"/>
-      <c r="AE113" s="66"/>
-      <c r="AF113" s="66"/>
-      <c r="AG113" s="66"/>
-      <c r="AH113" s="66"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="65"/>
+      <c r="N113" s="65"/>
+      <c r="O113" s="65"/>
+      <c r="P113" s="65"/>
+      <c r="Q113" s="65"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="65"/>
+      <c r="V113" s="65"/>
+      <c r="W113" s="65"/>
+      <c r="X113" s="65"/>
+      <c r="Y113" s="65"/>
+      <c r="Z113" s="65"/>
+      <c r="AA113" s="65"/>
+      <c r="AB113" s="65"/>
+      <c r="AC113" s="65"/>
+      <c r="AD113" s="65"/>
+      <c r="AE113" s="65"/>
+      <c r="AF113" s="65"/>
+      <c r="AG113" s="65"/>
+      <c r="AH113" s="65"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="67" t="s">
+      <c r="A114" s="66" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="67"/>
-      <c r="L114" s="67"/>
-      <c r="M114" s="67"/>
-      <c r="N114" s="67"/>
-      <c r="O114" s="67"/>
-      <c r="P114" s="67"/>
-      <c r="Q114" s="67"/>
-      <c r="R114" s="67"/>
-      <c r="S114" s="67"/>
-      <c r="T114" s="67"/>
-      <c r="U114" s="67"/>
-      <c r="V114" s="67"/>
-      <c r="W114" s="67"/>
-      <c r="X114" s="67"/>
-      <c r="Y114" s="67"/>
-      <c r="Z114" s="67"/>
-      <c r="AA114" s="67"/>
-      <c r="AB114" s="67"/>
-      <c r="AC114" s="67"/>
-      <c r="AD114" s="67"/>
-      <c r="AE114" s="67"/>
-      <c r="AF114" s="67"/>
-      <c r="AG114" s="67"/>
-      <c r="AH114" s="67"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="66"/>
+      <c r="M114" s="66"/>
+      <c r="N114" s="66"/>
+      <c r="O114" s="66"/>
+      <c r="P114" s="66"/>
+      <c r="Q114" s="66"/>
+      <c r="R114" s="66"/>
+      <c r="S114" s="66"/>
+      <c r="T114" s="66"/>
+      <c r="U114" s="66"/>
+      <c r="V114" s="66"/>
+      <c r="W114" s="66"/>
+      <c r="X114" s="66"/>
+      <c r="Y114" s="66"/>
+      <c r="Z114" s="66"/>
+      <c r="AA114" s="66"/>
+      <c r="AB114" s="66"/>
+      <c r="AC114" s="66"/>
+      <c r="AD114" s="66"/>
+      <c r="AE114" s="66"/>
+      <c r="AF114" s="66"/>
+      <c r="AG114" s="66"/>
+      <c r="AH114" s="66"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
+      <c r="A115" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="64" t="s">
+      <c r="B115" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="64" t="s">
+      <c r="C115" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
-      <c r="L115" s="64" t="s">
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="68"/>
+      <c r="L115" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M115" s="64"/>
-      <c r="N115" s="64"/>
-      <c r="O115" s="64"/>
-      <c r="P115" s="64"/>
-      <c r="Q115" s="64"/>
-      <c r="R115" s="64"/>
-      <c r="S115" s="64"/>
-      <c r="T115" s="64"/>
-      <c r="U115" s="64" t="s">
+      <c r="M115" s="68"/>
+      <c r="N115" s="68"/>
+      <c r="O115" s="68"/>
+      <c r="P115" s="68"/>
+      <c r="Q115" s="68"/>
+      <c r="R115" s="68"/>
+      <c r="S115" s="68"/>
+      <c r="T115" s="68"/>
+      <c r="U115" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V115" s="64"/>
-      <c r="W115" s="64"/>
-      <c r="X115" s="64"/>
-      <c r="Y115" s="64"/>
-      <c r="Z115" s="64"/>
-      <c r="AA115" s="64"/>
-      <c r="AB115" s="64"/>
-      <c r="AC115" s="64"/>
-      <c r="AD115" s="64" t="s">
+      <c r="V115" s="68"/>
+      <c r="W115" s="68"/>
+      <c r="X115" s="68"/>
+      <c r="Y115" s="68"/>
+      <c r="Z115" s="68"/>
+      <c r="AA115" s="68"/>
+      <c r="AB115" s="68"/>
+      <c r="AC115" s="68"/>
+      <c r="AD115" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE115" s="64"/>
-      <c r="AF115" s="64"/>
-      <c r="AG115" s="64"/>
-      <c r="AH115" s="65" t="s">
+      <c r="AE115" s="68"/>
+      <c r="AF115" s="68"/>
+      <c r="AG115" s="68"/>
+      <c r="AH115" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="3">
         <v>1</v>
       </c>
@@ -42640,7 +42650,7 @@
       <c r="AG116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH116" s="64"/>
+      <c r="AH116" s="68"/>
     </row>
     <row r="117" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -44363,172 +44373,172 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="61" t="s">
+      <c r="A160" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="62"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="62"/>
-      <c r="L160" s="62"/>
-      <c r="M160" s="62"/>
-      <c r="N160" s="62"/>
-      <c r="O160" s="62"/>
-      <c r="P160" s="62"/>
-      <c r="Q160" s="62"/>
-      <c r="R160" s="62"/>
-      <c r="S160" s="62"/>
-      <c r="T160" s="62"/>
-      <c r="U160" s="62"/>
-      <c r="V160" s="62"/>
-      <c r="W160" s="62"/>
-      <c r="X160" s="62"/>
-      <c r="Y160" s="62"/>
-      <c r="Z160" s="62"/>
-      <c r="AA160" s="62"/>
-      <c r="AB160" s="62"/>
-      <c r="AC160" s="62"/>
-      <c r="AD160" s="62"/>
-      <c r="AE160" s="62"/>
-      <c r="AF160" s="62"/>
-      <c r="AG160" s="62"/>
-      <c r="AH160" s="62"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="70"/>
+      <c r="G160" s="70"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="70"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="70"/>
+      <c r="L160" s="70"/>
+      <c r="M160" s="70"/>
+      <c r="N160" s="70"/>
+      <c r="O160" s="70"/>
+      <c r="P160" s="70"/>
+      <c r="Q160" s="70"/>
+      <c r="R160" s="70"/>
+      <c r="S160" s="70"/>
+      <c r="T160" s="70"/>
+      <c r="U160" s="70"/>
+      <c r="V160" s="70"/>
+      <c r="W160" s="70"/>
+      <c r="X160" s="70"/>
+      <c r="Y160" s="70"/>
+      <c r="Z160" s="70"/>
+      <c r="AA160" s="70"/>
+      <c r="AB160" s="70"/>
+      <c r="AC160" s="70"/>
+      <c r="AD160" s="70"/>
+      <c r="AE160" s="70"/>
+      <c r="AF160" s="70"/>
+      <c r="AG160" s="70"/>
+      <c r="AH160" s="70"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="66" t="s">
+      <c r="A162" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="66"/>
-      <c r="C162" s="66"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="66"/>
-      <c r="H162" s="66"/>
-      <c r="I162" s="66"/>
-      <c r="J162" s="66"/>
-      <c r="K162" s="66"/>
-      <c r="L162" s="66"/>
-      <c r="M162" s="66"/>
-      <c r="N162" s="66"/>
-      <c r="O162" s="66"/>
-      <c r="P162" s="66"/>
-      <c r="Q162" s="66"/>
-      <c r="R162" s="66"/>
-      <c r="S162" s="66"/>
-      <c r="T162" s="66"/>
-      <c r="U162" s="66"/>
-      <c r="V162" s="66"/>
-      <c r="W162" s="66"/>
-      <c r="X162" s="66"/>
-      <c r="Y162" s="66"/>
-      <c r="Z162" s="66"/>
-      <c r="AA162" s="66"/>
-      <c r="AB162" s="66"/>
-      <c r="AC162" s="66"/>
-      <c r="AD162" s="66"/>
-      <c r="AE162" s="66"/>
-      <c r="AF162" s="66"/>
-      <c r="AG162" s="66"/>
-      <c r="AH162" s="66"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="65"/>
+      <c r="G162" s="65"/>
+      <c r="H162" s="65"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="65"/>
+      <c r="K162" s="65"/>
+      <c r="L162" s="65"/>
+      <c r="M162" s="65"/>
+      <c r="N162" s="65"/>
+      <c r="O162" s="65"/>
+      <c r="P162" s="65"/>
+      <c r="Q162" s="65"/>
+      <c r="R162" s="65"/>
+      <c r="S162" s="65"/>
+      <c r="T162" s="65"/>
+      <c r="U162" s="65"/>
+      <c r="V162" s="65"/>
+      <c r="W162" s="65"/>
+      <c r="X162" s="65"/>
+      <c r="Y162" s="65"/>
+      <c r="Z162" s="65"/>
+      <c r="AA162" s="65"/>
+      <c r="AB162" s="65"/>
+      <c r="AC162" s="65"/>
+      <c r="AD162" s="65"/>
+      <c r="AE162" s="65"/>
+      <c r="AF162" s="65"/>
+      <c r="AG162" s="65"/>
+      <c r="AH162" s="65"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="67" t="s">
+      <c r="A163" s="66" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="67"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="67"/>
-      <c r="E163" s="67"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="67"/>
-      <c r="H163" s="67"/>
-      <c r="I163" s="67"/>
-      <c r="J163" s="67"/>
-      <c r="K163" s="67"/>
-      <c r="L163" s="67"/>
-      <c r="M163" s="67"/>
-      <c r="N163" s="67"/>
-      <c r="O163" s="67"/>
-      <c r="P163" s="67"/>
-      <c r="Q163" s="67"/>
-      <c r="R163" s="67"/>
-      <c r="S163" s="67"/>
-      <c r="T163" s="67"/>
-      <c r="U163" s="67"/>
-      <c r="V163" s="67"/>
-      <c r="W163" s="67"/>
-      <c r="X163" s="67"/>
-      <c r="Y163" s="67"/>
-      <c r="Z163" s="67"/>
-      <c r="AA163" s="67"/>
-      <c r="AB163" s="67"/>
-      <c r="AC163" s="67"/>
-      <c r="AD163" s="67"/>
-      <c r="AE163" s="67"/>
-      <c r="AF163" s="67"/>
-      <c r="AG163" s="67"/>
-      <c r="AH163" s="67"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
+      <c r="I163" s="66"/>
+      <c r="J163" s="66"/>
+      <c r="K163" s="66"/>
+      <c r="L163" s="66"/>
+      <c r="M163" s="66"/>
+      <c r="N163" s="66"/>
+      <c r="O163" s="66"/>
+      <c r="P163" s="66"/>
+      <c r="Q163" s="66"/>
+      <c r="R163" s="66"/>
+      <c r="S163" s="66"/>
+      <c r="T163" s="66"/>
+      <c r="U163" s="66"/>
+      <c r="V163" s="66"/>
+      <c r="W163" s="66"/>
+      <c r="X163" s="66"/>
+      <c r="Y163" s="66"/>
+      <c r="Z163" s="66"/>
+      <c r="AA163" s="66"/>
+      <c r="AB163" s="66"/>
+      <c r="AC163" s="66"/>
+      <c r="AD163" s="66"/>
+      <c r="AE163" s="66"/>
+      <c r="AF163" s="66"/>
+      <c r="AG163" s="66"/>
+      <c r="AH163" s="66"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="64" t="s">
+      <c r="A164" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="64" t="s">
+      <c r="B164" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="64" t="s">
+      <c r="C164" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="64"/>
-      <c r="E164" s="64"/>
-      <c r="F164" s="64"/>
-      <c r="G164" s="64"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="64"/>
-      <c r="J164" s="64"/>
-      <c r="K164" s="64"/>
-      <c r="L164" s="64" t="s">
+      <c r="D164" s="68"/>
+      <c r="E164" s="68"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="68"/>
+      <c r="I164" s="68"/>
+      <c r="J164" s="68"/>
+      <c r="K164" s="68"/>
+      <c r="L164" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M164" s="64"/>
-      <c r="N164" s="64"/>
-      <c r="O164" s="64"/>
-      <c r="P164" s="64"/>
-      <c r="Q164" s="64"/>
-      <c r="R164" s="64"/>
-      <c r="S164" s="64"/>
-      <c r="T164" s="64"/>
-      <c r="U164" s="64" t="s">
+      <c r="M164" s="68"/>
+      <c r="N164" s="68"/>
+      <c r="O164" s="68"/>
+      <c r="P164" s="68"/>
+      <c r="Q164" s="68"/>
+      <c r="R164" s="68"/>
+      <c r="S164" s="68"/>
+      <c r="T164" s="68"/>
+      <c r="U164" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V164" s="64"/>
-      <c r="W164" s="64"/>
-      <c r="X164" s="64"/>
-      <c r="Y164" s="64"/>
-      <c r="Z164" s="64"/>
-      <c r="AA164" s="64"/>
-      <c r="AB164" s="64"/>
-      <c r="AC164" s="64"/>
-      <c r="AD164" s="64" t="s">
+      <c r="V164" s="68"/>
+      <c r="W164" s="68"/>
+      <c r="X164" s="68"/>
+      <c r="Y164" s="68"/>
+      <c r="Z164" s="68"/>
+      <c r="AA164" s="68"/>
+      <c r="AB164" s="68"/>
+      <c r="AC164" s="68"/>
+      <c r="AD164" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE164" s="64"/>
-      <c r="AF164" s="64"/>
-      <c r="AG164" s="64"/>
-      <c r="AH164" s="65" t="s">
+      <c r="AE164" s="68"/>
+      <c r="AF164" s="68"/>
+      <c r="AG164" s="68"/>
+      <c r="AH164" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="64"/>
-      <c r="B165" s="64"/>
+      <c r="A165" s="68"/>
+      <c r="B165" s="68"/>
       <c r="C165" s="3">
         <v>1</v>
       </c>
@@ -44622,7 +44632,7 @@
       <c r="AG165" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH165" s="64"/>
+      <c r="AH165" s="68"/>
     </row>
     <row r="166" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -46345,172 +46355,172 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="61" t="s">
+      <c r="A209" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="62"/>
-      <c r="C209" s="62"/>
-      <c r="D209" s="62"/>
-      <c r="E209" s="62"/>
-      <c r="F209" s="62"/>
-      <c r="G209" s="62"/>
-      <c r="H209" s="62"/>
-      <c r="I209" s="62"/>
-      <c r="J209" s="62"/>
-      <c r="K209" s="62"/>
-      <c r="L209" s="62"/>
-      <c r="M209" s="62"/>
-      <c r="N209" s="62"/>
-      <c r="O209" s="62"/>
-      <c r="P209" s="62"/>
-      <c r="Q209" s="62"/>
-      <c r="R209" s="62"/>
-      <c r="S209" s="62"/>
-      <c r="T209" s="62"/>
-      <c r="U209" s="62"/>
-      <c r="V209" s="62"/>
-      <c r="W209" s="62"/>
-      <c r="X209" s="62"/>
-      <c r="Y209" s="62"/>
-      <c r="Z209" s="62"/>
-      <c r="AA209" s="62"/>
-      <c r="AB209" s="62"/>
-      <c r="AC209" s="62"/>
-      <c r="AD209" s="62"/>
-      <c r="AE209" s="62"/>
-      <c r="AF209" s="62"/>
-      <c r="AG209" s="62"/>
-      <c r="AH209" s="62"/>
+      <c r="B209" s="70"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="70"/>
+      <c r="L209" s="70"/>
+      <c r="M209" s="70"/>
+      <c r="N209" s="70"/>
+      <c r="O209" s="70"/>
+      <c r="P209" s="70"/>
+      <c r="Q209" s="70"/>
+      <c r="R209" s="70"/>
+      <c r="S209" s="70"/>
+      <c r="T209" s="70"/>
+      <c r="U209" s="70"/>
+      <c r="V209" s="70"/>
+      <c r="W209" s="70"/>
+      <c r="X209" s="70"/>
+      <c r="Y209" s="70"/>
+      <c r="Z209" s="70"/>
+      <c r="AA209" s="70"/>
+      <c r="AB209" s="70"/>
+      <c r="AC209" s="70"/>
+      <c r="AD209" s="70"/>
+      <c r="AE209" s="70"/>
+      <c r="AF209" s="70"/>
+      <c r="AG209" s="70"/>
+      <c r="AH209" s="70"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="66" t="s">
+      <c r="A211" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="66"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="66"/>
-      <c r="I211" s="66"/>
-      <c r="J211" s="66"/>
-      <c r="K211" s="66"/>
-      <c r="L211" s="66"/>
-      <c r="M211" s="66"/>
-      <c r="N211" s="66"/>
-      <c r="O211" s="66"/>
-      <c r="P211" s="66"/>
-      <c r="Q211" s="66"/>
-      <c r="R211" s="66"/>
-      <c r="S211" s="66"/>
-      <c r="T211" s="66"/>
-      <c r="U211" s="66"/>
-      <c r="V211" s="66"/>
-      <c r="W211" s="66"/>
-      <c r="X211" s="66"/>
-      <c r="Y211" s="66"/>
-      <c r="Z211" s="66"/>
-      <c r="AA211" s="66"/>
-      <c r="AB211" s="66"/>
-      <c r="AC211" s="66"/>
-      <c r="AD211" s="66"/>
-      <c r="AE211" s="66"/>
-      <c r="AF211" s="66"/>
-      <c r="AG211" s="66"/>
-      <c r="AH211" s="66"/>
+      <c r="B211" s="65"/>
+      <c r="C211" s="65"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="65"/>
+      <c r="H211" s="65"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="65"/>
+      <c r="K211" s="65"/>
+      <c r="L211" s="65"/>
+      <c r="M211" s="65"/>
+      <c r="N211" s="65"/>
+      <c r="O211" s="65"/>
+      <c r="P211" s="65"/>
+      <c r="Q211" s="65"/>
+      <c r="R211" s="65"/>
+      <c r="S211" s="65"/>
+      <c r="T211" s="65"/>
+      <c r="U211" s="65"/>
+      <c r="V211" s="65"/>
+      <c r="W211" s="65"/>
+      <c r="X211" s="65"/>
+      <c r="Y211" s="65"/>
+      <c r="Z211" s="65"/>
+      <c r="AA211" s="65"/>
+      <c r="AB211" s="65"/>
+      <c r="AC211" s="65"/>
+      <c r="AD211" s="65"/>
+      <c r="AE211" s="65"/>
+      <c r="AF211" s="65"/>
+      <c r="AG211" s="65"/>
+      <c r="AH211" s="65"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="67" t="s">
+      <c r="A212" s="66" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="67"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
-      <c r="L212" s="67"/>
-      <c r="M212" s="67"/>
-      <c r="N212" s="67"/>
-      <c r="O212" s="67"/>
-      <c r="P212" s="67"/>
-      <c r="Q212" s="67"/>
-      <c r="R212" s="67"/>
-      <c r="S212" s="67"/>
-      <c r="T212" s="67"/>
-      <c r="U212" s="67"/>
-      <c r="V212" s="67"/>
-      <c r="W212" s="67"/>
-      <c r="X212" s="67"/>
-      <c r="Y212" s="67"/>
-      <c r="Z212" s="67"/>
-      <c r="AA212" s="67"/>
-      <c r="AB212" s="67"/>
-      <c r="AC212" s="67"/>
-      <c r="AD212" s="67"/>
-      <c r="AE212" s="67"/>
-      <c r="AF212" s="67"/>
-      <c r="AG212" s="67"/>
-      <c r="AH212" s="67"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="66"/>
+      <c r="E212" s="66"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
+      <c r="J212" s="66"/>
+      <c r="K212" s="66"/>
+      <c r="L212" s="66"/>
+      <c r="M212" s="66"/>
+      <c r="N212" s="66"/>
+      <c r="O212" s="66"/>
+      <c r="P212" s="66"/>
+      <c r="Q212" s="66"/>
+      <c r="R212" s="66"/>
+      <c r="S212" s="66"/>
+      <c r="T212" s="66"/>
+      <c r="U212" s="66"/>
+      <c r="V212" s="66"/>
+      <c r="W212" s="66"/>
+      <c r="X212" s="66"/>
+      <c r="Y212" s="66"/>
+      <c r="Z212" s="66"/>
+      <c r="AA212" s="66"/>
+      <c r="AB212" s="66"/>
+      <c r="AC212" s="66"/>
+      <c r="AD212" s="66"/>
+      <c r="AE212" s="66"/>
+      <c r="AF212" s="66"/>
+      <c r="AG212" s="66"/>
+      <c r="AH212" s="66"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="64" t="s">
+      <c r="A213" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="64" t="s">
+      <c r="B213" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="64" t="s">
+      <c r="C213" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="64"/>
-      <c r="E213" s="64"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="64"/>
-      <c r="I213" s="64"/>
-      <c r="J213" s="64"/>
-      <c r="K213" s="64"/>
-      <c r="L213" s="64" t="s">
+      <c r="D213" s="68"/>
+      <c r="E213" s="68"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="68"/>
+      <c r="I213" s="68"/>
+      <c r="J213" s="68"/>
+      <c r="K213" s="68"/>
+      <c r="L213" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M213" s="64"/>
-      <c r="N213" s="64"/>
-      <c r="O213" s="64"/>
-      <c r="P213" s="64"/>
-      <c r="Q213" s="64"/>
-      <c r="R213" s="64"/>
-      <c r="S213" s="64"/>
-      <c r="T213" s="64"/>
-      <c r="U213" s="64" t="s">
+      <c r="M213" s="68"/>
+      <c r="N213" s="68"/>
+      <c r="O213" s="68"/>
+      <c r="P213" s="68"/>
+      <c r="Q213" s="68"/>
+      <c r="R213" s="68"/>
+      <c r="S213" s="68"/>
+      <c r="T213" s="68"/>
+      <c r="U213" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="V213" s="64"/>
-      <c r="W213" s="64"/>
-      <c r="X213" s="64"/>
-      <c r="Y213" s="64"/>
-      <c r="Z213" s="64"/>
-      <c r="AA213" s="64"/>
-      <c r="AB213" s="64"/>
-      <c r="AC213" s="64"/>
-      <c r="AD213" s="64" t="s">
+      <c r="V213" s="68"/>
+      <c r="W213" s="68"/>
+      <c r="X213" s="68"/>
+      <c r="Y213" s="68"/>
+      <c r="Z213" s="68"/>
+      <c r="AA213" s="68"/>
+      <c r="AB213" s="68"/>
+      <c r="AC213" s="68"/>
+      <c r="AD213" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AE213" s="64"/>
-      <c r="AF213" s="64"/>
-      <c r="AG213" s="64"/>
-      <c r="AH213" s="65" t="s">
+      <c r="AE213" s="68"/>
+      <c r="AF213" s="68"/>
+      <c r="AG213" s="68"/>
+      <c r="AH213" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="64"/>
-      <c r="B214" s="64"/>
+      <c r="A214" s="68"/>
+      <c r="B214" s="68"/>
       <c r="C214" s="3">
         <v>1</v>
       </c>
@@ -46604,7 +46614,7 @@
       <c r="AG214" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH214" s="64"/>
+      <c r="AH214" s="68"/>
     </row>
     <row r="215" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -48407,99 +48417,45 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="61" t="s">
+      <c r="A260" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="62"/>
-      <c r="C260" s="62"/>
-      <c r="D260" s="62"/>
-      <c r="E260" s="62"/>
-      <c r="F260" s="62"/>
-      <c r="G260" s="62"/>
-      <c r="H260" s="62"/>
-      <c r="I260" s="62"/>
-      <c r="J260" s="62"/>
-      <c r="K260" s="62"/>
-      <c r="L260" s="62"/>
-      <c r="M260" s="62"/>
-      <c r="N260" s="62"/>
-      <c r="O260" s="62"/>
-      <c r="P260" s="62"/>
-      <c r="Q260" s="62"/>
-      <c r="R260" s="62"/>
-      <c r="S260" s="62"/>
-      <c r="T260" s="62"/>
-      <c r="U260" s="62"/>
-      <c r="V260" s="62"/>
-      <c r="W260" s="62"/>
-      <c r="X260" s="62"/>
-      <c r="Y260" s="62"/>
-      <c r="Z260" s="62"/>
-      <c r="AA260" s="62"/>
-      <c r="AB260" s="62"/>
-      <c r="AC260" s="62"/>
-      <c r="AD260" s="62"/>
-      <c r="AE260" s="62"/>
-      <c r="AF260" s="62"/>
-      <c r="AG260" s="62"/>
-      <c r="AH260" s="62"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
+      <c r="K260" s="70"/>
+      <c r="L260" s="70"/>
+      <c r="M260" s="70"/>
+      <c r="N260" s="70"/>
+      <c r="O260" s="70"/>
+      <c r="P260" s="70"/>
+      <c r="Q260" s="70"/>
+      <c r="R260" s="70"/>
+      <c r="S260" s="70"/>
+      <c r="T260" s="70"/>
+      <c r="U260" s="70"/>
+      <c r="V260" s="70"/>
+      <c r="W260" s="70"/>
+      <c r="X260" s="70"/>
+      <c r="Y260" s="70"/>
+      <c r="Z260" s="70"/>
+      <c r="AA260" s="70"/>
+      <c r="AB260" s="70"/>
+      <c r="AC260" s="70"/>
+      <c r="AD260" s="70"/>
+      <c r="AE260" s="70"/>
+      <c r="AF260" s="70"/>
+      <c r="AG260" s="70"/>
+      <c r="AH260" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48516,6 +48472,60 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1730B1-AC72-4512-8A40-524DBBBF04F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865232DF-DB2D-4ACF-A3BC-EC4B033CEA3A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="1725">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6907,6 +6907,14 @@
   </si>
   <si>
     <t>2018/11/26</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -7109,7 +7117,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7310,18 +7318,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7332,7 +7328,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8266,80 +8277,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
@@ -8387,7 +8398,7 @@
       <c r="AE3" s="68"/>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
-      <c r="AH3" s="72" t="s">
+      <c r="AH3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9690,118 +9701,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="67"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="70"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="70"/>
+      <c r="AF36" s="70"/>
+      <c r="AG36" s="70"/>
+      <c r="AH36" s="70"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="68" t="s">
@@ -9849,7 +9860,7 @@
       <c r="AE38" s="68"/>
       <c r="AF38" s="68"/>
       <c r="AG38" s="68"/>
-      <c r="AH38" s="72" t="s">
+      <c r="AH38" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12312,119 +12323,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="69" t="s">
+      <c r="A99" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="70"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="71"/>
-      <c r="P99" s="71"/>
-      <c r="Q99" s="71"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="71"/>
-      <c r="T99" s="71"/>
-      <c r="U99" s="71"/>
-      <c r="V99" s="71"/>
-      <c r="W99" s="71"/>
-      <c r="X99" s="71"/>
-      <c r="Y99" s="71"/>
-      <c r="Z99" s="71"/>
-      <c r="AA99" s="71"/>
-      <c r="AB99" s="71"/>
-      <c r="AC99" s="71"/>
-      <c r="AD99" s="71"/>
-      <c r="AE99" s="71"/>
-      <c r="AF99" s="71"/>
-      <c r="AG99" s="71"/>
-      <c r="AH99" s="71"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="67"/>
+      <c r="N99" s="67"/>
+      <c r="O99" s="67"/>
+      <c r="P99" s="67"/>
+      <c r="Q99" s="67"/>
+      <c r="R99" s="67"/>
+      <c r="S99" s="67"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="67"/>
+      <c r="V99" s="67"/>
+      <c r="W99" s="67"/>
+      <c r="X99" s="67"/>
+      <c r="Y99" s="67"/>
+      <c r="Z99" s="67"/>
+      <c r="AA99" s="67"/>
+      <c r="AB99" s="67"/>
+      <c r="AC99" s="67"/>
+      <c r="AD99" s="67"/>
+      <c r="AE99" s="67"/>
+      <c r="AF99" s="67"/>
+      <c r="AG99" s="67"/>
+      <c r="AH99" s="67"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="65"/>
-      <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="65"/>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="65"/>
-      <c r="S101" s="65"/>
-      <c r="T101" s="65"/>
-      <c r="U101" s="65"/>
-      <c r="V101" s="65"/>
-      <c r="W101" s="65"/>
-      <c r="X101" s="65"/>
-      <c r="Y101" s="65"/>
-      <c r="Z101" s="65"/>
-      <c r="AA101" s="65"/>
-      <c r="AB101" s="65"/>
-      <c r="AC101" s="65"/>
-      <c r="AD101" s="65"/>
-      <c r="AE101" s="65"/>
-      <c r="AF101" s="65"/>
-      <c r="AG101" s="65"/>
-      <c r="AH101" s="65"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="70"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="70"/>
+      <c r="N101" s="70"/>
+      <c r="O101" s="70"/>
+      <c r="P101" s="70"/>
+      <c r="Q101" s="70"/>
+      <c r="R101" s="70"/>
+      <c r="S101" s="70"/>
+      <c r="T101" s="70"/>
+      <c r="U101" s="70"/>
+      <c r="V101" s="70"/>
+      <c r="W101" s="70"/>
+      <c r="X101" s="70"/>
+      <c r="Y101" s="70"/>
+      <c r="Z101" s="70"/>
+      <c r="AA101" s="70"/>
+      <c r="AB101" s="70"/>
+      <c r="AC101" s="70"/>
+      <c r="AD101" s="70"/>
+      <c r="AE101" s="70"/>
+      <c r="AF101" s="70"/>
+      <c r="AG101" s="70"/>
+      <c r="AH101" s="70"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="67"/>
-      <c r="L102" s="67"/>
-      <c r="M102" s="67"/>
-      <c r="N102" s="67"/>
-      <c r="O102" s="67"/>
-      <c r="P102" s="67"/>
-      <c r="Q102" s="67"/>
-      <c r="R102" s="67"/>
-      <c r="S102" s="67"/>
-      <c r="T102" s="67"/>
-      <c r="U102" s="67"/>
-      <c r="V102" s="67"/>
-      <c r="W102" s="67"/>
-      <c r="X102" s="67"/>
-      <c r="Y102" s="67"/>
-      <c r="Z102" s="67"/>
-      <c r="AA102" s="67"/>
-      <c r="AB102" s="67"/>
-      <c r="AC102" s="67"/>
-      <c r="AD102" s="67"/>
-      <c r="AE102" s="67"/>
-      <c r="AF102" s="67"/>
-      <c r="AG102" s="67"/>
-      <c r="AH102" s="67"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="72"/>
+      <c r="O102" s="72"/>
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
+      <c r="S102" s="72"/>
+      <c r="T102" s="72"/>
+      <c r="U102" s="72"/>
+      <c r="V102" s="72"/>
+      <c r="W102" s="72"/>
+      <c r="X102" s="72"/>
+      <c r="Y102" s="72"/>
+      <c r="Z102" s="72"/>
+      <c r="AA102" s="72"/>
+      <c r="AB102" s="72"/>
+      <c r="AC102" s="72"/>
+      <c r="AD102" s="72"/>
+      <c r="AE102" s="72"/>
+      <c r="AF102" s="72"/>
+      <c r="AG102" s="72"/>
+      <c r="AH102" s="72"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="68" t="s">
@@ -12472,7 +12483,7 @@
       <c r="AE103" s="68"/>
       <c r="AF103" s="68"/>
       <c r="AG103" s="68"/>
-      <c r="AH103" s="72" t="s">
+      <c r="AH103" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15095,118 +15106,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="69" t="s">
+      <c r="A168" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="70"/>
-      <c r="C168" s="71"/>
-      <c r="D168" s="71"/>
-      <c r="E168" s="71"/>
-      <c r="F168" s="71"/>
-      <c r="G168" s="71"/>
-      <c r="H168" s="71"/>
-      <c r="I168" s="71"/>
-      <c r="J168" s="71"/>
-      <c r="K168" s="71"/>
-      <c r="L168" s="71"/>
-      <c r="M168" s="71"/>
-      <c r="N168" s="71"/>
-      <c r="O168" s="71"/>
-      <c r="P168" s="71"/>
-      <c r="Q168" s="71"/>
-      <c r="R168" s="71"/>
-      <c r="S168" s="71"/>
-      <c r="T168" s="71"/>
-      <c r="U168" s="71"/>
-      <c r="V168" s="71"/>
-      <c r="W168" s="71"/>
-      <c r="X168" s="71"/>
-      <c r="Y168" s="71"/>
-      <c r="Z168" s="71"/>
-      <c r="AA168" s="71"/>
-      <c r="AB168" s="71"/>
-      <c r="AC168" s="71"/>
-      <c r="AD168" s="71"/>
-      <c r="AE168" s="71"/>
-      <c r="AF168" s="71"/>
-      <c r="AG168" s="71"/>
-      <c r="AH168" s="71"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="67"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="67"/>
+      <c r="G168" s="67"/>
+      <c r="H168" s="67"/>
+      <c r="I168" s="67"/>
+      <c r="J168" s="67"/>
+      <c r="K168" s="67"/>
+      <c r="L168" s="67"/>
+      <c r="M168" s="67"/>
+      <c r="N168" s="67"/>
+      <c r="O168" s="67"/>
+      <c r="P168" s="67"/>
+      <c r="Q168" s="67"/>
+      <c r="R168" s="67"/>
+      <c r="S168" s="67"/>
+      <c r="T168" s="67"/>
+      <c r="U168" s="67"/>
+      <c r="V168" s="67"/>
+      <c r="W168" s="67"/>
+      <c r="X168" s="67"/>
+      <c r="Y168" s="67"/>
+      <c r="Z168" s="67"/>
+      <c r="AA168" s="67"/>
+      <c r="AB168" s="67"/>
+      <c r="AC168" s="67"/>
+      <c r="AD168" s="67"/>
+      <c r="AE168" s="67"/>
+      <c r="AF168" s="67"/>
+      <c r="AG168" s="67"/>
+      <c r="AH168" s="67"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="65" t="s">
+      <c r="A169" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="65"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="65"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="65"/>
-      <c r="H169" s="65"/>
-      <c r="I169" s="65"/>
-      <c r="J169" s="65"/>
-      <c r="K169" s="65"/>
-      <c r="L169" s="65"/>
-      <c r="M169" s="65"/>
-      <c r="N169" s="65"/>
-      <c r="O169" s="65"/>
-      <c r="P169" s="65"/>
-      <c r="Q169" s="65"/>
-      <c r="R169" s="65"/>
-      <c r="S169" s="65"/>
-      <c r="T169" s="65"/>
-      <c r="U169" s="65"/>
-      <c r="V169" s="65"/>
-      <c r="W169" s="65"/>
-      <c r="X169" s="65"/>
-      <c r="Y169" s="65"/>
-      <c r="Z169" s="65"/>
-      <c r="AA169" s="65"/>
-      <c r="AB169" s="65"/>
-      <c r="AC169" s="65"/>
-      <c r="AD169" s="65"/>
-      <c r="AE169" s="65"/>
-      <c r="AF169" s="65"/>
-      <c r="AG169" s="65"/>
-      <c r="AH169" s="65"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="70"/>
+      <c r="H169" s="70"/>
+      <c r="I169" s="70"/>
+      <c r="J169" s="70"/>
+      <c r="K169" s="70"/>
+      <c r="L169" s="70"/>
+      <c r="M169" s="70"/>
+      <c r="N169" s="70"/>
+      <c r="O169" s="70"/>
+      <c r="P169" s="70"/>
+      <c r="Q169" s="70"/>
+      <c r="R169" s="70"/>
+      <c r="S169" s="70"/>
+      <c r="T169" s="70"/>
+      <c r="U169" s="70"/>
+      <c r="V169" s="70"/>
+      <c r="W169" s="70"/>
+      <c r="X169" s="70"/>
+      <c r="Y169" s="70"/>
+      <c r="Z169" s="70"/>
+      <c r="AA169" s="70"/>
+      <c r="AB169" s="70"/>
+      <c r="AC169" s="70"/>
+      <c r="AD169" s="70"/>
+      <c r="AE169" s="70"/>
+      <c r="AF169" s="70"/>
+      <c r="AG169" s="70"/>
+      <c r="AH169" s="70"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="66" t="s">
+      <c r="A170" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="66"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="67"/>
-      <c r="I170" s="67"/>
-      <c r="J170" s="67"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="67"/>
-      <c r="M170" s="67"/>
-      <c r="N170" s="67"/>
-      <c r="O170" s="67"/>
-      <c r="P170" s="67"/>
-      <c r="Q170" s="67"/>
-      <c r="R170" s="67"/>
-      <c r="S170" s="67"/>
-      <c r="T170" s="67"/>
-      <c r="U170" s="67"/>
-      <c r="V170" s="67"/>
-      <c r="W170" s="67"/>
-      <c r="X170" s="67"/>
-      <c r="Y170" s="67"/>
-      <c r="Z170" s="67"/>
-      <c r="AA170" s="67"/>
-      <c r="AB170" s="67"/>
-      <c r="AC170" s="67"/>
-      <c r="AD170" s="67"/>
-      <c r="AE170" s="67"/>
-      <c r="AF170" s="67"/>
-      <c r="AG170" s="67"/>
-      <c r="AH170" s="67"/>
+      <c r="B170" s="71"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="72"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="72"/>
+      <c r="K170" s="72"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="72"/>
+      <c r="N170" s="72"/>
+      <c r="O170" s="72"/>
+      <c r="P170" s="72"/>
+      <c r="Q170" s="72"/>
+      <c r="R170" s="72"/>
+      <c r="S170" s="72"/>
+      <c r="T170" s="72"/>
+      <c r="U170" s="72"/>
+      <c r="V170" s="72"/>
+      <c r="W170" s="72"/>
+      <c r="X170" s="72"/>
+      <c r="Y170" s="72"/>
+      <c r="Z170" s="72"/>
+      <c r="AA170" s="72"/>
+      <c r="AB170" s="72"/>
+      <c r="AC170" s="72"/>
+      <c r="AD170" s="72"/>
+      <c r="AE170" s="72"/>
+      <c r="AF170" s="72"/>
+      <c r="AG170" s="72"/>
+      <c r="AH170" s="72"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="68" t="s">
@@ -15254,7 +15265,7 @@
       <c r="AE171" s="68"/>
       <c r="AF171" s="68"/>
       <c r="AG171" s="68"/>
-      <c r="AH171" s="72" t="s">
+      <c r="AH171" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16837,42 +16848,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="69" t="s">
+      <c r="A210" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="70"/>
-      <c r="C210" s="71"/>
-      <c r="D210" s="71"/>
-      <c r="E210" s="71"/>
-      <c r="F210" s="71"/>
-      <c r="G210" s="71"/>
-      <c r="H210" s="71"/>
-      <c r="I210" s="71"/>
-      <c r="J210" s="71"/>
-      <c r="K210" s="71"/>
-      <c r="L210" s="71"/>
-      <c r="M210" s="71"/>
-      <c r="N210" s="71"/>
-      <c r="O210" s="71"/>
-      <c r="P210" s="71"/>
-      <c r="Q210" s="71"/>
-      <c r="R210" s="71"/>
-      <c r="S210" s="71"/>
-      <c r="T210" s="71"/>
-      <c r="U210" s="71"/>
-      <c r="V210" s="71"/>
-      <c r="W210" s="71"/>
-      <c r="X210" s="71"/>
-      <c r="Y210" s="71"/>
-      <c r="Z210" s="71"/>
-      <c r="AA210" s="71"/>
-      <c r="AB210" s="71"/>
-      <c r="AC210" s="71"/>
-      <c r="AD210" s="71"/>
-      <c r="AE210" s="71"/>
-      <c r="AF210" s="71"/>
-      <c r="AG210" s="71"/>
-      <c r="AH210" s="71"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
+      <c r="L210" s="67"/>
+      <c r="M210" s="67"/>
+      <c r="N210" s="67"/>
+      <c r="O210" s="67"/>
+      <c r="P210" s="67"/>
+      <c r="Q210" s="67"/>
+      <c r="R210" s="67"/>
+      <c r="S210" s="67"/>
+      <c r="T210" s="67"/>
+      <c r="U210" s="67"/>
+      <c r="V210" s="67"/>
+      <c r="W210" s="67"/>
+      <c r="X210" s="67"/>
+      <c r="Y210" s="67"/>
+      <c r="Z210" s="67"/>
+      <c r="AA210" s="67"/>
+      <c r="AB210" s="67"/>
+      <c r="AC210" s="67"/>
+      <c r="AD210" s="67"/>
+      <c r="AE210" s="67"/>
+      <c r="AF210" s="67"/>
+      <c r="AG210" s="67"/>
+      <c r="AH210" s="67"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16911,80 +16922,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="65" t="s">
+      <c r="A212" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="65"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
-      <c r="L212" s="65"/>
-      <c r="M212" s="65"/>
-      <c r="N212" s="65"/>
-      <c r="O212" s="65"/>
-      <c r="P212" s="65"/>
-      <c r="Q212" s="65"/>
-      <c r="R212" s="65"/>
-      <c r="S212" s="65"/>
-      <c r="T212" s="65"/>
-      <c r="U212" s="65"/>
-      <c r="V212" s="65"/>
-      <c r="W212" s="65"/>
-      <c r="X212" s="65"/>
-      <c r="Y212" s="65"/>
-      <c r="Z212" s="65"/>
-      <c r="AA212" s="65"/>
-      <c r="AB212" s="65"/>
-      <c r="AC212" s="65"/>
-      <c r="AD212" s="65"/>
-      <c r="AE212" s="65"/>
-      <c r="AF212" s="65"/>
-      <c r="AG212" s="65"/>
-      <c r="AH212" s="65"/>
+      <c r="B212" s="70"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="70"/>
+      <c r="F212" s="70"/>
+      <c r="G212" s="70"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="70"/>
+      <c r="M212" s="70"/>
+      <c r="N212" s="70"/>
+      <c r="O212" s="70"/>
+      <c r="P212" s="70"/>
+      <c r="Q212" s="70"/>
+      <c r="R212" s="70"/>
+      <c r="S212" s="70"/>
+      <c r="T212" s="70"/>
+      <c r="U212" s="70"/>
+      <c r="V212" s="70"/>
+      <c r="W212" s="70"/>
+      <c r="X212" s="70"/>
+      <c r="Y212" s="70"/>
+      <c r="Z212" s="70"/>
+      <c r="AA212" s="70"/>
+      <c r="AB212" s="70"/>
+      <c r="AC212" s="70"/>
+      <c r="AD212" s="70"/>
+      <c r="AE212" s="70"/>
+      <c r="AF212" s="70"/>
+      <c r="AG212" s="70"/>
+      <c r="AH212" s="70"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="66" t="s">
+      <c r="A213" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="66"/>
-      <c r="E213" s="66"/>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="66"/>
-      <c r="I213" s="66"/>
-      <c r="J213" s="66"/>
-      <c r="K213" s="66"/>
-      <c r="L213" s="66"/>
-      <c r="M213" s="66"/>
-      <c r="N213" s="66"/>
-      <c r="O213" s="66"/>
-      <c r="P213" s="66"/>
-      <c r="Q213" s="66"/>
-      <c r="R213" s="66"/>
-      <c r="S213" s="66"/>
-      <c r="T213" s="66"/>
-      <c r="U213" s="66"/>
-      <c r="V213" s="66"/>
-      <c r="W213" s="66"/>
-      <c r="X213" s="66"/>
-      <c r="Y213" s="66"/>
-      <c r="Z213" s="66"/>
-      <c r="AA213" s="66"/>
-      <c r="AB213" s="66"/>
-      <c r="AC213" s="66"/>
-      <c r="AD213" s="66"/>
-      <c r="AE213" s="66"/>
-      <c r="AF213" s="66"/>
-      <c r="AG213" s="66"/>
-      <c r="AH213" s="66"/>
+      <c r="B213" s="71"/>
+      <c r="C213" s="71"/>
+      <c r="D213" s="71"/>
+      <c r="E213" s="71"/>
+      <c r="F213" s="71"/>
+      <c r="G213" s="71"/>
+      <c r="H213" s="71"/>
+      <c r="I213" s="71"/>
+      <c r="J213" s="71"/>
+      <c r="K213" s="71"/>
+      <c r="L213" s="71"/>
+      <c r="M213" s="71"/>
+      <c r="N213" s="71"/>
+      <c r="O213" s="71"/>
+      <c r="P213" s="71"/>
+      <c r="Q213" s="71"/>
+      <c r="R213" s="71"/>
+      <c r="S213" s="71"/>
+      <c r="T213" s="71"/>
+      <c r="U213" s="71"/>
+      <c r="V213" s="71"/>
+      <c r="W213" s="71"/>
+      <c r="X213" s="71"/>
+      <c r="Y213" s="71"/>
+      <c r="Z213" s="71"/>
+      <c r="AA213" s="71"/>
+      <c r="AB213" s="71"/>
+      <c r="AC213" s="71"/>
+      <c r="AD213" s="71"/>
+      <c r="AE213" s="71"/>
+      <c r="AF213" s="71"/>
+      <c r="AG213" s="71"/>
+      <c r="AH213" s="71"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="68" t="s">
@@ -17032,7 +17043,7 @@
       <c r="AE214" s="68"/>
       <c r="AF214" s="68"/>
       <c r="AG214" s="68"/>
-      <c r="AH214" s="72" t="s">
+      <c r="AH214" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19735,45 +19746,79 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="69" t="s">
+      <c r="A281" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="70"/>
-      <c r="C281" s="71"/>
-      <c r="D281" s="71"/>
-      <c r="E281" s="71"/>
-      <c r="F281" s="71"/>
-      <c r="G281" s="71"/>
-      <c r="H281" s="71"/>
-      <c r="I281" s="71"/>
-      <c r="J281" s="71"/>
-      <c r="K281" s="71"/>
-      <c r="L281" s="71"/>
-      <c r="M281" s="71"/>
-      <c r="N281" s="71"/>
-      <c r="O281" s="71"/>
-      <c r="P281" s="71"/>
-      <c r="Q281" s="71"/>
-      <c r="R281" s="71"/>
-      <c r="S281" s="71"/>
-      <c r="T281" s="71"/>
-      <c r="U281" s="71"/>
-      <c r="V281" s="71"/>
-      <c r="W281" s="71"/>
-      <c r="X281" s="71"/>
-      <c r="Y281" s="71"/>
-      <c r="Z281" s="71"/>
-      <c r="AA281" s="71"/>
-      <c r="AB281" s="71"/>
-      <c r="AC281" s="71"/>
-      <c r="AD281" s="71"/>
-      <c r="AE281" s="71"/>
-      <c r="AF281" s="71"/>
-      <c r="AG281" s="71"/>
-      <c r="AH281" s="71"/>
+      <c r="B281" s="66"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="67"/>
+      <c r="E281" s="67"/>
+      <c r="F281" s="67"/>
+      <c r="G281" s="67"/>
+      <c r="H281" s="67"/>
+      <c r="I281" s="67"/>
+      <c r="J281" s="67"/>
+      <c r="K281" s="67"/>
+      <c r="L281" s="67"/>
+      <c r="M281" s="67"/>
+      <c r="N281" s="67"/>
+      <c r="O281" s="67"/>
+      <c r="P281" s="67"/>
+      <c r="Q281" s="67"/>
+      <c r="R281" s="67"/>
+      <c r="S281" s="67"/>
+      <c r="T281" s="67"/>
+      <c r="U281" s="67"/>
+      <c r="V281" s="67"/>
+      <c r="W281" s="67"/>
+      <c r="X281" s="67"/>
+      <c r="Y281" s="67"/>
+      <c r="Z281" s="67"/>
+      <c r="AA281" s="67"/>
+      <c r="AB281" s="67"/>
+      <c r="AC281" s="67"/>
+      <c r="AD281" s="67"/>
+      <c r="AE281" s="67"/>
+      <c r="AF281" s="67"/>
+      <c r="AG281" s="67"/>
+      <c r="AH281" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19790,40 +19835,6 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19835,8 +19846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F435" sqref="F435"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:XFD433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19857,80 +19868,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
@@ -19978,7 +19989,7 @@
       <c r="AE3" s="68"/>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
-      <c r="AH3" s="72" t="s">
+      <c r="AH3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22735,42 +22746,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="70"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="70"/>
-      <c r="S71" s="70"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="70"/>
-      <c r="V71" s="70"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="70"/>
-      <c r="Y71" s="70"/>
-      <c r="Z71" s="70"/>
-      <c r="AA71" s="70"/>
-      <c r="AB71" s="70"/>
-      <c r="AC71" s="70"/>
-      <c r="AD71" s="70"/>
-      <c r="AE71" s="70"/>
-      <c r="AF71" s="70"/>
-      <c r="AG71" s="70"/>
-      <c r="AH71" s="70"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
+      <c r="AD71" s="66"/>
+      <c r="AE71" s="66"/>
+      <c r="AF71" s="66"/>
+      <c r="AG71" s="66"/>
+      <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22809,80 +22820,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="65"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="65"/>
-      <c r="W73" s="65"/>
-      <c r="X73" s="65"/>
-      <c r="Y73" s="65"/>
-      <c r="Z73" s="65"/>
-      <c r="AA73" s="65"/>
-      <c r="AB73" s="65"/>
-      <c r="AC73" s="65"/>
-      <c r="AD73" s="65"/>
-      <c r="AE73" s="65"/>
-      <c r="AF73" s="65"/>
-      <c r="AG73" s="65"/>
-      <c r="AH73" s="65"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="70"/>
+      <c r="T73" s="70"/>
+      <c r="U73" s="70"/>
+      <c r="V73" s="70"/>
+      <c r="W73" s="70"/>
+      <c r="X73" s="70"/>
+      <c r="Y73" s="70"/>
+      <c r="Z73" s="70"/>
+      <c r="AA73" s="70"/>
+      <c r="AB73" s="70"/>
+      <c r="AC73" s="70"/>
+      <c r="AD73" s="70"/>
+      <c r="AE73" s="70"/>
+      <c r="AF73" s="70"/>
+      <c r="AG73" s="70"/>
+      <c r="AH73" s="70"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="66" t="s">
+      <c r="A74" s="71" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
-      <c r="W74" s="66"/>
-      <c r="X74" s="66"/>
-      <c r="Y74" s="66"/>
-      <c r="Z74" s="66"/>
-      <c r="AA74" s="66"/>
-      <c r="AB74" s="66"/>
-      <c r="AC74" s="66"/>
-      <c r="AD74" s="66"/>
-      <c r="AE74" s="66"/>
-      <c r="AF74" s="66"/>
-      <c r="AG74" s="66"/>
-      <c r="AH74" s="66"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
+      <c r="V74" s="71"/>
+      <c r="W74" s="71"/>
+      <c r="X74" s="71"/>
+      <c r="Y74" s="71"/>
+      <c r="Z74" s="71"/>
+      <c r="AA74" s="71"/>
+      <c r="AB74" s="71"/>
+      <c r="AC74" s="71"/>
+      <c r="AD74" s="71"/>
+      <c r="AE74" s="71"/>
+      <c r="AF74" s="71"/>
+      <c r="AG74" s="71"/>
+      <c r="AH74" s="71"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="68" t="s">
@@ -22930,7 +22941,7 @@
       <c r="AE75" s="68"/>
       <c r="AF75" s="68"/>
       <c r="AG75" s="68"/>
-      <c r="AH75" s="72" t="s">
+      <c r="AH75" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25589,118 +25600,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="69" t="s">
+      <c r="A141" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="70"/>
-      <c r="L141" s="70"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="70"/>
-      <c r="O141" s="70"/>
-      <c r="P141" s="70"/>
-      <c r="Q141" s="70"/>
-      <c r="R141" s="70"/>
-      <c r="S141" s="70"/>
-      <c r="T141" s="70"/>
-      <c r="U141" s="70"/>
-      <c r="V141" s="70"/>
-      <c r="W141" s="70"/>
-      <c r="X141" s="70"/>
-      <c r="Y141" s="70"/>
-      <c r="Z141" s="70"/>
-      <c r="AA141" s="70"/>
-      <c r="AB141" s="70"/>
-      <c r="AC141" s="70"/>
-      <c r="AD141" s="70"/>
-      <c r="AE141" s="70"/>
-      <c r="AF141" s="70"/>
-      <c r="AG141" s="70"/>
-      <c r="AH141" s="70"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="66"/>
+      <c r="J141" s="66"/>
+      <c r="K141" s="66"/>
+      <c r="L141" s="66"/>
+      <c r="M141" s="66"/>
+      <c r="N141" s="66"/>
+      <c r="O141" s="66"/>
+      <c r="P141" s="66"/>
+      <c r="Q141" s="66"/>
+      <c r="R141" s="66"/>
+      <c r="S141" s="66"/>
+      <c r="T141" s="66"/>
+      <c r="U141" s="66"/>
+      <c r="V141" s="66"/>
+      <c r="W141" s="66"/>
+      <c r="X141" s="66"/>
+      <c r="Y141" s="66"/>
+      <c r="Z141" s="66"/>
+      <c r="AA141" s="66"/>
+      <c r="AB141" s="66"/>
+      <c r="AC141" s="66"/>
+      <c r="AD141" s="66"/>
+      <c r="AE141" s="66"/>
+      <c r="AF141" s="66"/>
+      <c r="AG141" s="66"/>
+      <c r="AH141" s="66"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="65" t="s">
+      <c r="A142" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
-      <c r="L142" s="65"/>
-      <c r="M142" s="65"/>
-      <c r="N142" s="65"/>
-      <c r="O142" s="65"/>
-      <c r="P142" s="65"/>
-      <c r="Q142" s="65"/>
-      <c r="R142" s="65"/>
-      <c r="S142" s="65"/>
-      <c r="T142" s="65"/>
-      <c r="U142" s="65"/>
-      <c r="V142" s="65"/>
-      <c r="W142" s="65"/>
-      <c r="X142" s="65"/>
-      <c r="Y142" s="65"/>
-      <c r="Z142" s="65"/>
-      <c r="AA142" s="65"/>
-      <c r="AB142" s="65"/>
-      <c r="AC142" s="65"/>
-      <c r="AD142" s="65"/>
-      <c r="AE142" s="65"/>
-      <c r="AF142" s="65"/>
-      <c r="AG142" s="65"/>
-      <c r="AH142" s="65"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="70"/>
+      <c r="F142" s="70"/>
+      <c r="G142" s="70"/>
+      <c r="H142" s="70"/>
+      <c r="I142" s="70"/>
+      <c r="J142" s="70"/>
+      <c r="K142" s="70"/>
+      <c r="L142" s="70"/>
+      <c r="M142" s="70"/>
+      <c r="N142" s="70"/>
+      <c r="O142" s="70"/>
+      <c r="P142" s="70"/>
+      <c r="Q142" s="70"/>
+      <c r="R142" s="70"/>
+      <c r="S142" s="70"/>
+      <c r="T142" s="70"/>
+      <c r="U142" s="70"/>
+      <c r="V142" s="70"/>
+      <c r="W142" s="70"/>
+      <c r="X142" s="70"/>
+      <c r="Y142" s="70"/>
+      <c r="Z142" s="70"/>
+      <c r="AA142" s="70"/>
+      <c r="AB142" s="70"/>
+      <c r="AC142" s="70"/>
+      <c r="AD142" s="70"/>
+      <c r="AE142" s="70"/>
+      <c r="AF142" s="70"/>
+      <c r="AG142" s="70"/>
+      <c r="AH142" s="70"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="66" t="s">
+      <c r="A143" s="71" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
-      <c r="J143" s="66"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="66"/>
-      <c r="M143" s="66"/>
-      <c r="N143" s="66"/>
-      <c r="O143" s="66"/>
-      <c r="P143" s="66"/>
-      <c r="Q143" s="66"/>
-      <c r="R143" s="66"/>
-      <c r="S143" s="66"/>
-      <c r="T143" s="66"/>
-      <c r="U143" s="66"/>
-      <c r="V143" s="66"/>
-      <c r="W143" s="66"/>
-      <c r="X143" s="66"/>
-      <c r="Y143" s="66"/>
-      <c r="Z143" s="66"/>
-      <c r="AA143" s="66"/>
-      <c r="AB143" s="66"/>
-      <c r="AC143" s="66"/>
-      <c r="AD143" s="66"/>
-      <c r="AE143" s="66"/>
-      <c r="AF143" s="66"/>
-      <c r="AG143" s="66"/>
-      <c r="AH143" s="66"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="71"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="71"/>
+      <c r="J143" s="71"/>
+      <c r="K143" s="71"/>
+      <c r="L143" s="71"/>
+      <c r="M143" s="71"/>
+      <c r="N143" s="71"/>
+      <c r="O143" s="71"/>
+      <c r="P143" s="71"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="71"/>
+      <c r="S143" s="71"/>
+      <c r="T143" s="71"/>
+      <c r="U143" s="71"/>
+      <c r="V143" s="71"/>
+      <c r="W143" s="71"/>
+      <c r="X143" s="71"/>
+      <c r="Y143" s="71"/>
+      <c r="Z143" s="71"/>
+      <c r="AA143" s="71"/>
+      <c r="AB143" s="71"/>
+      <c r="AC143" s="71"/>
+      <c r="AD143" s="71"/>
+      <c r="AE143" s="71"/>
+      <c r="AF143" s="71"/>
+      <c r="AG143" s="71"/>
+      <c r="AH143" s="71"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
@@ -25748,7 +25759,7 @@
       <c r="AE144" s="68"/>
       <c r="AF144" s="68"/>
       <c r="AG144" s="68"/>
-      <c r="AH144" s="72" t="s">
+      <c r="AH144" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28211,118 +28222,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="69" t="s">
+      <c r="A205" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="70"/>
-      <c r="C205" s="70"/>
-      <c r="D205" s="70"/>
-      <c r="E205" s="70"/>
-      <c r="F205" s="70"/>
-      <c r="G205" s="70"/>
-      <c r="H205" s="70"/>
-      <c r="I205" s="70"/>
-      <c r="J205" s="70"/>
-      <c r="K205" s="70"/>
-      <c r="L205" s="70"/>
-      <c r="M205" s="70"/>
-      <c r="N205" s="70"/>
-      <c r="O205" s="70"/>
-      <c r="P205" s="70"/>
-      <c r="Q205" s="70"/>
-      <c r="R205" s="70"/>
-      <c r="S205" s="70"/>
-      <c r="T205" s="70"/>
-      <c r="U205" s="70"/>
-      <c r="V205" s="70"/>
-      <c r="W205" s="70"/>
-      <c r="X205" s="70"/>
-      <c r="Y205" s="70"/>
-      <c r="Z205" s="70"/>
-      <c r="AA205" s="70"/>
-      <c r="AB205" s="70"/>
-      <c r="AC205" s="70"/>
-      <c r="AD205" s="70"/>
-      <c r="AE205" s="70"/>
-      <c r="AF205" s="70"/>
-      <c r="AG205" s="70"/>
-      <c r="AH205" s="70"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="66"/>
+      <c r="D205" s="66"/>
+      <c r="E205" s="66"/>
+      <c r="F205" s="66"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="66"/>
+      <c r="I205" s="66"/>
+      <c r="J205" s="66"/>
+      <c r="K205" s="66"/>
+      <c r="L205" s="66"/>
+      <c r="M205" s="66"/>
+      <c r="N205" s="66"/>
+      <c r="O205" s="66"/>
+      <c r="P205" s="66"/>
+      <c r="Q205" s="66"/>
+      <c r="R205" s="66"/>
+      <c r="S205" s="66"/>
+      <c r="T205" s="66"/>
+      <c r="U205" s="66"/>
+      <c r="V205" s="66"/>
+      <c r="W205" s="66"/>
+      <c r="X205" s="66"/>
+      <c r="Y205" s="66"/>
+      <c r="Z205" s="66"/>
+      <c r="AA205" s="66"/>
+      <c r="AB205" s="66"/>
+      <c r="AC205" s="66"/>
+      <c r="AD205" s="66"/>
+      <c r="AE205" s="66"/>
+      <c r="AF205" s="66"/>
+      <c r="AG205" s="66"/>
+      <c r="AH205" s="66"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="65" t="s">
+      <c r="A207" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="65"/>
-      <c r="C207" s="65"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
-      <c r="L207" s="65"/>
-      <c r="M207" s="65"/>
-      <c r="N207" s="65"/>
-      <c r="O207" s="65"/>
-      <c r="P207" s="65"/>
-      <c r="Q207" s="65"/>
-      <c r="R207" s="65"/>
-      <c r="S207" s="65"/>
-      <c r="T207" s="65"/>
-      <c r="U207" s="65"/>
-      <c r="V207" s="65"/>
-      <c r="W207" s="65"/>
-      <c r="X207" s="65"/>
-      <c r="Y207" s="65"/>
-      <c r="Z207" s="65"/>
-      <c r="AA207" s="65"/>
-      <c r="AB207" s="65"/>
-      <c r="AC207" s="65"/>
-      <c r="AD207" s="65"/>
-      <c r="AE207" s="65"/>
-      <c r="AF207" s="65"/>
-      <c r="AG207" s="65"/>
-      <c r="AH207" s="65"/>
+      <c r="B207" s="70"/>
+      <c r="C207" s="70"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="70"/>
+      <c r="F207" s="70"/>
+      <c r="G207" s="70"/>
+      <c r="H207" s="70"/>
+      <c r="I207" s="70"/>
+      <c r="J207" s="70"/>
+      <c r="K207" s="70"/>
+      <c r="L207" s="70"/>
+      <c r="M207" s="70"/>
+      <c r="N207" s="70"/>
+      <c r="O207" s="70"/>
+      <c r="P207" s="70"/>
+      <c r="Q207" s="70"/>
+      <c r="R207" s="70"/>
+      <c r="S207" s="70"/>
+      <c r="T207" s="70"/>
+      <c r="U207" s="70"/>
+      <c r="V207" s="70"/>
+      <c r="W207" s="70"/>
+      <c r="X207" s="70"/>
+      <c r="Y207" s="70"/>
+      <c r="Z207" s="70"/>
+      <c r="AA207" s="70"/>
+      <c r="AB207" s="70"/>
+      <c r="AC207" s="70"/>
+      <c r="AD207" s="70"/>
+      <c r="AE207" s="70"/>
+      <c r="AF207" s="70"/>
+      <c r="AG207" s="70"/>
+      <c r="AH207" s="70"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="66" t="s">
+      <c r="A208" s="71" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="66"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="66"/>
-      <c r="I208" s="66"/>
-      <c r="J208" s="66"/>
-      <c r="K208" s="66"/>
-      <c r="L208" s="66"/>
-      <c r="M208" s="66"/>
-      <c r="N208" s="66"/>
-      <c r="O208" s="66"/>
-      <c r="P208" s="66"/>
-      <c r="Q208" s="66"/>
-      <c r="R208" s="66"/>
-      <c r="S208" s="66"/>
-      <c r="T208" s="66"/>
-      <c r="U208" s="66"/>
-      <c r="V208" s="66"/>
-      <c r="W208" s="66"/>
-      <c r="X208" s="66"/>
-      <c r="Y208" s="66"/>
-      <c r="Z208" s="66"/>
-      <c r="AA208" s="66"/>
-      <c r="AB208" s="66"/>
-      <c r="AC208" s="66"/>
-      <c r="AD208" s="66"/>
-      <c r="AE208" s="66"/>
-      <c r="AF208" s="66"/>
-      <c r="AG208" s="66"/>
-      <c r="AH208" s="66"/>
+      <c r="B208" s="71"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="71"/>
+      <c r="E208" s="71"/>
+      <c r="F208" s="71"/>
+      <c r="G208" s="71"/>
+      <c r="H208" s="71"/>
+      <c r="I208" s="71"/>
+      <c r="J208" s="71"/>
+      <c r="K208" s="71"/>
+      <c r="L208" s="71"/>
+      <c r="M208" s="71"/>
+      <c r="N208" s="71"/>
+      <c r="O208" s="71"/>
+      <c r="P208" s="71"/>
+      <c r="Q208" s="71"/>
+      <c r="R208" s="71"/>
+      <c r="S208" s="71"/>
+      <c r="T208" s="71"/>
+      <c r="U208" s="71"/>
+      <c r="V208" s="71"/>
+      <c r="W208" s="71"/>
+      <c r="X208" s="71"/>
+      <c r="Y208" s="71"/>
+      <c r="Z208" s="71"/>
+      <c r="AA208" s="71"/>
+      <c r="AB208" s="71"/>
+      <c r="AC208" s="71"/>
+      <c r="AD208" s="71"/>
+      <c r="AE208" s="71"/>
+      <c r="AF208" s="71"/>
+      <c r="AG208" s="71"/>
+      <c r="AH208" s="71"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="68" t="s">
@@ -28370,7 +28381,7 @@
       <c r="AE209" s="68"/>
       <c r="AF209" s="68"/>
       <c r="AG209" s="68"/>
-      <c r="AH209" s="72" t="s">
+      <c r="AH209" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30295,118 +30306,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="69" t="s">
+      <c r="A256" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="70"/>
-      <c r="C256" s="70"/>
-      <c r="D256" s="70"/>
-      <c r="E256" s="70"/>
-      <c r="F256" s="70"/>
-      <c r="G256" s="70"/>
-      <c r="H256" s="70"/>
-      <c r="I256" s="70"/>
-      <c r="J256" s="70"/>
-      <c r="K256" s="70"/>
-      <c r="L256" s="70"/>
-      <c r="M256" s="70"/>
-      <c r="N256" s="70"/>
-      <c r="O256" s="70"/>
-      <c r="P256" s="70"/>
-      <c r="Q256" s="70"/>
-      <c r="R256" s="70"/>
-      <c r="S256" s="70"/>
-      <c r="T256" s="70"/>
-      <c r="U256" s="70"/>
-      <c r="V256" s="70"/>
-      <c r="W256" s="70"/>
-      <c r="X256" s="70"/>
-      <c r="Y256" s="70"/>
-      <c r="Z256" s="70"/>
-      <c r="AA256" s="70"/>
-      <c r="AB256" s="70"/>
-      <c r="AC256" s="70"/>
-      <c r="AD256" s="70"/>
-      <c r="AE256" s="70"/>
-      <c r="AF256" s="70"/>
-      <c r="AG256" s="70"/>
-      <c r="AH256" s="70"/>
+      <c r="B256" s="66"/>
+      <c r="C256" s="66"/>
+      <c r="D256" s="66"/>
+      <c r="E256" s="66"/>
+      <c r="F256" s="66"/>
+      <c r="G256" s="66"/>
+      <c r="H256" s="66"/>
+      <c r="I256" s="66"/>
+      <c r="J256" s="66"/>
+      <c r="K256" s="66"/>
+      <c r="L256" s="66"/>
+      <c r="M256" s="66"/>
+      <c r="N256" s="66"/>
+      <c r="O256" s="66"/>
+      <c r="P256" s="66"/>
+      <c r="Q256" s="66"/>
+      <c r="R256" s="66"/>
+      <c r="S256" s="66"/>
+      <c r="T256" s="66"/>
+      <c r="U256" s="66"/>
+      <c r="V256" s="66"/>
+      <c r="W256" s="66"/>
+      <c r="X256" s="66"/>
+      <c r="Y256" s="66"/>
+      <c r="Z256" s="66"/>
+      <c r="AA256" s="66"/>
+      <c r="AB256" s="66"/>
+      <c r="AC256" s="66"/>
+      <c r="AD256" s="66"/>
+      <c r="AE256" s="66"/>
+      <c r="AF256" s="66"/>
+      <c r="AG256" s="66"/>
+      <c r="AH256" s="66"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="65" t="s">
+      <c r="A258" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="65"/>
-      <c r="C258" s="65"/>
-      <c r="D258" s="65"/>
-      <c r="E258" s="65"/>
-      <c r="F258" s="65"/>
-      <c r="G258" s="65"/>
-      <c r="H258" s="65"/>
-      <c r="I258" s="65"/>
-      <c r="J258" s="65"/>
-      <c r="K258" s="65"/>
-      <c r="L258" s="65"/>
-      <c r="M258" s="65"/>
-      <c r="N258" s="65"/>
-      <c r="O258" s="65"/>
-      <c r="P258" s="65"/>
-      <c r="Q258" s="65"/>
-      <c r="R258" s="65"/>
-      <c r="S258" s="65"/>
-      <c r="T258" s="65"/>
-      <c r="U258" s="65"/>
-      <c r="V258" s="65"/>
-      <c r="W258" s="65"/>
-      <c r="X258" s="65"/>
-      <c r="Y258" s="65"/>
-      <c r="Z258" s="65"/>
-      <c r="AA258" s="65"/>
-      <c r="AB258" s="65"/>
-      <c r="AC258" s="65"/>
-      <c r="AD258" s="65"/>
-      <c r="AE258" s="65"/>
-      <c r="AF258" s="65"/>
-      <c r="AG258" s="65"/>
-      <c r="AH258" s="65"/>
+      <c r="B258" s="70"/>
+      <c r="C258" s="70"/>
+      <c r="D258" s="70"/>
+      <c r="E258" s="70"/>
+      <c r="F258" s="70"/>
+      <c r="G258" s="70"/>
+      <c r="H258" s="70"/>
+      <c r="I258" s="70"/>
+      <c r="J258" s="70"/>
+      <c r="K258" s="70"/>
+      <c r="L258" s="70"/>
+      <c r="M258" s="70"/>
+      <c r="N258" s="70"/>
+      <c r="O258" s="70"/>
+      <c r="P258" s="70"/>
+      <c r="Q258" s="70"/>
+      <c r="R258" s="70"/>
+      <c r="S258" s="70"/>
+      <c r="T258" s="70"/>
+      <c r="U258" s="70"/>
+      <c r="V258" s="70"/>
+      <c r="W258" s="70"/>
+      <c r="X258" s="70"/>
+      <c r="Y258" s="70"/>
+      <c r="Z258" s="70"/>
+      <c r="AA258" s="70"/>
+      <c r="AB258" s="70"/>
+      <c r="AC258" s="70"/>
+      <c r="AD258" s="70"/>
+      <c r="AE258" s="70"/>
+      <c r="AF258" s="70"/>
+      <c r="AG258" s="70"/>
+      <c r="AH258" s="70"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="66" t="s">
+      <c r="A259" s="71" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="66"/>
-      <c r="C259" s="66"/>
-      <c r="D259" s="66"/>
-      <c r="E259" s="66"/>
-      <c r="F259" s="66"/>
-      <c r="G259" s="66"/>
-      <c r="H259" s="66"/>
-      <c r="I259" s="66"/>
-      <c r="J259" s="66"/>
-      <c r="K259" s="66"/>
-      <c r="L259" s="66"/>
-      <c r="M259" s="66"/>
-      <c r="N259" s="66"/>
-      <c r="O259" s="66"/>
-      <c r="P259" s="66"/>
-      <c r="Q259" s="66"/>
-      <c r="R259" s="66"/>
-      <c r="S259" s="66"/>
-      <c r="T259" s="66"/>
-      <c r="U259" s="66"/>
-      <c r="V259" s="66"/>
-      <c r="W259" s="66"/>
-      <c r="X259" s="66"/>
-      <c r="Y259" s="66"/>
-      <c r="Z259" s="66"/>
-      <c r="AA259" s="66"/>
-      <c r="AB259" s="66"/>
-      <c r="AC259" s="66"/>
-      <c r="AD259" s="66"/>
-      <c r="AE259" s="66"/>
-      <c r="AF259" s="66"/>
-      <c r="AG259" s="66"/>
-      <c r="AH259" s="66"/>
+      <c r="B259" s="71"/>
+      <c r="C259" s="71"/>
+      <c r="D259" s="71"/>
+      <c r="E259" s="71"/>
+      <c r="F259" s="71"/>
+      <c r="G259" s="71"/>
+      <c r="H259" s="71"/>
+      <c r="I259" s="71"/>
+      <c r="J259" s="71"/>
+      <c r="K259" s="71"/>
+      <c r="L259" s="71"/>
+      <c r="M259" s="71"/>
+      <c r="N259" s="71"/>
+      <c r="O259" s="71"/>
+      <c r="P259" s="71"/>
+      <c r="Q259" s="71"/>
+      <c r="R259" s="71"/>
+      <c r="S259" s="71"/>
+      <c r="T259" s="71"/>
+      <c r="U259" s="71"/>
+      <c r="V259" s="71"/>
+      <c r="W259" s="71"/>
+      <c r="X259" s="71"/>
+      <c r="Y259" s="71"/>
+      <c r="Z259" s="71"/>
+      <c r="AA259" s="71"/>
+      <c r="AB259" s="71"/>
+      <c r="AC259" s="71"/>
+      <c r="AD259" s="71"/>
+      <c r="AE259" s="71"/>
+      <c r="AF259" s="71"/>
+      <c r="AG259" s="71"/>
+      <c r="AH259" s="71"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="68" t="s">
@@ -30454,7 +30465,7 @@
       <c r="AE260" s="68"/>
       <c r="AF260" s="68"/>
       <c r="AG260" s="68"/>
-      <c r="AH260" s="72" t="s">
+      <c r="AH260" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32077,118 +32088,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="69" t="s">
+      <c r="A300" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="70"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="70"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="70"/>
-      <c r="L300" s="70"/>
-      <c r="M300" s="70"/>
-      <c r="N300" s="70"/>
-      <c r="O300" s="70"/>
-      <c r="P300" s="70"/>
-      <c r="Q300" s="70"/>
-      <c r="R300" s="70"/>
-      <c r="S300" s="70"/>
-      <c r="T300" s="70"/>
-      <c r="U300" s="70"/>
-      <c r="V300" s="70"/>
-      <c r="W300" s="70"/>
-      <c r="X300" s="70"/>
-      <c r="Y300" s="70"/>
-      <c r="Z300" s="70"/>
-      <c r="AA300" s="70"/>
-      <c r="AB300" s="70"/>
-      <c r="AC300" s="70"/>
-      <c r="AD300" s="70"/>
-      <c r="AE300" s="70"/>
-      <c r="AF300" s="70"/>
-      <c r="AG300" s="70"/>
-      <c r="AH300" s="70"/>
+      <c r="B300" s="66"/>
+      <c r="C300" s="66"/>
+      <c r="D300" s="66"/>
+      <c r="E300" s="66"/>
+      <c r="F300" s="66"/>
+      <c r="G300" s="66"/>
+      <c r="H300" s="66"/>
+      <c r="I300" s="66"/>
+      <c r="J300" s="66"/>
+      <c r="K300" s="66"/>
+      <c r="L300" s="66"/>
+      <c r="M300" s="66"/>
+      <c r="N300" s="66"/>
+      <c r="O300" s="66"/>
+      <c r="P300" s="66"/>
+      <c r="Q300" s="66"/>
+      <c r="R300" s="66"/>
+      <c r="S300" s="66"/>
+      <c r="T300" s="66"/>
+      <c r="U300" s="66"/>
+      <c r="V300" s="66"/>
+      <c r="W300" s="66"/>
+      <c r="X300" s="66"/>
+      <c r="Y300" s="66"/>
+      <c r="Z300" s="66"/>
+      <c r="AA300" s="66"/>
+      <c r="AB300" s="66"/>
+      <c r="AC300" s="66"/>
+      <c r="AD300" s="66"/>
+      <c r="AE300" s="66"/>
+      <c r="AF300" s="66"/>
+      <c r="AG300" s="66"/>
+      <c r="AH300" s="66"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="65" t="s">
+      <c r="A301" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="65"/>
-      <c r="C301" s="65"/>
-      <c r="D301" s="65"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="65"/>
-      <c r="L301" s="65"/>
-      <c r="M301" s="65"/>
-      <c r="N301" s="65"/>
-      <c r="O301" s="65"/>
-      <c r="P301" s="65"/>
-      <c r="Q301" s="65"/>
-      <c r="R301" s="65"/>
-      <c r="S301" s="65"/>
-      <c r="T301" s="65"/>
-      <c r="U301" s="65"/>
-      <c r="V301" s="65"/>
-      <c r="W301" s="65"/>
-      <c r="X301" s="65"/>
-      <c r="Y301" s="65"/>
-      <c r="Z301" s="65"/>
-      <c r="AA301" s="65"/>
-      <c r="AB301" s="65"/>
-      <c r="AC301" s="65"/>
-      <c r="AD301" s="65"/>
-      <c r="AE301" s="65"/>
-      <c r="AF301" s="65"/>
-      <c r="AG301" s="65"/>
-      <c r="AH301" s="65"/>
+      <c r="B301" s="70"/>
+      <c r="C301" s="70"/>
+      <c r="D301" s="70"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
+      <c r="J301" s="70"/>
+      <c r="K301" s="70"/>
+      <c r="L301" s="70"/>
+      <c r="M301" s="70"/>
+      <c r="N301" s="70"/>
+      <c r="O301" s="70"/>
+      <c r="P301" s="70"/>
+      <c r="Q301" s="70"/>
+      <c r="R301" s="70"/>
+      <c r="S301" s="70"/>
+      <c r="T301" s="70"/>
+      <c r="U301" s="70"/>
+      <c r="V301" s="70"/>
+      <c r="W301" s="70"/>
+      <c r="X301" s="70"/>
+      <c r="Y301" s="70"/>
+      <c r="Z301" s="70"/>
+      <c r="AA301" s="70"/>
+      <c r="AB301" s="70"/>
+      <c r="AC301" s="70"/>
+      <c r="AD301" s="70"/>
+      <c r="AE301" s="70"/>
+      <c r="AF301" s="70"/>
+      <c r="AG301" s="70"/>
+      <c r="AH301" s="70"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="66" t="s">
+      <c r="A302" s="71" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="66"/>
-      <c r="C302" s="66"/>
-      <c r="D302" s="66"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="66"/>
-      <c r="G302" s="66"/>
-      <c r="H302" s="66"/>
-      <c r="I302" s="66"/>
-      <c r="J302" s="66"/>
-      <c r="K302" s="66"/>
-      <c r="L302" s="66"/>
-      <c r="M302" s="66"/>
-      <c r="N302" s="66"/>
-      <c r="O302" s="66"/>
-      <c r="P302" s="66"/>
-      <c r="Q302" s="66"/>
-      <c r="R302" s="66"/>
-      <c r="S302" s="66"/>
-      <c r="T302" s="66"/>
-      <c r="U302" s="66"/>
-      <c r="V302" s="66"/>
-      <c r="W302" s="66"/>
-      <c r="X302" s="66"/>
-      <c r="Y302" s="66"/>
-      <c r="Z302" s="66"/>
-      <c r="AA302" s="66"/>
-      <c r="AB302" s="66"/>
-      <c r="AC302" s="66"/>
-      <c r="AD302" s="66"/>
-      <c r="AE302" s="66"/>
-      <c r="AF302" s="66"/>
-      <c r="AG302" s="66"/>
-      <c r="AH302" s="66"/>
+      <c r="B302" s="71"/>
+      <c r="C302" s="71"/>
+      <c r="D302" s="71"/>
+      <c r="E302" s="71"/>
+      <c r="F302" s="71"/>
+      <c r="G302" s="71"/>
+      <c r="H302" s="71"/>
+      <c r="I302" s="71"/>
+      <c r="J302" s="71"/>
+      <c r="K302" s="71"/>
+      <c r="L302" s="71"/>
+      <c r="M302" s="71"/>
+      <c r="N302" s="71"/>
+      <c r="O302" s="71"/>
+      <c r="P302" s="71"/>
+      <c r="Q302" s="71"/>
+      <c r="R302" s="71"/>
+      <c r="S302" s="71"/>
+      <c r="T302" s="71"/>
+      <c r="U302" s="71"/>
+      <c r="V302" s="71"/>
+      <c r="W302" s="71"/>
+      <c r="X302" s="71"/>
+      <c r="Y302" s="71"/>
+      <c r="Z302" s="71"/>
+      <c r="AA302" s="71"/>
+      <c r="AB302" s="71"/>
+      <c r="AC302" s="71"/>
+      <c r="AD302" s="71"/>
+      <c r="AE302" s="71"/>
+      <c r="AF302" s="71"/>
+      <c r="AG302" s="71"/>
+      <c r="AH302" s="71"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="68" t="s">
@@ -32236,7 +32247,7 @@
       <c r="AE303" s="68"/>
       <c r="AF303" s="68"/>
       <c r="AG303" s="68"/>
-      <c r="AH303" s="72" t="s">
+      <c r="AH303" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -34823,42 +34834,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="69" t="s">
+      <c r="A367" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="70"/>
-      <c r="C367" s="70"/>
-      <c r="D367" s="70"/>
-      <c r="E367" s="70"/>
-      <c r="F367" s="70"/>
-      <c r="G367" s="70"/>
-      <c r="H367" s="70"/>
-      <c r="I367" s="70"/>
-      <c r="J367" s="70"/>
-      <c r="K367" s="70"/>
-      <c r="L367" s="70"/>
-      <c r="M367" s="70"/>
-      <c r="N367" s="70"/>
-      <c r="O367" s="70"/>
-      <c r="P367" s="70"/>
-      <c r="Q367" s="70"/>
-      <c r="R367" s="70"/>
-      <c r="S367" s="70"/>
-      <c r="T367" s="70"/>
-      <c r="U367" s="70"/>
-      <c r="V367" s="70"/>
-      <c r="W367" s="70"/>
-      <c r="X367" s="70"/>
-      <c r="Y367" s="70"/>
-      <c r="Z367" s="70"/>
-      <c r="AA367" s="70"/>
-      <c r="AB367" s="70"/>
-      <c r="AC367" s="70"/>
-      <c r="AD367" s="70"/>
-      <c r="AE367" s="70"/>
-      <c r="AF367" s="70"/>
-      <c r="AG367" s="70"/>
-      <c r="AH367" s="70"/>
+      <c r="B367" s="66"/>
+      <c r="C367" s="66"/>
+      <c r="D367" s="66"/>
+      <c r="E367" s="66"/>
+      <c r="F367" s="66"/>
+      <c r="G367" s="66"/>
+      <c r="H367" s="66"/>
+      <c r="I367" s="66"/>
+      <c r="J367" s="66"/>
+      <c r="K367" s="66"/>
+      <c r="L367" s="66"/>
+      <c r="M367" s="66"/>
+      <c r="N367" s="66"/>
+      <c r="O367" s="66"/>
+      <c r="P367" s="66"/>
+      <c r="Q367" s="66"/>
+      <c r="R367" s="66"/>
+      <c r="S367" s="66"/>
+      <c r="T367" s="66"/>
+      <c r="U367" s="66"/>
+      <c r="V367" s="66"/>
+      <c r="W367" s="66"/>
+      <c r="X367" s="66"/>
+      <c r="Y367" s="66"/>
+      <c r="Z367" s="66"/>
+      <c r="AA367" s="66"/>
+      <c r="AB367" s="66"/>
+      <c r="AC367" s="66"/>
+      <c r="AD367" s="66"/>
+      <c r="AE367" s="66"/>
+      <c r="AF367" s="66"/>
+      <c r="AG367" s="66"/>
+      <c r="AH367" s="66"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34897,80 +34908,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="65" t="s">
+      <c r="A369" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="65"/>
-      <c r="C369" s="65"/>
-      <c r="D369" s="65"/>
-      <c r="E369" s="65"/>
-      <c r="F369" s="65"/>
-      <c r="G369" s="65"/>
-      <c r="H369" s="65"/>
-      <c r="I369" s="65"/>
-      <c r="J369" s="65"/>
-      <c r="K369" s="65"/>
-      <c r="L369" s="65"/>
-      <c r="M369" s="65"/>
-      <c r="N369" s="65"/>
-      <c r="O369" s="65"/>
-      <c r="P369" s="65"/>
-      <c r="Q369" s="65"/>
-      <c r="R369" s="65"/>
-      <c r="S369" s="65"/>
-      <c r="T369" s="65"/>
-      <c r="U369" s="65"/>
-      <c r="V369" s="65"/>
-      <c r="W369" s="65"/>
-      <c r="X369" s="65"/>
-      <c r="Y369" s="65"/>
-      <c r="Z369" s="65"/>
-      <c r="AA369" s="65"/>
-      <c r="AB369" s="65"/>
-      <c r="AC369" s="65"/>
-      <c r="AD369" s="65"/>
-      <c r="AE369" s="65"/>
-      <c r="AF369" s="65"/>
-      <c r="AG369" s="65"/>
-      <c r="AH369" s="65"/>
+      <c r="B369" s="70"/>
+      <c r="C369" s="70"/>
+      <c r="D369" s="70"/>
+      <c r="E369" s="70"/>
+      <c r="F369" s="70"/>
+      <c r="G369" s="70"/>
+      <c r="H369" s="70"/>
+      <c r="I369" s="70"/>
+      <c r="J369" s="70"/>
+      <c r="K369" s="70"/>
+      <c r="L369" s="70"/>
+      <c r="M369" s="70"/>
+      <c r="N369" s="70"/>
+      <c r="O369" s="70"/>
+      <c r="P369" s="70"/>
+      <c r="Q369" s="70"/>
+      <c r="R369" s="70"/>
+      <c r="S369" s="70"/>
+      <c r="T369" s="70"/>
+      <c r="U369" s="70"/>
+      <c r="V369" s="70"/>
+      <c r="W369" s="70"/>
+      <c r="X369" s="70"/>
+      <c r="Y369" s="70"/>
+      <c r="Z369" s="70"/>
+      <c r="AA369" s="70"/>
+      <c r="AB369" s="70"/>
+      <c r="AC369" s="70"/>
+      <c r="AD369" s="70"/>
+      <c r="AE369" s="70"/>
+      <c r="AF369" s="70"/>
+      <c r="AG369" s="70"/>
+      <c r="AH369" s="70"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="66" t="s">
+      <c r="A370" s="71" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="66"/>
-      <c r="C370" s="66"/>
-      <c r="D370" s="66"/>
-      <c r="E370" s="66"/>
-      <c r="F370" s="66"/>
-      <c r="G370" s="66"/>
-      <c r="H370" s="66"/>
-      <c r="I370" s="66"/>
-      <c r="J370" s="66"/>
-      <c r="K370" s="66"/>
-      <c r="L370" s="66"/>
-      <c r="M370" s="66"/>
-      <c r="N370" s="66"/>
-      <c r="O370" s="66"/>
-      <c r="P370" s="66"/>
-      <c r="Q370" s="66"/>
-      <c r="R370" s="66"/>
-      <c r="S370" s="66"/>
-      <c r="T370" s="66"/>
-      <c r="U370" s="66"/>
-      <c r="V370" s="66"/>
-      <c r="W370" s="66"/>
-      <c r="X370" s="66"/>
-      <c r="Y370" s="66"/>
-      <c r="Z370" s="66"/>
-      <c r="AA370" s="66"/>
-      <c r="AB370" s="66"/>
-      <c r="AC370" s="66"/>
-      <c r="AD370" s="66"/>
-      <c r="AE370" s="66"/>
-      <c r="AF370" s="66"/>
-      <c r="AG370" s="66"/>
-      <c r="AH370" s="66"/>
+      <c r="B370" s="71"/>
+      <c r="C370" s="71"/>
+      <c r="D370" s="71"/>
+      <c r="E370" s="71"/>
+      <c r="F370" s="71"/>
+      <c r="G370" s="71"/>
+      <c r="H370" s="71"/>
+      <c r="I370" s="71"/>
+      <c r="J370" s="71"/>
+      <c r="K370" s="71"/>
+      <c r="L370" s="71"/>
+      <c r="M370" s="71"/>
+      <c r="N370" s="71"/>
+      <c r="O370" s="71"/>
+      <c r="P370" s="71"/>
+      <c r="Q370" s="71"/>
+      <c r="R370" s="71"/>
+      <c r="S370" s="71"/>
+      <c r="T370" s="71"/>
+      <c r="U370" s="71"/>
+      <c r="V370" s="71"/>
+      <c r="W370" s="71"/>
+      <c r="X370" s="71"/>
+      <c r="Y370" s="71"/>
+      <c r="Z370" s="71"/>
+      <c r="AA370" s="71"/>
+      <c r="AB370" s="71"/>
+      <c r="AC370" s="71"/>
+      <c r="AD370" s="71"/>
+      <c r="AE370" s="71"/>
+      <c r="AF370" s="71"/>
+      <c r="AG370" s="71"/>
+      <c r="AH370" s="71"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="68" t="s">
@@ -35018,7 +35029,7 @@
       <c r="AE371" s="68"/>
       <c r="AF371" s="68"/>
       <c r="AG371" s="68"/>
-      <c r="AH371" s="72" t="s">
+      <c r="AH371" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -35406,45 +35417,45 @@
       <c r="AG379" s="9"/>
       <c r="AH379" s="9"/>
     </row>
-    <row r="380" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="13" t="s">
+    <row r="380" spans="1:34" s="55" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="57" t="s">
         <v>1141</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" s="52" t="s">
         <v>1142</v>
       </c>
       <c r="C380" s="52"/>
       <c r="D380" s="52"/>
       <c r="E380" s="52"/>
       <c r="F380" s="52"/>
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-      <c r="J380" s="3"/>
-      <c r="K380" s="9"/>
-      <c r="L380" s="3"/>
-      <c r="M380" s="3"/>
-      <c r="N380" s="3"/>
-      <c r="O380" s="3"/>
-      <c r="P380" s="3"/>
-      <c r="Q380" s="3"/>
-      <c r="R380" s="3"/>
-      <c r="S380" s="3"/>
-      <c r="T380" s="9"/>
-      <c r="U380" s="3"/>
-      <c r="V380" s="3"/>
-      <c r="W380" s="3"/>
-      <c r="X380" s="3"/>
-      <c r="Y380" s="3"/>
-      <c r="Z380" s="3"/>
-      <c r="AA380" s="3"/>
-      <c r="AB380" s="3"/>
-      <c r="AC380" s="9"/>
-      <c r="AD380" s="3"/>
-      <c r="AE380" s="3"/>
-      <c r="AF380" s="3"/>
-      <c r="AG380" s="9"/>
-      <c r="AH380" s="9"/>
+      <c r="G380" s="52"/>
+      <c r="H380" s="52"/>
+      <c r="I380" s="52"/>
+      <c r="J380" s="52"/>
+      <c r="K380" s="54"/>
+      <c r="L380" s="52"/>
+      <c r="M380" s="52"/>
+      <c r="N380" s="52"/>
+      <c r="O380" s="52"/>
+      <c r="P380" s="52"/>
+      <c r="Q380" s="52"/>
+      <c r="R380" s="52"/>
+      <c r="S380" s="52"/>
+      <c r="T380" s="54"/>
+      <c r="U380" s="52"/>
+      <c r="V380" s="52"/>
+      <c r="W380" s="52"/>
+      <c r="X380" s="52"/>
+      <c r="Y380" s="52"/>
+      <c r="Z380" s="52"/>
+      <c r="AA380" s="52"/>
+      <c r="AB380" s="52"/>
+      <c r="AC380" s="54"/>
+      <c r="AD380" s="52"/>
+      <c r="AE380" s="52"/>
+      <c r="AF380" s="52"/>
+      <c r="AG380" s="54"/>
+      <c r="AH380" s="54"/>
     </row>
     <row r="381" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="s">
@@ -35778,7 +35789,9 @@
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
-      <c r="F389" s="52"/>
+      <c r="F389" s="53" t="s">
+        <v>1723</v>
+      </c>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
@@ -35938,7 +35951,9 @@
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
-      <c r="F393" s="52"/>
+      <c r="F393" s="53" t="s">
+        <v>1724</v>
+      </c>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
@@ -36138,7 +36153,9 @@
       <c r="C398" s="52"/>
       <c r="D398" s="52"/>
       <c r="E398" s="52"/>
-      <c r="F398" s="52"/>
+      <c r="F398" s="53" t="s">
+        <v>1724</v>
+      </c>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
@@ -36178,7 +36195,9 @@
       <c r="C399" s="52"/>
       <c r="D399" s="52"/>
       <c r="E399" s="3"/>
-      <c r="F399" s="52"/>
+      <c r="F399" s="53" t="s">
+        <v>1723</v>
+      </c>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
@@ -36224,7 +36243,9 @@
       <c r="E400" s="3" t="s">
         <v>1713</v>
       </c>
-      <c r="F400" s="52"/>
+      <c r="F400" s="73" t="s">
+        <v>1723</v>
+      </c>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
@@ -36470,7 +36491,9 @@
       <c r="C406" s="52"/>
       <c r="D406" s="3"/>
       <c r="E406" s="52"/>
-      <c r="F406" s="52"/>
+      <c r="F406" s="73" t="s">
+        <v>1723</v>
+      </c>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
@@ -37080,7 +37103,9 @@
         <v>1709</v>
       </c>
       <c r="E421" s="52"/>
-      <c r="F421" s="52"/>
+      <c r="F421" s="73" t="s">
+        <v>1724</v>
+      </c>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
@@ -37446,7 +37471,9 @@
         <v>1710</v>
       </c>
       <c r="E430" s="3"/>
-      <c r="F430" s="52"/>
+      <c r="F430" s="73" t="s">
+        <v>1724</v>
+      </c>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
@@ -37488,7 +37515,7 @@
         <v>1711</v>
       </c>
       <c r="E431" s="3"/>
-      <c r="F431" s="52"/>
+      <c r="F431" s="73"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
@@ -37558,45 +37585,45 @@
       <c r="AG432" s="9"/>
       <c r="AH432" s="9"/>
     </row>
-    <row r="433" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="13" t="s">
+    <row r="433" spans="1:34" s="55" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="57" t="s">
         <v>1247</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="52" t="s">
         <v>1248</v>
       </c>
       <c r="C433" s="52"/>
       <c r="D433" s="52"/>
       <c r="E433" s="52"/>
       <c r="F433" s="52"/>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-      <c r="J433" s="3"/>
-      <c r="K433" s="9"/>
-      <c r="L433" s="3"/>
-      <c r="M433" s="3"/>
-      <c r="N433" s="3"/>
-      <c r="O433" s="3"/>
-      <c r="P433" s="3"/>
-      <c r="Q433" s="3"/>
-      <c r="R433" s="3"/>
-      <c r="S433" s="3"/>
-      <c r="T433" s="9"/>
-      <c r="U433" s="3"/>
-      <c r="V433" s="3"/>
-      <c r="W433" s="3"/>
-      <c r="X433" s="3"/>
-      <c r="Y433" s="3"/>
-      <c r="Z433" s="3"/>
-      <c r="AA433" s="3"/>
-      <c r="AB433" s="3"/>
-      <c r="AC433" s="9"/>
-      <c r="AD433" s="3"/>
-      <c r="AE433" s="3"/>
-      <c r="AF433" s="3"/>
-      <c r="AG433" s="9"/>
-      <c r="AH433" s="9"/>
+      <c r="G433" s="52"/>
+      <c r="H433" s="52"/>
+      <c r="I433" s="52"/>
+      <c r="J433" s="52"/>
+      <c r="K433" s="54"/>
+      <c r="L433" s="52"/>
+      <c r="M433" s="52"/>
+      <c r="N433" s="52"/>
+      <c r="O433" s="52"/>
+      <c r="P433" s="52"/>
+      <c r="Q433" s="52"/>
+      <c r="R433" s="52"/>
+      <c r="S433" s="52"/>
+      <c r="T433" s="54"/>
+      <c r="U433" s="52"/>
+      <c r="V433" s="52"/>
+      <c r="W433" s="52"/>
+      <c r="X433" s="52"/>
+      <c r="Y433" s="52"/>
+      <c r="Z433" s="52"/>
+      <c r="AA433" s="52"/>
+      <c r="AB433" s="52"/>
+      <c r="AC433" s="54"/>
+      <c r="AD433" s="52"/>
+      <c r="AE433" s="52"/>
+      <c r="AF433" s="52"/>
+      <c r="AG433" s="54"/>
+      <c r="AH433" s="54"/>
     </row>
     <row r="434" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="s">
@@ -37679,45 +37706,99 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="69" t="s">
+      <c r="A436" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="70"/>
-      <c r="C436" s="70"/>
-      <c r="D436" s="70"/>
-      <c r="E436" s="70"/>
-      <c r="F436" s="70"/>
-      <c r="G436" s="70"/>
-      <c r="H436" s="70"/>
-      <c r="I436" s="70"/>
-      <c r="J436" s="70"/>
-      <c r="K436" s="70"/>
-      <c r="L436" s="70"/>
-      <c r="M436" s="70"/>
-      <c r="N436" s="70"/>
-      <c r="O436" s="70"/>
-      <c r="P436" s="70"/>
-      <c r="Q436" s="70"/>
-      <c r="R436" s="70"/>
-      <c r="S436" s="70"/>
-      <c r="T436" s="70"/>
-      <c r="U436" s="70"/>
-      <c r="V436" s="70"/>
-      <c r="W436" s="70"/>
-      <c r="X436" s="70"/>
-      <c r="Y436" s="70"/>
-      <c r="Z436" s="70"/>
-      <c r="AA436" s="70"/>
-      <c r="AB436" s="70"/>
-      <c r="AC436" s="70"/>
-      <c r="AD436" s="70"/>
-      <c r="AE436" s="70"/>
-      <c r="AF436" s="70"/>
-      <c r="AG436" s="70"/>
-      <c r="AH436" s="70"/>
+      <c r="B436" s="66"/>
+      <c r="C436" s="66"/>
+      <c r="D436" s="66"/>
+      <c r="E436" s="66"/>
+      <c r="F436" s="66"/>
+      <c r="G436" s="66"/>
+      <c r="H436" s="66"/>
+      <c r="I436" s="66"/>
+      <c r="J436" s="66"/>
+      <c r="K436" s="66"/>
+      <c r="L436" s="66"/>
+      <c r="M436" s="66"/>
+      <c r="N436" s="66"/>
+      <c r="O436" s="66"/>
+      <c r="P436" s="66"/>
+      <c r="Q436" s="66"/>
+      <c r="R436" s="66"/>
+      <c r="S436" s="66"/>
+      <c r="T436" s="66"/>
+      <c r="U436" s="66"/>
+      <c r="V436" s="66"/>
+      <c r="W436" s="66"/>
+      <c r="X436" s="66"/>
+      <c r="Y436" s="66"/>
+      <c r="Z436" s="66"/>
+      <c r="AA436" s="66"/>
+      <c r="AB436" s="66"/>
+      <c r="AC436" s="66"/>
+      <c r="AD436" s="66"/>
+      <c r="AE436" s="66"/>
+      <c r="AF436" s="66"/>
+      <c r="AG436" s="66"/>
+      <c r="AH436" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37734,60 +37815,6 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37821,80 +37848,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
@@ -37942,7 +37969,7 @@
       <c r="AE3" s="68"/>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
-      <c r="AH3" s="72" t="s">
+      <c r="AH3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38645,118 +38672,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="71" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
@@ -38804,7 +38831,7 @@
       <c r="AE24" s="68"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="68"/>
-      <c r="AH24" s="72" t="s">
+      <c r="AH24" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39387,118 +39414,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="W38" s="70"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="70"/>
-      <c r="Z38" s="70"/>
-      <c r="AA38" s="70"/>
-      <c r="AB38" s="70"/>
-      <c r="AC38" s="70"/>
-      <c r="AD38" s="70"/>
-      <c r="AE38" s="70"/>
-      <c r="AF38" s="70"/>
-      <c r="AG38" s="70"/>
-      <c r="AH38" s="70"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="65"/>
-      <c r="AH40" s="65"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="70"/>
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="70"/>
+      <c r="AH40" s="70"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="71" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="71"/>
+      <c r="AH41" s="71"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
@@ -39546,7 +39573,7 @@
       <c r="AE42" s="68"/>
       <c r="AF42" s="68"/>
       <c r="AG42" s="68"/>
-      <c r="AH42" s="72" t="s">
+      <c r="AH42" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40409,118 +40436,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
-      <c r="S63" s="70"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="70"/>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
-      <c r="Y63" s="70"/>
-      <c r="Z63" s="70"/>
-      <c r="AA63" s="70"/>
-      <c r="AB63" s="70"/>
-      <c r="AC63" s="70"/>
-      <c r="AD63" s="70"/>
-      <c r="AE63" s="70"/>
-      <c r="AF63" s="70"/>
-      <c r="AG63" s="70"/>
-      <c r="AH63" s="70"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66"/>
+      <c r="Q63" s="66"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="66"/>
+      <c r="T63" s="66"/>
+      <c r="U63" s="66"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="66"/>
+      <c r="Z63" s="66"/>
+      <c r="AA63" s="66"/>
+      <c r="AB63" s="66"/>
+      <c r="AC63" s="66"/>
+      <c r="AD63" s="66"/>
+      <c r="AE63" s="66"/>
+      <c r="AF63" s="66"/>
+      <c r="AG63" s="66"/>
+      <c r="AH63" s="66"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
-      <c r="S64" s="65"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="X64" s="65"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="65"/>
-      <c r="AA64" s="65"/>
-      <c r="AB64" s="65"/>
-      <c r="AC64" s="65"/>
-      <c r="AD64" s="65"/>
-      <c r="AE64" s="65"/>
-      <c r="AF64" s="65"/>
-      <c r="AG64" s="65"/>
-      <c r="AH64" s="65"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
+      <c r="X64" s="70"/>
+      <c r="Y64" s="70"/>
+      <c r="Z64" s="70"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
+      <c r="AC64" s="70"/>
+      <c r="AD64" s="70"/>
+      <c r="AE64" s="70"/>
+      <c r="AF64" s="70"/>
+      <c r="AG64" s="70"/>
+      <c r="AH64" s="70"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="71" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
-      <c r="Y65" s="66"/>
-      <c r="Z65" s="66"/>
-      <c r="AA65" s="66"/>
-      <c r="AB65" s="66"/>
-      <c r="AC65" s="66"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="71"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="71"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="68" t="s">
@@ -40568,7 +40595,7 @@
       <c r="AE66" s="68"/>
       <c r="AF66" s="68"/>
       <c r="AG66" s="68"/>
-      <c r="AH66" s="72" t="s">
+      <c r="AH66" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42391,118 +42418,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="69" t="s">
+      <c r="A111" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="70"/>
-      <c r="K111" s="70"/>
-      <c r="L111" s="70"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="70"/>
-      <c r="O111" s="70"/>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="70"/>
-      <c r="R111" s="70"/>
-      <c r="S111" s="70"/>
-      <c r="T111" s="70"/>
-      <c r="U111" s="70"/>
-      <c r="V111" s="70"/>
-      <c r="W111" s="70"/>
-      <c r="X111" s="70"/>
-      <c r="Y111" s="70"/>
-      <c r="Z111" s="70"/>
-      <c r="AA111" s="70"/>
-      <c r="AB111" s="70"/>
-      <c r="AC111" s="70"/>
-      <c r="AD111" s="70"/>
-      <c r="AE111" s="70"/>
-      <c r="AF111" s="70"/>
-      <c r="AG111" s="70"/>
-      <c r="AH111" s="70"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="66"/>
+      <c r="M111" s="66"/>
+      <c r="N111" s="66"/>
+      <c r="O111" s="66"/>
+      <c r="P111" s="66"/>
+      <c r="Q111" s="66"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="66"/>
+      <c r="T111" s="66"/>
+      <c r="U111" s="66"/>
+      <c r="V111" s="66"/>
+      <c r="W111" s="66"/>
+      <c r="X111" s="66"/>
+      <c r="Y111" s="66"/>
+      <c r="Z111" s="66"/>
+      <c r="AA111" s="66"/>
+      <c r="AB111" s="66"/>
+      <c r="AC111" s="66"/>
+      <c r="AD111" s="66"/>
+      <c r="AE111" s="66"/>
+      <c r="AF111" s="66"/>
+      <c r="AG111" s="66"/>
+      <c r="AH111" s="66"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="65" t="s">
+      <c r="A113" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="65"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="65"/>
-      <c r="S113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="U113" s="65"/>
-      <c r="V113" s="65"/>
-      <c r="W113" s="65"/>
-      <c r="X113" s="65"/>
-      <c r="Y113" s="65"/>
-      <c r="Z113" s="65"/>
-      <c r="AA113" s="65"/>
-      <c r="AB113" s="65"/>
-      <c r="AC113" s="65"/>
-      <c r="AD113" s="65"/>
-      <c r="AE113" s="65"/>
-      <c r="AF113" s="65"/>
-      <c r="AG113" s="65"/>
-      <c r="AH113" s="65"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+      <c r="N113" s="70"/>
+      <c r="O113" s="70"/>
+      <c r="P113" s="70"/>
+      <c r="Q113" s="70"/>
+      <c r="R113" s="70"/>
+      <c r="S113" s="70"/>
+      <c r="T113" s="70"/>
+      <c r="U113" s="70"/>
+      <c r="V113" s="70"/>
+      <c r="W113" s="70"/>
+      <c r="X113" s="70"/>
+      <c r="Y113" s="70"/>
+      <c r="Z113" s="70"/>
+      <c r="AA113" s="70"/>
+      <c r="AB113" s="70"/>
+      <c r="AC113" s="70"/>
+      <c r="AD113" s="70"/>
+      <c r="AE113" s="70"/>
+      <c r="AF113" s="70"/>
+      <c r="AG113" s="70"/>
+      <c r="AH113" s="70"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="66" t="s">
+      <c r="A114" s="71" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="66"/>
-      <c r="M114" s="66"/>
-      <c r="N114" s="66"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="66"/>
-      <c r="R114" s="66"/>
-      <c r="S114" s="66"/>
-      <c r="T114" s="66"/>
-      <c r="U114" s="66"/>
-      <c r="V114" s="66"/>
-      <c r="W114" s="66"/>
-      <c r="X114" s="66"/>
-      <c r="Y114" s="66"/>
-      <c r="Z114" s="66"/>
-      <c r="AA114" s="66"/>
-      <c r="AB114" s="66"/>
-      <c r="AC114" s="66"/>
-      <c r="AD114" s="66"/>
-      <c r="AE114" s="66"/>
-      <c r="AF114" s="66"/>
-      <c r="AG114" s="66"/>
-      <c r="AH114" s="66"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="71"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
+      <c r="O114" s="71"/>
+      <c r="P114" s="71"/>
+      <c r="Q114" s="71"/>
+      <c r="R114" s="71"/>
+      <c r="S114" s="71"/>
+      <c r="T114" s="71"/>
+      <c r="U114" s="71"/>
+      <c r="V114" s="71"/>
+      <c r="W114" s="71"/>
+      <c r="X114" s="71"/>
+      <c r="Y114" s="71"/>
+      <c r="Z114" s="71"/>
+      <c r="AA114" s="71"/>
+      <c r="AB114" s="71"/>
+      <c r="AC114" s="71"/>
+      <c r="AD114" s="71"/>
+      <c r="AE114" s="71"/>
+      <c r="AF114" s="71"/>
+      <c r="AG114" s="71"/>
+      <c r="AH114" s="71"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="68" t="s">
@@ -42550,7 +42577,7 @@
       <c r="AE115" s="68"/>
       <c r="AF115" s="68"/>
       <c r="AG115" s="68"/>
-      <c r="AH115" s="72" t="s">
+      <c r="AH115" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44373,118 +44400,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="69" t="s">
+      <c r="A160" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="70"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
-      <c r="F160" s="70"/>
-      <c r="G160" s="70"/>
-      <c r="H160" s="70"/>
-      <c r="I160" s="70"/>
-      <c r="J160" s="70"/>
-      <c r="K160" s="70"/>
-      <c r="L160" s="70"/>
-      <c r="M160" s="70"/>
-      <c r="N160" s="70"/>
-      <c r="O160" s="70"/>
-      <c r="P160" s="70"/>
-      <c r="Q160" s="70"/>
-      <c r="R160" s="70"/>
-      <c r="S160" s="70"/>
-      <c r="T160" s="70"/>
-      <c r="U160" s="70"/>
-      <c r="V160" s="70"/>
-      <c r="W160" s="70"/>
-      <c r="X160" s="70"/>
-      <c r="Y160" s="70"/>
-      <c r="Z160" s="70"/>
-      <c r="AA160" s="70"/>
-      <c r="AB160" s="70"/>
-      <c r="AC160" s="70"/>
-      <c r="AD160" s="70"/>
-      <c r="AE160" s="70"/>
-      <c r="AF160" s="70"/>
-      <c r="AG160" s="70"/>
-      <c r="AH160" s="70"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
+      <c r="I160" s="66"/>
+      <c r="J160" s="66"/>
+      <c r="K160" s="66"/>
+      <c r="L160" s="66"/>
+      <c r="M160" s="66"/>
+      <c r="N160" s="66"/>
+      <c r="O160" s="66"/>
+      <c r="P160" s="66"/>
+      <c r="Q160" s="66"/>
+      <c r="R160" s="66"/>
+      <c r="S160" s="66"/>
+      <c r="T160" s="66"/>
+      <c r="U160" s="66"/>
+      <c r="V160" s="66"/>
+      <c r="W160" s="66"/>
+      <c r="X160" s="66"/>
+      <c r="Y160" s="66"/>
+      <c r="Z160" s="66"/>
+      <c r="AA160" s="66"/>
+      <c r="AB160" s="66"/>
+      <c r="AC160" s="66"/>
+      <c r="AD160" s="66"/>
+      <c r="AE160" s="66"/>
+      <c r="AF160" s="66"/>
+      <c r="AG160" s="66"/>
+      <c r="AH160" s="66"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="65" t="s">
+      <c r="A162" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="65"/>
-      <c r="G162" s="65"/>
-      <c r="H162" s="65"/>
-      <c r="I162" s="65"/>
-      <c r="J162" s="65"/>
-      <c r="K162" s="65"/>
-      <c r="L162" s="65"/>
-      <c r="M162" s="65"/>
-      <c r="N162" s="65"/>
-      <c r="O162" s="65"/>
-      <c r="P162" s="65"/>
-      <c r="Q162" s="65"/>
-      <c r="R162" s="65"/>
-      <c r="S162" s="65"/>
-      <c r="T162" s="65"/>
-      <c r="U162" s="65"/>
-      <c r="V162" s="65"/>
-      <c r="W162" s="65"/>
-      <c r="X162" s="65"/>
-      <c r="Y162" s="65"/>
-      <c r="Z162" s="65"/>
-      <c r="AA162" s="65"/>
-      <c r="AB162" s="65"/>
-      <c r="AC162" s="65"/>
-      <c r="AD162" s="65"/>
-      <c r="AE162" s="65"/>
-      <c r="AF162" s="65"/>
-      <c r="AG162" s="65"/>
-      <c r="AH162" s="65"/>
+      <c r="B162" s="70"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="70"/>
+      <c r="H162" s="70"/>
+      <c r="I162" s="70"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="70"/>
+      <c r="M162" s="70"/>
+      <c r="N162" s="70"/>
+      <c r="O162" s="70"/>
+      <c r="P162" s="70"/>
+      <c r="Q162" s="70"/>
+      <c r="R162" s="70"/>
+      <c r="S162" s="70"/>
+      <c r="T162" s="70"/>
+      <c r="U162" s="70"/>
+      <c r="V162" s="70"/>
+      <c r="W162" s="70"/>
+      <c r="X162" s="70"/>
+      <c r="Y162" s="70"/>
+      <c r="Z162" s="70"/>
+      <c r="AA162" s="70"/>
+      <c r="AB162" s="70"/>
+      <c r="AC162" s="70"/>
+      <c r="AD162" s="70"/>
+      <c r="AE162" s="70"/>
+      <c r="AF162" s="70"/>
+      <c r="AG162" s="70"/>
+      <c r="AH162" s="70"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="66" t="s">
+      <c r="A163" s="71" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="66"/>
-      <c r="K163" s="66"/>
-      <c r="L163" s="66"/>
-      <c r="M163" s="66"/>
-      <c r="N163" s="66"/>
-      <c r="O163" s="66"/>
-      <c r="P163" s="66"/>
-      <c r="Q163" s="66"/>
-      <c r="R163" s="66"/>
-      <c r="S163" s="66"/>
-      <c r="T163" s="66"/>
-      <c r="U163" s="66"/>
-      <c r="V163" s="66"/>
-      <c r="W163" s="66"/>
-      <c r="X163" s="66"/>
-      <c r="Y163" s="66"/>
-      <c r="Z163" s="66"/>
-      <c r="AA163" s="66"/>
-      <c r="AB163" s="66"/>
-      <c r="AC163" s="66"/>
-      <c r="AD163" s="66"/>
-      <c r="AE163" s="66"/>
-      <c r="AF163" s="66"/>
-      <c r="AG163" s="66"/>
-      <c r="AH163" s="66"/>
+      <c r="B163" s="71"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="71"/>
+      <c r="H163" s="71"/>
+      <c r="I163" s="71"/>
+      <c r="J163" s="71"/>
+      <c r="K163" s="71"/>
+      <c r="L163" s="71"/>
+      <c r="M163" s="71"/>
+      <c r="N163" s="71"/>
+      <c r="O163" s="71"/>
+      <c r="P163" s="71"/>
+      <c r="Q163" s="71"/>
+      <c r="R163" s="71"/>
+      <c r="S163" s="71"/>
+      <c r="T163" s="71"/>
+      <c r="U163" s="71"/>
+      <c r="V163" s="71"/>
+      <c r="W163" s="71"/>
+      <c r="X163" s="71"/>
+      <c r="Y163" s="71"/>
+      <c r="Z163" s="71"/>
+      <c r="AA163" s="71"/>
+      <c r="AB163" s="71"/>
+      <c r="AC163" s="71"/>
+      <c r="AD163" s="71"/>
+      <c r="AE163" s="71"/>
+      <c r="AF163" s="71"/>
+      <c r="AG163" s="71"/>
+      <c r="AH163" s="71"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="68" t="s">
@@ -44532,7 +44559,7 @@
       <c r="AE164" s="68"/>
       <c r="AF164" s="68"/>
       <c r="AG164" s="68"/>
-      <c r="AH164" s="72" t="s">
+      <c r="AH164" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46355,118 +46382,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="69" t="s">
+      <c r="A209" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="70"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="70"/>
-      <c r="F209" s="70"/>
-      <c r="G209" s="70"/>
-      <c r="H209" s="70"/>
-      <c r="I209" s="70"/>
-      <c r="J209" s="70"/>
-      <c r="K209" s="70"/>
-      <c r="L209" s="70"/>
-      <c r="M209" s="70"/>
-      <c r="N209" s="70"/>
-      <c r="O209" s="70"/>
-      <c r="P209" s="70"/>
-      <c r="Q209" s="70"/>
-      <c r="R209" s="70"/>
-      <c r="S209" s="70"/>
-      <c r="T209" s="70"/>
-      <c r="U209" s="70"/>
-      <c r="V209" s="70"/>
-      <c r="W209" s="70"/>
-      <c r="X209" s="70"/>
-      <c r="Y209" s="70"/>
-      <c r="Z209" s="70"/>
-      <c r="AA209" s="70"/>
-      <c r="AB209" s="70"/>
-      <c r="AC209" s="70"/>
-      <c r="AD209" s="70"/>
-      <c r="AE209" s="70"/>
-      <c r="AF209" s="70"/>
-      <c r="AG209" s="70"/>
-      <c r="AH209" s="70"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="66"/>
+      <c r="D209" s="66"/>
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="66"/>
+      <c r="J209" s="66"/>
+      <c r="K209" s="66"/>
+      <c r="L209" s="66"/>
+      <c r="M209" s="66"/>
+      <c r="N209" s="66"/>
+      <c r="O209" s="66"/>
+      <c r="P209" s="66"/>
+      <c r="Q209" s="66"/>
+      <c r="R209" s="66"/>
+      <c r="S209" s="66"/>
+      <c r="T209" s="66"/>
+      <c r="U209" s="66"/>
+      <c r="V209" s="66"/>
+      <c r="W209" s="66"/>
+      <c r="X209" s="66"/>
+      <c r="Y209" s="66"/>
+      <c r="Z209" s="66"/>
+      <c r="AA209" s="66"/>
+      <c r="AB209" s="66"/>
+      <c r="AC209" s="66"/>
+      <c r="AD209" s="66"/>
+      <c r="AE209" s="66"/>
+      <c r="AF209" s="66"/>
+      <c r="AG209" s="66"/>
+      <c r="AH209" s="66"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="65" t="s">
+      <c r="A211" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="65"/>
-      <c r="C211" s="65"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
-      <c r="L211" s="65"/>
-      <c r="M211" s="65"/>
-      <c r="N211" s="65"/>
-      <c r="O211" s="65"/>
-      <c r="P211" s="65"/>
-      <c r="Q211" s="65"/>
-      <c r="R211" s="65"/>
-      <c r="S211" s="65"/>
-      <c r="T211" s="65"/>
-      <c r="U211" s="65"/>
-      <c r="V211" s="65"/>
-      <c r="W211" s="65"/>
-      <c r="X211" s="65"/>
-      <c r="Y211" s="65"/>
-      <c r="Z211" s="65"/>
-      <c r="AA211" s="65"/>
-      <c r="AB211" s="65"/>
-      <c r="AC211" s="65"/>
-      <c r="AD211" s="65"/>
-      <c r="AE211" s="65"/>
-      <c r="AF211" s="65"/>
-      <c r="AG211" s="65"/>
-      <c r="AH211" s="65"/>
+      <c r="B211" s="70"/>
+      <c r="C211" s="70"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="70"/>
+      <c r="F211" s="70"/>
+      <c r="G211" s="70"/>
+      <c r="H211" s="70"/>
+      <c r="I211" s="70"/>
+      <c r="J211" s="70"/>
+      <c r="K211" s="70"/>
+      <c r="L211" s="70"/>
+      <c r="M211" s="70"/>
+      <c r="N211" s="70"/>
+      <c r="O211" s="70"/>
+      <c r="P211" s="70"/>
+      <c r="Q211" s="70"/>
+      <c r="R211" s="70"/>
+      <c r="S211" s="70"/>
+      <c r="T211" s="70"/>
+      <c r="U211" s="70"/>
+      <c r="V211" s="70"/>
+      <c r="W211" s="70"/>
+      <c r="X211" s="70"/>
+      <c r="Y211" s="70"/>
+      <c r="Z211" s="70"/>
+      <c r="AA211" s="70"/>
+      <c r="AB211" s="70"/>
+      <c r="AC211" s="70"/>
+      <c r="AD211" s="70"/>
+      <c r="AE211" s="70"/>
+      <c r="AF211" s="70"/>
+      <c r="AG211" s="70"/>
+      <c r="AH211" s="70"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="66" t="s">
+      <c r="A212" s="71" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="66"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="66"/>
-      <c r="K212" s="66"/>
-      <c r="L212" s="66"/>
-      <c r="M212" s="66"/>
-      <c r="N212" s="66"/>
-      <c r="O212" s="66"/>
-      <c r="P212" s="66"/>
-      <c r="Q212" s="66"/>
-      <c r="R212" s="66"/>
-      <c r="S212" s="66"/>
-      <c r="T212" s="66"/>
-      <c r="U212" s="66"/>
-      <c r="V212" s="66"/>
-      <c r="W212" s="66"/>
-      <c r="X212" s="66"/>
-      <c r="Y212" s="66"/>
-      <c r="Z212" s="66"/>
-      <c r="AA212" s="66"/>
-      <c r="AB212" s="66"/>
-      <c r="AC212" s="66"/>
-      <c r="AD212" s="66"/>
-      <c r="AE212" s="66"/>
-      <c r="AF212" s="66"/>
-      <c r="AG212" s="66"/>
-      <c r="AH212" s="66"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="71"/>
+      <c r="D212" s="71"/>
+      <c r="E212" s="71"/>
+      <c r="F212" s="71"/>
+      <c r="G212" s="71"/>
+      <c r="H212" s="71"/>
+      <c r="I212" s="71"/>
+      <c r="J212" s="71"/>
+      <c r="K212" s="71"/>
+      <c r="L212" s="71"/>
+      <c r="M212" s="71"/>
+      <c r="N212" s="71"/>
+      <c r="O212" s="71"/>
+      <c r="P212" s="71"/>
+      <c r="Q212" s="71"/>
+      <c r="R212" s="71"/>
+      <c r="S212" s="71"/>
+      <c r="T212" s="71"/>
+      <c r="U212" s="71"/>
+      <c r="V212" s="71"/>
+      <c r="W212" s="71"/>
+      <c r="X212" s="71"/>
+      <c r="Y212" s="71"/>
+      <c r="Z212" s="71"/>
+      <c r="AA212" s="71"/>
+      <c r="AB212" s="71"/>
+      <c r="AC212" s="71"/>
+      <c r="AD212" s="71"/>
+      <c r="AE212" s="71"/>
+      <c r="AF212" s="71"/>
+      <c r="AG212" s="71"/>
+      <c r="AH212" s="71"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="68" t="s">
@@ -46514,7 +46541,7 @@
       <c r="AE213" s="68"/>
       <c r="AF213" s="68"/>
       <c r="AG213" s="68"/>
-      <c r="AH213" s="72" t="s">
+      <c r="AH213" s="69" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48417,45 +48444,99 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="69" t="s">
+      <c r="A260" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="70"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="70"/>
-      <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
-      <c r="G260" s="70"/>
-      <c r="H260" s="70"/>
-      <c r="I260" s="70"/>
-      <c r="J260" s="70"/>
-      <c r="K260" s="70"/>
-      <c r="L260" s="70"/>
-      <c r="M260" s="70"/>
-      <c r="N260" s="70"/>
-      <c r="O260" s="70"/>
-      <c r="P260" s="70"/>
-      <c r="Q260" s="70"/>
-      <c r="R260" s="70"/>
-      <c r="S260" s="70"/>
-      <c r="T260" s="70"/>
-      <c r="U260" s="70"/>
-      <c r="V260" s="70"/>
-      <c r="W260" s="70"/>
-      <c r="X260" s="70"/>
-      <c r="Y260" s="70"/>
-      <c r="Z260" s="70"/>
-      <c r="AA260" s="70"/>
-      <c r="AB260" s="70"/>
-      <c r="AC260" s="70"/>
-      <c r="AD260" s="70"/>
-      <c r="AE260" s="70"/>
-      <c r="AF260" s="70"/>
-      <c r="AG260" s="70"/>
-      <c r="AH260" s="70"/>
+      <c r="B260" s="66"/>
+      <c r="C260" s="66"/>
+      <c r="D260" s="66"/>
+      <c r="E260" s="66"/>
+      <c r="F260" s="66"/>
+      <c r="G260" s="66"/>
+      <c r="H260" s="66"/>
+      <c r="I260" s="66"/>
+      <c r="J260" s="66"/>
+      <c r="K260" s="66"/>
+      <c r="L260" s="66"/>
+      <c r="M260" s="66"/>
+      <c r="N260" s="66"/>
+      <c r="O260" s="66"/>
+      <c r="P260" s="66"/>
+      <c r="Q260" s="66"/>
+      <c r="R260" s="66"/>
+      <c r="S260" s="66"/>
+      <c r="T260" s="66"/>
+      <c r="U260" s="66"/>
+      <c r="V260" s="66"/>
+      <c r="W260" s="66"/>
+      <c r="X260" s="66"/>
+      <c r="Y260" s="66"/>
+      <c r="Z260" s="66"/>
+      <c r="AA260" s="66"/>
+      <c r="AB260" s="66"/>
+      <c r="AC260" s="66"/>
+      <c r="AD260" s="66"/>
+      <c r="AE260" s="66"/>
+      <c r="AF260" s="66"/>
+      <c r="AG260" s="66"/>
+      <c r="AH260" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48472,60 +48553,6 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865232DF-DB2D-4ACF-A3BC-EC4B033CEA3A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CFA783-E92A-45BF-A03E-278A148E4917}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1729">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6919,6 +6919,22 @@
   </si>
   <si>
     <t>请假</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/27</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘2018/9/18</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>’2018/10/16</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7117,7 +7133,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7318,6 +7334,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7340,9 +7362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8277,134 +8296,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68" t="s">
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -8498,7 +8517,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="68"/>
+      <c r="AH4" s="70"/>
     </row>
     <row r="5" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -9701,172 +9720,172 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="70"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="70"/>
-      <c r="AG36" s="70"/>
-      <c r="AH36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68" t="s">
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68" t="s">
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68" t="s">
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="69" t="s">
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="3">
         <v>1</v>
       </c>
@@ -9960,7 +9979,7 @@
       <c r="AG39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH39" s="68"/>
+      <c r="AH39" s="70"/>
     </row>
     <row r="40" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
@@ -12323,173 +12342,173 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="67"/>
-      <c r="O99" s="67"/>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="67"/>
-      <c r="R99" s="67"/>
-      <c r="S99" s="67"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="67"/>
-      <c r="Z99" s="67"/>
-      <c r="AA99" s="67"/>
-      <c r="AB99" s="67"/>
-      <c r="AC99" s="67"/>
-      <c r="AD99" s="67"/>
-      <c r="AE99" s="67"/>
-      <c r="AF99" s="67"/>
-      <c r="AG99" s="67"/>
-      <c r="AH99" s="67"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="69"/>
+      <c r="AB99" s="69"/>
+      <c r="AC99" s="69"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="69"/>
+      <c r="AF99" s="69"/>
+      <c r="AG99" s="69"/>
+      <c r="AH99" s="69"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="70"/>
-      <c r="L101" s="70"/>
-      <c r="M101" s="70"/>
-      <c r="N101" s="70"/>
-      <c r="O101" s="70"/>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
-      <c r="R101" s="70"/>
-      <c r="S101" s="70"/>
-      <c r="T101" s="70"/>
-      <c r="U101" s="70"/>
-      <c r="V101" s="70"/>
-      <c r="W101" s="70"/>
-      <c r="X101" s="70"/>
-      <c r="Y101" s="70"/>
-      <c r="Z101" s="70"/>
-      <c r="AA101" s="70"/>
-      <c r="AB101" s="70"/>
-      <c r="AC101" s="70"/>
-      <c r="AD101" s="70"/>
-      <c r="AE101" s="70"/>
-      <c r="AF101" s="70"/>
-      <c r="AG101" s="70"/>
-      <c r="AH101" s="70"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="72"/>
+      <c r="X101" s="72"/>
+      <c r="Y101" s="72"/>
+      <c r="Z101" s="72"/>
+      <c r="AA101" s="72"/>
+      <c r="AB101" s="72"/>
+      <c r="AC101" s="72"/>
+      <c r="AD101" s="72"/>
+      <c r="AE101" s="72"/>
+      <c r="AF101" s="72"/>
+      <c r="AG101" s="72"/>
+      <c r="AH101" s="72"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="72"/>
-      <c r="O102" s="72"/>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="72"/>
-      <c r="V102" s="72"/>
-      <c r="W102" s="72"/>
-      <c r="X102" s="72"/>
-      <c r="Y102" s="72"/>
-      <c r="Z102" s="72"/>
-      <c r="AA102" s="72"/>
-      <c r="AB102" s="72"/>
-      <c r="AC102" s="72"/>
-      <c r="AD102" s="72"/>
-      <c r="AE102" s="72"/>
-      <c r="AF102" s="72"/>
-      <c r="AG102" s="72"/>
-      <c r="AH102" s="72"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="74"/>
+      <c r="W102" s="74"/>
+      <c r="X102" s="74"/>
+      <c r="Y102" s="74"/>
+      <c r="Z102" s="74"/>
+      <c r="AA102" s="74"/>
+      <c r="AB102" s="74"/>
+      <c r="AC102" s="74"/>
+      <c r="AD102" s="74"/>
+      <c r="AE102" s="74"/>
+      <c r="AF102" s="74"/>
+      <c r="AG102" s="74"/>
+      <c r="AH102" s="74"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="68" t="s">
+      <c r="A103" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="68" t="s">
+      <c r="C103" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="68" t="s">
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M103" s="68"/>
-      <c r="N103" s="68"/>
-      <c r="O103" s="68"/>
-      <c r="P103" s="68"/>
-      <c r="Q103" s="68"/>
-      <c r="R103" s="68"/>
-      <c r="S103" s="68"/>
-      <c r="T103" s="68"/>
-      <c r="U103" s="68" t="s">
+      <c r="M103" s="70"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="70"/>
+      <c r="R103" s="70"/>
+      <c r="S103" s="70"/>
+      <c r="T103" s="70"/>
+      <c r="U103" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V103" s="68"/>
-      <c r="W103" s="68"/>
-      <c r="X103" s="68"/>
-      <c r="Y103" s="68"/>
-      <c r="Z103" s="68"/>
-      <c r="AA103" s="68"/>
-      <c r="AB103" s="68"/>
-      <c r="AC103" s="68"/>
-      <c r="AD103" s="68" t="s">
+      <c r="V103" s="70"/>
+      <c r="W103" s="70"/>
+      <c r="X103" s="70"/>
+      <c r="Y103" s="70"/>
+      <c r="Z103" s="70"/>
+      <c r="AA103" s="70"/>
+      <c r="AB103" s="70"/>
+      <c r="AC103" s="70"/>
+      <c r="AD103" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE103" s="68"/>
-      <c r="AF103" s="68"/>
-      <c r="AG103" s="68"/>
-      <c r="AH103" s="69" t="s">
+      <c r="AE103" s="70"/>
+      <c r="AF103" s="70"/>
+      <c r="AG103" s="70"/>
+      <c r="AH103" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
       <c r="C104" s="3">
         <v>1</v>
       </c>
@@ -12583,7 +12602,7 @@
       <c r="AG104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH104" s="68"/>
+      <c r="AH104" s="70"/>
     </row>
     <row r="105" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
@@ -15106,172 +15125,172 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="65" t="s">
+      <c r="A168" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="66"/>
-      <c r="C168" s="67"/>
-      <c r="D168" s="67"/>
-      <c r="E168" s="67"/>
-      <c r="F168" s="67"/>
-      <c r="G168" s="67"/>
-      <c r="H168" s="67"/>
-      <c r="I168" s="67"/>
-      <c r="J168" s="67"/>
-      <c r="K168" s="67"/>
-      <c r="L168" s="67"/>
-      <c r="M168" s="67"/>
-      <c r="N168" s="67"/>
-      <c r="O168" s="67"/>
-      <c r="P168" s="67"/>
-      <c r="Q168" s="67"/>
-      <c r="R168" s="67"/>
-      <c r="S168" s="67"/>
-      <c r="T168" s="67"/>
-      <c r="U168" s="67"/>
-      <c r="V168" s="67"/>
-      <c r="W168" s="67"/>
-      <c r="X168" s="67"/>
-      <c r="Y168" s="67"/>
-      <c r="Z168" s="67"/>
-      <c r="AA168" s="67"/>
-      <c r="AB168" s="67"/>
-      <c r="AC168" s="67"/>
-      <c r="AD168" s="67"/>
-      <c r="AE168" s="67"/>
-      <c r="AF168" s="67"/>
-      <c r="AG168" s="67"/>
-      <c r="AH168" s="67"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="69"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
+      <c r="L168" s="69"/>
+      <c r="M168" s="69"/>
+      <c r="N168" s="69"/>
+      <c r="O168" s="69"/>
+      <c r="P168" s="69"/>
+      <c r="Q168" s="69"/>
+      <c r="R168" s="69"/>
+      <c r="S168" s="69"/>
+      <c r="T168" s="69"/>
+      <c r="U168" s="69"/>
+      <c r="V168" s="69"/>
+      <c r="W168" s="69"/>
+      <c r="X168" s="69"/>
+      <c r="Y168" s="69"/>
+      <c r="Z168" s="69"/>
+      <c r="AA168" s="69"/>
+      <c r="AB168" s="69"/>
+      <c r="AC168" s="69"/>
+      <c r="AD168" s="69"/>
+      <c r="AE168" s="69"/>
+      <c r="AF168" s="69"/>
+      <c r="AG168" s="69"/>
+      <c r="AH168" s="69"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="70" t="s">
+      <c r="A169" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="70"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="70"/>
-      <c r="H169" s="70"/>
-      <c r="I169" s="70"/>
-      <c r="J169" s="70"/>
-      <c r="K169" s="70"/>
-      <c r="L169" s="70"/>
-      <c r="M169" s="70"/>
-      <c r="N169" s="70"/>
-      <c r="O169" s="70"/>
-      <c r="P169" s="70"/>
-      <c r="Q169" s="70"/>
-      <c r="R169" s="70"/>
-      <c r="S169" s="70"/>
-      <c r="T169" s="70"/>
-      <c r="U169" s="70"/>
-      <c r="V169" s="70"/>
-      <c r="W169" s="70"/>
-      <c r="X169" s="70"/>
-      <c r="Y169" s="70"/>
-      <c r="Z169" s="70"/>
-      <c r="AA169" s="70"/>
-      <c r="AB169" s="70"/>
-      <c r="AC169" s="70"/>
-      <c r="AD169" s="70"/>
-      <c r="AE169" s="70"/>
-      <c r="AF169" s="70"/>
-      <c r="AG169" s="70"/>
-      <c r="AH169" s="70"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="72"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
+      <c r="N169" s="72"/>
+      <c r="O169" s="72"/>
+      <c r="P169" s="72"/>
+      <c r="Q169" s="72"/>
+      <c r="R169" s="72"/>
+      <c r="S169" s="72"/>
+      <c r="T169" s="72"/>
+      <c r="U169" s="72"/>
+      <c r="V169" s="72"/>
+      <c r="W169" s="72"/>
+      <c r="X169" s="72"/>
+      <c r="Y169" s="72"/>
+      <c r="Z169" s="72"/>
+      <c r="AA169" s="72"/>
+      <c r="AB169" s="72"/>
+      <c r="AC169" s="72"/>
+      <c r="AD169" s="72"/>
+      <c r="AE169" s="72"/>
+      <c r="AF169" s="72"/>
+      <c r="AG169" s="72"/>
+      <c r="AH169" s="72"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="71" t="s">
+      <c r="A170" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="71"/>
-      <c r="C170" s="72"/>
-      <c r="D170" s="72"/>
-      <c r="E170" s="72"/>
-      <c r="F170" s="72"/>
-      <c r="G170" s="72"/>
-      <c r="H170" s="72"/>
-      <c r="I170" s="72"/>
-      <c r="J170" s="72"/>
-      <c r="K170" s="72"/>
-      <c r="L170" s="72"/>
-      <c r="M170" s="72"/>
-      <c r="N170" s="72"/>
-      <c r="O170" s="72"/>
-      <c r="P170" s="72"/>
-      <c r="Q170" s="72"/>
-      <c r="R170" s="72"/>
-      <c r="S170" s="72"/>
-      <c r="T170" s="72"/>
-      <c r="U170" s="72"/>
-      <c r="V170" s="72"/>
-      <c r="W170" s="72"/>
-      <c r="X170" s="72"/>
-      <c r="Y170" s="72"/>
-      <c r="Z170" s="72"/>
-      <c r="AA170" s="72"/>
-      <c r="AB170" s="72"/>
-      <c r="AC170" s="72"/>
-      <c r="AD170" s="72"/>
-      <c r="AE170" s="72"/>
-      <c r="AF170" s="72"/>
-      <c r="AG170" s="72"/>
-      <c r="AH170" s="72"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="74"/>
+      <c r="L170" s="74"/>
+      <c r="M170" s="74"/>
+      <c r="N170" s="74"/>
+      <c r="O170" s="74"/>
+      <c r="P170" s="74"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="74"/>
+      <c r="S170" s="74"/>
+      <c r="T170" s="74"/>
+      <c r="U170" s="74"/>
+      <c r="V170" s="74"/>
+      <c r="W170" s="74"/>
+      <c r="X170" s="74"/>
+      <c r="Y170" s="74"/>
+      <c r="Z170" s="74"/>
+      <c r="AA170" s="74"/>
+      <c r="AB170" s="74"/>
+      <c r="AC170" s="74"/>
+      <c r="AD170" s="74"/>
+      <c r="AE170" s="74"/>
+      <c r="AF170" s="74"/>
+      <c r="AG170" s="74"/>
+      <c r="AH170" s="74"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="68" t="s">
+      <c r="A171" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="68" t="s">
+      <c r="B171" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="68" t="s">
+      <c r="C171" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="68"/>
-      <c r="I171" s="68"/>
-      <c r="J171" s="68"/>
-      <c r="K171" s="68"/>
-      <c r="L171" s="68" t="s">
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="70"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="70"/>
+      <c r="J171" s="70"/>
+      <c r="K171" s="70"/>
+      <c r="L171" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M171" s="68"/>
-      <c r="N171" s="68"/>
-      <c r="O171" s="68"/>
-      <c r="P171" s="68"/>
-      <c r="Q171" s="68"/>
-      <c r="R171" s="68"/>
-      <c r="S171" s="68"/>
-      <c r="T171" s="68"/>
-      <c r="U171" s="68" t="s">
+      <c r="M171" s="70"/>
+      <c r="N171" s="70"/>
+      <c r="O171" s="70"/>
+      <c r="P171" s="70"/>
+      <c r="Q171" s="70"/>
+      <c r="R171" s="70"/>
+      <c r="S171" s="70"/>
+      <c r="T171" s="70"/>
+      <c r="U171" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V171" s="68"/>
-      <c r="W171" s="68"/>
-      <c r="X171" s="68"/>
-      <c r="Y171" s="68"/>
-      <c r="Z171" s="68"/>
-      <c r="AA171" s="68"/>
-      <c r="AB171" s="68"/>
-      <c r="AC171" s="68"/>
-      <c r="AD171" s="68" t="s">
+      <c r="V171" s="70"/>
+      <c r="W171" s="70"/>
+      <c r="X171" s="70"/>
+      <c r="Y171" s="70"/>
+      <c r="Z171" s="70"/>
+      <c r="AA171" s="70"/>
+      <c r="AB171" s="70"/>
+      <c r="AC171" s="70"/>
+      <c r="AD171" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE171" s="68"/>
-      <c r="AF171" s="68"/>
-      <c r="AG171" s="68"/>
-      <c r="AH171" s="69" t="s">
+      <c r="AE171" s="70"/>
+      <c r="AF171" s="70"/>
+      <c r="AG171" s="70"/>
+      <c r="AH171" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="68"/>
-      <c r="B172" s="68"/>
+      <c r="A172" s="70"/>
+      <c r="B172" s="70"/>
       <c r="C172" s="3">
         <v>1</v>
       </c>
@@ -15365,7 +15384,7 @@
       <c r="AG172" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH172" s="68"/>
+      <c r="AH172" s="70"/>
     </row>
     <row r="173" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
@@ -16848,42 +16867,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="65" t="s">
+      <c r="A210" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="66"/>
-      <c r="C210" s="67"/>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
-      <c r="F210" s="67"/>
-      <c r="G210" s="67"/>
-      <c r="H210" s="67"/>
-      <c r="I210" s="67"/>
-      <c r="J210" s="67"/>
-      <c r="K210" s="67"/>
-      <c r="L210" s="67"/>
-      <c r="M210" s="67"/>
-      <c r="N210" s="67"/>
-      <c r="O210" s="67"/>
-      <c r="P210" s="67"/>
-      <c r="Q210" s="67"/>
-      <c r="R210" s="67"/>
-      <c r="S210" s="67"/>
-      <c r="T210" s="67"/>
-      <c r="U210" s="67"/>
-      <c r="V210" s="67"/>
-      <c r="W210" s="67"/>
-      <c r="X210" s="67"/>
-      <c r="Y210" s="67"/>
-      <c r="Z210" s="67"/>
-      <c r="AA210" s="67"/>
-      <c r="AB210" s="67"/>
-      <c r="AC210" s="67"/>
-      <c r="AD210" s="67"/>
-      <c r="AE210" s="67"/>
-      <c r="AF210" s="67"/>
-      <c r="AG210" s="67"/>
-      <c r="AH210" s="67"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="69"/>
+      <c r="D210" s="69"/>
+      <c r="E210" s="69"/>
+      <c r="F210" s="69"/>
+      <c r="G210" s="69"/>
+      <c r="H210" s="69"/>
+      <c r="I210" s="69"/>
+      <c r="J210" s="69"/>
+      <c r="K210" s="69"/>
+      <c r="L210" s="69"/>
+      <c r="M210" s="69"/>
+      <c r="N210" s="69"/>
+      <c r="O210" s="69"/>
+      <c r="P210" s="69"/>
+      <c r="Q210" s="69"/>
+      <c r="R210" s="69"/>
+      <c r="S210" s="69"/>
+      <c r="T210" s="69"/>
+      <c r="U210" s="69"/>
+      <c r="V210" s="69"/>
+      <c r="W210" s="69"/>
+      <c r="X210" s="69"/>
+      <c r="Y210" s="69"/>
+      <c r="Z210" s="69"/>
+      <c r="AA210" s="69"/>
+      <c r="AB210" s="69"/>
+      <c r="AC210" s="69"/>
+      <c r="AD210" s="69"/>
+      <c r="AE210" s="69"/>
+      <c r="AF210" s="69"/>
+      <c r="AG210" s="69"/>
+      <c r="AH210" s="69"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16922,134 +16941,134 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="70" t="s">
+      <c r="A212" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="70"/>
-      <c r="C212" s="70"/>
-      <c r="D212" s="70"/>
-      <c r="E212" s="70"/>
-      <c r="F212" s="70"/>
-      <c r="G212" s="70"/>
-      <c r="H212" s="70"/>
-      <c r="I212" s="70"/>
-      <c r="J212" s="70"/>
-      <c r="K212" s="70"/>
-      <c r="L212" s="70"/>
-      <c r="M212" s="70"/>
-      <c r="N212" s="70"/>
-      <c r="O212" s="70"/>
-      <c r="P212" s="70"/>
-      <c r="Q212" s="70"/>
-      <c r="R212" s="70"/>
-      <c r="S212" s="70"/>
-      <c r="T212" s="70"/>
-      <c r="U212" s="70"/>
-      <c r="V212" s="70"/>
-      <c r="W212" s="70"/>
-      <c r="X212" s="70"/>
-      <c r="Y212" s="70"/>
-      <c r="Z212" s="70"/>
-      <c r="AA212" s="70"/>
-      <c r="AB212" s="70"/>
-      <c r="AC212" s="70"/>
-      <c r="AD212" s="70"/>
-      <c r="AE212" s="70"/>
-      <c r="AF212" s="70"/>
-      <c r="AG212" s="70"/>
-      <c r="AH212" s="70"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
+      <c r="H212" s="72"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
+      <c r="M212" s="72"/>
+      <c r="N212" s="72"/>
+      <c r="O212" s="72"/>
+      <c r="P212" s="72"/>
+      <c r="Q212" s="72"/>
+      <c r="R212" s="72"/>
+      <c r="S212" s="72"/>
+      <c r="T212" s="72"/>
+      <c r="U212" s="72"/>
+      <c r="V212" s="72"/>
+      <c r="W212" s="72"/>
+      <c r="X212" s="72"/>
+      <c r="Y212" s="72"/>
+      <c r="Z212" s="72"/>
+      <c r="AA212" s="72"/>
+      <c r="AB212" s="72"/>
+      <c r="AC212" s="72"/>
+      <c r="AD212" s="72"/>
+      <c r="AE212" s="72"/>
+      <c r="AF212" s="72"/>
+      <c r="AG212" s="72"/>
+      <c r="AH212" s="72"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="71" t="s">
+      <c r="A213" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="71"/>
-      <c r="C213" s="71"/>
-      <c r="D213" s="71"/>
-      <c r="E213" s="71"/>
-      <c r="F213" s="71"/>
-      <c r="G213" s="71"/>
-      <c r="H213" s="71"/>
-      <c r="I213" s="71"/>
-      <c r="J213" s="71"/>
-      <c r="K213" s="71"/>
-      <c r="L213" s="71"/>
-      <c r="M213" s="71"/>
-      <c r="N213" s="71"/>
-      <c r="O213" s="71"/>
-      <c r="P213" s="71"/>
-      <c r="Q213" s="71"/>
-      <c r="R213" s="71"/>
-      <c r="S213" s="71"/>
-      <c r="T213" s="71"/>
-      <c r="U213" s="71"/>
-      <c r="V213" s="71"/>
-      <c r="W213" s="71"/>
-      <c r="X213" s="71"/>
-      <c r="Y213" s="71"/>
-      <c r="Z213" s="71"/>
-      <c r="AA213" s="71"/>
-      <c r="AB213" s="71"/>
-      <c r="AC213" s="71"/>
-      <c r="AD213" s="71"/>
-      <c r="AE213" s="71"/>
-      <c r="AF213" s="71"/>
-      <c r="AG213" s="71"/>
-      <c r="AH213" s="71"/>
+      <c r="B213" s="73"/>
+      <c r="C213" s="73"/>
+      <c r="D213" s="73"/>
+      <c r="E213" s="73"/>
+      <c r="F213" s="73"/>
+      <c r="G213" s="73"/>
+      <c r="H213" s="73"/>
+      <c r="I213" s="73"/>
+      <c r="J213" s="73"/>
+      <c r="K213" s="73"/>
+      <c r="L213" s="73"/>
+      <c r="M213" s="73"/>
+      <c r="N213" s="73"/>
+      <c r="O213" s="73"/>
+      <c r="P213" s="73"/>
+      <c r="Q213" s="73"/>
+      <c r="R213" s="73"/>
+      <c r="S213" s="73"/>
+      <c r="T213" s="73"/>
+      <c r="U213" s="73"/>
+      <c r="V213" s="73"/>
+      <c r="W213" s="73"/>
+      <c r="X213" s="73"/>
+      <c r="Y213" s="73"/>
+      <c r="Z213" s="73"/>
+      <c r="AA213" s="73"/>
+      <c r="AB213" s="73"/>
+      <c r="AC213" s="73"/>
+      <c r="AD213" s="73"/>
+      <c r="AE213" s="73"/>
+      <c r="AF213" s="73"/>
+      <c r="AG213" s="73"/>
+      <c r="AH213" s="73"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="68" t="s">
+      <c r="A214" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="68" t="s">
+      <c r="B214" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="68" t="s">
+      <c r="C214" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="68"/>
-      <c r="E214" s="68"/>
-      <c r="F214" s="68"/>
-      <c r="G214" s="68"/>
-      <c r="H214" s="68"/>
-      <c r="I214" s="68"/>
-      <c r="J214" s="68"/>
-      <c r="K214" s="68"/>
-      <c r="L214" s="68" t="s">
+      <c r="D214" s="70"/>
+      <c r="E214" s="70"/>
+      <c r="F214" s="70"/>
+      <c r="G214" s="70"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="70"/>
+      <c r="J214" s="70"/>
+      <c r="K214" s="70"/>
+      <c r="L214" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M214" s="68"/>
-      <c r="N214" s="68"/>
-      <c r="O214" s="68"/>
-      <c r="P214" s="68"/>
-      <c r="Q214" s="68"/>
-      <c r="R214" s="68"/>
-      <c r="S214" s="68"/>
-      <c r="T214" s="68"/>
-      <c r="U214" s="68" t="s">
+      <c r="M214" s="70"/>
+      <c r="N214" s="70"/>
+      <c r="O214" s="70"/>
+      <c r="P214" s="70"/>
+      <c r="Q214" s="70"/>
+      <c r="R214" s="70"/>
+      <c r="S214" s="70"/>
+      <c r="T214" s="70"/>
+      <c r="U214" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V214" s="68"/>
-      <c r="W214" s="68"/>
-      <c r="X214" s="68"/>
-      <c r="Y214" s="68"/>
-      <c r="Z214" s="68"/>
-      <c r="AA214" s="68"/>
-      <c r="AB214" s="68"/>
-      <c r="AC214" s="68"/>
-      <c r="AD214" s="68" t="s">
+      <c r="V214" s="70"/>
+      <c r="W214" s="70"/>
+      <c r="X214" s="70"/>
+      <c r="Y214" s="70"/>
+      <c r="Z214" s="70"/>
+      <c r="AA214" s="70"/>
+      <c r="AB214" s="70"/>
+      <c r="AC214" s="70"/>
+      <c r="AD214" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE214" s="68"/>
-      <c r="AF214" s="68"/>
-      <c r="AG214" s="68"/>
-      <c r="AH214" s="69" t="s">
+      <c r="AE214" s="70"/>
+      <c r="AF214" s="70"/>
+      <c r="AG214" s="70"/>
+      <c r="AH214" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="68"/>
-      <c r="B215" s="68"/>
+      <c r="A215" s="70"/>
+      <c r="B215" s="70"/>
       <c r="C215" s="3">
         <v>1</v>
       </c>
@@ -17143,7 +17162,7 @@
       <c r="AG215" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH215" s="68"/>
+      <c r="AH215" s="70"/>
     </row>
     <row r="216" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
@@ -19746,42 +19765,42 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="65" t="s">
+      <c r="A281" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="66"/>
-      <c r="C281" s="67"/>
-      <c r="D281" s="67"/>
-      <c r="E281" s="67"/>
-      <c r="F281" s="67"/>
-      <c r="G281" s="67"/>
-      <c r="H281" s="67"/>
-      <c r="I281" s="67"/>
-      <c r="J281" s="67"/>
-      <c r="K281" s="67"/>
-      <c r="L281" s="67"/>
-      <c r="M281" s="67"/>
-      <c r="N281" s="67"/>
-      <c r="O281" s="67"/>
-      <c r="P281" s="67"/>
-      <c r="Q281" s="67"/>
-      <c r="R281" s="67"/>
-      <c r="S281" s="67"/>
-      <c r="T281" s="67"/>
-      <c r="U281" s="67"/>
-      <c r="V281" s="67"/>
-      <c r="W281" s="67"/>
-      <c r="X281" s="67"/>
-      <c r="Y281" s="67"/>
-      <c r="Z281" s="67"/>
-      <c r="AA281" s="67"/>
-      <c r="AB281" s="67"/>
-      <c r="AC281" s="67"/>
-      <c r="AD281" s="67"/>
-      <c r="AE281" s="67"/>
-      <c r="AF281" s="67"/>
-      <c r="AG281" s="67"/>
-      <c r="AH281" s="67"/>
+      <c r="B281" s="68"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
+      <c r="J281" s="69"/>
+      <c r="K281" s="69"/>
+      <c r="L281" s="69"/>
+      <c r="M281" s="69"/>
+      <c r="N281" s="69"/>
+      <c r="O281" s="69"/>
+      <c r="P281" s="69"/>
+      <c r="Q281" s="69"/>
+      <c r="R281" s="69"/>
+      <c r="S281" s="69"/>
+      <c r="T281" s="69"/>
+      <c r="U281" s="69"/>
+      <c r="V281" s="69"/>
+      <c r="W281" s="69"/>
+      <c r="X281" s="69"/>
+      <c r="Y281" s="69"/>
+      <c r="Z281" s="69"/>
+      <c r="AA281" s="69"/>
+      <c r="AB281" s="69"/>
+      <c r="AC281" s="69"/>
+      <c r="AD281" s="69"/>
+      <c r="AE281" s="69"/>
+      <c r="AF281" s="69"/>
+      <c r="AG281" s="69"/>
+      <c r="AH281" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -19846,8 +19865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:XFD433"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19868,134 +19887,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68" t="s">
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -20089,7 +20108,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="68"/>
+      <c r="AH4" s="70"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -22746,42 +22765,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="66"/>
-      <c r="S71" s="66"/>
-      <c r="T71" s="66"/>
-      <c r="U71" s="66"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
-      <c r="AD71" s="66"/>
-      <c r="AE71" s="66"/>
-      <c r="AF71" s="66"/>
-      <c r="AG71" s="66"/>
-      <c r="AH71" s="66"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="68"/>
+      <c r="X71" s="68"/>
+      <c r="Y71" s="68"/>
+      <c r="Z71" s="68"/>
+      <c r="AA71" s="68"/>
+      <c r="AB71" s="68"/>
+      <c r="AC71" s="68"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+      <c r="AH71" s="68"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22820,134 +22839,134 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="70"/>
-      <c r="T73" s="70"/>
-      <c r="U73" s="70"/>
-      <c r="V73" s="70"/>
-      <c r="W73" s="70"/>
-      <c r="X73" s="70"/>
-      <c r="Y73" s="70"/>
-      <c r="Z73" s="70"/>
-      <c r="AA73" s="70"/>
-      <c r="AB73" s="70"/>
-      <c r="AC73" s="70"/>
-      <c r="AD73" s="70"/>
-      <c r="AE73" s="70"/>
-      <c r="AF73" s="70"/>
-      <c r="AG73" s="70"/>
-      <c r="AH73" s="70"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
+      <c r="AH73" s="72"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="73" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="71"/>
-      <c r="AD74" s="71"/>
-      <c r="AE74" s="71"/>
-      <c r="AF74" s="71"/>
-      <c r="AG74" s="71"/>
-      <c r="AH74" s="71"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="W74" s="73"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="73"/>
+      <c r="Z74" s="73"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
+      <c r="AC74" s="73"/>
+      <c r="AD74" s="73"/>
+      <c r="AE74" s="73"/>
+      <c r="AF74" s="73"/>
+      <c r="AG74" s="73"/>
+      <c r="AH74" s="73"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68" t="s">
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M75" s="68"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="68"/>
-      <c r="R75" s="68"/>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="68" t="s">
+      <c r="M75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
+      <c r="R75" s="70"/>
+      <c r="S75" s="70"/>
+      <c r="T75" s="70"/>
+      <c r="U75" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V75" s="68"/>
-      <c r="W75" s="68"/>
-      <c r="X75" s="68"/>
-      <c r="Y75" s="68"/>
-      <c r="Z75" s="68"/>
-      <c r="AA75" s="68"/>
-      <c r="AB75" s="68"/>
-      <c r="AC75" s="68"/>
-      <c r="AD75" s="68" t="s">
+      <c r="V75" s="70"/>
+      <c r="W75" s="70"/>
+      <c r="X75" s="70"/>
+      <c r="Y75" s="70"/>
+      <c r="Z75" s="70"/>
+      <c r="AA75" s="70"/>
+      <c r="AB75" s="70"/>
+      <c r="AC75" s="70"/>
+      <c r="AD75" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE75" s="68"/>
-      <c r="AF75" s="68"/>
-      <c r="AG75" s="68"/>
-      <c r="AH75" s="69" t="s">
+      <c r="AE75" s="70"/>
+      <c r="AF75" s="70"/>
+      <c r="AG75" s="70"/>
+      <c r="AH75" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="3">
         <v>1</v>
       </c>
@@ -23041,7 +23060,7 @@
       <c r="AG76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH76" s="68"/>
+      <c r="AH76" s="70"/>
     </row>
     <row r="77" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
@@ -25600,172 +25619,172 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="65" t="s">
+      <c r="A141" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="66"/>
-      <c r="M141" s="66"/>
-      <c r="N141" s="66"/>
-      <c r="O141" s="66"/>
-      <c r="P141" s="66"/>
-      <c r="Q141" s="66"/>
-      <c r="R141" s="66"/>
-      <c r="S141" s="66"/>
-      <c r="T141" s="66"/>
-      <c r="U141" s="66"/>
-      <c r="V141" s="66"/>
-      <c r="W141" s="66"/>
-      <c r="X141" s="66"/>
-      <c r="Y141" s="66"/>
-      <c r="Z141" s="66"/>
-      <c r="AA141" s="66"/>
-      <c r="AB141" s="66"/>
-      <c r="AC141" s="66"/>
-      <c r="AD141" s="66"/>
-      <c r="AE141" s="66"/>
-      <c r="AF141" s="66"/>
-      <c r="AG141" s="66"/>
-      <c r="AH141" s="66"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
+      <c r="I141" s="68"/>
+      <c r="J141" s="68"/>
+      <c r="K141" s="68"/>
+      <c r="L141" s="68"/>
+      <c r="M141" s="68"/>
+      <c r="N141" s="68"/>
+      <c r="O141" s="68"/>
+      <c r="P141" s="68"/>
+      <c r="Q141" s="68"/>
+      <c r="R141" s="68"/>
+      <c r="S141" s="68"/>
+      <c r="T141" s="68"/>
+      <c r="U141" s="68"/>
+      <c r="V141" s="68"/>
+      <c r="W141" s="68"/>
+      <c r="X141" s="68"/>
+      <c r="Y141" s="68"/>
+      <c r="Z141" s="68"/>
+      <c r="AA141" s="68"/>
+      <c r="AB141" s="68"/>
+      <c r="AC141" s="68"/>
+      <c r="AD141" s="68"/>
+      <c r="AE141" s="68"/>
+      <c r="AF141" s="68"/>
+      <c r="AG141" s="68"/>
+      <c r="AH141" s="68"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="70" t="s">
+      <c r="A142" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="70"/>
-      <c r="F142" s="70"/>
-      <c r="G142" s="70"/>
-      <c r="H142" s="70"/>
-      <c r="I142" s="70"/>
-      <c r="J142" s="70"/>
-      <c r="K142" s="70"/>
-      <c r="L142" s="70"/>
-      <c r="M142" s="70"/>
-      <c r="N142" s="70"/>
-      <c r="O142" s="70"/>
-      <c r="P142" s="70"/>
-      <c r="Q142" s="70"/>
-      <c r="R142" s="70"/>
-      <c r="S142" s="70"/>
-      <c r="T142" s="70"/>
-      <c r="U142" s="70"/>
-      <c r="V142" s="70"/>
-      <c r="W142" s="70"/>
-      <c r="X142" s="70"/>
-      <c r="Y142" s="70"/>
-      <c r="Z142" s="70"/>
-      <c r="AA142" s="70"/>
-      <c r="AB142" s="70"/>
-      <c r="AC142" s="70"/>
-      <c r="AD142" s="70"/>
-      <c r="AE142" s="70"/>
-      <c r="AF142" s="70"/>
-      <c r="AG142" s="70"/>
-      <c r="AH142" s="70"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
+      <c r="N142" s="72"/>
+      <c r="O142" s="72"/>
+      <c r="P142" s="72"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72"/>
+      <c r="T142" s="72"/>
+      <c r="U142" s="72"/>
+      <c r="V142" s="72"/>
+      <c r="W142" s="72"/>
+      <c r="X142" s="72"/>
+      <c r="Y142" s="72"/>
+      <c r="Z142" s="72"/>
+      <c r="AA142" s="72"/>
+      <c r="AB142" s="72"/>
+      <c r="AC142" s="72"/>
+      <c r="AD142" s="72"/>
+      <c r="AE142" s="72"/>
+      <c r="AF142" s="72"/>
+      <c r="AG142" s="72"/>
+      <c r="AH142" s="72"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="71" t="s">
+      <c r="A143" s="73" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="71"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="71"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="71"/>
-      <c r="J143" s="71"/>
-      <c r="K143" s="71"/>
-      <c r="L143" s="71"/>
-      <c r="M143" s="71"/>
-      <c r="N143" s="71"/>
-      <c r="O143" s="71"/>
-      <c r="P143" s="71"/>
-      <c r="Q143" s="71"/>
-      <c r="R143" s="71"/>
-      <c r="S143" s="71"/>
-      <c r="T143" s="71"/>
-      <c r="U143" s="71"/>
-      <c r="V143" s="71"/>
-      <c r="W143" s="71"/>
-      <c r="X143" s="71"/>
-      <c r="Y143" s="71"/>
-      <c r="Z143" s="71"/>
-      <c r="AA143" s="71"/>
-      <c r="AB143" s="71"/>
-      <c r="AC143" s="71"/>
-      <c r="AD143" s="71"/>
-      <c r="AE143" s="71"/>
-      <c r="AF143" s="71"/>
-      <c r="AG143" s="71"/>
-      <c r="AH143" s="71"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="73"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+      <c r="K143" s="73"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="73"/>
+      <c r="O143" s="73"/>
+      <c r="P143" s="73"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="73"/>
+      <c r="S143" s="73"/>
+      <c r="T143" s="73"/>
+      <c r="U143" s="73"/>
+      <c r="V143" s="73"/>
+      <c r="W143" s="73"/>
+      <c r="X143" s="73"/>
+      <c r="Y143" s="73"/>
+      <c r="Z143" s="73"/>
+      <c r="AA143" s="73"/>
+      <c r="AB143" s="73"/>
+      <c r="AC143" s="73"/>
+      <c r="AD143" s="73"/>
+      <c r="AE143" s="73"/>
+      <c r="AF143" s="73"/>
+      <c r="AG143" s="73"/>
+      <c r="AH143" s="73"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="68" t="s">
+      <c r="A144" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="68" t="s">
+      <c r="B144" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="C144" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="68" t="s">
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M144" s="68"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="68"/>
-      <c r="P144" s="68"/>
-      <c r="Q144" s="68"/>
-      <c r="R144" s="68"/>
-      <c r="S144" s="68"/>
-      <c r="T144" s="68"/>
-      <c r="U144" s="68" t="s">
+      <c r="M144" s="70"/>
+      <c r="N144" s="70"/>
+      <c r="O144" s="70"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="70"/>
+      <c r="R144" s="70"/>
+      <c r="S144" s="70"/>
+      <c r="T144" s="70"/>
+      <c r="U144" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V144" s="68"/>
-      <c r="W144" s="68"/>
-      <c r="X144" s="68"/>
-      <c r="Y144" s="68"/>
-      <c r="Z144" s="68"/>
-      <c r="AA144" s="68"/>
-      <c r="AB144" s="68"/>
-      <c r="AC144" s="68"/>
-      <c r="AD144" s="68" t="s">
+      <c r="V144" s="70"/>
+      <c r="W144" s="70"/>
+      <c r="X144" s="70"/>
+      <c r="Y144" s="70"/>
+      <c r="Z144" s="70"/>
+      <c r="AA144" s="70"/>
+      <c r="AB144" s="70"/>
+      <c r="AC144" s="70"/>
+      <c r="AD144" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE144" s="68"/>
-      <c r="AF144" s="68"/>
-      <c r="AG144" s="68"/>
-      <c r="AH144" s="69" t="s">
+      <c r="AE144" s="70"/>
+      <c r="AF144" s="70"/>
+      <c r="AG144" s="70"/>
+      <c r="AH144" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
-      <c r="B145" s="68"/>
+      <c r="A145" s="70"/>
+      <c r="B145" s="70"/>
       <c r="C145" s="3">
         <v>1</v>
       </c>
@@ -25859,7 +25878,7 @@
       <c r="AG145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH145" s="68"/>
+      <c r="AH145" s="70"/>
     </row>
     <row r="146" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
@@ -28222,172 +28241,172 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="65" t="s">
+      <c r="A205" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="66"/>
-      <c r="C205" s="66"/>
-      <c r="D205" s="66"/>
-      <c r="E205" s="66"/>
-      <c r="F205" s="66"/>
-      <c r="G205" s="66"/>
-      <c r="H205" s="66"/>
-      <c r="I205" s="66"/>
-      <c r="J205" s="66"/>
-      <c r="K205" s="66"/>
-      <c r="L205" s="66"/>
-      <c r="M205" s="66"/>
-      <c r="N205" s="66"/>
-      <c r="O205" s="66"/>
-      <c r="P205" s="66"/>
-      <c r="Q205" s="66"/>
-      <c r="R205" s="66"/>
-      <c r="S205" s="66"/>
-      <c r="T205" s="66"/>
-      <c r="U205" s="66"/>
-      <c r="V205" s="66"/>
-      <c r="W205" s="66"/>
-      <c r="X205" s="66"/>
-      <c r="Y205" s="66"/>
-      <c r="Z205" s="66"/>
-      <c r="AA205" s="66"/>
-      <c r="AB205" s="66"/>
-      <c r="AC205" s="66"/>
-      <c r="AD205" s="66"/>
-      <c r="AE205" s="66"/>
-      <c r="AF205" s="66"/>
-      <c r="AG205" s="66"/>
-      <c r="AH205" s="66"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
+      <c r="J205" s="68"/>
+      <c r="K205" s="68"/>
+      <c r="L205" s="68"/>
+      <c r="M205" s="68"/>
+      <c r="N205" s="68"/>
+      <c r="O205" s="68"/>
+      <c r="P205" s="68"/>
+      <c r="Q205" s="68"/>
+      <c r="R205" s="68"/>
+      <c r="S205" s="68"/>
+      <c r="T205" s="68"/>
+      <c r="U205" s="68"/>
+      <c r="V205" s="68"/>
+      <c r="W205" s="68"/>
+      <c r="X205" s="68"/>
+      <c r="Y205" s="68"/>
+      <c r="Z205" s="68"/>
+      <c r="AA205" s="68"/>
+      <c r="AB205" s="68"/>
+      <c r="AC205" s="68"/>
+      <c r="AD205" s="68"/>
+      <c r="AE205" s="68"/>
+      <c r="AF205" s="68"/>
+      <c r="AG205" s="68"/>
+      <c r="AH205" s="68"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="70" t="s">
+      <c r="A207" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="70"/>
-      <c r="C207" s="70"/>
-      <c r="D207" s="70"/>
-      <c r="E207" s="70"/>
-      <c r="F207" s="70"/>
-      <c r="G207" s="70"/>
-      <c r="H207" s="70"/>
-      <c r="I207" s="70"/>
-      <c r="J207" s="70"/>
-      <c r="K207" s="70"/>
-      <c r="L207" s="70"/>
-      <c r="M207" s="70"/>
-      <c r="N207" s="70"/>
-      <c r="O207" s="70"/>
-      <c r="P207" s="70"/>
-      <c r="Q207" s="70"/>
-      <c r="R207" s="70"/>
-      <c r="S207" s="70"/>
-      <c r="T207" s="70"/>
-      <c r="U207" s="70"/>
-      <c r="V207" s="70"/>
-      <c r="W207" s="70"/>
-      <c r="X207" s="70"/>
-      <c r="Y207" s="70"/>
-      <c r="Z207" s="70"/>
-      <c r="AA207" s="70"/>
-      <c r="AB207" s="70"/>
-      <c r="AC207" s="70"/>
-      <c r="AD207" s="70"/>
-      <c r="AE207" s="70"/>
-      <c r="AF207" s="70"/>
-      <c r="AG207" s="70"/>
-      <c r="AH207" s="70"/>
+      <c r="B207" s="72"/>
+      <c r="C207" s="72"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="72"/>
+      <c r="H207" s="72"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="72"/>
+      <c r="L207" s="72"/>
+      <c r="M207" s="72"/>
+      <c r="N207" s="72"/>
+      <c r="O207" s="72"/>
+      <c r="P207" s="72"/>
+      <c r="Q207" s="72"/>
+      <c r="R207" s="72"/>
+      <c r="S207" s="72"/>
+      <c r="T207" s="72"/>
+      <c r="U207" s="72"/>
+      <c r="V207" s="72"/>
+      <c r="W207" s="72"/>
+      <c r="X207" s="72"/>
+      <c r="Y207" s="72"/>
+      <c r="Z207" s="72"/>
+      <c r="AA207" s="72"/>
+      <c r="AB207" s="72"/>
+      <c r="AC207" s="72"/>
+      <c r="AD207" s="72"/>
+      <c r="AE207" s="72"/>
+      <c r="AF207" s="72"/>
+      <c r="AG207" s="72"/>
+      <c r="AH207" s="72"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="71" t="s">
+      <c r="A208" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="71"/>
-      <c r="C208" s="71"/>
-      <c r="D208" s="71"/>
-      <c r="E208" s="71"/>
-      <c r="F208" s="71"/>
-      <c r="G208" s="71"/>
-      <c r="H208" s="71"/>
-      <c r="I208" s="71"/>
-      <c r="J208" s="71"/>
-      <c r="K208" s="71"/>
-      <c r="L208" s="71"/>
-      <c r="M208" s="71"/>
-      <c r="N208" s="71"/>
-      <c r="O208" s="71"/>
-      <c r="P208" s="71"/>
-      <c r="Q208" s="71"/>
-      <c r="R208" s="71"/>
-      <c r="S208" s="71"/>
-      <c r="T208" s="71"/>
-      <c r="U208" s="71"/>
-      <c r="V208" s="71"/>
-      <c r="W208" s="71"/>
-      <c r="X208" s="71"/>
-      <c r="Y208" s="71"/>
-      <c r="Z208" s="71"/>
-      <c r="AA208" s="71"/>
-      <c r="AB208" s="71"/>
-      <c r="AC208" s="71"/>
-      <c r="AD208" s="71"/>
-      <c r="AE208" s="71"/>
-      <c r="AF208" s="71"/>
-      <c r="AG208" s="71"/>
-      <c r="AH208" s="71"/>
+      <c r="B208" s="73"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+      <c r="G208" s="73"/>
+      <c r="H208" s="73"/>
+      <c r="I208" s="73"/>
+      <c r="J208" s="73"/>
+      <c r="K208" s="73"/>
+      <c r="L208" s="73"/>
+      <c r="M208" s="73"/>
+      <c r="N208" s="73"/>
+      <c r="O208" s="73"/>
+      <c r="P208" s="73"/>
+      <c r="Q208" s="73"/>
+      <c r="R208" s="73"/>
+      <c r="S208" s="73"/>
+      <c r="T208" s="73"/>
+      <c r="U208" s="73"/>
+      <c r="V208" s="73"/>
+      <c r="W208" s="73"/>
+      <c r="X208" s="73"/>
+      <c r="Y208" s="73"/>
+      <c r="Z208" s="73"/>
+      <c r="AA208" s="73"/>
+      <c r="AB208" s="73"/>
+      <c r="AC208" s="73"/>
+      <c r="AD208" s="73"/>
+      <c r="AE208" s="73"/>
+      <c r="AF208" s="73"/>
+      <c r="AG208" s="73"/>
+      <c r="AH208" s="73"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="68" t="s">
+      <c r="A209" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="68" t="s">
+      <c r="B209" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="68" t="s">
+      <c r="C209" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="68"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="68"/>
-      <c r="G209" s="68"/>
-      <c r="H209" s="68"/>
-      <c r="I209" s="68"/>
-      <c r="J209" s="68"/>
-      <c r="K209" s="68"/>
-      <c r="L209" s="68" t="s">
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="70"/>
+      <c r="L209" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M209" s="68"/>
-      <c r="N209" s="68"/>
-      <c r="O209" s="68"/>
-      <c r="P209" s="68"/>
-      <c r="Q209" s="68"/>
-      <c r="R209" s="68"/>
-      <c r="S209" s="68"/>
-      <c r="T209" s="68"/>
-      <c r="U209" s="68" t="s">
+      <c r="M209" s="70"/>
+      <c r="N209" s="70"/>
+      <c r="O209" s="70"/>
+      <c r="P209" s="70"/>
+      <c r="Q209" s="70"/>
+      <c r="R209" s="70"/>
+      <c r="S209" s="70"/>
+      <c r="T209" s="70"/>
+      <c r="U209" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V209" s="68"/>
-      <c r="W209" s="68"/>
-      <c r="X209" s="68"/>
-      <c r="Y209" s="68"/>
-      <c r="Z209" s="68"/>
-      <c r="AA209" s="68"/>
-      <c r="AB209" s="68"/>
-      <c r="AC209" s="68"/>
-      <c r="AD209" s="68" t="s">
+      <c r="V209" s="70"/>
+      <c r="W209" s="70"/>
+      <c r="X209" s="70"/>
+      <c r="Y209" s="70"/>
+      <c r="Z209" s="70"/>
+      <c r="AA209" s="70"/>
+      <c r="AB209" s="70"/>
+      <c r="AC209" s="70"/>
+      <c r="AD209" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE209" s="68"/>
-      <c r="AF209" s="68"/>
-      <c r="AG209" s="68"/>
-      <c r="AH209" s="69" t="s">
+      <c r="AE209" s="70"/>
+      <c r="AF209" s="70"/>
+      <c r="AG209" s="70"/>
+      <c r="AH209" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="68"/>
-      <c r="B210" s="68"/>
+      <c r="A210" s="70"/>
+      <c r="B210" s="70"/>
       <c r="C210" s="3">
         <v>1</v>
       </c>
@@ -28481,7 +28500,7 @@
       <c r="AG210" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH210" s="68"/>
+      <c r="AH210" s="70"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
@@ -30306,172 +30325,172 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="65" t="s">
+      <c r="A256" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="66"/>
-      <c r="C256" s="66"/>
-      <c r="D256" s="66"/>
-      <c r="E256" s="66"/>
-      <c r="F256" s="66"/>
-      <c r="G256" s="66"/>
-      <c r="H256" s="66"/>
-      <c r="I256" s="66"/>
-      <c r="J256" s="66"/>
-      <c r="K256" s="66"/>
-      <c r="L256" s="66"/>
-      <c r="M256" s="66"/>
-      <c r="N256" s="66"/>
-      <c r="O256" s="66"/>
-      <c r="P256" s="66"/>
-      <c r="Q256" s="66"/>
-      <c r="R256" s="66"/>
-      <c r="S256" s="66"/>
-      <c r="T256" s="66"/>
-      <c r="U256" s="66"/>
-      <c r="V256" s="66"/>
-      <c r="W256" s="66"/>
-      <c r="X256" s="66"/>
-      <c r="Y256" s="66"/>
-      <c r="Z256" s="66"/>
-      <c r="AA256" s="66"/>
-      <c r="AB256" s="66"/>
-      <c r="AC256" s="66"/>
-      <c r="AD256" s="66"/>
-      <c r="AE256" s="66"/>
-      <c r="AF256" s="66"/>
-      <c r="AG256" s="66"/>
-      <c r="AH256" s="66"/>
+      <c r="B256" s="68"/>
+      <c r="C256" s="68"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="68"/>
+      <c r="F256" s="68"/>
+      <c r="G256" s="68"/>
+      <c r="H256" s="68"/>
+      <c r="I256" s="68"/>
+      <c r="J256" s="68"/>
+      <c r="K256" s="68"/>
+      <c r="L256" s="68"/>
+      <c r="M256" s="68"/>
+      <c r="N256" s="68"/>
+      <c r="O256" s="68"/>
+      <c r="P256" s="68"/>
+      <c r="Q256" s="68"/>
+      <c r="R256" s="68"/>
+      <c r="S256" s="68"/>
+      <c r="T256" s="68"/>
+      <c r="U256" s="68"/>
+      <c r="V256" s="68"/>
+      <c r="W256" s="68"/>
+      <c r="X256" s="68"/>
+      <c r="Y256" s="68"/>
+      <c r="Z256" s="68"/>
+      <c r="AA256" s="68"/>
+      <c r="AB256" s="68"/>
+      <c r="AC256" s="68"/>
+      <c r="AD256" s="68"/>
+      <c r="AE256" s="68"/>
+      <c r="AF256" s="68"/>
+      <c r="AG256" s="68"/>
+      <c r="AH256" s="68"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="70" t="s">
+      <c r="A258" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="70"/>
-      <c r="C258" s="70"/>
-      <c r="D258" s="70"/>
-      <c r="E258" s="70"/>
-      <c r="F258" s="70"/>
-      <c r="G258" s="70"/>
-      <c r="H258" s="70"/>
-      <c r="I258" s="70"/>
-      <c r="J258" s="70"/>
-      <c r="K258" s="70"/>
-      <c r="L258" s="70"/>
-      <c r="M258" s="70"/>
-      <c r="N258" s="70"/>
-      <c r="O258" s="70"/>
-      <c r="P258" s="70"/>
-      <c r="Q258" s="70"/>
-      <c r="R258" s="70"/>
-      <c r="S258" s="70"/>
-      <c r="T258" s="70"/>
-      <c r="U258" s="70"/>
-      <c r="V258" s="70"/>
-      <c r="W258" s="70"/>
-      <c r="X258" s="70"/>
-      <c r="Y258" s="70"/>
-      <c r="Z258" s="70"/>
-      <c r="AA258" s="70"/>
-      <c r="AB258" s="70"/>
-      <c r="AC258" s="70"/>
-      <c r="AD258" s="70"/>
-      <c r="AE258" s="70"/>
-      <c r="AF258" s="70"/>
-      <c r="AG258" s="70"/>
-      <c r="AH258" s="70"/>
+      <c r="B258" s="72"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="72"/>
+      <c r="E258" s="72"/>
+      <c r="F258" s="72"/>
+      <c r="G258" s="72"/>
+      <c r="H258" s="72"/>
+      <c r="I258" s="72"/>
+      <c r="J258" s="72"/>
+      <c r="K258" s="72"/>
+      <c r="L258" s="72"/>
+      <c r="M258" s="72"/>
+      <c r="N258" s="72"/>
+      <c r="O258" s="72"/>
+      <c r="P258" s="72"/>
+      <c r="Q258" s="72"/>
+      <c r="R258" s="72"/>
+      <c r="S258" s="72"/>
+      <c r="T258" s="72"/>
+      <c r="U258" s="72"/>
+      <c r="V258" s="72"/>
+      <c r="W258" s="72"/>
+      <c r="X258" s="72"/>
+      <c r="Y258" s="72"/>
+      <c r="Z258" s="72"/>
+      <c r="AA258" s="72"/>
+      <c r="AB258" s="72"/>
+      <c r="AC258" s="72"/>
+      <c r="AD258" s="72"/>
+      <c r="AE258" s="72"/>
+      <c r="AF258" s="72"/>
+      <c r="AG258" s="72"/>
+      <c r="AH258" s="72"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="71" t="s">
+      <c r="A259" s="73" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="71"/>
-      <c r="C259" s="71"/>
-      <c r="D259" s="71"/>
-      <c r="E259" s="71"/>
-      <c r="F259" s="71"/>
-      <c r="G259" s="71"/>
-      <c r="H259" s="71"/>
-      <c r="I259" s="71"/>
-      <c r="J259" s="71"/>
-      <c r="K259" s="71"/>
-      <c r="L259" s="71"/>
-      <c r="M259" s="71"/>
-      <c r="N259" s="71"/>
-      <c r="O259" s="71"/>
-      <c r="P259" s="71"/>
-      <c r="Q259" s="71"/>
-      <c r="R259" s="71"/>
-      <c r="S259" s="71"/>
-      <c r="T259" s="71"/>
-      <c r="U259" s="71"/>
-      <c r="V259" s="71"/>
-      <c r="W259" s="71"/>
-      <c r="X259" s="71"/>
-      <c r="Y259" s="71"/>
-      <c r="Z259" s="71"/>
-      <c r="AA259" s="71"/>
-      <c r="AB259" s="71"/>
-      <c r="AC259" s="71"/>
-      <c r="AD259" s="71"/>
-      <c r="AE259" s="71"/>
-      <c r="AF259" s="71"/>
-      <c r="AG259" s="71"/>
-      <c r="AH259" s="71"/>
+      <c r="B259" s="73"/>
+      <c r="C259" s="73"/>
+      <c r="D259" s="73"/>
+      <c r="E259" s="73"/>
+      <c r="F259" s="73"/>
+      <c r="G259" s="73"/>
+      <c r="H259" s="73"/>
+      <c r="I259" s="73"/>
+      <c r="J259" s="73"/>
+      <c r="K259" s="73"/>
+      <c r="L259" s="73"/>
+      <c r="M259" s="73"/>
+      <c r="N259" s="73"/>
+      <c r="O259" s="73"/>
+      <c r="P259" s="73"/>
+      <c r="Q259" s="73"/>
+      <c r="R259" s="73"/>
+      <c r="S259" s="73"/>
+      <c r="T259" s="73"/>
+      <c r="U259" s="73"/>
+      <c r="V259" s="73"/>
+      <c r="W259" s="73"/>
+      <c r="X259" s="73"/>
+      <c r="Y259" s="73"/>
+      <c r="Z259" s="73"/>
+      <c r="AA259" s="73"/>
+      <c r="AB259" s="73"/>
+      <c r="AC259" s="73"/>
+      <c r="AD259" s="73"/>
+      <c r="AE259" s="73"/>
+      <c r="AF259" s="73"/>
+      <c r="AG259" s="73"/>
+      <c r="AH259" s="73"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="68" t="s">
+      <c r="A260" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="68" t="s">
+      <c r="B260" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="68" t="s">
+      <c r="C260" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D260" s="68"/>
-      <c r="E260" s="68"/>
-      <c r="F260" s="68"/>
-      <c r="G260" s="68"/>
-      <c r="H260" s="68"/>
-      <c r="I260" s="68"/>
-      <c r="J260" s="68"/>
-      <c r="K260" s="68"/>
-      <c r="L260" s="68" t="s">
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
+      <c r="J260" s="70"/>
+      <c r="K260" s="70"/>
+      <c r="L260" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M260" s="68"/>
-      <c r="N260" s="68"/>
-      <c r="O260" s="68"/>
-      <c r="P260" s="68"/>
-      <c r="Q260" s="68"/>
-      <c r="R260" s="68"/>
-      <c r="S260" s="68"/>
-      <c r="T260" s="68"/>
-      <c r="U260" s="68" t="s">
+      <c r="M260" s="70"/>
+      <c r="N260" s="70"/>
+      <c r="O260" s="70"/>
+      <c r="P260" s="70"/>
+      <c r="Q260" s="70"/>
+      <c r="R260" s="70"/>
+      <c r="S260" s="70"/>
+      <c r="T260" s="70"/>
+      <c r="U260" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V260" s="68"/>
-      <c r="W260" s="68"/>
-      <c r="X260" s="68"/>
-      <c r="Y260" s="68"/>
-      <c r="Z260" s="68"/>
-      <c r="AA260" s="68"/>
-      <c r="AB260" s="68"/>
-      <c r="AC260" s="68"/>
-      <c r="AD260" s="68" t="s">
+      <c r="V260" s="70"/>
+      <c r="W260" s="70"/>
+      <c r="X260" s="70"/>
+      <c r="Y260" s="70"/>
+      <c r="Z260" s="70"/>
+      <c r="AA260" s="70"/>
+      <c r="AB260" s="70"/>
+      <c r="AC260" s="70"/>
+      <c r="AD260" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE260" s="68"/>
-      <c r="AF260" s="68"/>
-      <c r="AG260" s="68"/>
-      <c r="AH260" s="69" t="s">
+      <c r="AE260" s="70"/>
+      <c r="AF260" s="70"/>
+      <c r="AG260" s="70"/>
+      <c r="AH260" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="68"/>
-      <c r="B261" s="68"/>
+      <c r="A261" s="70"/>
+      <c r="B261" s="70"/>
       <c r="C261" s="3">
         <v>1</v>
       </c>
@@ -30565,7 +30584,7 @@
       <c r="AG261" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH261" s="68"/>
+      <c r="AH261" s="70"/>
     </row>
     <row r="262" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
@@ -32088,177 +32107,177 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="65" t="s">
+      <c r="A300" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="66"/>
-      <c r="C300" s="66"/>
-      <c r="D300" s="66"/>
-      <c r="E300" s="66"/>
-      <c r="F300" s="66"/>
-      <c r="G300" s="66"/>
-      <c r="H300" s="66"/>
-      <c r="I300" s="66"/>
-      <c r="J300" s="66"/>
-      <c r="K300" s="66"/>
-      <c r="L300" s="66"/>
-      <c r="M300" s="66"/>
-      <c r="N300" s="66"/>
-      <c r="O300" s="66"/>
-      <c r="P300" s="66"/>
-      <c r="Q300" s="66"/>
-      <c r="R300" s="66"/>
-      <c r="S300" s="66"/>
-      <c r="T300" s="66"/>
-      <c r="U300" s="66"/>
-      <c r="V300" s="66"/>
-      <c r="W300" s="66"/>
-      <c r="X300" s="66"/>
-      <c r="Y300" s="66"/>
-      <c r="Z300" s="66"/>
-      <c r="AA300" s="66"/>
-      <c r="AB300" s="66"/>
-      <c r="AC300" s="66"/>
-      <c r="AD300" s="66"/>
-      <c r="AE300" s="66"/>
-      <c r="AF300" s="66"/>
-      <c r="AG300" s="66"/>
-      <c r="AH300" s="66"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="68"/>
+      <c r="D300" s="68"/>
+      <c r="E300" s="68"/>
+      <c r="F300" s="68"/>
+      <c r="G300" s="68"/>
+      <c r="H300" s="68"/>
+      <c r="I300" s="68"/>
+      <c r="J300" s="68"/>
+      <c r="K300" s="68"/>
+      <c r="L300" s="68"/>
+      <c r="M300" s="68"/>
+      <c r="N300" s="68"/>
+      <c r="O300" s="68"/>
+      <c r="P300" s="68"/>
+      <c r="Q300" s="68"/>
+      <c r="R300" s="68"/>
+      <c r="S300" s="68"/>
+      <c r="T300" s="68"/>
+      <c r="U300" s="68"/>
+      <c r="V300" s="68"/>
+      <c r="W300" s="68"/>
+      <c r="X300" s="68"/>
+      <c r="Y300" s="68"/>
+      <c r="Z300" s="68"/>
+      <c r="AA300" s="68"/>
+      <c r="AB300" s="68"/>
+      <c r="AC300" s="68"/>
+      <c r="AD300" s="68"/>
+      <c r="AE300" s="68"/>
+      <c r="AF300" s="68"/>
+      <c r="AG300" s="68"/>
+      <c r="AH300" s="68"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="70" t="s">
+      <c r="A301" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="70"/>
-      <c r="C301" s="70"/>
-      <c r="D301" s="70"/>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70"/>
-      <c r="G301" s="70"/>
-      <c r="H301" s="70"/>
-      <c r="I301" s="70"/>
-      <c r="J301" s="70"/>
-      <c r="K301" s="70"/>
-      <c r="L301" s="70"/>
-      <c r="M301" s="70"/>
-      <c r="N301" s="70"/>
-      <c r="O301" s="70"/>
-      <c r="P301" s="70"/>
-      <c r="Q301" s="70"/>
-      <c r="R301" s="70"/>
-      <c r="S301" s="70"/>
-      <c r="T301" s="70"/>
-      <c r="U301" s="70"/>
-      <c r="V301" s="70"/>
-      <c r="W301" s="70"/>
-      <c r="X301" s="70"/>
-      <c r="Y301" s="70"/>
-      <c r="Z301" s="70"/>
-      <c r="AA301" s="70"/>
-      <c r="AB301" s="70"/>
-      <c r="AC301" s="70"/>
-      <c r="AD301" s="70"/>
-      <c r="AE301" s="70"/>
-      <c r="AF301" s="70"/>
-      <c r="AG301" s="70"/>
-      <c r="AH301" s="70"/>
+      <c r="B301" s="72"/>
+      <c r="C301" s="72"/>
+      <c r="D301" s="72"/>
+      <c r="E301" s="72"/>
+      <c r="F301" s="72"/>
+      <c r="G301" s="72"/>
+      <c r="H301" s="72"/>
+      <c r="I301" s="72"/>
+      <c r="J301" s="72"/>
+      <c r="K301" s="72"/>
+      <c r="L301" s="72"/>
+      <c r="M301" s="72"/>
+      <c r="N301" s="72"/>
+      <c r="O301" s="72"/>
+      <c r="P301" s="72"/>
+      <c r="Q301" s="72"/>
+      <c r="R301" s="72"/>
+      <c r="S301" s="72"/>
+      <c r="T301" s="72"/>
+      <c r="U301" s="72"/>
+      <c r="V301" s="72"/>
+      <c r="W301" s="72"/>
+      <c r="X301" s="72"/>
+      <c r="Y301" s="72"/>
+      <c r="Z301" s="72"/>
+      <c r="AA301" s="72"/>
+      <c r="AB301" s="72"/>
+      <c r="AC301" s="72"/>
+      <c r="AD301" s="72"/>
+      <c r="AE301" s="72"/>
+      <c r="AF301" s="72"/>
+      <c r="AG301" s="72"/>
+      <c r="AH301" s="72"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="71" t="s">
+      <c r="A302" s="73" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="71"/>
-      <c r="C302" s="71"/>
-      <c r="D302" s="71"/>
-      <c r="E302" s="71"/>
-      <c r="F302" s="71"/>
-      <c r="G302" s="71"/>
-      <c r="H302" s="71"/>
-      <c r="I302" s="71"/>
-      <c r="J302" s="71"/>
-      <c r="K302" s="71"/>
-      <c r="L302" s="71"/>
-      <c r="M302" s="71"/>
-      <c r="N302" s="71"/>
-      <c r="O302" s="71"/>
-      <c r="P302" s="71"/>
-      <c r="Q302" s="71"/>
-      <c r="R302" s="71"/>
-      <c r="S302" s="71"/>
-      <c r="T302" s="71"/>
-      <c r="U302" s="71"/>
-      <c r="V302" s="71"/>
-      <c r="W302" s="71"/>
-      <c r="X302" s="71"/>
-      <c r="Y302" s="71"/>
-      <c r="Z302" s="71"/>
-      <c r="AA302" s="71"/>
-      <c r="AB302" s="71"/>
-      <c r="AC302" s="71"/>
-      <c r="AD302" s="71"/>
-      <c r="AE302" s="71"/>
-      <c r="AF302" s="71"/>
-      <c r="AG302" s="71"/>
-      <c r="AH302" s="71"/>
+      <c r="B302" s="73"/>
+      <c r="C302" s="73"/>
+      <c r="D302" s="73"/>
+      <c r="E302" s="73"/>
+      <c r="F302" s="73"/>
+      <c r="G302" s="73"/>
+      <c r="H302" s="73"/>
+      <c r="I302" s="73"/>
+      <c r="J302" s="73"/>
+      <c r="K302" s="73"/>
+      <c r="L302" s="73"/>
+      <c r="M302" s="73"/>
+      <c r="N302" s="73"/>
+      <c r="O302" s="73"/>
+      <c r="P302" s="73"/>
+      <c r="Q302" s="73"/>
+      <c r="R302" s="73"/>
+      <c r="S302" s="73"/>
+      <c r="T302" s="73"/>
+      <c r="U302" s="73"/>
+      <c r="V302" s="73"/>
+      <c r="W302" s="73"/>
+      <c r="X302" s="73"/>
+      <c r="Y302" s="73"/>
+      <c r="Z302" s="73"/>
+      <c r="AA302" s="73"/>
+      <c r="AB302" s="73"/>
+      <c r="AC302" s="73"/>
+      <c r="AD302" s="73"/>
+      <c r="AE302" s="73"/>
+      <c r="AF302" s="73"/>
+      <c r="AG302" s="73"/>
+      <c r="AH302" s="73"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="68" t="s">
+      <c r="A303" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B303" s="68" t="s">
+      <c r="B303" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="68" t="s">
+      <c r="C303" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D303" s="68"/>
-      <c r="E303" s="68"/>
-      <c r="F303" s="68"/>
-      <c r="G303" s="68"/>
-      <c r="H303" s="68"/>
-      <c r="I303" s="68"/>
-      <c r="J303" s="68"/>
-      <c r="K303" s="68"/>
-      <c r="L303" s="68" t="s">
+      <c r="D303" s="70"/>
+      <c r="E303" s="70"/>
+      <c r="F303" s="70"/>
+      <c r="G303" s="70"/>
+      <c r="H303" s="70"/>
+      <c r="I303" s="70"/>
+      <c r="J303" s="70"/>
+      <c r="K303" s="70"/>
+      <c r="L303" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M303" s="68"/>
-      <c r="N303" s="68"/>
-      <c r="O303" s="68"/>
-      <c r="P303" s="68"/>
-      <c r="Q303" s="68"/>
-      <c r="R303" s="68"/>
-      <c r="S303" s="68"/>
-      <c r="T303" s="68"/>
-      <c r="U303" s="68" t="s">
+      <c r="M303" s="70"/>
+      <c r="N303" s="70"/>
+      <c r="O303" s="70"/>
+      <c r="P303" s="70"/>
+      <c r="Q303" s="70"/>
+      <c r="R303" s="70"/>
+      <c r="S303" s="70"/>
+      <c r="T303" s="70"/>
+      <c r="U303" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V303" s="68"/>
-      <c r="W303" s="68"/>
-      <c r="X303" s="68"/>
-      <c r="Y303" s="68"/>
-      <c r="Z303" s="68"/>
-      <c r="AA303" s="68"/>
-      <c r="AB303" s="68"/>
-      <c r="AC303" s="68"/>
-      <c r="AD303" s="68" t="s">
+      <c r="V303" s="70"/>
+      <c r="W303" s="70"/>
+      <c r="X303" s="70"/>
+      <c r="Y303" s="70"/>
+      <c r="Z303" s="70"/>
+      <c r="AA303" s="70"/>
+      <c r="AB303" s="70"/>
+      <c r="AC303" s="70"/>
+      <c r="AD303" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE303" s="68"/>
-      <c r="AF303" s="68"/>
-      <c r="AG303" s="68"/>
-      <c r="AH303" s="69" t="s">
+      <c r="AE303" s="70"/>
+      <c r="AF303" s="70"/>
+      <c r="AG303" s="70"/>
+      <c r="AH303" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="68"/>
-      <c r="B304" s="68"/>
-      <c r="C304" s="3">
-        <v>1</v>
-      </c>
-      <c r="D304" s="3">
-        <v>2</v>
+      <c r="A304" s="70"/>
+      <c r="B304" s="70"/>
+      <c r="C304" s="66" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D304" s="66" t="s">
+        <v>1727</v>
       </c>
       <c r="E304" s="59" t="s">
         <v>1717</v>
@@ -32266,8 +32285,8 @@
       <c r="F304" s="59" t="s">
         <v>1716</v>
       </c>
-      <c r="G304" s="3">
-        <v>5</v>
+      <c r="G304" s="59" t="s">
+        <v>1725</v>
       </c>
       <c r="H304" s="3">
         <v>6</v>
@@ -32347,7 +32366,7 @@
       <c r="AG304" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH304" s="68"/>
+      <c r="AH304" s="70"/>
     </row>
     <row r="305" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="49" t="s">
@@ -32402,7 +32421,7 @@
       <c r="D306" s="3"/>
       <c r="E306" s="52"/>
       <c r="F306" s="52"/>
-      <c r="G306" s="3"/>
+      <c r="G306" s="52"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
@@ -32442,7 +32461,7 @@
       <c r="D307" s="3"/>
       <c r="E307" s="52"/>
       <c r="F307" s="52"/>
-      <c r="G307" s="3"/>
+      <c r="G307" s="52"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
@@ -32642,7 +32661,7 @@
       <c r="D312" s="3"/>
       <c r="E312" s="52"/>
       <c r="F312" s="51"/>
-      <c r="G312" s="3"/>
+      <c r="G312" s="52"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
@@ -32762,7 +32781,7 @@
       <c r="D315" s="3"/>
       <c r="E315" s="52"/>
       <c r="F315" s="52"/>
-      <c r="G315" s="3"/>
+      <c r="G315" s="52"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
@@ -32842,7 +32861,9 @@
       <c r="D317" s="3"/>
       <c r="E317" s="52"/>
       <c r="F317" s="52"/>
-      <c r="G317" s="3"/>
+      <c r="G317" s="53" t="s">
+        <v>1728</v>
+      </c>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
@@ -33042,7 +33063,7 @@
       <c r="D322" s="3"/>
       <c r="E322" s="52"/>
       <c r="F322" s="52"/>
-      <c r="G322" s="3"/>
+      <c r="G322" s="52"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
@@ -33082,7 +33103,7 @@
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="52"/>
-      <c r="G323" s="3"/>
+      <c r="G323" s="52"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
@@ -33162,7 +33183,7 @@
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="52"/>
-      <c r="G325" s="3"/>
+      <c r="G325" s="52"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
@@ -33242,7 +33263,7 @@
       <c r="D327" s="3"/>
       <c r="E327" s="52"/>
       <c r="F327" s="52"/>
-      <c r="G327" s="3"/>
+      <c r="G327" s="52"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
@@ -33282,7 +33303,7 @@
       <c r="D328" s="3"/>
       <c r="E328" s="52"/>
       <c r="F328" s="52"/>
-      <c r="G328" s="3"/>
+      <c r="G328" s="52"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
@@ -33322,7 +33343,7 @@
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
+      <c r="G329" s="52"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
@@ -33482,7 +33503,7 @@
       <c r="D333" s="3"/>
       <c r="E333" s="52"/>
       <c r="F333" s="52"/>
-      <c r="G333" s="3"/>
+      <c r="G333" s="52"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
@@ -33522,7 +33543,7 @@
       <c r="D334" s="52"/>
       <c r="E334" s="3"/>
       <c r="F334" s="52"/>
-      <c r="G334" s="3"/>
+      <c r="G334" s="52"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
@@ -33602,7 +33623,7 @@
       <c r="D336" s="3"/>
       <c r="E336" s="52"/>
       <c r="F336" s="52"/>
-      <c r="G336" s="3"/>
+      <c r="G336" s="52"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
@@ -33762,7 +33783,7 @@
       <c r="D340" s="3"/>
       <c r="E340" s="52"/>
       <c r="F340" s="52"/>
-      <c r="G340" s="3"/>
+      <c r="G340" s="52"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
@@ -33802,7 +33823,7 @@
       <c r="D341" s="3"/>
       <c r="E341" s="52"/>
       <c r="F341" s="52"/>
-      <c r="G341" s="3"/>
+      <c r="G341" s="52"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
@@ -33922,7 +33943,7 @@
       <c r="D344" s="3"/>
       <c r="E344" s="52"/>
       <c r="F344" s="3"/>
-      <c r="G344" s="3"/>
+      <c r="G344" s="52"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
@@ -33962,7 +33983,7 @@
       <c r="D345" s="3"/>
       <c r="E345" s="52"/>
       <c r="F345" s="52"/>
-      <c r="G345" s="3"/>
+      <c r="G345" s="52"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
@@ -34042,7 +34063,7 @@
       <c r="D347" s="3"/>
       <c r="E347" s="52"/>
       <c r="F347" s="52"/>
-      <c r="G347" s="3"/>
+      <c r="G347" s="52"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
@@ -34162,7 +34183,7 @@
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="52"/>
-      <c r="G350" s="3"/>
+      <c r="G350" s="52"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
@@ -34364,7 +34385,7 @@
       <c r="F355" s="51" t="s">
         <v>1715</v>
       </c>
-      <c r="G355" s="3"/>
+      <c r="G355" s="52"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
@@ -34404,7 +34425,7 @@
       <c r="D356" s="52"/>
       <c r="E356" s="3"/>
       <c r="F356" s="52"/>
-      <c r="G356" s="3"/>
+      <c r="G356" s="52"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
@@ -34484,7 +34505,7 @@
       <c r="D358" s="3"/>
       <c r="E358" s="52"/>
       <c r="F358" s="52"/>
-      <c r="G358" s="3"/>
+      <c r="G358" s="52"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
@@ -34564,7 +34585,7 @@
       <c r="D360" s="3"/>
       <c r="E360" s="52"/>
       <c r="F360" s="52"/>
-      <c r="G360" s="3"/>
+      <c r="G360" s="52"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
@@ -34604,7 +34625,7 @@
       <c r="D361" s="3"/>
       <c r="E361" s="52"/>
       <c r="F361" s="52"/>
-      <c r="G361" s="3"/>
+      <c r="G361" s="52"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
@@ -34644,7 +34665,7 @@
       <c r="D362" s="3"/>
       <c r="E362" s="52"/>
       <c r="F362" s="52"/>
-      <c r="G362" s="3"/>
+      <c r="G362" s="52"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
@@ -34684,7 +34705,7 @@
       <c r="D363" s="3"/>
       <c r="E363" s="52"/>
       <c r="F363" s="51"/>
-      <c r="G363" s="3"/>
+      <c r="G363" s="52"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
@@ -34724,7 +34745,7 @@
       <c r="D364" s="3"/>
       <c r="E364" s="52"/>
       <c r="F364" s="52"/>
-      <c r="G364" s="3"/>
+      <c r="G364" s="52"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
@@ -34764,7 +34785,7 @@
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="52"/>
-      <c r="G365" s="3"/>
+      <c r="G365" s="52"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
@@ -34804,7 +34825,7 @@
       <c r="D366" s="3"/>
       <c r="E366" s="52"/>
       <c r="F366" s="52"/>
-      <c r="G366" s="3"/>
+      <c r="G366" s="52"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
@@ -34834,42 +34855,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="65" t="s">
+      <c r="A367" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="66"/>
-      <c r="C367" s="66"/>
-      <c r="D367" s="66"/>
-      <c r="E367" s="66"/>
-      <c r="F367" s="66"/>
-      <c r="G367" s="66"/>
-      <c r="H367" s="66"/>
-      <c r="I367" s="66"/>
-      <c r="J367" s="66"/>
-      <c r="K367" s="66"/>
-      <c r="L367" s="66"/>
-      <c r="M367" s="66"/>
-      <c r="N367" s="66"/>
-      <c r="O367" s="66"/>
-      <c r="P367" s="66"/>
-      <c r="Q367" s="66"/>
-      <c r="R367" s="66"/>
-      <c r="S367" s="66"/>
-      <c r="T367" s="66"/>
-      <c r="U367" s="66"/>
-      <c r="V367" s="66"/>
-      <c r="W367" s="66"/>
-      <c r="X367" s="66"/>
-      <c r="Y367" s="66"/>
-      <c r="Z367" s="66"/>
-      <c r="AA367" s="66"/>
-      <c r="AB367" s="66"/>
-      <c r="AC367" s="66"/>
-      <c r="AD367" s="66"/>
-      <c r="AE367" s="66"/>
-      <c r="AF367" s="66"/>
-      <c r="AG367" s="66"/>
-      <c r="AH367" s="66"/>
+      <c r="B367" s="68"/>
+      <c r="C367" s="68"/>
+      <c r="D367" s="68"/>
+      <c r="E367" s="68"/>
+      <c r="F367" s="68"/>
+      <c r="G367" s="68"/>
+      <c r="H367" s="68"/>
+      <c r="I367" s="68"/>
+      <c r="J367" s="68"/>
+      <c r="K367" s="68"/>
+      <c r="L367" s="68"/>
+      <c r="M367" s="68"/>
+      <c r="N367" s="68"/>
+      <c r="O367" s="68"/>
+      <c r="P367" s="68"/>
+      <c r="Q367" s="68"/>
+      <c r="R367" s="68"/>
+      <c r="S367" s="68"/>
+      <c r="T367" s="68"/>
+      <c r="U367" s="68"/>
+      <c r="V367" s="68"/>
+      <c r="W367" s="68"/>
+      <c r="X367" s="68"/>
+      <c r="Y367" s="68"/>
+      <c r="Z367" s="68"/>
+      <c r="AA367" s="68"/>
+      <c r="AB367" s="68"/>
+      <c r="AC367" s="68"/>
+      <c r="AD367" s="68"/>
+      <c r="AE367" s="68"/>
+      <c r="AF367" s="68"/>
+      <c r="AG367" s="68"/>
+      <c r="AH367" s="68"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34908,134 +34929,134 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="70" t="s">
+      <c r="A369" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="70"/>
-      <c r="C369" s="70"/>
-      <c r="D369" s="70"/>
-      <c r="E369" s="70"/>
-      <c r="F369" s="70"/>
-      <c r="G369" s="70"/>
-      <c r="H369" s="70"/>
-      <c r="I369" s="70"/>
-      <c r="J369" s="70"/>
-      <c r="K369" s="70"/>
-      <c r="L369" s="70"/>
-      <c r="M369" s="70"/>
-      <c r="N369" s="70"/>
-      <c r="O369" s="70"/>
-      <c r="P369" s="70"/>
-      <c r="Q369" s="70"/>
-      <c r="R369" s="70"/>
-      <c r="S369" s="70"/>
-      <c r="T369" s="70"/>
-      <c r="U369" s="70"/>
-      <c r="V369" s="70"/>
-      <c r="W369" s="70"/>
-      <c r="X369" s="70"/>
-      <c r="Y369" s="70"/>
-      <c r="Z369" s="70"/>
-      <c r="AA369" s="70"/>
-      <c r="AB369" s="70"/>
-      <c r="AC369" s="70"/>
-      <c r="AD369" s="70"/>
-      <c r="AE369" s="70"/>
-      <c r="AF369" s="70"/>
-      <c r="AG369" s="70"/>
-      <c r="AH369" s="70"/>
+      <c r="B369" s="72"/>
+      <c r="C369" s="72"/>
+      <c r="D369" s="72"/>
+      <c r="E369" s="72"/>
+      <c r="F369" s="72"/>
+      <c r="G369" s="72"/>
+      <c r="H369" s="72"/>
+      <c r="I369" s="72"/>
+      <c r="J369" s="72"/>
+      <c r="K369" s="72"/>
+      <c r="L369" s="72"/>
+      <c r="M369" s="72"/>
+      <c r="N369" s="72"/>
+      <c r="O369" s="72"/>
+      <c r="P369" s="72"/>
+      <c r="Q369" s="72"/>
+      <c r="R369" s="72"/>
+      <c r="S369" s="72"/>
+      <c r="T369" s="72"/>
+      <c r="U369" s="72"/>
+      <c r="V369" s="72"/>
+      <c r="W369" s="72"/>
+      <c r="X369" s="72"/>
+      <c r="Y369" s="72"/>
+      <c r="Z369" s="72"/>
+      <c r="AA369" s="72"/>
+      <c r="AB369" s="72"/>
+      <c r="AC369" s="72"/>
+      <c r="AD369" s="72"/>
+      <c r="AE369" s="72"/>
+      <c r="AF369" s="72"/>
+      <c r="AG369" s="72"/>
+      <c r="AH369" s="72"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="71" t="s">
+      <c r="A370" s="73" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="71"/>
-      <c r="C370" s="71"/>
-      <c r="D370" s="71"/>
-      <c r="E370" s="71"/>
-      <c r="F370" s="71"/>
-      <c r="G370" s="71"/>
-      <c r="H370" s="71"/>
-      <c r="I370" s="71"/>
-      <c r="J370" s="71"/>
-      <c r="K370" s="71"/>
-      <c r="L370" s="71"/>
-      <c r="M370" s="71"/>
-      <c r="N370" s="71"/>
-      <c r="O370" s="71"/>
-      <c r="P370" s="71"/>
-      <c r="Q370" s="71"/>
-      <c r="R370" s="71"/>
-      <c r="S370" s="71"/>
-      <c r="T370" s="71"/>
-      <c r="U370" s="71"/>
-      <c r="V370" s="71"/>
-      <c r="W370" s="71"/>
-      <c r="X370" s="71"/>
-      <c r="Y370" s="71"/>
-      <c r="Z370" s="71"/>
-      <c r="AA370" s="71"/>
-      <c r="AB370" s="71"/>
-      <c r="AC370" s="71"/>
-      <c r="AD370" s="71"/>
-      <c r="AE370" s="71"/>
-      <c r="AF370" s="71"/>
-      <c r="AG370" s="71"/>
-      <c r="AH370" s="71"/>
+      <c r="B370" s="73"/>
+      <c r="C370" s="73"/>
+      <c r="D370" s="73"/>
+      <c r="E370" s="73"/>
+      <c r="F370" s="73"/>
+      <c r="G370" s="73"/>
+      <c r="H370" s="73"/>
+      <c r="I370" s="73"/>
+      <c r="J370" s="73"/>
+      <c r="K370" s="73"/>
+      <c r="L370" s="73"/>
+      <c r="M370" s="73"/>
+      <c r="N370" s="73"/>
+      <c r="O370" s="73"/>
+      <c r="P370" s="73"/>
+      <c r="Q370" s="73"/>
+      <c r="R370" s="73"/>
+      <c r="S370" s="73"/>
+      <c r="T370" s="73"/>
+      <c r="U370" s="73"/>
+      <c r="V370" s="73"/>
+      <c r="W370" s="73"/>
+      <c r="X370" s="73"/>
+      <c r="Y370" s="73"/>
+      <c r="Z370" s="73"/>
+      <c r="AA370" s="73"/>
+      <c r="AB370" s="73"/>
+      <c r="AC370" s="73"/>
+      <c r="AD370" s="73"/>
+      <c r="AE370" s="73"/>
+      <c r="AF370" s="73"/>
+      <c r="AG370" s="73"/>
+      <c r="AH370" s="73"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="68" t="s">
+      <c r="A371" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B371" s="68" t="s">
+      <c r="B371" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C371" s="68" t="s">
+      <c r="C371" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D371" s="68"/>
-      <c r="E371" s="68"/>
-      <c r="F371" s="68"/>
-      <c r="G371" s="68"/>
-      <c r="H371" s="68"/>
-      <c r="I371" s="68"/>
-      <c r="J371" s="68"/>
-      <c r="K371" s="68"/>
-      <c r="L371" s="68" t="s">
+      <c r="D371" s="70"/>
+      <c r="E371" s="70"/>
+      <c r="F371" s="70"/>
+      <c r="G371" s="70"/>
+      <c r="H371" s="70"/>
+      <c r="I371" s="70"/>
+      <c r="J371" s="70"/>
+      <c r="K371" s="70"/>
+      <c r="L371" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M371" s="68"/>
-      <c r="N371" s="68"/>
-      <c r="O371" s="68"/>
-      <c r="P371" s="68"/>
-      <c r="Q371" s="68"/>
-      <c r="R371" s="68"/>
-      <c r="S371" s="68"/>
-      <c r="T371" s="68"/>
-      <c r="U371" s="68" t="s">
+      <c r="M371" s="70"/>
+      <c r="N371" s="70"/>
+      <c r="O371" s="70"/>
+      <c r="P371" s="70"/>
+      <c r="Q371" s="70"/>
+      <c r="R371" s="70"/>
+      <c r="S371" s="70"/>
+      <c r="T371" s="70"/>
+      <c r="U371" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V371" s="68"/>
-      <c r="W371" s="68"/>
-      <c r="X371" s="68"/>
-      <c r="Y371" s="68"/>
-      <c r="Z371" s="68"/>
-      <c r="AA371" s="68"/>
-      <c r="AB371" s="68"/>
-      <c r="AC371" s="68"/>
-      <c r="AD371" s="68" t="s">
+      <c r="V371" s="70"/>
+      <c r="W371" s="70"/>
+      <c r="X371" s="70"/>
+      <c r="Y371" s="70"/>
+      <c r="Z371" s="70"/>
+      <c r="AA371" s="70"/>
+      <c r="AB371" s="70"/>
+      <c r="AC371" s="70"/>
+      <c r="AD371" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE371" s="68"/>
-      <c r="AF371" s="68"/>
-      <c r="AG371" s="68"/>
-      <c r="AH371" s="69" t="s">
+      <c r="AE371" s="70"/>
+      <c r="AF371" s="70"/>
+      <c r="AG371" s="70"/>
+      <c r="AH371" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="68"/>
-      <c r="B372" s="68"/>
+      <c r="A372" s="70"/>
+      <c r="B372" s="70"/>
       <c r="C372" s="3">
         <v>1</v>
       </c>
@@ -35129,7 +35150,7 @@
       <c r="AG372" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH372" s="68"/>
+      <c r="AH372" s="70"/>
     </row>
     <row r="373" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
@@ -36243,7 +36264,7 @@
       <c r="E400" s="3" t="s">
         <v>1713</v>
       </c>
-      <c r="F400" s="73" t="s">
+      <c r="F400" s="65" t="s">
         <v>1723</v>
       </c>
       <c r="G400" s="3"/>
@@ -36491,7 +36512,7 @@
       <c r="C406" s="52"/>
       <c r="D406" s="3"/>
       <c r="E406" s="52"/>
-      <c r="F406" s="73" t="s">
+      <c r="F406" s="65" t="s">
         <v>1723</v>
       </c>
       <c r="G406" s="3"/>
@@ -37103,7 +37124,7 @@
         <v>1709</v>
       </c>
       <c r="E421" s="52"/>
-      <c r="F421" s="73" t="s">
+      <c r="F421" s="65" t="s">
         <v>1724</v>
       </c>
       <c r="G421" s="3"/>
@@ -37471,7 +37492,7 @@
         <v>1710</v>
       </c>
       <c r="E430" s="3"/>
-      <c r="F430" s="73" t="s">
+      <c r="F430" s="65" t="s">
         <v>1724</v>
       </c>
       <c r="G430" s="3"/>
@@ -37515,7 +37536,7 @@
         <v>1711</v>
       </c>
       <c r="E431" s="3"/>
-      <c r="F431" s="73"/>
+      <c r="F431" s="65"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
@@ -37706,42 +37727,42 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="65" t="s">
+      <c r="A436" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="66"/>
-      <c r="C436" s="66"/>
-      <c r="D436" s="66"/>
-      <c r="E436" s="66"/>
-      <c r="F436" s="66"/>
-      <c r="G436" s="66"/>
-      <c r="H436" s="66"/>
-      <c r="I436" s="66"/>
-      <c r="J436" s="66"/>
-      <c r="K436" s="66"/>
-      <c r="L436" s="66"/>
-      <c r="M436" s="66"/>
-      <c r="N436" s="66"/>
-      <c r="O436" s="66"/>
-      <c r="P436" s="66"/>
-      <c r="Q436" s="66"/>
-      <c r="R436" s="66"/>
-      <c r="S436" s="66"/>
-      <c r="T436" s="66"/>
-      <c r="U436" s="66"/>
-      <c r="V436" s="66"/>
-      <c r="W436" s="66"/>
-      <c r="X436" s="66"/>
-      <c r="Y436" s="66"/>
-      <c r="Z436" s="66"/>
-      <c r="AA436" s="66"/>
-      <c r="AB436" s="66"/>
-      <c r="AC436" s="66"/>
-      <c r="AD436" s="66"/>
-      <c r="AE436" s="66"/>
-      <c r="AF436" s="66"/>
-      <c r="AG436" s="66"/>
-      <c r="AH436" s="66"/>
+      <c r="B436" s="68"/>
+      <c r="C436" s="68"/>
+      <c r="D436" s="68"/>
+      <c r="E436" s="68"/>
+      <c r="F436" s="68"/>
+      <c r="G436" s="68"/>
+      <c r="H436" s="68"/>
+      <c r="I436" s="68"/>
+      <c r="J436" s="68"/>
+      <c r="K436" s="68"/>
+      <c r="L436" s="68"/>
+      <c r="M436" s="68"/>
+      <c r="N436" s="68"/>
+      <c r="O436" s="68"/>
+      <c r="P436" s="68"/>
+      <c r="Q436" s="68"/>
+      <c r="R436" s="68"/>
+      <c r="S436" s="68"/>
+      <c r="T436" s="68"/>
+      <c r="U436" s="68"/>
+      <c r="V436" s="68"/>
+      <c r="W436" s="68"/>
+      <c r="X436" s="68"/>
+      <c r="Y436" s="68"/>
+      <c r="Z436" s="68"/>
+      <c r="AA436" s="68"/>
+      <c r="AB436" s="68"/>
+      <c r="AC436" s="68"/>
+      <c r="AD436" s="68"/>
+      <c r="AE436" s="68"/>
+      <c r="AF436" s="68"/>
+      <c r="AG436" s="68"/>
+      <c r="AH436" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -37848,134 +37869,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68" t="s">
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -38069,7 +38090,7 @@
       <c r="AG4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="68"/>
+      <c r="AH4" s="70"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -38672,172 +38693,172 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68" t="s">
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68" t="s">
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="68"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="69" t="s">
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="3">
         <v>1</v>
       </c>
@@ -38931,7 +38952,7 @@
       <c r="AG25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH25" s="68"/>
+      <c r="AH25" s="70"/>
     </row>
     <row r="26" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -39414,172 +39435,172 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="70"/>
-      <c r="AE40" s="70"/>
-      <c r="AF40" s="70"/>
-      <c r="AG40" s="70"/>
-      <c r="AH40" s="70"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="73" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68" t="s">
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68" t="s">
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="68"/>
-      <c r="Z42" s="68"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="68"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="68" t="s">
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="68"/>
-      <c r="AF42" s="68"/>
-      <c r="AG42" s="68"/>
-      <c r="AH42" s="69" t="s">
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="3">
         <v>1</v>
       </c>
@@ -39673,7 +39694,7 @@
       <c r="AG43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH43" s="68"/>
+      <c r="AH43" s="70"/>
     </row>
     <row r="44" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -40436,172 +40457,172 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
+      <c r="AE63" s="68"/>
+      <c r="AF63" s="68"/>
+      <c r="AG63" s="68"/>
+      <c r="AH63" s="68"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="70"/>
-      <c r="AB64" s="70"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="70"/>
-      <c r="AE64" s="70"/>
-      <c r="AF64" s="70"/>
-      <c r="AG64" s="70"/>
-      <c r="AH64" s="70"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="72"/>
+      <c r="X64" s="72"/>
+      <c r="Y64" s="72"/>
+      <c r="Z64" s="72"/>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="72"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="72"/>
+      <c r="AF64" s="72"/>
+      <c r="AG64" s="72"/>
+      <c r="AH64" s="72"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="73" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
-      <c r="Z65" s="71"/>
-      <c r="AA65" s="71"/>
-      <c r="AB65" s="71"/>
-      <c r="AC65" s="71"/>
-      <c r="AD65" s="71"/>
-      <c r="AE65" s="71"/>
-      <c r="AF65" s="71"/>
-      <c r="AG65" s="71"/>
-      <c r="AH65" s="71"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+      <c r="AC65" s="73"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="68" t="s">
+      <c r="A66" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68" t="s">
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="68"/>
-      <c r="T66" s="68"/>
-      <c r="U66" s="68" t="s">
+      <c r="M66" s="70"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="70"/>
+      <c r="U66" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V66" s="68"/>
-      <c r="W66" s="68"/>
-      <c r="X66" s="68"/>
-      <c r="Y66" s="68"/>
-      <c r="Z66" s="68"/>
-      <c r="AA66" s="68"/>
-      <c r="AB66" s="68"/>
-      <c r="AC66" s="68"/>
-      <c r="AD66" s="68" t="s">
+      <c r="V66" s="70"/>
+      <c r="W66" s="70"/>
+      <c r="X66" s="70"/>
+      <c r="Y66" s="70"/>
+      <c r="Z66" s="70"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
+      <c r="AC66" s="70"/>
+      <c r="AD66" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE66" s="68"/>
-      <c r="AF66" s="68"/>
-      <c r="AG66" s="68"/>
-      <c r="AH66" s="69" t="s">
+      <c r="AE66" s="70"/>
+      <c r="AF66" s="70"/>
+      <c r="AG66" s="70"/>
+      <c r="AH66" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="3">
         <v>1</v>
       </c>
@@ -40695,7 +40716,7 @@
       <c r="AG67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH67" s="68"/>
+      <c r="AH67" s="70"/>
     </row>
     <row r="68" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -42418,172 +42439,172 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="66"/>
-      <c r="M111" s="66"/>
-      <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="66"/>
-      <c r="R111" s="66"/>
-      <c r="S111" s="66"/>
-      <c r="T111" s="66"/>
-      <c r="U111" s="66"/>
-      <c r="V111" s="66"/>
-      <c r="W111" s="66"/>
-      <c r="X111" s="66"/>
-      <c r="Y111" s="66"/>
-      <c r="Z111" s="66"/>
-      <c r="AA111" s="66"/>
-      <c r="AB111" s="66"/>
-      <c r="AC111" s="66"/>
-      <c r="AD111" s="66"/>
-      <c r="AE111" s="66"/>
-      <c r="AF111" s="66"/>
-      <c r="AG111" s="66"/>
-      <c r="AH111" s="66"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="68"/>
+      <c r="R111" s="68"/>
+      <c r="S111" s="68"/>
+      <c r="T111" s="68"/>
+      <c r="U111" s="68"/>
+      <c r="V111" s="68"/>
+      <c r="W111" s="68"/>
+      <c r="X111" s="68"/>
+      <c r="Y111" s="68"/>
+      <c r="Z111" s="68"/>
+      <c r="AA111" s="68"/>
+      <c r="AB111" s="68"/>
+      <c r="AC111" s="68"/>
+      <c r="AD111" s="68"/>
+      <c r="AE111" s="68"/>
+      <c r="AF111" s="68"/>
+      <c r="AG111" s="68"/>
+      <c r="AH111" s="68"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="70" t="s">
+      <c r="A113" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
-      <c r="J113" s="70"/>
-      <c r="K113" s="70"/>
-      <c r="L113" s="70"/>
-      <c r="M113" s="70"/>
-      <c r="N113" s="70"/>
-      <c r="O113" s="70"/>
-      <c r="P113" s="70"/>
-      <c r="Q113" s="70"/>
-      <c r="R113" s="70"/>
-      <c r="S113" s="70"/>
-      <c r="T113" s="70"/>
-      <c r="U113" s="70"/>
-      <c r="V113" s="70"/>
-      <c r="W113" s="70"/>
-      <c r="X113" s="70"/>
-      <c r="Y113" s="70"/>
-      <c r="Z113" s="70"/>
-      <c r="AA113" s="70"/>
-      <c r="AB113" s="70"/>
-      <c r="AC113" s="70"/>
-      <c r="AD113" s="70"/>
-      <c r="AE113" s="70"/>
-      <c r="AF113" s="70"/>
-      <c r="AG113" s="70"/>
-      <c r="AH113" s="70"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="72"/>
+      <c r="O113" s="72"/>
+      <c r="P113" s="72"/>
+      <c r="Q113" s="72"/>
+      <c r="R113" s="72"/>
+      <c r="S113" s="72"/>
+      <c r="T113" s="72"/>
+      <c r="U113" s="72"/>
+      <c r="V113" s="72"/>
+      <c r="W113" s="72"/>
+      <c r="X113" s="72"/>
+      <c r="Y113" s="72"/>
+      <c r="Z113" s="72"/>
+      <c r="AA113" s="72"/>
+      <c r="AB113" s="72"/>
+      <c r="AC113" s="72"/>
+      <c r="AD113" s="72"/>
+      <c r="AE113" s="72"/>
+      <c r="AF113" s="72"/>
+      <c r="AG113" s="72"/>
+      <c r="AH113" s="72"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="71" t="s">
+      <c r="A114" s="73" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="71"/>
-      <c r="C114" s="71"/>
-      <c r="D114" s="71"/>
-      <c r="E114" s="71"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
-      <c r="O114" s="71"/>
-      <c r="P114" s="71"/>
-      <c r="Q114" s="71"/>
-      <c r="R114" s="71"/>
-      <c r="S114" s="71"/>
-      <c r="T114" s="71"/>
-      <c r="U114" s="71"/>
-      <c r="V114" s="71"/>
-      <c r="W114" s="71"/>
-      <c r="X114" s="71"/>
-      <c r="Y114" s="71"/>
-      <c r="Z114" s="71"/>
-      <c r="AA114" s="71"/>
-      <c r="AB114" s="71"/>
-      <c r="AC114" s="71"/>
-      <c r="AD114" s="71"/>
-      <c r="AE114" s="71"/>
-      <c r="AF114" s="71"/>
-      <c r="AG114" s="71"/>
-      <c r="AH114" s="71"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="73"/>
+      <c r="N114" s="73"/>
+      <c r="O114" s="73"/>
+      <c r="P114" s="73"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="73"/>
+      <c r="T114" s="73"/>
+      <c r="U114" s="73"/>
+      <c r="V114" s="73"/>
+      <c r="W114" s="73"/>
+      <c r="X114" s="73"/>
+      <c r="Y114" s="73"/>
+      <c r="Z114" s="73"/>
+      <c r="AA114" s="73"/>
+      <c r="AB114" s="73"/>
+      <c r="AC114" s="73"/>
+      <c r="AD114" s="73"/>
+      <c r="AE114" s="73"/>
+      <c r="AF114" s="73"/>
+      <c r="AG114" s="73"/>
+      <c r="AH114" s="73"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="68" t="s">
+      <c r="A115" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="68" t="s">
+      <c r="C115" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="68"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="68"/>
-      <c r="I115" s="68"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="68"/>
-      <c r="L115" s="68" t="s">
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M115" s="68"/>
-      <c r="N115" s="68"/>
-      <c r="O115" s="68"/>
-      <c r="P115" s="68"/>
-      <c r="Q115" s="68"/>
-      <c r="R115" s="68"/>
-      <c r="S115" s="68"/>
-      <c r="T115" s="68"/>
-      <c r="U115" s="68" t="s">
+      <c r="M115" s="70"/>
+      <c r="N115" s="70"/>
+      <c r="O115" s="70"/>
+      <c r="P115" s="70"/>
+      <c r="Q115" s="70"/>
+      <c r="R115" s="70"/>
+      <c r="S115" s="70"/>
+      <c r="T115" s="70"/>
+      <c r="U115" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V115" s="68"/>
-      <c r="W115" s="68"/>
-      <c r="X115" s="68"/>
-      <c r="Y115" s="68"/>
-      <c r="Z115" s="68"/>
-      <c r="AA115" s="68"/>
-      <c r="AB115" s="68"/>
-      <c r="AC115" s="68"/>
-      <c r="AD115" s="68" t="s">
+      <c r="V115" s="70"/>
+      <c r="W115" s="70"/>
+      <c r="X115" s="70"/>
+      <c r="Y115" s="70"/>
+      <c r="Z115" s="70"/>
+      <c r="AA115" s="70"/>
+      <c r="AB115" s="70"/>
+      <c r="AC115" s="70"/>
+      <c r="AD115" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE115" s="68"/>
-      <c r="AF115" s="68"/>
-      <c r="AG115" s="68"/>
-      <c r="AH115" s="69" t="s">
+      <c r="AE115" s="70"/>
+      <c r="AF115" s="70"/>
+      <c r="AG115" s="70"/>
+      <c r="AH115" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="68"/>
-      <c r="B116" s="68"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
       <c r="C116" s="3">
         <v>1</v>
       </c>
@@ -42677,7 +42698,7 @@
       <c r="AG116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH116" s="68"/>
+      <c r="AH116" s="70"/>
     </row>
     <row r="117" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -44400,172 +44421,172 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="65" t="s">
+      <c r="A160" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="66"/>
-      <c r="C160" s="66"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="66"/>
-      <c r="G160" s="66"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="66"/>
-      <c r="J160" s="66"/>
-      <c r="K160" s="66"/>
-      <c r="L160" s="66"/>
-      <c r="M160" s="66"/>
-      <c r="N160" s="66"/>
-      <c r="O160" s="66"/>
-      <c r="P160" s="66"/>
-      <c r="Q160" s="66"/>
-      <c r="R160" s="66"/>
-      <c r="S160" s="66"/>
-      <c r="T160" s="66"/>
-      <c r="U160" s="66"/>
-      <c r="V160" s="66"/>
-      <c r="W160" s="66"/>
-      <c r="X160" s="66"/>
-      <c r="Y160" s="66"/>
-      <c r="Z160" s="66"/>
-      <c r="AA160" s="66"/>
-      <c r="AB160" s="66"/>
-      <c r="AC160" s="66"/>
-      <c r="AD160" s="66"/>
-      <c r="AE160" s="66"/>
-      <c r="AF160" s="66"/>
-      <c r="AG160" s="66"/>
-      <c r="AH160" s="66"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="68"/>
+      <c r="I160" s="68"/>
+      <c r="J160" s="68"/>
+      <c r="K160" s="68"/>
+      <c r="L160" s="68"/>
+      <c r="M160" s="68"/>
+      <c r="N160" s="68"/>
+      <c r="O160" s="68"/>
+      <c r="P160" s="68"/>
+      <c r="Q160" s="68"/>
+      <c r="R160" s="68"/>
+      <c r="S160" s="68"/>
+      <c r="T160" s="68"/>
+      <c r="U160" s="68"/>
+      <c r="V160" s="68"/>
+      <c r="W160" s="68"/>
+      <c r="X160" s="68"/>
+      <c r="Y160" s="68"/>
+      <c r="Z160" s="68"/>
+      <c r="AA160" s="68"/>
+      <c r="AB160" s="68"/>
+      <c r="AC160" s="68"/>
+      <c r="AD160" s="68"/>
+      <c r="AE160" s="68"/>
+      <c r="AF160" s="68"/>
+      <c r="AG160" s="68"/>
+      <c r="AH160" s="68"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="70" t="s">
+      <c r="A162" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="70"/>
-      <c r="C162" s="70"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="70"/>
-      <c r="F162" s="70"/>
-      <c r="G162" s="70"/>
-      <c r="H162" s="70"/>
-      <c r="I162" s="70"/>
-      <c r="J162" s="70"/>
-      <c r="K162" s="70"/>
-      <c r="L162" s="70"/>
-      <c r="M162" s="70"/>
-      <c r="N162" s="70"/>
-      <c r="O162" s="70"/>
-      <c r="P162" s="70"/>
-      <c r="Q162" s="70"/>
-      <c r="R162" s="70"/>
-      <c r="S162" s="70"/>
-      <c r="T162" s="70"/>
-      <c r="U162" s="70"/>
-      <c r="V162" s="70"/>
-      <c r="W162" s="70"/>
-      <c r="X162" s="70"/>
-      <c r="Y162" s="70"/>
-      <c r="Z162" s="70"/>
-      <c r="AA162" s="70"/>
-      <c r="AB162" s="70"/>
-      <c r="AC162" s="70"/>
-      <c r="AD162" s="70"/>
-      <c r="AE162" s="70"/>
-      <c r="AF162" s="70"/>
-      <c r="AG162" s="70"/>
-      <c r="AH162" s="70"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="72"/>
+      <c r="N162" s="72"/>
+      <c r="O162" s="72"/>
+      <c r="P162" s="72"/>
+      <c r="Q162" s="72"/>
+      <c r="R162" s="72"/>
+      <c r="S162" s="72"/>
+      <c r="T162" s="72"/>
+      <c r="U162" s="72"/>
+      <c r="V162" s="72"/>
+      <c r="W162" s="72"/>
+      <c r="X162" s="72"/>
+      <c r="Y162" s="72"/>
+      <c r="Z162" s="72"/>
+      <c r="AA162" s="72"/>
+      <c r="AB162" s="72"/>
+      <c r="AC162" s="72"/>
+      <c r="AD162" s="72"/>
+      <c r="AE162" s="72"/>
+      <c r="AF162" s="72"/>
+      <c r="AG162" s="72"/>
+      <c r="AH162" s="72"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="71" t="s">
+      <c r="A163" s="73" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="71"/>
-      <c r="C163" s="71"/>
-      <c r="D163" s="71"/>
-      <c r="E163" s="71"/>
-      <c r="F163" s="71"/>
-      <c r="G163" s="71"/>
-      <c r="H163" s="71"/>
-      <c r="I163" s="71"/>
-      <c r="J163" s="71"/>
-      <c r="K163" s="71"/>
-      <c r="L163" s="71"/>
-      <c r="M163" s="71"/>
-      <c r="N163" s="71"/>
-      <c r="O163" s="71"/>
-      <c r="P163" s="71"/>
-      <c r="Q163" s="71"/>
-      <c r="R163" s="71"/>
-      <c r="S163" s="71"/>
-      <c r="T163" s="71"/>
-      <c r="U163" s="71"/>
-      <c r="V163" s="71"/>
-      <c r="W163" s="71"/>
-      <c r="X163" s="71"/>
-      <c r="Y163" s="71"/>
-      <c r="Z163" s="71"/>
-      <c r="AA163" s="71"/>
-      <c r="AB163" s="71"/>
-      <c r="AC163" s="71"/>
-      <c r="AD163" s="71"/>
-      <c r="AE163" s="71"/>
-      <c r="AF163" s="71"/>
-      <c r="AG163" s="71"/>
-      <c r="AH163" s="71"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="73"/>
+      <c r="D163" s="73"/>
+      <c r="E163" s="73"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
+      <c r="K163" s="73"/>
+      <c r="L163" s="73"/>
+      <c r="M163" s="73"/>
+      <c r="N163" s="73"/>
+      <c r="O163" s="73"/>
+      <c r="P163" s="73"/>
+      <c r="Q163" s="73"/>
+      <c r="R163" s="73"/>
+      <c r="S163" s="73"/>
+      <c r="T163" s="73"/>
+      <c r="U163" s="73"/>
+      <c r="V163" s="73"/>
+      <c r="W163" s="73"/>
+      <c r="X163" s="73"/>
+      <c r="Y163" s="73"/>
+      <c r="Z163" s="73"/>
+      <c r="AA163" s="73"/>
+      <c r="AB163" s="73"/>
+      <c r="AC163" s="73"/>
+      <c r="AD163" s="73"/>
+      <c r="AE163" s="73"/>
+      <c r="AF163" s="73"/>
+      <c r="AG163" s="73"/>
+      <c r="AH163" s="73"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="68" t="s">
+      <c r="A164" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="68" t="s">
+      <c r="B164" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="68" t="s">
+      <c r="C164" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="68"/>
-      <c r="I164" s="68"/>
-      <c r="J164" s="68"/>
-      <c r="K164" s="68"/>
-      <c r="L164" s="68" t="s">
+      <c r="D164" s="70"/>
+      <c r="E164" s="70"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="70"/>
+      <c r="H164" s="70"/>
+      <c r="I164" s="70"/>
+      <c r="J164" s="70"/>
+      <c r="K164" s="70"/>
+      <c r="L164" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M164" s="68"/>
-      <c r="N164" s="68"/>
-      <c r="O164" s="68"/>
-      <c r="P164" s="68"/>
-      <c r="Q164" s="68"/>
-      <c r="R164" s="68"/>
-      <c r="S164" s="68"/>
-      <c r="T164" s="68"/>
-      <c r="U164" s="68" t="s">
+      <c r="M164" s="70"/>
+      <c r="N164" s="70"/>
+      <c r="O164" s="70"/>
+      <c r="P164" s="70"/>
+      <c r="Q164" s="70"/>
+      <c r="R164" s="70"/>
+      <c r="S164" s="70"/>
+      <c r="T164" s="70"/>
+      <c r="U164" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V164" s="68"/>
-      <c r="W164" s="68"/>
-      <c r="X164" s="68"/>
-      <c r="Y164" s="68"/>
-      <c r="Z164" s="68"/>
-      <c r="AA164" s="68"/>
-      <c r="AB164" s="68"/>
-      <c r="AC164" s="68"/>
-      <c r="AD164" s="68" t="s">
+      <c r="V164" s="70"/>
+      <c r="W164" s="70"/>
+      <c r="X164" s="70"/>
+      <c r="Y164" s="70"/>
+      <c r="Z164" s="70"/>
+      <c r="AA164" s="70"/>
+      <c r="AB164" s="70"/>
+      <c r="AC164" s="70"/>
+      <c r="AD164" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE164" s="68"/>
-      <c r="AF164" s="68"/>
-      <c r="AG164" s="68"/>
-      <c r="AH164" s="69" t="s">
+      <c r="AE164" s="70"/>
+      <c r="AF164" s="70"/>
+      <c r="AG164" s="70"/>
+      <c r="AH164" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
-      <c r="B165" s="68"/>
+      <c r="A165" s="70"/>
+      <c r="B165" s="70"/>
       <c r="C165" s="3">
         <v>1</v>
       </c>
@@ -44659,7 +44680,7 @@
       <c r="AG165" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH165" s="68"/>
+      <c r="AH165" s="70"/>
     </row>
     <row r="166" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -46382,172 +46403,172 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="65" t="s">
+      <c r="A209" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="66"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="66"/>
-      <c r="E209" s="66"/>
-      <c r="F209" s="66"/>
-      <c r="G209" s="66"/>
-      <c r="H209" s="66"/>
-      <c r="I209" s="66"/>
-      <c r="J209" s="66"/>
-      <c r="K209" s="66"/>
-      <c r="L209" s="66"/>
-      <c r="M209" s="66"/>
-      <c r="N209" s="66"/>
-      <c r="O209" s="66"/>
-      <c r="P209" s="66"/>
-      <c r="Q209" s="66"/>
-      <c r="R209" s="66"/>
-      <c r="S209" s="66"/>
-      <c r="T209" s="66"/>
-      <c r="U209" s="66"/>
-      <c r="V209" s="66"/>
-      <c r="W209" s="66"/>
-      <c r="X209" s="66"/>
-      <c r="Y209" s="66"/>
-      <c r="Z209" s="66"/>
-      <c r="AA209" s="66"/>
-      <c r="AB209" s="66"/>
-      <c r="AC209" s="66"/>
-      <c r="AD209" s="66"/>
-      <c r="AE209" s="66"/>
-      <c r="AF209" s="66"/>
-      <c r="AG209" s="66"/>
-      <c r="AH209" s="66"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="68"/>
+      <c r="I209" s="68"/>
+      <c r="J209" s="68"/>
+      <c r="K209" s="68"/>
+      <c r="L209" s="68"/>
+      <c r="M209" s="68"/>
+      <c r="N209" s="68"/>
+      <c r="O209" s="68"/>
+      <c r="P209" s="68"/>
+      <c r="Q209" s="68"/>
+      <c r="R209" s="68"/>
+      <c r="S209" s="68"/>
+      <c r="T209" s="68"/>
+      <c r="U209" s="68"/>
+      <c r="V209" s="68"/>
+      <c r="W209" s="68"/>
+      <c r="X209" s="68"/>
+      <c r="Y209" s="68"/>
+      <c r="Z209" s="68"/>
+      <c r="AA209" s="68"/>
+      <c r="AB209" s="68"/>
+      <c r="AC209" s="68"/>
+      <c r="AD209" s="68"/>
+      <c r="AE209" s="68"/>
+      <c r="AF209" s="68"/>
+      <c r="AG209" s="68"/>
+      <c r="AH209" s="68"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="70" t="s">
+      <c r="A211" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="70"/>
-      <c r="C211" s="70"/>
-      <c r="D211" s="70"/>
-      <c r="E211" s="70"/>
-      <c r="F211" s="70"/>
-      <c r="G211" s="70"/>
-      <c r="H211" s="70"/>
-      <c r="I211" s="70"/>
-      <c r="J211" s="70"/>
-      <c r="K211" s="70"/>
-      <c r="L211" s="70"/>
-      <c r="M211" s="70"/>
-      <c r="N211" s="70"/>
-      <c r="O211" s="70"/>
-      <c r="P211" s="70"/>
-      <c r="Q211" s="70"/>
-      <c r="R211" s="70"/>
-      <c r="S211" s="70"/>
-      <c r="T211" s="70"/>
-      <c r="U211" s="70"/>
-      <c r="V211" s="70"/>
-      <c r="W211" s="70"/>
-      <c r="X211" s="70"/>
-      <c r="Y211" s="70"/>
-      <c r="Z211" s="70"/>
-      <c r="AA211" s="70"/>
-      <c r="AB211" s="70"/>
-      <c r="AC211" s="70"/>
-      <c r="AD211" s="70"/>
-      <c r="AE211" s="70"/>
-      <c r="AF211" s="70"/>
-      <c r="AG211" s="70"/>
-      <c r="AH211" s="70"/>
+      <c r="B211" s="72"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="72"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="72"/>
+      <c r="N211" s="72"/>
+      <c r="O211" s="72"/>
+      <c r="P211" s="72"/>
+      <c r="Q211" s="72"/>
+      <c r="R211" s="72"/>
+      <c r="S211" s="72"/>
+      <c r="T211" s="72"/>
+      <c r="U211" s="72"/>
+      <c r="V211" s="72"/>
+      <c r="W211" s="72"/>
+      <c r="X211" s="72"/>
+      <c r="Y211" s="72"/>
+      <c r="Z211" s="72"/>
+      <c r="AA211" s="72"/>
+      <c r="AB211" s="72"/>
+      <c r="AC211" s="72"/>
+      <c r="AD211" s="72"/>
+      <c r="AE211" s="72"/>
+      <c r="AF211" s="72"/>
+      <c r="AG211" s="72"/>
+      <c r="AH211" s="72"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="71" t="s">
+      <c r="A212" s="73" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="71"/>
-      <c r="C212" s="71"/>
-      <c r="D212" s="71"/>
-      <c r="E212" s="71"/>
-      <c r="F212" s="71"/>
-      <c r="G212" s="71"/>
-      <c r="H212" s="71"/>
-      <c r="I212" s="71"/>
-      <c r="J212" s="71"/>
-      <c r="K212" s="71"/>
-      <c r="L212" s="71"/>
-      <c r="M212" s="71"/>
-      <c r="N212" s="71"/>
-      <c r="O212" s="71"/>
-      <c r="P212" s="71"/>
-      <c r="Q212" s="71"/>
-      <c r="R212" s="71"/>
-      <c r="S212" s="71"/>
-      <c r="T212" s="71"/>
-      <c r="U212" s="71"/>
-      <c r="V212" s="71"/>
-      <c r="W212" s="71"/>
-      <c r="X212" s="71"/>
-      <c r="Y212" s="71"/>
-      <c r="Z212" s="71"/>
-      <c r="AA212" s="71"/>
-      <c r="AB212" s="71"/>
-      <c r="AC212" s="71"/>
-      <c r="AD212" s="71"/>
-      <c r="AE212" s="71"/>
-      <c r="AF212" s="71"/>
-      <c r="AG212" s="71"/>
-      <c r="AH212" s="71"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="73"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="73"/>
+      <c r="G212" s="73"/>
+      <c r="H212" s="73"/>
+      <c r="I212" s="73"/>
+      <c r="J212" s="73"/>
+      <c r="K212" s="73"/>
+      <c r="L212" s="73"/>
+      <c r="M212" s="73"/>
+      <c r="N212" s="73"/>
+      <c r="O212" s="73"/>
+      <c r="P212" s="73"/>
+      <c r="Q212" s="73"/>
+      <c r="R212" s="73"/>
+      <c r="S212" s="73"/>
+      <c r="T212" s="73"/>
+      <c r="U212" s="73"/>
+      <c r="V212" s="73"/>
+      <c r="W212" s="73"/>
+      <c r="X212" s="73"/>
+      <c r="Y212" s="73"/>
+      <c r="Z212" s="73"/>
+      <c r="AA212" s="73"/>
+      <c r="AB212" s="73"/>
+      <c r="AC212" s="73"/>
+      <c r="AD212" s="73"/>
+      <c r="AE212" s="73"/>
+      <c r="AF212" s="73"/>
+      <c r="AG212" s="73"/>
+      <c r="AH212" s="73"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="68" t="s">
+      <c r="B213" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="68" t="s">
+      <c r="C213" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="68"/>
-      <c r="E213" s="68"/>
-      <c r="F213" s="68"/>
-      <c r="G213" s="68"/>
-      <c r="H213" s="68"/>
-      <c r="I213" s="68"/>
-      <c r="J213" s="68"/>
-      <c r="K213" s="68"/>
-      <c r="L213" s="68" t="s">
+      <c r="D213" s="70"/>
+      <c r="E213" s="70"/>
+      <c r="F213" s="70"/>
+      <c r="G213" s="70"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="70"/>
+      <c r="J213" s="70"/>
+      <c r="K213" s="70"/>
+      <c r="L213" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M213" s="68"/>
-      <c r="N213" s="68"/>
-      <c r="O213" s="68"/>
-      <c r="P213" s="68"/>
-      <c r="Q213" s="68"/>
-      <c r="R213" s="68"/>
-      <c r="S213" s="68"/>
-      <c r="T213" s="68"/>
-      <c r="U213" s="68" t="s">
+      <c r="M213" s="70"/>
+      <c r="N213" s="70"/>
+      <c r="O213" s="70"/>
+      <c r="P213" s="70"/>
+      <c r="Q213" s="70"/>
+      <c r="R213" s="70"/>
+      <c r="S213" s="70"/>
+      <c r="T213" s="70"/>
+      <c r="U213" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="V213" s="68"/>
-      <c r="W213" s="68"/>
-      <c r="X213" s="68"/>
-      <c r="Y213" s="68"/>
-      <c r="Z213" s="68"/>
-      <c r="AA213" s="68"/>
-      <c r="AB213" s="68"/>
-      <c r="AC213" s="68"/>
-      <c r="AD213" s="68" t="s">
+      <c r="V213" s="70"/>
+      <c r="W213" s="70"/>
+      <c r="X213" s="70"/>
+      <c r="Y213" s="70"/>
+      <c r="Z213" s="70"/>
+      <c r="AA213" s="70"/>
+      <c r="AB213" s="70"/>
+      <c r="AC213" s="70"/>
+      <c r="AD213" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AE213" s="68"/>
-      <c r="AF213" s="68"/>
-      <c r="AG213" s="68"/>
-      <c r="AH213" s="69" t="s">
+      <c r="AE213" s="70"/>
+      <c r="AF213" s="70"/>
+      <c r="AG213" s="70"/>
+      <c r="AH213" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="68"/>
-      <c r="B214" s="68"/>
+      <c r="A214" s="70"/>
+      <c r="B214" s="70"/>
       <c r="C214" s="3">
         <v>1</v>
       </c>
@@ -46641,7 +46662,7 @@
       <c r="AG214" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH214" s="68"/>
+      <c r="AH214" s="70"/>
     </row>
     <row r="215" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -48444,42 +48465,42 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="65" t="s">
+      <c r="A260" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="66"/>
-      <c r="C260" s="66"/>
-      <c r="D260" s="66"/>
-      <c r="E260" s="66"/>
-      <c r="F260" s="66"/>
-      <c r="G260" s="66"/>
-      <c r="H260" s="66"/>
-      <c r="I260" s="66"/>
-      <c r="J260" s="66"/>
-      <c r="K260" s="66"/>
-      <c r="L260" s="66"/>
-      <c r="M260" s="66"/>
-      <c r="N260" s="66"/>
-      <c r="O260" s="66"/>
-      <c r="P260" s="66"/>
-      <c r="Q260" s="66"/>
-      <c r="R260" s="66"/>
-      <c r="S260" s="66"/>
-      <c r="T260" s="66"/>
-      <c r="U260" s="66"/>
-      <c r="V260" s="66"/>
-      <c r="W260" s="66"/>
-      <c r="X260" s="66"/>
-      <c r="Y260" s="66"/>
-      <c r="Z260" s="66"/>
-      <c r="AA260" s="66"/>
-      <c r="AB260" s="66"/>
-      <c r="AC260" s="66"/>
-      <c r="AD260" s="66"/>
-      <c r="AE260" s="66"/>
-      <c r="AF260" s="66"/>
-      <c r="AG260" s="66"/>
-      <c r="AH260" s="66"/>
+      <c r="B260" s="68"/>
+      <c r="C260" s="68"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="68"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="I260" s="68"/>
+      <c r="J260" s="68"/>
+      <c r="K260" s="68"/>
+      <c r="L260" s="68"/>
+      <c r="M260" s="68"/>
+      <c r="N260" s="68"/>
+      <c r="O260" s="68"/>
+      <c r="P260" s="68"/>
+      <c r="Q260" s="68"/>
+      <c r="R260" s="68"/>
+      <c r="S260" s="68"/>
+      <c r="T260" s="68"/>
+      <c r="U260" s="68"/>
+      <c r="V260" s="68"/>
+      <c r="W260" s="68"/>
+      <c r="X260" s="68"/>
+      <c r="Y260" s="68"/>
+      <c r="Z260" s="68"/>
+      <c r="AA260" s="68"/>
+      <c r="AB260" s="68"/>
+      <c r="AC260" s="68"/>
+      <c r="AD260" s="68"/>
+      <c r="AE260" s="68"/>
+      <c r="AF260" s="68"/>
+      <c r="AG260" s="68"/>
+      <c r="AH260" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="70">

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CFA783-E92A-45BF-A03E-278A148E4917}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CA6D02-6B1E-462B-972C-ACAD14D4EE92}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1731">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6935,6 +6935,14 @@
   </si>
   <si>
     <t>迟到</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘2018/11/6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>’2018/11/27</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7340,6 +7348,18 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7350,19 +7370,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8296,80 +8304,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -8417,7 +8425,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9720,118 +9728,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="69"/>
+      <c r="AD37" s="69"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
@@ -9879,7 +9887,7 @@
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
-      <c r="AH38" s="71" t="s">
+      <c r="AH38" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12342,119 +12350,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="69"/>
-      <c r="S99" s="69"/>
-      <c r="T99" s="69"/>
-      <c r="U99" s="69"/>
-      <c r="V99" s="69"/>
-      <c r="W99" s="69"/>
-      <c r="X99" s="69"/>
-      <c r="Y99" s="69"/>
-      <c r="Z99" s="69"/>
-      <c r="AA99" s="69"/>
-      <c r="AB99" s="69"/>
-      <c r="AC99" s="69"/>
-      <c r="AD99" s="69"/>
-      <c r="AE99" s="69"/>
-      <c r="AF99" s="69"/>
-      <c r="AG99" s="69"/>
-      <c r="AH99" s="69"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="73"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="73"/>
+      <c r="W99" s="73"/>
+      <c r="X99" s="73"/>
+      <c r="Y99" s="73"/>
+      <c r="Z99" s="73"/>
+      <c r="AA99" s="73"/>
+      <c r="AB99" s="73"/>
+      <c r="AC99" s="73"/>
+      <c r="AD99" s="73"/>
+      <c r="AE99" s="73"/>
+      <c r="AF99" s="73"/>
+      <c r="AG99" s="73"/>
+      <c r="AH99" s="73"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
-      <c r="V101" s="72"/>
-      <c r="W101" s="72"/>
-      <c r="X101" s="72"/>
-      <c r="Y101" s="72"/>
-      <c r="Z101" s="72"/>
-      <c r="AA101" s="72"/>
-      <c r="AB101" s="72"/>
-      <c r="AC101" s="72"/>
-      <c r="AD101" s="72"/>
-      <c r="AE101" s="72"/>
-      <c r="AF101" s="72"/>
-      <c r="AG101" s="72"/>
-      <c r="AH101" s="72"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="67"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="67"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="67"/>
+      <c r="V101" s="67"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+      <c r="Y101" s="67"/>
+      <c r="Z101" s="67"/>
+      <c r="AA101" s="67"/>
+      <c r="AB101" s="67"/>
+      <c r="AC101" s="67"/>
+      <c r="AD101" s="67"/>
+      <c r="AE101" s="67"/>
+      <c r="AF101" s="67"/>
+      <c r="AG101" s="67"/>
+      <c r="AH101" s="67"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="73"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
-      <c r="AA102" s="74"/>
-      <c r="AB102" s="74"/>
-      <c r="AC102" s="74"/>
-      <c r="AD102" s="74"/>
-      <c r="AE102" s="74"/>
-      <c r="AF102" s="74"/>
-      <c r="AG102" s="74"/>
-      <c r="AH102" s="74"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="69"/>
+      <c r="Y102" s="69"/>
+      <c r="Z102" s="69"/>
+      <c r="AA102" s="69"/>
+      <c r="AB102" s="69"/>
+      <c r="AC102" s="69"/>
+      <c r="AD102" s="69"/>
+      <c r="AE102" s="69"/>
+      <c r="AF102" s="69"/>
+      <c r="AG102" s="69"/>
+      <c r="AH102" s="69"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
@@ -12502,7 +12510,7 @@
       <c r="AE103" s="70"/>
       <c r="AF103" s="70"/>
       <c r="AG103" s="70"/>
-      <c r="AH103" s="71" t="s">
+      <c r="AH103" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15125,118 +15133,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="67" t="s">
+      <c r="A168" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="68"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="69"/>
-      <c r="E168" s="69"/>
-      <c r="F168" s="69"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="69"/>
-      <c r="J168" s="69"/>
-      <c r="K168" s="69"/>
-      <c r="L168" s="69"/>
-      <c r="M168" s="69"/>
-      <c r="N168" s="69"/>
-      <c r="O168" s="69"/>
-      <c r="P168" s="69"/>
-      <c r="Q168" s="69"/>
-      <c r="R168" s="69"/>
-      <c r="S168" s="69"/>
-      <c r="T168" s="69"/>
-      <c r="U168" s="69"/>
-      <c r="V168" s="69"/>
-      <c r="W168" s="69"/>
-      <c r="X168" s="69"/>
-      <c r="Y168" s="69"/>
-      <c r="Z168" s="69"/>
-      <c r="AA168" s="69"/>
-      <c r="AB168" s="69"/>
-      <c r="AC168" s="69"/>
-      <c r="AD168" s="69"/>
-      <c r="AE168" s="69"/>
-      <c r="AF168" s="69"/>
-      <c r="AG168" s="69"/>
-      <c r="AH168" s="69"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="73"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="73"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="73"/>
+      <c r="K168" s="73"/>
+      <c r="L168" s="73"/>
+      <c r="M168" s="73"/>
+      <c r="N168" s="73"/>
+      <c r="O168" s="73"/>
+      <c r="P168" s="73"/>
+      <c r="Q168" s="73"/>
+      <c r="R168" s="73"/>
+      <c r="S168" s="73"/>
+      <c r="T168" s="73"/>
+      <c r="U168" s="73"/>
+      <c r="V168" s="73"/>
+      <c r="W168" s="73"/>
+      <c r="X168" s="73"/>
+      <c r="Y168" s="73"/>
+      <c r="Z168" s="73"/>
+      <c r="AA168" s="73"/>
+      <c r="AB168" s="73"/>
+      <c r="AC168" s="73"/>
+      <c r="AD168" s="73"/>
+      <c r="AE168" s="73"/>
+      <c r="AF168" s="73"/>
+      <c r="AG168" s="73"/>
+      <c r="AH168" s="73"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="72" t="s">
+      <c r="A169" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
-      <c r="K169" s="72"/>
-      <c r="L169" s="72"/>
-      <c r="M169" s="72"/>
-      <c r="N169" s="72"/>
-      <c r="O169" s="72"/>
-      <c r="P169" s="72"/>
-      <c r="Q169" s="72"/>
-      <c r="R169" s="72"/>
-      <c r="S169" s="72"/>
-      <c r="T169" s="72"/>
-      <c r="U169" s="72"/>
-      <c r="V169" s="72"/>
-      <c r="W169" s="72"/>
-      <c r="X169" s="72"/>
-      <c r="Y169" s="72"/>
-      <c r="Z169" s="72"/>
-      <c r="AA169" s="72"/>
-      <c r="AB169" s="72"/>
-      <c r="AC169" s="72"/>
-      <c r="AD169" s="72"/>
-      <c r="AE169" s="72"/>
-      <c r="AF169" s="72"/>
-      <c r="AG169" s="72"/>
-      <c r="AH169" s="72"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="67"/>
+      <c r="L169" s="67"/>
+      <c r="M169" s="67"/>
+      <c r="N169" s="67"/>
+      <c r="O169" s="67"/>
+      <c r="P169" s="67"/>
+      <c r="Q169" s="67"/>
+      <c r="R169" s="67"/>
+      <c r="S169" s="67"/>
+      <c r="T169" s="67"/>
+      <c r="U169" s="67"/>
+      <c r="V169" s="67"/>
+      <c r="W169" s="67"/>
+      <c r="X169" s="67"/>
+      <c r="Y169" s="67"/>
+      <c r="Z169" s="67"/>
+      <c r="AA169" s="67"/>
+      <c r="AB169" s="67"/>
+      <c r="AC169" s="67"/>
+      <c r="AD169" s="67"/>
+      <c r="AE169" s="67"/>
+      <c r="AF169" s="67"/>
+      <c r="AG169" s="67"/>
+      <c r="AH169" s="67"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="73" t="s">
+      <c r="A170" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="73"/>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="74"/>
-      <c r="K170" s="74"/>
-      <c r="L170" s="74"/>
-      <c r="M170" s="74"/>
-      <c r="N170" s="74"/>
-      <c r="O170" s="74"/>
-      <c r="P170" s="74"/>
-      <c r="Q170" s="74"/>
-      <c r="R170" s="74"/>
-      <c r="S170" s="74"/>
-      <c r="T170" s="74"/>
-      <c r="U170" s="74"/>
-      <c r="V170" s="74"/>
-      <c r="W170" s="74"/>
-      <c r="X170" s="74"/>
-      <c r="Y170" s="74"/>
-      <c r="Z170" s="74"/>
-      <c r="AA170" s="74"/>
-      <c r="AB170" s="74"/>
-      <c r="AC170" s="74"/>
-      <c r="AD170" s="74"/>
-      <c r="AE170" s="74"/>
-      <c r="AF170" s="74"/>
-      <c r="AG170" s="74"/>
-      <c r="AH170" s="74"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="69"/>
+      <c r="G170" s="69"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="69"/>
+      <c r="K170" s="69"/>
+      <c r="L170" s="69"/>
+      <c r="M170" s="69"/>
+      <c r="N170" s="69"/>
+      <c r="O170" s="69"/>
+      <c r="P170" s="69"/>
+      <c r="Q170" s="69"/>
+      <c r="R170" s="69"/>
+      <c r="S170" s="69"/>
+      <c r="T170" s="69"/>
+      <c r="U170" s="69"/>
+      <c r="V170" s="69"/>
+      <c r="W170" s="69"/>
+      <c r="X170" s="69"/>
+      <c r="Y170" s="69"/>
+      <c r="Z170" s="69"/>
+      <c r="AA170" s="69"/>
+      <c r="AB170" s="69"/>
+      <c r="AC170" s="69"/>
+      <c r="AD170" s="69"/>
+      <c r="AE170" s="69"/>
+      <c r="AF170" s="69"/>
+      <c r="AG170" s="69"/>
+      <c r="AH170" s="69"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="70" t="s">
@@ -15284,7 +15292,7 @@
       <c r="AE171" s="70"/>
       <c r="AF171" s="70"/>
       <c r="AG171" s="70"/>
-      <c r="AH171" s="71" t="s">
+      <c r="AH171" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16867,42 +16875,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="67" t="s">
+      <c r="A210" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="68"/>
-      <c r="C210" s="69"/>
-      <c r="D210" s="69"/>
-      <c r="E210" s="69"/>
-      <c r="F210" s="69"/>
-      <c r="G210" s="69"/>
-      <c r="H210" s="69"/>
-      <c r="I210" s="69"/>
-      <c r="J210" s="69"/>
-      <c r="K210" s="69"/>
-      <c r="L210" s="69"/>
-      <c r="M210" s="69"/>
-      <c r="N210" s="69"/>
-      <c r="O210" s="69"/>
-      <c r="P210" s="69"/>
-      <c r="Q210" s="69"/>
-      <c r="R210" s="69"/>
-      <c r="S210" s="69"/>
-      <c r="T210" s="69"/>
-      <c r="U210" s="69"/>
-      <c r="V210" s="69"/>
-      <c r="W210" s="69"/>
-      <c r="X210" s="69"/>
-      <c r="Y210" s="69"/>
-      <c r="Z210" s="69"/>
-      <c r="AA210" s="69"/>
-      <c r="AB210" s="69"/>
-      <c r="AC210" s="69"/>
-      <c r="AD210" s="69"/>
-      <c r="AE210" s="69"/>
-      <c r="AF210" s="69"/>
-      <c r="AG210" s="69"/>
-      <c r="AH210" s="69"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="73"/>
+      <c r="G210" s="73"/>
+      <c r="H210" s="73"/>
+      <c r="I210" s="73"/>
+      <c r="J210" s="73"/>
+      <c r="K210" s="73"/>
+      <c r="L210" s="73"/>
+      <c r="M210" s="73"/>
+      <c r="N210" s="73"/>
+      <c r="O210" s="73"/>
+      <c r="P210" s="73"/>
+      <c r="Q210" s="73"/>
+      <c r="R210" s="73"/>
+      <c r="S210" s="73"/>
+      <c r="T210" s="73"/>
+      <c r="U210" s="73"/>
+      <c r="V210" s="73"/>
+      <c r="W210" s="73"/>
+      <c r="X210" s="73"/>
+      <c r="Y210" s="73"/>
+      <c r="Z210" s="73"/>
+      <c r="AA210" s="73"/>
+      <c r="AB210" s="73"/>
+      <c r="AC210" s="73"/>
+      <c r="AD210" s="73"/>
+      <c r="AE210" s="73"/>
+      <c r="AF210" s="73"/>
+      <c r="AG210" s="73"/>
+      <c r="AH210" s="73"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16941,80 +16949,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="72" t="s">
+      <c r="A212" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="72"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
-      <c r="H212" s="72"/>
-      <c r="I212" s="72"/>
-      <c r="J212" s="72"/>
-      <c r="K212" s="72"/>
-      <c r="L212" s="72"/>
-      <c r="M212" s="72"/>
-      <c r="N212" s="72"/>
-      <c r="O212" s="72"/>
-      <c r="P212" s="72"/>
-      <c r="Q212" s="72"/>
-      <c r="R212" s="72"/>
-      <c r="S212" s="72"/>
-      <c r="T212" s="72"/>
-      <c r="U212" s="72"/>
-      <c r="V212" s="72"/>
-      <c r="W212" s="72"/>
-      <c r="X212" s="72"/>
-      <c r="Y212" s="72"/>
-      <c r="Z212" s="72"/>
-      <c r="AA212" s="72"/>
-      <c r="AB212" s="72"/>
-      <c r="AC212" s="72"/>
-      <c r="AD212" s="72"/>
-      <c r="AE212" s="72"/>
-      <c r="AF212" s="72"/>
-      <c r="AG212" s="72"/>
-      <c r="AH212" s="72"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="67"/>
+      <c r="M212" s="67"/>
+      <c r="N212" s="67"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="67"/>
+      <c r="Q212" s="67"/>
+      <c r="R212" s="67"/>
+      <c r="S212" s="67"/>
+      <c r="T212" s="67"/>
+      <c r="U212" s="67"/>
+      <c r="V212" s="67"/>
+      <c r="W212" s="67"/>
+      <c r="X212" s="67"/>
+      <c r="Y212" s="67"/>
+      <c r="Z212" s="67"/>
+      <c r="AA212" s="67"/>
+      <c r="AB212" s="67"/>
+      <c r="AC212" s="67"/>
+      <c r="AD212" s="67"/>
+      <c r="AE212" s="67"/>
+      <c r="AF212" s="67"/>
+      <c r="AG212" s="67"/>
+      <c r="AH212" s="67"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73"/>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
-      <c r="F213" s="73"/>
-      <c r="G213" s="73"/>
-      <c r="H213" s="73"/>
-      <c r="I213" s="73"/>
-      <c r="J213" s="73"/>
-      <c r="K213" s="73"/>
-      <c r="L213" s="73"/>
-      <c r="M213" s="73"/>
-      <c r="N213" s="73"/>
-      <c r="O213" s="73"/>
-      <c r="P213" s="73"/>
-      <c r="Q213" s="73"/>
-      <c r="R213" s="73"/>
-      <c r="S213" s="73"/>
-      <c r="T213" s="73"/>
-      <c r="U213" s="73"/>
-      <c r="V213" s="73"/>
-      <c r="W213" s="73"/>
-      <c r="X213" s="73"/>
-      <c r="Y213" s="73"/>
-      <c r="Z213" s="73"/>
-      <c r="AA213" s="73"/>
-      <c r="AB213" s="73"/>
-      <c r="AC213" s="73"/>
-      <c r="AD213" s="73"/>
-      <c r="AE213" s="73"/>
-      <c r="AF213" s="73"/>
-      <c r="AG213" s="73"/>
-      <c r="AH213" s="73"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="68"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="68"/>
+      <c r="I213" s="68"/>
+      <c r="J213" s="68"/>
+      <c r="K213" s="68"/>
+      <c r="L213" s="68"/>
+      <c r="M213" s="68"/>
+      <c r="N213" s="68"/>
+      <c r="O213" s="68"/>
+      <c r="P213" s="68"/>
+      <c r="Q213" s="68"/>
+      <c r="R213" s="68"/>
+      <c r="S213" s="68"/>
+      <c r="T213" s="68"/>
+      <c r="U213" s="68"/>
+      <c r="V213" s="68"/>
+      <c r="W213" s="68"/>
+      <c r="X213" s="68"/>
+      <c r="Y213" s="68"/>
+      <c r="Z213" s="68"/>
+      <c r="AA213" s="68"/>
+      <c r="AB213" s="68"/>
+      <c r="AC213" s="68"/>
+      <c r="AD213" s="68"/>
+      <c r="AE213" s="68"/>
+      <c r="AF213" s="68"/>
+      <c r="AG213" s="68"/>
+      <c r="AH213" s="68"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="70" t="s">
@@ -17062,7 +17070,7 @@
       <c r="AE214" s="70"/>
       <c r="AF214" s="70"/>
       <c r="AG214" s="70"/>
-      <c r="AH214" s="71" t="s">
+      <c r="AH214" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19765,79 +19773,45 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="67" t="s">
+      <c r="A281" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="68"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
-      <c r="I281" s="69"/>
-      <c r="J281" s="69"/>
-      <c r="K281" s="69"/>
-      <c r="L281" s="69"/>
-      <c r="M281" s="69"/>
-      <c r="N281" s="69"/>
-      <c r="O281" s="69"/>
-      <c r="P281" s="69"/>
-      <c r="Q281" s="69"/>
-      <c r="R281" s="69"/>
-      <c r="S281" s="69"/>
-      <c r="T281" s="69"/>
-      <c r="U281" s="69"/>
-      <c r="V281" s="69"/>
-      <c r="W281" s="69"/>
-      <c r="X281" s="69"/>
-      <c r="Y281" s="69"/>
-      <c r="Z281" s="69"/>
-      <c r="AA281" s="69"/>
-      <c r="AB281" s="69"/>
-      <c r="AC281" s="69"/>
-      <c r="AD281" s="69"/>
-      <c r="AE281" s="69"/>
-      <c r="AF281" s="69"/>
-      <c r="AG281" s="69"/>
-      <c r="AH281" s="69"/>
+      <c r="B281" s="72"/>
+      <c r="C281" s="73"/>
+      <c r="D281" s="73"/>
+      <c r="E281" s="73"/>
+      <c r="F281" s="73"/>
+      <c r="G281" s="73"/>
+      <c r="H281" s="73"/>
+      <c r="I281" s="73"/>
+      <c r="J281" s="73"/>
+      <c r="K281" s="73"/>
+      <c r="L281" s="73"/>
+      <c r="M281" s="73"/>
+      <c r="N281" s="73"/>
+      <c r="O281" s="73"/>
+      <c r="P281" s="73"/>
+      <c r="Q281" s="73"/>
+      <c r="R281" s="73"/>
+      <c r="S281" s="73"/>
+      <c r="T281" s="73"/>
+      <c r="U281" s="73"/>
+      <c r="V281" s="73"/>
+      <c r="W281" s="73"/>
+      <c r="X281" s="73"/>
+      <c r="Y281" s="73"/>
+      <c r="Z281" s="73"/>
+      <c r="AA281" s="73"/>
+      <c r="AB281" s="73"/>
+      <c r="AC281" s="73"/>
+      <c r="AD281" s="73"/>
+      <c r="AE281" s="73"/>
+      <c r="AF281" s="73"/>
+      <c r="AG281" s="73"/>
+      <c r="AH281" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19854,6 +19828,40 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19865,8 +19873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G317" sqref="G317"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19887,80 +19895,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -20008,7 +20016,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22765,42 +22773,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="68"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="68"/>
-      <c r="T71" s="68"/>
-      <c r="U71" s="68"/>
-      <c r="V71" s="68"/>
-      <c r="W71" s="68"/>
-      <c r="X71" s="68"/>
-      <c r="Y71" s="68"/>
-      <c r="Z71" s="68"/>
-      <c r="AA71" s="68"/>
-      <c r="AB71" s="68"/>
-      <c r="AC71" s="68"/>
-      <c r="AD71" s="68"/>
-      <c r="AE71" s="68"/>
-      <c r="AF71" s="68"/>
-      <c r="AG71" s="68"/>
-      <c r="AH71" s="68"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="72"/>
+      <c r="Y71" s="72"/>
+      <c r="Z71" s="72"/>
+      <c r="AA71" s="72"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="72"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="72"/>
+      <c r="AF71" s="72"/>
+      <c r="AG71" s="72"/>
+      <c r="AH71" s="72"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22839,80 +22847,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="72"/>
-      <c r="W73" s="72"/>
-      <c r="X73" s="72"/>
-      <c r="Y73" s="72"/>
-      <c r="Z73" s="72"/>
-      <c r="AA73" s="72"/>
-      <c r="AB73" s="72"/>
-      <c r="AC73" s="72"/>
-      <c r="AD73" s="72"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
-      <c r="AH73" s="72"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="67"/>
+      <c r="AE73" s="67"/>
+      <c r="AF73" s="67"/>
+      <c r="AG73" s="67"/>
+      <c r="AH73" s="67"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="68" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="73"/>
-      <c r="Q74" s="73"/>
-      <c r="R74" s="73"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-      <c r="W74" s="73"/>
-      <c r="X74" s="73"/>
-      <c r="Y74" s="73"/>
-      <c r="Z74" s="73"/>
-      <c r="AA74" s="73"/>
-      <c r="AB74" s="73"/>
-      <c r="AC74" s="73"/>
-      <c r="AD74" s="73"/>
-      <c r="AE74" s="73"/>
-      <c r="AF74" s="73"/>
-      <c r="AG74" s="73"/>
-      <c r="AH74" s="73"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
+      <c r="X74" s="68"/>
+      <c r="Y74" s="68"/>
+      <c r="Z74" s="68"/>
+      <c r="AA74" s="68"/>
+      <c r="AB74" s="68"/>
+      <c r="AC74" s="68"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="68"/>
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="68"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
@@ -22960,7 +22968,7 @@
       <c r="AE75" s="70"/>
       <c r="AF75" s="70"/>
       <c r="AG75" s="70"/>
-      <c r="AH75" s="71" t="s">
+      <c r="AH75" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25619,118 +25627,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="68"/>
-      <c r="I141" s="68"/>
-      <c r="J141" s="68"/>
-      <c r="K141" s="68"/>
-      <c r="L141" s="68"/>
-      <c r="M141" s="68"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="68"/>
-      <c r="P141" s="68"/>
-      <c r="Q141" s="68"/>
-      <c r="R141" s="68"/>
-      <c r="S141" s="68"/>
-      <c r="T141" s="68"/>
-      <c r="U141" s="68"/>
-      <c r="V141" s="68"/>
-      <c r="W141" s="68"/>
-      <c r="X141" s="68"/>
-      <c r="Y141" s="68"/>
-      <c r="Z141" s="68"/>
-      <c r="AA141" s="68"/>
-      <c r="AB141" s="68"/>
-      <c r="AC141" s="68"/>
-      <c r="AD141" s="68"/>
-      <c r="AE141" s="68"/>
-      <c r="AF141" s="68"/>
-      <c r="AG141" s="68"/>
-      <c r="AH141" s="68"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="72"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="72"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
+      <c r="T141" s="72"/>
+      <c r="U141" s="72"/>
+      <c r="V141" s="72"/>
+      <c r="W141" s="72"/>
+      <c r="X141" s="72"/>
+      <c r="Y141" s="72"/>
+      <c r="Z141" s="72"/>
+      <c r="AA141" s="72"/>
+      <c r="AB141" s="72"/>
+      <c r="AC141" s="72"/>
+      <c r="AD141" s="72"/>
+      <c r="AE141" s="72"/>
+      <c r="AF141" s="72"/>
+      <c r="AG141" s="72"/>
+      <c r="AH141" s="72"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="72" t="s">
+      <c r="A142" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="72"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="72"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="72"/>
-      <c r="K142" s="72"/>
-      <c r="L142" s="72"/>
-      <c r="M142" s="72"/>
-      <c r="N142" s="72"/>
-      <c r="O142" s="72"/>
-      <c r="P142" s="72"/>
-      <c r="Q142" s="72"/>
-      <c r="R142" s="72"/>
-      <c r="S142" s="72"/>
-      <c r="T142" s="72"/>
-      <c r="U142" s="72"/>
-      <c r="V142" s="72"/>
-      <c r="W142" s="72"/>
-      <c r="X142" s="72"/>
-      <c r="Y142" s="72"/>
-      <c r="Z142" s="72"/>
-      <c r="AA142" s="72"/>
-      <c r="AB142" s="72"/>
-      <c r="AC142" s="72"/>
-      <c r="AD142" s="72"/>
-      <c r="AE142" s="72"/>
-      <c r="AF142" s="72"/>
-      <c r="AG142" s="72"/>
-      <c r="AH142" s="72"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
+      <c r="L142" s="67"/>
+      <c r="M142" s="67"/>
+      <c r="N142" s="67"/>
+      <c r="O142" s="67"/>
+      <c r="P142" s="67"/>
+      <c r="Q142" s="67"/>
+      <c r="R142" s="67"/>
+      <c r="S142" s="67"/>
+      <c r="T142" s="67"/>
+      <c r="U142" s="67"/>
+      <c r="V142" s="67"/>
+      <c r="W142" s="67"/>
+      <c r="X142" s="67"/>
+      <c r="Y142" s="67"/>
+      <c r="Z142" s="67"/>
+      <c r="AA142" s="67"/>
+      <c r="AB142" s="67"/>
+      <c r="AC142" s="67"/>
+      <c r="AD142" s="67"/>
+      <c r="AE142" s="67"/>
+      <c r="AF142" s="67"/>
+      <c r="AG142" s="67"/>
+      <c r="AH142" s="67"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="73" t="s">
+      <c r="A143" s="68" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="73"/>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
-      <c r="K143" s="73"/>
-      <c r="L143" s="73"/>
-      <c r="M143" s="73"/>
-      <c r="N143" s="73"/>
-      <c r="O143" s="73"/>
-      <c r="P143" s="73"/>
-      <c r="Q143" s="73"/>
-      <c r="R143" s="73"/>
-      <c r="S143" s="73"/>
-      <c r="T143" s="73"/>
-      <c r="U143" s="73"/>
-      <c r="V143" s="73"/>
-      <c r="W143" s="73"/>
-      <c r="X143" s="73"/>
-      <c r="Y143" s="73"/>
-      <c r="Z143" s="73"/>
-      <c r="AA143" s="73"/>
-      <c r="AB143" s="73"/>
-      <c r="AC143" s="73"/>
-      <c r="AD143" s="73"/>
-      <c r="AE143" s="73"/>
-      <c r="AF143" s="73"/>
-      <c r="AG143" s="73"/>
-      <c r="AH143" s="73"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
+      <c r="J143" s="68"/>
+      <c r="K143" s="68"/>
+      <c r="L143" s="68"/>
+      <c r="M143" s="68"/>
+      <c r="N143" s="68"/>
+      <c r="O143" s="68"/>
+      <c r="P143" s="68"/>
+      <c r="Q143" s="68"/>
+      <c r="R143" s="68"/>
+      <c r="S143" s="68"/>
+      <c r="T143" s="68"/>
+      <c r="U143" s="68"/>
+      <c r="V143" s="68"/>
+      <c r="W143" s="68"/>
+      <c r="X143" s="68"/>
+      <c r="Y143" s="68"/>
+      <c r="Z143" s="68"/>
+      <c r="AA143" s="68"/>
+      <c r="AB143" s="68"/>
+      <c r="AC143" s="68"/>
+      <c r="AD143" s="68"/>
+      <c r="AE143" s="68"/>
+      <c r="AF143" s="68"/>
+      <c r="AG143" s="68"/>
+      <c r="AH143" s="68"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
@@ -25778,7 +25786,7 @@
       <c r="AE144" s="70"/>
       <c r="AF144" s="70"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="71" t="s">
+      <c r="AH144" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28241,118 +28249,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="67" t="s">
+      <c r="A205" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="68"/>
-      <c r="C205" s="68"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="68"/>
-      <c r="F205" s="68"/>
-      <c r="G205" s="68"/>
-      <c r="H205" s="68"/>
-      <c r="I205" s="68"/>
-      <c r="J205" s="68"/>
-      <c r="K205" s="68"/>
-      <c r="L205" s="68"/>
-      <c r="M205" s="68"/>
-      <c r="N205" s="68"/>
-      <c r="O205" s="68"/>
-      <c r="P205" s="68"/>
-      <c r="Q205" s="68"/>
-      <c r="R205" s="68"/>
-      <c r="S205" s="68"/>
-      <c r="T205" s="68"/>
-      <c r="U205" s="68"/>
-      <c r="V205" s="68"/>
-      <c r="W205" s="68"/>
-      <c r="X205" s="68"/>
-      <c r="Y205" s="68"/>
-      <c r="Z205" s="68"/>
-      <c r="AA205" s="68"/>
-      <c r="AB205" s="68"/>
-      <c r="AC205" s="68"/>
-      <c r="AD205" s="68"/>
-      <c r="AE205" s="68"/>
-      <c r="AF205" s="68"/>
-      <c r="AG205" s="68"/>
-      <c r="AH205" s="68"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="72"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
+      <c r="L205" s="72"/>
+      <c r="M205" s="72"/>
+      <c r="N205" s="72"/>
+      <c r="O205" s="72"/>
+      <c r="P205" s="72"/>
+      <c r="Q205" s="72"/>
+      <c r="R205" s="72"/>
+      <c r="S205" s="72"/>
+      <c r="T205" s="72"/>
+      <c r="U205" s="72"/>
+      <c r="V205" s="72"/>
+      <c r="W205" s="72"/>
+      <c r="X205" s="72"/>
+      <c r="Y205" s="72"/>
+      <c r="Z205" s="72"/>
+      <c r="AA205" s="72"/>
+      <c r="AB205" s="72"/>
+      <c r="AC205" s="72"/>
+      <c r="AD205" s="72"/>
+      <c r="AE205" s="72"/>
+      <c r="AF205" s="72"/>
+      <c r="AG205" s="72"/>
+      <c r="AH205" s="72"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="72" t="s">
+      <c r="A207" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="72"/>
-      <c r="C207" s="72"/>
-      <c r="D207" s="72"/>
-      <c r="E207" s="72"/>
-      <c r="F207" s="72"/>
-      <c r="G207" s="72"/>
-      <c r="H207" s="72"/>
-      <c r="I207" s="72"/>
-      <c r="J207" s="72"/>
-      <c r="K207" s="72"/>
-      <c r="L207" s="72"/>
-      <c r="M207" s="72"/>
-      <c r="N207" s="72"/>
-      <c r="O207" s="72"/>
-      <c r="P207" s="72"/>
-      <c r="Q207" s="72"/>
-      <c r="R207" s="72"/>
-      <c r="S207" s="72"/>
-      <c r="T207" s="72"/>
-      <c r="U207" s="72"/>
-      <c r="V207" s="72"/>
-      <c r="W207" s="72"/>
-      <c r="X207" s="72"/>
-      <c r="Y207" s="72"/>
-      <c r="Z207" s="72"/>
-      <c r="AA207" s="72"/>
-      <c r="AB207" s="72"/>
-      <c r="AC207" s="72"/>
-      <c r="AD207" s="72"/>
-      <c r="AE207" s="72"/>
-      <c r="AF207" s="72"/>
-      <c r="AG207" s="72"/>
-      <c r="AH207" s="72"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
+      <c r="L207" s="67"/>
+      <c r="M207" s="67"/>
+      <c r="N207" s="67"/>
+      <c r="O207" s="67"/>
+      <c r="P207" s="67"/>
+      <c r="Q207" s="67"/>
+      <c r="R207" s="67"/>
+      <c r="S207" s="67"/>
+      <c r="T207" s="67"/>
+      <c r="U207" s="67"/>
+      <c r="V207" s="67"/>
+      <c r="W207" s="67"/>
+      <c r="X207" s="67"/>
+      <c r="Y207" s="67"/>
+      <c r="Z207" s="67"/>
+      <c r="AA207" s="67"/>
+      <c r="AB207" s="67"/>
+      <c r="AC207" s="67"/>
+      <c r="AD207" s="67"/>
+      <c r="AE207" s="67"/>
+      <c r="AF207" s="67"/>
+      <c r="AG207" s="67"/>
+      <c r="AH207" s="67"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="73" t="s">
+      <c r="A208" s="68" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="73"/>
-      <c r="C208" s="73"/>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
-      <c r="F208" s="73"/>
-      <c r="G208" s="73"/>
-      <c r="H208" s="73"/>
-      <c r="I208" s="73"/>
-      <c r="J208" s="73"/>
-      <c r="K208" s="73"/>
-      <c r="L208" s="73"/>
-      <c r="M208" s="73"/>
-      <c r="N208" s="73"/>
-      <c r="O208" s="73"/>
-      <c r="P208" s="73"/>
-      <c r="Q208" s="73"/>
-      <c r="R208" s="73"/>
-      <c r="S208" s="73"/>
-      <c r="T208" s="73"/>
-      <c r="U208" s="73"/>
-      <c r="V208" s="73"/>
-      <c r="W208" s="73"/>
-      <c r="X208" s="73"/>
-      <c r="Y208" s="73"/>
-      <c r="Z208" s="73"/>
-      <c r="AA208" s="73"/>
-      <c r="AB208" s="73"/>
-      <c r="AC208" s="73"/>
-      <c r="AD208" s="73"/>
-      <c r="AE208" s="73"/>
-      <c r="AF208" s="73"/>
-      <c r="AG208" s="73"/>
-      <c r="AH208" s="73"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
+      <c r="I208" s="68"/>
+      <c r="J208" s="68"/>
+      <c r="K208" s="68"/>
+      <c r="L208" s="68"/>
+      <c r="M208" s="68"/>
+      <c r="N208" s="68"/>
+      <c r="O208" s="68"/>
+      <c r="P208" s="68"/>
+      <c r="Q208" s="68"/>
+      <c r="R208" s="68"/>
+      <c r="S208" s="68"/>
+      <c r="T208" s="68"/>
+      <c r="U208" s="68"/>
+      <c r="V208" s="68"/>
+      <c r="W208" s="68"/>
+      <c r="X208" s="68"/>
+      <c r="Y208" s="68"/>
+      <c r="Z208" s="68"/>
+      <c r="AA208" s="68"/>
+      <c r="AB208" s="68"/>
+      <c r="AC208" s="68"/>
+      <c r="AD208" s="68"/>
+      <c r="AE208" s="68"/>
+      <c r="AF208" s="68"/>
+      <c r="AG208" s="68"/>
+      <c r="AH208" s="68"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="70" t="s">
@@ -28400,21 +28408,21 @@
       <c r="AE209" s="70"/>
       <c r="AF209" s="70"/>
       <c r="AG209" s="70"/>
-      <c r="AH209" s="71" t="s">
+      <c r="AH209" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="70"/>
       <c r="B210" s="70"/>
-      <c r="C210" s="3">
-        <v>1</v>
+      <c r="C210" s="66" t="s">
+        <v>1729</v>
       </c>
       <c r="D210" s="59" t="s">
         <v>1718</v>
       </c>
-      <c r="E210" s="3">
-        <v>3</v>
+      <c r="E210" s="66" t="s">
+        <v>1730</v>
       </c>
       <c r="F210" s="3">
         <v>4</v>
@@ -30325,118 +30333,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="67" t="s">
+      <c r="A256" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="68"/>
-      <c r="C256" s="68"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
-      <c r="G256" s="68"/>
-      <c r="H256" s="68"/>
-      <c r="I256" s="68"/>
-      <c r="J256" s="68"/>
-      <c r="K256" s="68"/>
-      <c r="L256" s="68"/>
-      <c r="M256" s="68"/>
-      <c r="N256" s="68"/>
-      <c r="O256" s="68"/>
-      <c r="P256" s="68"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="68"/>
-      <c r="S256" s="68"/>
-      <c r="T256" s="68"/>
-      <c r="U256" s="68"/>
-      <c r="V256" s="68"/>
-      <c r="W256" s="68"/>
-      <c r="X256" s="68"/>
-      <c r="Y256" s="68"/>
-      <c r="Z256" s="68"/>
-      <c r="AA256" s="68"/>
-      <c r="AB256" s="68"/>
-      <c r="AC256" s="68"/>
-      <c r="AD256" s="68"/>
-      <c r="AE256" s="68"/>
-      <c r="AF256" s="68"/>
-      <c r="AG256" s="68"/>
-      <c r="AH256" s="68"/>
+      <c r="B256" s="72"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="72"/>
+      <c r="F256" s="72"/>
+      <c r="G256" s="72"/>
+      <c r="H256" s="72"/>
+      <c r="I256" s="72"/>
+      <c r="J256" s="72"/>
+      <c r="K256" s="72"/>
+      <c r="L256" s="72"/>
+      <c r="M256" s="72"/>
+      <c r="N256" s="72"/>
+      <c r="O256" s="72"/>
+      <c r="P256" s="72"/>
+      <c r="Q256" s="72"/>
+      <c r="R256" s="72"/>
+      <c r="S256" s="72"/>
+      <c r="T256" s="72"/>
+      <c r="U256" s="72"/>
+      <c r="V256" s="72"/>
+      <c r="W256" s="72"/>
+      <c r="X256" s="72"/>
+      <c r="Y256" s="72"/>
+      <c r="Z256" s="72"/>
+      <c r="AA256" s="72"/>
+      <c r="AB256" s="72"/>
+      <c r="AC256" s="72"/>
+      <c r="AD256" s="72"/>
+      <c r="AE256" s="72"/>
+      <c r="AF256" s="72"/>
+      <c r="AG256" s="72"/>
+      <c r="AH256" s="72"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="72" t="s">
+      <c r="A258" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="72"/>
-      <c r="C258" s="72"/>
-      <c r="D258" s="72"/>
-      <c r="E258" s="72"/>
-      <c r="F258" s="72"/>
-      <c r="G258" s="72"/>
-      <c r="H258" s="72"/>
-      <c r="I258" s="72"/>
-      <c r="J258" s="72"/>
-      <c r="K258" s="72"/>
-      <c r="L258" s="72"/>
-      <c r="M258" s="72"/>
-      <c r="N258" s="72"/>
-      <c r="O258" s="72"/>
-      <c r="P258" s="72"/>
-      <c r="Q258" s="72"/>
-      <c r="R258" s="72"/>
-      <c r="S258" s="72"/>
-      <c r="T258" s="72"/>
-      <c r="U258" s="72"/>
-      <c r="V258" s="72"/>
-      <c r="W258" s="72"/>
-      <c r="X258" s="72"/>
-      <c r="Y258" s="72"/>
-      <c r="Z258" s="72"/>
-      <c r="AA258" s="72"/>
-      <c r="AB258" s="72"/>
-      <c r="AC258" s="72"/>
-      <c r="AD258" s="72"/>
-      <c r="AE258" s="72"/>
-      <c r="AF258" s="72"/>
-      <c r="AG258" s="72"/>
-      <c r="AH258" s="72"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="67"/>
+      <c r="F258" s="67"/>
+      <c r="G258" s="67"/>
+      <c r="H258" s="67"/>
+      <c r="I258" s="67"/>
+      <c r="J258" s="67"/>
+      <c r="K258" s="67"/>
+      <c r="L258" s="67"/>
+      <c r="M258" s="67"/>
+      <c r="N258" s="67"/>
+      <c r="O258" s="67"/>
+      <c r="P258" s="67"/>
+      <c r="Q258" s="67"/>
+      <c r="R258" s="67"/>
+      <c r="S258" s="67"/>
+      <c r="T258" s="67"/>
+      <c r="U258" s="67"/>
+      <c r="V258" s="67"/>
+      <c r="W258" s="67"/>
+      <c r="X258" s="67"/>
+      <c r="Y258" s="67"/>
+      <c r="Z258" s="67"/>
+      <c r="AA258" s="67"/>
+      <c r="AB258" s="67"/>
+      <c r="AC258" s="67"/>
+      <c r="AD258" s="67"/>
+      <c r="AE258" s="67"/>
+      <c r="AF258" s="67"/>
+      <c r="AG258" s="67"/>
+      <c r="AH258" s="67"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="73" t="s">
+      <c r="A259" s="68" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="73"/>
-      <c r="C259" s="73"/>
-      <c r="D259" s="73"/>
-      <c r="E259" s="73"/>
-      <c r="F259" s="73"/>
-      <c r="G259" s="73"/>
-      <c r="H259" s="73"/>
-      <c r="I259" s="73"/>
-      <c r="J259" s="73"/>
-      <c r="K259" s="73"/>
-      <c r="L259" s="73"/>
-      <c r="M259" s="73"/>
-      <c r="N259" s="73"/>
-      <c r="O259" s="73"/>
-      <c r="P259" s="73"/>
-      <c r="Q259" s="73"/>
-      <c r="R259" s="73"/>
-      <c r="S259" s="73"/>
-      <c r="T259" s="73"/>
-      <c r="U259" s="73"/>
-      <c r="V259" s="73"/>
-      <c r="W259" s="73"/>
-      <c r="X259" s="73"/>
-      <c r="Y259" s="73"/>
-      <c r="Z259" s="73"/>
-      <c r="AA259" s="73"/>
-      <c r="AB259" s="73"/>
-      <c r="AC259" s="73"/>
-      <c r="AD259" s="73"/>
-      <c r="AE259" s="73"/>
-      <c r="AF259" s="73"/>
-      <c r="AG259" s="73"/>
-      <c r="AH259" s="73"/>
+      <c r="B259" s="68"/>
+      <c r="C259" s="68"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="68"/>
+      <c r="F259" s="68"/>
+      <c r="G259" s="68"/>
+      <c r="H259" s="68"/>
+      <c r="I259" s="68"/>
+      <c r="J259" s="68"/>
+      <c r="K259" s="68"/>
+      <c r="L259" s="68"/>
+      <c r="M259" s="68"/>
+      <c r="N259" s="68"/>
+      <c r="O259" s="68"/>
+      <c r="P259" s="68"/>
+      <c r="Q259" s="68"/>
+      <c r="R259" s="68"/>
+      <c r="S259" s="68"/>
+      <c r="T259" s="68"/>
+      <c r="U259" s="68"/>
+      <c r="V259" s="68"/>
+      <c r="W259" s="68"/>
+      <c r="X259" s="68"/>
+      <c r="Y259" s="68"/>
+      <c r="Z259" s="68"/>
+      <c r="AA259" s="68"/>
+      <c r="AB259" s="68"/>
+      <c r="AC259" s="68"/>
+      <c r="AD259" s="68"/>
+      <c r="AE259" s="68"/>
+      <c r="AF259" s="68"/>
+      <c r="AG259" s="68"/>
+      <c r="AH259" s="68"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
@@ -30484,7 +30492,7 @@
       <c r="AE260" s="70"/>
       <c r="AF260" s="70"/>
       <c r="AG260" s="70"/>
-      <c r="AH260" s="71" t="s">
+      <c r="AH260" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32107,118 +32115,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="67" t="s">
+      <c r="A300" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="68"/>
-      <c r="C300" s="68"/>
-      <c r="D300" s="68"/>
-      <c r="E300" s="68"/>
-      <c r="F300" s="68"/>
-      <c r="G300" s="68"/>
-      <c r="H300" s="68"/>
-      <c r="I300" s="68"/>
-      <c r="J300" s="68"/>
-      <c r="K300" s="68"/>
-      <c r="L300" s="68"/>
-      <c r="M300" s="68"/>
-      <c r="N300" s="68"/>
-      <c r="O300" s="68"/>
-      <c r="P300" s="68"/>
-      <c r="Q300" s="68"/>
-      <c r="R300" s="68"/>
-      <c r="S300" s="68"/>
-      <c r="T300" s="68"/>
-      <c r="U300" s="68"/>
-      <c r="V300" s="68"/>
-      <c r="W300" s="68"/>
-      <c r="X300" s="68"/>
-      <c r="Y300" s="68"/>
-      <c r="Z300" s="68"/>
-      <c r="AA300" s="68"/>
-      <c r="AB300" s="68"/>
-      <c r="AC300" s="68"/>
-      <c r="AD300" s="68"/>
-      <c r="AE300" s="68"/>
-      <c r="AF300" s="68"/>
-      <c r="AG300" s="68"/>
-      <c r="AH300" s="68"/>
+      <c r="B300" s="72"/>
+      <c r="C300" s="72"/>
+      <c r="D300" s="72"/>
+      <c r="E300" s="72"/>
+      <c r="F300" s="72"/>
+      <c r="G300" s="72"/>
+      <c r="H300" s="72"/>
+      <c r="I300" s="72"/>
+      <c r="J300" s="72"/>
+      <c r="K300" s="72"/>
+      <c r="L300" s="72"/>
+      <c r="M300" s="72"/>
+      <c r="N300" s="72"/>
+      <c r="O300" s="72"/>
+      <c r="P300" s="72"/>
+      <c r="Q300" s="72"/>
+      <c r="R300" s="72"/>
+      <c r="S300" s="72"/>
+      <c r="T300" s="72"/>
+      <c r="U300" s="72"/>
+      <c r="V300" s="72"/>
+      <c r="W300" s="72"/>
+      <c r="X300" s="72"/>
+      <c r="Y300" s="72"/>
+      <c r="Z300" s="72"/>
+      <c r="AA300" s="72"/>
+      <c r="AB300" s="72"/>
+      <c r="AC300" s="72"/>
+      <c r="AD300" s="72"/>
+      <c r="AE300" s="72"/>
+      <c r="AF300" s="72"/>
+      <c r="AG300" s="72"/>
+      <c r="AH300" s="72"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="72" t="s">
+      <c r="A301" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="72"/>
-      <c r="C301" s="72"/>
-      <c r="D301" s="72"/>
-      <c r="E301" s="72"/>
-      <c r="F301" s="72"/>
-      <c r="G301" s="72"/>
-      <c r="H301" s="72"/>
-      <c r="I301" s="72"/>
-      <c r="J301" s="72"/>
-      <c r="K301" s="72"/>
-      <c r="L301" s="72"/>
-      <c r="M301" s="72"/>
-      <c r="N301" s="72"/>
-      <c r="O301" s="72"/>
-      <c r="P301" s="72"/>
-      <c r="Q301" s="72"/>
-      <c r="R301" s="72"/>
-      <c r="S301" s="72"/>
-      <c r="T301" s="72"/>
-      <c r="U301" s="72"/>
-      <c r="V301" s="72"/>
-      <c r="W301" s="72"/>
-      <c r="X301" s="72"/>
-      <c r="Y301" s="72"/>
-      <c r="Z301" s="72"/>
-      <c r="AA301" s="72"/>
-      <c r="AB301" s="72"/>
-      <c r="AC301" s="72"/>
-      <c r="AD301" s="72"/>
-      <c r="AE301" s="72"/>
-      <c r="AF301" s="72"/>
-      <c r="AG301" s="72"/>
-      <c r="AH301" s="72"/>
+      <c r="B301" s="67"/>
+      <c r="C301" s="67"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
+      <c r="L301" s="67"/>
+      <c r="M301" s="67"/>
+      <c r="N301" s="67"/>
+      <c r="O301" s="67"/>
+      <c r="P301" s="67"/>
+      <c r="Q301" s="67"/>
+      <c r="R301" s="67"/>
+      <c r="S301" s="67"/>
+      <c r="T301" s="67"/>
+      <c r="U301" s="67"/>
+      <c r="V301" s="67"/>
+      <c r="W301" s="67"/>
+      <c r="X301" s="67"/>
+      <c r="Y301" s="67"/>
+      <c r="Z301" s="67"/>
+      <c r="AA301" s="67"/>
+      <c r="AB301" s="67"/>
+      <c r="AC301" s="67"/>
+      <c r="AD301" s="67"/>
+      <c r="AE301" s="67"/>
+      <c r="AF301" s="67"/>
+      <c r="AG301" s="67"/>
+      <c r="AH301" s="67"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="73" t="s">
+      <c r="A302" s="68" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="73"/>
-      <c r="C302" s="73"/>
-      <c r="D302" s="73"/>
-      <c r="E302" s="73"/>
-      <c r="F302" s="73"/>
-      <c r="G302" s="73"/>
-      <c r="H302" s="73"/>
-      <c r="I302" s="73"/>
-      <c r="J302" s="73"/>
-      <c r="K302" s="73"/>
-      <c r="L302" s="73"/>
-      <c r="M302" s="73"/>
-      <c r="N302" s="73"/>
-      <c r="O302" s="73"/>
-      <c r="P302" s="73"/>
-      <c r="Q302" s="73"/>
-      <c r="R302" s="73"/>
-      <c r="S302" s="73"/>
-      <c r="T302" s="73"/>
-      <c r="U302" s="73"/>
-      <c r="V302" s="73"/>
-      <c r="W302" s="73"/>
-      <c r="X302" s="73"/>
-      <c r="Y302" s="73"/>
-      <c r="Z302" s="73"/>
-      <c r="AA302" s="73"/>
-      <c r="AB302" s="73"/>
-      <c r="AC302" s="73"/>
-      <c r="AD302" s="73"/>
-      <c r="AE302" s="73"/>
-      <c r="AF302" s="73"/>
-      <c r="AG302" s="73"/>
-      <c r="AH302" s="73"/>
+      <c r="B302" s="68"/>
+      <c r="C302" s="68"/>
+      <c r="D302" s="68"/>
+      <c r="E302" s="68"/>
+      <c r="F302" s="68"/>
+      <c r="G302" s="68"/>
+      <c r="H302" s="68"/>
+      <c r="I302" s="68"/>
+      <c r="J302" s="68"/>
+      <c r="K302" s="68"/>
+      <c r="L302" s="68"/>
+      <c r="M302" s="68"/>
+      <c r="N302" s="68"/>
+      <c r="O302" s="68"/>
+      <c r="P302" s="68"/>
+      <c r="Q302" s="68"/>
+      <c r="R302" s="68"/>
+      <c r="S302" s="68"/>
+      <c r="T302" s="68"/>
+      <c r="U302" s="68"/>
+      <c r="V302" s="68"/>
+      <c r="W302" s="68"/>
+      <c r="X302" s="68"/>
+      <c r="Y302" s="68"/>
+      <c r="Z302" s="68"/>
+      <c r="AA302" s="68"/>
+      <c r="AB302" s="68"/>
+      <c r="AC302" s="68"/>
+      <c r="AD302" s="68"/>
+      <c r="AE302" s="68"/>
+      <c r="AF302" s="68"/>
+      <c r="AG302" s="68"/>
+      <c r="AH302" s="68"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="70" t="s">
@@ -32266,7 +32274,7 @@
       <c r="AE303" s="70"/>
       <c r="AF303" s="70"/>
       <c r="AG303" s="70"/>
-      <c r="AH303" s="71" t="s">
+      <c r="AH303" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -34855,42 +34863,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="67" t="s">
+      <c r="A367" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="68"/>
-      <c r="C367" s="68"/>
-      <c r="D367" s="68"/>
-      <c r="E367" s="68"/>
-      <c r="F367" s="68"/>
-      <c r="G367" s="68"/>
-      <c r="H367" s="68"/>
-      <c r="I367" s="68"/>
-      <c r="J367" s="68"/>
-      <c r="K367" s="68"/>
-      <c r="L367" s="68"/>
-      <c r="M367" s="68"/>
-      <c r="N367" s="68"/>
-      <c r="O367" s="68"/>
-      <c r="P367" s="68"/>
-      <c r="Q367" s="68"/>
-      <c r="R367" s="68"/>
-      <c r="S367" s="68"/>
-      <c r="T367" s="68"/>
-      <c r="U367" s="68"/>
-      <c r="V367" s="68"/>
-      <c r="W367" s="68"/>
-      <c r="X367" s="68"/>
-      <c r="Y367" s="68"/>
-      <c r="Z367" s="68"/>
-      <c r="AA367" s="68"/>
-      <c r="AB367" s="68"/>
-      <c r="AC367" s="68"/>
-      <c r="AD367" s="68"/>
-      <c r="AE367" s="68"/>
-      <c r="AF367" s="68"/>
-      <c r="AG367" s="68"/>
-      <c r="AH367" s="68"/>
+      <c r="B367" s="72"/>
+      <c r="C367" s="72"/>
+      <c r="D367" s="72"/>
+      <c r="E367" s="72"/>
+      <c r="F367" s="72"/>
+      <c r="G367" s="72"/>
+      <c r="H367" s="72"/>
+      <c r="I367" s="72"/>
+      <c r="J367" s="72"/>
+      <c r="K367" s="72"/>
+      <c r="L367" s="72"/>
+      <c r="M367" s="72"/>
+      <c r="N367" s="72"/>
+      <c r="O367" s="72"/>
+      <c r="P367" s="72"/>
+      <c r="Q367" s="72"/>
+      <c r="R367" s="72"/>
+      <c r="S367" s="72"/>
+      <c r="T367" s="72"/>
+      <c r="U367" s="72"/>
+      <c r="V367" s="72"/>
+      <c r="W367" s="72"/>
+      <c r="X367" s="72"/>
+      <c r="Y367" s="72"/>
+      <c r="Z367" s="72"/>
+      <c r="AA367" s="72"/>
+      <c r="AB367" s="72"/>
+      <c r="AC367" s="72"/>
+      <c r="AD367" s="72"/>
+      <c r="AE367" s="72"/>
+      <c r="AF367" s="72"/>
+      <c r="AG367" s="72"/>
+      <c r="AH367" s="72"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34929,80 +34937,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="72" t="s">
+      <c r="A369" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="72"/>
-      <c r="C369" s="72"/>
-      <c r="D369" s="72"/>
-      <c r="E369" s="72"/>
-      <c r="F369" s="72"/>
-      <c r="G369" s="72"/>
-      <c r="H369" s="72"/>
-      <c r="I369" s="72"/>
-      <c r="J369" s="72"/>
-      <c r="K369" s="72"/>
-      <c r="L369" s="72"/>
-      <c r="M369" s="72"/>
-      <c r="N369" s="72"/>
-      <c r="O369" s="72"/>
-      <c r="P369" s="72"/>
-      <c r="Q369" s="72"/>
-      <c r="R369" s="72"/>
-      <c r="S369" s="72"/>
-      <c r="T369" s="72"/>
-      <c r="U369" s="72"/>
-      <c r="V369" s="72"/>
-      <c r="W369" s="72"/>
-      <c r="X369" s="72"/>
-      <c r="Y369" s="72"/>
-      <c r="Z369" s="72"/>
-      <c r="AA369" s="72"/>
-      <c r="AB369" s="72"/>
-      <c r="AC369" s="72"/>
-      <c r="AD369" s="72"/>
-      <c r="AE369" s="72"/>
-      <c r="AF369" s="72"/>
-      <c r="AG369" s="72"/>
-      <c r="AH369" s="72"/>
+      <c r="B369" s="67"/>
+      <c r="C369" s="67"/>
+      <c r="D369" s="67"/>
+      <c r="E369" s="67"/>
+      <c r="F369" s="67"/>
+      <c r="G369" s="67"/>
+      <c r="H369" s="67"/>
+      <c r="I369" s="67"/>
+      <c r="J369" s="67"/>
+      <c r="K369" s="67"/>
+      <c r="L369" s="67"/>
+      <c r="M369" s="67"/>
+      <c r="N369" s="67"/>
+      <c r="O369" s="67"/>
+      <c r="P369" s="67"/>
+      <c r="Q369" s="67"/>
+      <c r="R369" s="67"/>
+      <c r="S369" s="67"/>
+      <c r="T369" s="67"/>
+      <c r="U369" s="67"/>
+      <c r="V369" s="67"/>
+      <c r="W369" s="67"/>
+      <c r="X369" s="67"/>
+      <c r="Y369" s="67"/>
+      <c r="Z369" s="67"/>
+      <c r="AA369" s="67"/>
+      <c r="AB369" s="67"/>
+      <c r="AC369" s="67"/>
+      <c r="AD369" s="67"/>
+      <c r="AE369" s="67"/>
+      <c r="AF369" s="67"/>
+      <c r="AG369" s="67"/>
+      <c r="AH369" s="67"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="73" t="s">
+      <c r="A370" s="68" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="73"/>
-      <c r="C370" s="73"/>
-      <c r="D370" s="73"/>
-      <c r="E370" s="73"/>
-      <c r="F370" s="73"/>
-      <c r="G370" s="73"/>
-      <c r="H370" s="73"/>
-      <c r="I370" s="73"/>
-      <c r="J370" s="73"/>
-      <c r="K370" s="73"/>
-      <c r="L370" s="73"/>
-      <c r="M370" s="73"/>
-      <c r="N370" s="73"/>
-      <c r="O370" s="73"/>
-      <c r="P370" s="73"/>
-      <c r="Q370" s="73"/>
-      <c r="R370" s="73"/>
-      <c r="S370" s="73"/>
-      <c r="T370" s="73"/>
-      <c r="U370" s="73"/>
-      <c r="V370" s="73"/>
-      <c r="W370" s="73"/>
-      <c r="X370" s="73"/>
-      <c r="Y370" s="73"/>
-      <c r="Z370" s="73"/>
-      <c r="AA370" s="73"/>
-      <c r="AB370" s="73"/>
-      <c r="AC370" s="73"/>
-      <c r="AD370" s="73"/>
-      <c r="AE370" s="73"/>
-      <c r="AF370" s="73"/>
-      <c r="AG370" s="73"/>
-      <c r="AH370" s="73"/>
+      <c r="B370" s="68"/>
+      <c r="C370" s="68"/>
+      <c r="D370" s="68"/>
+      <c r="E370" s="68"/>
+      <c r="F370" s="68"/>
+      <c r="G370" s="68"/>
+      <c r="H370" s="68"/>
+      <c r="I370" s="68"/>
+      <c r="J370" s="68"/>
+      <c r="K370" s="68"/>
+      <c r="L370" s="68"/>
+      <c r="M370" s="68"/>
+      <c r="N370" s="68"/>
+      <c r="O370" s="68"/>
+      <c r="P370" s="68"/>
+      <c r="Q370" s="68"/>
+      <c r="R370" s="68"/>
+      <c r="S370" s="68"/>
+      <c r="T370" s="68"/>
+      <c r="U370" s="68"/>
+      <c r="V370" s="68"/>
+      <c r="W370" s="68"/>
+      <c r="X370" s="68"/>
+      <c r="Y370" s="68"/>
+      <c r="Z370" s="68"/>
+      <c r="AA370" s="68"/>
+      <c r="AB370" s="68"/>
+      <c r="AC370" s="68"/>
+      <c r="AD370" s="68"/>
+      <c r="AE370" s="68"/>
+      <c r="AF370" s="68"/>
+      <c r="AG370" s="68"/>
+      <c r="AH370" s="68"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="70" t="s">
@@ -35050,7 +35058,7 @@
       <c r="AE371" s="70"/>
       <c r="AF371" s="70"/>
       <c r="AG371" s="70"/>
-      <c r="AH371" s="71" t="s">
+      <c r="AH371" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37727,99 +37735,45 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="67" t="s">
+      <c r="A436" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="68"/>
-      <c r="C436" s="68"/>
-      <c r="D436" s="68"/>
-      <c r="E436" s="68"/>
-      <c r="F436" s="68"/>
-      <c r="G436" s="68"/>
-      <c r="H436" s="68"/>
-      <c r="I436" s="68"/>
-      <c r="J436" s="68"/>
-      <c r="K436" s="68"/>
-      <c r="L436" s="68"/>
-      <c r="M436" s="68"/>
-      <c r="N436" s="68"/>
-      <c r="O436" s="68"/>
-      <c r="P436" s="68"/>
-      <c r="Q436" s="68"/>
-      <c r="R436" s="68"/>
-      <c r="S436" s="68"/>
-      <c r="T436" s="68"/>
-      <c r="U436" s="68"/>
-      <c r="V436" s="68"/>
-      <c r="W436" s="68"/>
-      <c r="X436" s="68"/>
-      <c r="Y436" s="68"/>
-      <c r="Z436" s="68"/>
-      <c r="AA436" s="68"/>
-      <c r="AB436" s="68"/>
-      <c r="AC436" s="68"/>
-      <c r="AD436" s="68"/>
-      <c r="AE436" s="68"/>
-      <c r="AF436" s="68"/>
-      <c r="AG436" s="68"/>
-      <c r="AH436" s="68"/>
+      <c r="B436" s="72"/>
+      <c r="C436" s="72"/>
+      <c r="D436" s="72"/>
+      <c r="E436" s="72"/>
+      <c r="F436" s="72"/>
+      <c r="G436" s="72"/>
+      <c r="H436" s="72"/>
+      <c r="I436" s="72"/>
+      <c r="J436" s="72"/>
+      <c r="K436" s="72"/>
+      <c r="L436" s="72"/>
+      <c r="M436" s="72"/>
+      <c r="N436" s="72"/>
+      <c r="O436" s="72"/>
+      <c r="P436" s="72"/>
+      <c r="Q436" s="72"/>
+      <c r="R436" s="72"/>
+      <c r="S436" s="72"/>
+      <c r="T436" s="72"/>
+      <c r="U436" s="72"/>
+      <c r="V436" s="72"/>
+      <c r="W436" s="72"/>
+      <c r="X436" s="72"/>
+      <c r="Y436" s="72"/>
+      <c r="Z436" s="72"/>
+      <c r="AA436" s="72"/>
+      <c r="AB436" s="72"/>
+      <c r="AC436" s="72"/>
+      <c r="AD436" s="72"/>
+      <c r="AE436" s="72"/>
+      <c r="AF436" s="72"/>
+      <c r="AG436" s="72"/>
+      <c r="AH436" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37836,6 +37790,60 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37869,80 +37877,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -37990,7 +37998,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38693,118 +38701,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="68" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -38852,7 +38860,7 @@
       <c r="AE24" s="70"/>
       <c r="AF24" s="70"/>
       <c r="AG24" s="70"/>
-      <c r="AH24" s="71" t="s">
+      <c r="AH24" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39435,118 +39443,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="68" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
@@ -39594,7 +39602,7 @@
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
-      <c r="AH42" s="71" t="s">
+      <c r="AH42" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40457,118 +40465,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
-      <c r="AE63" s="68"/>
-      <c r="AF63" s="68"/>
-      <c r="AG63" s="68"/>
-      <c r="AH63" s="68"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
+      <c r="V63" s="72"/>
+      <c r="W63" s="72"/>
+      <c r="X63" s="72"/>
+      <c r="Y63" s="72"/>
+      <c r="Z63" s="72"/>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="72"/>
+      <c r="AF63" s="72"/>
+      <c r="AG63" s="72"/>
+      <c r="AH63" s="72"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="72"/>
-      <c r="Y64" s="72"/>
-      <c r="Z64" s="72"/>
-      <c r="AA64" s="72"/>
-      <c r="AB64" s="72"/>
-      <c r="AC64" s="72"/>
-      <c r="AD64" s="72"/>
-      <c r="AE64" s="72"/>
-      <c r="AF64" s="72"/>
-      <c r="AG64" s="72"/>
-      <c r="AH64" s="72"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="67"/>
+      <c r="AD64" s="67"/>
+      <c r="AE64" s="67"/>
+      <c r="AF64" s="67"/>
+      <c r="AG64" s="67"/>
+      <c r="AH64" s="67"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="68" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="73"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="73"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
-      <c r="Z65" s="73"/>
-      <c r="AA65" s="73"/>
-      <c r="AB65" s="73"/>
-      <c r="AC65" s="73"/>
-      <c r="AD65" s="73"/>
-      <c r="AE65" s="73"/>
-      <c r="AF65" s="73"/>
-      <c r="AG65" s="73"/>
-      <c r="AH65" s="73"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+      <c r="Z65" s="68"/>
+      <c r="AA65" s="68"/>
+      <c r="AB65" s="68"/>
+      <c r="AC65" s="68"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
+      <c r="AF65" s="68"/>
+      <c r="AG65" s="68"/>
+      <c r="AH65" s="68"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
@@ -40616,7 +40624,7 @@
       <c r="AE66" s="70"/>
       <c r="AF66" s="70"/>
       <c r="AG66" s="70"/>
-      <c r="AH66" s="71" t="s">
+      <c r="AH66" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42439,118 +42447,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="67" t="s">
+      <c r="A111" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68"/>
-      <c r="L111" s="68"/>
-      <c r="M111" s="68"/>
-      <c r="N111" s="68"/>
-      <c r="O111" s="68"/>
-      <c r="P111" s="68"/>
-      <c r="Q111" s="68"/>
-      <c r="R111" s="68"/>
-      <c r="S111" s="68"/>
-      <c r="T111" s="68"/>
-      <c r="U111" s="68"/>
-      <c r="V111" s="68"/>
-      <c r="W111" s="68"/>
-      <c r="X111" s="68"/>
-      <c r="Y111" s="68"/>
-      <c r="Z111" s="68"/>
-      <c r="AA111" s="68"/>
-      <c r="AB111" s="68"/>
-      <c r="AC111" s="68"/>
-      <c r="AD111" s="68"/>
-      <c r="AE111" s="68"/>
-      <c r="AF111" s="68"/>
-      <c r="AG111" s="68"/>
-      <c r="AH111" s="68"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="72"/>
+      <c r="O111" s="72"/>
+      <c r="P111" s="72"/>
+      <c r="Q111" s="72"/>
+      <c r="R111" s="72"/>
+      <c r="S111" s="72"/>
+      <c r="T111" s="72"/>
+      <c r="U111" s="72"/>
+      <c r="V111" s="72"/>
+      <c r="W111" s="72"/>
+      <c r="X111" s="72"/>
+      <c r="Y111" s="72"/>
+      <c r="Z111" s="72"/>
+      <c r="AA111" s="72"/>
+      <c r="AB111" s="72"/>
+      <c r="AC111" s="72"/>
+      <c r="AD111" s="72"/>
+      <c r="AE111" s="72"/>
+      <c r="AF111" s="72"/>
+      <c r="AG111" s="72"/>
+      <c r="AH111" s="72"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="72" t="s">
+      <c r="A113" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
-      <c r="K113" s="72"/>
-      <c r="L113" s="72"/>
-      <c r="M113" s="72"/>
-      <c r="N113" s="72"/>
-      <c r="O113" s="72"/>
-      <c r="P113" s="72"/>
-      <c r="Q113" s="72"/>
-      <c r="R113" s="72"/>
-      <c r="S113" s="72"/>
-      <c r="T113" s="72"/>
-      <c r="U113" s="72"/>
-      <c r="V113" s="72"/>
-      <c r="W113" s="72"/>
-      <c r="X113" s="72"/>
-      <c r="Y113" s="72"/>
-      <c r="Z113" s="72"/>
-      <c r="AA113" s="72"/>
-      <c r="AB113" s="72"/>
-      <c r="AC113" s="72"/>
-      <c r="AD113" s="72"/>
-      <c r="AE113" s="72"/>
-      <c r="AF113" s="72"/>
-      <c r="AG113" s="72"/>
-      <c r="AH113" s="72"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="67"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="67"/>
+      <c r="R113" s="67"/>
+      <c r="S113" s="67"/>
+      <c r="T113" s="67"/>
+      <c r="U113" s="67"/>
+      <c r="V113" s="67"/>
+      <c r="W113" s="67"/>
+      <c r="X113" s="67"/>
+      <c r="Y113" s="67"/>
+      <c r="Z113" s="67"/>
+      <c r="AA113" s="67"/>
+      <c r="AB113" s="67"/>
+      <c r="AC113" s="67"/>
+      <c r="AD113" s="67"/>
+      <c r="AE113" s="67"/>
+      <c r="AF113" s="67"/>
+      <c r="AG113" s="67"/>
+      <c r="AH113" s="67"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="68" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
-      <c r="H114" s="73"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="73"/>
-      <c r="N114" s="73"/>
-      <c r="O114" s="73"/>
-      <c r="P114" s="73"/>
-      <c r="Q114" s="73"/>
-      <c r="R114" s="73"/>
-      <c r="S114" s="73"/>
-      <c r="T114" s="73"/>
-      <c r="U114" s="73"/>
-      <c r="V114" s="73"/>
-      <c r="W114" s="73"/>
-      <c r="X114" s="73"/>
-      <c r="Y114" s="73"/>
-      <c r="Z114" s="73"/>
-      <c r="AA114" s="73"/>
-      <c r="AB114" s="73"/>
-      <c r="AC114" s="73"/>
-      <c r="AD114" s="73"/>
-      <c r="AE114" s="73"/>
-      <c r="AF114" s="73"/>
-      <c r="AG114" s="73"/>
-      <c r="AH114" s="73"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="68"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="68"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="68"/>
+      <c r="S114" s="68"/>
+      <c r="T114" s="68"/>
+      <c r="U114" s="68"/>
+      <c r="V114" s="68"/>
+      <c r="W114" s="68"/>
+      <c r="X114" s="68"/>
+      <c r="Y114" s="68"/>
+      <c r="Z114" s="68"/>
+      <c r="AA114" s="68"/>
+      <c r="AB114" s="68"/>
+      <c r="AC114" s="68"/>
+      <c r="AD114" s="68"/>
+      <c r="AE114" s="68"/>
+      <c r="AF114" s="68"/>
+      <c r="AG114" s="68"/>
+      <c r="AH114" s="68"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
@@ -42598,7 +42606,7 @@
       <c r="AE115" s="70"/>
       <c r="AF115" s="70"/>
       <c r="AG115" s="70"/>
-      <c r="AH115" s="71" t="s">
+      <c r="AH115" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44421,118 +44429,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="67" t="s">
+      <c r="A160" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="68"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="68"/>
-      <c r="L160" s="68"/>
-      <c r="M160" s="68"/>
-      <c r="N160" s="68"/>
-      <c r="O160" s="68"/>
-      <c r="P160" s="68"/>
-      <c r="Q160" s="68"/>
-      <c r="R160" s="68"/>
-      <c r="S160" s="68"/>
-      <c r="T160" s="68"/>
-      <c r="U160" s="68"/>
-      <c r="V160" s="68"/>
-      <c r="W160" s="68"/>
-      <c r="X160" s="68"/>
-      <c r="Y160" s="68"/>
-      <c r="Z160" s="68"/>
-      <c r="AA160" s="68"/>
-      <c r="AB160" s="68"/>
-      <c r="AC160" s="68"/>
-      <c r="AD160" s="68"/>
-      <c r="AE160" s="68"/>
-      <c r="AF160" s="68"/>
-      <c r="AG160" s="68"/>
-      <c r="AH160" s="68"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
+      <c r="K160" s="72"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="72"/>
+      <c r="N160" s="72"/>
+      <c r="O160" s="72"/>
+      <c r="P160" s="72"/>
+      <c r="Q160" s="72"/>
+      <c r="R160" s="72"/>
+      <c r="S160" s="72"/>
+      <c r="T160" s="72"/>
+      <c r="U160" s="72"/>
+      <c r="V160" s="72"/>
+      <c r="W160" s="72"/>
+      <c r="X160" s="72"/>
+      <c r="Y160" s="72"/>
+      <c r="Z160" s="72"/>
+      <c r="AA160" s="72"/>
+      <c r="AB160" s="72"/>
+      <c r="AC160" s="72"/>
+      <c r="AD160" s="72"/>
+      <c r="AE160" s="72"/>
+      <c r="AF160" s="72"/>
+      <c r="AG160" s="72"/>
+      <c r="AH160" s="72"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="72" t="s">
+      <c r="A162" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="72"/>
-      <c r="C162" s="72"/>
-      <c r="D162" s="72"/>
-      <c r="E162" s="72"/>
-      <c r="F162" s="72"/>
-      <c r="G162" s="72"/>
-      <c r="H162" s="72"/>
-      <c r="I162" s="72"/>
-      <c r="J162" s="72"/>
-      <c r="K162" s="72"/>
-      <c r="L162" s="72"/>
-      <c r="M162" s="72"/>
-      <c r="N162" s="72"/>
-      <c r="O162" s="72"/>
-      <c r="P162" s="72"/>
-      <c r="Q162" s="72"/>
-      <c r="R162" s="72"/>
-      <c r="S162" s="72"/>
-      <c r="T162" s="72"/>
-      <c r="U162" s="72"/>
-      <c r="V162" s="72"/>
-      <c r="W162" s="72"/>
-      <c r="X162" s="72"/>
-      <c r="Y162" s="72"/>
-      <c r="Z162" s="72"/>
-      <c r="AA162" s="72"/>
-      <c r="AB162" s="72"/>
-      <c r="AC162" s="72"/>
-      <c r="AD162" s="72"/>
-      <c r="AE162" s="72"/>
-      <c r="AF162" s="72"/>
-      <c r="AG162" s="72"/>
-      <c r="AH162" s="72"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="67"/>
+      <c r="K162" s="67"/>
+      <c r="L162" s="67"/>
+      <c r="M162" s="67"/>
+      <c r="N162" s="67"/>
+      <c r="O162" s="67"/>
+      <c r="P162" s="67"/>
+      <c r="Q162" s="67"/>
+      <c r="R162" s="67"/>
+      <c r="S162" s="67"/>
+      <c r="T162" s="67"/>
+      <c r="U162" s="67"/>
+      <c r="V162" s="67"/>
+      <c r="W162" s="67"/>
+      <c r="X162" s="67"/>
+      <c r="Y162" s="67"/>
+      <c r="Z162" s="67"/>
+      <c r="AA162" s="67"/>
+      <c r="AB162" s="67"/>
+      <c r="AC162" s="67"/>
+      <c r="AD162" s="67"/>
+      <c r="AE162" s="67"/>
+      <c r="AF162" s="67"/>
+      <c r="AG162" s="67"/>
+      <c r="AH162" s="67"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="73" t="s">
+      <c r="A163" s="68" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="73"/>
-      <c r="C163" s="73"/>
-      <c r="D163" s="73"/>
-      <c r="E163" s="73"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
-      <c r="K163" s="73"/>
-      <c r="L163" s="73"/>
-      <c r="M163" s="73"/>
-      <c r="N163" s="73"/>
-      <c r="O163" s="73"/>
-      <c r="P163" s="73"/>
-      <c r="Q163" s="73"/>
-      <c r="R163" s="73"/>
-      <c r="S163" s="73"/>
-      <c r="T163" s="73"/>
-      <c r="U163" s="73"/>
-      <c r="V163" s="73"/>
-      <c r="W163" s="73"/>
-      <c r="X163" s="73"/>
-      <c r="Y163" s="73"/>
-      <c r="Z163" s="73"/>
-      <c r="AA163" s="73"/>
-      <c r="AB163" s="73"/>
-      <c r="AC163" s="73"/>
-      <c r="AD163" s="73"/>
-      <c r="AE163" s="73"/>
-      <c r="AF163" s="73"/>
-      <c r="AG163" s="73"/>
-      <c r="AH163" s="73"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="68"/>
+      <c r="I163" s="68"/>
+      <c r="J163" s="68"/>
+      <c r="K163" s="68"/>
+      <c r="L163" s="68"/>
+      <c r="M163" s="68"/>
+      <c r="N163" s="68"/>
+      <c r="O163" s="68"/>
+      <c r="P163" s="68"/>
+      <c r="Q163" s="68"/>
+      <c r="R163" s="68"/>
+      <c r="S163" s="68"/>
+      <c r="T163" s="68"/>
+      <c r="U163" s="68"/>
+      <c r="V163" s="68"/>
+      <c r="W163" s="68"/>
+      <c r="X163" s="68"/>
+      <c r="Y163" s="68"/>
+      <c r="Z163" s="68"/>
+      <c r="AA163" s="68"/>
+      <c r="AB163" s="68"/>
+      <c r="AC163" s="68"/>
+      <c r="AD163" s="68"/>
+      <c r="AE163" s="68"/>
+      <c r="AF163" s="68"/>
+      <c r="AG163" s="68"/>
+      <c r="AH163" s="68"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="70" t="s">
@@ -44580,7 +44588,7 @@
       <c r="AE164" s="70"/>
       <c r="AF164" s="70"/>
       <c r="AG164" s="70"/>
-      <c r="AH164" s="71" t="s">
+      <c r="AH164" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46403,118 +46411,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="67" t="s">
+      <c r="A209" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="68"/>
-      <c r="C209" s="68"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="68"/>
-      <c r="G209" s="68"/>
-      <c r="H209" s="68"/>
-      <c r="I209" s="68"/>
-      <c r="J209" s="68"/>
-      <c r="K209" s="68"/>
-      <c r="L209" s="68"/>
-      <c r="M209" s="68"/>
-      <c r="N209" s="68"/>
-      <c r="O209" s="68"/>
-      <c r="P209" s="68"/>
-      <c r="Q209" s="68"/>
-      <c r="R209" s="68"/>
-      <c r="S209" s="68"/>
-      <c r="T209" s="68"/>
-      <c r="U209" s="68"/>
-      <c r="V209" s="68"/>
-      <c r="W209" s="68"/>
-      <c r="X209" s="68"/>
-      <c r="Y209" s="68"/>
-      <c r="Z209" s="68"/>
-      <c r="AA209" s="68"/>
-      <c r="AB209" s="68"/>
-      <c r="AC209" s="68"/>
-      <c r="AD209" s="68"/>
-      <c r="AE209" s="68"/>
-      <c r="AF209" s="68"/>
-      <c r="AG209" s="68"/>
-      <c r="AH209" s="68"/>
+      <c r="B209" s="72"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="72"/>
+      <c r="G209" s="72"/>
+      <c r="H209" s="72"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="72"/>
+      <c r="L209" s="72"/>
+      <c r="M209" s="72"/>
+      <c r="N209" s="72"/>
+      <c r="O209" s="72"/>
+      <c r="P209" s="72"/>
+      <c r="Q209" s="72"/>
+      <c r="R209" s="72"/>
+      <c r="S209" s="72"/>
+      <c r="T209" s="72"/>
+      <c r="U209" s="72"/>
+      <c r="V209" s="72"/>
+      <c r="W209" s="72"/>
+      <c r="X209" s="72"/>
+      <c r="Y209" s="72"/>
+      <c r="Z209" s="72"/>
+      <c r="AA209" s="72"/>
+      <c r="AB209" s="72"/>
+      <c r="AC209" s="72"/>
+      <c r="AD209" s="72"/>
+      <c r="AE209" s="72"/>
+      <c r="AF209" s="72"/>
+      <c r="AG209" s="72"/>
+      <c r="AH209" s="72"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="72" t="s">
+      <c r="A211" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="72"/>
-      <c r="L211" s="72"/>
-      <c r="M211" s="72"/>
-      <c r="N211" s="72"/>
-      <c r="O211" s="72"/>
-      <c r="P211" s="72"/>
-      <c r="Q211" s="72"/>
-      <c r="R211" s="72"/>
-      <c r="S211" s="72"/>
-      <c r="T211" s="72"/>
-      <c r="U211" s="72"/>
-      <c r="V211" s="72"/>
-      <c r="W211" s="72"/>
-      <c r="X211" s="72"/>
-      <c r="Y211" s="72"/>
-      <c r="Z211" s="72"/>
-      <c r="AA211" s="72"/>
-      <c r="AB211" s="72"/>
-      <c r="AC211" s="72"/>
-      <c r="AD211" s="72"/>
-      <c r="AE211" s="72"/>
-      <c r="AF211" s="72"/>
-      <c r="AG211" s="72"/>
-      <c r="AH211" s="72"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="67"/>
+      <c r="M211" s="67"/>
+      <c r="N211" s="67"/>
+      <c r="O211" s="67"/>
+      <c r="P211" s="67"/>
+      <c r="Q211" s="67"/>
+      <c r="R211" s="67"/>
+      <c r="S211" s="67"/>
+      <c r="T211" s="67"/>
+      <c r="U211" s="67"/>
+      <c r="V211" s="67"/>
+      <c r="W211" s="67"/>
+      <c r="X211" s="67"/>
+      <c r="Y211" s="67"/>
+      <c r="Z211" s="67"/>
+      <c r="AA211" s="67"/>
+      <c r="AB211" s="67"/>
+      <c r="AC211" s="67"/>
+      <c r="AD211" s="67"/>
+      <c r="AE211" s="67"/>
+      <c r="AF211" s="67"/>
+      <c r="AG211" s="67"/>
+      <c r="AH211" s="67"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="73" t="s">
+      <c r="A212" s="68" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="73"/>
-      <c r="C212" s="73"/>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
-      <c r="F212" s="73"/>
-      <c r="G212" s="73"/>
-      <c r="H212" s="73"/>
-      <c r="I212" s="73"/>
-      <c r="J212" s="73"/>
-      <c r="K212" s="73"/>
-      <c r="L212" s="73"/>
-      <c r="M212" s="73"/>
-      <c r="N212" s="73"/>
-      <c r="O212" s="73"/>
-      <c r="P212" s="73"/>
-      <c r="Q212" s="73"/>
-      <c r="R212" s="73"/>
-      <c r="S212" s="73"/>
-      <c r="T212" s="73"/>
-      <c r="U212" s="73"/>
-      <c r="V212" s="73"/>
-      <c r="W212" s="73"/>
-      <c r="X212" s="73"/>
-      <c r="Y212" s="73"/>
-      <c r="Z212" s="73"/>
-      <c r="AA212" s="73"/>
-      <c r="AB212" s="73"/>
-      <c r="AC212" s="73"/>
-      <c r="AD212" s="73"/>
-      <c r="AE212" s="73"/>
-      <c r="AF212" s="73"/>
-      <c r="AG212" s="73"/>
-      <c r="AH212" s="73"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="68"/>
+      <c r="I212" s="68"/>
+      <c r="J212" s="68"/>
+      <c r="K212" s="68"/>
+      <c r="L212" s="68"/>
+      <c r="M212" s="68"/>
+      <c r="N212" s="68"/>
+      <c r="O212" s="68"/>
+      <c r="P212" s="68"/>
+      <c r="Q212" s="68"/>
+      <c r="R212" s="68"/>
+      <c r="S212" s="68"/>
+      <c r="T212" s="68"/>
+      <c r="U212" s="68"/>
+      <c r="V212" s="68"/>
+      <c r="W212" s="68"/>
+      <c r="X212" s="68"/>
+      <c r="Y212" s="68"/>
+      <c r="Z212" s="68"/>
+      <c r="AA212" s="68"/>
+      <c r="AB212" s="68"/>
+      <c r="AC212" s="68"/>
+      <c r="AD212" s="68"/>
+      <c r="AE212" s="68"/>
+      <c r="AF212" s="68"/>
+      <c r="AG212" s="68"/>
+      <c r="AH212" s="68"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="70" t="s">
@@ -46562,7 +46570,7 @@
       <c r="AE213" s="70"/>
       <c r="AF213" s="70"/>
       <c r="AG213" s="70"/>
-      <c r="AH213" s="71" t="s">
+      <c r="AH213" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48465,99 +48473,45 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="67" t="s">
+      <c r="A260" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="68"/>
-      <c r="C260" s="68"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="68"/>
-      <c r="F260" s="68"/>
-      <c r="G260" s="68"/>
-      <c r="H260" s="68"/>
-      <c r="I260" s="68"/>
-      <c r="J260" s="68"/>
-      <c r="K260" s="68"/>
-      <c r="L260" s="68"/>
-      <c r="M260" s="68"/>
-      <c r="N260" s="68"/>
-      <c r="O260" s="68"/>
-      <c r="P260" s="68"/>
-      <c r="Q260" s="68"/>
-      <c r="R260" s="68"/>
-      <c r="S260" s="68"/>
-      <c r="T260" s="68"/>
-      <c r="U260" s="68"/>
-      <c r="V260" s="68"/>
-      <c r="W260" s="68"/>
-      <c r="X260" s="68"/>
-      <c r="Y260" s="68"/>
-      <c r="Z260" s="68"/>
-      <c r="AA260" s="68"/>
-      <c r="AB260" s="68"/>
-      <c r="AC260" s="68"/>
-      <c r="AD260" s="68"/>
-      <c r="AE260" s="68"/>
-      <c r="AF260" s="68"/>
-      <c r="AG260" s="68"/>
-      <c r="AH260" s="68"/>
+      <c r="B260" s="72"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="72"/>
+      <c r="E260" s="72"/>
+      <c r="F260" s="72"/>
+      <c r="G260" s="72"/>
+      <c r="H260" s="72"/>
+      <c r="I260" s="72"/>
+      <c r="J260" s="72"/>
+      <c r="K260" s="72"/>
+      <c r="L260" s="72"/>
+      <c r="M260" s="72"/>
+      <c r="N260" s="72"/>
+      <c r="O260" s="72"/>
+      <c r="P260" s="72"/>
+      <c r="Q260" s="72"/>
+      <c r="R260" s="72"/>
+      <c r="S260" s="72"/>
+      <c r="T260" s="72"/>
+      <c r="U260" s="72"/>
+      <c r="V260" s="72"/>
+      <c r="W260" s="72"/>
+      <c r="X260" s="72"/>
+      <c r="Y260" s="72"/>
+      <c r="Z260" s="72"/>
+      <c r="AA260" s="72"/>
+      <c r="AB260" s="72"/>
+      <c r="AC260" s="72"/>
+      <c r="AD260" s="72"/>
+      <c r="AE260" s="72"/>
+      <c r="AF260" s="72"/>
+      <c r="AG260" s="72"/>
+      <c r="AH260" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48574,6 +48528,60 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CA6D02-6B1E-462B-972C-ACAD14D4EE92}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02B54BA-BCEB-4F89-9AF0-25D8AE9E1265}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1732">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6943,6 +6943,10 @@
   </si>
   <si>
     <t>’2018/11/27</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/4</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7348,18 +7352,6 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7370,7 +7362,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8304,80 +8308,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -8425,7 +8429,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9728,118 +9732,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
@@ -9887,7 +9891,7 @@
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
-      <c r="AH38" s="74" t="s">
+      <c r="AH38" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12350,119 +12354,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
-      <c r="K99" s="73"/>
-      <c r="L99" s="73"/>
-      <c r="M99" s="73"/>
-      <c r="N99" s="73"/>
-      <c r="O99" s="73"/>
-      <c r="P99" s="73"/>
-      <c r="Q99" s="73"/>
-      <c r="R99" s="73"/>
-      <c r="S99" s="73"/>
-      <c r="T99" s="73"/>
-      <c r="U99" s="73"/>
-      <c r="V99" s="73"/>
-      <c r="W99" s="73"/>
-      <c r="X99" s="73"/>
-      <c r="Y99" s="73"/>
-      <c r="Z99" s="73"/>
-      <c r="AA99" s="73"/>
-      <c r="AB99" s="73"/>
-      <c r="AC99" s="73"/>
-      <c r="AD99" s="73"/>
-      <c r="AE99" s="73"/>
-      <c r="AF99" s="73"/>
-      <c r="AG99" s="73"/>
-      <c r="AH99" s="73"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="69"/>
+      <c r="AB99" s="69"/>
+      <c r="AC99" s="69"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="69"/>
+      <c r="AF99" s="69"/>
+      <c r="AG99" s="69"/>
+      <c r="AH99" s="69"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="67"/>
-      <c r="P101" s="67"/>
-      <c r="Q101" s="67"/>
-      <c r="R101" s="67"/>
-      <c r="S101" s="67"/>
-      <c r="T101" s="67"/>
-      <c r="U101" s="67"/>
-      <c r="V101" s="67"/>
-      <c r="W101" s="67"/>
-      <c r="X101" s="67"/>
-      <c r="Y101" s="67"/>
-      <c r="Z101" s="67"/>
-      <c r="AA101" s="67"/>
-      <c r="AB101" s="67"/>
-      <c r="AC101" s="67"/>
-      <c r="AD101" s="67"/>
-      <c r="AE101" s="67"/>
-      <c r="AF101" s="67"/>
-      <c r="AG101" s="67"/>
-      <c r="AH101" s="67"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="72"/>
+      <c r="X101" s="72"/>
+      <c r="Y101" s="72"/>
+      <c r="Z101" s="72"/>
+      <c r="AA101" s="72"/>
+      <c r="AB101" s="72"/>
+      <c r="AC101" s="72"/>
+      <c r="AD101" s="72"/>
+      <c r="AE101" s="72"/>
+      <c r="AF101" s="72"/>
+      <c r="AG101" s="72"/>
+      <c r="AH101" s="72"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="68" t="s">
+      <c r="A102" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="68"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="69"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
-      <c r="U102" s="69"/>
-      <c r="V102" s="69"/>
-      <c r="W102" s="69"/>
-      <c r="X102" s="69"/>
-      <c r="Y102" s="69"/>
-      <c r="Z102" s="69"/>
-      <c r="AA102" s="69"/>
-      <c r="AB102" s="69"/>
-      <c r="AC102" s="69"/>
-      <c r="AD102" s="69"/>
-      <c r="AE102" s="69"/>
-      <c r="AF102" s="69"/>
-      <c r="AG102" s="69"/>
-      <c r="AH102" s="69"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="74"/>
+      <c r="W102" s="74"/>
+      <c r="X102" s="74"/>
+      <c r="Y102" s="74"/>
+      <c r="Z102" s="74"/>
+      <c r="AA102" s="74"/>
+      <c r="AB102" s="74"/>
+      <c r="AC102" s="74"/>
+      <c r="AD102" s="74"/>
+      <c r="AE102" s="74"/>
+      <c r="AF102" s="74"/>
+      <c r="AG102" s="74"/>
+      <c r="AH102" s="74"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
@@ -12510,7 +12514,7 @@
       <c r="AE103" s="70"/>
       <c r="AF103" s="70"/>
       <c r="AG103" s="70"/>
-      <c r="AH103" s="74" t="s">
+      <c r="AH103" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15133,118 +15137,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="71" t="s">
+      <c r="A168" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="72"/>
-      <c r="C168" s="73"/>
-      <c r="D168" s="73"/>
-      <c r="E168" s="73"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="73"/>
-      <c r="H168" s="73"/>
-      <c r="I168" s="73"/>
-      <c r="J168" s="73"/>
-      <c r="K168" s="73"/>
-      <c r="L168" s="73"/>
-      <c r="M168" s="73"/>
-      <c r="N168" s="73"/>
-      <c r="O168" s="73"/>
-      <c r="P168" s="73"/>
-      <c r="Q168" s="73"/>
-      <c r="R168" s="73"/>
-      <c r="S168" s="73"/>
-      <c r="T168" s="73"/>
-      <c r="U168" s="73"/>
-      <c r="V168" s="73"/>
-      <c r="W168" s="73"/>
-      <c r="X168" s="73"/>
-      <c r="Y168" s="73"/>
-      <c r="Z168" s="73"/>
-      <c r="AA168" s="73"/>
-      <c r="AB168" s="73"/>
-      <c r="AC168" s="73"/>
-      <c r="AD168" s="73"/>
-      <c r="AE168" s="73"/>
-      <c r="AF168" s="73"/>
-      <c r="AG168" s="73"/>
-      <c r="AH168" s="73"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="69"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
+      <c r="L168" s="69"/>
+      <c r="M168" s="69"/>
+      <c r="N168" s="69"/>
+      <c r="O168" s="69"/>
+      <c r="P168" s="69"/>
+      <c r="Q168" s="69"/>
+      <c r="R168" s="69"/>
+      <c r="S168" s="69"/>
+      <c r="T168" s="69"/>
+      <c r="U168" s="69"/>
+      <c r="V168" s="69"/>
+      <c r="W168" s="69"/>
+      <c r="X168" s="69"/>
+      <c r="Y168" s="69"/>
+      <c r="Z168" s="69"/>
+      <c r="AA168" s="69"/>
+      <c r="AB168" s="69"/>
+      <c r="AC168" s="69"/>
+      <c r="AD168" s="69"/>
+      <c r="AE168" s="69"/>
+      <c r="AF168" s="69"/>
+      <c r="AG168" s="69"/>
+      <c r="AH168" s="69"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="67" t="s">
+      <c r="A169" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="67"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="67"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="67"/>
-      <c r="H169" s="67"/>
-      <c r="I169" s="67"/>
-      <c r="J169" s="67"/>
-      <c r="K169" s="67"/>
-      <c r="L169" s="67"/>
-      <c r="M169" s="67"/>
-      <c r="N169" s="67"/>
-      <c r="O169" s="67"/>
-      <c r="P169" s="67"/>
-      <c r="Q169" s="67"/>
-      <c r="R169" s="67"/>
-      <c r="S169" s="67"/>
-      <c r="T169" s="67"/>
-      <c r="U169" s="67"/>
-      <c r="V169" s="67"/>
-      <c r="W169" s="67"/>
-      <c r="X169" s="67"/>
-      <c r="Y169" s="67"/>
-      <c r="Z169" s="67"/>
-      <c r="AA169" s="67"/>
-      <c r="AB169" s="67"/>
-      <c r="AC169" s="67"/>
-      <c r="AD169" s="67"/>
-      <c r="AE169" s="67"/>
-      <c r="AF169" s="67"/>
-      <c r="AG169" s="67"/>
-      <c r="AH169" s="67"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="72"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
+      <c r="N169" s="72"/>
+      <c r="O169" s="72"/>
+      <c r="P169" s="72"/>
+      <c r="Q169" s="72"/>
+      <c r="R169" s="72"/>
+      <c r="S169" s="72"/>
+      <c r="T169" s="72"/>
+      <c r="U169" s="72"/>
+      <c r="V169" s="72"/>
+      <c r="W169" s="72"/>
+      <c r="X169" s="72"/>
+      <c r="Y169" s="72"/>
+      <c r="Z169" s="72"/>
+      <c r="AA169" s="72"/>
+      <c r="AB169" s="72"/>
+      <c r="AC169" s="72"/>
+      <c r="AD169" s="72"/>
+      <c r="AE169" s="72"/>
+      <c r="AF169" s="72"/>
+      <c r="AG169" s="72"/>
+      <c r="AH169" s="72"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="68" t="s">
+      <c r="A170" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="68"/>
-      <c r="C170" s="69"/>
-      <c r="D170" s="69"/>
-      <c r="E170" s="69"/>
-      <c r="F170" s="69"/>
-      <c r="G170" s="69"/>
-      <c r="H170" s="69"/>
-      <c r="I170" s="69"/>
-      <c r="J170" s="69"/>
-      <c r="K170" s="69"/>
-      <c r="L170" s="69"/>
-      <c r="M170" s="69"/>
-      <c r="N170" s="69"/>
-      <c r="O170" s="69"/>
-      <c r="P170" s="69"/>
-      <c r="Q170" s="69"/>
-      <c r="R170" s="69"/>
-      <c r="S170" s="69"/>
-      <c r="T170" s="69"/>
-      <c r="U170" s="69"/>
-      <c r="V170" s="69"/>
-      <c r="W170" s="69"/>
-      <c r="X170" s="69"/>
-      <c r="Y170" s="69"/>
-      <c r="Z170" s="69"/>
-      <c r="AA170" s="69"/>
-      <c r="AB170" s="69"/>
-      <c r="AC170" s="69"/>
-      <c r="AD170" s="69"/>
-      <c r="AE170" s="69"/>
-      <c r="AF170" s="69"/>
-      <c r="AG170" s="69"/>
-      <c r="AH170" s="69"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="74"/>
+      <c r="L170" s="74"/>
+      <c r="M170" s="74"/>
+      <c r="N170" s="74"/>
+      <c r="O170" s="74"/>
+      <c r="P170" s="74"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="74"/>
+      <c r="S170" s="74"/>
+      <c r="T170" s="74"/>
+      <c r="U170" s="74"/>
+      <c r="V170" s="74"/>
+      <c r="W170" s="74"/>
+      <c r="X170" s="74"/>
+      <c r="Y170" s="74"/>
+      <c r="Z170" s="74"/>
+      <c r="AA170" s="74"/>
+      <c r="AB170" s="74"/>
+      <c r="AC170" s="74"/>
+      <c r="AD170" s="74"/>
+      <c r="AE170" s="74"/>
+      <c r="AF170" s="74"/>
+      <c r="AG170" s="74"/>
+      <c r="AH170" s="74"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="70" t="s">
@@ -15292,7 +15296,7 @@
       <c r="AE171" s="70"/>
       <c r="AF171" s="70"/>
       <c r="AG171" s="70"/>
-      <c r="AH171" s="74" t="s">
+      <c r="AH171" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16875,42 +16879,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="71" t="s">
+      <c r="A210" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="72"/>
-      <c r="C210" s="73"/>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
-      <c r="F210" s="73"/>
-      <c r="G210" s="73"/>
-      <c r="H210" s="73"/>
-      <c r="I210" s="73"/>
-      <c r="J210" s="73"/>
-      <c r="K210" s="73"/>
-      <c r="L210" s="73"/>
-      <c r="M210" s="73"/>
-      <c r="N210" s="73"/>
-      <c r="O210" s="73"/>
-      <c r="P210" s="73"/>
-      <c r="Q210" s="73"/>
-      <c r="R210" s="73"/>
-      <c r="S210" s="73"/>
-      <c r="T210" s="73"/>
-      <c r="U210" s="73"/>
-      <c r="V210" s="73"/>
-      <c r="W210" s="73"/>
-      <c r="X210" s="73"/>
-      <c r="Y210" s="73"/>
-      <c r="Z210" s="73"/>
-      <c r="AA210" s="73"/>
-      <c r="AB210" s="73"/>
-      <c r="AC210" s="73"/>
-      <c r="AD210" s="73"/>
-      <c r="AE210" s="73"/>
-      <c r="AF210" s="73"/>
-      <c r="AG210" s="73"/>
-      <c r="AH210" s="73"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="69"/>
+      <c r="D210" s="69"/>
+      <c r="E210" s="69"/>
+      <c r="F210" s="69"/>
+      <c r="G210" s="69"/>
+      <c r="H210" s="69"/>
+      <c r="I210" s="69"/>
+      <c r="J210" s="69"/>
+      <c r="K210" s="69"/>
+      <c r="L210" s="69"/>
+      <c r="M210" s="69"/>
+      <c r="N210" s="69"/>
+      <c r="O210" s="69"/>
+      <c r="P210" s="69"/>
+      <c r="Q210" s="69"/>
+      <c r="R210" s="69"/>
+      <c r="S210" s="69"/>
+      <c r="T210" s="69"/>
+      <c r="U210" s="69"/>
+      <c r="V210" s="69"/>
+      <c r="W210" s="69"/>
+      <c r="X210" s="69"/>
+      <c r="Y210" s="69"/>
+      <c r="Z210" s="69"/>
+      <c r="AA210" s="69"/>
+      <c r="AB210" s="69"/>
+      <c r="AC210" s="69"/>
+      <c r="AD210" s="69"/>
+      <c r="AE210" s="69"/>
+      <c r="AF210" s="69"/>
+      <c r="AG210" s="69"/>
+      <c r="AH210" s="69"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16949,80 +16953,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="67" t="s">
+      <c r="A212" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="67"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
-      <c r="L212" s="67"/>
-      <c r="M212" s="67"/>
-      <c r="N212" s="67"/>
-      <c r="O212" s="67"/>
-      <c r="P212" s="67"/>
-      <c r="Q212" s="67"/>
-      <c r="R212" s="67"/>
-      <c r="S212" s="67"/>
-      <c r="T212" s="67"/>
-      <c r="U212" s="67"/>
-      <c r="V212" s="67"/>
-      <c r="W212" s="67"/>
-      <c r="X212" s="67"/>
-      <c r="Y212" s="67"/>
-      <c r="Z212" s="67"/>
-      <c r="AA212" s="67"/>
-      <c r="AB212" s="67"/>
-      <c r="AC212" s="67"/>
-      <c r="AD212" s="67"/>
-      <c r="AE212" s="67"/>
-      <c r="AF212" s="67"/>
-      <c r="AG212" s="67"/>
-      <c r="AH212" s="67"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
+      <c r="H212" s="72"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
+      <c r="M212" s="72"/>
+      <c r="N212" s="72"/>
+      <c r="O212" s="72"/>
+      <c r="P212" s="72"/>
+      <c r="Q212" s="72"/>
+      <c r="R212" s="72"/>
+      <c r="S212" s="72"/>
+      <c r="T212" s="72"/>
+      <c r="U212" s="72"/>
+      <c r="V212" s="72"/>
+      <c r="W212" s="72"/>
+      <c r="X212" s="72"/>
+      <c r="Y212" s="72"/>
+      <c r="Z212" s="72"/>
+      <c r="AA212" s="72"/>
+      <c r="AB212" s="72"/>
+      <c r="AC212" s="72"/>
+      <c r="AD212" s="72"/>
+      <c r="AE212" s="72"/>
+      <c r="AF212" s="72"/>
+      <c r="AG212" s="72"/>
+      <c r="AH212" s="72"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="68"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="68"/>
-      <c r="F213" s="68"/>
-      <c r="G213" s="68"/>
-      <c r="H213" s="68"/>
-      <c r="I213" s="68"/>
-      <c r="J213" s="68"/>
-      <c r="K213" s="68"/>
-      <c r="L213" s="68"/>
-      <c r="M213" s="68"/>
-      <c r="N213" s="68"/>
-      <c r="O213" s="68"/>
-      <c r="P213" s="68"/>
-      <c r="Q213" s="68"/>
-      <c r="R213" s="68"/>
-      <c r="S213" s="68"/>
-      <c r="T213" s="68"/>
-      <c r="U213" s="68"/>
-      <c r="V213" s="68"/>
-      <c r="W213" s="68"/>
-      <c r="X213" s="68"/>
-      <c r="Y213" s="68"/>
-      <c r="Z213" s="68"/>
-      <c r="AA213" s="68"/>
-      <c r="AB213" s="68"/>
-      <c r="AC213" s="68"/>
-      <c r="AD213" s="68"/>
-      <c r="AE213" s="68"/>
-      <c r="AF213" s="68"/>
-      <c r="AG213" s="68"/>
-      <c r="AH213" s="68"/>
+      <c r="B213" s="73"/>
+      <c r="C213" s="73"/>
+      <c r="D213" s="73"/>
+      <c r="E213" s="73"/>
+      <c r="F213" s="73"/>
+      <c r="G213" s="73"/>
+      <c r="H213" s="73"/>
+      <c r="I213" s="73"/>
+      <c r="J213" s="73"/>
+      <c r="K213" s="73"/>
+      <c r="L213" s="73"/>
+      <c r="M213" s="73"/>
+      <c r="N213" s="73"/>
+      <c r="O213" s="73"/>
+      <c r="P213" s="73"/>
+      <c r="Q213" s="73"/>
+      <c r="R213" s="73"/>
+      <c r="S213" s="73"/>
+      <c r="T213" s="73"/>
+      <c r="U213" s="73"/>
+      <c r="V213" s="73"/>
+      <c r="W213" s="73"/>
+      <c r="X213" s="73"/>
+      <c r="Y213" s="73"/>
+      <c r="Z213" s="73"/>
+      <c r="AA213" s="73"/>
+      <c r="AB213" s="73"/>
+      <c r="AC213" s="73"/>
+      <c r="AD213" s="73"/>
+      <c r="AE213" s="73"/>
+      <c r="AF213" s="73"/>
+      <c r="AG213" s="73"/>
+      <c r="AH213" s="73"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="70" t="s">
@@ -17070,7 +17074,7 @@
       <c r="AE214" s="70"/>
       <c r="AF214" s="70"/>
       <c r="AG214" s="70"/>
-      <c r="AH214" s="74" t="s">
+      <c r="AH214" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19773,45 +19777,79 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="71" t="s">
+      <c r="A281" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="72"/>
-      <c r="C281" s="73"/>
-      <c r="D281" s="73"/>
-      <c r="E281" s="73"/>
-      <c r="F281" s="73"/>
-      <c r="G281" s="73"/>
-      <c r="H281" s="73"/>
-      <c r="I281" s="73"/>
-      <c r="J281" s="73"/>
-      <c r="K281" s="73"/>
-      <c r="L281" s="73"/>
-      <c r="M281" s="73"/>
-      <c r="N281" s="73"/>
-      <c r="O281" s="73"/>
-      <c r="P281" s="73"/>
-      <c r="Q281" s="73"/>
-      <c r="R281" s="73"/>
-      <c r="S281" s="73"/>
-      <c r="T281" s="73"/>
-      <c r="U281" s="73"/>
-      <c r="V281" s="73"/>
-      <c r="W281" s="73"/>
-      <c r="X281" s="73"/>
-      <c r="Y281" s="73"/>
-      <c r="Z281" s="73"/>
-      <c r="AA281" s="73"/>
-      <c r="AB281" s="73"/>
-      <c r="AC281" s="73"/>
-      <c r="AD281" s="73"/>
-      <c r="AE281" s="73"/>
-      <c r="AF281" s="73"/>
-      <c r="AG281" s="73"/>
-      <c r="AH281" s="73"/>
+      <c r="B281" s="68"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
+      <c r="J281" s="69"/>
+      <c r="K281" s="69"/>
+      <c r="L281" s="69"/>
+      <c r="M281" s="69"/>
+      <c r="N281" s="69"/>
+      <c r="O281" s="69"/>
+      <c r="P281" s="69"/>
+      <c r="Q281" s="69"/>
+      <c r="R281" s="69"/>
+      <c r="S281" s="69"/>
+      <c r="T281" s="69"/>
+      <c r="U281" s="69"/>
+      <c r="V281" s="69"/>
+      <c r="W281" s="69"/>
+      <c r="X281" s="69"/>
+      <c r="Y281" s="69"/>
+      <c r="Z281" s="69"/>
+      <c r="AA281" s="69"/>
+      <c r="AB281" s="69"/>
+      <c r="AC281" s="69"/>
+      <c r="AD281" s="69"/>
+      <c r="AE281" s="69"/>
+      <c r="AF281" s="69"/>
+      <c r="AG281" s="69"/>
+      <c r="AH281" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19828,40 +19866,6 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19873,8 +19877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19895,80 +19899,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -20016,7 +20020,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22773,42 +22777,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="72"/>
-      <c r="X71" s="72"/>
-      <c r="Y71" s="72"/>
-      <c r="Z71" s="72"/>
-      <c r="AA71" s="72"/>
-      <c r="AB71" s="72"/>
-      <c r="AC71" s="72"/>
-      <c r="AD71" s="72"/>
-      <c r="AE71" s="72"/>
-      <c r="AF71" s="72"/>
-      <c r="AG71" s="72"/>
-      <c r="AH71" s="72"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="68"/>
+      <c r="X71" s="68"/>
+      <c r="Y71" s="68"/>
+      <c r="Z71" s="68"/>
+      <c r="AA71" s="68"/>
+      <c r="AB71" s="68"/>
+      <c r="AC71" s="68"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+      <c r="AH71" s="68"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22847,80 +22851,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
-      <c r="Y73" s="67"/>
-      <c r="Z73" s="67"/>
-      <c r="AA73" s="67"/>
-      <c r="AB73" s="67"/>
-      <c r="AC73" s="67"/>
-      <c r="AD73" s="67"/>
-      <c r="AE73" s="67"/>
-      <c r="AF73" s="67"/>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
+      <c r="AH73" s="72"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="73" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
-      <c r="X74" s="68"/>
-      <c r="Y74" s="68"/>
-      <c r="Z74" s="68"/>
-      <c r="AA74" s="68"/>
-      <c r="AB74" s="68"/>
-      <c r="AC74" s="68"/>
-      <c r="AD74" s="68"/>
-      <c r="AE74" s="68"/>
-      <c r="AF74" s="68"/>
-      <c r="AG74" s="68"/>
-      <c r="AH74" s="68"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="W74" s="73"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="73"/>
+      <c r="Z74" s="73"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
+      <c r="AC74" s="73"/>
+      <c r="AD74" s="73"/>
+      <c r="AE74" s="73"/>
+      <c r="AF74" s="73"/>
+      <c r="AG74" s="73"/>
+      <c r="AH74" s="73"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
@@ -22968,7 +22972,7 @@
       <c r="AE75" s="70"/>
       <c r="AF75" s="70"/>
       <c r="AG75" s="70"/>
-      <c r="AH75" s="74" t="s">
+      <c r="AH75" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25627,118 +25631,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="71" t="s">
+      <c r="A141" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="72"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="72"/>
-      <c r="I141" s="72"/>
-      <c r="J141" s="72"/>
-      <c r="K141" s="72"/>
-      <c r="L141" s="72"/>
-      <c r="M141" s="72"/>
-      <c r="N141" s="72"/>
-      <c r="O141" s="72"/>
-      <c r="P141" s="72"/>
-      <c r="Q141" s="72"/>
-      <c r="R141" s="72"/>
-      <c r="S141" s="72"/>
-      <c r="T141" s="72"/>
-      <c r="U141" s="72"/>
-      <c r="V141" s="72"/>
-      <c r="W141" s="72"/>
-      <c r="X141" s="72"/>
-      <c r="Y141" s="72"/>
-      <c r="Z141" s="72"/>
-      <c r="AA141" s="72"/>
-      <c r="AB141" s="72"/>
-      <c r="AC141" s="72"/>
-      <c r="AD141" s="72"/>
-      <c r="AE141" s="72"/>
-      <c r="AF141" s="72"/>
-      <c r="AG141" s="72"/>
-      <c r="AH141" s="72"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
+      <c r="I141" s="68"/>
+      <c r="J141" s="68"/>
+      <c r="K141" s="68"/>
+      <c r="L141" s="68"/>
+      <c r="M141" s="68"/>
+      <c r="N141" s="68"/>
+      <c r="O141" s="68"/>
+      <c r="P141" s="68"/>
+      <c r="Q141" s="68"/>
+      <c r="R141" s="68"/>
+      <c r="S141" s="68"/>
+      <c r="T141" s="68"/>
+      <c r="U141" s="68"/>
+      <c r="V141" s="68"/>
+      <c r="W141" s="68"/>
+      <c r="X141" s="68"/>
+      <c r="Y141" s="68"/>
+      <c r="Z141" s="68"/>
+      <c r="AA141" s="68"/>
+      <c r="AB141" s="68"/>
+      <c r="AC141" s="68"/>
+      <c r="AD141" s="68"/>
+      <c r="AE141" s="68"/>
+      <c r="AF141" s="68"/>
+      <c r="AG141" s="68"/>
+      <c r="AH141" s="68"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="67" t="s">
+      <c r="A142" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="67"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="67"/>
-      <c r="L142" s="67"/>
-      <c r="M142" s="67"/>
-      <c r="N142" s="67"/>
-      <c r="O142" s="67"/>
-      <c r="P142" s="67"/>
-      <c r="Q142" s="67"/>
-      <c r="R142" s="67"/>
-      <c r="S142" s="67"/>
-      <c r="T142" s="67"/>
-      <c r="U142" s="67"/>
-      <c r="V142" s="67"/>
-      <c r="W142" s="67"/>
-      <c r="X142" s="67"/>
-      <c r="Y142" s="67"/>
-      <c r="Z142" s="67"/>
-      <c r="AA142" s="67"/>
-      <c r="AB142" s="67"/>
-      <c r="AC142" s="67"/>
-      <c r="AD142" s="67"/>
-      <c r="AE142" s="67"/>
-      <c r="AF142" s="67"/>
-      <c r="AG142" s="67"/>
-      <c r="AH142" s="67"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
+      <c r="N142" s="72"/>
+      <c r="O142" s="72"/>
+      <c r="P142" s="72"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72"/>
+      <c r="T142" s="72"/>
+      <c r="U142" s="72"/>
+      <c r="V142" s="72"/>
+      <c r="W142" s="72"/>
+      <c r="X142" s="72"/>
+      <c r="Y142" s="72"/>
+      <c r="Z142" s="72"/>
+      <c r="AA142" s="72"/>
+      <c r="AB142" s="72"/>
+      <c r="AC142" s="72"/>
+      <c r="AD142" s="72"/>
+      <c r="AE142" s="72"/>
+      <c r="AF142" s="72"/>
+      <c r="AG142" s="72"/>
+      <c r="AH142" s="72"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="73" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="68"/>
-      <c r="I143" s="68"/>
-      <c r="J143" s="68"/>
-      <c r="K143" s="68"/>
-      <c r="L143" s="68"/>
-      <c r="M143" s="68"/>
-      <c r="N143" s="68"/>
-      <c r="O143" s="68"/>
-      <c r="P143" s="68"/>
-      <c r="Q143" s="68"/>
-      <c r="R143" s="68"/>
-      <c r="S143" s="68"/>
-      <c r="T143" s="68"/>
-      <c r="U143" s="68"/>
-      <c r="V143" s="68"/>
-      <c r="W143" s="68"/>
-      <c r="X143" s="68"/>
-      <c r="Y143" s="68"/>
-      <c r="Z143" s="68"/>
-      <c r="AA143" s="68"/>
-      <c r="AB143" s="68"/>
-      <c r="AC143" s="68"/>
-      <c r="AD143" s="68"/>
-      <c r="AE143" s="68"/>
-      <c r="AF143" s="68"/>
-      <c r="AG143" s="68"/>
-      <c r="AH143" s="68"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="73"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+      <c r="K143" s="73"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="73"/>
+      <c r="O143" s="73"/>
+      <c r="P143" s="73"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="73"/>
+      <c r="S143" s="73"/>
+      <c r="T143" s="73"/>
+      <c r="U143" s="73"/>
+      <c r="V143" s="73"/>
+      <c r="W143" s="73"/>
+      <c r="X143" s="73"/>
+      <c r="Y143" s="73"/>
+      <c r="Z143" s="73"/>
+      <c r="AA143" s="73"/>
+      <c r="AB143" s="73"/>
+      <c r="AC143" s="73"/>
+      <c r="AD143" s="73"/>
+      <c r="AE143" s="73"/>
+      <c r="AF143" s="73"/>
+      <c r="AG143" s="73"/>
+      <c r="AH143" s="73"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
@@ -25786,7 +25790,7 @@
       <c r="AE144" s="70"/>
       <c r="AF144" s="70"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="74" t="s">
+      <c r="AH144" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28249,118 +28253,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="71" t="s">
+      <c r="A205" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="72"/>
-      <c r="C205" s="72"/>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="72"/>
-      <c r="L205" s="72"/>
-      <c r="M205" s="72"/>
-      <c r="N205" s="72"/>
-      <c r="O205" s="72"/>
-      <c r="P205" s="72"/>
-      <c r="Q205" s="72"/>
-      <c r="R205" s="72"/>
-      <c r="S205" s="72"/>
-      <c r="T205" s="72"/>
-      <c r="U205" s="72"/>
-      <c r="V205" s="72"/>
-      <c r="W205" s="72"/>
-      <c r="X205" s="72"/>
-      <c r="Y205" s="72"/>
-      <c r="Z205" s="72"/>
-      <c r="AA205" s="72"/>
-      <c r="AB205" s="72"/>
-      <c r="AC205" s="72"/>
-      <c r="AD205" s="72"/>
-      <c r="AE205" s="72"/>
-      <c r="AF205" s="72"/>
-      <c r="AG205" s="72"/>
-      <c r="AH205" s="72"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
+      <c r="J205" s="68"/>
+      <c r="K205" s="68"/>
+      <c r="L205" s="68"/>
+      <c r="M205" s="68"/>
+      <c r="N205" s="68"/>
+      <c r="O205" s="68"/>
+      <c r="P205" s="68"/>
+      <c r="Q205" s="68"/>
+      <c r="R205" s="68"/>
+      <c r="S205" s="68"/>
+      <c r="T205" s="68"/>
+      <c r="U205" s="68"/>
+      <c r="V205" s="68"/>
+      <c r="W205" s="68"/>
+      <c r="X205" s="68"/>
+      <c r="Y205" s="68"/>
+      <c r="Z205" s="68"/>
+      <c r="AA205" s="68"/>
+      <c r="AB205" s="68"/>
+      <c r="AC205" s="68"/>
+      <c r="AD205" s="68"/>
+      <c r="AE205" s="68"/>
+      <c r="AF205" s="68"/>
+      <c r="AG205" s="68"/>
+      <c r="AH205" s="68"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="67" t="s">
+      <c r="A207" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="67"/>
-      <c r="C207" s="67"/>
-      <c r="D207" s="67"/>
-      <c r="E207" s="67"/>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67"/>
-      <c r="I207" s="67"/>
-      <c r="J207" s="67"/>
-      <c r="K207" s="67"/>
-      <c r="L207" s="67"/>
-      <c r="M207" s="67"/>
-      <c r="N207" s="67"/>
-      <c r="O207" s="67"/>
-      <c r="P207" s="67"/>
-      <c r="Q207" s="67"/>
-      <c r="R207" s="67"/>
-      <c r="S207" s="67"/>
-      <c r="T207" s="67"/>
-      <c r="U207" s="67"/>
-      <c r="V207" s="67"/>
-      <c r="W207" s="67"/>
-      <c r="X207" s="67"/>
-      <c r="Y207" s="67"/>
-      <c r="Z207" s="67"/>
-      <c r="AA207" s="67"/>
-      <c r="AB207" s="67"/>
-      <c r="AC207" s="67"/>
-      <c r="AD207" s="67"/>
-      <c r="AE207" s="67"/>
-      <c r="AF207" s="67"/>
-      <c r="AG207" s="67"/>
-      <c r="AH207" s="67"/>
+      <c r="B207" s="72"/>
+      <c r="C207" s="72"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="72"/>
+      <c r="H207" s="72"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="72"/>
+      <c r="L207" s="72"/>
+      <c r="M207" s="72"/>
+      <c r="N207" s="72"/>
+      <c r="O207" s="72"/>
+      <c r="P207" s="72"/>
+      <c r="Q207" s="72"/>
+      <c r="R207" s="72"/>
+      <c r="S207" s="72"/>
+      <c r="T207" s="72"/>
+      <c r="U207" s="72"/>
+      <c r="V207" s="72"/>
+      <c r="W207" s="72"/>
+      <c r="X207" s="72"/>
+      <c r="Y207" s="72"/>
+      <c r="Z207" s="72"/>
+      <c r="AA207" s="72"/>
+      <c r="AB207" s="72"/>
+      <c r="AC207" s="72"/>
+      <c r="AD207" s="72"/>
+      <c r="AE207" s="72"/>
+      <c r="AF207" s="72"/>
+      <c r="AG207" s="72"/>
+      <c r="AH207" s="72"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="68" t="s">
+      <c r="A208" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="68"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="68"/>
-      <c r="H208" s="68"/>
-      <c r="I208" s="68"/>
-      <c r="J208" s="68"/>
-      <c r="K208" s="68"/>
-      <c r="L208" s="68"/>
-      <c r="M208" s="68"/>
-      <c r="N208" s="68"/>
-      <c r="O208" s="68"/>
-      <c r="P208" s="68"/>
-      <c r="Q208" s="68"/>
-      <c r="R208" s="68"/>
-      <c r="S208" s="68"/>
-      <c r="T208" s="68"/>
-      <c r="U208" s="68"/>
-      <c r="V208" s="68"/>
-      <c r="W208" s="68"/>
-      <c r="X208" s="68"/>
-      <c r="Y208" s="68"/>
-      <c r="Z208" s="68"/>
-      <c r="AA208" s="68"/>
-      <c r="AB208" s="68"/>
-      <c r="AC208" s="68"/>
-      <c r="AD208" s="68"/>
-      <c r="AE208" s="68"/>
-      <c r="AF208" s="68"/>
-      <c r="AG208" s="68"/>
-      <c r="AH208" s="68"/>
+      <c r="B208" s="73"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+      <c r="G208" s="73"/>
+      <c r="H208" s="73"/>
+      <c r="I208" s="73"/>
+      <c r="J208" s="73"/>
+      <c r="K208" s="73"/>
+      <c r="L208" s="73"/>
+      <c r="M208" s="73"/>
+      <c r="N208" s="73"/>
+      <c r="O208" s="73"/>
+      <c r="P208" s="73"/>
+      <c r="Q208" s="73"/>
+      <c r="R208" s="73"/>
+      <c r="S208" s="73"/>
+      <c r="T208" s="73"/>
+      <c r="U208" s="73"/>
+      <c r="V208" s="73"/>
+      <c r="W208" s="73"/>
+      <c r="X208" s="73"/>
+      <c r="Y208" s="73"/>
+      <c r="Z208" s="73"/>
+      <c r="AA208" s="73"/>
+      <c r="AB208" s="73"/>
+      <c r="AC208" s="73"/>
+      <c r="AD208" s="73"/>
+      <c r="AE208" s="73"/>
+      <c r="AF208" s="73"/>
+      <c r="AG208" s="73"/>
+      <c r="AH208" s="73"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="70" t="s">
@@ -28408,7 +28412,7 @@
       <c r="AE209" s="70"/>
       <c r="AF209" s="70"/>
       <c r="AG209" s="70"/>
-      <c r="AH209" s="74" t="s">
+      <c r="AH209" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30333,118 +30337,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="71" t="s">
+      <c r="A256" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="72"/>
-      <c r="C256" s="72"/>
-      <c r="D256" s="72"/>
-      <c r="E256" s="72"/>
-      <c r="F256" s="72"/>
-      <c r="G256" s="72"/>
-      <c r="H256" s="72"/>
-      <c r="I256" s="72"/>
-      <c r="J256" s="72"/>
-      <c r="K256" s="72"/>
-      <c r="L256" s="72"/>
-      <c r="M256" s="72"/>
-      <c r="N256" s="72"/>
-      <c r="O256" s="72"/>
-      <c r="P256" s="72"/>
-      <c r="Q256" s="72"/>
-      <c r="R256" s="72"/>
-      <c r="S256" s="72"/>
-      <c r="T256" s="72"/>
-      <c r="U256" s="72"/>
-      <c r="V256" s="72"/>
-      <c r="W256" s="72"/>
-      <c r="X256" s="72"/>
-      <c r="Y256" s="72"/>
-      <c r="Z256" s="72"/>
-      <c r="AA256" s="72"/>
-      <c r="AB256" s="72"/>
-      <c r="AC256" s="72"/>
-      <c r="AD256" s="72"/>
-      <c r="AE256" s="72"/>
-      <c r="AF256" s="72"/>
-      <c r="AG256" s="72"/>
-      <c r="AH256" s="72"/>
+      <c r="B256" s="68"/>
+      <c r="C256" s="68"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="68"/>
+      <c r="F256" s="68"/>
+      <c r="G256" s="68"/>
+      <c r="H256" s="68"/>
+      <c r="I256" s="68"/>
+      <c r="J256" s="68"/>
+      <c r="K256" s="68"/>
+      <c r="L256" s="68"/>
+      <c r="M256" s="68"/>
+      <c r="N256" s="68"/>
+      <c r="O256" s="68"/>
+      <c r="P256" s="68"/>
+      <c r="Q256" s="68"/>
+      <c r="R256" s="68"/>
+      <c r="S256" s="68"/>
+      <c r="T256" s="68"/>
+      <c r="U256" s="68"/>
+      <c r="V256" s="68"/>
+      <c r="W256" s="68"/>
+      <c r="X256" s="68"/>
+      <c r="Y256" s="68"/>
+      <c r="Z256" s="68"/>
+      <c r="AA256" s="68"/>
+      <c r="AB256" s="68"/>
+      <c r="AC256" s="68"/>
+      <c r="AD256" s="68"/>
+      <c r="AE256" s="68"/>
+      <c r="AF256" s="68"/>
+      <c r="AG256" s="68"/>
+      <c r="AH256" s="68"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="67" t="s">
+      <c r="A258" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="67"/>
-      <c r="C258" s="67"/>
-      <c r="D258" s="67"/>
-      <c r="E258" s="67"/>
-      <c r="F258" s="67"/>
-      <c r="G258" s="67"/>
-      <c r="H258" s="67"/>
-      <c r="I258" s="67"/>
-      <c r="J258" s="67"/>
-      <c r="K258" s="67"/>
-      <c r="L258" s="67"/>
-      <c r="M258" s="67"/>
-      <c r="N258" s="67"/>
-      <c r="O258" s="67"/>
-      <c r="P258" s="67"/>
-      <c r="Q258" s="67"/>
-      <c r="R258" s="67"/>
-      <c r="S258" s="67"/>
-      <c r="T258" s="67"/>
-      <c r="U258" s="67"/>
-      <c r="V258" s="67"/>
-      <c r="W258" s="67"/>
-      <c r="X258" s="67"/>
-      <c r="Y258" s="67"/>
-      <c r="Z258" s="67"/>
-      <c r="AA258" s="67"/>
-      <c r="AB258" s="67"/>
-      <c r="AC258" s="67"/>
-      <c r="AD258" s="67"/>
-      <c r="AE258" s="67"/>
-      <c r="AF258" s="67"/>
-      <c r="AG258" s="67"/>
-      <c r="AH258" s="67"/>
+      <c r="B258" s="72"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="72"/>
+      <c r="E258" s="72"/>
+      <c r="F258" s="72"/>
+      <c r="G258" s="72"/>
+      <c r="H258" s="72"/>
+      <c r="I258" s="72"/>
+      <c r="J258" s="72"/>
+      <c r="K258" s="72"/>
+      <c r="L258" s="72"/>
+      <c r="M258" s="72"/>
+      <c r="N258" s="72"/>
+      <c r="O258" s="72"/>
+      <c r="P258" s="72"/>
+      <c r="Q258" s="72"/>
+      <c r="R258" s="72"/>
+      <c r="S258" s="72"/>
+      <c r="T258" s="72"/>
+      <c r="U258" s="72"/>
+      <c r="V258" s="72"/>
+      <c r="W258" s="72"/>
+      <c r="X258" s="72"/>
+      <c r="Y258" s="72"/>
+      <c r="Z258" s="72"/>
+      <c r="AA258" s="72"/>
+      <c r="AB258" s="72"/>
+      <c r="AC258" s="72"/>
+      <c r="AD258" s="72"/>
+      <c r="AE258" s="72"/>
+      <c r="AF258" s="72"/>
+      <c r="AG258" s="72"/>
+      <c r="AH258" s="72"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="68" t="s">
+      <c r="A259" s="73" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="68"/>
-      <c r="C259" s="68"/>
-      <c r="D259" s="68"/>
-      <c r="E259" s="68"/>
-      <c r="F259" s="68"/>
-      <c r="G259" s="68"/>
-      <c r="H259" s="68"/>
-      <c r="I259" s="68"/>
-      <c r="J259" s="68"/>
-      <c r="K259" s="68"/>
-      <c r="L259" s="68"/>
-      <c r="M259" s="68"/>
-      <c r="N259" s="68"/>
-      <c r="O259" s="68"/>
-      <c r="P259" s="68"/>
-      <c r="Q259" s="68"/>
-      <c r="R259" s="68"/>
-      <c r="S259" s="68"/>
-      <c r="T259" s="68"/>
-      <c r="U259" s="68"/>
-      <c r="V259" s="68"/>
-      <c r="W259" s="68"/>
-      <c r="X259" s="68"/>
-      <c r="Y259" s="68"/>
-      <c r="Z259" s="68"/>
-      <c r="AA259" s="68"/>
-      <c r="AB259" s="68"/>
-      <c r="AC259" s="68"/>
-      <c r="AD259" s="68"/>
-      <c r="AE259" s="68"/>
-      <c r="AF259" s="68"/>
-      <c r="AG259" s="68"/>
-      <c r="AH259" s="68"/>
+      <c r="B259" s="73"/>
+      <c r="C259" s="73"/>
+      <c r="D259" s="73"/>
+      <c r="E259" s="73"/>
+      <c r="F259" s="73"/>
+      <c r="G259" s="73"/>
+      <c r="H259" s="73"/>
+      <c r="I259" s="73"/>
+      <c r="J259" s="73"/>
+      <c r="K259" s="73"/>
+      <c r="L259" s="73"/>
+      <c r="M259" s="73"/>
+      <c r="N259" s="73"/>
+      <c r="O259" s="73"/>
+      <c r="P259" s="73"/>
+      <c r="Q259" s="73"/>
+      <c r="R259" s="73"/>
+      <c r="S259" s="73"/>
+      <c r="T259" s="73"/>
+      <c r="U259" s="73"/>
+      <c r="V259" s="73"/>
+      <c r="W259" s="73"/>
+      <c r="X259" s="73"/>
+      <c r="Y259" s="73"/>
+      <c r="Z259" s="73"/>
+      <c r="AA259" s="73"/>
+      <c r="AB259" s="73"/>
+      <c r="AC259" s="73"/>
+      <c r="AD259" s="73"/>
+      <c r="AE259" s="73"/>
+      <c r="AF259" s="73"/>
+      <c r="AG259" s="73"/>
+      <c r="AH259" s="73"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
@@ -30492,7 +30496,7 @@
       <c r="AE260" s="70"/>
       <c r="AF260" s="70"/>
       <c r="AG260" s="70"/>
-      <c r="AH260" s="74" t="s">
+      <c r="AH260" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32115,118 +32119,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="71" t="s">
+      <c r="A300" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="72"/>
-      <c r="C300" s="72"/>
-      <c r="D300" s="72"/>
-      <c r="E300" s="72"/>
-      <c r="F300" s="72"/>
-      <c r="G300" s="72"/>
-      <c r="H300" s="72"/>
-      <c r="I300" s="72"/>
-      <c r="J300" s="72"/>
-      <c r="K300" s="72"/>
-      <c r="L300" s="72"/>
-      <c r="M300" s="72"/>
-      <c r="N300" s="72"/>
-      <c r="O300" s="72"/>
-      <c r="P300" s="72"/>
-      <c r="Q300" s="72"/>
-      <c r="R300" s="72"/>
-      <c r="S300" s="72"/>
-      <c r="T300" s="72"/>
-      <c r="U300" s="72"/>
-      <c r="V300" s="72"/>
-      <c r="W300" s="72"/>
-      <c r="X300" s="72"/>
-      <c r="Y300" s="72"/>
-      <c r="Z300" s="72"/>
-      <c r="AA300" s="72"/>
-      <c r="AB300" s="72"/>
-      <c r="AC300" s="72"/>
-      <c r="AD300" s="72"/>
-      <c r="AE300" s="72"/>
-      <c r="AF300" s="72"/>
-      <c r="AG300" s="72"/>
-      <c r="AH300" s="72"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="68"/>
+      <c r="D300" s="68"/>
+      <c r="E300" s="68"/>
+      <c r="F300" s="68"/>
+      <c r="G300" s="68"/>
+      <c r="H300" s="68"/>
+      <c r="I300" s="68"/>
+      <c r="J300" s="68"/>
+      <c r="K300" s="68"/>
+      <c r="L300" s="68"/>
+      <c r="M300" s="68"/>
+      <c r="N300" s="68"/>
+      <c r="O300" s="68"/>
+      <c r="P300" s="68"/>
+      <c r="Q300" s="68"/>
+      <c r="R300" s="68"/>
+      <c r="S300" s="68"/>
+      <c r="T300" s="68"/>
+      <c r="U300" s="68"/>
+      <c r="V300" s="68"/>
+      <c r="W300" s="68"/>
+      <c r="X300" s="68"/>
+      <c r="Y300" s="68"/>
+      <c r="Z300" s="68"/>
+      <c r="AA300" s="68"/>
+      <c r="AB300" s="68"/>
+      <c r="AC300" s="68"/>
+      <c r="AD300" s="68"/>
+      <c r="AE300" s="68"/>
+      <c r="AF300" s="68"/>
+      <c r="AG300" s="68"/>
+      <c r="AH300" s="68"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="67" t="s">
+      <c r="A301" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="67"/>
-      <c r="C301" s="67"/>
-      <c r="D301" s="67"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
-      <c r="I301" s="67"/>
-      <c r="J301" s="67"/>
-      <c r="K301" s="67"/>
-      <c r="L301" s="67"/>
-      <c r="M301" s="67"/>
-      <c r="N301" s="67"/>
-      <c r="O301" s="67"/>
-      <c r="P301" s="67"/>
-      <c r="Q301" s="67"/>
-      <c r="R301" s="67"/>
-      <c r="S301" s="67"/>
-      <c r="T301" s="67"/>
-      <c r="U301" s="67"/>
-      <c r="V301" s="67"/>
-      <c r="W301" s="67"/>
-      <c r="X301" s="67"/>
-      <c r="Y301" s="67"/>
-      <c r="Z301" s="67"/>
-      <c r="AA301" s="67"/>
-      <c r="AB301" s="67"/>
-      <c r="AC301" s="67"/>
-      <c r="AD301" s="67"/>
-      <c r="AE301" s="67"/>
-      <c r="AF301" s="67"/>
-      <c r="AG301" s="67"/>
-      <c r="AH301" s="67"/>
+      <c r="B301" s="72"/>
+      <c r="C301" s="72"/>
+      <c r="D301" s="72"/>
+      <c r="E301" s="72"/>
+      <c r="F301" s="72"/>
+      <c r="G301" s="72"/>
+      <c r="H301" s="72"/>
+      <c r="I301" s="72"/>
+      <c r="J301" s="72"/>
+      <c r="K301" s="72"/>
+      <c r="L301" s="72"/>
+      <c r="M301" s="72"/>
+      <c r="N301" s="72"/>
+      <c r="O301" s="72"/>
+      <c r="P301" s="72"/>
+      <c r="Q301" s="72"/>
+      <c r="R301" s="72"/>
+      <c r="S301" s="72"/>
+      <c r="T301" s="72"/>
+      <c r="U301" s="72"/>
+      <c r="V301" s="72"/>
+      <c r="W301" s="72"/>
+      <c r="X301" s="72"/>
+      <c r="Y301" s="72"/>
+      <c r="Z301" s="72"/>
+      <c r="AA301" s="72"/>
+      <c r="AB301" s="72"/>
+      <c r="AC301" s="72"/>
+      <c r="AD301" s="72"/>
+      <c r="AE301" s="72"/>
+      <c r="AF301" s="72"/>
+      <c r="AG301" s="72"/>
+      <c r="AH301" s="72"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="68" t="s">
+      <c r="A302" s="73" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="68"/>
-      <c r="C302" s="68"/>
-      <c r="D302" s="68"/>
-      <c r="E302" s="68"/>
-      <c r="F302" s="68"/>
-      <c r="G302" s="68"/>
-      <c r="H302" s="68"/>
-      <c r="I302" s="68"/>
-      <c r="J302" s="68"/>
-      <c r="K302" s="68"/>
-      <c r="L302" s="68"/>
-      <c r="M302" s="68"/>
-      <c r="N302" s="68"/>
-      <c r="O302" s="68"/>
-      <c r="P302" s="68"/>
-      <c r="Q302" s="68"/>
-      <c r="R302" s="68"/>
-      <c r="S302" s="68"/>
-      <c r="T302" s="68"/>
-      <c r="U302" s="68"/>
-      <c r="V302" s="68"/>
-      <c r="W302" s="68"/>
-      <c r="X302" s="68"/>
-      <c r="Y302" s="68"/>
-      <c r="Z302" s="68"/>
-      <c r="AA302" s="68"/>
-      <c r="AB302" s="68"/>
-      <c r="AC302" s="68"/>
-      <c r="AD302" s="68"/>
-      <c r="AE302" s="68"/>
-      <c r="AF302" s="68"/>
-      <c r="AG302" s="68"/>
-      <c r="AH302" s="68"/>
+      <c r="B302" s="73"/>
+      <c r="C302" s="73"/>
+      <c r="D302" s="73"/>
+      <c r="E302" s="73"/>
+      <c r="F302" s="73"/>
+      <c r="G302" s="73"/>
+      <c r="H302" s="73"/>
+      <c r="I302" s="73"/>
+      <c r="J302" s="73"/>
+      <c r="K302" s="73"/>
+      <c r="L302" s="73"/>
+      <c r="M302" s="73"/>
+      <c r="N302" s="73"/>
+      <c r="O302" s="73"/>
+      <c r="P302" s="73"/>
+      <c r="Q302" s="73"/>
+      <c r="R302" s="73"/>
+      <c r="S302" s="73"/>
+      <c r="T302" s="73"/>
+      <c r="U302" s="73"/>
+      <c r="V302" s="73"/>
+      <c r="W302" s="73"/>
+      <c r="X302" s="73"/>
+      <c r="Y302" s="73"/>
+      <c r="Z302" s="73"/>
+      <c r="AA302" s="73"/>
+      <c r="AB302" s="73"/>
+      <c r="AC302" s="73"/>
+      <c r="AD302" s="73"/>
+      <c r="AE302" s="73"/>
+      <c r="AF302" s="73"/>
+      <c r="AG302" s="73"/>
+      <c r="AH302" s="73"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="70" t="s">
@@ -32274,7 +32278,7 @@
       <c r="AE303" s="70"/>
       <c r="AF303" s="70"/>
       <c r="AG303" s="70"/>
-      <c r="AH303" s="74" t="s">
+      <c r="AH303" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32296,8 +32300,8 @@
       <c r="G304" s="59" t="s">
         <v>1725</v>
       </c>
-      <c r="H304" s="3">
-        <v>6</v>
+      <c r="H304" s="59" t="s">
+        <v>1731</v>
       </c>
       <c r="I304" s="3">
         <v>7</v>
@@ -32430,7 +32434,7 @@
       <c r="E306" s="52"/>
       <c r="F306" s="52"/>
       <c r="G306" s="52"/>
-      <c r="H306" s="3"/>
+      <c r="H306" s="52"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
       <c r="K306" s="9"/>
@@ -32470,7 +32474,7 @@
       <c r="E307" s="52"/>
       <c r="F307" s="52"/>
       <c r="G307" s="52"/>
-      <c r="H307" s="3"/>
+      <c r="H307" s="52"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="9"/>
@@ -32670,7 +32674,7 @@
       <c r="E312" s="52"/>
       <c r="F312" s="51"/>
       <c r="G312" s="52"/>
-      <c r="H312" s="3"/>
+      <c r="H312" s="52"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="9"/>
@@ -32872,7 +32876,7 @@
       <c r="G317" s="53" t="s">
         <v>1728</v>
       </c>
-      <c r="H317" s="3"/>
+      <c r="H317" s="52"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="9"/>
@@ -32992,7 +32996,7 @@
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
+      <c r="H320" s="53"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="9"/>
@@ -33072,7 +33076,7 @@
       <c r="E322" s="52"/>
       <c r="F322" s="52"/>
       <c r="G322" s="52"/>
-      <c r="H322" s="3"/>
+      <c r="H322" s="52"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="9"/>
@@ -33112,7 +33116,7 @@
       <c r="E323" s="3"/>
       <c r="F323" s="52"/>
       <c r="G323" s="52"/>
-      <c r="H323" s="3"/>
+      <c r="H323" s="53"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="9"/>
@@ -33272,7 +33276,7 @@
       <c r="E327" s="52"/>
       <c r="F327" s="52"/>
       <c r="G327" s="52"/>
-      <c r="H327" s="3"/>
+      <c r="H327" s="53"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="9"/>
@@ -33312,7 +33316,7 @@
       <c r="E328" s="52"/>
       <c r="F328" s="52"/>
       <c r="G328" s="52"/>
-      <c r="H328" s="3"/>
+      <c r="H328" s="52"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
       <c r="K328" s="9"/>
@@ -33352,7 +33356,7 @@
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
       <c r="G329" s="52"/>
-      <c r="H329" s="3"/>
+      <c r="H329" s="52"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
       <c r="K329" s="9"/>
@@ -33512,7 +33516,7 @@
       <c r="E333" s="52"/>
       <c r="F333" s="52"/>
       <c r="G333" s="52"/>
-      <c r="H333" s="3"/>
+      <c r="H333" s="52"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="9"/>
@@ -33632,7 +33636,7 @@
       <c r="E336" s="52"/>
       <c r="F336" s="52"/>
       <c r="G336" s="52"/>
-      <c r="H336" s="3"/>
+      <c r="H336" s="52"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="9"/>
@@ -33792,7 +33796,7 @@
       <c r="E340" s="52"/>
       <c r="F340" s="52"/>
       <c r="G340" s="52"/>
-      <c r="H340" s="3"/>
+      <c r="H340" s="52"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="9"/>
@@ -33832,7 +33836,7 @@
       <c r="E341" s="52"/>
       <c r="F341" s="52"/>
       <c r="G341" s="52"/>
-      <c r="H341" s="3"/>
+      <c r="H341" s="52"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="9"/>
@@ -33912,7 +33916,7 @@
       <c r="E343" s="52"/>
       <c r="F343" s="52"/>
       <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="H343" s="52"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="9"/>
@@ -33992,7 +33996,7 @@
       <c r="E345" s="52"/>
       <c r="F345" s="52"/>
       <c r="G345" s="52"/>
-      <c r="H345" s="3"/>
+      <c r="H345" s="52"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
       <c r="K345" s="9"/>
@@ -34192,7 +34196,7 @@
       <c r="E350" s="3"/>
       <c r="F350" s="52"/>
       <c r="G350" s="52"/>
-      <c r="H350" s="3"/>
+      <c r="H350" s="52"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="9"/>
@@ -34394,7 +34398,7 @@
         <v>1715</v>
       </c>
       <c r="G355" s="52"/>
-      <c r="H355" s="3"/>
+      <c r="H355" s="52"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="9"/>
@@ -34594,7 +34598,7 @@
       <c r="E360" s="52"/>
       <c r="F360" s="52"/>
       <c r="G360" s="52"/>
-      <c r="H360" s="3"/>
+      <c r="H360" s="52"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="9"/>
@@ -34634,7 +34638,7 @@
       <c r="E361" s="52"/>
       <c r="F361" s="52"/>
       <c r="G361" s="52"/>
-      <c r="H361" s="3"/>
+      <c r="H361" s="52"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="9"/>
@@ -34674,7 +34678,7 @@
       <c r="E362" s="52"/>
       <c r="F362" s="52"/>
       <c r="G362" s="52"/>
-      <c r="H362" s="3"/>
+      <c r="H362" s="52"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="9"/>
@@ -34714,7 +34718,7 @@
       <c r="E363" s="52"/>
       <c r="F363" s="51"/>
       <c r="G363" s="52"/>
-      <c r="H363" s="3"/>
+      <c r="H363" s="52"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="9"/>
@@ -34754,7 +34758,7 @@
       <c r="E364" s="52"/>
       <c r="F364" s="52"/>
       <c r="G364" s="52"/>
-      <c r="H364" s="3"/>
+      <c r="H364" s="52"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="9"/>
@@ -34794,7 +34798,7 @@
       <c r="E365" s="3"/>
       <c r="F365" s="52"/>
       <c r="G365" s="52"/>
-      <c r="H365" s="3"/>
+      <c r="H365" s="52"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
       <c r="K365" s="9"/>
@@ -34834,7 +34838,7 @@
       <c r="E366" s="52"/>
       <c r="F366" s="52"/>
       <c r="G366" s="52"/>
-      <c r="H366" s="3"/>
+      <c r="H366" s="52"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="9"/>
@@ -34863,42 +34867,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="71" t="s">
+      <c r="A367" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="72"/>
-      <c r="C367" s="72"/>
-      <c r="D367" s="72"/>
-      <c r="E367" s="72"/>
-      <c r="F367" s="72"/>
-      <c r="G367" s="72"/>
-      <c r="H367" s="72"/>
-      <c r="I367" s="72"/>
-      <c r="J367" s="72"/>
-      <c r="K367" s="72"/>
-      <c r="L367" s="72"/>
-      <c r="M367" s="72"/>
-      <c r="N367" s="72"/>
-      <c r="O367" s="72"/>
-      <c r="P367" s="72"/>
-      <c r="Q367" s="72"/>
-      <c r="R367" s="72"/>
-      <c r="S367" s="72"/>
-      <c r="T367" s="72"/>
-      <c r="U367" s="72"/>
-      <c r="V367" s="72"/>
-      <c r="W367" s="72"/>
-      <c r="X367" s="72"/>
-      <c r="Y367" s="72"/>
-      <c r="Z367" s="72"/>
-      <c r="AA367" s="72"/>
-      <c r="AB367" s="72"/>
-      <c r="AC367" s="72"/>
-      <c r="AD367" s="72"/>
-      <c r="AE367" s="72"/>
-      <c r="AF367" s="72"/>
-      <c r="AG367" s="72"/>
-      <c r="AH367" s="72"/>
+      <c r="B367" s="68"/>
+      <c r="C367" s="68"/>
+      <c r="D367" s="68"/>
+      <c r="E367" s="68"/>
+      <c r="F367" s="68"/>
+      <c r="G367" s="68"/>
+      <c r="H367" s="68"/>
+      <c r="I367" s="68"/>
+      <c r="J367" s="68"/>
+      <c r="K367" s="68"/>
+      <c r="L367" s="68"/>
+      <c r="M367" s="68"/>
+      <c r="N367" s="68"/>
+      <c r="O367" s="68"/>
+      <c r="P367" s="68"/>
+      <c r="Q367" s="68"/>
+      <c r="R367" s="68"/>
+      <c r="S367" s="68"/>
+      <c r="T367" s="68"/>
+      <c r="U367" s="68"/>
+      <c r="V367" s="68"/>
+      <c r="W367" s="68"/>
+      <c r="X367" s="68"/>
+      <c r="Y367" s="68"/>
+      <c r="Z367" s="68"/>
+      <c r="AA367" s="68"/>
+      <c r="AB367" s="68"/>
+      <c r="AC367" s="68"/>
+      <c r="AD367" s="68"/>
+      <c r="AE367" s="68"/>
+      <c r="AF367" s="68"/>
+      <c r="AG367" s="68"/>
+      <c r="AH367" s="68"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34937,80 +34941,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="67" t="s">
+      <c r="A369" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="67"/>
-      <c r="C369" s="67"/>
-      <c r="D369" s="67"/>
-      <c r="E369" s="67"/>
-      <c r="F369" s="67"/>
-      <c r="G369" s="67"/>
-      <c r="H369" s="67"/>
-      <c r="I369" s="67"/>
-      <c r="J369" s="67"/>
-      <c r="K369" s="67"/>
-      <c r="L369" s="67"/>
-      <c r="M369" s="67"/>
-      <c r="N369" s="67"/>
-      <c r="O369" s="67"/>
-      <c r="P369" s="67"/>
-      <c r="Q369" s="67"/>
-      <c r="R369" s="67"/>
-      <c r="S369" s="67"/>
-      <c r="T369" s="67"/>
-      <c r="U369" s="67"/>
-      <c r="V369" s="67"/>
-      <c r="W369" s="67"/>
-      <c r="X369" s="67"/>
-      <c r="Y369" s="67"/>
-      <c r="Z369" s="67"/>
-      <c r="AA369" s="67"/>
-      <c r="AB369" s="67"/>
-      <c r="AC369" s="67"/>
-      <c r="AD369" s="67"/>
-      <c r="AE369" s="67"/>
-      <c r="AF369" s="67"/>
-      <c r="AG369" s="67"/>
-      <c r="AH369" s="67"/>
+      <c r="B369" s="72"/>
+      <c r="C369" s="72"/>
+      <c r="D369" s="72"/>
+      <c r="E369" s="72"/>
+      <c r="F369" s="72"/>
+      <c r="G369" s="72"/>
+      <c r="H369" s="72"/>
+      <c r="I369" s="72"/>
+      <c r="J369" s="72"/>
+      <c r="K369" s="72"/>
+      <c r="L369" s="72"/>
+      <c r="M369" s="72"/>
+      <c r="N369" s="72"/>
+      <c r="O369" s="72"/>
+      <c r="P369" s="72"/>
+      <c r="Q369" s="72"/>
+      <c r="R369" s="72"/>
+      <c r="S369" s="72"/>
+      <c r="T369" s="72"/>
+      <c r="U369" s="72"/>
+      <c r="V369" s="72"/>
+      <c r="W369" s="72"/>
+      <c r="X369" s="72"/>
+      <c r="Y369" s="72"/>
+      <c r="Z369" s="72"/>
+      <c r="AA369" s="72"/>
+      <c r="AB369" s="72"/>
+      <c r="AC369" s="72"/>
+      <c r="AD369" s="72"/>
+      <c r="AE369" s="72"/>
+      <c r="AF369" s="72"/>
+      <c r="AG369" s="72"/>
+      <c r="AH369" s="72"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="68" t="s">
+      <c r="A370" s="73" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="68"/>
-      <c r="C370" s="68"/>
-      <c r="D370" s="68"/>
-      <c r="E370" s="68"/>
-      <c r="F370" s="68"/>
-      <c r="G370" s="68"/>
-      <c r="H370" s="68"/>
-      <c r="I370" s="68"/>
-      <c r="J370" s="68"/>
-      <c r="K370" s="68"/>
-      <c r="L370" s="68"/>
-      <c r="M370" s="68"/>
-      <c r="N370" s="68"/>
-      <c r="O370" s="68"/>
-      <c r="P370" s="68"/>
-      <c r="Q370" s="68"/>
-      <c r="R370" s="68"/>
-      <c r="S370" s="68"/>
-      <c r="T370" s="68"/>
-      <c r="U370" s="68"/>
-      <c r="V370" s="68"/>
-      <c r="W370" s="68"/>
-      <c r="X370" s="68"/>
-      <c r="Y370" s="68"/>
-      <c r="Z370" s="68"/>
-      <c r="AA370" s="68"/>
-      <c r="AB370" s="68"/>
-      <c r="AC370" s="68"/>
-      <c r="AD370" s="68"/>
-      <c r="AE370" s="68"/>
-      <c r="AF370" s="68"/>
-      <c r="AG370" s="68"/>
-      <c r="AH370" s="68"/>
+      <c r="B370" s="73"/>
+      <c r="C370" s="73"/>
+      <c r="D370" s="73"/>
+      <c r="E370" s="73"/>
+      <c r="F370" s="73"/>
+      <c r="G370" s="73"/>
+      <c r="H370" s="73"/>
+      <c r="I370" s="73"/>
+      <c r="J370" s="73"/>
+      <c r="K370" s="73"/>
+      <c r="L370" s="73"/>
+      <c r="M370" s="73"/>
+      <c r="N370" s="73"/>
+      <c r="O370" s="73"/>
+      <c r="P370" s="73"/>
+      <c r="Q370" s="73"/>
+      <c r="R370" s="73"/>
+      <c r="S370" s="73"/>
+      <c r="T370" s="73"/>
+      <c r="U370" s="73"/>
+      <c r="V370" s="73"/>
+      <c r="W370" s="73"/>
+      <c r="X370" s="73"/>
+      <c r="Y370" s="73"/>
+      <c r="Z370" s="73"/>
+      <c r="AA370" s="73"/>
+      <c r="AB370" s="73"/>
+      <c r="AC370" s="73"/>
+      <c r="AD370" s="73"/>
+      <c r="AE370" s="73"/>
+      <c r="AF370" s="73"/>
+      <c r="AG370" s="73"/>
+      <c r="AH370" s="73"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="70" t="s">
@@ -35058,7 +35062,7 @@
       <c r="AE371" s="70"/>
       <c r="AF371" s="70"/>
       <c r="AG371" s="70"/>
-      <c r="AH371" s="74" t="s">
+      <c r="AH371" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37735,45 +37739,99 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="71" t="s">
+      <c r="A436" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="72"/>
-      <c r="C436" s="72"/>
-      <c r="D436" s="72"/>
-      <c r="E436" s="72"/>
-      <c r="F436" s="72"/>
-      <c r="G436" s="72"/>
-      <c r="H436" s="72"/>
-      <c r="I436" s="72"/>
-      <c r="J436" s="72"/>
-      <c r="K436" s="72"/>
-      <c r="L436" s="72"/>
-      <c r="M436" s="72"/>
-      <c r="N436" s="72"/>
-      <c r="O436" s="72"/>
-      <c r="P436" s="72"/>
-      <c r="Q436" s="72"/>
-      <c r="R436" s="72"/>
-      <c r="S436" s="72"/>
-      <c r="T436" s="72"/>
-      <c r="U436" s="72"/>
-      <c r="V436" s="72"/>
-      <c r="W436" s="72"/>
-      <c r="X436" s="72"/>
-      <c r="Y436" s="72"/>
-      <c r="Z436" s="72"/>
-      <c r="AA436" s="72"/>
-      <c r="AB436" s="72"/>
-      <c r="AC436" s="72"/>
-      <c r="AD436" s="72"/>
-      <c r="AE436" s="72"/>
-      <c r="AF436" s="72"/>
-      <c r="AG436" s="72"/>
-      <c r="AH436" s="72"/>
+      <c r="B436" s="68"/>
+      <c r="C436" s="68"/>
+      <c r="D436" s="68"/>
+      <c r="E436" s="68"/>
+      <c r="F436" s="68"/>
+      <c r="G436" s="68"/>
+      <c r="H436" s="68"/>
+      <c r="I436" s="68"/>
+      <c r="J436" s="68"/>
+      <c r="K436" s="68"/>
+      <c r="L436" s="68"/>
+      <c r="M436" s="68"/>
+      <c r="N436" s="68"/>
+      <c r="O436" s="68"/>
+      <c r="P436" s="68"/>
+      <c r="Q436" s="68"/>
+      <c r="R436" s="68"/>
+      <c r="S436" s="68"/>
+      <c r="T436" s="68"/>
+      <c r="U436" s="68"/>
+      <c r="V436" s="68"/>
+      <c r="W436" s="68"/>
+      <c r="X436" s="68"/>
+      <c r="Y436" s="68"/>
+      <c r="Z436" s="68"/>
+      <c r="AA436" s="68"/>
+      <c r="AB436" s="68"/>
+      <c r="AC436" s="68"/>
+      <c r="AD436" s="68"/>
+      <c r="AE436" s="68"/>
+      <c r="AF436" s="68"/>
+      <c r="AG436" s="68"/>
+      <c r="AH436" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37790,60 +37848,6 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37877,80 +37881,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -37998,7 +38002,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38701,118 +38705,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="73" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -38860,7 +38864,7 @@
       <c r="AE24" s="70"/>
       <c r="AF24" s="70"/>
       <c r="AG24" s="70"/>
-      <c r="AH24" s="74" t="s">
+      <c r="AH24" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39443,118 +39447,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="67"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="73" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
-      <c r="AE41" s="68"/>
-      <c r="AF41" s="68"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="68"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
@@ -39602,7 +39606,7 @@
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
-      <c r="AH42" s="74" t="s">
+      <c r="AH42" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40465,118 +40469,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="72"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="72"/>
-      <c r="Z63" s="72"/>
-      <c r="AA63" s="72"/>
-      <c r="AB63" s="72"/>
-      <c r="AC63" s="72"/>
-      <c r="AD63" s="72"/>
-      <c r="AE63" s="72"/>
-      <c r="AF63" s="72"/>
-      <c r="AG63" s="72"/>
-      <c r="AH63" s="72"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
+      <c r="AE63" s="68"/>
+      <c r="AF63" s="68"/>
+      <c r="AG63" s="68"/>
+      <c r="AH63" s="68"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="67"/>
-      <c r="AD64" s="67"/>
-      <c r="AE64" s="67"/>
-      <c r="AF64" s="67"/>
-      <c r="AG64" s="67"/>
-      <c r="AH64" s="67"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="72"/>
+      <c r="X64" s="72"/>
+      <c r="Y64" s="72"/>
+      <c r="Z64" s="72"/>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="72"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="72"/>
+      <c r="AF64" s="72"/>
+      <c r="AG64" s="72"/>
+      <c r="AH64" s="72"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="73" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="68"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68"/>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68"/>
-      <c r="AB65" s="68"/>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="68"/>
-      <c r="AE65" s="68"/>
-      <c r="AF65" s="68"/>
-      <c r="AG65" s="68"/>
-      <c r="AH65" s="68"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+      <c r="AC65" s="73"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
@@ -40624,7 +40628,7 @@
       <c r="AE66" s="70"/>
       <c r="AF66" s="70"/>
       <c r="AG66" s="70"/>
-      <c r="AH66" s="74" t="s">
+      <c r="AH66" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42447,118 +42451,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="71" t="s">
+      <c r="A111" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="72"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="72"/>
-      <c r="M111" s="72"/>
-      <c r="N111" s="72"/>
-      <c r="O111" s="72"/>
-      <c r="P111" s="72"/>
-      <c r="Q111" s="72"/>
-      <c r="R111" s="72"/>
-      <c r="S111" s="72"/>
-      <c r="T111" s="72"/>
-      <c r="U111" s="72"/>
-      <c r="V111" s="72"/>
-      <c r="W111" s="72"/>
-      <c r="X111" s="72"/>
-      <c r="Y111" s="72"/>
-      <c r="Z111" s="72"/>
-      <c r="AA111" s="72"/>
-      <c r="AB111" s="72"/>
-      <c r="AC111" s="72"/>
-      <c r="AD111" s="72"/>
-      <c r="AE111" s="72"/>
-      <c r="AF111" s="72"/>
-      <c r="AG111" s="72"/>
-      <c r="AH111" s="72"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="68"/>
+      <c r="R111" s="68"/>
+      <c r="S111" s="68"/>
+      <c r="T111" s="68"/>
+      <c r="U111" s="68"/>
+      <c r="V111" s="68"/>
+      <c r="W111" s="68"/>
+      <c r="X111" s="68"/>
+      <c r="Y111" s="68"/>
+      <c r="Z111" s="68"/>
+      <c r="AA111" s="68"/>
+      <c r="AB111" s="68"/>
+      <c r="AC111" s="68"/>
+      <c r="AD111" s="68"/>
+      <c r="AE111" s="68"/>
+      <c r="AF111" s="68"/>
+      <c r="AG111" s="68"/>
+      <c r="AH111" s="68"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="67"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
-      <c r="R113" s="67"/>
-      <c r="S113" s="67"/>
-      <c r="T113" s="67"/>
-      <c r="U113" s="67"/>
-      <c r="V113" s="67"/>
-      <c r="W113" s="67"/>
-      <c r="X113" s="67"/>
-      <c r="Y113" s="67"/>
-      <c r="Z113" s="67"/>
-      <c r="AA113" s="67"/>
-      <c r="AB113" s="67"/>
-      <c r="AC113" s="67"/>
-      <c r="AD113" s="67"/>
-      <c r="AE113" s="67"/>
-      <c r="AF113" s="67"/>
-      <c r="AG113" s="67"/>
-      <c r="AH113" s="67"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="72"/>
+      <c r="O113" s="72"/>
+      <c r="P113" s="72"/>
+      <c r="Q113" s="72"/>
+      <c r="R113" s="72"/>
+      <c r="S113" s="72"/>
+      <c r="T113" s="72"/>
+      <c r="U113" s="72"/>
+      <c r="V113" s="72"/>
+      <c r="W113" s="72"/>
+      <c r="X113" s="72"/>
+      <c r="Y113" s="72"/>
+      <c r="Z113" s="72"/>
+      <c r="AA113" s="72"/>
+      <c r="AB113" s="72"/>
+      <c r="AC113" s="72"/>
+      <c r="AD113" s="72"/>
+      <c r="AE113" s="72"/>
+      <c r="AF113" s="72"/>
+      <c r="AG113" s="72"/>
+      <c r="AH113" s="72"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="73" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
-      <c r="L114" s="68"/>
-      <c r="M114" s="68"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="68"/>
-      <c r="P114" s="68"/>
-      <c r="Q114" s="68"/>
-      <c r="R114" s="68"/>
-      <c r="S114" s="68"/>
-      <c r="T114" s="68"/>
-      <c r="U114" s="68"/>
-      <c r="V114" s="68"/>
-      <c r="W114" s="68"/>
-      <c r="X114" s="68"/>
-      <c r="Y114" s="68"/>
-      <c r="Z114" s="68"/>
-      <c r="AA114" s="68"/>
-      <c r="AB114" s="68"/>
-      <c r="AC114" s="68"/>
-      <c r="AD114" s="68"/>
-      <c r="AE114" s="68"/>
-      <c r="AF114" s="68"/>
-      <c r="AG114" s="68"/>
-      <c r="AH114" s="68"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="73"/>
+      <c r="N114" s="73"/>
+      <c r="O114" s="73"/>
+      <c r="P114" s="73"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="73"/>
+      <c r="T114" s="73"/>
+      <c r="U114" s="73"/>
+      <c r="V114" s="73"/>
+      <c r="W114" s="73"/>
+      <c r="X114" s="73"/>
+      <c r="Y114" s="73"/>
+      <c r="Z114" s="73"/>
+      <c r="AA114" s="73"/>
+      <c r="AB114" s="73"/>
+      <c r="AC114" s="73"/>
+      <c r="AD114" s="73"/>
+      <c r="AE114" s="73"/>
+      <c r="AF114" s="73"/>
+      <c r="AG114" s="73"/>
+      <c r="AH114" s="73"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
@@ -42606,7 +42610,7 @@
       <c r="AE115" s="70"/>
       <c r="AF115" s="70"/>
       <c r="AG115" s="70"/>
-      <c r="AH115" s="74" t="s">
+      <c r="AH115" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44429,118 +44433,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="71" t="s">
+      <c r="A160" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="72"/>
-      <c r="C160" s="72"/>
-      <c r="D160" s="72"/>
-      <c r="E160" s="72"/>
-      <c r="F160" s="72"/>
-      <c r="G160" s="72"/>
-      <c r="H160" s="72"/>
-      <c r="I160" s="72"/>
-      <c r="J160" s="72"/>
-      <c r="K160" s="72"/>
-      <c r="L160" s="72"/>
-      <c r="M160" s="72"/>
-      <c r="N160" s="72"/>
-      <c r="O160" s="72"/>
-      <c r="P160" s="72"/>
-      <c r="Q160" s="72"/>
-      <c r="R160" s="72"/>
-      <c r="S160" s="72"/>
-      <c r="T160" s="72"/>
-      <c r="U160" s="72"/>
-      <c r="V160" s="72"/>
-      <c r="W160" s="72"/>
-      <c r="X160" s="72"/>
-      <c r="Y160" s="72"/>
-      <c r="Z160" s="72"/>
-      <c r="AA160" s="72"/>
-      <c r="AB160" s="72"/>
-      <c r="AC160" s="72"/>
-      <c r="AD160" s="72"/>
-      <c r="AE160" s="72"/>
-      <c r="AF160" s="72"/>
-      <c r="AG160" s="72"/>
-      <c r="AH160" s="72"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="68"/>
+      <c r="I160" s="68"/>
+      <c r="J160" s="68"/>
+      <c r="K160" s="68"/>
+      <c r="L160" s="68"/>
+      <c r="M160" s="68"/>
+      <c r="N160" s="68"/>
+      <c r="O160" s="68"/>
+      <c r="P160" s="68"/>
+      <c r="Q160" s="68"/>
+      <c r="R160" s="68"/>
+      <c r="S160" s="68"/>
+      <c r="T160" s="68"/>
+      <c r="U160" s="68"/>
+      <c r="V160" s="68"/>
+      <c r="W160" s="68"/>
+      <c r="X160" s="68"/>
+      <c r="Y160" s="68"/>
+      <c r="Z160" s="68"/>
+      <c r="AA160" s="68"/>
+      <c r="AB160" s="68"/>
+      <c r="AC160" s="68"/>
+      <c r="AD160" s="68"/>
+      <c r="AE160" s="68"/>
+      <c r="AF160" s="68"/>
+      <c r="AG160" s="68"/>
+      <c r="AH160" s="68"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="67" t="s">
+      <c r="A162" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="67"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="67"/>
-      <c r="H162" s="67"/>
-      <c r="I162" s="67"/>
-      <c r="J162" s="67"/>
-      <c r="K162" s="67"/>
-      <c r="L162" s="67"/>
-      <c r="M162" s="67"/>
-      <c r="N162" s="67"/>
-      <c r="O162" s="67"/>
-      <c r="P162" s="67"/>
-      <c r="Q162" s="67"/>
-      <c r="R162" s="67"/>
-      <c r="S162" s="67"/>
-      <c r="T162" s="67"/>
-      <c r="U162" s="67"/>
-      <c r="V162" s="67"/>
-      <c r="W162" s="67"/>
-      <c r="X162" s="67"/>
-      <c r="Y162" s="67"/>
-      <c r="Z162" s="67"/>
-      <c r="AA162" s="67"/>
-      <c r="AB162" s="67"/>
-      <c r="AC162" s="67"/>
-      <c r="AD162" s="67"/>
-      <c r="AE162" s="67"/>
-      <c r="AF162" s="67"/>
-      <c r="AG162" s="67"/>
-      <c r="AH162" s="67"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="72"/>
+      <c r="N162" s="72"/>
+      <c r="O162" s="72"/>
+      <c r="P162" s="72"/>
+      <c r="Q162" s="72"/>
+      <c r="R162" s="72"/>
+      <c r="S162" s="72"/>
+      <c r="T162" s="72"/>
+      <c r="U162" s="72"/>
+      <c r="V162" s="72"/>
+      <c r="W162" s="72"/>
+      <c r="X162" s="72"/>
+      <c r="Y162" s="72"/>
+      <c r="Z162" s="72"/>
+      <c r="AA162" s="72"/>
+      <c r="AB162" s="72"/>
+      <c r="AC162" s="72"/>
+      <c r="AD162" s="72"/>
+      <c r="AE162" s="72"/>
+      <c r="AF162" s="72"/>
+      <c r="AG162" s="72"/>
+      <c r="AH162" s="72"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="68" t="s">
+      <c r="A163" s="73" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="68"/>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="68"/>
-      <c r="J163" s="68"/>
-      <c r="K163" s="68"/>
-      <c r="L163" s="68"/>
-      <c r="M163" s="68"/>
-      <c r="N163" s="68"/>
-      <c r="O163" s="68"/>
-      <c r="P163" s="68"/>
-      <c r="Q163" s="68"/>
-      <c r="R163" s="68"/>
-      <c r="S163" s="68"/>
-      <c r="T163" s="68"/>
-      <c r="U163" s="68"/>
-      <c r="V163" s="68"/>
-      <c r="W163" s="68"/>
-      <c r="X163" s="68"/>
-      <c r="Y163" s="68"/>
-      <c r="Z163" s="68"/>
-      <c r="AA163" s="68"/>
-      <c r="AB163" s="68"/>
-      <c r="AC163" s="68"/>
-      <c r="AD163" s="68"/>
-      <c r="AE163" s="68"/>
-      <c r="AF163" s="68"/>
-      <c r="AG163" s="68"/>
-      <c r="AH163" s="68"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="73"/>
+      <c r="D163" s="73"/>
+      <c r="E163" s="73"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
+      <c r="K163" s="73"/>
+      <c r="L163" s="73"/>
+      <c r="M163" s="73"/>
+      <c r="N163" s="73"/>
+      <c r="O163" s="73"/>
+      <c r="P163" s="73"/>
+      <c r="Q163" s="73"/>
+      <c r="R163" s="73"/>
+      <c r="S163" s="73"/>
+      <c r="T163" s="73"/>
+      <c r="U163" s="73"/>
+      <c r="V163" s="73"/>
+      <c r="W163" s="73"/>
+      <c r="X163" s="73"/>
+      <c r="Y163" s="73"/>
+      <c r="Z163" s="73"/>
+      <c r="AA163" s="73"/>
+      <c r="AB163" s="73"/>
+      <c r="AC163" s="73"/>
+      <c r="AD163" s="73"/>
+      <c r="AE163" s="73"/>
+      <c r="AF163" s="73"/>
+      <c r="AG163" s="73"/>
+      <c r="AH163" s="73"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="70" t="s">
@@ -44588,7 +44592,7 @@
       <c r="AE164" s="70"/>
       <c r="AF164" s="70"/>
       <c r="AG164" s="70"/>
-      <c r="AH164" s="74" t="s">
+      <c r="AH164" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46411,118 +46415,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="71" t="s">
+      <c r="A209" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="72"/>
-      <c r="C209" s="72"/>
-      <c r="D209" s="72"/>
-      <c r="E209" s="72"/>
-      <c r="F209" s="72"/>
-      <c r="G209" s="72"/>
-      <c r="H209" s="72"/>
-      <c r="I209" s="72"/>
-      <c r="J209" s="72"/>
-      <c r="K209" s="72"/>
-      <c r="L209" s="72"/>
-      <c r="M209" s="72"/>
-      <c r="N209" s="72"/>
-      <c r="O209" s="72"/>
-      <c r="P209" s="72"/>
-      <c r="Q209" s="72"/>
-      <c r="R209" s="72"/>
-      <c r="S209" s="72"/>
-      <c r="T209" s="72"/>
-      <c r="U209" s="72"/>
-      <c r="V209" s="72"/>
-      <c r="W209" s="72"/>
-      <c r="X209" s="72"/>
-      <c r="Y209" s="72"/>
-      <c r="Z209" s="72"/>
-      <c r="AA209" s="72"/>
-      <c r="AB209" s="72"/>
-      <c r="AC209" s="72"/>
-      <c r="AD209" s="72"/>
-      <c r="AE209" s="72"/>
-      <c r="AF209" s="72"/>
-      <c r="AG209" s="72"/>
-      <c r="AH209" s="72"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="68"/>
+      <c r="I209" s="68"/>
+      <c r="J209" s="68"/>
+      <c r="K209" s="68"/>
+      <c r="L209" s="68"/>
+      <c r="M209" s="68"/>
+      <c r="N209" s="68"/>
+      <c r="O209" s="68"/>
+      <c r="P209" s="68"/>
+      <c r="Q209" s="68"/>
+      <c r="R209" s="68"/>
+      <c r="S209" s="68"/>
+      <c r="T209" s="68"/>
+      <c r="U209" s="68"/>
+      <c r="V209" s="68"/>
+      <c r="W209" s="68"/>
+      <c r="X209" s="68"/>
+      <c r="Y209" s="68"/>
+      <c r="Z209" s="68"/>
+      <c r="AA209" s="68"/>
+      <c r="AB209" s="68"/>
+      <c r="AC209" s="68"/>
+      <c r="AD209" s="68"/>
+      <c r="AE209" s="68"/>
+      <c r="AF209" s="68"/>
+      <c r="AG209" s="68"/>
+      <c r="AH209" s="68"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="67" t="s">
+      <c r="A211" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="67"/>
-      <c r="C211" s="67"/>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
-      <c r="F211" s="67"/>
-      <c r="G211" s="67"/>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="67"/>
-      <c r="L211" s="67"/>
-      <c r="M211" s="67"/>
-      <c r="N211" s="67"/>
-      <c r="O211" s="67"/>
-      <c r="P211" s="67"/>
-      <c r="Q211" s="67"/>
-      <c r="R211" s="67"/>
-      <c r="S211" s="67"/>
-      <c r="T211" s="67"/>
-      <c r="U211" s="67"/>
-      <c r="V211" s="67"/>
-      <c r="W211" s="67"/>
-      <c r="X211" s="67"/>
-      <c r="Y211" s="67"/>
-      <c r="Z211" s="67"/>
-      <c r="AA211" s="67"/>
-      <c r="AB211" s="67"/>
-      <c r="AC211" s="67"/>
-      <c r="AD211" s="67"/>
-      <c r="AE211" s="67"/>
-      <c r="AF211" s="67"/>
-      <c r="AG211" s="67"/>
-      <c r="AH211" s="67"/>
+      <c r="B211" s="72"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="72"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="72"/>
+      <c r="N211" s="72"/>
+      <c r="O211" s="72"/>
+      <c r="P211" s="72"/>
+      <c r="Q211" s="72"/>
+      <c r="R211" s="72"/>
+      <c r="S211" s="72"/>
+      <c r="T211" s="72"/>
+      <c r="U211" s="72"/>
+      <c r="V211" s="72"/>
+      <c r="W211" s="72"/>
+      <c r="X211" s="72"/>
+      <c r="Y211" s="72"/>
+      <c r="Z211" s="72"/>
+      <c r="AA211" s="72"/>
+      <c r="AB211" s="72"/>
+      <c r="AC211" s="72"/>
+      <c r="AD211" s="72"/>
+      <c r="AE211" s="72"/>
+      <c r="AF211" s="72"/>
+      <c r="AG211" s="72"/>
+      <c r="AH211" s="72"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="68" t="s">
+      <c r="A212" s="73" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="68"/>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="68"/>
-      <c r="F212" s="68"/>
-      <c r="G212" s="68"/>
-      <c r="H212" s="68"/>
-      <c r="I212" s="68"/>
-      <c r="J212" s="68"/>
-      <c r="K212" s="68"/>
-      <c r="L212" s="68"/>
-      <c r="M212" s="68"/>
-      <c r="N212" s="68"/>
-      <c r="O212" s="68"/>
-      <c r="P212" s="68"/>
-      <c r="Q212" s="68"/>
-      <c r="R212" s="68"/>
-      <c r="S212" s="68"/>
-      <c r="T212" s="68"/>
-      <c r="U212" s="68"/>
-      <c r="V212" s="68"/>
-      <c r="W212" s="68"/>
-      <c r="X212" s="68"/>
-      <c r="Y212" s="68"/>
-      <c r="Z212" s="68"/>
-      <c r="AA212" s="68"/>
-      <c r="AB212" s="68"/>
-      <c r="AC212" s="68"/>
-      <c r="AD212" s="68"/>
-      <c r="AE212" s="68"/>
-      <c r="AF212" s="68"/>
-      <c r="AG212" s="68"/>
-      <c r="AH212" s="68"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="73"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="73"/>
+      <c r="G212" s="73"/>
+      <c r="H212" s="73"/>
+      <c r="I212" s="73"/>
+      <c r="J212" s="73"/>
+      <c r="K212" s="73"/>
+      <c r="L212" s="73"/>
+      <c r="M212" s="73"/>
+      <c r="N212" s="73"/>
+      <c r="O212" s="73"/>
+      <c r="P212" s="73"/>
+      <c r="Q212" s="73"/>
+      <c r="R212" s="73"/>
+      <c r="S212" s="73"/>
+      <c r="T212" s="73"/>
+      <c r="U212" s="73"/>
+      <c r="V212" s="73"/>
+      <c r="W212" s="73"/>
+      <c r="X212" s="73"/>
+      <c r="Y212" s="73"/>
+      <c r="Z212" s="73"/>
+      <c r="AA212" s="73"/>
+      <c r="AB212" s="73"/>
+      <c r="AC212" s="73"/>
+      <c r="AD212" s="73"/>
+      <c r="AE212" s="73"/>
+      <c r="AF212" s="73"/>
+      <c r="AG212" s="73"/>
+      <c r="AH212" s="73"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="70" t="s">
@@ -46570,7 +46574,7 @@
       <c r="AE213" s="70"/>
       <c r="AF213" s="70"/>
       <c r="AG213" s="70"/>
-      <c r="AH213" s="74" t="s">
+      <c r="AH213" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48473,45 +48477,99 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="71" t="s">
+      <c r="A260" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="72"/>
-      <c r="C260" s="72"/>
-      <c r="D260" s="72"/>
-      <c r="E260" s="72"/>
-      <c r="F260" s="72"/>
-      <c r="G260" s="72"/>
-      <c r="H260" s="72"/>
-      <c r="I260" s="72"/>
-      <c r="J260" s="72"/>
-      <c r="K260" s="72"/>
-      <c r="L260" s="72"/>
-      <c r="M260" s="72"/>
-      <c r="N260" s="72"/>
-      <c r="O260" s="72"/>
-      <c r="P260" s="72"/>
-      <c r="Q260" s="72"/>
-      <c r="R260" s="72"/>
-      <c r="S260" s="72"/>
-      <c r="T260" s="72"/>
-      <c r="U260" s="72"/>
-      <c r="V260" s="72"/>
-      <c r="W260" s="72"/>
-      <c r="X260" s="72"/>
-      <c r="Y260" s="72"/>
-      <c r="Z260" s="72"/>
-      <c r="AA260" s="72"/>
-      <c r="AB260" s="72"/>
-      <c r="AC260" s="72"/>
-      <c r="AD260" s="72"/>
-      <c r="AE260" s="72"/>
-      <c r="AF260" s="72"/>
-      <c r="AG260" s="72"/>
-      <c r="AH260" s="72"/>
+      <c r="B260" s="68"/>
+      <c r="C260" s="68"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="68"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="I260" s="68"/>
+      <c r="J260" s="68"/>
+      <c r="K260" s="68"/>
+      <c r="L260" s="68"/>
+      <c r="M260" s="68"/>
+      <c r="N260" s="68"/>
+      <c r="O260" s="68"/>
+      <c r="P260" s="68"/>
+      <c r="Q260" s="68"/>
+      <c r="R260" s="68"/>
+      <c r="S260" s="68"/>
+      <c r="T260" s="68"/>
+      <c r="U260" s="68"/>
+      <c r="V260" s="68"/>
+      <c r="W260" s="68"/>
+      <c r="X260" s="68"/>
+      <c r="Y260" s="68"/>
+      <c r="Z260" s="68"/>
+      <c r="AA260" s="68"/>
+      <c r="AB260" s="68"/>
+      <c r="AC260" s="68"/>
+      <c r="AD260" s="68"/>
+      <c r="AE260" s="68"/>
+      <c r="AF260" s="68"/>
+      <c r="AG260" s="68"/>
+      <c r="AH260" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48528,60 +48586,6 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02B54BA-BCEB-4F89-9AF0-25D8AE9E1265}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E975EDC-A415-4AFE-9692-9F8CF694F39D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1732">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -7352,6 +7352,18 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7362,19 +7374,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8308,80 +8308,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -8429,7 +8429,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9732,118 +9732,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="69"/>
+      <c r="AD37" s="69"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
@@ -9891,7 +9891,7 @@
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
-      <c r="AH38" s="71" t="s">
+      <c r="AH38" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12354,119 +12354,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="69"/>
-      <c r="S99" s="69"/>
-      <c r="T99" s="69"/>
-      <c r="U99" s="69"/>
-      <c r="V99" s="69"/>
-      <c r="W99" s="69"/>
-      <c r="X99" s="69"/>
-      <c r="Y99" s="69"/>
-      <c r="Z99" s="69"/>
-      <c r="AA99" s="69"/>
-      <c r="AB99" s="69"/>
-      <c r="AC99" s="69"/>
-      <c r="AD99" s="69"/>
-      <c r="AE99" s="69"/>
-      <c r="AF99" s="69"/>
-      <c r="AG99" s="69"/>
-      <c r="AH99" s="69"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="73"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="73"/>
+      <c r="W99" s="73"/>
+      <c r="X99" s="73"/>
+      <c r="Y99" s="73"/>
+      <c r="Z99" s="73"/>
+      <c r="AA99" s="73"/>
+      <c r="AB99" s="73"/>
+      <c r="AC99" s="73"/>
+      <c r="AD99" s="73"/>
+      <c r="AE99" s="73"/>
+      <c r="AF99" s="73"/>
+      <c r="AG99" s="73"/>
+      <c r="AH99" s="73"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
-      <c r="V101" s="72"/>
-      <c r="W101" s="72"/>
-      <c r="X101" s="72"/>
-      <c r="Y101" s="72"/>
-      <c r="Z101" s="72"/>
-      <c r="AA101" s="72"/>
-      <c r="AB101" s="72"/>
-      <c r="AC101" s="72"/>
-      <c r="AD101" s="72"/>
-      <c r="AE101" s="72"/>
-      <c r="AF101" s="72"/>
-      <c r="AG101" s="72"/>
-      <c r="AH101" s="72"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="67"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="67"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="67"/>
+      <c r="V101" s="67"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+      <c r="Y101" s="67"/>
+      <c r="Z101" s="67"/>
+      <c r="AA101" s="67"/>
+      <c r="AB101" s="67"/>
+      <c r="AC101" s="67"/>
+      <c r="AD101" s="67"/>
+      <c r="AE101" s="67"/>
+      <c r="AF101" s="67"/>
+      <c r="AG101" s="67"/>
+      <c r="AH101" s="67"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="73"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
-      <c r="AA102" s="74"/>
-      <c r="AB102" s="74"/>
-      <c r="AC102" s="74"/>
-      <c r="AD102" s="74"/>
-      <c r="AE102" s="74"/>
-      <c r="AF102" s="74"/>
-      <c r="AG102" s="74"/>
-      <c r="AH102" s="74"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="69"/>
+      <c r="Y102" s="69"/>
+      <c r="Z102" s="69"/>
+      <c r="AA102" s="69"/>
+      <c r="AB102" s="69"/>
+      <c r="AC102" s="69"/>
+      <c r="AD102" s="69"/>
+      <c r="AE102" s="69"/>
+      <c r="AF102" s="69"/>
+      <c r="AG102" s="69"/>
+      <c r="AH102" s="69"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
@@ -12514,7 +12514,7 @@
       <c r="AE103" s="70"/>
       <c r="AF103" s="70"/>
       <c r="AG103" s="70"/>
-      <c r="AH103" s="71" t="s">
+      <c r="AH103" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15137,118 +15137,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="67" t="s">
+      <c r="A168" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="68"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="69"/>
-      <c r="E168" s="69"/>
-      <c r="F168" s="69"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="69"/>
-      <c r="J168" s="69"/>
-      <c r="K168" s="69"/>
-      <c r="L168" s="69"/>
-      <c r="M168" s="69"/>
-      <c r="N168" s="69"/>
-      <c r="O168" s="69"/>
-      <c r="P168" s="69"/>
-      <c r="Q168" s="69"/>
-      <c r="R168" s="69"/>
-      <c r="S168" s="69"/>
-      <c r="T168" s="69"/>
-      <c r="U168" s="69"/>
-      <c r="V168" s="69"/>
-      <c r="W168" s="69"/>
-      <c r="X168" s="69"/>
-      <c r="Y168" s="69"/>
-      <c r="Z168" s="69"/>
-      <c r="AA168" s="69"/>
-      <c r="AB168" s="69"/>
-      <c r="AC168" s="69"/>
-      <c r="AD168" s="69"/>
-      <c r="AE168" s="69"/>
-      <c r="AF168" s="69"/>
-      <c r="AG168" s="69"/>
-      <c r="AH168" s="69"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="73"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="73"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="73"/>
+      <c r="K168" s="73"/>
+      <c r="L168" s="73"/>
+      <c r="M168" s="73"/>
+      <c r="N168" s="73"/>
+      <c r="O168" s="73"/>
+      <c r="P168" s="73"/>
+      <c r="Q168" s="73"/>
+      <c r="R168" s="73"/>
+      <c r="S168" s="73"/>
+      <c r="T168" s="73"/>
+      <c r="U168" s="73"/>
+      <c r="V168" s="73"/>
+      <c r="W168" s="73"/>
+      <c r="X168" s="73"/>
+      <c r="Y168" s="73"/>
+      <c r="Z168" s="73"/>
+      <c r="AA168" s="73"/>
+      <c r="AB168" s="73"/>
+      <c r="AC168" s="73"/>
+      <c r="AD168" s="73"/>
+      <c r="AE168" s="73"/>
+      <c r="AF168" s="73"/>
+      <c r="AG168" s="73"/>
+      <c r="AH168" s="73"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="72" t="s">
+      <c r="A169" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
-      <c r="K169" s="72"/>
-      <c r="L169" s="72"/>
-      <c r="M169" s="72"/>
-      <c r="N169" s="72"/>
-      <c r="O169" s="72"/>
-      <c r="P169" s="72"/>
-      <c r="Q169" s="72"/>
-      <c r="R169" s="72"/>
-      <c r="S169" s="72"/>
-      <c r="T169" s="72"/>
-      <c r="U169" s="72"/>
-      <c r="V169" s="72"/>
-      <c r="W169" s="72"/>
-      <c r="X169" s="72"/>
-      <c r="Y169" s="72"/>
-      <c r="Z169" s="72"/>
-      <c r="AA169" s="72"/>
-      <c r="AB169" s="72"/>
-      <c r="AC169" s="72"/>
-      <c r="AD169" s="72"/>
-      <c r="AE169" s="72"/>
-      <c r="AF169" s="72"/>
-      <c r="AG169" s="72"/>
-      <c r="AH169" s="72"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="67"/>
+      <c r="L169" s="67"/>
+      <c r="M169" s="67"/>
+      <c r="N169" s="67"/>
+      <c r="O169" s="67"/>
+      <c r="P169" s="67"/>
+      <c r="Q169" s="67"/>
+      <c r="R169" s="67"/>
+      <c r="S169" s="67"/>
+      <c r="T169" s="67"/>
+      <c r="U169" s="67"/>
+      <c r="V169" s="67"/>
+      <c r="W169" s="67"/>
+      <c r="X169" s="67"/>
+      <c r="Y169" s="67"/>
+      <c r="Z169" s="67"/>
+      <c r="AA169" s="67"/>
+      <c r="AB169" s="67"/>
+      <c r="AC169" s="67"/>
+      <c r="AD169" s="67"/>
+      <c r="AE169" s="67"/>
+      <c r="AF169" s="67"/>
+      <c r="AG169" s="67"/>
+      <c r="AH169" s="67"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="73" t="s">
+      <c r="A170" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="73"/>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="74"/>
-      <c r="K170" s="74"/>
-      <c r="L170" s="74"/>
-      <c r="M170" s="74"/>
-      <c r="N170" s="74"/>
-      <c r="O170" s="74"/>
-      <c r="P170" s="74"/>
-      <c r="Q170" s="74"/>
-      <c r="R170" s="74"/>
-      <c r="S170" s="74"/>
-      <c r="T170" s="74"/>
-      <c r="U170" s="74"/>
-      <c r="V170" s="74"/>
-      <c r="W170" s="74"/>
-      <c r="X170" s="74"/>
-      <c r="Y170" s="74"/>
-      <c r="Z170" s="74"/>
-      <c r="AA170" s="74"/>
-      <c r="AB170" s="74"/>
-      <c r="AC170" s="74"/>
-      <c r="AD170" s="74"/>
-      <c r="AE170" s="74"/>
-      <c r="AF170" s="74"/>
-      <c r="AG170" s="74"/>
-      <c r="AH170" s="74"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="69"/>
+      <c r="G170" s="69"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="69"/>
+      <c r="K170" s="69"/>
+      <c r="L170" s="69"/>
+      <c r="M170" s="69"/>
+      <c r="N170" s="69"/>
+      <c r="O170" s="69"/>
+      <c r="P170" s="69"/>
+      <c r="Q170" s="69"/>
+      <c r="R170" s="69"/>
+      <c r="S170" s="69"/>
+      <c r="T170" s="69"/>
+      <c r="U170" s="69"/>
+      <c r="V170" s="69"/>
+      <c r="W170" s="69"/>
+      <c r="X170" s="69"/>
+      <c r="Y170" s="69"/>
+      <c r="Z170" s="69"/>
+      <c r="AA170" s="69"/>
+      <c r="AB170" s="69"/>
+      <c r="AC170" s="69"/>
+      <c r="AD170" s="69"/>
+      <c r="AE170" s="69"/>
+      <c r="AF170" s="69"/>
+      <c r="AG170" s="69"/>
+      <c r="AH170" s="69"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="70" t="s">
@@ -15296,7 +15296,7 @@
       <c r="AE171" s="70"/>
       <c r="AF171" s="70"/>
       <c r="AG171" s="70"/>
-      <c r="AH171" s="71" t="s">
+      <c r="AH171" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16879,42 +16879,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="67" t="s">
+      <c r="A210" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="68"/>
-      <c r="C210" s="69"/>
-      <c r="D210" s="69"/>
-      <c r="E210" s="69"/>
-      <c r="F210" s="69"/>
-      <c r="G210" s="69"/>
-      <c r="H210" s="69"/>
-      <c r="I210" s="69"/>
-      <c r="J210" s="69"/>
-      <c r="K210" s="69"/>
-      <c r="L210" s="69"/>
-      <c r="M210" s="69"/>
-      <c r="N210" s="69"/>
-      <c r="O210" s="69"/>
-      <c r="P210" s="69"/>
-      <c r="Q210" s="69"/>
-      <c r="R210" s="69"/>
-      <c r="S210" s="69"/>
-      <c r="T210" s="69"/>
-      <c r="U210" s="69"/>
-      <c r="V210" s="69"/>
-      <c r="W210" s="69"/>
-      <c r="X210" s="69"/>
-      <c r="Y210" s="69"/>
-      <c r="Z210" s="69"/>
-      <c r="AA210" s="69"/>
-      <c r="AB210" s="69"/>
-      <c r="AC210" s="69"/>
-      <c r="AD210" s="69"/>
-      <c r="AE210" s="69"/>
-      <c r="AF210" s="69"/>
-      <c r="AG210" s="69"/>
-      <c r="AH210" s="69"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="73"/>
+      <c r="G210" s="73"/>
+      <c r="H210" s="73"/>
+      <c r="I210" s="73"/>
+      <c r="J210" s="73"/>
+      <c r="K210" s="73"/>
+      <c r="L210" s="73"/>
+      <c r="M210" s="73"/>
+      <c r="N210" s="73"/>
+      <c r="O210" s="73"/>
+      <c r="P210" s="73"/>
+      <c r="Q210" s="73"/>
+      <c r="R210" s="73"/>
+      <c r="S210" s="73"/>
+      <c r="T210" s="73"/>
+      <c r="U210" s="73"/>
+      <c r="V210" s="73"/>
+      <c r="W210" s="73"/>
+      <c r="X210" s="73"/>
+      <c r="Y210" s="73"/>
+      <c r="Z210" s="73"/>
+      <c r="AA210" s="73"/>
+      <c r="AB210" s="73"/>
+      <c r="AC210" s="73"/>
+      <c r="AD210" s="73"/>
+      <c r="AE210" s="73"/>
+      <c r="AF210" s="73"/>
+      <c r="AG210" s="73"/>
+      <c r="AH210" s="73"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16953,80 +16953,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="72" t="s">
+      <c r="A212" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="72"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
-      <c r="H212" s="72"/>
-      <c r="I212" s="72"/>
-      <c r="J212" s="72"/>
-      <c r="K212" s="72"/>
-      <c r="L212" s="72"/>
-      <c r="M212" s="72"/>
-      <c r="N212" s="72"/>
-      <c r="O212" s="72"/>
-      <c r="P212" s="72"/>
-      <c r="Q212" s="72"/>
-      <c r="R212" s="72"/>
-      <c r="S212" s="72"/>
-      <c r="T212" s="72"/>
-      <c r="U212" s="72"/>
-      <c r="V212" s="72"/>
-      <c r="W212" s="72"/>
-      <c r="X212" s="72"/>
-      <c r="Y212" s="72"/>
-      <c r="Z212" s="72"/>
-      <c r="AA212" s="72"/>
-      <c r="AB212" s="72"/>
-      <c r="AC212" s="72"/>
-      <c r="AD212" s="72"/>
-      <c r="AE212" s="72"/>
-      <c r="AF212" s="72"/>
-      <c r="AG212" s="72"/>
-      <c r="AH212" s="72"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="67"/>
+      <c r="M212" s="67"/>
+      <c r="N212" s="67"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="67"/>
+      <c r="Q212" s="67"/>
+      <c r="R212" s="67"/>
+      <c r="S212" s="67"/>
+      <c r="T212" s="67"/>
+      <c r="U212" s="67"/>
+      <c r="V212" s="67"/>
+      <c r="W212" s="67"/>
+      <c r="X212" s="67"/>
+      <c r="Y212" s="67"/>
+      <c r="Z212" s="67"/>
+      <c r="AA212" s="67"/>
+      <c r="AB212" s="67"/>
+      <c r="AC212" s="67"/>
+      <c r="AD212" s="67"/>
+      <c r="AE212" s="67"/>
+      <c r="AF212" s="67"/>
+      <c r="AG212" s="67"/>
+      <c r="AH212" s="67"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73"/>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
-      <c r="F213" s="73"/>
-      <c r="G213" s="73"/>
-      <c r="H213" s="73"/>
-      <c r="I213" s="73"/>
-      <c r="J213" s="73"/>
-      <c r="K213" s="73"/>
-      <c r="L213" s="73"/>
-      <c r="M213" s="73"/>
-      <c r="N213" s="73"/>
-      <c r="O213" s="73"/>
-      <c r="P213" s="73"/>
-      <c r="Q213" s="73"/>
-      <c r="R213" s="73"/>
-      <c r="S213" s="73"/>
-      <c r="T213" s="73"/>
-      <c r="U213" s="73"/>
-      <c r="V213" s="73"/>
-      <c r="W213" s="73"/>
-      <c r="X213" s="73"/>
-      <c r="Y213" s="73"/>
-      <c r="Z213" s="73"/>
-      <c r="AA213" s="73"/>
-      <c r="AB213" s="73"/>
-      <c r="AC213" s="73"/>
-      <c r="AD213" s="73"/>
-      <c r="AE213" s="73"/>
-      <c r="AF213" s="73"/>
-      <c r="AG213" s="73"/>
-      <c r="AH213" s="73"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="68"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="68"/>
+      <c r="I213" s="68"/>
+      <c r="J213" s="68"/>
+      <c r="K213" s="68"/>
+      <c r="L213" s="68"/>
+      <c r="M213" s="68"/>
+      <c r="N213" s="68"/>
+      <c r="O213" s="68"/>
+      <c r="P213" s="68"/>
+      <c r="Q213" s="68"/>
+      <c r="R213" s="68"/>
+      <c r="S213" s="68"/>
+      <c r="T213" s="68"/>
+      <c r="U213" s="68"/>
+      <c r="V213" s="68"/>
+      <c r="W213" s="68"/>
+      <c r="X213" s="68"/>
+      <c r="Y213" s="68"/>
+      <c r="Z213" s="68"/>
+      <c r="AA213" s="68"/>
+      <c r="AB213" s="68"/>
+      <c r="AC213" s="68"/>
+      <c r="AD213" s="68"/>
+      <c r="AE213" s="68"/>
+      <c r="AF213" s="68"/>
+      <c r="AG213" s="68"/>
+      <c r="AH213" s="68"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="70" t="s">
@@ -17074,7 +17074,7 @@
       <c r="AE214" s="70"/>
       <c r="AF214" s="70"/>
       <c r="AG214" s="70"/>
-      <c r="AH214" s="71" t="s">
+      <c r="AH214" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19777,79 +19777,45 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="67" t="s">
+      <c r="A281" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="68"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
-      <c r="I281" s="69"/>
-      <c r="J281" s="69"/>
-      <c r="K281" s="69"/>
-      <c r="L281" s="69"/>
-      <c r="M281" s="69"/>
-      <c r="N281" s="69"/>
-      <c r="O281" s="69"/>
-      <c r="P281" s="69"/>
-      <c r="Q281" s="69"/>
-      <c r="R281" s="69"/>
-      <c r="S281" s="69"/>
-      <c r="T281" s="69"/>
-      <c r="U281" s="69"/>
-      <c r="V281" s="69"/>
-      <c r="W281" s="69"/>
-      <c r="X281" s="69"/>
-      <c r="Y281" s="69"/>
-      <c r="Z281" s="69"/>
-      <c r="AA281" s="69"/>
-      <c r="AB281" s="69"/>
-      <c r="AC281" s="69"/>
-      <c r="AD281" s="69"/>
-      <c r="AE281" s="69"/>
-      <c r="AF281" s="69"/>
-      <c r="AG281" s="69"/>
-      <c r="AH281" s="69"/>
+      <c r="B281" s="72"/>
+      <c r="C281" s="73"/>
+      <c r="D281" s="73"/>
+      <c r="E281" s="73"/>
+      <c r="F281" s="73"/>
+      <c r="G281" s="73"/>
+      <c r="H281" s="73"/>
+      <c r="I281" s="73"/>
+      <c r="J281" s="73"/>
+      <c r="K281" s="73"/>
+      <c r="L281" s="73"/>
+      <c r="M281" s="73"/>
+      <c r="N281" s="73"/>
+      <c r="O281" s="73"/>
+      <c r="P281" s="73"/>
+      <c r="Q281" s="73"/>
+      <c r="R281" s="73"/>
+      <c r="S281" s="73"/>
+      <c r="T281" s="73"/>
+      <c r="U281" s="73"/>
+      <c r="V281" s="73"/>
+      <c r="W281" s="73"/>
+      <c r="X281" s="73"/>
+      <c r="Y281" s="73"/>
+      <c r="Z281" s="73"/>
+      <c r="AA281" s="73"/>
+      <c r="AB281" s="73"/>
+      <c r="AC281" s="73"/>
+      <c r="AD281" s="73"/>
+      <c r="AE281" s="73"/>
+      <c r="AF281" s="73"/>
+      <c r="AG281" s="73"/>
+      <c r="AH281" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19866,6 +19832,40 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19877,8 +19877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H323" sqref="H323"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19899,80 +19899,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -20020,7 +20020,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22777,42 +22777,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="68"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="68"/>
-      <c r="T71" s="68"/>
-      <c r="U71" s="68"/>
-      <c r="V71" s="68"/>
-      <c r="W71" s="68"/>
-      <c r="X71" s="68"/>
-      <c r="Y71" s="68"/>
-      <c r="Z71" s="68"/>
-      <c r="AA71" s="68"/>
-      <c r="AB71" s="68"/>
-      <c r="AC71" s="68"/>
-      <c r="AD71" s="68"/>
-      <c r="AE71" s="68"/>
-      <c r="AF71" s="68"/>
-      <c r="AG71" s="68"/>
-      <c r="AH71" s="68"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="72"/>
+      <c r="Y71" s="72"/>
+      <c r="Z71" s="72"/>
+      <c r="AA71" s="72"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="72"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="72"/>
+      <c r="AF71" s="72"/>
+      <c r="AG71" s="72"/>
+      <c r="AH71" s="72"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22851,80 +22851,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="72"/>
-      <c r="W73" s="72"/>
-      <c r="X73" s="72"/>
-      <c r="Y73" s="72"/>
-      <c r="Z73" s="72"/>
-      <c r="AA73" s="72"/>
-      <c r="AB73" s="72"/>
-      <c r="AC73" s="72"/>
-      <c r="AD73" s="72"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
-      <c r="AH73" s="72"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="67"/>
+      <c r="AE73" s="67"/>
+      <c r="AF73" s="67"/>
+      <c r="AG73" s="67"/>
+      <c r="AH73" s="67"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="68" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="73"/>
-      <c r="Q74" s="73"/>
-      <c r="R74" s="73"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-      <c r="W74" s="73"/>
-      <c r="X74" s="73"/>
-      <c r="Y74" s="73"/>
-      <c r="Z74" s="73"/>
-      <c r="AA74" s="73"/>
-      <c r="AB74" s="73"/>
-      <c r="AC74" s="73"/>
-      <c r="AD74" s="73"/>
-      <c r="AE74" s="73"/>
-      <c r="AF74" s="73"/>
-      <c r="AG74" s="73"/>
-      <c r="AH74" s="73"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
+      <c r="X74" s="68"/>
+      <c r="Y74" s="68"/>
+      <c r="Z74" s="68"/>
+      <c r="AA74" s="68"/>
+      <c r="AB74" s="68"/>
+      <c r="AC74" s="68"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="68"/>
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="68"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
@@ -22972,7 +22972,7 @@
       <c r="AE75" s="70"/>
       <c r="AF75" s="70"/>
       <c r="AG75" s="70"/>
-      <c r="AH75" s="71" t="s">
+      <c r="AH75" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25631,118 +25631,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="68"/>
-      <c r="I141" s="68"/>
-      <c r="J141" s="68"/>
-      <c r="K141" s="68"/>
-      <c r="L141" s="68"/>
-      <c r="M141" s="68"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="68"/>
-      <c r="P141" s="68"/>
-      <c r="Q141" s="68"/>
-      <c r="R141" s="68"/>
-      <c r="S141" s="68"/>
-      <c r="T141" s="68"/>
-      <c r="U141" s="68"/>
-      <c r="V141" s="68"/>
-      <c r="W141" s="68"/>
-      <c r="X141" s="68"/>
-      <c r="Y141" s="68"/>
-      <c r="Z141" s="68"/>
-      <c r="AA141" s="68"/>
-      <c r="AB141" s="68"/>
-      <c r="AC141" s="68"/>
-      <c r="AD141" s="68"/>
-      <c r="AE141" s="68"/>
-      <c r="AF141" s="68"/>
-      <c r="AG141" s="68"/>
-      <c r="AH141" s="68"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="72"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="72"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
+      <c r="T141" s="72"/>
+      <c r="U141" s="72"/>
+      <c r="V141" s="72"/>
+      <c r="W141" s="72"/>
+      <c r="X141" s="72"/>
+      <c r="Y141" s="72"/>
+      <c r="Z141" s="72"/>
+      <c r="AA141" s="72"/>
+      <c r="AB141" s="72"/>
+      <c r="AC141" s="72"/>
+      <c r="AD141" s="72"/>
+      <c r="AE141" s="72"/>
+      <c r="AF141" s="72"/>
+      <c r="AG141" s="72"/>
+      <c r="AH141" s="72"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="72" t="s">
+      <c r="A142" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="72"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="72"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="72"/>
-      <c r="K142" s="72"/>
-      <c r="L142" s="72"/>
-      <c r="M142" s="72"/>
-      <c r="N142" s="72"/>
-      <c r="O142" s="72"/>
-      <c r="P142" s="72"/>
-      <c r="Q142" s="72"/>
-      <c r="R142" s="72"/>
-      <c r="S142" s="72"/>
-      <c r="T142" s="72"/>
-      <c r="U142" s="72"/>
-      <c r="V142" s="72"/>
-      <c r="W142" s="72"/>
-      <c r="X142" s="72"/>
-      <c r="Y142" s="72"/>
-      <c r="Z142" s="72"/>
-      <c r="AA142" s="72"/>
-      <c r="AB142" s="72"/>
-      <c r="AC142" s="72"/>
-      <c r="AD142" s="72"/>
-      <c r="AE142" s="72"/>
-      <c r="AF142" s="72"/>
-      <c r="AG142" s="72"/>
-      <c r="AH142" s="72"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
+      <c r="L142" s="67"/>
+      <c r="M142" s="67"/>
+      <c r="N142" s="67"/>
+      <c r="O142" s="67"/>
+      <c r="P142" s="67"/>
+      <c r="Q142" s="67"/>
+      <c r="R142" s="67"/>
+      <c r="S142" s="67"/>
+      <c r="T142" s="67"/>
+      <c r="U142" s="67"/>
+      <c r="V142" s="67"/>
+      <c r="W142" s="67"/>
+      <c r="X142" s="67"/>
+      <c r="Y142" s="67"/>
+      <c r="Z142" s="67"/>
+      <c r="AA142" s="67"/>
+      <c r="AB142" s="67"/>
+      <c r="AC142" s="67"/>
+      <c r="AD142" s="67"/>
+      <c r="AE142" s="67"/>
+      <c r="AF142" s="67"/>
+      <c r="AG142" s="67"/>
+      <c r="AH142" s="67"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="73" t="s">
+      <c r="A143" s="68" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="73"/>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
-      <c r="K143" s="73"/>
-      <c r="L143" s="73"/>
-      <c r="M143" s="73"/>
-      <c r="N143" s="73"/>
-      <c r="O143" s="73"/>
-      <c r="P143" s="73"/>
-      <c r="Q143" s="73"/>
-      <c r="R143" s="73"/>
-      <c r="S143" s="73"/>
-      <c r="T143" s="73"/>
-      <c r="U143" s="73"/>
-      <c r="V143" s="73"/>
-      <c r="W143" s="73"/>
-      <c r="X143" s="73"/>
-      <c r="Y143" s="73"/>
-      <c r="Z143" s="73"/>
-      <c r="AA143" s="73"/>
-      <c r="AB143" s="73"/>
-      <c r="AC143" s="73"/>
-      <c r="AD143" s="73"/>
-      <c r="AE143" s="73"/>
-      <c r="AF143" s="73"/>
-      <c r="AG143" s="73"/>
-      <c r="AH143" s="73"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
+      <c r="J143" s="68"/>
+      <c r="K143" s="68"/>
+      <c r="L143" s="68"/>
+      <c r="M143" s="68"/>
+      <c r="N143" s="68"/>
+      <c r="O143" s="68"/>
+      <c r="P143" s="68"/>
+      <c r="Q143" s="68"/>
+      <c r="R143" s="68"/>
+      <c r="S143" s="68"/>
+      <c r="T143" s="68"/>
+      <c r="U143" s="68"/>
+      <c r="V143" s="68"/>
+      <c r="W143" s="68"/>
+      <c r="X143" s="68"/>
+      <c r="Y143" s="68"/>
+      <c r="Z143" s="68"/>
+      <c r="AA143" s="68"/>
+      <c r="AB143" s="68"/>
+      <c r="AC143" s="68"/>
+      <c r="AD143" s="68"/>
+      <c r="AE143" s="68"/>
+      <c r="AF143" s="68"/>
+      <c r="AG143" s="68"/>
+      <c r="AH143" s="68"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
@@ -25790,7 +25790,7 @@
       <c r="AE144" s="70"/>
       <c r="AF144" s="70"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="71" t="s">
+      <c r="AH144" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28253,118 +28253,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="67" t="s">
+      <c r="A205" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="68"/>
-      <c r="C205" s="68"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="68"/>
-      <c r="F205" s="68"/>
-      <c r="G205" s="68"/>
-      <c r="H205" s="68"/>
-      <c r="I205" s="68"/>
-      <c r="J205" s="68"/>
-      <c r="K205" s="68"/>
-      <c r="L205" s="68"/>
-      <c r="M205" s="68"/>
-      <c r="N205" s="68"/>
-      <c r="O205" s="68"/>
-      <c r="P205" s="68"/>
-      <c r="Q205" s="68"/>
-      <c r="R205" s="68"/>
-      <c r="S205" s="68"/>
-      <c r="T205" s="68"/>
-      <c r="U205" s="68"/>
-      <c r="V205" s="68"/>
-      <c r="W205" s="68"/>
-      <c r="X205" s="68"/>
-      <c r="Y205" s="68"/>
-      <c r="Z205" s="68"/>
-      <c r="AA205" s="68"/>
-      <c r="AB205" s="68"/>
-      <c r="AC205" s="68"/>
-      <c r="AD205" s="68"/>
-      <c r="AE205" s="68"/>
-      <c r="AF205" s="68"/>
-      <c r="AG205" s="68"/>
-      <c r="AH205" s="68"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="72"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
+      <c r="L205" s="72"/>
+      <c r="M205" s="72"/>
+      <c r="N205" s="72"/>
+      <c r="O205" s="72"/>
+      <c r="P205" s="72"/>
+      <c r="Q205" s="72"/>
+      <c r="R205" s="72"/>
+      <c r="S205" s="72"/>
+      <c r="T205" s="72"/>
+      <c r="U205" s="72"/>
+      <c r="V205" s="72"/>
+      <c r="W205" s="72"/>
+      <c r="X205" s="72"/>
+      <c r="Y205" s="72"/>
+      <c r="Z205" s="72"/>
+      <c r="AA205" s="72"/>
+      <c r="AB205" s="72"/>
+      <c r="AC205" s="72"/>
+      <c r="AD205" s="72"/>
+      <c r="AE205" s="72"/>
+      <c r="AF205" s="72"/>
+      <c r="AG205" s="72"/>
+      <c r="AH205" s="72"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="72" t="s">
+      <c r="A207" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="72"/>
-      <c r="C207" s="72"/>
-      <c r="D207" s="72"/>
-      <c r="E207" s="72"/>
-      <c r="F207" s="72"/>
-      <c r="G207" s="72"/>
-      <c r="H207" s="72"/>
-      <c r="I207" s="72"/>
-      <c r="J207" s="72"/>
-      <c r="K207" s="72"/>
-      <c r="L207" s="72"/>
-      <c r="M207" s="72"/>
-      <c r="N207" s="72"/>
-      <c r="O207" s="72"/>
-      <c r="P207" s="72"/>
-      <c r="Q207" s="72"/>
-      <c r="R207" s="72"/>
-      <c r="S207" s="72"/>
-      <c r="T207" s="72"/>
-      <c r="U207" s="72"/>
-      <c r="V207" s="72"/>
-      <c r="W207" s="72"/>
-      <c r="X207" s="72"/>
-      <c r="Y207" s="72"/>
-      <c r="Z207" s="72"/>
-      <c r="AA207" s="72"/>
-      <c r="AB207" s="72"/>
-      <c r="AC207" s="72"/>
-      <c r="AD207" s="72"/>
-      <c r="AE207" s="72"/>
-      <c r="AF207" s="72"/>
-      <c r="AG207" s="72"/>
-      <c r="AH207" s="72"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
+      <c r="L207" s="67"/>
+      <c r="M207" s="67"/>
+      <c r="N207" s="67"/>
+      <c r="O207" s="67"/>
+      <c r="P207" s="67"/>
+      <c r="Q207" s="67"/>
+      <c r="R207" s="67"/>
+      <c r="S207" s="67"/>
+      <c r="T207" s="67"/>
+      <c r="U207" s="67"/>
+      <c r="V207" s="67"/>
+      <c r="W207" s="67"/>
+      <c r="X207" s="67"/>
+      <c r="Y207" s="67"/>
+      <c r="Z207" s="67"/>
+      <c r="AA207" s="67"/>
+      <c r="AB207" s="67"/>
+      <c r="AC207" s="67"/>
+      <c r="AD207" s="67"/>
+      <c r="AE207" s="67"/>
+      <c r="AF207" s="67"/>
+      <c r="AG207" s="67"/>
+      <c r="AH207" s="67"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="73" t="s">
+      <c r="A208" s="68" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="73"/>
-      <c r="C208" s="73"/>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
-      <c r="F208" s="73"/>
-      <c r="G208" s="73"/>
-      <c r="H208" s="73"/>
-      <c r="I208" s="73"/>
-      <c r="J208" s="73"/>
-      <c r="K208" s="73"/>
-      <c r="L208" s="73"/>
-      <c r="M208" s="73"/>
-      <c r="N208" s="73"/>
-      <c r="O208" s="73"/>
-      <c r="P208" s="73"/>
-      <c r="Q208" s="73"/>
-      <c r="R208" s="73"/>
-      <c r="S208" s="73"/>
-      <c r="T208" s="73"/>
-      <c r="U208" s="73"/>
-      <c r="V208" s="73"/>
-      <c r="W208" s="73"/>
-      <c r="X208" s="73"/>
-      <c r="Y208" s="73"/>
-      <c r="Z208" s="73"/>
-      <c r="AA208" s="73"/>
-      <c r="AB208" s="73"/>
-      <c r="AC208" s="73"/>
-      <c r="AD208" s="73"/>
-      <c r="AE208" s="73"/>
-      <c r="AF208" s="73"/>
-      <c r="AG208" s="73"/>
-      <c r="AH208" s="73"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
+      <c r="I208" s="68"/>
+      <c r="J208" s="68"/>
+      <c r="K208" s="68"/>
+      <c r="L208" s="68"/>
+      <c r="M208" s="68"/>
+      <c r="N208" s="68"/>
+      <c r="O208" s="68"/>
+      <c r="P208" s="68"/>
+      <c r="Q208" s="68"/>
+      <c r="R208" s="68"/>
+      <c r="S208" s="68"/>
+      <c r="T208" s="68"/>
+      <c r="U208" s="68"/>
+      <c r="V208" s="68"/>
+      <c r="W208" s="68"/>
+      <c r="X208" s="68"/>
+      <c r="Y208" s="68"/>
+      <c r="Z208" s="68"/>
+      <c r="AA208" s="68"/>
+      <c r="AB208" s="68"/>
+      <c r="AC208" s="68"/>
+      <c r="AD208" s="68"/>
+      <c r="AE208" s="68"/>
+      <c r="AF208" s="68"/>
+      <c r="AG208" s="68"/>
+      <c r="AH208" s="68"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="70" t="s">
@@ -28412,7 +28412,7 @@
       <c r="AE209" s="70"/>
       <c r="AF209" s="70"/>
       <c r="AG209" s="70"/>
-      <c r="AH209" s="71" t="s">
+      <c r="AH209" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30337,118 +30337,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="67" t="s">
+      <c r="A256" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="68"/>
-      <c r="C256" s="68"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
-      <c r="G256" s="68"/>
-      <c r="H256" s="68"/>
-      <c r="I256" s="68"/>
-      <c r="J256" s="68"/>
-      <c r="K256" s="68"/>
-      <c r="L256" s="68"/>
-      <c r="M256" s="68"/>
-      <c r="N256" s="68"/>
-      <c r="O256" s="68"/>
-      <c r="P256" s="68"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="68"/>
-      <c r="S256" s="68"/>
-      <c r="T256" s="68"/>
-      <c r="U256" s="68"/>
-      <c r="V256" s="68"/>
-      <c r="W256" s="68"/>
-      <c r="X256" s="68"/>
-      <c r="Y256" s="68"/>
-      <c r="Z256" s="68"/>
-      <c r="AA256" s="68"/>
-      <c r="AB256" s="68"/>
-      <c r="AC256" s="68"/>
-      <c r="AD256" s="68"/>
-      <c r="AE256" s="68"/>
-      <c r="AF256" s="68"/>
-      <c r="AG256" s="68"/>
-      <c r="AH256" s="68"/>
+      <c r="B256" s="72"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="72"/>
+      <c r="F256" s="72"/>
+      <c r="G256" s="72"/>
+      <c r="H256" s="72"/>
+      <c r="I256" s="72"/>
+      <c r="J256" s="72"/>
+      <c r="K256" s="72"/>
+      <c r="L256" s="72"/>
+      <c r="M256" s="72"/>
+      <c r="N256" s="72"/>
+      <c r="O256" s="72"/>
+      <c r="P256" s="72"/>
+      <c r="Q256" s="72"/>
+      <c r="R256" s="72"/>
+      <c r="S256" s="72"/>
+      <c r="T256" s="72"/>
+      <c r="U256" s="72"/>
+      <c r="V256" s="72"/>
+      <c r="W256" s="72"/>
+      <c r="X256" s="72"/>
+      <c r="Y256" s="72"/>
+      <c r="Z256" s="72"/>
+      <c r="AA256" s="72"/>
+      <c r="AB256" s="72"/>
+      <c r="AC256" s="72"/>
+      <c r="AD256" s="72"/>
+      <c r="AE256" s="72"/>
+      <c r="AF256" s="72"/>
+      <c r="AG256" s="72"/>
+      <c r="AH256" s="72"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="72" t="s">
+      <c r="A258" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="72"/>
-      <c r="C258" s="72"/>
-      <c r="D258" s="72"/>
-      <c r="E258" s="72"/>
-      <c r="F258" s="72"/>
-      <c r="G258" s="72"/>
-      <c r="H258" s="72"/>
-      <c r="I258" s="72"/>
-      <c r="J258" s="72"/>
-      <c r="K258" s="72"/>
-      <c r="L258" s="72"/>
-      <c r="M258" s="72"/>
-      <c r="N258" s="72"/>
-      <c r="O258" s="72"/>
-      <c r="P258" s="72"/>
-      <c r="Q258" s="72"/>
-      <c r="R258" s="72"/>
-      <c r="S258" s="72"/>
-      <c r="T258" s="72"/>
-      <c r="U258" s="72"/>
-      <c r="V258" s="72"/>
-      <c r="W258" s="72"/>
-      <c r="X258" s="72"/>
-      <c r="Y258" s="72"/>
-      <c r="Z258" s="72"/>
-      <c r="AA258" s="72"/>
-      <c r="AB258" s="72"/>
-      <c r="AC258" s="72"/>
-      <c r="AD258" s="72"/>
-      <c r="AE258" s="72"/>
-      <c r="AF258" s="72"/>
-      <c r="AG258" s="72"/>
-      <c r="AH258" s="72"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="67"/>
+      <c r="F258" s="67"/>
+      <c r="G258" s="67"/>
+      <c r="H258" s="67"/>
+      <c r="I258" s="67"/>
+      <c r="J258" s="67"/>
+      <c r="K258" s="67"/>
+      <c r="L258" s="67"/>
+      <c r="M258" s="67"/>
+      <c r="N258" s="67"/>
+      <c r="O258" s="67"/>
+      <c r="P258" s="67"/>
+      <c r="Q258" s="67"/>
+      <c r="R258" s="67"/>
+      <c r="S258" s="67"/>
+      <c r="T258" s="67"/>
+      <c r="U258" s="67"/>
+      <c r="V258" s="67"/>
+      <c r="W258" s="67"/>
+      <c r="X258" s="67"/>
+      <c r="Y258" s="67"/>
+      <c r="Z258" s="67"/>
+      <c r="AA258" s="67"/>
+      <c r="AB258" s="67"/>
+      <c r="AC258" s="67"/>
+      <c r="AD258" s="67"/>
+      <c r="AE258" s="67"/>
+      <c r="AF258" s="67"/>
+      <c r="AG258" s="67"/>
+      <c r="AH258" s="67"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="73" t="s">
+      <c r="A259" s="68" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="73"/>
-      <c r="C259" s="73"/>
-      <c r="D259" s="73"/>
-      <c r="E259" s="73"/>
-      <c r="F259" s="73"/>
-      <c r="G259" s="73"/>
-      <c r="H259" s="73"/>
-      <c r="I259" s="73"/>
-      <c r="J259" s="73"/>
-      <c r="K259" s="73"/>
-      <c r="L259" s="73"/>
-      <c r="M259" s="73"/>
-      <c r="N259" s="73"/>
-      <c r="O259" s="73"/>
-      <c r="P259" s="73"/>
-      <c r="Q259" s="73"/>
-      <c r="R259" s="73"/>
-      <c r="S259" s="73"/>
-      <c r="T259" s="73"/>
-      <c r="U259" s="73"/>
-      <c r="V259" s="73"/>
-      <c r="W259" s="73"/>
-      <c r="X259" s="73"/>
-      <c r="Y259" s="73"/>
-      <c r="Z259" s="73"/>
-      <c r="AA259" s="73"/>
-      <c r="AB259" s="73"/>
-      <c r="AC259" s="73"/>
-      <c r="AD259" s="73"/>
-      <c r="AE259" s="73"/>
-      <c r="AF259" s="73"/>
-      <c r="AG259" s="73"/>
-      <c r="AH259" s="73"/>
+      <c r="B259" s="68"/>
+      <c r="C259" s="68"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="68"/>
+      <c r="F259" s="68"/>
+      <c r="G259" s="68"/>
+      <c r="H259" s="68"/>
+      <c r="I259" s="68"/>
+      <c r="J259" s="68"/>
+      <c r="K259" s="68"/>
+      <c r="L259" s="68"/>
+      <c r="M259" s="68"/>
+      <c r="N259" s="68"/>
+      <c r="O259" s="68"/>
+      <c r="P259" s="68"/>
+      <c r="Q259" s="68"/>
+      <c r="R259" s="68"/>
+      <c r="S259" s="68"/>
+      <c r="T259" s="68"/>
+      <c r="U259" s="68"/>
+      <c r="V259" s="68"/>
+      <c r="W259" s="68"/>
+      <c r="X259" s="68"/>
+      <c r="Y259" s="68"/>
+      <c r="Z259" s="68"/>
+      <c r="AA259" s="68"/>
+      <c r="AB259" s="68"/>
+      <c r="AC259" s="68"/>
+      <c r="AD259" s="68"/>
+      <c r="AE259" s="68"/>
+      <c r="AF259" s="68"/>
+      <c r="AG259" s="68"/>
+      <c r="AH259" s="68"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
@@ -30496,7 +30496,7 @@
       <c r="AE260" s="70"/>
       <c r="AF260" s="70"/>
       <c r="AG260" s="70"/>
-      <c r="AH260" s="71" t="s">
+      <c r="AH260" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32119,118 +32119,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="67" t="s">
+      <c r="A300" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="68"/>
-      <c r="C300" s="68"/>
-      <c r="D300" s="68"/>
-      <c r="E300" s="68"/>
-      <c r="F300" s="68"/>
-      <c r="G300" s="68"/>
-      <c r="H300" s="68"/>
-      <c r="I300" s="68"/>
-      <c r="J300" s="68"/>
-      <c r="K300" s="68"/>
-      <c r="L300" s="68"/>
-      <c r="M300" s="68"/>
-      <c r="N300" s="68"/>
-      <c r="O300" s="68"/>
-      <c r="P300" s="68"/>
-      <c r="Q300" s="68"/>
-      <c r="R300" s="68"/>
-      <c r="S300" s="68"/>
-      <c r="T300" s="68"/>
-      <c r="U300" s="68"/>
-      <c r="V300" s="68"/>
-      <c r="W300" s="68"/>
-      <c r="X300" s="68"/>
-      <c r="Y300" s="68"/>
-      <c r="Z300" s="68"/>
-      <c r="AA300" s="68"/>
-      <c r="AB300" s="68"/>
-      <c r="AC300" s="68"/>
-      <c r="AD300" s="68"/>
-      <c r="AE300" s="68"/>
-      <c r="AF300" s="68"/>
-      <c r="AG300" s="68"/>
-      <c r="AH300" s="68"/>
+      <c r="B300" s="72"/>
+      <c r="C300" s="72"/>
+      <c r="D300" s="72"/>
+      <c r="E300" s="72"/>
+      <c r="F300" s="72"/>
+      <c r="G300" s="72"/>
+      <c r="H300" s="72"/>
+      <c r="I300" s="72"/>
+      <c r="J300" s="72"/>
+      <c r="K300" s="72"/>
+      <c r="L300" s="72"/>
+      <c r="M300" s="72"/>
+      <c r="N300" s="72"/>
+      <c r="O300" s="72"/>
+      <c r="P300" s="72"/>
+      <c r="Q300" s="72"/>
+      <c r="R300" s="72"/>
+      <c r="S300" s="72"/>
+      <c r="T300" s="72"/>
+      <c r="U300" s="72"/>
+      <c r="V300" s="72"/>
+      <c r="W300" s="72"/>
+      <c r="X300" s="72"/>
+      <c r="Y300" s="72"/>
+      <c r="Z300" s="72"/>
+      <c r="AA300" s="72"/>
+      <c r="AB300" s="72"/>
+      <c r="AC300" s="72"/>
+      <c r="AD300" s="72"/>
+      <c r="AE300" s="72"/>
+      <c r="AF300" s="72"/>
+      <c r="AG300" s="72"/>
+      <c r="AH300" s="72"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="72" t="s">
+      <c r="A301" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="72"/>
-      <c r="C301" s="72"/>
-      <c r="D301" s="72"/>
-      <c r="E301" s="72"/>
-      <c r="F301" s="72"/>
-      <c r="G301" s="72"/>
-      <c r="H301" s="72"/>
-      <c r="I301" s="72"/>
-      <c r="J301" s="72"/>
-      <c r="K301" s="72"/>
-      <c r="L301" s="72"/>
-      <c r="M301" s="72"/>
-      <c r="N301" s="72"/>
-      <c r="O301" s="72"/>
-      <c r="P301" s="72"/>
-      <c r="Q301" s="72"/>
-      <c r="R301" s="72"/>
-      <c r="S301" s="72"/>
-      <c r="T301" s="72"/>
-      <c r="U301" s="72"/>
-      <c r="V301" s="72"/>
-      <c r="W301" s="72"/>
-      <c r="X301" s="72"/>
-      <c r="Y301" s="72"/>
-      <c r="Z301" s="72"/>
-      <c r="AA301" s="72"/>
-      <c r="AB301" s="72"/>
-      <c r="AC301" s="72"/>
-      <c r="AD301" s="72"/>
-      <c r="AE301" s="72"/>
-      <c r="AF301" s="72"/>
-      <c r="AG301" s="72"/>
-      <c r="AH301" s="72"/>
+      <c r="B301" s="67"/>
+      <c r="C301" s="67"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
+      <c r="L301" s="67"/>
+      <c r="M301" s="67"/>
+      <c r="N301" s="67"/>
+      <c r="O301" s="67"/>
+      <c r="P301" s="67"/>
+      <c r="Q301" s="67"/>
+      <c r="R301" s="67"/>
+      <c r="S301" s="67"/>
+      <c r="T301" s="67"/>
+      <c r="U301" s="67"/>
+      <c r="V301" s="67"/>
+      <c r="W301" s="67"/>
+      <c r="X301" s="67"/>
+      <c r="Y301" s="67"/>
+      <c r="Z301" s="67"/>
+      <c r="AA301" s="67"/>
+      <c r="AB301" s="67"/>
+      <c r="AC301" s="67"/>
+      <c r="AD301" s="67"/>
+      <c r="AE301" s="67"/>
+      <c r="AF301" s="67"/>
+      <c r="AG301" s="67"/>
+      <c r="AH301" s="67"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="73" t="s">
+      <c r="A302" s="68" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="73"/>
-      <c r="C302" s="73"/>
-      <c r="D302" s="73"/>
-      <c r="E302" s="73"/>
-      <c r="F302" s="73"/>
-      <c r="G302" s="73"/>
-      <c r="H302" s="73"/>
-      <c r="I302" s="73"/>
-      <c r="J302" s="73"/>
-      <c r="K302" s="73"/>
-      <c r="L302" s="73"/>
-      <c r="M302" s="73"/>
-      <c r="N302" s="73"/>
-      <c r="O302" s="73"/>
-      <c r="P302" s="73"/>
-      <c r="Q302" s="73"/>
-      <c r="R302" s="73"/>
-      <c r="S302" s="73"/>
-      <c r="T302" s="73"/>
-      <c r="U302" s="73"/>
-      <c r="V302" s="73"/>
-      <c r="W302" s="73"/>
-      <c r="X302" s="73"/>
-      <c r="Y302" s="73"/>
-      <c r="Z302" s="73"/>
-      <c r="AA302" s="73"/>
-      <c r="AB302" s="73"/>
-      <c r="AC302" s="73"/>
-      <c r="AD302" s="73"/>
-      <c r="AE302" s="73"/>
-      <c r="AF302" s="73"/>
-      <c r="AG302" s="73"/>
-      <c r="AH302" s="73"/>
+      <c r="B302" s="68"/>
+      <c r="C302" s="68"/>
+      <c r="D302" s="68"/>
+      <c r="E302" s="68"/>
+      <c r="F302" s="68"/>
+      <c r="G302" s="68"/>
+      <c r="H302" s="68"/>
+      <c r="I302" s="68"/>
+      <c r="J302" s="68"/>
+      <c r="K302" s="68"/>
+      <c r="L302" s="68"/>
+      <c r="M302" s="68"/>
+      <c r="N302" s="68"/>
+      <c r="O302" s="68"/>
+      <c r="P302" s="68"/>
+      <c r="Q302" s="68"/>
+      <c r="R302" s="68"/>
+      <c r="S302" s="68"/>
+      <c r="T302" s="68"/>
+      <c r="U302" s="68"/>
+      <c r="V302" s="68"/>
+      <c r="W302" s="68"/>
+      <c r="X302" s="68"/>
+      <c r="Y302" s="68"/>
+      <c r="Z302" s="68"/>
+      <c r="AA302" s="68"/>
+      <c r="AB302" s="68"/>
+      <c r="AC302" s="68"/>
+      <c r="AD302" s="68"/>
+      <c r="AE302" s="68"/>
+      <c r="AF302" s="68"/>
+      <c r="AG302" s="68"/>
+      <c r="AH302" s="68"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="70" t="s">
@@ -32278,7 +32278,7 @@
       <c r="AE303" s="70"/>
       <c r="AF303" s="70"/>
       <c r="AG303" s="70"/>
-      <c r="AH303" s="71" t="s">
+      <c r="AH303" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -34398,7 +34398,7 @@
         <v>1715</v>
       </c>
       <c r="G355" s="52"/>
-      <c r="H355" s="52"/>
+      <c r="H355" s="53"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="9"/>
@@ -34867,42 +34867,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="67" t="s">
+      <c r="A367" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="68"/>
-      <c r="C367" s="68"/>
-      <c r="D367" s="68"/>
-      <c r="E367" s="68"/>
-      <c r="F367" s="68"/>
-      <c r="G367" s="68"/>
-      <c r="H367" s="68"/>
-      <c r="I367" s="68"/>
-      <c r="J367" s="68"/>
-      <c r="K367" s="68"/>
-      <c r="L367" s="68"/>
-      <c r="M367" s="68"/>
-      <c r="N367" s="68"/>
-      <c r="O367" s="68"/>
-      <c r="P367" s="68"/>
-      <c r="Q367" s="68"/>
-      <c r="R367" s="68"/>
-      <c r="S367" s="68"/>
-      <c r="T367" s="68"/>
-      <c r="U367" s="68"/>
-      <c r="V367" s="68"/>
-      <c r="W367" s="68"/>
-      <c r="X367" s="68"/>
-      <c r="Y367" s="68"/>
-      <c r="Z367" s="68"/>
-      <c r="AA367" s="68"/>
-      <c r="AB367" s="68"/>
-      <c r="AC367" s="68"/>
-      <c r="AD367" s="68"/>
-      <c r="AE367" s="68"/>
-      <c r="AF367" s="68"/>
-      <c r="AG367" s="68"/>
-      <c r="AH367" s="68"/>
+      <c r="B367" s="72"/>
+      <c r="C367" s="72"/>
+      <c r="D367" s="72"/>
+      <c r="E367" s="72"/>
+      <c r="F367" s="72"/>
+      <c r="G367" s="72"/>
+      <c r="H367" s="72"/>
+      <c r="I367" s="72"/>
+      <c r="J367" s="72"/>
+      <c r="K367" s="72"/>
+      <c r="L367" s="72"/>
+      <c r="M367" s="72"/>
+      <c r="N367" s="72"/>
+      <c r="O367" s="72"/>
+      <c r="P367" s="72"/>
+      <c r="Q367" s="72"/>
+      <c r="R367" s="72"/>
+      <c r="S367" s="72"/>
+      <c r="T367" s="72"/>
+      <c r="U367" s="72"/>
+      <c r="V367" s="72"/>
+      <c r="W367" s="72"/>
+      <c r="X367" s="72"/>
+      <c r="Y367" s="72"/>
+      <c r="Z367" s="72"/>
+      <c r="AA367" s="72"/>
+      <c r="AB367" s="72"/>
+      <c r="AC367" s="72"/>
+      <c r="AD367" s="72"/>
+      <c r="AE367" s="72"/>
+      <c r="AF367" s="72"/>
+      <c r="AG367" s="72"/>
+      <c r="AH367" s="72"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34941,80 +34941,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="72" t="s">
+      <c r="A369" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="72"/>
-      <c r="C369" s="72"/>
-      <c r="D369" s="72"/>
-      <c r="E369" s="72"/>
-      <c r="F369" s="72"/>
-      <c r="G369" s="72"/>
-      <c r="H369" s="72"/>
-      <c r="I369" s="72"/>
-      <c r="J369" s="72"/>
-      <c r="K369" s="72"/>
-      <c r="L369" s="72"/>
-      <c r="M369" s="72"/>
-      <c r="N369" s="72"/>
-      <c r="O369" s="72"/>
-      <c r="P369" s="72"/>
-      <c r="Q369" s="72"/>
-      <c r="R369" s="72"/>
-      <c r="S369" s="72"/>
-      <c r="T369" s="72"/>
-      <c r="U369" s="72"/>
-      <c r="V369" s="72"/>
-      <c r="W369" s="72"/>
-      <c r="X369" s="72"/>
-      <c r="Y369" s="72"/>
-      <c r="Z369" s="72"/>
-      <c r="AA369" s="72"/>
-      <c r="AB369" s="72"/>
-      <c r="AC369" s="72"/>
-      <c r="AD369" s="72"/>
-      <c r="AE369" s="72"/>
-      <c r="AF369" s="72"/>
-      <c r="AG369" s="72"/>
-      <c r="AH369" s="72"/>
+      <c r="B369" s="67"/>
+      <c r="C369" s="67"/>
+      <c r="D369" s="67"/>
+      <c r="E369" s="67"/>
+      <c r="F369" s="67"/>
+      <c r="G369" s="67"/>
+      <c r="H369" s="67"/>
+      <c r="I369" s="67"/>
+      <c r="J369" s="67"/>
+      <c r="K369" s="67"/>
+      <c r="L369" s="67"/>
+      <c r="M369" s="67"/>
+      <c r="N369" s="67"/>
+      <c r="O369" s="67"/>
+      <c r="P369" s="67"/>
+      <c r="Q369" s="67"/>
+      <c r="R369" s="67"/>
+      <c r="S369" s="67"/>
+      <c r="T369" s="67"/>
+      <c r="U369" s="67"/>
+      <c r="V369" s="67"/>
+      <c r="W369" s="67"/>
+      <c r="X369" s="67"/>
+      <c r="Y369" s="67"/>
+      <c r="Z369" s="67"/>
+      <c r="AA369" s="67"/>
+      <c r="AB369" s="67"/>
+      <c r="AC369" s="67"/>
+      <c r="AD369" s="67"/>
+      <c r="AE369" s="67"/>
+      <c r="AF369" s="67"/>
+      <c r="AG369" s="67"/>
+      <c r="AH369" s="67"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="73" t="s">
+      <c r="A370" s="68" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="73"/>
-      <c r="C370" s="73"/>
-      <c r="D370" s="73"/>
-      <c r="E370" s="73"/>
-      <c r="F370" s="73"/>
-      <c r="G370" s="73"/>
-      <c r="H370" s="73"/>
-      <c r="I370" s="73"/>
-      <c r="J370" s="73"/>
-      <c r="K370" s="73"/>
-      <c r="L370" s="73"/>
-      <c r="M370" s="73"/>
-      <c r="N370" s="73"/>
-      <c r="O370" s="73"/>
-      <c r="P370" s="73"/>
-      <c r="Q370" s="73"/>
-      <c r="R370" s="73"/>
-      <c r="S370" s="73"/>
-      <c r="T370" s="73"/>
-      <c r="U370" s="73"/>
-      <c r="V370" s="73"/>
-      <c r="W370" s="73"/>
-      <c r="X370" s="73"/>
-      <c r="Y370" s="73"/>
-      <c r="Z370" s="73"/>
-      <c r="AA370" s="73"/>
-      <c r="AB370" s="73"/>
-      <c r="AC370" s="73"/>
-      <c r="AD370" s="73"/>
-      <c r="AE370" s="73"/>
-      <c r="AF370" s="73"/>
-      <c r="AG370" s="73"/>
-      <c r="AH370" s="73"/>
+      <c r="B370" s="68"/>
+      <c r="C370" s="68"/>
+      <c r="D370" s="68"/>
+      <c r="E370" s="68"/>
+      <c r="F370" s="68"/>
+      <c r="G370" s="68"/>
+      <c r="H370" s="68"/>
+      <c r="I370" s="68"/>
+      <c r="J370" s="68"/>
+      <c r="K370" s="68"/>
+      <c r="L370" s="68"/>
+      <c r="M370" s="68"/>
+      <c r="N370" s="68"/>
+      <c r="O370" s="68"/>
+      <c r="P370" s="68"/>
+      <c r="Q370" s="68"/>
+      <c r="R370" s="68"/>
+      <c r="S370" s="68"/>
+      <c r="T370" s="68"/>
+      <c r="U370" s="68"/>
+      <c r="V370" s="68"/>
+      <c r="W370" s="68"/>
+      <c r="X370" s="68"/>
+      <c r="Y370" s="68"/>
+      <c r="Z370" s="68"/>
+      <c r="AA370" s="68"/>
+      <c r="AB370" s="68"/>
+      <c r="AC370" s="68"/>
+      <c r="AD370" s="68"/>
+      <c r="AE370" s="68"/>
+      <c r="AF370" s="68"/>
+      <c r="AG370" s="68"/>
+      <c r="AH370" s="68"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="70" t="s">
@@ -35062,7 +35062,7 @@
       <c r="AE371" s="70"/>
       <c r="AF371" s="70"/>
       <c r="AG371" s="70"/>
-      <c r="AH371" s="71" t="s">
+      <c r="AH371" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37739,99 +37739,45 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="67" t="s">
+      <c r="A436" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="68"/>
-      <c r="C436" s="68"/>
-      <c r="D436" s="68"/>
-      <c r="E436" s="68"/>
-      <c r="F436" s="68"/>
-      <c r="G436" s="68"/>
-      <c r="H436" s="68"/>
-      <c r="I436" s="68"/>
-      <c r="J436" s="68"/>
-      <c r="K436" s="68"/>
-      <c r="L436" s="68"/>
-      <c r="M436" s="68"/>
-      <c r="N436" s="68"/>
-      <c r="O436" s="68"/>
-      <c r="P436" s="68"/>
-      <c r="Q436" s="68"/>
-      <c r="R436" s="68"/>
-      <c r="S436" s="68"/>
-      <c r="T436" s="68"/>
-      <c r="U436" s="68"/>
-      <c r="V436" s="68"/>
-      <c r="W436" s="68"/>
-      <c r="X436" s="68"/>
-      <c r="Y436" s="68"/>
-      <c r="Z436" s="68"/>
-      <c r="AA436" s="68"/>
-      <c r="AB436" s="68"/>
-      <c r="AC436" s="68"/>
-      <c r="AD436" s="68"/>
-      <c r="AE436" s="68"/>
-      <c r="AF436" s="68"/>
-      <c r="AG436" s="68"/>
-      <c r="AH436" s="68"/>
+      <c r="B436" s="72"/>
+      <c r="C436" s="72"/>
+      <c r="D436" s="72"/>
+      <c r="E436" s="72"/>
+      <c r="F436" s="72"/>
+      <c r="G436" s="72"/>
+      <c r="H436" s="72"/>
+      <c r="I436" s="72"/>
+      <c r="J436" s="72"/>
+      <c r="K436" s="72"/>
+      <c r="L436" s="72"/>
+      <c r="M436" s="72"/>
+      <c r="N436" s="72"/>
+      <c r="O436" s="72"/>
+      <c r="P436" s="72"/>
+      <c r="Q436" s="72"/>
+      <c r="R436" s="72"/>
+      <c r="S436" s="72"/>
+      <c r="T436" s="72"/>
+      <c r="U436" s="72"/>
+      <c r="V436" s="72"/>
+      <c r="W436" s="72"/>
+      <c r="X436" s="72"/>
+      <c r="Y436" s="72"/>
+      <c r="Z436" s="72"/>
+      <c r="AA436" s="72"/>
+      <c r="AB436" s="72"/>
+      <c r="AC436" s="72"/>
+      <c r="AD436" s="72"/>
+      <c r="AE436" s="72"/>
+      <c r="AF436" s="72"/>
+      <c r="AG436" s="72"/>
+      <c r="AH436" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37848,6 +37794,60 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37881,80 +37881,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -38002,7 +38002,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38705,118 +38705,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="68" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -38864,7 +38864,7 @@
       <c r="AE24" s="70"/>
       <c r="AF24" s="70"/>
       <c r="AG24" s="70"/>
-      <c r="AH24" s="71" t="s">
+      <c r="AH24" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39447,118 +39447,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="68" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
@@ -39606,7 +39606,7 @@
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
-      <c r="AH42" s="71" t="s">
+      <c r="AH42" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40469,118 +40469,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
-      <c r="AE63" s="68"/>
-      <c r="AF63" s="68"/>
-      <c r="AG63" s="68"/>
-      <c r="AH63" s="68"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
+      <c r="V63" s="72"/>
+      <c r="W63" s="72"/>
+      <c r="X63" s="72"/>
+      <c r="Y63" s="72"/>
+      <c r="Z63" s="72"/>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="72"/>
+      <c r="AF63" s="72"/>
+      <c r="AG63" s="72"/>
+      <c r="AH63" s="72"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="72"/>
-      <c r="Y64" s="72"/>
-      <c r="Z64" s="72"/>
-      <c r="AA64" s="72"/>
-      <c r="AB64" s="72"/>
-      <c r="AC64" s="72"/>
-      <c r="AD64" s="72"/>
-      <c r="AE64" s="72"/>
-      <c r="AF64" s="72"/>
-      <c r="AG64" s="72"/>
-      <c r="AH64" s="72"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="67"/>
+      <c r="AD64" s="67"/>
+      <c r="AE64" s="67"/>
+      <c r="AF64" s="67"/>
+      <c r="AG64" s="67"/>
+      <c r="AH64" s="67"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="68" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="73"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="73"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
-      <c r="Z65" s="73"/>
-      <c r="AA65" s="73"/>
-      <c r="AB65" s="73"/>
-      <c r="AC65" s="73"/>
-      <c r="AD65" s="73"/>
-      <c r="AE65" s="73"/>
-      <c r="AF65" s="73"/>
-      <c r="AG65" s="73"/>
-      <c r="AH65" s="73"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+      <c r="Z65" s="68"/>
+      <c r="AA65" s="68"/>
+      <c r="AB65" s="68"/>
+      <c r="AC65" s="68"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
+      <c r="AF65" s="68"/>
+      <c r="AG65" s="68"/>
+      <c r="AH65" s="68"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
@@ -40628,7 +40628,7 @@
       <c r="AE66" s="70"/>
       <c r="AF66" s="70"/>
       <c r="AG66" s="70"/>
-      <c r="AH66" s="71" t="s">
+      <c r="AH66" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42451,118 +42451,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="67" t="s">
+      <c r="A111" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68"/>
-      <c r="L111" s="68"/>
-      <c r="M111" s="68"/>
-      <c r="N111" s="68"/>
-      <c r="O111" s="68"/>
-      <c r="P111" s="68"/>
-      <c r="Q111" s="68"/>
-      <c r="R111" s="68"/>
-      <c r="S111" s="68"/>
-      <c r="T111" s="68"/>
-      <c r="U111" s="68"/>
-      <c r="V111" s="68"/>
-      <c r="W111" s="68"/>
-      <c r="X111" s="68"/>
-      <c r="Y111" s="68"/>
-      <c r="Z111" s="68"/>
-      <c r="AA111" s="68"/>
-      <c r="AB111" s="68"/>
-      <c r="AC111" s="68"/>
-      <c r="AD111" s="68"/>
-      <c r="AE111" s="68"/>
-      <c r="AF111" s="68"/>
-      <c r="AG111" s="68"/>
-      <c r="AH111" s="68"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="72"/>
+      <c r="O111" s="72"/>
+      <c r="P111" s="72"/>
+      <c r="Q111" s="72"/>
+      <c r="R111" s="72"/>
+      <c r="S111" s="72"/>
+      <c r="T111" s="72"/>
+      <c r="U111" s="72"/>
+      <c r="V111" s="72"/>
+      <c r="W111" s="72"/>
+      <c r="X111" s="72"/>
+      <c r="Y111" s="72"/>
+      <c r="Z111" s="72"/>
+      <c r="AA111" s="72"/>
+      <c r="AB111" s="72"/>
+      <c r="AC111" s="72"/>
+      <c r="AD111" s="72"/>
+      <c r="AE111" s="72"/>
+      <c r="AF111" s="72"/>
+      <c r="AG111" s="72"/>
+      <c r="AH111" s="72"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="72" t="s">
+      <c r="A113" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
-      <c r="K113" s="72"/>
-      <c r="L113" s="72"/>
-      <c r="M113" s="72"/>
-      <c r="N113" s="72"/>
-      <c r="O113" s="72"/>
-      <c r="P113" s="72"/>
-      <c r="Q113" s="72"/>
-      <c r="R113" s="72"/>
-      <c r="S113" s="72"/>
-      <c r="T113" s="72"/>
-      <c r="U113" s="72"/>
-      <c r="V113" s="72"/>
-      <c r="W113" s="72"/>
-      <c r="X113" s="72"/>
-      <c r="Y113" s="72"/>
-      <c r="Z113" s="72"/>
-      <c r="AA113" s="72"/>
-      <c r="AB113" s="72"/>
-      <c r="AC113" s="72"/>
-      <c r="AD113" s="72"/>
-      <c r="AE113" s="72"/>
-      <c r="AF113" s="72"/>
-      <c r="AG113" s="72"/>
-      <c r="AH113" s="72"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="67"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="67"/>
+      <c r="R113" s="67"/>
+      <c r="S113" s="67"/>
+      <c r="T113" s="67"/>
+      <c r="U113" s="67"/>
+      <c r="V113" s="67"/>
+      <c r="W113" s="67"/>
+      <c r="X113" s="67"/>
+      <c r="Y113" s="67"/>
+      <c r="Z113" s="67"/>
+      <c r="AA113" s="67"/>
+      <c r="AB113" s="67"/>
+      <c r="AC113" s="67"/>
+      <c r="AD113" s="67"/>
+      <c r="AE113" s="67"/>
+      <c r="AF113" s="67"/>
+      <c r="AG113" s="67"/>
+      <c r="AH113" s="67"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="68" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
-      <c r="H114" s="73"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="73"/>
-      <c r="N114" s="73"/>
-      <c r="O114" s="73"/>
-      <c r="P114" s="73"/>
-      <c r="Q114" s="73"/>
-      <c r="R114" s="73"/>
-      <c r="S114" s="73"/>
-      <c r="T114" s="73"/>
-      <c r="U114" s="73"/>
-      <c r="V114" s="73"/>
-      <c r="W114" s="73"/>
-      <c r="X114" s="73"/>
-      <c r="Y114" s="73"/>
-      <c r="Z114" s="73"/>
-      <c r="AA114" s="73"/>
-      <c r="AB114" s="73"/>
-      <c r="AC114" s="73"/>
-      <c r="AD114" s="73"/>
-      <c r="AE114" s="73"/>
-      <c r="AF114" s="73"/>
-      <c r="AG114" s="73"/>
-      <c r="AH114" s="73"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="68"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="68"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="68"/>
+      <c r="S114" s="68"/>
+      <c r="T114" s="68"/>
+      <c r="U114" s="68"/>
+      <c r="V114" s="68"/>
+      <c r="W114" s="68"/>
+      <c r="X114" s="68"/>
+      <c r="Y114" s="68"/>
+      <c r="Z114" s="68"/>
+      <c r="AA114" s="68"/>
+      <c r="AB114" s="68"/>
+      <c r="AC114" s="68"/>
+      <c r="AD114" s="68"/>
+      <c r="AE114" s="68"/>
+      <c r="AF114" s="68"/>
+      <c r="AG114" s="68"/>
+      <c r="AH114" s="68"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
@@ -42610,7 +42610,7 @@
       <c r="AE115" s="70"/>
       <c r="AF115" s="70"/>
       <c r="AG115" s="70"/>
-      <c r="AH115" s="71" t="s">
+      <c r="AH115" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44433,118 +44433,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="67" t="s">
+      <c r="A160" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="68"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="68"/>
-      <c r="L160" s="68"/>
-      <c r="M160" s="68"/>
-      <c r="N160" s="68"/>
-      <c r="O160" s="68"/>
-      <c r="P160" s="68"/>
-      <c r="Q160" s="68"/>
-      <c r="R160" s="68"/>
-      <c r="S160" s="68"/>
-      <c r="T160" s="68"/>
-      <c r="U160" s="68"/>
-      <c r="V160" s="68"/>
-      <c r="W160" s="68"/>
-      <c r="X160" s="68"/>
-      <c r="Y160" s="68"/>
-      <c r="Z160" s="68"/>
-      <c r="AA160" s="68"/>
-      <c r="AB160" s="68"/>
-      <c r="AC160" s="68"/>
-      <c r="AD160" s="68"/>
-      <c r="AE160" s="68"/>
-      <c r="AF160" s="68"/>
-      <c r="AG160" s="68"/>
-      <c r="AH160" s="68"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
+      <c r="K160" s="72"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="72"/>
+      <c r="N160" s="72"/>
+      <c r="O160" s="72"/>
+      <c r="P160" s="72"/>
+      <c r="Q160" s="72"/>
+      <c r="R160" s="72"/>
+      <c r="S160" s="72"/>
+      <c r="T160" s="72"/>
+      <c r="U160" s="72"/>
+      <c r="V160" s="72"/>
+      <c r="W160" s="72"/>
+      <c r="X160" s="72"/>
+      <c r="Y160" s="72"/>
+      <c r="Z160" s="72"/>
+      <c r="AA160" s="72"/>
+      <c r="AB160" s="72"/>
+      <c r="AC160" s="72"/>
+      <c r="AD160" s="72"/>
+      <c r="AE160" s="72"/>
+      <c r="AF160" s="72"/>
+      <c r="AG160" s="72"/>
+      <c r="AH160" s="72"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="72" t="s">
+      <c r="A162" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="72"/>
-      <c r="C162" s="72"/>
-      <c r="D162" s="72"/>
-      <c r="E162" s="72"/>
-      <c r="F162" s="72"/>
-      <c r="G162" s="72"/>
-      <c r="H162" s="72"/>
-      <c r="I162" s="72"/>
-      <c r="J162" s="72"/>
-      <c r="K162" s="72"/>
-      <c r="L162" s="72"/>
-      <c r="M162" s="72"/>
-      <c r="N162" s="72"/>
-      <c r="O162" s="72"/>
-      <c r="P162" s="72"/>
-      <c r="Q162" s="72"/>
-      <c r="R162" s="72"/>
-      <c r="S162" s="72"/>
-      <c r="T162" s="72"/>
-      <c r="U162" s="72"/>
-      <c r="V162" s="72"/>
-      <c r="W162" s="72"/>
-      <c r="X162" s="72"/>
-      <c r="Y162" s="72"/>
-      <c r="Z162" s="72"/>
-      <c r="AA162" s="72"/>
-      <c r="AB162" s="72"/>
-      <c r="AC162" s="72"/>
-      <c r="AD162" s="72"/>
-      <c r="AE162" s="72"/>
-      <c r="AF162" s="72"/>
-      <c r="AG162" s="72"/>
-      <c r="AH162" s="72"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="67"/>
+      <c r="K162" s="67"/>
+      <c r="L162" s="67"/>
+      <c r="M162" s="67"/>
+      <c r="N162" s="67"/>
+      <c r="O162" s="67"/>
+      <c r="P162" s="67"/>
+      <c r="Q162" s="67"/>
+      <c r="R162" s="67"/>
+      <c r="S162" s="67"/>
+      <c r="T162" s="67"/>
+      <c r="U162" s="67"/>
+      <c r="V162" s="67"/>
+      <c r="W162" s="67"/>
+      <c r="X162" s="67"/>
+      <c r="Y162" s="67"/>
+      <c r="Z162" s="67"/>
+      <c r="AA162" s="67"/>
+      <c r="AB162" s="67"/>
+      <c r="AC162" s="67"/>
+      <c r="AD162" s="67"/>
+      <c r="AE162" s="67"/>
+      <c r="AF162" s="67"/>
+      <c r="AG162" s="67"/>
+      <c r="AH162" s="67"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="73" t="s">
+      <c r="A163" s="68" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="73"/>
-      <c r="C163" s="73"/>
-      <c r="D163" s="73"/>
-      <c r="E163" s="73"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
-      <c r="K163" s="73"/>
-      <c r="L163" s="73"/>
-      <c r="M163" s="73"/>
-      <c r="N163" s="73"/>
-      <c r="O163" s="73"/>
-      <c r="P163" s="73"/>
-      <c r="Q163" s="73"/>
-      <c r="R163" s="73"/>
-      <c r="S163" s="73"/>
-      <c r="T163" s="73"/>
-      <c r="U163" s="73"/>
-      <c r="V163" s="73"/>
-      <c r="W163" s="73"/>
-      <c r="X163" s="73"/>
-      <c r="Y163" s="73"/>
-      <c r="Z163" s="73"/>
-      <c r="AA163" s="73"/>
-      <c r="AB163" s="73"/>
-      <c r="AC163" s="73"/>
-      <c r="AD163" s="73"/>
-      <c r="AE163" s="73"/>
-      <c r="AF163" s="73"/>
-      <c r="AG163" s="73"/>
-      <c r="AH163" s="73"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="68"/>
+      <c r="I163" s="68"/>
+      <c r="J163" s="68"/>
+      <c r="K163" s="68"/>
+      <c r="L163" s="68"/>
+      <c r="M163" s="68"/>
+      <c r="N163" s="68"/>
+      <c r="O163" s="68"/>
+      <c r="P163" s="68"/>
+      <c r="Q163" s="68"/>
+      <c r="R163" s="68"/>
+      <c r="S163" s="68"/>
+      <c r="T163" s="68"/>
+      <c r="U163" s="68"/>
+      <c r="V163" s="68"/>
+      <c r="W163" s="68"/>
+      <c r="X163" s="68"/>
+      <c r="Y163" s="68"/>
+      <c r="Z163" s="68"/>
+      <c r="AA163" s="68"/>
+      <c r="AB163" s="68"/>
+      <c r="AC163" s="68"/>
+      <c r="AD163" s="68"/>
+      <c r="AE163" s="68"/>
+      <c r="AF163" s="68"/>
+      <c r="AG163" s="68"/>
+      <c r="AH163" s="68"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="70" t="s">
@@ -44592,7 +44592,7 @@
       <c r="AE164" s="70"/>
       <c r="AF164" s="70"/>
       <c r="AG164" s="70"/>
-      <c r="AH164" s="71" t="s">
+      <c r="AH164" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46415,118 +46415,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="67" t="s">
+      <c r="A209" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="68"/>
-      <c r="C209" s="68"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="68"/>
-      <c r="G209" s="68"/>
-      <c r="H209" s="68"/>
-      <c r="I209" s="68"/>
-      <c r="J209" s="68"/>
-      <c r="K209" s="68"/>
-      <c r="L209" s="68"/>
-      <c r="M209" s="68"/>
-      <c r="N209" s="68"/>
-      <c r="O209" s="68"/>
-      <c r="P209" s="68"/>
-      <c r="Q209" s="68"/>
-      <c r="R209" s="68"/>
-      <c r="S209" s="68"/>
-      <c r="T209" s="68"/>
-      <c r="U209" s="68"/>
-      <c r="V209" s="68"/>
-      <c r="W209" s="68"/>
-      <c r="X209" s="68"/>
-      <c r="Y209" s="68"/>
-      <c r="Z209" s="68"/>
-      <c r="AA209" s="68"/>
-      <c r="AB209" s="68"/>
-      <c r="AC209" s="68"/>
-      <c r="AD209" s="68"/>
-      <c r="AE209" s="68"/>
-      <c r="AF209" s="68"/>
-      <c r="AG209" s="68"/>
-      <c r="AH209" s="68"/>
+      <c r="B209" s="72"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="72"/>
+      <c r="G209" s="72"/>
+      <c r="H209" s="72"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="72"/>
+      <c r="L209" s="72"/>
+      <c r="M209" s="72"/>
+      <c r="N209" s="72"/>
+      <c r="O209" s="72"/>
+      <c r="P209" s="72"/>
+      <c r="Q209" s="72"/>
+      <c r="R209" s="72"/>
+      <c r="S209" s="72"/>
+      <c r="T209" s="72"/>
+      <c r="U209" s="72"/>
+      <c r="V209" s="72"/>
+      <c r="W209" s="72"/>
+      <c r="X209" s="72"/>
+      <c r="Y209" s="72"/>
+      <c r="Z209" s="72"/>
+      <c r="AA209" s="72"/>
+      <c r="AB209" s="72"/>
+      <c r="AC209" s="72"/>
+      <c r="AD209" s="72"/>
+      <c r="AE209" s="72"/>
+      <c r="AF209" s="72"/>
+      <c r="AG209" s="72"/>
+      <c r="AH209" s="72"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="72" t="s">
+      <c r="A211" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="72"/>
-      <c r="L211" s="72"/>
-      <c r="M211" s="72"/>
-      <c r="N211" s="72"/>
-      <c r="O211" s="72"/>
-      <c r="P211" s="72"/>
-      <c r="Q211" s="72"/>
-      <c r="R211" s="72"/>
-      <c r="S211" s="72"/>
-      <c r="T211" s="72"/>
-      <c r="U211" s="72"/>
-      <c r="V211" s="72"/>
-      <c r="W211" s="72"/>
-      <c r="X211" s="72"/>
-      <c r="Y211" s="72"/>
-      <c r="Z211" s="72"/>
-      <c r="AA211" s="72"/>
-      <c r="AB211" s="72"/>
-      <c r="AC211" s="72"/>
-      <c r="AD211" s="72"/>
-      <c r="AE211" s="72"/>
-      <c r="AF211" s="72"/>
-      <c r="AG211" s="72"/>
-      <c r="AH211" s="72"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="67"/>
+      <c r="M211" s="67"/>
+      <c r="N211" s="67"/>
+      <c r="O211" s="67"/>
+      <c r="P211" s="67"/>
+      <c r="Q211" s="67"/>
+      <c r="R211" s="67"/>
+      <c r="S211" s="67"/>
+      <c r="T211" s="67"/>
+      <c r="U211" s="67"/>
+      <c r="V211" s="67"/>
+      <c r="W211" s="67"/>
+      <c r="X211" s="67"/>
+      <c r="Y211" s="67"/>
+      <c r="Z211" s="67"/>
+      <c r="AA211" s="67"/>
+      <c r="AB211" s="67"/>
+      <c r="AC211" s="67"/>
+      <c r="AD211" s="67"/>
+      <c r="AE211" s="67"/>
+      <c r="AF211" s="67"/>
+      <c r="AG211" s="67"/>
+      <c r="AH211" s="67"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="73" t="s">
+      <c r="A212" s="68" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="73"/>
-      <c r="C212" s="73"/>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
-      <c r="F212" s="73"/>
-      <c r="G212" s="73"/>
-      <c r="H212" s="73"/>
-      <c r="I212" s="73"/>
-      <c r="J212" s="73"/>
-      <c r="K212" s="73"/>
-      <c r="L212" s="73"/>
-      <c r="M212" s="73"/>
-      <c r="N212" s="73"/>
-      <c r="O212" s="73"/>
-      <c r="P212" s="73"/>
-      <c r="Q212" s="73"/>
-      <c r="R212" s="73"/>
-      <c r="S212" s="73"/>
-      <c r="T212" s="73"/>
-      <c r="U212" s="73"/>
-      <c r="V212" s="73"/>
-      <c r="W212" s="73"/>
-      <c r="X212" s="73"/>
-      <c r="Y212" s="73"/>
-      <c r="Z212" s="73"/>
-      <c r="AA212" s="73"/>
-      <c r="AB212" s="73"/>
-      <c r="AC212" s="73"/>
-      <c r="AD212" s="73"/>
-      <c r="AE212" s="73"/>
-      <c r="AF212" s="73"/>
-      <c r="AG212" s="73"/>
-      <c r="AH212" s="73"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="68"/>
+      <c r="I212" s="68"/>
+      <c r="J212" s="68"/>
+      <c r="K212" s="68"/>
+      <c r="L212" s="68"/>
+      <c r="M212" s="68"/>
+      <c r="N212" s="68"/>
+      <c r="O212" s="68"/>
+      <c r="P212" s="68"/>
+      <c r="Q212" s="68"/>
+      <c r="R212" s="68"/>
+      <c r="S212" s="68"/>
+      <c r="T212" s="68"/>
+      <c r="U212" s="68"/>
+      <c r="V212" s="68"/>
+      <c r="W212" s="68"/>
+      <c r="X212" s="68"/>
+      <c r="Y212" s="68"/>
+      <c r="Z212" s="68"/>
+      <c r="AA212" s="68"/>
+      <c r="AB212" s="68"/>
+      <c r="AC212" s="68"/>
+      <c r="AD212" s="68"/>
+      <c r="AE212" s="68"/>
+      <c r="AF212" s="68"/>
+      <c r="AG212" s="68"/>
+      <c r="AH212" s="68"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="70" t="s">
@@ -46574,7 +46574,7 @@
       <c r="AE213" s="70"/>
       <c r="AF213" s="70"/>
       <c r="AG213" s="70"/>
-      <c r="AH213" s="71" t="s">
+      <c r="AH213" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48477,99 +48477,45 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="67" t="s">
+      <c r="A260" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="68"/>
-      <c r="C260" s="68"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="68"/>
-      <c r="F260" s="68"/>
-      <c r="G260" s="68"/>
-      <c r="H260" s="68"/>
-      <c r="I260" s="68"/>
-      <c r="J260" s="68"/>
-      <c r="K260" s="68"/>
-      <c r="L260" s="68"/>
-      <c r="M260" s="68"/>
-      <c r="N260" s="68"/>
-      <c r="O260" s="68"/>
-      <c r="P260" s="68"/>
-      <c r="Q260" s="68"/>
-      <c r="R260" s="68"/>
-      <c r="S260" s="68"/>
-      <c r="T260" s="68"/>
-      <c r="U260" s="68"/>
-      <c r="V260" s="68"/>
-      <c r="W260" s="68"/>
-      <c r="X260" s="68"/>
-      <c r="Y260" s="68"/>
-      <c r="Z260" s="68"/>
-      <c r="AA260" s="68"/>
-      <c r="AB260" s="68"/>
-      <c r="AC260" s="68"/>
-      <c r="AD260" s="68"/>
-      <c r="AE260" s="68"/>
-      <c r="AF260" s="68"/>
-      <c r="AG260" s="68"/>
-      <c r="AH260" s="68"/>
+      <c r="B260" s="72"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="72"/>
+      <c r="E260" s="72"/>
+      <c r="F260" s="72"/>
+      <c r="G260" s="72"/>
+      <c r="H260" s="72"/>
+      <c r="I260" s="72"/>
+      <c r="J260" s="72"/>
+      <c r="K260" s="72"/>
+      <c r="L260" s="72"/>
+      <c r="M260" s="72"/>
+      <c r="N260" s="72"/>
+      <c r="O260" s="72"/>
+      <c r="P260" s="72"/>
+      <c r="Q260" s="72"/>
+      <c r="R260" s="72"/>
+      <c r="S260" s="72"/>
+      <c r="T260" s="72"/>
+      <c r="U260" s="72"/>
+      <c r="V260" s="72"/>
+      <c r="W260" s="72"/>
+      <c r="X260" s="72"/>
+      <c r="Y260" s="72"/>
+      <c r="Z260" s="72"/>
+      <c r="AA260" s="72"/>
+      <c r="AB260" s="72"/>
+      <c r="AC260" s="72"/>
+      <c r="AD260" s="72"/>
+      <c r="AE260" s="72"/>
+      <c r="AF260" s="72"/>
+      <c r="AG260" s="72"/>
+      <c r="AH260" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48586,6 +48532,60 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E975EDC-A415-4AFE-9692-9F8CF694F39D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B48CB-82F5-4CB7-9B7A-171E9511031F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1733">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6942,11 +6942,15 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>’2018/11/27</t>
+    <t>2018/12/4</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>2018/12/4</t>
+    <t>‘2018/12/4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾校</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7352,18 +7356,6 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7374,7 +7366,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8308,80 +8312,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -8429,7 +8433,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9732,118 +9736,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
@@ -9891,7 +9895,7 @@
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
-      <c r="AH38" s="74" t="s">
+      <c r="AH38" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12354,119 +12358,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
-      <c r="K99" s="73"/>
-      <c r="L99" s="73"/>
-      <c r="M99" s="73"/>
-      <c r="N99" s="73"/>
-      <c r="O99" s="73"/>
-      <c r="P99" s="73"/>
-      <c r="Q99" s="73"/>
-      <c r="R99" s="73"/>
-      <c r="S99" s="73"/>
-      <c r="T99" s="73"/>
-      <c r="U99" s="73"/>
-      <c r="V99" s="73"/>
-      <c r="W99" s="73"/>
-      <c r="X99" s="73"/>
-      <c r="Y99" s="73"/>
-      <c r="Z99" s="73"/>
-      <c r="AA99" s="73"/>
-      <c r="AB99" s="73"/>
-      <c r="AC99" s="73"/>
-      <c r="AD99" s="73"/>
-      <c r="AE99" s="73"/>
-      <c r="AF99" s="73"/>
-      <c r="AG99" s="73"/>
-      <c r="AH99" s="73"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="69"/>
+      <c r="AB99" s="69"/>
+      <c r="AC99" s="69"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="69"/>
+      <c r="AF99" s="69"/>
+      <c r="AG99" s="69"/>
+      <c r="AH99" s="69"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="67"/>
-      <c r="P101" s="67"/>
-      <c r="Q101" s="67"/>
-      <c r="R101" s="67"/>
-      <c r="S101" s="67"/>
-      <c r="T101" s="67"/>
-      <c r="U101" s="67"/>
-      <c r="V101" s="67"/>
-      <c r="W101" s="67"/>
-      <c r="X101" s="67"/>
-      <c r="Y101" s="67"/>
-      <c r="Z101" s="67"/>
-      <c r="AA101" s="67"/>
-      <c r="AB101" s="67"/>
-      <c r="AC101" s="67"/>
-      <c r="AD101" s="67"/>
-      <c r="AE101" s="67"/>
-      <c r="AF101" s="67"/>
-      <c r="AG101" s="67"/>
-      <c r="AH101" s="67"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="72"/>
+      <c r="X101" s="72"/>
+      <c r="Y101" s="72"/>
+      <c r="Z101" s="72"/>
+      <c r="AA101" s="72"/>
+      <c r="AB101" s="72"/>
+      <c r="AC101" s="72"/>
+      <c r="AD101" s="72"/>
+      <c r="AE101" s="72"/>
+      <c r="AF101" s="72"/>
+      <c r="AG101" s="72"/>
+      <c r="AH101" s="72"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="68" t="s">
+      <c r="A102" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="68"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="69"/>
-      <c r="S102" s="69"/>
-      <c r="T102" s="69"/>
-      <c r="U102" s="69"/>
-      <c r="V102" s="69"/>
-      <c r="W102" s="69"/>
-      <c r="X102" s="69"/>
-      <c r="Y102" s="69"/>
-      <c r="Z102" s="69"/>
-      <c r="AA102" s="69"/>
-      <c r="AB102" s="69"/>
-      <c r="AC102" s="69"/>
-      <c r="AD102" s="69"/>
-      <c r="AE102" s="69"/>
-      <c r="AF102" s="69"/>
-      <c r="AG102" s="69"/>
-      <c r="AH102" s="69"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="74"/>
+      <c r="W102" s="74"/>
+      <c r="X102" s="74"/>
+      <c r="Y102" s="74"/>
+      <c r="Z102" s="74"/>
+      <c r="AA102" s="74"/>
+      <c r="AB102" s="74"/>
+      <c r="AC102" s="74"/>
+      <c r="AD102" s="74"/>
+      <c r="AE102" s="74"/>
+      <c r="AF102" s="74"/>
+      <c r="AG102" s="74"/>
+      <c r="AH102" s="74"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
@@ -12514,7 +12518,7 @@
       <c r="AE103" s="70"/>
       <c r="AF103" s="70"/>
       <c r="AG103" s="70"/>
-      <c r="AH103" s="74" t="s">
+      <c r="AH103" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15137,118 +15141,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="71" t="s">
+      <c r="A168" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="72"/>
-      <c r="C168" s="73"/>
-      <c r="D168" s="73"/>
-      <c r="E168" s="73"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="73"/>
-      <c r="H168" s="73"/>
-      <c r="I168" s="73"/>
-      <c r="J168" s="73"/>
-      <c r="K168" s="73"/>
-      <c r="L168" s="73"/>
-      <c r="M168" s="73"/>
-      <c r="N168" s="73"/>
-      <c r="O168" s="73"/>
-      <c r="P168" s="73"/>
-      <c r="Q168" s="73"/>
-      <c r="R168" s="73"/>
-      <c r="S168" s="73"/>
-      <c r="T168" s="73"/>
-      <c r="U168" s="73"/>
-      <c r="V168" s="73"/>
-      <c r="W168" s="73"/>
-      <c r="X168" s="73"/>
-      <c r="Y168" s="73"/>
-      <c r="Z168" s="73"/>
-      <c r="AA168" s="73"/>
-      <c r="AB168" s="73"/>
-      <c r="AC168" s="73"/>
-      <c r="AD168" s="73"/>
-      <c r="AE168" s="73"/>
-      <c r="AF168" s="73"/>
-      <c r="AG168" s="73"/>
-      <c r="AH168" s="73"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="69"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
+      <c r="L168" s="69"/>
+      <c r="M168" s="69"/>
+      <c r="N168" s="69"/>
+      <c r="O168" s="69"/>
+      <c r="P168" s="69"/>
+      <c r="Q168" s="69"/>
+      <c r="R168" s="69"/>
+      <c r="S168" s="69"/>
+      <c r="T168" s="69"/>
+      <c r="U168" s="69"/>
+      <c r="V168" s="69"/>
+      <c r="W168" s="69"/>
+      <c r="X168" s="69"/>
+      <c r="Y168" s="69"/>
+      <c r="Z168" s="69"/>
+      <c r="AA168" s="69"/>
+      <c r="AB168" s="69"/>
+      <c r="AC168" s="69"/>
+      <c r="AD168" s="69"/>
+      <c r="AE168" s="69"/>
+      <c r="AF168" s="69"/>
+      <c r="AG168" s="69"/>
+      <c r="AH168" s="69"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="67" t="s">
+      <c r="A169" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="67"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="67"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="67"/>
-      <c r="H169" s="67"/>
-      <c r="I169" s="67"/>
-      <c r="J169" s="67"/>
-      <c r="K169" s="67"/>
-      <c r="L169" s="67"/>
-      <c r="M169" s="67"/>
-      <c r="N169" s="67"/>
-      <c r="O169" s="67"/>
-      <c r="P169" s="67"/>
-      <c r="Q169" s="67"/>
-      <c r="R169" s="67"/>
-      <c r="S169" s="67"/>
-      <c r="T169" s="67"/>
-      <c r="U169" s="67"/>
-      <c r="V169" s="67"/>
-      <c r="W169" s="67"/>
-      <c r="X169" s="67"/>
-      <c r="Y169" s="67"/>
-      <c r="Z169" s="67"/>
-      <c r="AA169" s="67"/>
-      <c r="AB169" s="67"/>
-      <c r="AC169" s="67"/>
-      <c r="AD169" s="67"/>
-      <c r="AE169" s="67"/>
-      <c r="AF169" s="67"/>
-      <c r="AG169" s="67"/>
-      <c r="AH169" s="67"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="72"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
+      <c r="N169" s="72"/>
+      <c r="O169" s="72"/>
+      <c r="P169" s="72"/>
+      <c r="Q169" s="72"/>
+      <c r="R169" s="72"/>
+      <c r="S169" s="72"/>
+      <c r="T169" s="72"/>
+      <c r="U169" s="72"/>
+      <c r="V169" s="72"/>
+      <c r="W169" s="72"/>
+      <c r="X169" s="72"/>
+      <c r="Y169" s="72"/>
+      <c r="Z169" s="72"/>
+      <c r="AA169" s="72"/>
+      <c r="AB169" s="72"/>
+      <c r="AC169" s="72"/>
+      <c r="AD169" s="72"/>
+      <c r="AE169" s="72"/>
+      <c r="AF169" s="72"/>
+      <c r="AG169" s="72"/>
+      <c r="AH169" s="72"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="68" t="s">
+      <c r="A170" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="68"/>
-      <c r="C170" s="69"/>
-      <c r="D170" s="69"/>
-      <c r="E170" s="69"/>
-      <c r="F170" s="69"/>
-      <c r="G170" s="69"/>
-      <c r="H170" s="69"/>
-      <c r="I170" s="69"/>
-      <c r="J170" s="69"/>
-      <c r="K170" s="69"/>
-      <c r="L170" s="69"/>
-      <c r="M170" s="69"/>
-      <c r="N170" s="69"/>
-      <c r="O170" s="69"/>
-      <c r="P170" s="69"/>
-      <c r="Q170" s="69"/>
-      <c r="R170" s="69"/>
-      <c r="S170" s="69"/>
-      <c r="T170" s="69"/>
-      <c r="U170" s="69"/>
-      <c r="V170" s="69"/>
-      <c r="W170" s="69"/>
-      <c r="X170" s="69"/>
-      <c r="Y170" s="69"/>
-      <c r="Z170" s="69"/>
-      <c r="AA170" s="69"/>
-      <c r="AB170" s="69"/>
-      <c r="AC170" s="69"/>
-      <c r="AD170" s="69"/>
-      <c r="AE170" s="69"/>
-      <c r="AF170" s="69"/>
-      <c r="AG170" s="69"/>
-      <c r="AH170" s="69"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="74"/>
+      <c r="L170" s="74"/>
+      <c r="M170" s="74"/>
+      <c r="N170" s="74"/>
+      <c r="O170" s="74"/>
+      <c r="P170" s="74"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="74"/>
+      <c r="S170" s="74"/>
+      <c r="T170" s="74"/>
+      <c r="U170" s="74"/>
+      <c r="V170" s="74"/>
+      <c r="W170" s="74"/>
+      <c r="X170" s="74"/>
+      <c r="Y170" s="74"/>
+      <c r="Z170" s="74"/>
+      <c r="AA170" s="74"/>
+      <c r="AB170" s="74"/>
+      <c r="AC170" s="74"/>
+      <c r="AD170" s="74"/>
+      <c r="AE170" s="74"/>
+      <c r="AF170" s="74"/>
+      <c r="AG170" s="74"/>
+      <c r="AH170" s="74"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="70" t="s">
@@ -15296,7 +15300,7 @@
       <c r="AE171" s="70"/>
       <c r="AF171" s="70"/>
       <c r="AG171" s="70"/>
-      <c r="AH171" s="74" t="s">
+      <c r="AH171" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16879,42 +16883,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="71" t="s">
+      <c r="A210" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="72"/>
-      <c r="C210" s="73"/>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
-      <c r="F210" s="73"/>
-      <c r="G210" s="73"/>
-      <c r="H210" s="73"/>
-      <c r="I210" s="73"/>
-      <c r="J210" s="73"/>
-      <c r="K210" s="73"/>
-      <c r="L210" s="73"/>
-      <c r="M210" s="73"/>
-      <c r="N210" s="73"/>
-      <c r="O210" s="73"/>
-      <c r="P210" s="73"/>
-      <c r="Q210" s="73"/>
-      <c r="R210" s="73"/>
-      <c r="S210" s="73"/>
-      <c r="T210" s="73"/>
-      <c r="U210" s="73"/>
-      <c r="V210" s="73"/>
-      <c r="W210" s="73"/>
-      <c r="X210" s="73"/>
-      <c r="Y210" s="73"/>
-      <c r="Z210" s="73"/>
-      <c r="AA210" s="73"/>
-      <c r="AB210" s="73"/>
-      <c r="AC210" s="73"/>
-      <c r="AD210" s="73"/>
-      <c r="AE210" s="73"/>
-      <c r="AF210" s="73"/>
-      <c r="AG210" s="73"/>
-      <c r="AH210" s="73"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="69"/>
+      <c r="D210" s="69"/>
+      <c r="E210" s="69"/>
+      <c r="F210" s="69"/>
+      <c r="G210" s="69"/>
+      <c r="H210" s="69"/>
+      <c r="I210" s="69"/>
+      <c r="J210" s="69"/>
+      <c r="K210" s="69"/>
+      <c r="L210" s="69"/>
+      <c r="M210" s="69"/>
+      <c r="N210" s="69"/>
+      <c r="O210" s="69"/>
+      <c r="P210" s="69"/>
+      <c r="Q210" s="69"/>
+      <c r="R210" s="69"/>
+      <c r="S210" s="69"/>
+      <c r="T210" s="69"/>
+      <c r="U210" s="69"/>
+      <c r="V210" s="69"/>
+      <c r="W210" s="69"/>
+      <c r="X210" s="69"/>
+      <c r="Y210" s="69"/>
+      <c r="Z210" s="69"/>
+      <c r="AA210" s="69"/>
+      <c r="AB210" s="69"/>
+      <c r="AC210" s="69"/>
+      <c r="AD210" s="69"/>
+      <c r="AE210" s="69"/>
+      <c r="AF210" s="69"/>
+      <c r="AG210" s="69"/>
+      <c r="AH210" s="69"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16953,80 +16957,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="67" t="s">
+      <c r="A212" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="67"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
-      <c r="F212" s="67"/>
-      <c r="G212" s="67"/>
-      <c r="H212" s="67"/>
-      <c r="I212" s="67"/>
-      <c r="J212" s="67"/>
-      <c r="K212" s="67"/>
-      <c r="L212" s="67"/>
-      <c r="M212" s="67"/>
-      <c r="N212" s="67"/>
-      <c r="O212" s="67"/>
-      <c r="P212" s="67"/>
-      <c r="Q212" s="67"/>
-      <c r="R212" s="67"/>
-      <c r="S212" s="67"/>
-      <c r="T212" s="67"/>
-      <c r="U212" s="67"/>
-      <c r="V212" s="67"/>
-      <c r="W212" s="67"/>
-      <c r="X212" s="67"/>
-      <c r="Y212" s="67"/>
-      <c r="Z212" s="67"/>
-      <c r="AA212" s="67"/>
-      <c r="AB212" s="67"/>
-      <c r="AC212" s="67"/>
-      <c r="AD212" s="67"/>
-      <c r="AE212" s="67"/>
-      <c r="AF212" s="67"/>
-      <c r="AG212" s="67"/>
-      <c r="AH212" s="67"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
+      <c r="H212" s="72"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
+      <c r="M212" s="72"/>
+      <c r="N212" s="72"/>
+      <c r="O212" s="72"/>
+      <c r="P212" s="72"/>
+      <c r="Q212" s="72"/>
+      <c r="R212" s="72"/>
+      <c r="S212" s="72"/>
+      <c r="T212" s="72"/>
+      <c r="U212" s="72"/>
+      <c r="V212" s="72"/>
+      <c r="W212" s="72"/>
+      <c r="X212" s="72"/>
+      <c r="Y212" s="72"/>
+      <c r="Z212" s="72"/>
+      <c r="AA212" s="72"/>
+      <c r="AB212" s="72"/>
+      <c r="AC212" s="72"/>
+      <c r="AD212" s="72"/>
+      <c r="AE212" s="72"/>
+      <c r="AF212" s="72"/>
+      <c r="AG212" s="72"/>
+      <c r="AH212" s="72"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="68"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="68"/>
-      <c r="F213" s="68"/>
-      <c r="G213" s="68"/>
-      <c r="H213" s="68"/>
-      <c r="I213" s="68"/>
-      <c r="J213" s="68"/>
-      <c r="K213" s="68"/>
-      <c r="L213" s="68"/>
-      <c r="M213" s="68"/>
-      <c r="N213" s="68"/>
-      <c r="O213" s="68"/>
-      <c r="P213" s="68"/>
-      <c r="Q213" s="68"/>
-      <c r="R213" s="68"/>
-      <c r="S213" s="68"/>
-      <c r="T213" s="68"/>
-      <c r="U213" s="68"/>
-      <c r="V213" s="68"/>
-      <c r="W213" s="68"/>
-      <c r="X213" s="68"/>
-      <c r="Y213" s="68"/>
-      <c r="Z213" s="68"/>
-      <c r="AA213" s="68"/>
-      <c r="AB213" s="68"/>
-      <c r="AC213" s="68"/>
-      <c r="AD213" s="68"/>
-      <c r="AE213" s="68"/>
-      <c r="AF213" s="68"/>
-      <c r="AG213" s="68"/>
-      <c r="AH213" s="68"/>
+      <c r="B213" s="73"/>
+      <c r="C213" s="73"/>
+      <c r="D213" s="73"/>
+      <c r="E213" s="73"/>
+      <c r="F213" s="73"/>
+      <c r="G213" s="73"/>
+      <c r="H213" s="73"/>
+      <c r="I213" s="73"/>
+      <c r="J213" s="73"/>
+      <c r="K213" s="73"/>
+      <c r="L213" s="73"/>
+      <c r="M213" s="73"/>
+      <c r="N213" s="73"/>
+      <c r="O213" s="73"/>
+      <c r="P213" s="73"/>
+      <c r="Q213" s="73"/>
+      <c r="R213" s="73"/>
+      <c r="S213" s="73"/>
+      <c r="T213" s="73"/>
+      <c r="U213" s="73"/>
+      <c r="V213" s="73"/>
+      <c r="W213" s="73"/>
+      <c r="X213" s="73"/>
+      <c r="Y213" s="73"/>
+      <c r="Z213" s="73"/>
+      <c r="AA213" s="73"/>
+      <c r="AB213" s="73"/>
+      <c r="AC213" s="73"/>
+      <c r="AD213" s="73"/>
+      <c r="AE213" s="73"/>
+      <c r="AF213" s="73"/>
+      <c r="AG213" s="73"/>
+      <c r="AH213" s="73"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="70" t="s">
@@ -17074,7 +17078,7 @@
       <c r="AE214" s="70"/>
       <c r="AF214" s="70"/>
       <c r="AG214" s="70"/>
-      <c r="AH214" s="74" t="s">
+      <c r="AH214" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19777,45 +19781,79 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="71" t="s">
+      <c r="A281" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="72"/>
-      <c r="C281" s="73"/>
-      <c r="D281" s="73"/>
-      <c r="E281" s="73"/>
-      <c r="F281" s="73"/>
-      <c r="G281" s="73"/>
-      <c r="H281" s="73"/>
-      <c r="I281" s="73"/>
-      <c r="J281" s="73"/>
-      <c r="K281" s="73"/>
-      <c r="L281" s="73"/>
-      <c r="M281" s="73"/>
-      <c r="N281" s="73"/>
-      <c r="O281" s="73"/>
-      <c r="P281" s="73"/>
-      <c r="Q281" s="73"/>
-      <c r="R281" s="73"/>
-      <c r="S281" s="73"/>
-      <c r="T281" s="73"/>
-      <c r="U281" s="73"/>
-      <c r="V281" s="73"/>
-      <c r="W281" s="73"/>
-      <c r="X281" s="73"/>
-      <c r="Y281" s="73"/>
-      <c r="Z281" s="73"/>
-      <c r="AA281" s="73"/>
-      <c r="AB281" s="73"/>
-      <c r="AC281" s="73"/>
-      <c r="AD281" s="73"/>
-      <c r="AE281" s="73"/>
-      <c r="AF281" s="73"/>
-      <c r="AG281" s="73"/>
-      <c r="AH281" s="73"/>
+      <c r="B281" s="68"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
+      <c r="J281" s="69"/>
+      <c r="K281" s="69"/>
+      <c r="L281" s="69"/>
+      <c r="M281" s="69"/>
+      <c r="N281" s="69"/>
+      <c r="O281" s="69"/>
+      <c r="P281" s="69"/>
+      <c r="Q281" s="69"/>
+      <c r="R281" s="69"/>
+      <c r="S281" s="69"/>
+      <c r="T281" s="69"/>
+      <c r="U281" s="69"/>
+      <c r="V281" s="69"/>
+      <c r="W281" s="69"/>
+      <c r="X281" s="69"/>
+      <c r="Y281" s="69"/>
+      <c r="Z281" s="69"/>
+      <c r="AA281" s="69"/>
+      <c r="AB281" s="69"/>
+      <c r="AC281" s="69"/>
+      <c r="AD281" s="69"/>
+      <c r="AE281" s="69"/>
+      <c r="AF281" s="69"/>
+      <c r="AG281" s="69"/>
+      <c r="AH281" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19832,40 +19870,6 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19877,8 +19881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H355" sqref="H355"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19899,80 +19903,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -20020,7 +20024,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22777,42 +22781,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="72"/>
-      <c r="X71" s="72"/>
-      <c r="Y71" s="72"/>
-      <c r="Z71" s="72"/>
-      <c r="AA71" s="72"/>
-      <c r="AB71" s="72"/>
-      <c r="AC71" s="72"/>
-      <c r="AD71" s="72"/>
-      <c r="AE71" s="72"/>
-      <c r="AF71" s="72"/>
-      <c r="AG71" s="72"/>
-      <c r="AH71" s="72"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="68"/>
+      <c r="X71" s="68"/>
+      <c r="Y71" s="68"/>
+      <c r="Z71" s="68"/>
+      <c r="AA71" s="68"/>
+      <c r="AB71" s="68"/>
+      <c r="AC71" s="68"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+      <c r="AH71" s="68"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22851,80 +22855,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
-      <c r="Y73" s="67"/>
-      <c r="Z73" s="67"/>
-      <c r="AA73" s="67"/>
-      <c r="AB73" s="67"/>
-      <c r="AC73" s="67"/>
-      <c r="AD73" s="67"/>
-      <c r="AE73" s="67"/>
-      <c r="AF73" s="67"/>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
+      <c r="AH73" s="72"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="73" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
-      <c r="X74" s="68"/>
-      <c r="Y74" s="68"/>
-      <c r="Z74" s="68"/>
-      <c r="AA74" s="68"/>
-      <c r="AB74" s="68"/>
-      <c r="AC74" s="68"/>
-      <c r="AD74" s="68"/>
-      <c r="AE74" s="68"/>
-      <c r="AF74" s="68"/>
-      <c r="AG74" s="68"/>
-      <c r="AH74" s="68"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="W74" s="73"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="73"/>
+      <c r="Z74" s="73"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
+      <c r="AC74" s="73"/>
+      <c r="AD74" s="73"/>
+      <c r="AE74" s="73"/>
+      <c r="AF74" s="73"/>
+      <c r="AG74" s="73"/>
+      <c r="AH74" s="73"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
@@ -22972,7 +22976,7 @@
       <c r="AE75" s="70"/>
       <c r="AF75" s="70"/>
       <c r="AG75" s="70"/>
-      <c r="AH75" s="74" t="s">
+      <c r="AH75" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25631,118 +25635,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="71" t="s">
+      <c r="A141" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="72"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="72"/>
-      <c r="I141" s="72"/>
-      <c r="J141" s="72"/>
-      <c r="K141" s="72"/>
-      <c r="L141" s="72"/>
-      <c r="M141" s="72"/>
-      <c r="N141" s="72"/>
-      <c r="O141" s="72"/>
-      <c r="P141" s="72"/>
-      <c r="Q141" s="72"/>
-      <c r="R141" s="72"/>
-      <c r="S141" s="72"/>
-      <c r="T141" s="72"/>
-      <c r="U141" s="72"/>
-      <c r="V141" s="72"/>
-      <c r="W141" s="72"/>
-      <c r="X141" s="72"/>
-      <c r="Y141" s="72"/>
-      <c r="Z141" s="72"/>
-      <c r="AA141" s="72"/>
-      <c r="AB141" s="72"/>
-      <c r="AC141" s="72"/>
-      <c r="AD141" s="72"/>
-      <c r="AE141" s="72"/>
-      <c r="AF141" s="72"/>
-      <c r="AG141" s="72"/>
-      <c r="AH141" s="72"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
+      <c r="I141" s="68"/>
+      <c r="J141" s="68"/>
+      <c r="K141" s="68"/>
+      <c r="L141" s="68"/>
+      <c r="M141" s="68"/>
+      <c r="N141" s="68"/>
+      <c r="O141" s="68"/>
+      <c r="P141" s="68"/>
+      <c r="Q141" s="68"/>
+      <c r="R141" s="68"/>
+      <c r="S141" s="68"/>
+      <c r="T141" s="68"/>
+      <c r="U141" s="68"/>
+      <c r="V141" s="68"/>
+      <c r="W141" s="68"/>
+      <c r="X141" s="68"/>
+      <c r="Y141" s="68"/>
+      <c r="Z141" s="68"/>
+      <c r="AA141" s="68"/>
+      <c r="AB141" s="68"/>
+      <c r="AC141" s="68"/>
+      <c r="AD141" s="68"/>
+      <c r="AE141" s="68"/>
+      <c r="AF141" s="68"/>
+      <c r="AG141" s="68"/>
+      <c r="AH141" s="68"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="67" t="s">
+      <c r="A142" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
-      <c r="I142" s="67"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="67"/>
-      <c r="L142" s="67"/>
-      <c r="M142" s="67"/>
-      <c r="N142" s="67"/>
-      <c r="O142" s="67"/>
-      <c r="P142" s="67"/>
-      <c r="Q142" s="67"/>
-      <c r="R142" s="67"/>
-      <c r="S142" s="67"/>
-      <c r="T142" s="67"/>
-      <c r="U142" s="67"/>
-      <c r="V142" s="67"/>
-      <c r="W142" s="67"/>
-      <c r="X142" s="67"/>
-      <c r="Y142" s="67"/>
-      <c r="Z142" s="67"/>
-      <c r="AA142" s="67"/>
-      <c r="AB142" s="67"/>
-      <c r="AC142" s="67"/>
-      <c r="AD142" s="67"/>
-      <c r="AE142" s="67"/>
-      <c r="AF142" s="67"/>
-      <c r="AG142" s="67"/>
-      <c r="AH142" s="67"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
+      <c r="N142" s="72"/>
+      <c r="O142" s="72"/>
+      <c r="P142" s="72"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72"/>
+      <c r="T142" s="72"/>
+      <c r="U142" s="72"/>
+      <c r="V142" s="72"/>
+      <c r="W142" s="72"/>
+      <c r="X142" s="72"/>
+      <c r="Y142" s="72"/>
+      <c r="Z142" s="72"/>
+      <c r="AA142" s="72"/>
+      <c r="AB142" s="72"/>
+      <c r="AC142" s="72"/>
+      <c r="AD142" s="72"/>
+      <c r="AE142" s="72"/>
+      <c r="AF142" s="72"/>
+      <c r="AG142" s="72"/>
+      <c r="AH142" s="72"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="73" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="68"/>
-      <c r="I143" s="68"/>
-      <c r="J143" s="68"/>
-      <c r="K143" s="68"/>
-      <c r="L143" s="68"/>
-      <c r="M143" s="68"/>
-      <c r="N143" s="68"/>
-      <c r="O143" s="68"/>
-      <c r="P143" s="68"/>
-      <c r="Q143" s="68"/>
-      <c r="R143" s="68"/>
-      <c r="S143" s="68"/>
-      <c r="T143" s="68"/>
-      <c r="U143" s="68"/>
-      <c r="V143" s="68"/>
-      <c r="W143" s="68"/>
-      <c r="X143" s="68"/>
-      <c r="Y143" s="68"/>
-      <c r="Z143" s="68"/>
-      <c r="AA143" s="68"/>
-      <c r="AB143" s="68"/>
-      <c r="AC143" s="68"/>
-      <c r="AD143" s="68"/>
-      <c r="AE143" s="68"/>
-      <c r="AF143" s="68"/>
-      <c r="AG143" s="68"/>
-      <c r="AH143" s="68"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="73"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+      <c r="K143" s="73"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="73"/>
+      <c r="O143" s="73"/>
+      <c r="P143" s="73"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="73"/>
+      <c r="S143" s="73"/>
+      <c r="T143" s="73"/>
+      <c r="U143" s="73"/>
+      <c r="V143" s="73"/>
+      <c r="W143" s="73"/>
+      <c r="X143" s="73"/>
+      <c r="Y143" s="73"/>
+      <c r="Z143" s="73"/>
+      <c r="AA143" s="73"/>
+      <c r="AB143" s="73"/>
+      <c r="AC143" s="73"/>
+      <c r="AD143" s="73"/>
+      <c r="AE143" s="73"/>
+      <c r="AF143" s="73"/>
+      <c r="AG143" s="73"/>
+      <c r="AH143" s="73"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
@@ -25790,7 +25794,7 @@
       <c r="AE144" s="70"/>
       <c r="AF144" s="70"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="74" t="s">
+      <c r="AH144" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28253,118 +28257,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="71" t="s">
+      <c r="A205" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="72"/>
-      <c r="C205" s="72"/>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="72"/>
-      <c r="L205" s="72"/>
-      <c r="M205" s="72"/>
-      <c r="N205" s="72"/>
-      <c r="O205" s="72"/>
-      <c r="P205" s="72"/>
-      <c r="Q205" s="72"/>
-      <c r="R205" s="72"/>
-      <c r="S205" s="72"/>
-      <c r="T205" s="72"/>
-      <c r="U205" s="72"/>
-      <c r="V205" s="72"/>
-      <c r="W205" s="72"/>
-      <c r="X205" s="72"/>
-      <c r="Y205" s="72"/>
-      <c r="Z205" s="72"/>
-      <c r="AA205" s="72"/>
-      <c r="AB205" s="72"/>
-      <c r="AC205" s="72"/>
-      <c r="AD205" s="72"/>
-      <c r="AE205" s="72"/>
-      <c r="AF205" s="72"/>
-      <c r="AG205" s="72"/>
-      <c r="AH205" s="72"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
+      <c r="J205" s="68"/>
+      <c r="K205" s="68"/>
+      <c r="L205" s="68"/>
+      <c r="M205" s="68"/>
+      <c r="N205" s="68"/>
+      <c r="O205" s="68"/>
+      <c r="P205" s="68"/>
+      <c r="Q205" s="68"/>
+      <c r="R205" s="68"/>
+      <c r="S205" s="68"/>
+      <c r="T205" s="68"/>
+      <c r="U205" s="68"/>
+      <c r="V205" s="68"/>
+      <c r="W205" s="68"/>
+      <c r="X205" s="68"/>
+      <c r="Y205" s="68"/>
+      <c r="Z205" s="68"/>
+      <c r="AA205" s="68"/>
+      <c r="AB205" s="68"/>
+      <c r="AC205" s="68"/>
+      <c r="AD205" s="68"/>
+      <c r="AE205" s="68"/>
+      <c r="AF205" s="68"/>
+      <c r="AG205" s="68"/>
+      <c r="AH205" s="68"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="67" t="s">
+      <c r="A207" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="67"/>
-      <c r="C207" s="67"/>
-      <c r="D207" s="67"/>
-      <c r="E207" s="67"/>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67"/>
-      <c r="I207" s="67"/>
-      <c r="J207" s="67"/>
-      <c r="K207" s="67"/>
-      <c r="L207" s="67"/>
-      <c r="M207" s="67"/>
-      <c r="N207" s="67"/>
-      <c r="O207" s="67"/>
-      <c r="P207" s="67"/>
-      <c r="Q207" s="67"/>
-      <c r="R207" s="67"/>
-      <c r="S207" s="67"/>
-      <c r="T207" s="67"/>
-      <c r="U207" s="67"/>
-      <c r="V207" s="67"/>
-      <c r="W207" s="67"/>
-      <c r="X207" s="67"/>
-      <c r="Y207" s="67"/>
-      <c r="Z207" s="67"/>
-      <c r="AA207" s="67"/>
-      <c r="AB207" s="67"/>
-      <c r="AC207" s="67"/>
-      <c r="AD207" s="67"/>
-      <c r="AE207" s="67"/>
-      <c r="AF207" s="67"/>
-      <c r="AG207" s="67"/>
-      <c r="AH207" s="67"/>
+      <c r="B207" s="72"/>
+      <c r="C207" s="72"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="72"/>
+      <c r="H207" s="72"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="72"/>
+      <c r="L207" s="72"/>
+      <c r="M207" s="72"/>
+      <c r="N207" s="72"/>
+      <c r="O207" s="72"/>
+      <c r="P207" s="72"/>
+      <c r="Q207" s="72"/>
+      <c r="R207" s="72"/>
+      <c r="S207" s="72"/>
+      <c r="T207" s="72"/>
+      <c r="U207" s="72"/>
+      <c r="V207" s="72"/>
+      <c r="W207" s="72"/>
+      <c r="X207" s="72"/>
+      <c r="Y207" s="72"/>
+      <c r="Z207" s="72"/>
+      <c r="AA207" s="72"/>
+      <c r="AB207" s="72"/>
+      <c r="AC207" s="72"/>
+      <c r="AD207" s="72"/>
+      <c r="AE207" s="72"/>
+      <c r="AF207" s="72"/>
+      <c r="AG207" s="72"/>
+      <c r="AH207" s="72"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="68" t="s">
+      <c r="A208" s="73" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="68"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="68"/>
-      <c r="H208" s="68"/>
-      <c r="I208" s="68"/>
-      <c r="J208" s="68"/>
-      <c r="K208" s="68"/>
-      <c r="L208" s="68"/>
-      <c r="M208" s="68"/>
-      <c r="N208" s="68"/>
-      <c r="O208" s="68"/>
-      <c r="P208" s="68"/>
-      <c r="Q208" s="68"/>
-      <c r="R208" s="68"/>
-      <c r="S208" s="68"/>
-      <c r="T208" s="68"/>
-      <c r="U208" s="68"/>
-      <c r="V208" s="68"/>
-      <c r="W208" s="68"/>
-      <c r="X208" s="68"/>
-      <c r="Y208" s="68"/>
-      <c r="Z208" s="68"/>
-      <c r="AA208" s="68"/>
-      <c r="AB208" s="68"/>
-      <c r="AC208" s="68"/>
-      <c r="AD208" s="68"/>
-      <c r="AE208" s="68"/>
-      <c r="AF208" s="68"/>
-      <c r="AG208" s="68"/>
-      <c r="AH208" s="68"/>
+      <c r="B208" s="73"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+      <c r="G208" s="73"/>
+      <c r="H208" s="73"/>
+      <c r="I208" s="73"/>
+      <c r="J208" s="73"/>
+      <c r="K208" s="73"/>
+      <c r="L208" s="73"/>
+      <c r="M208" s="73"/>
+      <c r="N208" s="73"/>
+      <c r="O208" s="73"/>
+      <c r="P208" s="73"/>
+      <c r="Q208" s="73"/>
+      <c r="R208" s="73"/>
+      <c r="S208" s="73"/>
+      <c r="T208" s="73"/>
+      <c r="U208" s="73"/>
+      <c r="V208" s="73"/>
+      <c r="W208" s="73"/>
+      <c r="X208" s="73"/>
+      <c r="Y208" s="73"/>
+      <c r="Z208" s="73"/>
+      <c r="AA208" s="73"/>
+      <c r="AB208" s="73"/>
+      <c r="AC208" s="73"/>
+      <c r="AD208" s="73"/>
+      <c r="AE208" s="73"/>
+      <c r="AF208" s="73"/>
+      <c r="AG208" s="73"/>
+      <c r="AH208" s="73"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="70" t="s">
@@ -28412,7 +28416,7 @@
       <c r="AE209" s="70"/>
       <c r="AF209" s="70"/>
       <c r="AG209" s="70"/>
-      <c r="AH209" s="74" t="s">
+      <c r="AH209" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28426,7 +28430,7 @@
         <v>1718</v>
       </c>
       <c r="E210" s="66" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="F210" s="3">
         <v>4</v>
@@ -28763,7 +28767,7 @@
       </c>
       <c r="C217" s="53"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="E217" s="53"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -28843,7 +28847,7 @@
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="E219" s="53"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -28887,7 +28891,9 @@
       <c r="D220" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="E220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>1732</v>
+      </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -28969,7 +28975,9 @@
       <c r="D222" s="51" t="s">
         <v>1719</v>
       </c>
-      <c r="E222" s="3"/>
+      <c r="E222" s="51" t="s">
+        <v>1732</v>
+      </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -29129,7 +29137,7 @@
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+      <c r="E226" s="52"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -29169,7 +29177,7 @@
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+      <c r="E227" s="52"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -29209,7 +29217,7 @@
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
+      <c r="E228" s="53"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -29253,7 +29261,7 @@
       <c r="D229" s="51" t="s">
         <v>1719</v>
       </c>
-      <c r="E229" s="3"/>
+      <c r="E229" s="53"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
@@ -29415,7 +29423,7 @@
         <v>1701</v>
       </c>
       <c r="D233" s="52"/>
-      <c r="E233" s="3"/>
+      <c r="E233" s="52"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
@@ -29739,7 +29747,7 @@
         <v>1704</v>
       </c>
       <c r="D241" s="52"/>
-      <c r="E241" s="3"/>
+      <c r="E241" s="52"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -30101,7 +30109,7 @@
       </c>
       <c r="C250" s="53"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+      <c r="E250" s="52"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
@@ -30263,7 +30271,7 @@
       </c>
       <c r="C254" s="52"/>
       <c r="D254" s="52"/>
-      <c r="E254" s="3"/>
+      <c r="E254" s="52"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -30337,118 +30345,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="71" t="s">
+      <c r="A256" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="72"/>
-      <c r="C256" s="72"/>
-      <c r="D256" s="72"/>
-      <c r="E256" s="72"/>
-      <c r="F256" s="72"/>
-      <c r="G256" s="72"/>
-      <c r="H256" s="72"/>
-      <c r="I256" s="72"/>
-      <c r="J256" s="72"/>
-      <c r="K256" s="72"/>
-      <c r="L256" s="72"/>
-      <c r="M256" s="72"/>
-      <c r="N256" s="72"/>
-      <c r="O256" s="72"/>
-      <c r="P256" s="72"/>
-      <c r="Q256" s="72"/>
-      <c r="R256" s="72"/>
-      <c r="S256" s="72"/>
-      <c r="T256" s="72"/>
-      <c r="U256" s="72"/>
-      <c r="V256" s="72"/>
-      <c r="W256" s="72"/>
-      <c r="X256" s="72"/>
-      <c r="Y256" s="72"/>
-      <c r="Z256" s="72"/>
-      <c r="AA256" s="72"/>
-      <c r="AB256" s="72"/>
-      <c r="AC256" s="72"/>
-      <c r="AD256" s="72"/>
-      <c r="AE256" s="72"/>
-      <c r="AF256" s="72"/>
-      <c r="AG256" s="72"/>
-      <c r="AH256" s="72"/>
+      <c r="B256" s="68"/>
+      <c r="C256" s="68"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="68"/>
+      <c r="F256" s="68"/>
+      <c r="G256" s="68"/>
+      <c r="H256" s="68"/>
+      <c r="I256" s="68"/>
+      <c r="J256" s="68"/>
+      <c r="K256" s="68"/>
+      <c r="L256" s="68"/>
+      <c r="M256" s="68"/>
+      <c r="N256" s="68"/>
+      <c r="O256" s="68"/>
+      <c r="P256" s="68"/>
+      <c r="Q256" s="68"/>
+      <c r="R256" s="68"/>
+      <c r="S256" s="68"/>
+      <c r="T256" s="68"/>
+      <c r="U256" s="68"/>
+      <c r="V256" s="68"/>
+      <c r="W256" s="68"/>
+      <c r="X256" s="68"/>
+      <c r="Y256" s="68"/>
+      <c r="Z256" s="68"/>
+      <c r="AA256" s="68"/>
+      <c r="AB256" s="68"/>
+      <c r="AC256" s="68"/>
+      <c r="AD256" s="68"/>
+      <c r="AE256" s="68"/>
+      <c r="AF256" s="68"/>
+      <c r="AG256" s="68"/>
+      <c r="AH256" s="68"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="67" t="s">
+      <c r="A258" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="67"/>
-      <c r="C258" s="67"/>
-      <c r="D258" s="67"/>
-      <c r="E258" s="67"/>
-      <c r="F258" s="67"/>
-      <c r="G258" s="67"/>
-      <c r="H258" s="67"/>
-      <c r="I258" s="67"/>
-      <c r="J258" s="67"/>
-      <c r="K258" s="67"/>
-      <c r="L258" s="67"/>
-      <c r="M258" s="67"/>
-      <c r="N258" s="67"/>
-      <c r="O258" s="67"/>
-      <c r="P258" s="67"/>
-      <c r="Q258" s="67"/>
-      <c r="R258" s="67"/>
-      <c r="S258" s="67"/>
-      <c r="T258" s="67"/>
-      <c r="U258" s="67"/>
-      <c r="V258" s="67"/>
-      <c r="W258" s="67"/>
-      <c r="X258" s="67"/>
-      <c r="Y258" s="67"/>
-      <c r="Z258" s="67"/>
-      <c r="AA258" s="67"/>
-      <c r="AB258" s="67"/>
-      <c r="AC258" s="67"/>
-      <c r="AD258" s="67"/>
-      <c r="AE258" s="67"/>
-      <c r="AF258" s="67"/>
-      <c r="AG258" s="67"/>
-      <c r="AH258" s="67"/>
+      <c r="B258" s="72"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="72"/>
+      <c r="E258" s="72"/>
+      <c r="F258" s="72"/>
+      <c r="G258" s="72"/>
+      <c r="H258" s="72"/>
+      <c r="I258" s="72"/>
+      <c r="J258" s="72"/>
+      <c r="K258" s="72"/>
+      <c r="L258" s="72"/>
+      <c r="M258" s="72"/>
+      <c r="N258" s="72"/>
+      <c r="O258" s="72"/>
+      <c r="P258" s="72"/>
+      <c r="Q258" s="72"/>
+      <c r="R258" s="72"/>
+      <c r="S258" s="72"/>
+      <c r="T258" s="72"/>
+      <c r="U258" s="72"/>
+      <c r="V258" s="72"/>
+      <c r="W258" s="72"/>
+      <c r="X258" s="72"/>
+      <c r="Y258" s="72"/>
+      <c r="Z258" s="72"/>
+      <c r="AA258" s="72"/>
+      <c r="AB258" s="72"/>
+      <c r="AC258" s="72"/>
+      <c r="AD258" s="72"/>
+      <c r="AE258" s="72"/>
+      <c r="AF258" s="72"/>
+      <c r="AG258" s="72"/>
+      <c r="AH258" s="72"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="68" t="s">
+      <c r="A259" s="73" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="68"/>
-      <c r="C259" s="68"/>
-      <c r="D259" s="68"/>
-      <c r="E259" s="68"/>
-      <c r="F259" s="68"/>
-      <c r="G259" s="68"/>
-      <c r="H259" s="68"/>
-      <c r="I259" s="68"/>
-      <c r="J259" s="68"/>
-      <c r="K259" s="68"/>
-      <c r="L259" s="68"/>
-      <c r="M259" s="68"/>
-      <c r="N259" s="68"/>
-      <c r="O259" s="68"/>
-      <c r="P259" s="68"/>
-      <c r="Q259" s="68"/>
-      <c r="R259" s="68"/>
-      <c r="S259" s="68"/>
-      <c r="T259" s="68"/>
-      <c r="U259" s="68"/>
-      <c r="V259" s="68"/>
-      <c r="W259" s="68"/>
-      <c r="X259" s="68"/>
-      <c r="Y259" s="68"/>
-      <c r="Z259" s="68"/>
-      <c r="AA259" s="68"/>
-      <c r="AB259" s="68"/>
-      <c r="AC259" s="68"/>
-      <c r="AD259" s="68"/>
-      <c r="AE259" s="68"/>
-      <c r="AF259" s="68"/>
-      <c r="AG259" s="68"/>
-      <c r="AH259" s="68"/>
+      <c r="B259" s="73"/>
+      <c r="C259" s="73"/>
+      <c r="D259" s="73"/>
+      <c r="E259" s="73"/>
+      <c r="F259" s="73"/>
+      <c r="G259" s="73"/>
+      <c r="H259" s="73"/>
+      <c r="I259" s="73"/>
+      <c r="J259" s="73"/>
+      <c r="K259" s="73"/>
+      <c r="L259" s="73"/>
+      <c r="M259" s="73"/>
+      <c r="N259" s="73"/>
+      <c r="O259" s="73"/>
+      <c r="P259" s="73"/>
+      <c r="Q259" s="73"/>
+      <c r="R259" s="73"/>
+      <c r="S259" s="73"/>
+      <c r="T259" s="73"/>
+      <c r="U259" s="73"/>
+      <c r="V259" s="73"/>
+      <c r="W259" s="73"/>
+      <c r="X259" s="73"/>
+      <c r="Y259" s="73"/>
+      <c r="Z259" s="73"/>
+      <c r="AA259" s="73"/>
+      <c r="AB259" s="73"/>
+      <c r="AC259" s="73"/>
+      <c r="AD259" s="73"/>
+      <c r="AE259" s="73"/>
+      <c r="AF259" s="73"/>
+      <c r="AG259" s="73"/>
+      <c r="AH259" s="73"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
@@ -30496,7 +30504,7 @@
       <c r="AE260" s="70"/>
       <c r="AF260" s="70"/>
       <c r="AG260" s="70"/>
-      <c r="AH260" s="74" t="s">
+      <c r="AH260" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32119,118 +32127,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="71" t="s">
+      <c r="A300" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="72"/>
-      <c r="C300" s="72"/>
-      <c r="D300" s="72"/>
-      <c r="E300" s="72"/>
-      <c r="F300" s="72"/>
-      <c r="G300" s="72"/>
-      <c r="H300" s="72"/>
-      <c r="I300" s="72"/>
-      <c r="J300" s="72"/>
-      <c r="K300" s="72"/>
-      <c r="L300" s="72"/>
-      <c r="M300" s="72"/>
-      <c r="N300" s="72"/>
-      <c r="O300" s="72"/>
-      <c r="P300" s="72"/>
-      <c r="Q300" s="72"/>
-      <c r="R300" s="72"/>
-      <c r="S300" s="72"/>
-      <c r="T300" s="72"/>
-      <c r="U300" s="72"/>
-      <c r="V300" s="72"/>
-      <c r="W300" s="72"/>
-      <c r="X300" s="72"/>
-      <c r="Y300" s="72"/>
-      <c r="Z300" s="72"/>
-      <c r="AA300" s="72"/>
-      <c r="AB300" s="72"/>
-      <c r="AC300" s="72"/>
-      <c r="AD300" s="72"/>
-      <c r="AE300" s="72"/>
-      <c r="AF300" s="72"/>
-      <c r="AG300" s="72"/>
-      <c r="AH300" s="72"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="68"/>
+      <c r="D300" s="68"/>
+      <c r="E300" s="68"/>
+      <c r="F300" s="68"/>
+      <c r="G300" s="68"/>
+      <c r="H300" s="68"/>
+      <c r="I300" s="68"/>
+      <c r="J300" s="68"/>
+      <c r="K300" s="68"/>
+      <c r="L300" s="68"/>
+      <c r="M300" s="68"/>
+      <c r="N300" s="68"/>
+      <c r="O300" s="68"/>
+      <c r="P300" s="68"/>
+      <c r="Q300" s="68"/>
+      <c r="R300" s="68"/>
+      <c r="S300" s="68"/>
+      <c r="T300" s="68"/>
+      <c r="U300" s="68"/>
+      <c r="V300" s="68"/>
+      <c r="W300" s="68"/>
+      <c r="X300" s="68"/>
+      <c r="Y300" s="68"/>
+      <c r="Z300" s="68"/>
+      <c r="AA300" s="68"/>
+      <c r="AB300" s="68"/>
+      <c r="AC300" s="68"/>
+      <c r="AD300" s="68"/>
+      <c r="AE300" s="68"/>
+      <c r="AF300" s="68"/>
+      <c r="AG300" s="68"/>
+      <c r="AH300" s="68"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="67" t="s">
+      <c r="A301" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="67"/>
-      <c r="C301" s="67"/>
-      <c r="D301" s="67"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
-      <c r="I301" s="67"/>
-      <c r="J301" s="67"/>
-      <c r="K301" s="67"/>
-      <c r="L301" s="67"/>
-      <c r="M301" s="67"/>
-      <c r="N301" s="67"/>
-      <c r="O301" s="67"/>
-      <c r="P301" s="67"/>
-      <c r="Q301" s="67"/>
-      <c r="R301" s="67"/>
-      <c r="S301" s="67"/>
-      <c r="T301" s="67"/>
-      <c r="U301" s="67"/>
-      <c r="V301" s="67"/>
-      <c r="W301" s="67"/>
-      <c r="X301" s="67"/>
-      <c r="Y301" s="67"/>
-      <c r="Z301" s="67"/>
-      <c r="AA301" s="67"/>
-      <c r="AB301" s="67"/>
-      <c r="AC301" s="67"/>
-      <c r="AD301" s="67"/>
-      <c r="AE301" s="67"/>
-      <c r="AF301" s="67"/>
-      <c r="AG301" s="67"/>
-      <c r="AH301" s="67"/>
+      <c r="B301" s="72"/>
+      <c r="C301" s="72"/>
+      <c r="D301" s="72"/>
+      <c r="E301" s="72"/>
+      <c r="F301" s="72"/>
+      <c r="G301" s="72"/>
+      <c r="H301" s="72"/>
+      <c r="I301" s="72"/>
+      <c r="J301" s="72"/>
+      <c r="K301" s="72"/>
+      <c r="L301" s="72"/>
+      <c r="M301" s="72"/>
+      <c r="N301" s="72"/>
+      <c r="O301" s="72"/>
+      <c r="P301" s="72"/>
+      <c r="Q301" s="72"/>
+      <c r="R301" s="72"/>
+      <c r="S301" s="72"/>
+      <c r="T301" s="72"/>
+      <c r="U301" s="72"/>
+      <c r="V301" s="72"/>
+      <c r="W301" s="72"/>
+      <c r="X301" s="72"/>
+      <c r="Y301" s="72"/>
+      <c r="Z301" s="72"/>
+      <c r="AA301" s="72"/>
+      <c r="AB301" s="72"/>
+      <c r="AC301" s="72"/>
+      <c r="AD301" s="72"/>
+      <c r="AE301" s="72"/>
+      <c r="AF301" s="72"/>
+      <c r="AG301" s="72"/>
+      <c r="AH301" s="72"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="68" t="s">
+      <c r="A302" s="73" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="68"/>
-      <c r="C302" s="68"/>
-      <c r="D302" s="68"/>
-      <c r="E302" s="68"/>
-      <c r="F302" s="68"/>
-      <c r="G302" s="68"/>
-      <c r="H302" s="68"/>
-      <c r="I302" s="68"/>
-      <c r="J302" s="68"/>
-      <c r="K302" s="68"/>
-      <c r="L302" s="68"/>
-      <c r="M302" s="68"/>
-      <c r="N302" s="68"/>
-      <c r="O302" s="68"/>
-      <c r="P302" s="68"/>
-      <c r="Q302" s="68"/>
-      <c r="R302" s="68"/>
-      <c r="S302" s="68"/>
-      <c r="T302" s="68"/>
-      <c r="U302" s="68"/>
-      <c r="V302" s="68"/>
-      <c r="W302" s="68"/>
-      <c r="X302" s="68"/>
-      <c r="Y302" s="68"/>
-      <c r="Z302" s="68"/>
-      <c r="AA302" s="68"/>
-      <c r="AB302" s="68"/>
-      <c r="AC302" s="68"/>
-      <c r="AD302" s="68"/>
-      <c r="AE302" s="68"/>
-      <c r="AF302" s="68"/>
-      <c r="AG302" s="68"/>
-      <c r="AH302" s="68"/>
+      <c r="B302" s="73"/>
+      <c r="C302" s="73"/>
+      <c r="D302" s="73"/>
+      <c r="E302" s="73"/>
+      <c r="F302" s="73"/>
+      <c r="G302" s="73"/>
+      <c r="H302" s="73"/>
+      <c r="I302" s="73"/>
+      <c r="J302" s="73"/>
+      <c r="K302" s="73"/>
+      <c r="L302" s="73"/>
+      <c r="M302" s="73"/>
+      <c r="N302" s="73"/>
+      <c r="O302" s="73"/>
+      <c r="P302" s="73"/>
+      <c r="Q302" s="73"/>
+      <c r="R302" s="73"/>
+      <c r="S302" s="73"/>
+      <c r="T302" s="73"/>
+      <c r="U302" s="73"/>
+      <c r="V302" s="73"/>
+      <c r="W302" s="73"/>
+      <c r="X302" s="73"/>
+      <c r="Y302" s="73"/>
+      <c r="Z302" s="73"/>
+      <c r="AA302" s="73"/>
+      <c r="AB302" s="73"/>
+      <c r="AC302" s="73"/>
+      <c r="AD302" s="73"/>
+      <c r="AE302" s="73"/>
+      <c r="AF302" s="73"/>
+      <c r="AG302" s="73"/>
+      <c r="AH302" s="73"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="70" t="s">
@@ -32278,7 +32286,7 @@
       <c r="AE303" s="70"/>
       <c r="AF303" s="70"/>
       <c r="AG303" s="70"/>
-      <c r="AH303" s="74" t="s">
+      <c r="AH303" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32301,7 +32309,7 @@
         <v>1725</v>
       </c>
       <c r="H304" s="59" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I304" s="3">
         <v>7</v>
@@ -34867,42 +34875,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="71" t="s">
+      <c r="A367" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="72"/>
-      <c r="C367" s="72"/>
-      <c r="D367" s="72"/>
-      <c r="E367" s="72"/>
-      <c r="F367" s="72"/>
-      <c r="G367" s="72"/>
-      <c r="H367" s="72"/>
-      <c r="I367" s="72"/>
-      <c r="J367" s="72"/>
-      <c r="K367" s="72"/>
-      <c r="L367" s="72"/>
-      <c r="M367" s="72"/>
-      <c r="N367" s="72"/>
-      <c r="O367" s="72"/>
-      <c r="P367" s="72"/>
-      <c r="Q367" s="72"/>
-      <c r="R367" s="72"/>
-      <c r="S367" s="72"/>
-      <c r="T367" s="72"/>
-      <c r="U367" s="72"/>
-      <c r="V367" s="72"/>
-      <c r="W367" s="72"/>
-      <c r="X367" s="72"/>
-      <c r="Y367" s="72"/>
-      <c r="Z367" s="72"/>
-      <c r="AA367" s="72"/>
-      <c r="AB367" s="72"/>
-      <c r="AC367" s="72"/>
-      <c r="AD367" s="72"/>
-      <c r="AE367" s="72"/>
-      <c r="AF367" s="72"/>
-      <c r="AG367" s="72"/>
-      <c r="AH367" s="72"/>
+      <c r="B367" s="68"/>
+      <c r="C367" s="68"/>
+      <c r="D367" s="68"/>
+      <c r="E367" s="68"/>
+      <c r="F367" s="68"/>
+      <c r="G367" s="68"/>
+      <c r="H367" s="68"/>
+      <c r="I367" s="68"/>
+      <c r="J367" s="68"/>
+      <c r="K367" s="68"/>
+      <c r="L367" s="68"/>
+      <c r="M367" s="68"/>
+      <c r="N367" s="68"/>
+      <c r="O367" s="68"/>
+      <c r="P367" s="68"/>
+      <c r="Q367" s="68"/>
+      <c r="R367" s="68"/>
+      <c r="S367" s="68"/>
+      <c r="T367" s="68"/>
+      <c r="U367" s="68"/>
+      <c r="V367" s="68"/>
+      <c r="W367" s="68"/>
+      <c r="X367" s="68"/>
+      <c r="Y367" s="68"/>
+      <c r="Z367" s="68"/>
+      <c r="AA367" s="68"/>
+      <c r="AB367" s="68"/>
+      <c r="AC367" s="68"/>
+      <c r="AD367" s="68"/>
+      <c r="AE367" s="68"/>
+      <c r="AF367" s="68"/>
+      <c r="AG367" s="68"/>
+      <c r="AH367" s="68"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34941,80 +34949,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="67" t="s">
+      <c r="A369" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="67"/>
-      <c r="C369" s="67"/>
-      <c r="D369" s="67"/>
-      <c r="E369" s="67"/>
-      <c r="F369" s="67"/>
-      <c r="G369" s="67"/>
-      <c r="H369" s="67"/>
-      <c r="I369" s="67"/>
-      <c r="J369" s="67"/>
-      <c r="K369" s="67"/>
-      <c r="L369" s="67"/>
-      <c r="M369" s="67"/>
-      <c r="N369" s="67"/>
-      <c r="O369" s="67"/>
-      <c r="P369" s="67"/>
-      <c r="Q369" s="67"/>
-      <c r="R369" s="67"/>
-      <c r="S369" s="67"/>
-      <c r="T369" s="67"/>
-      <c r="U369" s="67"/>
-      <c r="V369" s="67"/>
-      <c r="W369" s="67"/>
-      <c r="X369" s="67"/>
-      <c r="Y369" s="67"/>
-      <c r="Z369" s="67"/>
-      <c r="AA369" s="67"/>
-      <c r="AB369" s="67"/>
-      <c r="AC369" s="67"/>
-      <c r="AD369" s="67"/>
-      <c r="AE369" s="67"/>
-      <c r="AF369" s="67"/>
-      <c r="AG369" s="67"/>
-      <c r="AH369" s="67"/>
+      <c r="B369" s="72"/>
+      <c r="C369" s="72"/>
+      <c r="D369" s="72"/>
+      <c r="E369" s="72"/>
+      <c r="F369" s="72"/>
+      <c r="G369" s="72"/>
+      <c r="H369" s="72"/>
+      <c r="I369" s="72"/>
+      <c r="J369" s="72"/>
+      <c r="K369" s="72"/>
+      <c r="L369" s="72"/>
+      <c r="M369" s="72"/>
+      <c r="N369" s="72"/>
+      <c r="O369" s="72"/>
+      <c r="P369" s="72"/>
+      <c r="Q369" s="72"/>
+      <c r="R369" s="72"/>
+      <c r="S369" s="72"/>
+      <c r="T369" s="72"/>
+      <c r="U369" s="72"/>
+      <c r="V369" s="72"/>
+      <c r="W369" s="72"/>
+      <c r="X369" s="72"/>
+      <c r="Y369" s="72"/>
+      <c r="Z369" s="72"/>
+      <c r="AA369" s="72"/>
+      <c r="AB369" s="72"/>
+      <c r="AC369" s="72"/>
+      <c r="AD369" s="72"/>
+      <c r="AE369" s="72"/>
+      <c r="AF369" s="72"/>
+      <c r="AG369" s="72"/>
+      <c r="AH369" s="72"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="68" t="s">
+      <c r="A370" s="73" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="68"/>
-      <c r="C370" s="68"/>
-      <c r="D370" s="68"/>
-      <c r="E370" s="68"/>
-      <c r="F370" s="68"/>
-      <c r="G370" s="68"/>
-      <c r="H370" s="68"/>
-      <c r="I370" s="68"/>
-      <c r="J370" s="68"/>
-      <c r="K370" s="68"/>
-      <c r="L370" s="68"/>
-      <c r="M370" s="68"/>
-      <c r="N370" s="68"/>
-      <c r="O370" s="68"/>
-      <c r="P370" s="68"/>
-      <c r="Q370" s="68"/>
-      <c r="R370" s="68"/>
-      <c r="S370" s="68"/>
-      <c r="T370" s="68"/>
-      <c r="U370" s="68"/>
-      <c r="V370" s="68"/>
-      <c r="W370" s="68"/>
-      <c r="X370" s="68"/>
-      <c r="Y370" s="68"/>
-      <c r="Z370" s="68"/>
-      <c r="AA370" s="68"/>
-      <c r="AB370" s="68"/>
-      <c r="AC370" s="68"/>
-      <c r="AD370" s="68"/>
-      <c r="AE370" s="68"/>
-      <c r="AF370" s="68"/>
-      <c r="AG370" s="68"/>
-      <c r="AH370" s="68"/>
+      <c r="B370" s="73"/>
+      <c r="C370" s="73"/>
+      <c r="D370" s="73"/>
+      <c r="E370" s="73"/>
+      <c r="F370" s="73"/>
+      <c r="G370" s="73"/>
+      <c r="H370" s="73"/>
+      <c r="I370" s="73"/>
+      <c r="J370" s="73"/>
+      <c r="K370" s="73"/>
+      <c r="L370" s="73"/>
+      <c r="M370" s="73"/>
+      <c r="N370" s="73"/>
+      <c r="O370" s="73"/>
+      <c r="P370" s="73"/>
+      <c r="Q370" s="73"/>
+      <c r="R370" s="73"/>
+      <c r="S370" s="73"/>
+      <c r="T370" s="73"/>
+      <c r="U370" s="73"/>
+      <c r="V370" s="73"/>
+      <c r="W370" s="73"/>
+      <c r="X370" s="73"/>
+      <c r="Y370" s="73"/>
+      <c r="Z370" s="73"/>
+      <c r="AA370" s="73"/>
+      <c r="AB370" s="73"/>
+      <c r="AC370" s="73"/>
+      <c r="AD370" s="73"/>
+      <c r="AE370" s="73"/>
+      <c r="AF370" s="73"/>
+      <c r="AG370" s="73"/>
+      <c r="AH370" s="73"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="70" t="s">
@@ -35062,7 +35070,7 @@
       <c r="AE371" s="70"/>
       <c r="AF371" s="70"/>
       <c r="AG371" s="70"/>
-      <c r="AH371" s="74" t="s">
+      <c r="AH371" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37739,45 +37747,99 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="71" t="s">
+      <c r="A436" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="72"/>
-      <c r="C436" s="72"/>
-      <c r="D436" s="72"/>
-      <c r="E436" s="72"/>
-      <c r="F436" s="72"/>
-      <c r="G436" s="72"/>
-      <c r="H436" s="72"/>
-      <c r="I436" s="72"/>
-      <c r="J436" s="72"/>
-      <c r="K436" s="72"/>
-      <c r="L436" s="72"/>
-      <c r="M436" s="72"/>
-      <c r="N436" s="72"/>
-      <c r="O436" s="72"/>
-      <c r="P436" s="72"/>
-      <c r="Q436" s="72"/>
-      <c r="R436" s="72"/>
-      <c r="S436" s="72"/>
-      <c r="T436" s="72"/>
-      <c r="U436" s="72"/>
-      <c r="V436" s="72"/>
-      <c r="W436" s="72"/>
-      <c r="X436" s="72"/>
-      <c r="Y436" s="72"/>
-      <c r="Z436" s="72"/>
-      <c r="AA436" s="72"/>
-      <c r="AB436" s="72"/>
-      <c r="AC436" s="72"/>
-      <c r="AD436" s="72"/>
-      <c r="AE436" s="72"/>
-      <c r="AF436" s="72"/>
-      <c r="AG436" s="72"/>
-      <c r="AH436" s="72"/>
+      <c r="B436" s="68"/>
+      <c r="C436" s="68"/>
+      <c r="D436" s="68"/>
+      <c r="E436" s="68"/>
+      <c r="F436" s="68"/>
+      <c r="G436" s="68"/>
+      <c r="H436" s="68"/>
+      <c r="I436" s="68"/>
+      <c r="J436" s="68"/>
+      <c r="K436" s="68"/>
+      <c r="L436" s="68"/>
+      <c r="M436" s="68"/>
+      <c r="N436" s="68"/>
+      <c r="O436" s="68"/>
+      <c r="P436" s="68"/>
+      <c r="Q436" s="68"/>
+      <c r="R436" s="68"/>
+      <c r="S436" s="68"/>
+      <c r="T436" s="68"/>
+      <c r="U436" s="68"/>
+      <c r="V436" s="68"/>
+      <c r="W436" s="68"/>
+      <c r="X436" s="68"/>
+      <c r="Y436" s="68"/>
+      <c r="Z436" s="68"/>
+      <c r="AA436" s="68"/>
+      <c r="AB436" s="68"/>
+      <c r="AC436" s="68"/>
+      <c r="AD436" s="68"/>
+      <c r="AE436" s="68"/>
+      <c r="AF436" s="68"/>
+      <c r="AG436" s="68"/>
+      <c r="AH436" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37794,60 +37856,6 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37881,80 +37889,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -38002,7 +38010,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="74" t="s">
+      <c r="AH3" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38705,118 +38713,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="73" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -38864,7 +38872,7 @@
       <c r="AE24" s="70"/>
       <c r="AF24" s="70"/>
       <c r="AG24" s="70"/>
-      <c r="AH24" s="74" t="s">
+      <c r="AH24" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39447,118 +39455,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="67"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="73" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
-      <c r="AE41" s="68"/>
-      <c r="AF41" s="68"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="68"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
@@ -39606,7 +39614,7 @@
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
-      <c r="AH42" s="74" t="s">
+      <c r="AH42" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40469,118 +40477,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="72"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="72"/>
-      <c r="Z63" s="72"/>
-      <c r="AA63" s="72"/>
-      <c r="AB63" s="72"/>
-      <c r="AC63" s="72"/>
-      <c r="AD63" s="72"/>
-      <c r="AE63" s="72"/>
-      <c r="AF63" s="72"/>
-      <c r="AG63" s="72"/>
-      <c r="AH63" s="72"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="68"/>
+      <c r="AB63" s="68"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
+      <c r="AE63" s="68"/>
+      <c r="AF63" s="68"/>
+      <c r="AG63" s="68"/>
+      <c r="AH63" s="68"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="67"/>
-      <c r="AD64" s="67"/>
-      <c r="AE64" s="67"/>
-      <c r="AF64" s="67"/>
-      <c r="AG64" s="67"/>
-      <c r="AH64" s="67"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="72"/>
+      <c r="X64" s="72"/>
+      <c r="Y64" s="72"/>
+      <c r="Z64" s="72"/>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="72"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="72"/>
+      <c r="AF64" s="72"/>
+      <c r="AG64" s="72"/>
+      <c r="AH64" s="72"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="73" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="68"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68"/>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68"/>
-      <c r="AB65" s="68"/>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="68"/>
-      <c r="AE65" s="68"/>
-      <c r="AF65" s="68"/>
-      <c r="AG65" s="68"/>
-      <c r="AH65" s="68"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+      <c r="AC65" s="73"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
@@ -40628,7 +40636,7 @@
       <c r="AE66" s="70"/>
       <c r="AF66" s="70"/>
       <c r="AG66" s="70"/>
-      <c r="AH66" s="74" t="s">
+      <c r="AH66" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42451,118 +42459,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="71" t="s">
+      <c r="A111" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="72"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="72"/>
-      <c r="M111" s="72"/>
-      <c r="N111" s="72"/>
-      <c r="O111" s="72"/>
-      <c r="P111" s="72"/>
-      <c r="Q111" s="72"/>
-      <c r="R111" s="72"/>
-      <c r="S111" s="72"/>
-      <c r="T111" s="72"/>
-      <c r="U111" s="72"/>
-      <c r="V111" s="72"/>
-      <c r="W111" s="72"/>
-      <c r="X111" s="72"/>
-      <c r="Y111" s="72"/>
-      <c r="Z111" s="72"/>
-      <c r="AA111" s="72"/>
-      <c r="AB111" s="72"/>
-      <c r="AC111" s="72"/>
-      <c r="AD111" s="72"/>
-      <c r="AE111" s="72"/>
-      <c r="AF111" s="72"/>
-      <c r="AG111" s="72"/>
-      <c r="AH111" s="72"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="68"/>
+      <c r="R111" s="68"/>
+      <c r="S111" s="68"/>
+      <c r="T111" s="68"/>
+      <c r="U111" s="68"/>
+      <c r="V111" s="68"/>
+      <c r="W111" s="68"/>
+      <c r="X111" s="68"/>
+      <c r="Y111" s="68"/>
+      <c r="Z111" s="68"/>
+      <c r="AA111" s="68"/>
+      <c r="AB111" s="68"/>
+      <c r="AC111" s="68"/>
+      <c r="AD111" s="68"/>
+      <c r="AE111" s="68"/>
+      <c r="AF111" s="68"/>
+      <c r="AG111" s="68"/>
+      <c r="AH111" s="68"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="67"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
-      <c r="R113" s="67"/>
-      <c r="S113" s="67"/>
-      <c r="T113" s="67"/>
-      <c r="U113" s="67"/>
-      <c r="V113" s="67"/>
-      <c r="W113" s="67"/>
-      <c r="X113" s="67"/>
-      <c r="Y113" s="67"/>
-      <c r="Z113" s="67"/>
-      <c r="AA113" s="67"/>
-      <c r="AB113" s="67"/>
-      <c r="AC113" s="67"/>
-      <c r="AD113" s="67"/>
-      <c r="AE113" s="67"/>
-      <c r="AF113" s="67"/>
-      <c r="AG113" s="67"/>
-      <c r="AH113" s="67"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="72"/>
+      <c r="O113" s="72"/>
+      <c r="P113" s="72"/>
+      <c r="Q113" s="72"/>
+      <c r="R113" s="72"/>
+      <c r="S113" s="72"/>
+      <c r="T113" s="72"/>
+      <c r="U113" s="72"/>
+      <c r="V113" s="72"/>
+      <c r="W113" s="72"/>
+      <c r="X113" s="72"/>
+      <c r="Y113" s="72"/>
+      <c r="Z113" s="72"/>
+      <c r="AA113" s="72"/>
+      <c r="AB113" s="72"/>
+      <c r="AC113" s="72"/>
+      <c r="AD113" s="72"/>
+      <c r="AE113" s="72"/>
+      <c r="AF113" s="72"/>
+      <c r="AG113" s="72"/>
+      <c r="AH113" s="72"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="73" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
-      <c r="L114" s="68"/>
-      <c r="M114" s="68"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="68"/>
-      <c r="P114" s="68"/>
-      <c r="Q114" s="68"/>
-      <c r="R114" s="68"/>
-      <c r="S114" s="68"/>
-      <c r="T114" s="68"/>
-      <c r="U114" s="68"/>
-      <c r="V114" s="68"/>
-      <c r="W114" s="68"/>
-      <c r="X114" s="68"/>
-      <c r="Y114" s="68"/>
-      <c r="Z114" s="68"/>
-      <c r="AA114" s="68"/>
-      <c r="AB114" s="68"/>
-      <c r="AC114" s="68"/>
-      <c r="AD114" s="68"/>
-      <c r="AE114" s="68"/>
-      <c r="AF114" s="68"/>
-      <c r="AG114" s="68"/>
-      <c r="AH114" s="68"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
+      <c r="L114" s="73"/>
+      <c r="M114" s="73"/>
+      <c r="N114" s="73"/>
+      <c r="O114" s="73"/>
+      <c r="P114" s="73"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="73"/>
+      <c r="T114" s="73"/>
+      <c r="U114" s="73"/>
+      <c r="V114" s="73"/>
+      <c r="W114" s="73"/>
+      <c r="X114" s="73"/>
+      <c r="Y114" s="73"/>
+      <c r="Z114" s="73"/>
+      <c r="AA114" s="73"/>
+      <c r="AB114" s="73"/>
+      <c r="AC114" s="73"/>
+      <c r="AD114" s="73"/>
+      <c r="AE114" s="73"/>
+      <c r="AF114" s="73"/>
+      <c r="AG114" s="73"/>
+      <c r="AH114" s="73"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
@@ -42610,7 +42618,7 @@
       <c r="AE115" s="70"/>
       <c r="AF115" s="70"/>
       <c r="AG115" s="70"/>
-      <c r="AH115" s="74" t="s">
+      <c r="AH115" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44433,118 +44441,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="71" t="s">
+      <c r="A160" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="72"/>
-      <c r="C160" s="72"/>
-      <c r="D160" s="72"/>
-      <c r="E160" s="72"/>
-      <c r="F160" s="72"/>
-      <c r="G160" s="72"/>
-      <c r="H160" s="72"/>
-      <c r="I160" s="72"/>
-      <c r="J160" s="72"/>
-      <c r="K160" s="72"/>
-      <c r="L160" s="72"/>
-      <c r="M160" s="72"/>
-      <c r="N160" s="72"/>
-      <c r="O160" s="72"/>
-      <c r="P160" s="72"/>
-      <c r="Q160" s="72"/>
-      <c r="R160" s="72"/>
-      <c r="S160" s="72"/>
-      <c r="T160" s="72"/>
-      <c r="U160" s="72"/>
-      <c r="V160" s="72"/>
-      <c r="W160" s="72"/>
-      <c r="X160" s="72"/>
-      <c r="Y160" s="72"/>
-      <c r="Z160" s="72"/>
-      <c r="AA160" s="72"/>
-      <c r="AB160" s="72"/>
-      <c r="AC160" s="72"/>
-      <c r="AD160" s="72"/>
-      <c r="AE160" s="72"/>
-      <c r="AF160" s="72"/>
-      <c r="AG160" s="72"/>
-      <c r="AH160" s="72"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="68"/>
+      <c r="I160" s="68"/>
+      <c r="J160" s="68"/>
+      <c r="K160" s="68"/>
+      <c r="L160" s="68"/>
+      <c r="M160" s="68"/>
+      <c r="N160" s="68"/>
+      <c r="O160" s="68"/>
+      <c r="P160" s="68"/>
+      <c r="Q160" s="68"/>
+      <c r="R160" s="68"/>
+      <c r="S160" s="68"/>
+      <c r="T160" s="68"/>
+      <c r="U160" s="68"/>
+      <c r="V160" s="68"/>
+      <c r="W160" s="68"/>
+      <c r="X160" s="68"/>
+      <c r="Y160" s="68"/>
+      <c r="Z160" s="68"/>
+      <c r="AA160" s="68"/>
+      <c r="AB160" s="68"/>
+      <c r="AC160" s="68"/>
+      <c r="AD160" s="68"/>
+      <c r="AE160" s="68"/>
+      <c r="AF160" s="68"/>
+      <c r="AG160" s="68"/>
+      <c r="AH160" s="68"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="67" t="s">
+      <c r="A162" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="67"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="67"/>
-      <c r="H162" s="67"/>
-      <c r="I162" s="67"/>
-      <c r="J162" s="67"/>
-      <c r="K162" s="67"/>
-      <c r="L162" s="67"/>
-      <c r="M162" s="67"/>
-      <c r="N162" s="67"/>
-      <c r="O162" s="67"/>
-      <c r="P162" s="67"/>
-      <c r="Q162" s="67"/>
-      <c r="R162" s="67"/>
-      <c r="S162" s="67"/>
-      <c r="T162" s="67"/>
-      <c r="U162" s="67"/>
-      <c r="V162" s="67"/>
-      <c r="W162" s="67"/>
-      <c r="X162" s="67"/>
-      <c r="Y162" s="67"/>
-      <c r="Z162" s="67"/>
-      <c r="AA162" s="67"/>
-      <c r="AB162" s="67"/>
-      <c r="AC162" s="67"/>
-      <c r="AD162" s="67"/>
-      <c r="AE162" s="67"/>
-      <c r="AF162" s="67"/>
-      <c r="AG162" s="67"/>
-      <c r="AH162" s="67"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="72"/>
+      <c r="N162" s="72"/>
+      <c r="O162" s="72"/>
+      <c r="P162" s="72"/>
+      <c r="Q162" s="72"/>
+      <c r="R162" s="72"/>
+      <c r="S162" s="72"/>
+      <c r="T162" s="72"/>
+      <c r="U162" s="72"/>
+      <c r="V162" s="72"/>
+      <c r="W162" s="72"/>
+      <c r="X162" s="72"/>
+      <c r="Y162" s="72"/>
+      <c r="Z162" s="72"/>
+      <c r="AA162" s="72"/>
+      <c r="AB162" s="72"/>
+      <c r="AC162" s="72"/>
+      <c r="AD162" s="72"/>
+      <c r="AE162" s="72"/>
+      <c r="AF162" s="72"/>
+      <c r="AG162" s="72"/>
+      <c r="AH162" s="72"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="68" t="s">
+      <c r="A163" s="73" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="68"/>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="68"/>
-      <c r="J163" s="68"/>
-      <c r="K163" s="68"/>
-      <c r="L163" s="68"/>
-      <c r="M163" s="68"/>
-      <c r="N163" s="68"/>
-      <c r="O163" s="68"/>
-      <c r="P163" s="68"/>
-      <c r="Q163" s="68"/>
-      <c r="R163" s="68"/>
-      <c r="S163" s="68"/>
-      <c r="T163" s="68"/>
-      <c r="U163" s="68"/>
-      <c r="V163" s="68"/>
-      <c r="W163" s="68"/>
-      <c r="X163" s="68"/>
-      <c r="Y163" s="68"/>
-      <c r="Z163" s="68"/>
-      <c r="AA163" s="68"/>
-      <c r="AB163" s="68"/>
-      <c r="AC163" s="68"/>
-      <c r="AD163" s="68"/>
-      <c r="AE163" s="68"/>
-      <c r="AF163" s="68"/>
-      <c r="AG163" s="68"/>
-      <c r="AH163" s="68"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="73"/>
+      <c r="D163" s="73"/>
+      <c r="E163" s="73"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
+      <c r="K163" s="73"/>
+      <c r="L163" s="73"/>
+      <c r="M163" s="73"/>
+      <c r="N163" s="73"/>
+      <c r="O163" s="73"/>
+      <c r="P163" s="73"/>
+      <c r="Q163" s="73"/>
+      <c r="R163" s="73"/>
+      <c r="S163" s="73"/>
+      <c r="T163" s="73"/>
+      <c r="U163" s="73"/>
+      <c r="V163" s="73"/>
+      <c r="W163" s="73"/>
+      <c r="X163" s="73"/>
+      <c r="Y163" s="73"/>
+      <c r="Z163" s="73"/>
+      <c r="AA163" s="73"/>
+      <c r="AB163" s="73"/>
+      <c r="AC163" s="73"/>
+      <c r="AD163" s="73"/>
+      <c r="AE163" s="73"/>
+      <c r="AF163" s="73"/>
+      <c r="AG163" s="73"/>
+      <c r="AH163" s="73"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="70" t="s">
@@ -44592,7 +44600,7 @@
       <c r="AE164" s="70"/>
       <c r="AF164" s="70"/>
       <c r="AG164" s="70"/>
-      <c r="AH164" s="74" t="s">
+      <c r="AH164" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46415,118 +46423,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="71" t="s">
+      <c r="A209" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="72"/>
-      <c r="C209" s="72"/>
-      <c r="D209" s="72"/>
-      <c r="E209" s="72"/>
-      <c r="F209" s="72"/>
-      <c r="G209" s="72"/>
-      <c r="H209" s="72"/>
-      <c r="I209" s="72"/>
-      <c r="J209" s="72"/>
-      <c r="K209" s="72"/>
-      <c r="L209" s="72"/>
-      <c r="M209" s="72"/>
-      <c r="N209" s="72"/>
-      <c r="O209" s="72"/>
-      <c r="P209" s="72"/>
-      <c r="Q209" s="72"/>
-      <c r="R209" s="72"/>
-      <c r="S209" s="72"/>
-      <c r="T209" s="72"/>
-      <c r="U209" s="72"/>
-      <c r="V209" s="72"/>
-      <c r="W209" s="72"/>
-      <c r="X209" s="72"/>
-      <c r="Y209" s="72"/>
-      <c r="Z209" s="72"/>
-      <c r="AA209" s="72"/>
-      <c r="AB209" s="72"/>
-      <c r="AC209" s="72"/>
-      <c r="AD209" s="72"/>
-      <c r="AE209" s="72"/>
-      <c r="AF209" s="72"/>
-      <c r="AG209" s="72"/>
-      <c r="AH209" s="72"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="68"/>
+      <c r="I209" s="68"/>
+      <c r="J209" s="68"/>
+      <c r="K209" s="68"/>
+      <c r="L209" s="68"/>
+      <c r="M209" s="68"/>
+      <c r="N209" s="68"/>
+      <c r="O209" s="68"/>
+      <c r="P209" s="68"/>
+      <c r="Q209" s="68"/>
+      <c r="R209" s="68"/>
+      <c r="S209" s="68"/>
+      <c r="T209" s="68"/>
+      <c r="U209" s="68"/>
+      <c r="V209" s="68"/>
+      <c r="W209" s="68"/>
+      <c r="X209" s="68"/>
+      <c r="Y209" s="68"/>
+      <c r="Z209" s="68"/>
+      <c r="AA209" s="68"/>
+      <c r="AB209" s="68"/>
+      <c r="AC209" s="68"/>
+      <c r="AD209" s="68"/>
+      <c r="AE209" s="68"/>
+      <c r="AF209" s="68"/>
+      <c r="AG209" s="68"/>
+      <c r="AH209" s="68"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="67" t="s">
+      <c r="A211" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="67"/>
-      <c r="C211" s="67"/>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
-      <c r="F211" s="67"/>
-      <c r="G211" s="67"/>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="67"/>
-      <c r="L211" s="67"/>
-      <c r="M211" s="67"/>
-      <c r="N211" s="67"/>
-      <c r="O211" s="67"/>
-      <c r="P211" s="67"/>
-      <c r="Q211" s="67"/>
-      <c r="R211" s="67"/>
-      <c r="S211" s="67"/>
-      <c r="T211" s="67"/>
-      <c r="U211" s="67"/>
-      <c r="V211" s="67"/>
-      <c r="W211" s="67"/>
-      <c r="X211" s="67"/>
-      <c r="Y211" s="67"/>
-      <c r="Z211" s="67"/>
-      <c r="AA211" s="67"/>
-      <c r="AB211" s="67"/>
-      <c r="AC211" s="67"/>
-      <c r="AD211" s="67"/>
-      <c r="AE211" s="67"/>
-      <c r="AF211" s="67"/>
-      <c r="AG211" s="67"/>
-      <c r="AH211" s="67"/>
+      <c r="B211" s="72"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="72"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="72"/>
+      <c r="N211" s="72"/>
+      <c r="O211" s="72"/>
+      <c r="P211" s="72"/>
+      <c r="Q211" s="72"/>
+      <c r="R211" s="72"/>
+      <c r="S211" s="72"/>
+      <c r="T211" s="72"/>
+      <c r="U211" s="72"/>
+      <c r="V211" s="72"/>
+      <c r="W211" s="72"/>
+      <c r="X211" s="72"/>
+      <c r="Y211" s="72"/>
+      <c r="Z211" s="72"/>
+      <c r="AA211" s="72"/>
+      <c r="AB211" s="72"/>
+      <c r="AC211" s="72"/>
+      <c r="AD211" s="72"/>
+      <c r="AE211" s="72"/>
+      <c r="AF211" s="72"/>
+      <c r="AG211" s="72"/>
+      <c r="AH211" s="72"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="68" t="s">
+      <c r="A212" s="73" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="68"/>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="68"/>
-      <c r="F212" s="68"/>
-      <c r="G212" s="68"/>
-      <c r="H212" s="68"/>
-      <c r="I212" s="68"/>
-      <c r="J212" s="68"/>
-      <c r="K212" s="68"/>
-      <c r="L212" s="68"/>
-      <c r="M212" s="68"/>
-      <c r="N212" s="68"/>
-      <c r="O212" s="68"/>
-      <c r="P212" s="68"/>
-      <c r="Q212" s="68"/>
-      <c r="R212" s="68"/>
-      <c r="S212" s="68"/>
-      <c r="T212" s="68"/>
-      <c r="U212" s="68"/>
-      <c r="V212" s="68"/>
-      <c r="W212" s="68"/>
-      <c r="X212" s="68"/>
-      <c r="Y212" s="68"/>
-      <c r="Z212" s="68"/>
-      <c r="AA212" s="68"/>
-      <c r="AB212" s="68"/>
-      <c r="AC212" s="68"/>
-      <c r="AD212" s="68"/>
-      <c r="AE212" s="68"/>
-      <c r="AF212" s="68"/>
-      <c r="AG212" s="68"/>
-      <c r="AH212" s="68"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="73"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="73"/>
+      <c r="G212" s="73"/>
+      <c r="H212" s="73"/>
+      <c r="I212" s="73"/>
+      <c r="J212" s="73"/>
+      <c r="K212" s="73"/>
+      <c r="L212" s="73"/>
+      <c r="M212" s="73"/>
+      <c r="N212" s="73"/>
+      <c r="O212" s="73"/>
+      <c r="P212" s="73"/>
+      <c r="Q212" s="73"/>
+      <c r="R212" s="73"/>
+      <c r="S212" s="73"/>
+      <c r="T212" s="73"/>
+      <c r="U212" s="73"/>
+      <c r="V212" s="73"/>
+      <c r="W212" s="73"/>
+      <c r="X212" s="73"/>
+      <c r="Y212" s="73"/>
+      <c r="Z212" s="73"/>
+      <c r="AA212" s="73"/>
+      <c r="AB212" s="73"/>
+      <c r="AC212" s="73"/>
+      <c r="AD212" s="73"/>
+      <c r="AE212" s="73"/>
+      <c r="AF212" s="73"/>
+      <c r="AG212" s="73"/>
+      <c r="AH212" s="73"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="70" t="s">
@@ -46574,7 +46582,7 @@
       <c r="AE213" s="70"/>
       <c r="AF213" s="70"/>
       <c r="AG213" s="70"/>
-      <c r="AH213" s="74" t="s">
+      <c r="AH213" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48477,45 +48485,99 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="71" t="s">
+      <c r="A260" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="72"/>
-      <c r="C260" s="72"/>
-      <c r="D260" s="72"/>
-      <c r="E260" s="72"/>
-      <c r="F260" s="72"/>
-      <c r="G260" s="72"/>
-      <c r="H260" s="72"/>
-      <c r="I260" s="72"/>
-      <c r="J260" s="72"/>
-      <c r="K260" s="72"/>
-      <c r="L260" s="72"/>
-      <c r="M260" s="72"/>
-      <c r="N260" s="72"/>
-      <c r="O260" s="72"/>
-      <c r="P260" s="72"/>
-      <c r="Q260" s="72"/>
-      <c r="R260" s="72"/>
-      <c r="S260" s="72"/>
-      <c r="T260" s="72"/>
-      <c r="U260" s="72"/>
-      <c r="V260" s="72"/>
-      <c r="W260" s="72"/>
-      <c r="X260" s="72"/>
-      <c r="Y260" s="72"/>
-      <c r="Z260" s="72"/>
-      <c r="AA260" s="72"/>
-      <c r="AB260" s="72"/>
-      <c r="AC260" s="72"/>
-      <c r="AD260" s="72"/>
-      <c r="AE260" s="72"/>
-      <c r="AF260" s="72"/>
-      <c r="AG260" s="72"/>
-      <c r="AH260" s="72"/>
+      <c r="B260" s="68"/>
+      <c r="C260" s="68"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="68"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="I260" s="68"/>
+      <c r="J260" s="68"/>
+      <c r="K260" s="68"/>
+      <c r="L260" s="68"/>
+      <c r="M260" s="68"/>
+      <c r="N260" s="68"/>
+      <c r="O260" s="68"/>
+      <c r="P260" s="68"/>
+      <c r="Q260" s="68"/>
+      <c r="R260" s="68"/>
+      <c r="S260" s="68"/>
+      <c r="T260" s="68"/>
+      <c r="U260" s="68"/>
+      <c r="V260" s="68"/>
+      <c r="W260" s="68"/>
+      <c r="X260" s="68"/>
+      <c r="Y260" s="68"/>
+      <c r="Z260" s="68"/>
+      <c r="AA260" s="68"/>
+      <c r="AB260" s="68"/>
+      <c r="AC260" s="68"/>
+      <c r="AD260" s="68"/>
+      <c r="AE260" s="68"/>
+      <c r="AF260" s="68"/>
+      <c r="AG260" s="68"/>
+      <c r="AH260" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48532,60 +48594,6 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/学生平时学习记录表.xlsx
+++ b/学生平时学习记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B48CB-82F5-4CB7-9B7A-171E9511031F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9CDBD-CD09-4795-8444-EA8C5DDBC667}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="1734">
   <si>
     <t>学生平时学习记录表</t>
   </si>
@@ -6951,6 +6951,10 @@
   </si>
   <si>
     <t>驾校</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -7356,6 +7360,18 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7366,19 +7382,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8312,80 +8316,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
     </row>
     <row r="3" spans="1:34" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -8433,7 +8437,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9736,118 +9740,118 @@
       <c r="AH34" s="37"/>
     </row>
     <row r="35" spans="1:34" s="26" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
     </row>
     <row r="36" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
     </row>
     <row r="37" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="69"/>
+      <c r="AD37" s="69"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
     </row>
     <row r="38" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
@@ -9895,7 +9899,7 @@
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
-      <c r="AH38" s="71" t="s">
+      <c r="AH38" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12358,119 +12362,119 @@
       <c r="AH98" s="37"/>
     </row>
     <row r="99" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="69"/>
-      <c r="S99" s="69"/>
-      <c r="T99" s="69"/>
-      <c r="U99" s="69"/>
-      <c r="V99" s="69"/>
-      <c r="W99" s="69"/>
-      <c r="X99" s="69"/>
-      <c r="Y99" s="69"/>
-      <c r="Z99" s="69"/>
-      <c r="AA99" s="69"/>
-      <c r="AB99" s="69"/>
-      <c r="AC99" s="69"/>
-      <c r="AD99" s="69"/>
-      <c r="AE99" s="69"/>
-      <c r="AF99" s="69"/>
-      <c r="AG99" s="69"/>
-      <c r="AH99" s="69"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="73"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="73"/>
+      <c r="W99" s="73"/>
+      <c r="X99" s="73"/>
+      <c r="Y99" s="73"/>
+      <c r="Z99" s="73"/>
+      <c r="AA99" s="73"/>
+      <c r="AB99" s="73"/>
+      <c r="AC99" s="73"/>
+      <c r="AD99" s="73"/>
+      <c r="AE99" s="73"/>
+      <c r="AF99" s="73"/>
+      <c r="AG99" s="73"/>
+      <c r="AH99" s="73"/>
     </row>
     <row r="100" spans="1:34" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
-      <c r="V101" s="72"/>
-      <c r="W101" s="72"/>
-      <c r="X101" s="72"/>
-      <c r="Y101" s="72"/>
-      <c r="Z101" s="72"/>
-      <c r="AA101" s="72"/>
-      <c r="AB101" s="72"/>
-      <c r="AC101" s="72"/>
-      <c r="AD101" s="72"/>
-      <c r="AE101" s="72"/>
-      <c r="AF101" s="72"/>
-      <c r="AG101" s="72"/>
-      <c r="AH101" s="72"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="67"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="67"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="67"/>
+      <c r="V101" s="67"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+      <c r="Y101" s="67"/>
+      <c r="Z101" s="67"/>
+      <c r="AA101" s="67"/>
+      <c r="AB101" s="67"/>
+      <c r="AC101" s="67"/>
+      <c r="AD101" s="67"/>
+      <c r="AE101" s="67"/>
+      <c r="AF101" s="67"/>
+      <c r="AG101" s="67"/>
+      <c r="AH101" s="67"/>
     </row>
     <row r="102" spans="1:34" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="73"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
-      <c r="AA102" s="74"/>
-      <c r="AB102" s="74"/>
-      <c r="AC102" s="74"/>
-      <c r="AD102" s="74"/>
-      <c r="AE102" s="74"/>
-      <c r="AF102" s="74"/>
-      <c r="AG102" s="74"/>
-      <c r="AH102" s="74"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="69"/>
+      <c r="Y102" s="69"/>
+      <c r="Z102" s="69"/>
+      <c r="AA102" s="69"/>
+      <c r="AB102" s="69"/>
+      <c r="AC102" s="69"/>
+      <c r="AD102" s="69"/>
+      <c r="AE102" s="69"/>
+      <c r="AF102" s="69"/>
+      <c r="AG102" s="69"/>
+      <c r="AH102" s="69"/>
     </row>
     <row r="103" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
@@ -12518,7 +12522,7 @@
       <c r="AE103" s="70"/>
       <c r="AF103" s="70"/>
       <c r="AG103" s="70"/>
-      <c r="AH103" s="71" t="s">
+      <c r="AH103" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -15141,118 +15145,118 @@
       <c r="AH167" s="37"/>
     </row>
     <row r="168" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="67" t="s">
+      <c r="A168" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="68"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="69"/>
-      <c r="E168" s="69"/>
-      <c r="F168" s="69"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="69"/>
-      <c r="J168" s="69"/>
-      <c r="K168" s="69"/>
-      <c r="L168" s="69"/>
-      <c r="M168" s="69"/>
-      <c r="N168" s="69"/>
-      <c r="O168" s="69"/>
-      <c r="P168" s="69"/>
-      <c r="Q168" s="69"/>
-      <c r="R168" s="69"/>
-      <c r="S168" s="69"/>
-      <c r="T168" s="69"/>
-      <c r="U168" s="69"/>
-      <c r="V168" s="69"/>
-      <c r="W168" s="69"/>
-      <c r="X168" s="69"/>
-      <c r="Y168" s="69"/>
-      <c r="Z168" s="69"/>
-      <c r="AA168" s="69"/>
-      <c r="AB168" s="69"/>
-      <c r="AC168" s="69"/>
-      <c r="AD168" s="69"/>
-      <c r="AE168" s="69"/>
-      <c r="AF168" s="69"/>
-      <c r="AG168" s="69"/>
-      <c r="AH168" s="69"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="73"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="73"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="73"/>
+      <c r="K168" s="73"/>
+      <c r="L168" s="73"/>
+      <c r="M168" s="73"/>
+      <c r="N168" s="73"/>
+      <c r="O168" s="73"/>
+      <c r="P168" s="73"/>
+      <c r="Q168" s="73"/>
+      <c r="R168" s="73"/>
+      <c r="S168" s="73"/>
+      <c r="T168" s="73"/>
+      <c r="U168" s="73"/>
+      <c r="V168" s="73"/>
+      <c r="W168" s="73"/>
+      <c r="X168" s="73"/>
+      <c r="Y168" s="73"/>
+      <c r="Z168" s="73"/>
+      <c r="AA168" s="73"/>
+      <c r="AB168" s="73"/>
+      <c r="AC168" s="73"/>
+      <c r="AD168" s="73"/>
+      <c r="AE168" s="73"/>
+      <c r="AF168" s="73"/>
+      <c r="AG168" s="73"/>
+      <c r="AH168" s="73"/>
     </row>
     <row r="169" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="72" t="s">
+      <c r="A169" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
-      <c r="K169" s="72"/>
-      <c r="L169" s="72"/>
-      <c r="M169" s="72"/>
-      <c r="N169" s="72"/>
-      <c r="O169" s="72"/>
-      <c r="P169" s="72"/>
-      <c r="Q169" s="72"/>
-      <c r="R169" s="72"/>
-      <c r="S169" s="72"/>
-      <c r="T169" s="72"/>
-      <c r="U169" s="72"/>
-      <c r="V169" s="72"/>
-      <c r="W169" s="72"/>
-      <c r="X169" s="72"/>
-      <c r="Y169" s="72"/>
-      <c r="Z169" s="72"/>
-      <c r="AA169" s="72"/>
-      <c r="AB169" s="72"/>
-      <c r="AC169" s="72"/>
-      <c r="AD169" s="72"/>
-      <c r="AE169" s="72"/>
-      <c r="AF169" s="72"/>
-      <c r="AG169" s="72"/>
-      <c r="AH169" s="72"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="67"/>
+      <c r="L169" s="67"/>
+      <c r="M169" s="67"/>
+      <c r="N169" s="67"/>
+      <c r="O169" s="67"/>
+      <c r="P169" s="67"/>
+      <c r="Q169" s="67"/>
+      <c r="R169" s="67"/>
+      <c r="S169" s="67"/>
+      <c r="T169" s="67"/>
+      <c r="U169" s="67"/>
+      <c r="V169" s="67"/>
+      <c r="W169" s="67"/>
+      <c r="X169" s="67"/>
+      <c r="Y169" s="67"/>
+      <c r="Z169" s="67"/>
+      <c r="AA169" s="67"/>
+      <c r="AB169" s="67"/>
+      <c r="AC169" s="67"/>
+      <c r="AD169" s="67"/>
+      <c r="AE169" s="67"/>
+      <c r="AF169" s="67"/>
+      <c r="AG169" s="67"/>
+      <c r="AH169" s="67"/>
     </row>
     <row r="170" spans="1:34" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="73" t="s">
+      <c r="A170" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="73"/>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="74"/>
-      <c r="K170" s="74"/>
-      <c r="L170" s="74"/>
-      <c r="M170" s="74"/>
-      <c r="N170" s="74"/>
-      <c r="O170" s="74"/>
-      <c r="P170" s="74"/>
-      <c r="Q170" s="74"/>
-      <c r="R170" s="74"/>
-      <c r="S170" s="74"/>
-      <c r="T170" s="74"/>
-      <c r="U170" s="74"/>
-      <c r="V170" s="74"/>
-      <c r="W170" s="74"/>
-      <c r="X170" s="74"/>
-      <c r="Y170" s="74"/>
-      <c r="Z170" s="74"/>
-      <c r="AA170" s="74"/>
-      <c r="AB170" s="74"/>
-      <c r="AC170" s="74"/>
-      <c r="AD170" s="74"/>
-      <c r="AE170" s="74"/>
-      <c r="AF170" s="74"/>
-      <c r="AG170" s="74"/>
-      <c r="AH170" s="74"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="69"/>
+      <c r="G170" s="69"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="69"/>
+      <c r="K170" s="69"/>
+      <c r="L170" s="69"/>
+      <c r="M170" s="69"/>
+      <c r="N170" s="69"/>
+      <c r="O170" s="69"/>
+      <c r="P170" s="69"/>
+      <c r="Q170" s="69"/>
+      <c r="R170" s="69"/>
+      <c r="S170" s="69"/>
+      <c r="T170" s="69"/>
+      <c r="U170" s="69"/>
+      <c r="V170" s="69"/>
+      <c r="W170" s="69"/>
+      <c r="X170" s="69"/>
+      <c r="Y170" s="69"/>
+      <c r="Z170" s="69"/>
+      <c r="AA170" s="69"/>
+      <c r="AB170" s="69"/>
+      <c r="AC170" s="69"/>
+      <c r="AD170" s="69"/>
+      <c r="AE170" s="69"/>
+      <c r="AF170" s="69"/>
+      <c r="AG170" s="69"/>
+      <c r="AH170" s="69"/>
     </row>
     <row r="171" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="70" t="s">
@@ -15300,7 +15304,7 @@
       <c r="AE171" s="70"/>
       <c r="AF171" s="70"/>
       <c r="AG171" s="70"/>
-      <c r="AH171" s="71" t="s">
+      <c r="AH171" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16883,42 +16887,42 @@
       <c r="AH209" s="37"/>
     </row>
     <row r="210" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="67" t="s">
+      <c r="A210" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="68"/>
-      <c r="C210" s="69"/>
-      <c r="D210" s="69"/>
-      <c r="E210" s="69"/>
-      <c r="F210" s="69"/>
-      <c r="G210" s="69"/>
-      <c r="H210" s="69"/>
-      <c r="I210" s="69"/>
-      <c r="J210" s="69"/>
-      <c r="K210" s="69"/>
-      <c r="L210" s="69"/>
-      <c r="M210" s="69"/>
-      <c r="N210" s="69"/>
-      <c r="O210" s="69"/>
-      <c r="P210" s="69"/>
-      <c r="Q210" s="69"/>
-      <c r="R210" s="69"/>
-      <c r="S210" s="69"/>
-      <c r="T210" s="69"/>
-      <c r="U210" s="69"/>
-      <c r="V210" s="69"/>
-      <c r="W210" s="69"/>
-      <c r="X210" s="69"/>
-      <c r="Y210" s="69"/>
-      <c r="Z210" s="69"/>
-      <c r="AA210" s="69"/>
-      <c r="AB210" s="69"/>
-      <c r="AC210" s="69"/>
-      <c r="AD210" s="69"/>
-      <c r="AE210" s="69"/>
-      <c r="AF210" s="69"/>
-      <c r="AG210" s="69"/>
-      <c r="AH210" s="69"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="73"/>
+      <c r="G210" s="73"/>
+      <c r="H210" s="73"/>
+      <c r="I210" s="73"/>
+      <c r="J210" s="73"/>
+      <c r="K210" s="73"/>
+      <c r="L210" s="73"/>
+      <c r="M210" s="73"/>
+      <c r="N210" s="73"/>
+      <c r="O210" s="73"/>
+      <c r="P210" s="73"/>
+      <c r="Q210" s="73"/>
+      <c r="R210" s="73"/>
+      <c r="S210" s="73"/>
+      <c r="T210" s="73"/>
+      <c r="U210" s="73"/>
+      <c r="V210" s="73"/>
+      <c r="W210" s="73"/>
+      <c r="X210" s="73"/>
+      <c r="Y210" s="73"/>
+      <c r="Z210" s="73"/>
+      <c r="AA210" s="73"/>
+      <c r="AB210" s="73"/>
+      <c r="AC210" s="73"/>
+      <c r="AD210" s="73"/>
+      <c r="AE210" s="73"/>
+      <c r="AF210" s="73"/>
+      <c r="AG210" s="73"/>
+      <c r="AH210" s="73"/>
     </row>
     <row r="211" spans="1:34" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
@@ -16957,80 +16961,80 @@
       <c r="AH211" s="40"/>
     </row>
     <row r="212" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="72" t="s">
+      <c r="A212" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="72"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
-      <c r="H212" s="72"/>
-      <c r="I212" s="72"/>
-      <c r="J212" s="72"/>
-      <c r="K212" s="72"/>
-      <c r="L212" s="72"/>
-      <c r="M212" s="72"/>
-      <c r="N212" s="72"/>
-      <c r="O212" s="72"/>
-      <c r="P212" s="72"/>
-      <c r="Q212" s="72"/>
-      <c r="R212" s="72"/>
-      <c r="S212" s="72"/>
-      <c r="T212" s="72"/>
-      <c r="U212" s="72"/>
-      <c r="V212" s="72"/>
-      <c r="W212" s="72"/>
-      <c r="X212" s="72"/>
-      <c r="Y212" s="72"/>
-      <c r="Z212" s="72"/>
-      <c r="AA212" s="72"/>
-      <c r="AB212" s="72"/>
-      <c r="AC212" s="72"/>
-      <c r="AD212" s="72"/>
-      <c r="AE212" s="72"/>
-      <c r="AF212" s="72"/>
-      <c r="AG212" s="72"/>
-      <c r="AH212" s="72"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="67"/>
+      <c r="G212" s="67"/>
+      <c r="H212" s="67"/>
+      <c r="I212" s="67"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="67"/>
+      <c r="M212" s="67"/>
+      <c r="N212" s="67"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="67"/>
+      <c r="Q212" s="67"/>
+      <c r="R212" s="67"/>
+      <c r="S212" s="67"/>
+      <c r="T212" s="67"/>
+      <c r="U212" s="67"/>
+      <c r="V212" s="67"/>
+      <c r="W212" s="67"/>
+      <c r="X212" s="67"/>
+      <c r="Y212" s="67"/>
+      <c r="Z212" s="67"/>
+      <c r="AA212" s="67"/>
+      <c r="AB212" s="67"/>
+      <c r="AC212" s="67"/>
+      <c r="AD212" s="67"/>
+      <c r="AE212" s="67"/>
+      <c r="AF212" s="67"/>
+      <c r="AG212" s="67"/>
+      <c r="AH212" s="67"/>
     </row>
     <row r="213" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73"/>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
-      <c r="F213" s="73"/>
-      <c r="G213" s="73"/>
-      <c r="H213" s="73"/>
-      <c r="I213" s="73"/>
-      <c r="J213" s="73"/>
-      <c r="K213" s="73"/>
-      <c r="L213" s="73"/>
-      <c r="M213" s="73"/>
-      <c r="N213" s="73"/>
-      <c r="O213" s="73"/>
-      <c r="P213" s="73"/>
-      <c r="Q213" s="73"/>
-      <c r="R213" s="73"/>
-      <c r="S213" s="73"/>
-      <c r="T213" s="73"/>
-      <c r="U213" s="73"/>
-      <c r="V213" s="73"/>
-      <c r="W213" s="73"/>
-      <c r="X213" s="73"/>
-      <c r="Y213" s="73"/>
-      <c r="Z213" s="73"/>
-      <c r="AA213" s="73"/>
-      <c r="AB213" s="73"/>
-      <c r="AC213" s="73"/>
-      <c r="AD213" s="73"/>
-      <c r="AE213" s="73"/>
-      <c r="AF213" s="73"/>
-      <c r="AG213" s="73"/>
-      <c r="AH213" s="73"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="68"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="68"/>
+      <c r="I213" s="68"/>
+      <c r="J213" s="68"/>
+      <c r="K213" s="68"/>
+      <c r="L213" s="68"/>
+      <c r="M213" s="68"/>
+      <c r="N213" s="68"/>
+      <c r="O213" s="68"/>
+      <c r="P213" s="68"/>
+      <c r="Q213" s="68"/>
+      <c r="R213" s="68"/>
+      <c r="S213" s="68"/>
+      <c r="T213" s="68"/>
+      <c r="U213" s="68"/>
+      <c r="V213" s="68"/>
+      <c r="W213" s="68"/>
+      <c r="X213" s="68"/>
+      <c r="Y213" s="68"/>
+      <c r="Z213" s="68"/>
+      <c r="AA213" s="68"/>
+      <c r="AB213" s="68"/>
+      <c r="AC213" s="68"/>
+      <c r="AD213" s="68"/>
+      <c r="AE213" s="68"/>
+      <c r="AF213" s="68"/>
+      <c r="AG213" s="68"/>
+      <c r="AH213" s="68"/>
     </row>
     <row r="214" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="70" t="s">
@@ -17078,7 +17082,7 @@
       <c r="AE214" s="70"/>
       <c r="AF214" s="70"/>
       <c r="AG214" s="70"/>
-      <c r="AH214" s="71" t="s">
+      <c r="AH214" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19781,79 +19785,45 @@
       <c r="AH280" s="37"/>
     </row>
     <row r="281" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="67" t="s">
+      <c r="A281" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B281" s="68"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
-      <c r="I281" s="69"/>
-      <c r="J281" s="69"/>
-      <c r="K281" s="69"/>
-      <c r="L281" s="69"/>
-      <c r="M281" s="69"/>
-      <c r="N281" s="69"/>
-      <c r="O281" s="69"/>
-      <c r="P281" s="69"/>
-      <c r="Q281" s="69"/>
-      <c r="R281" s="69"/>
-      <c r="S281" s="69"/>
-      <c r="T281" s="69"/>
-      <c r="U281" s="69"/>
-      <c r="V281" s="69"/>
-      <c r="W281" s="69"/>
-      <c r="X281" s="69"/>
-      <c r="Y281" s="69"/>
-      <c r="Z281" s="69"/>
-      <c r="AA281" s="69"/>
-      <c r="AB281" s="69"/>
-      <c r="AC281" s="69"/>
-      <c r="AD281" s="69"/>
-      <c r="AE281" s="69"/>
-      <c r="AF281" s="69"/>
-      <c r="AG281" s="69"/>
-      <c r="AH281" s="69"/>
+      <c r="B281" s="72"/>
+      <c r="C281" s="73"/>
+      <c r="D281" s="73"/>
+      <c r="E281" s="73"/>
+      <c r="F281" s="73"/>
+      <c r="G281" s="73"/>
+      <c r="H281" s="73"/>
+      <c r="I281" s="73"/>
+      <c r="J281" s="73"/>
+      <c r="K281" s="73"/>
+      <c r="L281" s="73"/>
+      <c r="M281" s="73"/>
+      <c r="N281" s="73"/>
+      <c r="O281" s="73"/>
+      <c r="P281" s="73"/>
+      <c r="Q281" s="73"/>
+      <c r="R281" s="73"/>
+      <c r="S281" s="73"/>
+      <c r="T281" s="73"/>
+      <c r="U281" s="73"/>
+      <c r="V281" s="73"/>
+      <c r="W281" s="73"/>
+      <c r="X281" s="73"/>
+      <c r="Y281" s="73"/>
+      <c r="Z281" s="73"/>
+      <c r="AA281" s="73"/>
+      <c r="AB281" s="73"/>
+      <c r="AC281" s="73"/>
+      <c r="AD281" s="73"/>
+      <c r="AE281" s="73"/>
+      <c r="AF281" s="73"/>
+      <c r="AG281" s="73"/>
+      <c r="AH281" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A35:AH35"/>
-    <mergeCell ref="A36:AH36"/>
-    <mergeCell ref="A37:AH37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="A99:AH99"/>
-    <mergeCell ref="A101:AH101"/>
-    <mergeCell ref="A102:AH102"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="L103:T103"/>
-    <mergeCell ref="U103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="A168:AH168"/>
-    <mergeCell ref="A169:AH169"/>
-    <mergeCell ref="A170:AH170"/>
-    <mergeCell ref="C171:K171"/>
-    <mergeCell ref="L171:T171"/>
-    <mergeCell ref="U171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="A210:AH210"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="A213:AH213"/>
-    <mergeCell ref="C214:K214"/>
-    <mergeCell ref="L214:T214"/>
-    <mergeCell ref="U214:AC214"/>
-    <mergeCell ref="AD214:AG214"/>
     <mergeCell ref="A281:AH281"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A38:A39"/>
@@ -19870,6 +19840,40 @@
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AH171:AH172"/>
     <mergeCell ref="AH214:AH215"/>
+    <mergeCell ref="A210:AH210"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="A213:AH213"/>
+    <mergeCell ref="C214:K214"/>
+    <mergeCell ref="L214:T214"/>
+    <mergeCell ref="U214:AC214"/>
+    <mergeCell ref="AD214:AG214"/>
+    <mergeCell ref="A168:AH168"/>
+    <mergeCell ref="A169:AH169"/>
+    <mergeCell ref="A170:AH170"/>
+    <mergeCell ref="C171:K171"/>
+    <mergeCell ref="L171:T171"/>
+    <mergeCell ref="U171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="A99:AH99"/>
+    <mergeCell ref="A101:AH101"/>
+    <mergeCell ref="A102:AH102"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="L103:T103"/>
+    <mergeCell ref="U103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="A35:AH35"/>
+    <mergeCell ref="A36:AH36"/>
+    <mergeCell ref="A37:AH37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -19881,8 +19885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19903,80 +19907,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -20024,7 +20028,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22781,42 +22785,42 @@
       <c r="AH70" s="9"/>
     </row>
     <row r="71" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="68"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="68"/>
-      <c r="T71" s="68"/>
-      <c r="U71" s="68"/>
-      <c r="V71" s="68"/>
-      <c r="W71" s="68"/>
-      <c r="X71" s="68"/>
-      <c r="Y71" s="68"/>
-      <c r="Z71" s="68"/>
-      <c r="AA71" s="68"/>
-      <c r="AB71" s="68"/>
-      <c r="AC71" s="68"/>
-      <c r="AD71" s="68"/>
-      <c r="AE71" s="68"/>
-      <c r="AF71" s="68"/>
-      <c r="AG71" s="68"/>
-      <c r="AH71" s="68"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="72"/>
+      <c r="Y71" s="72"/>
+      <c r="Z71" s="72"/>
+      <c r="AA71" s="72"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="72"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="72"/>
+      <c r="AF71" s="72"/>
+      <c r="AG71" s="72"/>
+      <c r="AH71" s="72"/>
     </row>
     <row r="72" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
@@ -22855,80 +22859,80 @@
       <c r="AH72" s="16"/>
     </row>
     <row r="73" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="72"/>
-      <c r="W73" s="72"/>
-      <c r="X73" s="72"/>
-      <c r="Y73" s="72"/>
-      <c r="Z73" s="72"/>
-      <c r="AA73" s="72"/>
-      <c r="AB73" s="72"/>
-      <c r="AC73" s="72"/>
-      <c r="AD73" s="72"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
-      <c r="AH73" s="72"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="67"/>
+      <c r="Z73" s="67"/>
+      <c r="AA73" s="67"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="67"/>
+      <c r="AE73" s="67"/>
+      <c r="AF73" s="67"/>
+      <c r="AG73" s="67"/>
+      <c r="AH73" s="67"/>
     </row>
     <row r="74" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="68" t="s">
         <v>591</v>
       </c>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="73"/>
-      <c r="Q74" s="73"/>
-      <c r="R74" s="73"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-      <c r="W74" s="73"/>
-      <c r="X74" s="73"/>
-      <c r="Y74" s="73"/>
-      <c r="Z74" s="73"/>
-      <c r="AA74" s="73"/>
-      <c r="AB74" s="73"/>
-      <c r="AC74" s="73"/>
-      <c r="AD74" s="73"/>
-      <c r="AE74" s="73"/>
-      <c r="AF74" s="73"/>
-      <c r="AG74" s="73"/>
-      <c r="AH74" s="73"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
+      <c r="X74" s="68"/>
+      <c r="Y74" s="68"/>
+      <c r="Z74" s="68"/>
+      <c r="AA74" s="68"/>
+      <c r="AB74" s="68"/>
+      <c r="AC74" s="68"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="68"/>
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="68"/>
     </row>
     <row r="75" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
@@ -22976,7 +22980,7 @@
       <c r="AE75" s="70"/>
       <c r="AF75" s="70"/>
       <c r="AG75" s="70"/>
-      <c r="AH75" s="71" t="s">
+      <c r="AH75" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25635,118 +25639,118 @@
       <c r="AH140" s="9"/>
     </row>
     <row r="141" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="68"/>
-      <c r="I141" s="68"/>
-      <c r="J141" s="68"/>
-      <c r="K141" s="68"/>
-      <c r="L141" s="68"/>
-      <c r="M141" s="68"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="68"/>
-      <c r="P141" s="68"/>
-      <c r="Q141" s="68"/>
-      <c r="R141" s="68"/>
-      <c r="S141" s="68"/>
-      <c r="T141" s="68"/>
-      <c r="U141" s="68"/>
-      <c r="V141" s="68"/>
-      <c r="W141" s="68"/>
-      <c r="X141" s="68"/>
-      <c r="Y141" s="68"/>
-      <c r="Z141" s="68"/>
-      <c r="AA141" s="68"/>
-      <c r="AB141" s="68"/>
-      <c r="AC141" s="68"/>
-      <c r="AD141" s="68"/>
-      <c r="AE141" s="68"/>
-      <c r="AF141" s="68"/>
-      <c r="AG141" s="68"/>
-      <c r="AH141" s="68"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="72"/>
+      <c r="O141" s="72"/>
+      <c r="P141" s="72"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
+      <c r="T141" s="72"/>
+      <c r="U141" s="72"/>
+      <c r="V141" s="72"/>
+      <c r="W141" s="72"/>
+      <c r="X141" s="72"/>
+      <c r="Y141" s="72"/>
+      <c r="Z141" s="72"/>
+      <c r="AA141" s="72"/>
+      <c r="AB141" s="72"/>
+      <c r="AC141" s="72"/>
+      <c r="AD141" s="72"/>
+      <c r="AE141" s="72"/>
+      <c r="AF141" s="72"/>
+      <c r="AG141" s="72"/>
+      <c r="AH141" s="72"/>
     </row>
     <row r="142" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="72" t="s">
+      <c r="A142" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="72"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="72"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="72"/>
-      <c r="K142" s="72"/>
-      <c r="L142" s="72"/>
-      <c r="M142" s="72"/>
-      <c r="N142" s="72"/>
-      <c r="O142" s="72"/>
-      <c r="P142" s="72"/>
-      <c r="Q142" s="72"/>
-      <c r="R142" s="72"/>
-      <c r="S142" s="72"/>
-      <c r="T142" s="72"/>
-      <c r="U142" s="72"/>
-      <c r="V142" s="72"/>
-      <c r="W142" s="72"/>
-      <c r="X142" s="72"/>
-      <c r="Y142" s="72"/>
-      <c r="Z142" s="72"/>
-      <c r="AA142" s="72"/>
-      <c r="AB142" s="72"/>
-      <c r="AC142" s="72"/>
-      <c r="AD142" s="72"/>
-      <c r="AE142" s="72"/>
-      <c r="AF142" s="72"/>
-      <c r="AG142" s="72"/>
-      <c r="AH142" s="72"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
+      <c r="L142" s="67"/>
+      <c r="M142" s="67"/>
+      <c r="N142" s="67"/>
+      <c r="O142" s="67"/>
+      <c r="P142" s="67"/>
+      <c r="Q142" s="67"/>
+      <c r="R142" s="67"/>
+      <c r="S142" s="67"/>
+      <c r="T142" s="67"/>
+      <c r="U142" s="67"/>
+      <c r="V142" s="67"/>
+      <c r="W142" s="67"/>
+      <c r="X142" s="67"/>
+      <c r="Y142" s="67"/>
+      <c r="Z142" s="67"/>
+      <c r="AA142" s="67"/>
+      <c r="AB142" s="67"/>
+      <c r="AC142" s="67"/>
+      <c r="AD142" s="67"/>
+      <c r="AE142" s="67"/>
+      <c r="AF142" s="67"/>
+      <c r="AG142" s="67"/>
+      <c r="AH142" s="67"/>
     </row>
     <row r="143" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="73" t="s">
+      <c r="A143" s="68" t="s">
         <v>716</v>
       </c>
-      <c r="B143" s="73"/>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
-      <c r="K143" s="73"/>
-      <c r="L143" s="73"/>
-      <c r="M143" s="73"/>
-      <c r="N143" s="73"/>
-      <c r="O143" s="73"/>
-      <c r="P143" s="73"/>
-      <c r="Q143" s="73"/>
-      <c r="R143" s="73"/>
-      <c r="S143" s="73"/>
-      <c r="T143" s="73"/>
-      <c r="U143" s="73"/>
-      <c r="V143" s="73"/>
-      <c r="W143" s="73"/>
-      <c r="X143" s="73"/>
-      <c r="Y143" s="73"/>
-      <c r="Z143" s="73"/>
-      <c r="AA143" s="73"/>
-      <c r="AB143" s="73"/>
-      <c r="AC143" s="73"/>
-      <c r="AD143" s="73"/>
-      <c r="AE143" s="73"/>
-      <c r="AF143" s="73"/>
-      <c r="AG143" s="73"/>
-      <c r="AH143" s="73"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
+      <c r="J143" s="68"/>
+      <c r="K143" s="68"/>
+      <c r="L143" s="68"/>
+      <c r="M143" s="68"/>
+      <c r="N143" s="68"/>
+      <c r="O143" s="68"/>
+      <c r="P143" s="68"/>
+      <c r="Q143" s="68"/>
+      <c r="R143" s="68"/>
+      <c r="S143" s="68"/>
+      <c r="T143" s="68"/>
+      <c r="U143" s="68"/>
+      <c r="V143" s="68"/>
+      <c r="W143" s="68"/>
+      <c r="X143" s="68"/>
+      <c r="Y143" s="68"/>
+      <c r="Z143" s="68"/>
+      <c r="AA143" s="68"/>
+      <c r="AB143" s="68"/>
+      <c r="AC143" s="68"/>
+      <c r="AD143" s="68"/>
+      <c r="AE143" s="68"/>
+      <c r="AF143" s="68"/>
+      <c r="AG143" s="68"/>
+      <c r="AH143" s="68"/>
     </row>
     <row r="144" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
@@ -25794,7 +25798,7 @@
       <c r="AE144" s="70"/>
       <c r="AF144" s="70"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="71" t="s">
+      <c r="AH144" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -28257,118 +28261,118 @@
       <c r="AH204" s="9"/>
     </row>
     <row r="205" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="67" t="s">
+      <c r="A205" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="68"/>
-      <c r="C205" s="68"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="68"/>
-      <c r="F205" s="68"/>
-      <c r="G205" s="68"/>
-      <c r="H205" s="68"/>
-      <c r="I205" s="68"/>
-      <c r="J205" s="68"/>
-      <c r="K205" s="68"/>
-      <c r="L205" s="68"/>
-      <c r="M205" s="68"/>
-      <c r="N205" s="68"/>
-      <c r="O205" s="68"/>
-      <c r="P205" s="68"/>
-      <c r="Q205" s="68"/>
-      <c r="R205" s="68"/>
-      <c r="S205" s="68"/>
-      <c r="T205" s="68"/>
-      <c r="U205" s="68"/>
-      <c r="V205" s="68"/>
-      <c r="W205" s="68"/>
-      <c r="X205" s="68"/>
-      <c r="Y205" s="68"/>
-      <c r="Z205" s="68"/>
-      <c r="AA205" s="68"/>
-      <c r="AB205" s="68"/>
-      <c r="AC205" s="68"/>
-      <c r="AD205" s="68"/>
-      <c r="AE205" s="68"/>
-      <c r="AF205" s="68"/>
-      <c r="AG205" s="68"/>
-      <c r="AH205" s="68"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="72"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
+      <c r="G205" s="72"/>
+      <c r="H205" s="72"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="72"/>
+      <c r="L205" s="72"/>
+      <c r="M205" s="72"/>
+      <c r="N205" s="72"/>
+      <c r="O205" s="72"/>
+      <c r="P205" s="72"/>
+      <c r="Q205" s="72"/>
+      <c r="R205" s="72"/>
+      <c r="S205" s="72"/>
+      <c r="T205" s="72"/>
+      <c r="U205" s="72"/>
+      <c r="V205" s="72"/>
+      <c r="W205" s="72"/>
+      <c r="X205" s="72"/>
+      <c r="Y205" s="72"/>
+      <c r="Z205" s="72"/>
+      <c r="AA205" s="72"/>
+      <c r="AB205" s="72"/>
+      <c r="AC205" s="72"/>
+      <c r="AD205" s="72"/>
+      <c r="AE205" s="72"/>
+      <c r="AF205" s="72"/>
+      <c r="AG205" s="72"/>
+      <c r="AH205" s="72"/>
     </row>
     <row r="207" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="72" t="s">
+      <c r="A207" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B207" s="72"/>
-      <c r="C207" s="72"/>
-      <c r="D207" s="72"/>
-      <c r="E207" s="72"/>
-      <c r="F207" s="72"/>
-      <c r="G207" s="72"/>
-      <c r="H207" s="72"/>
-      <c r="I207" s="72"/>
-      <c r="J207" s="72"/>
-      <c r="K207" s="72"/>
-      <c r="L207" s="72"/>
-      <c r="M207" s="72"/>
-      <c r="N207" s="72"/>
-      <c r="O207" s="72"/>
-      <c r="P207" s="72"/>
-      <c r="Q207" s="72"/>
-      <c r="R207" s="72"/>
-      <c r="S207" s="72"/>
-      <c r="T207" s="72"/>
-      <c r="U207" s="72"/>
-      <c r="V207" s="72"/>
-      <c r="W207" s="72"/>
-      <c r="X207" s="72"/>
-      <c r="Y207" s="72"/>
-      <c r="Z207" s="72"/>
-      <c r="AA207" s="72"/>
-      <c r="AB207" s="72"/>
-      <c r="AC207" s="72"/>
-      <c r="AD207" s="72"/>
-      <c r="AE207" s="72"/>
-      <c r="AF207" s="72"/>
-      <c r="AG207" s="72"/>
-      <c r="AH207" s="72"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="67"/>
+      <c r="G207" s="67"/>
+      <c r="H207" s="67"/>
+      <c r="I207" s="67"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
+      <c r="L207" s="67"/>
+      <c r="M207" s="67"/>
+      <c r="N207" s="67"/>
+      <c r="O207" s="67"/>
+      <c r="P207" s="67"/>
+      <c r="Q207" s="67"/>
+      <c r="R207" s="67"/>
+      <c r="S207" s="67"/>
+      <c r="T207" s="67"/>
+      <c r="U207" s="67"/>
+      <c r="V207" s="67"/>
+      <c r="W207" s="67"/>
+      <c r="X207" s="67"/>
+      <c r="Y207" s="67"/>
+      <c r="Z207" s="67"/>
+      <c r="AA207" s="67"/>
+      <c r="AB207" s="67"/>
+      <c r="AC207" s="67"/>
+      <c r="AD207" s="67"/>
+      <c r="AE207" s="67"/>
+      <c r="AF207" s="67"/>
+      <c r="AG207" s="67"/>
+      <c r="AH207" s="67"/>
     </row>
     <row r="208" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="73" t="s">
+      <c r="A208" s="68" t="s">
         <v>835</v>
       </c>
-      <c r="B208" s="73"/>
-      <c r="C208" s="73"/>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
-      <c r="F208" s="73"/>
-      <c r="G208" s="73"/>
-      <c r="H208" s="73"/>
-      <c r="I208" s="73"/>
-      <c r="J208" s="73"/>
-      <c r="K208" s="73"/>
-      <c r="L208" s="73"/>
-      <c r="M208" s="73"/>
-      <c r="N208" s="73"/>
-      <c r="O208" s="73"/>
-      <c r="P208" s="73"/>
-      <c r="Q208" s="73"/>
-      <c r="R208" s="73"/>
-      <c r="S208" s="73"/>
-      <c r="T208" s="73"/>
-      <c r="U208" s="73"/>
-      <c r="V208" s="73"/>
-      <c r="W208" s="73"/>
-      <c r="X208" s="73"/>
-      <c r="Y208" s="73"/>
-      <c r="Z208" s="73"/>
-      <c r="AA208" s="73"/>
-      <c r="AB208" s="73"/>
-      <c r="AC208" s="73"/>
-      <c r="AD208" s="73"/>
-      <c r="AE208" s="73"/>
-      <c r="AF208" s="73"/>
-      <c r="AG208" s="73"/>
-      <c r="AH208" s="73"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
+      <c r="I208" s="68"/>
+      <c r="J208" s="68"/>
+      <c r="K208" s="68"/>
+      <c r="L208" s="68"/>
+      <c r="M208" s="68"/>
+      <c r="N208" s="68"/>
+      <c r="O208" s="68"/>
+      <c r="P208" s="68"/>
+      <c r="Q208" s="68"/>
+      <c r="R208" s="68"/>
+      <c r="S208" s="68"/>
+      <c r="T208" s="68"/>
+      <c r="U208" s="68"/>
+      <c r="V208" s="68"/>
+      <c r="W208" s="68"/>
+      <c r="X208" s="68"/>
+      <c r="Y208" s="68"/>
+      <c r="Z208" s="68"/>
+      <c r="AA208" s="68"/>
+      <c r="AB208" s="68"/>
+      <c r="AC208" s="68"/>
+      <c r="AD208" s="68"/>
+      <c r="AE208" s="68"/>
+      <c r="AF208" s="68"/>
+      <c r="AG208" s="68"/>
+      <c r="AH208" s="68"/>
     </row>
     <row r="209" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="70" t="s">
@@ -28416,7 +28420,7 @@
       <c r="AE209" s="70"/>
       <c r="AF209" s="70"/>
       <c r="AG209" s="70"/>
-      <c r="AH209" s="71" t="s">
+      <c r="AH209" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -29137,7 +29141,9 @@
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="52"/>
+      <c r="E226" s="53" t="s">
+        <v>1733</v>
+      </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -30109,7 +30115,9 @@
       </c>
       <c r="C250" s="53"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="52"/>
+      <c r="E250" s="53" t="s">
+        <v>1733</v>
+      </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
@@ -30345,118 +30353,118 @@
       <c r="AH255" s="9"/>
     </row>
     <row r="256" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="67" t="s">
+      <c r="A256" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B256" s="68"/>
-      <c r="C256" s="68"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
-      <c r="G256" s="68"/>
-      <c r="H256" s="68"/>
-      <c r="I256" s="68"/>
-      <c r="J256" s="68"/>
-      <c r="K256" s="68"/>
-      <c r="L256" s="68"/>
-      <c r="M256" s="68"/>
-      <c r="N256" s="68"/>
-      <c r="O256" s="68"/>
-      <c r="P256" s="68"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="68"/>
-      <c r="S256" s="68"/>
-      <c r="T256" s="68"/>
-      <c r="U256" s="68"/>
-      <c r="V256" s="68"/>
-      <c r="W256" s="68"/>
-      <c r="X256" s="68"/>
-      <c r="Y256" s="68"/>
-      <c r="Z256" s="68"/>
-      <c r="AA256" s="68"/>
-      <c r="AB256" s="68"/>
-      <c r="AC256" s="68"/>
-      <c r="AD256" s="68"/>
-      <c r="AE256" s="68"/>
-      <c r="AF256" s="68"/>
-      <c r="AG256" s="68"/>
-      <c r="AH256" s="68"/>
+      <c r="B256" s="72"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="72"/>
+      <c r="F256" s="72"/>
+      <c r="G256" s="72"/>
+      <c r="H256" s="72"/>
+      <c r="I256" s="72"/>
+      <c r="J256" s="72"/>
+      <c r="K256" s="72"/>
+      <c r="L256" s="72"/>
+      <c r="M256" s="72"/>
+      <c r="N256" s="72"/>
+      <c r="O256" s="72"/>
+      <c r="P256" s="72"/>
+      <c r="Q256" s="72"/>
+      <c r="R256" s="72"/>
+      <c r="S256" s="72"/>
+      <c r="T256" s="72"/>
+      <c r="U256" s="72"/>
+      <c r="V256" s="72"/>
+      <c r="W256" s="72"/>
+      <c r="X256" s="72"/>
+      <c r="Y256" s="72"/>
+      <c r="Z256" s="72"/>
+      <c r="AA256" s="72"/>
+      <c r="AB256" s="72"/>
+      <c r="AC256" s="72"/>
+      <c r="AD256" s="72"/>
+      <c r="AE256" s="72"/>
+      <c r="AF256" s="72"/>
+      <c r="AG256" s="72"/>
+      <c r="AH256" s="72"/>
     </row>
     <row r="258" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="72" t="s">
+      <c r="A258" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="72"/>
-      <c r="C258" s="72"/>
-      <c r="D258" s="72"/>
-      <c r="E258" s="72"/>
-      <c r="F258" s="72"/>
-      <c r="G258" s="72"/>
-      <c r="H258" s="72"/>
-      <c r="I258" s="72"/>
-      <c r="J258" s="72"/>
-      <c r="K258" s="72"/>
-      <c r="L258" s="72"/>
-      <c r="M258" s="72"/>
-      <c r="N258" s="72"/>
-      <c r="O258" s="72"/>
-      <c r="P258" s="72"/>
-      <c r="Q258" s="72"/>
-      <c r="R258" s="72"/>
-      <c r="S258" s="72"/>
-      <c r="T258" s="72"/>
-      <c r="U258" s="72"/>
-      <c r="V258" s="72"/>
-      <c r="W258" s="72"/>
-      <c r="X258" s="72"/>
-      <c r="Y258" s="72"/>
-      <c r="Z258" s="72"/>
-      <c r="AA258" s="72"/>
-      <c r="AB258" s="72"/>
-      <c r="AC258" s="72"/>
-      <c r="AD258" s="72"/>
-      <c r="AE258" s="72"/>
-      <c r="AF258" s="72"/>
-      <c r="AG258" s="72"/>
-      <c r="AH258" s="72"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="67"/>
+      <c r="F258" s="67"/>
+      <c r="G258" s="67"/>
+      <c r="H258" s="67"/>
+      <c r="I258" s="67"/>
+      <c r="J258" s="67"/>
+      <c r="K258" s="67"/>
+      <c r="L258" s="67"/>
+      <c r="M258" s="67"/>
+      <c r="N258" s="67"/>
+      <c r="O258" s="67"/>
+      <c r="P258" s="67"/>
+      <c r="Q258" s="67"/>
+      <c r="R258" s="67"/>
+      <c r="S258" s="67"/>
+      <c r="T258" s="67"/>
+      <c r="U258" s="67"/>
+      <c r="V258" s="67"/>
+      <c r="W258" s="67"/>
+      <c r="X258" s="67"/>
+      <c r="Y258" s="67"/>
+      <c r="Z258" s="67"/>
+      <c r="AA258" s="67"/>
+      <c r="AB258" s="67"/>
+      <c r="AC258" s="67"/>
+      <c r="AD258" s="67"/>
+      <c r="AE258" s="67"/>
+      <c r="AF258" s="67"/>
+      <c r="AG258" s="67"/>
+      <c r="AH258" s="67"/>
     </row>
     <row r="259" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="73" t="s">
+      <c r="A259" s="68" t="s">
         <v>925</v>
       </c>
-      <c r="B259" s="73"/>
-      <c r="C259" s="73"/>
-      <c r="D259" s="73"/>
-      <c r="E259" s="73"/>
-      <c r="F259" s="73"/>
-      <c r="G259" s="73"/>
-      <c r="H259" s="73"/>
-      <c r="I259" s="73"/>
-      <c r="J259" s="73"/>
-      <c r="K259" s="73"/>
-      <c r="L259" s="73"/>
-      <c r="M259" s="73"/>
-      <c r="N259" s="73"/>
-      <c r="O259" s="73"/>
-      <c r="P259" s="73"/>
-      <c r="Q259" s="73"/>
-      <c r="R259" s="73"/>
-      <c r="S259" s="73"/>
-      <c r="T259" s="73"/>
-      <c r="U259" s="73"/>
-      <c r="V259" s="73"/>
-      <c r="W259" s="73"/>
-      <c r="X259" s="73"/>
-      <c r="Y259" s="73"/>
-      <c r="Z259" s="73"/>
-      <c r="AA259" s="73"/>
-      <c r="AB259" s="73"/>
-      <c r="AC259" s="73"/>
-      <c r="AD259" s="73"/>
-      <c r="AE259" s="73"/>
-      <c r="AF259" s="73"/>
-      <c r="AG259" s="73"/>
-      <c r="AH259" s="73"/>
+      <c r="B259" s="68"/>
+      <c r="C259" s="68"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="68"/>
+      <c r="F259" s="68"/>
+      <c r="G259" s="68"/>
+      <c r="H259" s="68"/>
+      <c r="I259" s="68"/>
+      <c r="J259" s="68"/>
+      <c r="K259" s="68"/>
+      <c r="L259" s="68"/>
+      <c r="M259" s="68"/>
+      <c r="N259" s="68"/>
+      <c r="O259" s="68"/>
+      <c r="P259" s="68"/>
+      <c r="Q259" s="68"/>
+      <c r="R259" s="68"/>
+      <c r="S259" s="68"/>
+      <c r="T259" s="68"/>
+      <c r="U259" s="68"/>
+      <c r="V259" s="68"/>
+      <c r="W259" s="68"/>
+      <c r="X259" s="68"/>
+      <c r="Y259" s="68"/>
+      <c r="Z259" s="68"/>
+      <c r="AA259" s="68"/>
+      <c r="AB259" s="68"/>
+      <c r="AC259" s="68"/>
+      <c r="AD259" s="68"/>
+      <c r="AE259" s="68"/>
+      <c r="AF259" s="68"/>
+      <c r="AG259" s="68"/>
+      <c r="AH259" s="68"/>
     </row>
     <row r="260" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="70" t="s">
@@ -30504,7 +30512,7 @@
       <c r="AE260" s="70"/>
       <c r="AF260" s="70"/>
       <c r="AG260" s="70"/>
-      <c r="AH260" s="71" t="s">
+      <c r="AH260" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32127,118 +32135,118 @@
       <c r="AH299" s="9"/>
     </row>
     <row r="300" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="67" t="s">
+      <c r="A300" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B300" s="68"/>
-      <c r="C300" s="68"/>
-      <c r="D300" s="68"/>
-      <c r="E300" s="68"/>
-      <c r="F300" s="68"/>
-      <c r="G300" s="68"/>
-      <c r="H300" s="68"/>
-      <c r="I300" s="68"/>
-      <c r="J300" s="68"/>
-      <c r="K300" s="68"/>
-      <c r="L300" s="68"/>
-      <c r="M300" s="68"/>
-      <c r="N300" s="68"/>
-      <c r="O300" s="68"/>
-      <c r="P300" s="68"/>
-      <c r="Q300" s="68"/>
-      <c r="R300" s="68"/>
-      <c r="S300" s="68"/>
-      <c r="T300" s="68"/>
-      <c r="U300" s="68"/>
-      <c r="V300" s="68"/>
-      <c r="W300" s="68"/>
-      <c r="X300" s="68"/>
-      <c r="Y300" s="68"/>
-      <c r="Z300" s="68"/>
-      <c r="AA300" s="68"/>
-      <c r="AB300" s="68"/>
-      <c r="AC300" s="68"/>
-      <c r="AD300" s="68"/>
-      <c r="AE300" s="68"/>
-      <c r="AF300" s="68"/>
-      <c r="AG300" s="68"/>
-      <c r="AH300" s="68"/>
+      <c r="B300" s="72"/>
+      <c r="C300" s="72"/>
+      <c r="D300" s="72"/>
+      <c r="E300" s="72"/>
+      <c r="F300" s="72"/>
+      <c r="G300" s="72"/>
+      <c r="H300" s="72"/>
+      <c r="I300" s="72"/>
+      <c r="J300" s="72"/>
+      <c r="K300" s="72"/>
+      <c r="L300" s="72"/>
+      <c r="M300" s="72"/>
+      <c r="N300" s="72"/>
+      <c r="O300" s="72"/>
+      <c r="P300" s="72"/>
+      <c r="Q300" s="72"/>
+      <c r="R300" s="72"/>
+      <c r="S300" s="72"/>
+      <c r="T300" s="72"/>
+      <c r="U300" s="72"/>
+      <c r="V300" s="72"/>
+      <c r="W300" s="72"/>
+      <c r="X300" s="72"/>
+      <c r="Y300" s="72"/>
+      <c r="Z300" s="72"/>
+      <c r="AA300" s="72"/>
+      <c r="AB300" s="72"/>
+      <c r="AC300" s="72"/>
+      <c r="AD300" s="72"/>
+      <c r="AE300" s="72"/>
+      <c r="AF300" s="72"/>
+      <c r="AG300" s="72"/>
+      <c r="AH300" s="72"/>
     </row>
     <row r="301" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="72" t="s">
+      <c r="A301" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="72"/>
-      <c r="C301" s="72"/>
-      <c r="D301" s="72"/>
-      <c r="E301" s="72"/>
-      <c r="F301" s="72"/>
-      <c r="G301" s="72"/>
-      <c r="H301" s="72"/>
-      <c r="I301" s="72"/>
-      <c r="J301" s="72"/>
-      <c r="K301" s="72"/>
-      <c r="L301" s="72"/>
-      <c r="M301" s="72"/>
-      <c r="N301" s="72"/>
-      <c r="O301" s="72"/>
-      <c r="P301" s="72"/>
-      <c r="Q301" s="72"/>
-      <c r="R301" s="72"/>
-      <c r="S301" s="72"/>
-      <c r="T301" s="72"/>
-      <c r="U301" s="72"/>
-      <c r="V301" s="72"/>
-      <c r="W301" s="72"/>
-      <c r="X301" s="72"/>
-      <c r="Y301" s="72"/>
-      <c r="Z301" s="72"/>
-      <c r="AA301" s="72"/>
-      <c r="AB301" s="72"/>
-      <c r="AC301" s="72"/>
-      <c r="AD301" s="72"/>
-      <c r="AE301" s="72"/>
-      <c r="AF301" s="72"/>
-      <c r="AG301" s="72"/>
-      <c r="AH301" s="72"/>
+      <c r="B301" s="67"/>
+      <c r="C301" s="67"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
+      <c r="L301" s="67"/>
+      <c r="M301" s="67"/>
+      <c r="N301" s="67"/>
+      <c r="O301" s="67"/>
+      <c r="P301" s="67"/>
+      <c r="Q301" s="67"/>
+      <c r="R301" s="67"/>
+      <c r="S301" s="67"/>
+      <c r="T301" s="67"/>
+      <c r="U301" s="67"/>
+      <c r="V301" s="67"/>
+      <c r="W301" s="67"/>
+      <c r="X301" s="67"/>
+      <c r="Y301" s="67"/>
+      <c r="Z301" s="67"/>
+      <c r="AA301" s="67"/>
+      <c r="AB301" s="67"/>
+      <c r="AC301" s="67"/>
+      <c r="AD301" s="67"/>
+      <c r="AE301" s="67"/>
+      <c r="AF301" s="67"/>
+      <c r="AG301" s="67"/>
+      <c r="AH301" s="67"/>
     </row>
     <row r="302" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="73" t="s">
+      <c r="A302" s="68" t="s">
         <v>1001</v>
       </c>
-      <c r="B302" s="73"/>
-      <c r="C302" s="73"/>
-      <c r="D302" s="73"/>
-      <c r="E302" s="73"/>
-      <c r="F302" s="73"/>
-      <c r="G302" s="73"/>
-      <c r="H302" s="73"/>
-      <c r="I302" s="73"/>
-      <c r="J302" s="73"/>
-      <c r="K302" s="73"/>
-      <c r="L302" s="73"/>
-      <c r="M302" s="73"/>
-      <c r="N302" s="73"/>
-      <c r="O302" s="73"/>
-      <c r="P302" s="73"/>
-      <c r="Q302" s="73"/>
-      <c r="R302" s="73"/>
-      <c r="S302" s="73"/>
-      <c r="T302" s="73"/>
-      <c r="U302" s="73"/>
-      <c r="V302" s="73"/>
-      <c r="W302" s="73"/>
-      <c r="X302" s="73"/>
-      <c r="Y302" s="73"/>
-      <c r="Z302" s="73"/>
-      <c r="AA302" s="73"/>
-      <c r="AB302" s="73"/>
-      <c r="AC302" s="73"/>
-      <c r="AD302" s="73"/>
-      <c r="AE302" s="73"/>
-      <c r="AF302" s="73"/>
-      <c r="AG302" s="73"/>
-      <c r="AH302" s="73"/>
+      <c r="B302" s="68"/>
+      <c r="C302" s="68"/>
+      <c r="D302" s="68"/>
+      <c r="E302" s="68"/>
+      <c r="F302" s="68"/>
+      <c r="G302" s="68"/>
+      <c r="H302" s="68"/>
+      <c r="I302" s="68"/>
+      <c r="J302" s="68"/>
+      <c r="K302" s="68"/>
+      <c r="L302" s="68"/>
+      <c r="M302" s="68"/>
+      <c r="N302" s="68"/>
+      <c r="O302" s="68"/>
+      <c r="P302" s="68"/>
+      <c r="Q302" s="68"/>
+      <c r="R302" s="68"/>
+      <c r="S302" s="68"/>
+      <c r="T302" s="68"/>
+      <c r="U302" s="68"/>
+      <c r="V302" s="68"/>
+      <c r="W302" s="68"/>
+      <c r="X302" s="68"/>
+      <c r="Y302" s="68"/>
+      <c r="Z302" s="68"/>
+      <c r="AA302" s="68"/>
+      <c r="AB302" s="68"/>
+      <c r="AC302" s="68"/>
+      <c r="AD302" s="68"/>
+      <c r="AE302" s="68"/>
+      <c r="AF302" s="68"/>
+      <c r="AG302" s="68"/>
+      <c r="AH302" s="68"/>
     </row>
     <row r="303" spans="1:34" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="70" t="s">
@@ -32286,7 +32294,7 @@
       <c r="AE303" s="70"/>
       <c r="AF303" s="70"/>
       <c r="AG303" s="70"/>
-      <c r="AH303" s="71" t="s">
+      <c r="AH303" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -34875,42 +34883,42 @@
       <c r="AH366" s="9"/>
     </row>
     <row r="367" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="67" t="s">
+      <c r="A367" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B367" s="68"/>
-      <c r="C367" s="68"/>
-      <c r="D367" s="68"/>
-      <c r="E367" s="68"/>
-      <c r="F367" s="68"/>
-      <c r="G367" s="68"/>
-      <c r="H367" s="68"/>
-      <c r="I367" s="68"/>
-      <c r="J367" s="68"/>
-      <c r="K367" s="68"/>
-      <c r="L367" s="68"/>
-      <c r="M367" s="68"/>
-      <c r="N367" s="68"/>
-      <c r="O367" s="68"/>
-      <c r="P367" s="68"/>
-      <c r="Q367" s="68"/>
-      <c r="R367" s="68"/>
-      <c r="S367" s="68"/>
-      <c r="T367" s="68"/>
-      <c r="U367" s="68"/>
-      <c r="V367" s="68"/>
-      <c r="W367" s="68"/>
-      <c r="X367" s="68"/>
-      <c r="Y367" s="68"/>
-      <c r="Z367" s="68"/>
-      <c r="AA367" s="68"/>
-      <c r="AB367" s="68"/>
-      <c r="AC367" s="68"/>
-      <c r="AD367" s="68"/>
-      <c r="AE367" s="68"/>
-      <c r="AF367" s="68"/>
-      <c r="AG367" s="68"/>
-      <c r="AH367" s="68"/>
+      <c r="B367" s="72"/>
+      <c r="C367" s="72"/>
+      <c r="D367" s="72"/>
+      <c r="E367" s="72"/>
+      <c r="F367" s="72"/>
+      <c r="G367" s="72"/>
+      <c r="H367" s="72"/>
+      <c r="I367" s="72"/>
+      <c r="J367" s="72"/>
+      <c r="K367" s="72"/>
+      <c r="L367" s="72"/>
+      <c r="M367" s="72"/>
+      <c r="N367" s="72"/>
+      <c r="O367" s="72"/>
+      <c r="P367" s="72"/>
+      <c r="Q367" s="72"/>
+      <c r="R367" s="72"/>
+      <c r="S367" s="72"/>
+      <c r="T367" s="72"/>
+      <c r="U367" s="72"/>
+      <c r="V367" s="72"/>
+      <c r="W367" s="72"/>
+      <c r="X367" s="72"/>
+      <c r="Y367" s="72"/>
+      <c r="Z367" s="72"/>
+      <c r="AA367" s="72"/>
+      <c r="AB367" s="72"/>
+      <c r="AC367" s="72"/>
+      <c r="AD367" s="72"/>
+      <c r="AE367" s="72"/>
+      <c r="AF367" s="72"/>
+      <c r="AG367" s="72"/>
+      <c r="AH367" s="72"/>
     </row>
     <row r="368" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
@@ -34949,80 +34957,80 @@
       <c r="AH368" s="7"/>
     </row>
     <row r="369" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="72" t="s">
+      <c r="A369" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B369" s="72"/>
-      <c r="C369" s="72"/>
-      <c r="D369" s="72"/>
-      <c r="E369" s="72"/>
-      <c r="F369" s="72"/>
-      <c r="G369" s="72"/>
-      <c r="H369" s="72"/>
-      <c r="I369" s="72"/>
-      <c r="J369" s="72"/>
-      <c r="K369" s="72"/>
-      <c r="L369" s="72"/>
-      <c r="M369" s="72"/>
-      <c r="N369" s="72"/>
-      <c r="O369" s="72"/>
-      <c r="P369" s="72"/>
-      <c r="Q369" s="72"/>
-      <c r="R369" s="72"/>
-      <c r="S369" s="72"/>
-      <c r="T369" s="72"/>
-      <c r="U369" s="72"/>
-      <c r="V369" s="72"/>
-      <c r="W369" s="72"/>
-      <c r="X369" s="72"/>
-      <c r="Y369" s="72"/>
-      <c r="Z369" s="72"/>
-      <c r="AA369" s="72"/>
-      <c r="AB369" s="72"/>
-      <c r="AC369" s="72"/>
-      <c r="AD369" s="72"/>
-      <c r="AE369" s="72"/>
-      <c r="AF369" s="72"/>
-      <c r="AG369" s="72"/>
-      <c r="AH369" s="72"/>
+      <c r="B369" s="67"/>
+      <c r="C369" s="67"/>
+      <c r="D369" s="67"/>
+      <c r="E369" s="67"/>
+      <c r="F369" s="67"/>
+      <c r="G369" s="67"/>
+      <c r="H369" s="67"/>
+      <c r="I369" s="67"/>
+      <c r="J369" s="67"/>
+      <c r="K369" s="67"/>
+      <c r="L369" s="67"/>
+      <c r="M369" s="67"/>
+      <c r="N369" s="67"/>
+      <c r="O369" s="67"/>
+      <c r="P369" s="67"/>
+      <c r="Q369" s="67"/>
+      <c r="R369" s="67"/>
+      <c r="S369" s="67"/>
+      <c r="T369" s="67"/>
+      <c r="U369" s="67"/>
+      <c r="V369" s="67"/>
+      <c r="W369" s="67"/>
+      <c r="X369" s="67"/>
+      <c r="Y369" s="67"/>
+      <c r="Z369" s="67"/>
+      <c r="AA369" s="67"/>
+      <c r="AB369" s="67"/>
+      <c r="AC369" s="67"/>
+      <c r="AD369" s="67"/>
+      <c r="AE369" s="67"/>
+      <c r="AF369" s="67"/>
+      <c r="AG369" s="67"/>
+      <c r="AH369" s="67"/>
     </row>
     <row r="370" spans="1:34" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="73" t="s">
+      <c r="A370" s="68" t="s">
         <v>1126</v>
       </c>
-      <c r="B370" s="73"/>
-      <c r="C370" s="73"/>
-      <c r="D370" s="73"/>
-      <c r="E370" s="73"/>
-      <c r="F370" s="73"/>
-      <c r="G370" s="73"/>
-      <c r="H370" s="73"/>
-      <c r="I370" s="73"/>
-      <c r="J370" s="73"/>
-      <c r="K370" s="73"/>
-      <c r="L370" s="73"/>
-      <c r="M370" s="73"/>
-      <c r="N370" s="73"/>
-      <c r="O370" s="73"/>
-      <c r="P370" s="73"/>
-      <c r="Q370" s="73"/>
-      <c r="R370" s="73"/>
-      <c r="S370" s="73"/>
-      <c r="T370" s="73"/>
-      <c r="U370" s="73"/>
-      <c r="V370" s="73"/>
-      <c r="W370" s="73"/>
-      <c r="X370" s="73"/>
-      <c r="Y370" s="73"/>
-      <c r="Z370" s="73"/>
-      <c r="AA370" s="73"/>
-      <c r="AB370" s="73"/>
-      <c r="AC370" s="73"/>
-      <c r="AD370" s="73"/>
-      <c r="AE370" s="73"/>
-      <c r="AF370" s="73"/>
-      <c r="AG370" s="73"/>
-      <c r="AH370" s="73"/>
+      <c r="B370" s="68"/>
+      <c r="C370" s="68"/>
+      <c r="D370" s="68"/>
+      <c r="E370" s="68"/>
+      <c r="F370" s="68"/>
+      <c r="G370" s="68"/>
+      <c r="H370" s="68"/>
+      <c r="I370" s="68"/>
+      <c r="J370" s="68"/>
+      <c r="K370" s="68"/>
+      <c r="L370" s="68"/>
+      <c r="M370" s="68"/>
+      <c r="N370" s="68"/>
+      <c r="O370" s="68"/>
+      <c r="P370" s="68"/>
+      <c r="Q370" s="68"/>
+      <c r="R370" s="68"/>
+      <c r="S370" s="68"/>
+      <c r="T370" s="68"/>
+      <c r="U370" s="68"/>
+      <c r="V370" s="68"/>
+      <c r="W370" s="68"/>
+      <c r="X370" s="68"/>
+      <c r="Y370" s="68"/>
+      <c r="Z370" s="68"/>
+      <c r="AA370" s="68"/>
+      <c r="AB370" s="68"/>
+      <c r="AC370" s="68"/>
+      <c r="AD370" s="68"/>
+      <c r="AE370" s="68"/>
+      <c r="AF370" s="68"/>
+      <c r="AG370" s="68"/>
+      <c r="AH370" s="68"/>
     </row>
     <row r="371" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="70" t="s">
@@ -35070,7 +35078,7 @@
       <c r="AE371" s="70"/>
       <c r="AF371" s="70"/>
       <c r="AG371" s="70"/>
-      <c r="AH371" s="71" t="s">
+      <c r="AH371" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37747,99 +37755,45 @@
       <c r="AH435" s="9"/>
     </row>
     <row r="436" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="67" t="s">
+      <c r="A436" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B436" s="68"/>
-      <c r="C436" s="68"/>
-      <c r="D436" s="68"/>
-      <c r="E436" s="68"/>
-      <c r="F436" s="68"/>
-      <c r="G436" s="68"/>
-      <c r="H436" s="68"/>
-      <c r="I436" s="68"/>
-      <c r="J436" s="68"/>
-      <c r="K436" s="68"/>
-      <c r="L436" s="68"/>
-      <c r="M436" s="68"/>
-      <c r="N436" s="68"/>
-      <c r="O436" s="68"/>
-      <c r="P436" s="68"/>
-      <c r="Q436" s="68"/>
-      <c r="R436" s="68"/>
-      <c r="S436" s="68"/>
-      <c r="T436" s="68"/>
-      <c r="U436" s="68"/>
-      <c r="V436" s="68"/>
-      <c r="W436" s="68"/>
-      <c r="X436" s="68"/>
-      <c r="Y436" s="68"/>
-      <c r="Z436" s="68"/>
-      <c r="AA436" s="68"/>
-      <c r="AB436" s="68"/>
-      <c r="AC436" s="68"/>
-      <c r="AD436" s="68"/>
-      <c r="AE436" s="68"/>
-      <c r="AF436" s="68"/>
-      <c r="AG436" s="68"/>
-      <c r="AH436" s="68"/>
+      <c r="B436" s="72"/>
+      <c r="C436" s="72"/>
+      <c r="D436" s="72"/>
+      <c r="E436" s="72"/>
+      <c r="F436" s="72"/>
+      <c r="G436" s="72"/>
+      <c r="H436" s="72"/>
+      <c r="I436" s="72"/>
+      <c r="J436" s="72"/>
+      <c r="K436" s="72"/>
+      <c r="L436" s="72"/>
+      <c r="M436" s="72"/>
+      <c r="N436" s="72"/>
+      <c r="O436" s="72"/>
+      <c r="P436" s="72"/>
+      <c r="Q436" s="72"/>
+      <c r="R436" s="72"/>
+      <c r="S436" s="72"/>
+      <c r="T436" s="72"/>
+      <c r="U436" s="72"/>
+      <c r="V436" s="72"/>
+      <c r="W436" s="72"/>
+      <c r="X436" s="72"/>
+      <c r="Y436" s="72"/>
+      <c r="Z436" s="72"/>
+      <c r="AA436" s="72"/>
+      <c r="AB436" s="72"/>
+      <c r="AC436" s="72"/>
+      <c r="AD436" s="72"/>
+      <c r="AE436" s="72"/>
+      <c r="AF436" s="72"/>
+      <c r="AG436" s="72"/>
+      <c r="AH436" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A74:AH74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AC75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AH75:AH76"/>
-    <mergeCell ref="A141:AH141"/>
-    <mergeCell ref="A142:AH142"/>
-    <mergeCell ref="A143:AH143"/>
-    <mergeCell ref="C144:K144"/>
-    <mergeCell ref="L144:T144"/>
-    <mergeCell ref="U144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AH144:AH145"/>
-    <mergeCell ref="A205:AH205"/>
-    <mergeCell ref="A207:AH207"/>
-    <mergeCell ref="A208:AH208"/>
-    <mergeCell ref="C209:K209"/>
-    <mergeCell ref="L209:T209"/>
-    <mergeCell ref="U209:AC209"/>
-    <mergeCell ref="AD209:AG209"/>
-    <mergeCell ref="AH209:AH210"/>
-    <mergeCell ref="A256:AH256"/>
-    <mergeCell ref="A258:AH258"/>
-    <mergeCell ref="A259:AH259"/>
-    <mergeCell ref="C260:K260"/>
-    <mergeCell ref="L260:T260"/>
-    <mergeCell ref="U260:AC260"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AH260:AH261"/>
-    <mergeCell ref="A300:AH300"/>
-    <mergeCell ref="A301:AH301"/>
-    <mergeCell ref="A302:AH302"/>
-    <mergeCell ref="C303:K303"/>
-    <mergeCell ref="L303:T303"/>
-    <mergeCell ref="U303:AC303"/>
-    <mergeCell ref="AD303:AG303"/>
-    <mergeCell ref="AH303:AH304"/>
-    <mergeCell ref="A367:AH367"/>
-    <mergeCell ref="A369:AH369"/>
-    <mergeCell ref="A370:AH370"/>
-    <mergeCell ref="C371:K371"/>
-    <mergeCell ref="L371:T371"/>
-    <mergeCell ref="U371:AC371"/>
-    <mergeCell ref="AD371:AG371"/>
-    <mergeCell ref="AH371:AH372"/>
     <mergeCell ref="A436:AH436"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A75:A76"/>
@@ -37856,6 +37810,60 @@
     <mergeCell ref="B303:B304"/>
     <mergeCell ref="B371:B372"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A367:AH367"/>
+    <mergeCell ref="A369:AH369"/>
+    <mergeCell ref="A370:AH370"/>
+    <mergeCell ref="C371:K371"/>
+    <mergeCell ref="L371:T371"/>
+    <mergeCell ref="U371:AC371"/>
+    <mergeCell ref="AD371:AG371"/>
+    <mergeCell ref="AH371:AH372"/>
+    <mergeCell ref="A300:AH300"/>
+    <mergeCell ref="A301:AH301"/>
+    <mergeCell ref="A302:AH302"/>
+    <mergeCell ref="C303:K303"/>
+    <mergeCell ref="L303:T303"/>
+    <mergeCell ref="U303:AC303"/>
+    <mergeCell ref="AD303:AG303"/>
+    <mergeCell ref="AH303:AH304"/>
+    <mergeCell ref="A256:AH256"/>
+    <mergeCell ref="A258:AH258"/>
+    <mergeCell ref="A259:AH259"/>
+    <mergeCell ref="C260:K260"/>
+    <mergeCell ref="L260:T260"/>
+    <mergeCell ref="U260:AC260"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AH260:AH261"/>
+    <mergeCell ref="A205:AH205"/>
+    <mergeCell ref="A207:AH207"/>
+    <mergeCell ref="A208:AH208"/>
+    <mergeCell ref="C209:K209"/>
+    <mergeCell ref="L209:T209"/>
+    <mergeCell ref="U209:AC209"/>
+    <mergeCell ref="AD209:AG209"/>
+    <mergeCell ref="AH209:AH210"/>
+    <mergeCell ref="A141:AH141"/>
+    <mergeCell ref="A142:AH142"/>
+    <mergeCell ref="A143:AH143"/>
+    <mergeCell ref="C144:K144"/>
+    <mergeCell ref="L144:T144"/>
+    <mergeCell ref="U144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AH144:AH145"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A74:AH74"/>
+    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AC75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AH75:AH76"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -37889,80 +37897,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1253</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
@@ -38010,7 +38018,7 @@
       <c r="AE3" s="70"/>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AH3" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -38713,118 +38721,118 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
     </row>
     <row r="22" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
     </row>
     <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="68" t="s">
         <v>1284</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
     </row>
     <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
@@ -38872,7 +38880,7 @@
       <c r="AE24" s="70"/>
       <c r="AF24" s="70"/>
       <c r="AG24" s="70"/>
-      <c r="AH24" s="71" t="s">
+      <c r="AH24" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -39455,118 +39463,118 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
     </row>
     <row r="40" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
     </row>
     <row r="41" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="68" t="s">
         <v>1309</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
     </row>
     <row r="42" spans="1:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
@@ -39614,7 +39622,7 @@
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
-      <c r="AH42" s="71" t="s">
+      <c r="AH42" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -40477,118 +40485,118 @@
       <c r="AH62" s="3"/>
     </row>
     <row r="63" spans="1:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="68"/>
-      <c r="AB63" s="68"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
-      <c r="AE63" s="68"/>
-      <c r="AF63" s="68"/>
-      <c r="AG63" s="68"/>
-      <c r="AH63" s="68"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
+      <c r="V63" s="72"/>
+      <c r="W63" s="72"/>
+      <c r="X63" s="72"/>
+      <c r="Y63" s="72"/>
+      <c r="Z63" s="72"/>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="72"/>
+      <c r="AF63" s="72"/>
+      <c r="AG63" s="72"/>
+      <c r="AH63" s="72"/>
     </row>
     <row r="64" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="72"/>
-      <c r="Y64" s="72"/>
-      <c r="Z64" s="72"/>
-      <c r="AA64" s="72"/>
-      <c r="AB64" s="72"/>
-      <c r="AC64" s="72"/>
-      <c r="AD64" s="72"/>
-      <c r="AE64" s="72"/>
-      <c r="AF64" s="72"/>
-      <c r="AG64" s="72"/>
-      <c r="AH64" s="72"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
+      <c r="Y64" s="67"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="67"/>
+      <c r="AD64" s="67"/>
+      <c r="AE64" s="67"/>
+      <c r="AF64" s="67"/>
+      <c r="AG64" s="67"/>
+      <c r="AH64" s="67"/>
     </row>
     <row r="65" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="68" t="s">
         <v>1347</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="73"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="73"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
-      <c r="Z65" s="73"/>
-      <c r="AA65" s="73"/>
-      <c r="AB65" s="73"/>
-      <c r="AC65" s="73"/>
-      <c r="AD65" s="73"/>
-      <c r="AE65" s="73"/>
-      <c r="AF65" s="73"/>
-      <c r="AG65" s="73"/>
-      <c r="AH65" s="73"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+      <c r="Z65" s="68"/>
+      <c r="AA65" s="68"/>
+      <c r="AB65" s="68"/>
+      <c r="AC65" s="68"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
+      <c r="AF65" s="68"/>
+      <c r="AG65" s="68"/>
+      <c r="AH65" s="68"/>
     </row>
     <row r="66" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
@@ -40636,7 +40644,7 @@
       <c r="AE66" s="70"/>
       <c r="AF66" s="70"/>
       <c r="AG66" s="70"/>
-      <c r="AH66" s="71" t="s">
+      <c r="AH66" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -42459,118 +42467,118 @@
       <c r="AH110" s="3"/>
     </row>
     <row r="111" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="67" t="s">
+      <c r="A111" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68"/>
-      <c r="L111" s="68"/>
-      <c r="M111" s="68"/>
-      <c r="N111" s="68"/>
-      <c r="O111" s="68"/>
-      <c r="P111" s="68"/>
-      <c r="Q111" s="68"/>
-      <c r="R111" s="68"/>
-      <c r="S111" s="68"/>
-      <c r="T111" s="68"/>
-      <c r="U111" s="68"/>
-      <c r="V111" s="68"/>
-      <c r="W111" s="68"/>
-      <c r="X111" s="68"/>
-      <c r="Y111" s="68"/>
-      <c r="Z111" s="68"/>
-      <c r="AA111" s="68"/>
-      <c r="AB111" s="68"/>
-      <c r="AC111" s="68"/>
-      <c r="AD111" s="68"/>
-      <c r="AE111" s="68"/>
-      <c r="AF111" s="68"/>
-      <c r="AG111" s="68"/>
-      <c r="AH111" s="68"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="72"/>
+      <c r="O111" s="72"/>
+      <c r="P111" s="72"/>
+      <c r="Q111" s="72"/>
+      <c r="R111" s="72"/>
+      <c r="S111" s="72"/>
+      <c r="T111" s="72"/>
+      <c r="U111" s="72"/>
+      <c r="V111" s="72"/>
+      <c r="W111" s="72"/>
+      <c r="X111" s="72"/>
+      <c r="Y111" s="72"/>
+      <c r="Z111" s="72"/>
+      <c r="AA111" s="72"/>
+      <c r="AB111" s="72"/>
+      <c r="AC111" s="72"/>
+      <c r="AD111" s="72"/>
+      <c r="AE111" s="72"/>
+      <c r="AF111" s="72"/>
+      <c r="AG111" s="72"/>
+      <c r="AH111" s="72"/>
     </row>
     <row r="113" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="72" t="s">
+      <c r="A113" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
-      <c r="K113" s="72"/>
-      <c r="L113" s="72"/>
-      <c r="M113" s="72"/>
-      <c r="N113" s="72"/>
-      <c r="O113" s="72"/>
-      <c r="P113" s="72"/>
-      <c r="Q113" s="72"/>
-      <c r="R113" s="72"/>
-      <c r="S113" s="72"/>
-      <c r="T113" s="72"/>
-      <c r="U113" s="72"/>
-      <c r="V113" s="72"/>
-      <c r="W113" s="72"/>
-      <c r="X113" s="72"/>
-      <c r="Y113" s="72"/>
-      <c r="Z113" s="72"/>
-      <c r="AA113" s="72"/>
-      <c r="AB113" s="72"/>
-      <c r="AC113" s="72"/>
-      <c r="AD113" s="72"/>
-      <c r="AE113" s="72"/>
-      <c r="AF113" s="72"/>
-      <c r="AG113" s="72"/>
-      <c r="AH113" s="72"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="67"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="67"/>
+      <c r="R113" s="67"/>
+      <c r="S113" s="67"/>
+      <c r="T113" s="67"/>
+      <c r="U113" s="67"/>
+      <c r="V113" s="67"/>
+      <c r="W113" s="67"/>
+      <c r="X113" s="67"/>
+      <c r="Y113" s="67"/>
+      <c r="Z113" s="67"/>
+      <c r="AA113" s="67"/>
+      <c r="AB113" s="67"/>
+      <c r="AC113" s="67"/>
+      <c r="AD113" s="67"/>
+      <c r="AE113" s="67"/>
+      <c r="AF113" s="67"/>
+      <c r="AG113" s="67"/>
+      <c r="AH113" s="67"/>
     </row>
     <row r="114" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="68" t="s">
         <v>1433</v>
       </c>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
-      <c r="H114" s="73"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="73"/>
-      <c r="N114" s="73"/>
-      <c r="O114" s="73"/>
-      <c r="P114" s="73"/>
-      <c r="Q114" s="73"/>
-      <c r="R114" s="73"/>
-      <c r="S114" s="73"/>
-      <c r="T114" s="73"/>
-      <c r="U114" s="73"/>
-      <c r="V114" s="73"/>
-      <c r="W114" s="73"/>
-      <c r="X114" s="73"/>
-      <c r="Y114" s="73"/>
-      <c r="Z114" s="73"/>
-      <c r="AA114" s="73"/>
-      <c r="AB114" s="73"/>
-      <c r="AC114" s="73"/>
-      <c r="AD114" s="73"/>
-      <c r="AE114" s="73"/>
-      <c r="AF114" s="73"/>
-      <c r="AG114" s="73"/>
-      <c r="AH114" s="73"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="68"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="68"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="68"/>
+      <c r="S114" s="68"/>
+      <c r="T114" s="68"/>
+      <c r="U114" s="68"/>
+      <c r="V114" s="68"/>
+      <c r="W114" s="68"/>
+      <c r="X114" s="68"/>
+      <c r="Y114" s="68"/>
+      <c r="Z114" s="68"/>
+      <c r="AA114" s="68"/>
+      <c r="AB114" s="68"/>
+      <c r="AC114" s="68"/>
+      <c r="AD114" s="68"/>
+      <c r="AE114" s="68"/>
+      <c r="AF114" s="68"/>
+      <c r="AG114" s="68"/>
+      <c r="AH114" s="68"/>
     </row>
     <row r="115" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
@@ -42618,7 +42626,7 @@
       <c r="AE115" s="70"/>
       <c r="AF115" s="70"/>
       <c r="AG115" s="70"/>
-      <c r="AH115" s="71" t="s">
+      <c r="AH115" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44441,118 +44449,118 @@
       <c r="AH159" s="3"/>
     </row>
     <row r="160" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="67" t="s">
+      <c r="A160" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="68"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="68"/>
-      <c r="L160" s="68"/>
-      <c r="M160" s="68"/>
-      <c r="N160" s="68"/>
-      <c r="O160" s="68"/>
-      <c r="P160" s="68"/>
-      <c r="Q160" s="68"/>
-      <c r="R160" s="68"/>
-      <c r="S160" s="68"/>
-      <c r="T160" s="68"/>
-      <c r="U160" s="68"/>
-      <c r="V160" s="68"/>
-      <c r="W160" s="68"/>
-      <c r="X160" s="68"/>
-      <c r="Y160" s="68"/>
-      <c r="Z160" s="68"/>
-      <c r="AA160" s="68"/>
-      <c r="AB160" s="68"/>
-      <c r="AC160" s="68"/>
-      <c r="AD160" s="68"/>
-      <c r="AE160" s="68"/>
-      <c r="AF160" s="68"/>
-      <c r="AG160" s="68"/>
-      <c r="AH160" s="68"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
+      <c r="K160" s="72"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="72"/>
+      <c r="N160" s="72"/>
+      <c r="O160" s="72"/>
+      <c r="P160" s="72"/>
+      <c r="Q160" s="72"/>
+      <c r="R160" s="72"/>
+      <c r="S160" s="72"/>
+      <c r="T160" s="72"/>
+      <c r="U160" s="72"/>
+      <c r="V160" s="72"/>
+      <c r="W160" s="72"/>
+      <c r="X160" s="72"/>
+      <c r="Y160" s="72"/>
+      <c r="Z160" s="72"/>
+      <c r="AA160" s="72"/>
+      <c r="AB160" s="72"/>
+      <c r="AC160" s="72"/>
+      <c r="AD160" s="72"/>
+      <c r="AE160" s="72"/>
+      <c r="AF160" s="72"/>
+      <c r="AG160" s="72"/>
+      <c r="AH160" s="72"/>
     </row>
     <row r="162" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="72" t="s">
+      <c r="A162" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="72"/>
-      <c r="C162" s="72"/>
-      <c r="D162" s="72"/>
-      <c r="E162" s="72"/>
-      <c r="F162" s="72"/>
-      <c r="G162" s="72"/>
-      <c r="H162" s="72"/>
-      <c r="I162" s="72"/>
-      <c r="J162" s="72"/>
-      <c r="K162" s="72"/>
-      <c r="L162" s="72"/>
-      <c r="M162" s="72"/>
-      <c r="N162" s="72"/>
-      <c r="O162" s="72"/>
-      <c r="P162" s="72"/>
-      <c r="Q162" s="72"/>
-      <c r="R162" s="72"/>
-      <c r="S162" s="72"/>
-      <c r="T162" s="72"/>
-      <c r="U162" s="72"/>
-      <c r="V162" s="72"/>
-      <c r="W162" s="72"/>
-      <c r="X162" s="72"/>
-      <c r="Y162" s="72"/>
-      <c r="Z162" s="72"/>
-      <c r="AA162" s="72"/>
-      <c r="AB162" s="72"/>
-      <c r="AC162" s="72"/>
-      <c r="AD162" s="72"/>
-      <c r="AE162" s="72"/>
-      <c r="AF162" s="72"/>
-      <c r="AG162" s="72"/>
-      <c r="AH162" s="72"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="67"/>
+      <c r="K162" s="67"/>
+      <c r="L162" s="67"/>
+      <c r="M162" s="67"/>
+      <c r="N162" s="67"/>
+      <c r="O162" s="67"/>
+      <c r="P162" s="67"/>
+      <c r="Q162" s="67"/>
+      <c r="R162" s="67"/>
+      <c r="S162" s="67"/>
+      <c r="T162" s="67"/>
+      <c r="U162" s="67"/>
+      <c r="V162" s="67"/>
+      <c r="W162" s="67"/>
+      <c r="X162" s="67"/>
+      <c r="Y162" s="67"/>
+      <c r="Z162" s="67"/>
+      <c r="AA162" s="67"/>
+      <c r="AB162" s="67"/>
+      <c r="AC162" s="67"/>
+      <c r="AD162" s="67"/>
+      <c r="AE162" s="67"/>
+      <c r="AF162" s="67"/>
+      <c r="AG162" s="67"/>
+      <c r="AH162" s="67"/>
     </row>
     <row r="163" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="73" t="s">
+      <c r="A163" s="68" t="s">
         <v>1520</v>
       </c>
-      <c r="B163" s="73"/>
-      <c r="C163" s="73"/>
-      <c r="D163" s="73"/>
-      <c r="E163" s="73"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
-      <c r="K163" s="73"/>
-      <c r="L163" s="73"/>
-      <c r="M163" s="73"/>
-      <c r="N163" s="73"/>
-      <c r="O163" s="73"/>
-      <c r="P163" s="73"/>
-      <c r="Q163" s="73"/>
-      <c r="R163" s="73"/>
-      <c r="S163" s="73"/>
-      <c r="T163" s="73"/>
-      <c r="U163" s="73"/>
-      <c r="V163" s="73"/>
-      <c r="W163" s="73"/>
-      <c r="X163" s="73"/>
-      <c r="Y163" s="73"/>
-      <c r="Z163" s="73"/>
-      <c r="AA163" s="73"/>
-      <c r="AB163" s="73"/>
-      <c r="AC163" s="73"/>
-      <c r="AD163" s="73"/>
-      <c r="AE163" s="73"/>
-      <c r="AF163" s="73"/>
-      <c r="AG163" s="73"/>
-      <c r="AH163" s="73"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="68"/>
+      <c r="I163" s="68"/>
+      <c r="J163" s="68"/>
+      <c r="K163" s="68"/>
+      <c r="L163" s="68"/>
+      <c r="M163" s="68"/>
+      <c r="N163" s="68"/>
+      <c r="O163" s="68"/>
+      <c r="P163" s="68"/>
+      <c r="Q163" s="68"/>
+      <c r="R163" s="68"/>
+      <c r="S163" s="68"/>
+      <c r="T163" s="68"/>
+      <c r="U163" s="68"/>
+      <c r="V163" s="68"/>
+      <c r="W163" s="68"/>
+      <c r="X163" s="68"/>
+      <c r="Y163" s="68"/>
+      <c r="Z163" s="68"/>
+      <c r="AA163" s="68"/>
+      <c r="AB163" s="68"/>
+      <c r="AC163" s="68"/>
+      <c r="AD163" s="68"/>
+      <c r="AE163" s="68"/>
+      <c r="AF163" s="68"/>
+      <c r="AG163" s="68"/>
+      <c r="AH163" s="68"/>
     </row>
     <row r="164" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="70" t="s">
@@ -44600,7 +44608,7 @@
       <c r="AE164" s="70"/>
       <c r="AF164" s="70"/>
       <c r="AG164" s="70"/>
-      <c r="AH164" s="71" t="s">
+      <c r="AH164" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -46423,118 +46431,118 @@
       <c r="AH208" s="9"/>
     </row>
     <row r="209" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="67" t="s">
+      <c r="A209" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B209" s="68"/>
-      <c r="C209" s="68"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="68"/>
-      <c r="G209" s="68"/>
-      <c r="H209" s="68"/>
-      <c r="I209" s="68"/>
-      <c r="J209" s="68"/>
-      <c r="K209" s="68"/>
-      <c r="L209" s="68"/>
-      <c r="M209" s="68"/>
-      <c r="N209" s="68"/>
-      <c r="O209" s="68"/>
-      <c r="P209" s="68"/>
-      <c r="Q209" s="68"/>
-      <c r="R209" s="68"/>
-      <c r="S209" s="68"/>
-      <c r="T209" s="68"/>
-      <c r="U209" s="68"/>
-      <c r="V209" s="68"/>
-      <c r="W209" s="68"/>
-      <c r="X209" s="68"/>
-      <c r="Y209" s="68"/>
-      <c r="Z209" s="68"/>
-      <c r="AA209" s="68"/>
-      <c r="AB209" s="68"/>
-      <c r="AC209" s="68"/>
-      <c r="AD209" s="68"/>
-      <c r="AE209" s="68"/>
-      <c r="AF209" s="68"/>
-      <c r="AG209" s="68"/>
-      <c r="AH209" s="68"/>
+      <c r="B209" s="72"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
+      <c r="F209" s="72"/>
+      <c r="G209" s="72"/>
+      <c r="H209" s="72"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="72"/>
+      <c r="L209" s="72"/>
+      <c r="M209" s="72"/>
+      <c r="N209" s="72"/>
+      <c r="O209" s="72"/>
+      <c r="P209" s="72"/>
+      <c r="Q209" s="72"/>
+      <c r="R209" s="72"/>
+      <c r="S209" s="72"/>
+      <c r="T209" s="72"/>
+      <c r="U209" s="72"/>
+      <c r="V209" s="72"/>
+      <c r="W209" s="72"/>
+      <c r="X209" s="72"/>
+      <c r="Y209" s="72"/>
+      <c r="Z209" s="72"/>
+      <c r="AA209" s="72"/>
+      <c r="AB209" s="72"/>
+      <c r="AC209" s="72"/>
+      <c r="AD209" s="72"/>
+      <c r="AE209" s="72"/>
+      <c r="AF209" s="72"/>
+      <c r="AG209" s="72"/>
+      <c r="AH209" s="72"/>
     </row>
     <row r="211" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="72" t="s">
+      <c r="A211" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="72"/>
-      <c r="L211" s="72"/>
-      <c r="M211" s="72"/>
-      <c r="N211" s="72"/>
-      <c r="O211" s="72"/>
-      <c r="P211" s="72"/>
-      <c r="Q211" s="72"/>
-      <c r="R211" s="72"/>
-      <c r="S211" s="72"/>
-      <c r="T211" s="72"/>
-      <c r="U211" s="72"/>
-      <c r="V211" s="72"/>
-      <c r="W211" s="72"/>
-      <c r="X211" s="72"/>
-      <c r="Y211" s="72"/>
-      <c r="Z211" s="72"/>
-      <c r="AA211" s="72"/>
-      <c r="AB211" s="72"/>
-      <c r="AC211" s="72"/>
-      <c r="AD211" s="72"/>
-      <c r="AE211" s="72"/>
-      <c r="AF211" s="72"/>
-      <c r="AG211" s="72"/>
-      <c r="AH211" s="72"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
+      <c r="F211" s="67"/>
+      <c r="G211" s="67"/>
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="67"/>
+      <c r="M211" s="67"/>
+      <c r="N211" s="67"/>
+      <c r="O211" s="67"/>
+      <c r="P211" s="67"/>
+      <c r="Q211" s="67"/>
+      <c r="R211" s="67"/>
+      <c r="S211" s="67"/>
+      <c r="T211" s="67"/>
+      <c r="U211" s="67"/>
+      <c r="V211" s="67"/>
+      <c r="W211" s="67"/>
+      <c r="X211" s="67"/>
+      <c r="Y211" s="67"/>
+      <c r="Z211" s="67"/>
+      <c r="AA211" s="67"/>
+      <c r="AB211" s="67"/>
+      <c r="AC211" s="67"/>
+      <c r="AD211" s="67"/>
+      <c r="AE211" s="67"/>
+      <c r="AF211" s="67"/>
+      <c r="AG211" s="67"/>
+      <c r="AH211" s="67"/>
     </row>
     <row r="212" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="73" t="s">
+      <c r="A212" s="68" t="s">
         <v>1607</v>
       </c>
-      <c r="B212" s="73"/>
-      <c r="C212" s="73"/>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
-      <c r="F212" s="73"/>
-      <c r="G212" s="73"/>
-      <c r="H212" s="73"/>
-      <c r="I212" s="73"/>
-      <c r="J212" s="73"/>
-      <c r="K212" s="73"/>
-      <c r="L212" s="73"/>
-      <c r="M212" s="73"/>
-      <c r="N212" s="73"/>
-      <c r="O212" s="73"/>
-      <c r="P212" s="73"/>
-      <c r="Q212" s="73"/>
-      <c r="R212" s="73"/>
-      <c r="S212" s="73"/>
-      <c r="T212" s="73"/>
-      <c r="U212" s="73"/>
-      <c r="V212" s="73"/>
-      <c r="W212" s="73"/>
-      <c r="X212" s="73"/>
-      <c r="Y212" s="73"/>
-      <c r="Z212" s="73"/>
-      <c r="AA212" s="73"/>
-      <c r="AB212" s="73"/>
-      <c r="AC212" s="73"/>
-      <c r="AD212" s="73"/>
-      <c r="AE212" s="73"/>
-      <c r="AF212" s="73"/>
-      <c r="AG212" s="73"/>
-      <c r="AH212" s="73"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="68"/>
+      <c r="I212" s="68"/>
+      <c r="J212" s="68"/>
+      <c r="K212" s="68"/>
+      <c r="L212" s="68"/>
+      <c r="M212" s="68"/>
+      <c r="N212" s="68"/>
+      <c r="O212" s="68"/>
+      <c r="P212" s="68"/>
+      <c r="Q212" s="68"/>
+      <c r="R212" s="68"/>
+      <c r="S212" s="68"/>
+      <c r="T212" s="68"/>
+      <c r="U212" s="68"/>
+      <c r="V212" s="68"/>
+      <c r="W212" s="68"/>
+      <c r="X212" s="68"/>
+      <c r="Y212" s="68"/>
+      <c r="Z212" s="68"/>
+      <c r="AA212" s="68"/>
+      <c r="AB212" s="68"/>
+      <c r="AC212" s="68"/>
+      <c r="AD212" s="68"/>
+      <c r="AE212" s="68"/>
+      <c r="AF212" s="68"/>
+      <c r="AG212" s="68"/>
+      <c r="AH212" s="68"/>
     </row>
     <row r="213" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="70" t="s">
@@ -46582,7 +46590,7 @@
       <c r="AE213" s="70"/>
       <c r="AF213" s="70"/>
       <c r="AG213" s="70"/>
-      <c r="AH213" s="71" t="s">
+      <c r="AH213" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -48485,99 +48493,45 @@
       <c r="AH259" s="9"/>
     </row>
     <row r="260" spans="1:34" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="67" t="s">
+      <c r="A260" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B260" s="68"/>
-      <c r="C260" s="68"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="68"/>
-      <c r="F260" s="68"/>
-      <c r="G260" s="68"/>
-      <c r="H260" s="68"/>
-      <c r="I260" s="68"/>
-      <c r="J260" s="68"/>
-      <c r="K260" s="68"/>
-      <c r="L260" s="68"/>
-      <c r="M260" s="68"/>
-      <c r="N260" s="68"/>
-      <c r="O260" s="68"/>
-      <c r="P260" s="68"/>
-      <c r="Q260" s="68"/>
-      <c r="R260" s="68"/>
-      <c r="S260" s="68"/>
-      <c r="T260" s="68"/>
-      <c r="U260" s="68"/>
-      <c r="V260" s="68"/>
-      <c r="W260" s="68"/>
-      <c r="X260" s="68"/>
-      <c r="Y260" s="68"/>
-      <c r="Z260" s="68"/>
-      <c r="AA260" s="68"/>
-      <c r="AB260" s="68"/>
-      <c r="AC260" s="68"/>
-      <c r="AD260" s="68"/>
-      <c r="AE260" s="68"/>
-      <c r="AF260" s="68"/>
-      <c r="AG260" s="68"/>
-      <c r="AH260" s="68"/>
+      <c r="B260" s="72"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="72"/>
+      <c r="E260" s="72"/>
+      <c r="F260" s="72"/>
+      <c r="G260" s="72"/>
+      <c r="H260" s="72"/>
+      <c r="I260" s="72"/>
+      <c r="J260" s="72"/>
+      <c r="K260" s="72"/>
+      <c r="L260" s="72"/>
+      <c r="M260" s="72"/>
+      <c r="N260" s="72"/>
+      <c r="O260" s="72"/>
+      <c r="P260" s="72"/>
+      <c r="Q260" s="72"/>
+      <c r="R260" s="72"/>
+      <c r="S260" s="72"/>
+      <c r="T260" s="72"/>
+      <c r="U260" s="72"/>
+      <c r="V260" s="72"/>
+      <c r="W260" s="72"/>
+      <c r="X260" s="72"/>
+      <c r="Y260" s="72"/>
+      <c r="Z260" s="72"/>
+      <c r="AA260" s="72"/>
+      <c r="AB260" s="72"/>
+      <c r="AC260" s="72"/>
+      <c r="AD260" s="72"/>
+      <c r="AE260" s="72"/>
+      <c r="AF260" s="72"/>
+      <c r="AG260" s="72"/>
+      <c r="AH260" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A20:AH20"/>
-    <mergeCell ref="A22:AH22"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="A38:AH38"/>
-    <mergeCell ref="A40:AH40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="AD42:AG42"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="A63:AH63"/>
-    <mergeCell ref="A64:AH64"/>
-    <mergeCell ref="A65:AH65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AH67"/>
-    <mergeCell ref="A111:AH111"/>
-    <mergeCell ref="A113:AH113"/>
-    <mergeCell ref="A114:AH114"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:T115"/>
-    <mergeCell ref="U115:AC115"/>
-    <mergeCell ref="AD115:AG115"/>
-    <mergeCell ref="AH115:AH116"/>
-    <mergeCell ref="A160:AH160"/>
-    <mergeCell ref="A162:AH162"/>
-    <mergeCell ref="A163:AH163"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="L164:T164"/>
-    <mergeCell ref="U164:AC164"/>
-    <mergeCell ref="AD164:AG164"/>
-    <mergeCell ref="AH164:AH165"/>
-    <mergeCell ref="A209:AH209"/>
-    <mergeCell ref="A211:AH211"/>
-    <mergeCell ref="A212:AH212"/>
-    <mergeCell ref="C213:K213"/>
-    <mergeCell ref="L213:T213"/>
-    <mergeCell ref="U213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AH214"/>
     <mergeCell ref="A260:AH260"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A24:A25"/>
@@ -48594,6 +48548,60 @@
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A209:AH209"/>
+    <mergeCell ref="A211:AH211"/>
+    <mergeCell ref="A212:AH212"/>
+    <mergeCell ref="C213:K213"/>
+    <mergeCell ref="L213:T213"/>
+    <mergeCell ref="U213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AH214"/>
+    <mergeCell ref="A160:AH160"/>
+    <mergeCell ref="A162:AH162"/>
+    <mergeCell ref="A163:AH163"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="L164:T164"/>
+    <mergeCell ref="U164:AC164"/>
+    <mergeCell ref="AD164:AG164"/>
+    <mergeCell ref="AH164:AH165"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A113:AH113"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:T115"/>
+    <mergeCell ref="U115:AC115"/>
+    <mergeCell ref="AD115:AG115"/>
+    <mergeCell ref="AH115:AH116"/>
+    <mergeCell ref="A63:AH63"/>
+    <mergeCell ref="A64:AH64"/>
+    <mergeCell ref="A65:AH65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="A38:AH38"/>
+    <mergeCell ref="A40:AH40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="A20:AH20"/>
+    <mergeCell ref="A22:AH22"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
